--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.28096</v>
+                  <v>0.0758843</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.275285</v>
+                  <v>0.0735374</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.260227</v>
+                  <v>0.0747241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.249344</v>
+                  <v>0.0728557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.236975</v>
+                  <v>0.0725507</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.225674</v>
+                  <v>0.0714322</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.210202</v>
+                  <v>0.0708246</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.194356</v>
+                  <v>0.0693053</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.334027</v>
+                  <v>0.124614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.329254</v>
+                  <v>0.123047</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.323249</v>
+                  <v>0.122218</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.318197</v>
+                  <v>0.118435</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.311484</v>
+                  <v>0.116689</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.301987</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.293769</v>
+                  <v>0.109993</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.283186</v>
+                  <v>0.107112</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.274789</v>
+                  <v>0.105066</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.264307</v>
+                  <v>0.09945279999999999</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.253335</v>
+                  <v>0.096415</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.240375</v>
+                  <v>0.095169</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.225843</v>
+                  <v>0.0909674</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.209111</v>
+                  <v>0.0868884</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.347854</v>
+                  <v>0.151432</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.342351</v>
+                  <v>0.147713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.335171</v>
+                  <v>0.144473</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.3287</v>
+                  <v>0.139768</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.321793</v>
+                  <v>0.136365</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.313509</v>
+                  <v>0.132397</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.304099</v>
+                  <v>0.128003</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294429</v>
+                  <v>0.123668</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.283902</v>
+                  <v>0.11902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.273734</v>
+                  <v>0.114459</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.261908</v>
+                  <v>0.110177</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.247935</v>
+                  <v>0.105099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.234331</v>
+                  <v>0.100138</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.21972</v>
+                  <v>0.0948865</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.351019</v>
+                  <v>0.159129</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.347109</v>
+                  <v>0.155682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.341148</v>
+                  <v>0.151681</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.334155</v>
+                  <v>0.147442</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.326696</v>
+                  <v>0.142735</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.319361</v>
+                  <v>0.138002</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.310476</v>
+                  <v>0.13371</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.301515</v>
+                  <v>0.128795</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.290456</v>
+                  <v>0.124254</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.279872</v>
+                  <v>0.119526</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.268143</v>
+                  <v>0.114363</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.255679</v>
+                  <v>0.109704</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241931</v>
+                  <v>0.104862</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.2267</v>
+                  <v>0.09999089999999999</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.209666</v>
+                  <v>0.0946162</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.349707</v>
+                  <v>0.15835</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.344393</v>
+                  <v>0.15497</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.338195</v>
+                  <v>0.150224</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.330917</v>
+                  <v>0.146313</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.3224</v>
+                  <v>0.141574</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.313751</v>
+                  <v>0.136479</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.304247</v>
+                  <v>0.131705</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.294116</v>
+                  <v>0.126692</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.283229</v>
+                  <v>0.121648</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.27188</v>
+                  <v>0.117033</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.259034</v>
+                  <v>0.11206</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.245623</v>
+                  <v>0.106931</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.230273</v>
+                  <v>0.102032</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.213342</v>
+                  <v>0.09696100000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.352417</v>
+                  <v>0.160578</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.346913</v>
+                  <v>0.156625</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.34069</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.33338</v>
+                  <v>0.147923</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.325287</v>
+                  <v>0.143473</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.316404</v>
+                  <v>0.13856</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.30706</v>
+                  <v>0.133469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.297067</v>
+                  <v>0.128556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.286289</v>
+                  <v>0.12351</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.275097</v>
+                  <v>0.118643</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.262689</v>
+                  <v>0.113741</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.248989</v>
+                  <v>0.108914</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.234185</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.218351</v>
+                  <v>0.0991664</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.353918</v>
+                  <v>0.161075</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.348163</v>
+                  <v>0.157541</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.341876</v>
+                  <v>0.153279</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.334423</v>
+                  <v>0.148419</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.326677</v>
+                  <v>0.143563</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.318483</v>
+                  <v>0.138814</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.309192</v>
+                  <v>0.134187</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.299657</v>
+                  <v>0.129007</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.289052</v>
+                  <v>0.12419</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.277682</v>
+                  <v>0.11903</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.265329</v>
+                  <v>0.114376</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.251956</v>
+                  <v>0.109255</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.237928</v>
+                  <v>0.104203</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.221988</v>
+                  <v>0.0994004</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.355226</v>
+                  <v>0.162128</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.349632</v>
+                  <v>0.158397</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.343221</v>
+                  <v>0.154147</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.336572</v>
+                  <v>0.14983</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.32902</v>
+                  <v>0.144916</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.320108</v>
+                  <v>0.140152</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.311141</v>
+                  <v>0.134967</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.30161</v>
+                  <v>0.13013</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.29136</v>
+                  <v>0.125065</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.280099</v>
+                  <v>0.120187</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.267905</v>
+                  <v>0.11521</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.254834</v>
+                  <v>0.110418</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.241048</v>
+                  <v>0.105437</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.225455</v>
+                  <v>0.100497</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209024</v>
+                  <v>0.0955758</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.350837</v>
+                  <v>0.159347</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.344389</v>
+                  <v>0.155292</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.33797</v>
+                  <v>0.150618</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.330553</v>
+                  <v>0.145909</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.322178</v>
+                  <v>0.140882</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.313349</v>
+                  <v>0.135883</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.303814</v>
+                  <v>0.130815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.293692</v>
+                  <v>0.125838</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.282839</v>
+                  <v>0.121049</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.270756</v>
+                  <v>0.115996</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.258147</v>
+                  <v>0.111038</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.244214</v>
+                  <v>0.106266</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.229059</v>
+                  <v>0.101484</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.212331</v>
+                  <v>0.0965124</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.352099</v>
+                  <v>0.16875</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.346249</v>
+                  <v>0.165253</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.339646</v>
+                  <v>0.160171</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.332407</v>
+                  <v>0.155079</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.324287</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.315583</v>
+                  <v>0.144364</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.305883</v>
+                  <v>0.13909</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.295897</v>
+                  <v>0.133975</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285083</v>
+                  <v>0.128653</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.273328</v>
+                  <v>0.123312</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.260703</v>
+                  <v>0.118196</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.246882</v>
+                  <v>0.113081</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.232078</v>
+                  <v>0.107936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.215942</v>
+                  <v>0.102763</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.352911</v>
+                  <v>0.170695</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.347437</v>
+                  <v>0.16605</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.340815</v>
+                  <v>0.159252</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.333681</v>
+                  <v>0.154279</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.325639</v>
+                  <v>0.149255</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.317122</v>
+                  <v>0.143908</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.195912</v>
+                  <v>0.161517</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.19706</v>
+                  <v>0.161284</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.196006</v>
+                  <v>0.161565</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.196838</v>
+                  <v>0.161071</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.197821</v>
+                  <v>0.160359</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.198401</v>
+                  <v>0.160506</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198864</v>
+                  <v>0.15986</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198849</v>
+                  <v>0.159816</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.216994</v>
+                  <v>0.168688</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216483</v>
+                  <v>0.169131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.215332</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.213636</v>
+                  <v>0.167974</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.212433</v>
+                  <v>0.166866</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212771</v>
+                  <v>0.165758</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212356</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.21158</v>
+                  <v>0.165494</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211342</v>
+                  <v>0.16521</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.211014</v>
+                  <v>0.164933</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.21131</v>
+                  <v>0.165109</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.211178</v>
+                  <v>0.164374</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.210535</v>
+                  <v>0.16526</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.211058</v>
+                  <v>0.16427</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.225388</v>
+                  <v>0.178874</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.222286</v>
+                  <v>0.177374</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.221108</v>
+                  <v>0.174788</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218269</v>
+                  <v>0.175042</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.216629</v>
+                  <v>0.173708</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.216104</v>
+                  <v>0.172923</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215542</v>
+                  <v>0.171732</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.214565</v>
+                  <v>0.171195</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214083</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.213151</v>
+                  <v>0.16947</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.212756</v>
+                  <v>0.169146</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.212244</v>
+                  <v>0.167972</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.212313</v>
+                  <v>0.167047</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.212479</v>
+                  <v>0.166171</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.231716</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228089</v>
+                  <v>0.180152</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.225541</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.221715</v>
+                  <v>0.177671</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.219716</v>
+                  <v>0.176913</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217608</v>
+                  <v>0.175601</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216079</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.215361</v>
+                  <v>0.173758</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.214512</v>
+                  <v>0.172944</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213976</v>
+                  <v>0.172182</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.213395</v>
+                  <v>0.170881</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.213081</v>
+                  <v>0.170105</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.212729</v>
+                  <v>0.169022</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.212137</v>
+                  <v>0.167998</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.211929</v>
+                  <v>0.166696</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.226985</v>
+                  <v>0.182395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.224765</v>
+                  <v>0.181008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221165</v>
+                  <v>0.179806</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219252</v>
+                  <v>0.17875</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217853</v>
+                  <v>0.177572</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.216655</v>
+                  <v>0.176431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215205</v>
+                  <v>0.175317</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21459</v>
+                  <v>0.174244</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213892</v>
+                  <v>0.173258</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.213172</v>
+                  <v>0.172136</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.212503</v>
+                  <v>0.171204</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.212304</v>
+                  <v>0.1701</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.211984</v>
+                  <v>0.168996</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.211979</v>
+                  <v>0.167839</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.230208</v>
+                  <v>0.183252</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224883</v>
+                  <v>0.181965</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.221567</v>
+                  <v>0.1809</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219015</v>
+                  <v>0.17956</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.217904</v>
+                  <v>0.178444</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216587</v>
+                  <v>0.177204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.215397</v>
+                  <v>0.176229</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214854</v>
+                  <v>0.175094</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21402</v>
+                  <v>0.173923</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.21366</v>
+                  <v>0.172914</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.212863</v>
+                  <v>0.171849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.212404</v>
+                  <v>0.170806</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.212223</v>
+                  <v>0.169616</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.211854</v>
+                  <v>0.168566</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.229933</v>
+                  <v>0.183672</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.224301</v>
+                  <v>0.182468</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.221634</v>
+                  <v>0.181136</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.219343</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218126</v>
+                  <v>0.178796</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.217137</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21601</v>
+                  <v>0.176429</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.214977</v>
+                  <v>0.17535</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214757</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.213529</v>
+                  <v>0.173141</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.212993</v>
+                  <v>0.172009</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.212489</v>
+                  <v>0.17091</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.212003</v>
+                  <v>0.169647</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.21166</v>
+                  <v>0.168518</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.229306</v>
+                  <v>0.184283</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.225598</v>
+                  <v>0.182809</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.222495</v>
+                  <v>0.181471</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.219992</v>
+                  <v>0.18041</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21844</v>
+                  <v>0.179197</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.217086</v>
+                  <v>0.177969</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.21603</v>
+                  <v>0.176773</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.215118</v>
+                  <v>0.175576</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214407</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213596</v>
+                  <v>0.173485</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213057</v>
+                  <v>0.172365</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212665</v>
+                  <v>0.171213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.212</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.211712</v>
+                  <v>0.168956</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.211438</v>
+                  <v>0.167807</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225697</v>
+                  <v>0.183413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.222578</v>
+                  <v>0.181973</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.220709</v>
+                  <v>0.180669</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.21886</v>
+                  <v>0.17938</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.217834</v>
+                  <v>0.178213</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21669</v>
+                  <v>0.177024</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215701</v>
+                  <v>0.1759</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214744</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214672</v>
+                  <v>0.173618</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.213705</v>
+                  <v>0.172618</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.213054</v>
+                  <v>0.171472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.212576</v>
+                  <v>0.170374</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211978</v>
+                  <v>0.169252</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.211931</v>
+                  <v>0.167996</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226236</v>
+                  <v>0.183665</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.222892</v>
+                  <v>0.182248</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.220768</v>
+                  <v>0.180916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.219005</v>
+                  <v>0.179671</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.21759</v>
+                  <v>0.178468</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.216422</v>
+                  <v>0.177247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.215617</v>
+                  <v>0.176109</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214832</v>
+                  <v>0.174977</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214082</v>
+                  <v>0.173851</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.213471</v>
+                  <v>0.172825</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.212914</v>
+                  <v>0.171717</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212385</v>
+                  <v>0.170493</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212004</v>
+                  <v>0.16948</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.212133</v>
+                  <v>0.168276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.227952</v>
+                  <v>0.194016</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224209</v>
+                  <v>0.191328</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.221617</v>
+                  <v>0.189598</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.21951</v>
+                  <v>0.188097</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.21815</v>
+                  <v>0.186404</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.217027</v>
+                  <v>0.18492</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.231268</v>
+                  <v>0.160011</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.232151</v>
+                  <v>0.159645</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.233511</v>
+                  <v>0.160429</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.233102</v>
+                  <v>0.16075</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.233692</v>
+                  <v>0.160315</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.234047</v>
+                  <v>0.159973</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.236592</v>
+                  <v>0.160079</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.265773</v>
+                  <v>0.168025</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.256745</v>
+                  <v>0.168796</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.256613</v>
+                  <v>0.167658</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.277037</v>
+                  <v>0.168587</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.253983</v>
+                  <v>0.167476</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.253043</v>
+                  <v>0.167025</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.252393</v>
+                  <v>0.166834</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.274053</v>
+                  <v>0.166437</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.276569</v>
+                  <v>0.165414</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.249118</v>
+                  <v>0.165111</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.246154</v>
+                  <v>0.165088</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.247092</v>
+                  <v>0.165158</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.248933</v>
+                  <v>0.165465</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.247076</v>
+                  <v>0.163999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.264081</v>
+                  <v>0.183329</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.263005</v>
+                  <v>0.179675</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.262406</v>
+                  <v>0.178149</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.261724</v>
+                  <v>0.177462</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.258214</v>
+                  <v>0.17597</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.256235</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.25501</v>
+                  <v>0.174344</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.253997</v>
+                  <v>0.173993</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.253212</v>
+                  <v>0.171814</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.252973</v>
+                  <v>0.170931</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.251955</v>
+                  <v>0.170148</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.250418</v>
+                  <v>0.169615</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.249931</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.25125</v>
+                  <v>0.16735</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.267948</v>
+                  <v>0.184032</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.265477</v>
+                  <v>0.182749</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.263563</v>
+                  <v>0.181447</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.261508</v>
+                  <v>0.179598</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.259424</v>
+                  <v>0.178697</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.258308</v>
+                  <v>0.177654</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.257397</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.255033</v>
+                  <v>0.175428</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.254953</v>
+                  <v>0.17424</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.252743</v>
+                  <v>0.172949</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.252257</v>
+                  <v>0.171806</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.251358</v>
+                  <v>0.170594</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.250701</v>
+                  <v>0.170093</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.252639</v>
+                  <v>0.168872</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.267618</v>
+                  <v>0.185726</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.26451</v>
+                  <v>0.183999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.262485</v>
+                  <v>0.182938</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.261372</v>
+                  <v>0.181135</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.259083</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.258255</v>
+                  <v>0.178698</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.256473</v>
+                  <v>0.177695</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254751</v>
+                  <v>0.176204</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.253478</v>
+                  <v>0.175252</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.252454</v>
+                  <v>0.174049</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.251959</v>
+                  <v>0.172976</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.251108</v>
+                  <v>0.171947</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.250374</v>
+                  <v>0.170843</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.249696</v>
+                  <v>0.169567</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249233</v>
+                  <v>0.168423</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.267199</v>
+                  <v>0.18501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.264368</v>
+                  <v>0.183444</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261476</v>
+                  <v>0.182209</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.259992</v>
+                  <v>0.180939</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.258824</v>
+                  <v>0.179538</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257234</v>
+                  <v>0.178374</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.255778</v>
+                  <v>0.177105</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.254864</v>
+                  <v>0.176068</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.25281</v>
+                  <v>0.17492</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.252056</v>
+                  <v>0.173763</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.251157</v>
+                  <v>0.172585</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.25035</v>
+                  <v>0.171417</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.249625</v>
+                  <v>0.170196</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.249799</v>
+                  <v>0.168965</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.267725</v>
+                  <v>0.185483</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.264639</v>
+                  <v>0.184099</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.26212</v>
+                  <v>0.182697</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260398</v>
+                  <v>0.181365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258807</v>
+                  <v>0.180176</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.257237</v>
+                  <v>0.178976</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.256192</v>
+                  <v>0.177749</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.254682</v>
+                  <v>0.176552</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.253834</v>
+                  <v>0.175408</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.252277</v>
+                  <v>0.174248</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.251467</v>
+                  <v>0.172985</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.25073</v>
+                  <v>0.171824</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.250208</v>
+                  <v>0.170566</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.249795</v>
+                  <v>0.169184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.268728</v>
+                  <v>0.185985</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.265368</v>
+                  <v>0.184496</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263136</v>
+                  <v>0.183031</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.261588</v>
+                  <v>0.181718</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.259708</v>
+                  <v>0.180566</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.258439</v>
+                  <v>0.179185</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.257048</v>
+                  <v>0.177916</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.255861</v>
+                  <v>0.176813</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.25506</v>
+                  <v>0.175551</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.253643</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.252447</v>
+                  <v>0.173202</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.251631</v>
+                  <v>0.171937</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.25027</v>
+                  <v>0.17075</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.249676</v>
+                  <v>0.169515</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.267902</v>
+                  <v>0.186463</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265381</v>
+                  <v>0.184955</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.263476</v>
+                  <v>0.18356</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.261695</v>
+                  <v>0.182079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.259699</v>
+                  <v>0.180726</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.258738</v>
+                  <v>0.17949</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.257442</v>
+                  <v>0.178267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255897</v>
+                  <v>0.177074</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.254296</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.253976</v>
+                  <v>0.174614</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.253858</v>
+                  <v>0.173493</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.252652</v>
+                  <v>0.172224</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.251436</v>
+                  <v>0.171118</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.251373</v>
+                  <v>0.169817</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.249863</v>
+                  <v>0.168563</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.266506</v>
+                  <v>0.18529</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.26438</v>
+                  <v>0.183782</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.261884</v>
+                  <v>0.182436</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.260327</v>
+                  <v>0.181045</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.25828</v>
+                  <v>0.17969</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.257292</v>
+                  <v>0.178501</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.256414</v>
+                  <v>0.177279</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.255015</v>
+                  <v>0.176081</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.253526</v>
+                  <v>0.174818</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252946</v>
+                  <v>0.173736</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.252272</v>
+                  <v>0.1725</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.251202</v>
+                  <v>0.17131</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.251597</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.251317</v>
+                  <v>0.168793</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267088</v>
+                  <v>0.194838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.264928</v>
+                  <v>0.192446</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.263676</v>
+                  <v>0.189943</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.26094</v>
+                  <v>0.188461</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259854</v>
+                  <v>0.187379</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.258275</v>
+                  <v>0.18564</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.256589</v>
+                  <v>0.184108</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2824,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.5"/>
+          <max val="0.3"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3223,8 +3222,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3249,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.281009</v>
+        <v>0.284046</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18681</v>
+        <v>0.213582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.216457</v>
+        <v>0.211679</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269756</v>
+        <v>0.272024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187759</v>
+        <v>0.215607</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216828</v>
+        <v>0.212344</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258901</v>
+        <v>0.262885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18678</v>
+        <v>0.216277</v>
       </c>
       <c r="D4" t="n">
-        <v>0.216997</v>
+        <v>0.213377</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247249</v>
+        <v>0.249651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187624</v>
+        <v>0.219018</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217364</v>
+        <v>0.213873</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235493</v>
+        <v>0.237606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188569</v>
+        <v>0.219217</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217789</v>
+        <v>0.215014</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224974</v>
+        <v>0.224015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188574</v>
+        <v>0.22101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218607</v>
+        <v>0.2169</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210227</v>
+        <v>0.209725</v>
       </c>
       <c r="C8" t="n">
-        <v>0.188762</v>
+        <v>0.222522</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219012</v>
+        <v>0.215618</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.195637</v>
+        <v>0.194594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189903</v>
+        <v>0.238744</v>
       </c>
       <c r="D9" t="n">
-        <v>0.239742</v>
+        <v>0.232564</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334965</v>
+        <v>0.341392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.208456</v>
+        <v>0.237538</v>
       </c>
       <c r="D10" t="n">
-        <v>0.237957</v>
+        <v>0.233209</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329921</v>
+        <v>0.3384</v>
       </c>
       <c r="C11" t="n">
-        <v>0.207884</v>
+        <v>0.236188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.237147</v>
+        <v>0.230955</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324592</v>
+        <v>0.331288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20576</v>
+        <v>0.235664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.235968</v>
+        <v>0.229892</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319072</v>
+        <v>0.327615</v>
       </c>
       <c r="C13" t="n">
-        <v>0.204208</v>
+        <v>0.235507</v>
       </c>
       <c r="D13" t="n">
-        <v>0.234512</v>
+        <v>0.228343</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31133</v>
+        <v>0.31653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.203208</v>
+        <v>0.234908</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234233</v>
+        <v>0.22848</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303826</v>
+        <v>0.306202</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203557</v>
+        <v>0.234141</v>
       </c>
       <c r="D15" t="n">
-        <v>0.23325</v>
+        <v>0.228133</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294363</v>
+        <v>0.29823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.202961</v>
+        <v>0.233601</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233262</v>
+        <v>0.227578</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285287</v>
+        <v>0.289418</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202922</v>
+        <v>0.232774</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232415</v>
+        <v>0.227513</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.27599</v>
+        <v>0.279406</v>
       </c>
       <c r="C18" t="n">
-        <v>0.202451</v>
+        <v>0.232172</v>
       </c>
       <c r="D18" t="n">
-        <v>0.231775</v>
+        <v>0.227003</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265538</v>
+        <v>0.268547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.201482</v>
+        <v>0.232631</v>
       </c>
       <c r="D19" t="n">
-        <v>0.231401</v>
+        <v>0.227631</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.255078</v>
+        <v>0.255491</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200941</v>
+        <v>0.232491</v>
       </c>
       <c r="D20" t="n">
-        <v>0.230899</v>
+        <v>0.226749</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241803</v>
+        <v>0.241298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201039</v>
+        <v>0.232252</v>
       </c>
       <c r="D21" t="n">
-        <v>0.230913</v>
+        <v>0.225563</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226863</v>
+        <v>0.225674</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200847</v>
+        <v>0.231836</v>
       </c>
       <c r="D22" t="n">
-        <v>0.230074</v>
+        <v>0.225411</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21065</v>
+        <v>0.211082</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200226</v>
+        <v>0.243874</v>
       </c>
       <c r="D23" t="n">
-        <v>0.244424</v>
+        <v>0.238412</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348156</v>
+        <v>0.351891</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217457</v>
+        <v>0.242795</v>
       </c>
       <c r="D24" t="n">
-        <v>0.242809</v>
+        <v>0.237073</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342484</v>
+        <v>0.345755</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215096</v>
+        <v>0.24186</v>
       </c>
       <c r="D25" t="n">
-        <v>0.241712</v>
+        <v>0.236048</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335758</v>
+        <v>0.339146</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211779</v>
+        <v>0.240682</v>
       </c>
       <c r="D26" t="n">
-        <v>0.241878</v>
+        <v>0.234611</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328334</v>
+        <v>0.332721</v>
       </c>
       <c r="C27" t="n">
-        <v>0.211786</v>
+        <v>0.239866</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238834</v>
+        <v>0.234488</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322558</v>
+        <v>0.324504</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208256</v>
+        <v>0.238644</v>
       </c>
       <c r="D28" t="n">
-        <v>0.23778</v>
+        <v>0.233524</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313314</v>
+        <v>0.317183</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207696</v>
+        <v>0.23783</v>
       </c>
       <c r="D29" t="n">
-        <v>0.237126</v>
+        <v>0.232722</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305039</v>
+        <v>0.307802</v>
       </c>
       <c r="C30" t="n">
-        <v>0.206816</v>
+        <v>0.236902</v>
       </c>
       <c r="D30" t="n">
-        <v>0.235706</v>
+        <v>0.231551</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.295362</v>
+        <v>0.298533</v>
       </c>
       <c r="C31" t="n">
-        <v>0.205746</v>
+        <v>0.236029</v>
       </c>
       <c r="D31" t="n">
-        <v>0.234942</v>
+        <v>0.230589</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284923</v>
+        <v>0.288577</v>
       </c>
       <c r="C32" t="n">
-        <v>0.205244</v>
+        <v>0.23531</v>
       </c>
       <c r="D32" t="n">
-        <v>0.23437</v>
+        <v>0.229701</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274318</v>
+        <v>0.277021</v>
       </c>
       <c r="C33" t="n">
-        <v>0.204006</v>
+        <v>0.234314</v>
       </c>
       <c r="D33" t="n">
-        <v>0.233237</v>
+        <v>0.229491</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262949</v>
+        <v>0.264405</v>
       </c>
       <c r="C34" t="n">
-        <v>0.20331</v>
+        <v>0.233773</v>
       </c>
       <c r="D34" t="n">
-        <v>0.232119</v>
+        <v>0.228421</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248911</v>
+        <v>0.250456</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203241</v>
+        <v>0.23308</v>
       </c>
       <c r="D35" t="n">
-        <v>0.232111</v>
+        <v>0.228007</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235802</v>
+        <v>0.235716</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202851</v>
+        <v>0.232595</v>
       </c>
       <c r="D36" t="n">
-        <v>0.231009</v>
+        <v>0.227468</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219899</v>
+        <v>0.219876</v>
       </c>
       <c r="C37" t="n">
-        <v>0.203143</v>
+        <v>0.246002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.246698</v>
+        <v>0.23979</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351849</v>
+        <v>0.356592</v>
       </c>
       <c r="C38" t="n">
-        <v>0.221313</v>
+        <v>0.244021</v>
       </c>
       <c r="D38" t="n">
-        <v>0.244695</v>
+        <v>0.238481</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.34734</v>
+        <v>0.35125</v>
       </c>
       <c r="C39" t="n">
-        <v>0.219248</v>
+        <v>0.242417</v>
       </c>
       <c r="D39" t="n">
-        <v>0.242123</v>
+        <v>0.23719</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341392</v>
+        <v>0.345504</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216413</v>
+        <v>0.241371</v>
       </c>
       <c r="D40" t="n">
-        <v>0.241</v>
+        <v>0.235973</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3343</v>
+        <v>0.338377</v>
       </c>
       <c r="C41" t="n">
-        <v>0.212061</v>
+        <v>0.24021</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239986</v>
+        <v>0.235042</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327308</v>
+        <v>0.331784</v>
       </c>
       <c r="C42" t="n">
-        <v>0.210228</v>
+        <v>0.239126</v>
       </c>
       <c r="D42" t="n">
-        <v>0.239089</v>
+        <v>0.234201</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319975</v>
+        <v>0.322883</v>
       </c>
       <c r="C43" t="n">
-        <v>0.208728</v>
+        <v>0.238144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.237889</v>
+        <v>0.232686</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310987</v>
+        <v>0.312936</v>
       </c>
       <c r="C44" t="n">
-        <v>0.207268</v>
+        <v>0.236877</v>
       </c>
       <c r="D44" t="n">
-        <v>0.236631</v>
+        <v>0.23148</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302209</v>
+        <v>0.303291</v>
       </c>
       <c r="C45" t="n">
-        <v>0.206563</v>
+        <v>0.236167</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235534</v>
+        <v>0.230672</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291598</v>
+        <v>0.293522</v>
       </c>
       <c r="C46" t="n">
-        <v>0.205874</v>
+        <v>0.235404</v>
       </c>
       <c r="D46" t="n">
-        <v>0.234581</v>
+        <v>0.230396</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280574</v>
+        <v>0.282766</v>
       </c>
       <c r="C47" t="n">
-        <v>0.205192</v>
+        <v>0.234758</v>
       </c>
       <c r="D47" t="n">
-        <v>0.233797</v>
+        <v>0.229725</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26924</v>
+        <v>0.270459</v>
       </c>
       <c r="C48" t="n">
-        <v>0.204028</v>
+        <v>0.23412</v>
       </c>
       <c r="D48" t="n">
-        <v>0.233146</v>
+        <v>0.228722</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256448</v>
+        <v>0.257184</v>
       </c>
       <c r="C49" t="n">
-        <v>0.203559</v>
+        <v>0.23347</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232764</v>
+        <v>0.22862</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242589</v>
+        <v>0.241577</v>
       </c>
       <c r="C50" t="n">
-        <v>0.203225</v>
+        <v>0.232977</v>
       </c>
       <c r="D50" t="n">
-        <v>0.232819</v>
+        <v>0.22777</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.22735</v>
+        <v>0.225014</v>
       </c>
       <c r="C51" t="n">
-        <v>0.202865</v>
+        <v>0.245468</v>
       </c>
       <c r="D51" t="n">
-        <v>0.247067</v>
+        <v>0.240057</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210281</v>
+        <v>0.208388</v>
       </c>
       <c r="C52" t="n">
-        <v>0.202366</v>
+        <v>0.244037</v>
       </c>
       <c r="D52" t="n">
-        <v>0.244309</v>
+        <v>0.23851</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350545</v>
+        <v>0.354881</v>
       </c>
       <c r="C53" t="n">
-        <v>0.216087</v>
+        <v>0.24281</v>
       </c>
       <c r="D53" t="n">
-        <v>0.24268</v>
+        <v>0.237198</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344961</v>
+        <v>0.349153</v>
       </c>
       <c r="C54" t="n">
-        <v>0.213093</v>
+        <v>0.241608</v>
       </c>
       <c r="D54" t="n">
-        <v>0.241131</v>
+        <v>0.235864</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338801</v>
+        <v>0.342455</v>
       </c>
       <c r="C55" t="n">
-        <v>0.211011</v>
+        <v>0.240263</v>
       </c>
       <c r="D55" t="n">
-        <v>0.240046</v>
+        <v>0.234729</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331121</v>
+        <v>0.33503</v>
       </c>
       <c r="C56" t="n">
-        <v>0.209899</v>
+        <v>0.239472</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238577</v>
+        <v>0.23389</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.323075</v>
+        <v>0.326831</v>
       </c>
       <c r="C57" t="n">
-        <v>0.208369</v>
+        <v>0.238387</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237663</v>
+        <v>0.23278</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314424</v>
+        <v>0.317488</v>
       </c>
       <c r="C58" t="n">
-        <v>0.207301</v>
+        <v>0.23734</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236861</v>
+        <v>0.232155</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305774</v>
+        <v>0.307963</v>
       </c>
       <c r="C59" t="n">
-        <v>0.206008</v>
+        <v>0.236413</v>
       </c>
       <c r="D59" t="n">
-        <v>0.236036</v>
+        <v>0.231106</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295622</v>
+        <v>0.297187</v>
       </c>
       <c r="C60" t="n">
-        <v>0.205224</v>
+        <v>0.235629</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235088</v>
+        <v>0.230334</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284364</v>
+        <v>0.285431</v>
       </c>
       <c r="C61" t="n">
-        <v>0.204579</v>
+        <v>0.234973</v>
       </c>
       <c r="D61" t="n">
-        <v>0.234407</v>
+        <v>0.229518</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272827</v>
+        <v>0.272746</v>
       </c>
       <c r="C62" t="n">
-        <v>0.203714</v>
+        <v>0.234428</v>
       </c>
       <c r="D62" t="n">
-        <v>0.233724</v>
+        <v>0.229049</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.260088</v>
+        <v>0.259535</v>
       </c>
       <c r="C63" t="n">
-        <v>0.203188</v>
+        <v>0.233566</v>
       </c>
       <c r="D63" t="n">
-        <v>0.233113</v>
+        <v>0.22817</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246135</v>
+        <v>0.244745</v>
       </c>
       <c r="C64" t="n">
-        <v>0.202741</v>
+        <v>0.233358</v>
       </c>
       <c r="D64" t="n">
-        <v>0.232448</v>
+        <v>0.227941</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.23085</v>
+        <v>0.228744</v>
       </c>
       <c r="C65" t="n">
-        <v>0.202264</v>
+        <v>0.2327</v>
       </c>
       <c r="D65" t="n">
-        <v>0.232011</v>
+        <v>0.227409</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214221</v>
+        <v>0.212387</v>
       </c>
       <c r="C66" t="n">
-        <v>0.202021</v>
+        <v>0.24489</v>
       </c>
       <c r="D66" t="n">
-        <v>0.245627</v>
+        <v>0.239182</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35255</v>
+        <v>0.357149</v>
       </c>
       <c r="C67" t="n">
-        <v>0.217937</v>
+        <v>0.243586</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2434</v>
+        <v>0.237735</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347262</v>
+        <v>0.351727</v>
       </c>
       <c r="C68" t="n">
-        <v>0.213891</v>
+        <v>0.242226</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241662</v>
+        <v>0.236546</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34109</v>
+        <v>0.345137</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21142</v>
+        <v>0.24103</v>
       </c>
       <c r="D69" t="n">
-        <v>0.240298</v>
+        <v>0.235473</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333995</v>
+        <v>0.337489</v>
       </c>
       <c r="C70" t="n">
-        <v>0.20959</v>
+        <v>0.239905</v>
       </c>
       <c r="D70" t="n">
-        <v>0.239066</v>
+        <v>0.234483</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325703</v>
+        <v>0.329355</v>
       </c>
       <c r="C71" t="n">
-        <v>0.208499</v>
+        <v>0.238765</v>
       </c>
       <c r="D71" t="n">
-        <v>0.238363</v>
+        <v>0.233502</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317254</v>
+        <v>0.320697</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207249</v>
+        <v>0.23791</v>
       </c>
       <c r="D72" t="n">
-        <v>0.237526</v>
+        <v>0.232457</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30807</v>
+        <v>0.310665</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206237</v>
+        <v>0.237084</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236154</v>
+        <v>0.231613</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29805</v>
+        <v>0.300868</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205613</v>
+        <v>0.236141</v>
       </c>
       <c r="D74" t="n">
-        <v>0.235438</v>
+        <v>0.230674</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287393</v>
+        <v>0.289415</v>
       </c>
       <c r="C75" t="n">
-        <v>0.204831</v>
+        <v>0.235206</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234937</v>
+        <v>0.22995</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276404</v>
+        <v>0.27716</v>
       </c>
       <c r="C76" t="n">
-        <v>0.204256</v>
+        <v>0.234504</v>
       </c>
       <c r="D76" t="n">
-        <v>0.234084</v>
+        <v>0.229178</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263682</v>
+        <v>0.264271</v>
       </c>
       <c r="C77" t="n">
-        <v>0.203532</v>
+        <v>0.233948</v>
       </c>
       <c r="D77" t="n">
-        <v>0.233355</v>
+        <v>0.228396</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.250013</v>
+        <v>0.248773</v>
       </c>
       <c r="C78" t="n">
-        <v>0.202929</v>
+        <v>0.233357</v>
       </c>
       <c r="D78" t="n">
-        <v>0.232654</v>
+        <v>0.228081</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234954</v>
+        <v>0.233679</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202495</v>
+        <v>0.232863</v>
       </c>
       <c r="D79" t="n">
-        <v>0.232458</v>
+        <v>0.227867</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.21885</v>
+        <v>0.216891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.20234</v>
+        <v>0.246896</v>
       </c>
       <c r="D80" t="n">
-        <v>0.245803</v>
+        <v>0.241318</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.354003</v>
+        <v>0.359168</v>
       </c>
       <c r="C81" t="n">
-        <v>0.217852</v>
+        <v>0.244612</v>
       </c>
       <c r="D81" t="n">
-        <v>0.243888</v>
+        <v>0.23963</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.348591</v>
+        <v>0.353255</v>
       </c>
       <c r="C82" t="n">
-        <v>0.213972</v>
+        <v>0.2433</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24216</v>
+        <v>0.238138</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34218</v>
+        <v>0.346353</v>
       </c>
       <c r="C83" t="n">
-        <v>0.211485</v>
+        <v>0.241528</v>
       </c>
       <c r="D83" t="n">
-        <v>0.240567</v>
+        <v>0.236648</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335325</v>
+        <v>0.33934</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209758</v>
+        <v>0.240599</v>
       </c>
       <c r="D84" t="n">
-        <v>0.239504</v>
+        <v>0.235487</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327746</v>
+        <v>0.330897</v>
       </c>
       <c r="C85" t="n">
-        <v>0.208818</v>
+        <v>0.239352</v>
       </c>
       <c r="D85" t="n">
-        <v>0.238402</v>
+        <v>0.234199</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319366</v>
+        <v>0.321892</v>
       </c>
       <c r="C86" t="n">
-        <v>0.207682</v>
+        <v>0.238135</v>
       </c>
       <c r="D86" t="n">
-        <v>0.237281</v>
+        <v>0.233112</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310263</v>
+        <v>0.312058</v>
       </c>
       <c r="C87" t="n">
-        <v>0.206518</v>
+        <v>0.237102</v>
       </c>
       <c r="D87" t="n">
-        <v>0.236353</v>
+        <v>0.232199</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30053</v>
+        <v>0.30198</v>
       </c>
       <c r="C88" t="n">
-        <v>0.205701</v>
+        <v>0.236269</v>
       </c>
       <c r="D88" t="n">
-        <v>0.23538</v>
+        <v>0.231358</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290138</v>
+        <v>0.290895</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204923</v>
+        <v>0.235485</v>
       </c>
       <c r="D89" t="n">
-        <v>0.234759</v>
+        <v>0.230435</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278505</v>
+        <v>0.279424</v>
       </c>
       <c r="C90" t="n">
-        <v>0.204227</v>
+        <v>0.234815</v>
       </c>
       <c r="D90" t="n">
-        <v>0.234161</v>
+        <v>0.22978</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265812</v>
+        <v>0.265497</v>
       </c>
       <c r="C91" t="n">
-        <v>0.203672</v>
+        <v>0.234142</v>
       </c>
       <c r="D91" t="n">
-        <v>0.233425</v>
+        <v>0.229238</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252572</v>
+        <v>0.251717</v>
       </c>
       <c r="C92" t="n">
-        <v>0.20306</v>
+        <v>0.233424</v>
       </c>
       <c r="D92" t="n">
-        <v>0.232938</v>
+        <v>0.228631</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238244</v>
+        <v>0.236451</v>
       </c>
       <c r="C93" t="n">
-        <v>0.202519</v>
+        <v>0.233038</v>
       </c>
       <c r="D93" t="n">
-        <v>0.232539</v>
+        <v>0.228475</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222153</v>
+        <v>0.220005</v>
       </c>
       <c r="C94" t="n">
-        <v>0.202239</v>
+        <v>0.247786</v>
       </c>
       <c r="D94" t="n">
-        <v>0.246792</v>
+        <v>0.241949</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.355117</v>
+        <v>0.359697</v>
       </c>
       <c r="C95" t="n">
-        <v>0.21911</v>
+        <v>0.245244</v>
       </c>
       <c r="D95" t="n">
-        <v>0.244263</v>
+        <v>0.239812</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.350164</v>
+        <v>0.354379</v>
       </c>
       <c r="C96" t="n">
-        <v>0.215532</v>
+        <v>0.243588</v>
       </c>
       <c r="D96" t="n">
-        <v>0.24246</v>
+        <v>0.238053</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.344036</v>
+        <v>0.347843</v>
       </c>
       <c r="C97" t="n">
-        <v>0.212601</v>
+        <v>0.242051</v>
       </c>
       <c r="D97" t="n">
-        <v>0.241045</v>
+        <v>0.236555</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.337295</v>
+        <v>0.340468</v>
       </c>
       <c r="C98" t="n">
-        <v>0.210589</v>
+        <v>0.240885</v>
       </c>
       <c r="D98" t="n">
-        <v>0.239826</v>
+        <v>0.235189</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329514</v>
+        <v>0.332442</v>
       </c>
       <c r="C99" t="n">
-        <v>0.209218</v>
+        <v>0.239739</v>
       </c>
       <c r="D99" t="n">
-        <v>0.238831</v>
+        <v>0.23401</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321441</v>
+        <v>0.323692</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20792</v>
+        <v>0.23874</v>
       </c>
       <c r="D100" t="n">
-        <v>0.237758</v>
+        <v>0.232916</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312378</v>
+        <v>0.314297</v>
       </c>
       <c r="C101" t="n">
-        <v>0.206848</v>
+        <v>0.23783</v>
       </c>
       <c r="D101" t="n">
-        <v>0.236728</v>
+        <v>0.232178</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302752</v>
+        <v>0.304441</v>
       </c>
       <c r="C102" t="n">
-        <v>0.206036</v>
+        <v>0.236786</v>
       </c>
       <c r="D102" t="n">
-        <v>0.235827</v>
+        <v>0.231285</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29229</v>
+        <v>0.294327</v>
       </c>
       <c r="C103" t="n">
-        <v>0.205175</v>
+        <v>0.235946</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235064</v>
+        <v>0.230594</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281004</v>
+        <v>0.282395</v>
       </c>
       <c r="C104" t="n">
-        <v>0.204386</v>
+        <v>0.235116</v>
       </c>
       <c r="D104" t="n">
-        <v>0.234488</v>
+        <v>0.229972</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269084</v>
+        <v>0.269828</v>
       </c>
       <c r="C105" t="n">
-        <v>0.203824</v>
+        <v>0.234462</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233732</v>
+        <v>0.229392</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255639</v>
+        <v>0.256025</v>
       </c>
       <c r="C106" t="n">
-        <v>0.203162</v>
+        <v>0.233793</v>
       </c>
       <c r="D106" t="n">
-        <v>0.233098</v>
+        <v>0.228798</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241409</v>
+        <v>0.240662</v>
       </c>
       <c r="C107" t="n">
-        <v>0.202678</v>
+        <v>0.233278</v>
       </c>
       <c r="D107" t="n">
-        <v>0.232618</v>
+        <v>0.228143</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225824</v>
+        <v>0.225328</v>
       </c>
       <c r="C108" t="n">
-        <v>0.202305</v>
+        <v>0.248148</v>
       </c>
       <c r="D108" t="n">
-        <v>0.246832</v>
+        <v>0.242036</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209165</v>
+        <v>0.207433</v>
       </c>
       <c r="C109" t="n">
-        <v>0.20201</v>
+        <v>0.246017</v>
       </c>
       <c r="D109" t="n">
-        <v>0.244586</v>
+        <v>0.239919</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.351078</v>
+        <v>0.355699</v>
       </c>
       <c r="C110" t="n">
-        <v>0.215657</v>
+        <v>0.244154</v>
       </c>
       <c r="D110" t="n">
-        <v>0.242892</v>
+        <v>0.238224</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.34516</v>
+        <v>0.349731</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212982</v>
+        <v>0.242419</v>
       </c>
       <c r="D111" t="n">
-        <v>0.241281</v>
+        <v>0.236701</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33847</v>
+        <v>0.342711</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211021</v>
+        <v>0.241076</v>
       </c>
       <c r="D112" t="n">
-        <v>0.240056</v>
+        <v>0.235432</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.331022</v>
+        <v>0.335042</v>
       </c>
       <c r="C113" t="n">
-        <v>0.209355</v>
+        <v>0.239884</v>
       </c>
       <c r="D113" t="n">
-        <v>0.238897</v>
+        <v>0.23438</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322906</v>
+        <v>0.326472</v>
       </c>
       <c r="C114" t="n">
-        <v>0.208168</v>
+        <v>0.238796</v>
       </c>
       <c r="D114" t="n">
-        <v>0.237829</v>
+        <v>0.233339</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313911</v>
+        <v>0.317103</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207088</v>
+        <v>0.237824</v>
       </c>
       <c r="D115" t="n">
-        <v>0.237039</v>
+        <v>0.232281</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304468</v>
+        <v>0.307297</v>
       </c>
       <c r="C116" t="n">
-        <v>0.206214</v>
+        <v>0.236901</v>
       </c>
       <c r="D116" t="n">
-        <v>0.236519</v>
+        <v>0.231719</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294112</v>
+        <v>0.296513</v>
       </c>
       <c r="C117" t="n">
-        <v>0.205303</v>
+        <v>0.236109</v>
       </c>
       <c r="D117" t="n">
-        <v>0.235575</v>
+        <v>0.231103</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283096</v>
+        <v>0.284936</v>
       </c>
       <c r="C118" t="n">
-        <v>0.205034</v>
+        <v>0.2353</v>
       </c>
       <c r="D118" t="n">
-        <v>0.234915</v>
+        <v>0.230362</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271144</v>
+        <v>0.27256</v>
       </c>
       <c r="C119" t="n">
-        <v>0.204257</v>
+        <v>0.234665</v>
       </c>
       <c r="D119" t="n">
-        <v>0.234247</v>
+        <v>0.229774</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25854</v>
+        <v>0.259009</v>
       </c>
       <c r="C120" t="n">
-        <v>0.203687</v>
+        <v>0.234162</v>
       </c>
       <c r="D120" t="n">
-        <v>0.233661</v>
+        <v>0.229216</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24446</v>
+        <v>0.244499</v>
       </c>
       <c r="C121" t="n">
-        <v>0.203161</v>
+        <v>0.233655</v>
       </c>
       <c r="D121" t="n">
-        <v>0.233157</v>
+        <v>0.228661</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229395</v>
+        <v>0.228849</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202666</v>
+        <v>0.233152</v>
       </c>
       <c r="D122" t="n">
-        <v>0.232913</v>
+        <v>0.228267</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212676</v>
+        <v>0.211835</v>
       </c>
       <c r="C123" t="n">
-        <v>0.202329</v>
+        <v>0.246465</v>
       </c>
       <c r="D123" t="n">
-        <v>0.244996</v>
+        <v>0.240409</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351935</v>
+        <v>0.357132</v>
       </c>
       <c r="C124" t="n">
-        <v>0.216697</v>
+        <v>0.244547</v>
       </c>
       <c r="D124" t="n">
-        <v>0.24325</v>
+        <v>0.238564</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346134</v>
+        <v>0.35099</v>
       </c>
       <c r="C125" t="n">
-        <v>0.213588</v>
+        <v>0.242877</v>
       </c>
       <c r="D125" t="n">
-        <v>0.241664</v>
+        <v>0.237082</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339449</v>
+        <v>0.344455</v>
       </c>
       <c r="C126" t="n">
-        <v>0.211516</v>
+        <v>0.24152</v>
       </c>
       <c r="D126" t="n">
-        <v>0.240228</v>
+        <v>0.235818</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332233</v>
+        <v>0.336933</v>
       </c>
       <c r="C127" t="n">
-        <v>0.209853</v>
+        <v>0.240252</v>
       </c>
       <c r="D127" t="n">
-        <v>0.239039</v>
+        <v>0.234653</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32419</v>
+        <v>0.328644</v>
       </c>
       <c r="C128" t="n">
-        <v>0.208435</v>
+        <v>0.239164</v>
       </c>
       <c r="D128" t="n">
-        <v>0.237961</v>
+        <v>0.233544</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315477</v>
+        <v>0.319474</v>
       </c>
       <c r="C129" t="n">
-        <v>0.207236</v>
+        <v>0.238132</v>
       </c>
       <c r="D129" t="n">
-        <v>0.237009</v>
+        <v>0.232643</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306091</v>
+        <v>0.309767</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206341</v>
+        <v>0.237152</v>
       </c>
       <c r="D130" t="n">
-        <v>0.236088</v>
+        <v>0.231799</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295952</v>
+        <v>0.298883</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205477</v>
+        <v>0.236336</v>
       </c>
       <c r="D131" t="n">
-        <v>0.235328</v>
+        <v>0.230928</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285033</v>
+        <v>0.287321</v>
       </c>
       <c r="C132" t="n">
-        <v>0.204713</v>
+        <v>0.235492</v>
       </c>
       <c r="D132" t="n">
-        <v>0.234541</v>
+        <v>0.230263</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273224</v>
+        <v>0.274979</v>
       </c>
       <c r="C133" t="n">
-        <v>0.204058</v>
+        <v>0.234981</v>
       </c>
       <c r="D133" t="n">
-        <v>0.233977</v>
+        <v>0.229496</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260607</v>
+        <v>0.261782</v>
       </c>
       <c r="C134" t="n">
-        <v>0.20341</v>
+        <v>0.234402</v>
       </c>
       <c r="D134" t="n">
-        <v>0.233422</v>
+        <v>0.229071</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246819</v>
+        <v>0.247448</v>
       </c>
       <c r="C135" t="n">
-        <v>0.202814</v>
+        <v>0.23385</v>
       </c>
       <c r="D135" t="n">
-        <v>0.233331</v>
+        <v>0.228423</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232067</v>
+        <v>0.232119</v>
       </c>
       <c r="C136" t="n">
-        <v>0.202509</v>
+        <v>0.233526</v>
       </c>
       <c r="D136" t="n">
-        <v>0.232947</v>
+        <v>0.228468</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215796</v>
+        <v>0.215537</v>
       </c>
       <c r="C137" t="n">
-        <v>0.202436</v>
+        <v>0.24698</v>
       </c>
       <c r="D137" t="n">
-        <v>0.245882</v>
+        <v>0.241374</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.353061</v>
+        <v>0.35855</v>
       </c>
       <c r="C138" t="n">
-        <v>0.218089</v>
+        <v>0.24505</v>
       </c>
       <c r="D138" t="n">
-        <v>0.243959</v>
+        <v>0.239327</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.347644</v>
+        <v>0.352656</v>
       </c>
       <c r="C139" t="n">
-        <v>0.214724</v>
+        <v>0.243409</v>
       </c>
       <c r="D139" t="n">
-        <v>0.242313</v>
+        <v>0.237692</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.34135</v>
+        <v>0.346458</v>
       </c>
       <c r="C140" t="n">
-        <v>0.212365</v>
+        <v>0.24185</v>
       </c>
       <c r="D140" t="n">
-        <v>0.240966</v>
+        <v>0.236295</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.334359</v>
+        <v>0.338246</v>
       </c>
       <c r="C141" t="n">
-        <v>0.210496</v>
+        <v>0.240786</v>
       </c>
       <c r="D141" t="n">
-        <v>0.239686</v>
+        <v>0.235116</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326439</v>
+        <v>0.330075</v>
       </c>
       <c r="C142" t="n">
-        <v>0.209143</v>
+        <v>0.239593</v>
       </c>
       <c r="D142" t="n">
-        <v>0.238666</v>
+        <v>0.234053</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317831</v>
+        <v>0.321098</v>
       </c>
       <c r="C143" t="n">
-        <v>0.207934</v>
+        <v>0.238495</v>
       </c>
       <c r="D143" t="n">
-        <v>0.237625</v>
+        <v>0.233039</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.283439</v>
+        <v>0.282421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212584</v>
+        <v>0.212616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210377</v>
+        <v>0.210894</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.270865</v>
+        <v>0.269454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21405</v>
+        <v>0.2145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212662</v>
+        <v>0.212753</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260027</v>
+        <v>0.259835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214789</v>
+        <v>0.214936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2126</v>
+        <v>0.212464</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248769</v>
+        <v>0.249622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.216105</v>
+        <v>0.216629</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213879</v>
+        <v>0.214088</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236873</v>
+        <v>0.237065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.217723</v>
+        <v>0.217931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21545</v>
+        <v>0.215114</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222757</v>
+        <v>0.223436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218737</v>
+        <v>0.218706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215092</v>
+        <v>0.216592</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.208622</v>
+        <v>0.20885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220185</v>
+        <v>0.220086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.216653</v>
+        <v>0.216292</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193965</v>
+        <v>0.19395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.236552</v>
+        <v>0.23653</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232236</v>
+        <v>0.232984</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340733</v>
+        <v>0.340812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235832</v>
+        <v>0.235304</v>
       </c>
       <c r="D10" t="n">
-        <v>0.232164</v>
+        <v>0.231745</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.335591</v>
+        <v>0.335086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.234261</v>
+        <v>0.233956</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230423</v>
+        <v>0.230715</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32984</v>
+        <v>0.329581</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233647</v>
+        <v>0.233893</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229796</v>
+        <v>0.229694</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.321676</v>
+        <v>0.322919</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234386</v>
+        <v>0.232817</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22876</v>
+        <v>0.228679</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.313323</v>
+        <v>0.312903</v>
       </c>
       <c r="C14" t="n">
-        <v>0.231706</v>
+        <v>0.231466</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228122</v>
+        <v>0.228323</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.306287</v>
+        <v>0.30735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232037</v>
+        <v>0.232157</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229201</v>
+        <v>0.228803</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.297815</v>
+        <v>0.298502</v>
       </c>
       <c r="C16" t="n">
-        <v>0.231216</v>
+        <v>0.230853</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227574</v>
+        <v>0.227532</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.288761</v>
+        <v>0.289385</v>
       </c>
       <c r="C17" t="n">
-        <v>0.231052</v>
+        <v>0.231072</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227343</v>
+        <v>0.227421</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277343</v>
+        <v>0.277333</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230483</v>
+        <v>0.230651</v>
       </c>
       <c r="D18" t="n">
-        <v>0.227019</v>
+        <v>0.227811</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268045</v>
+        <v>0.267552</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230239</v>
+        <v>0.230127</v>
       </c>
       <c r="D19" t="n">
-        <v>0.227318</v>
+        <v>0.22734</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254823</v>
+        <v>0.254328</v>
       </c>
       <c r="C20" t="n">
-        <v>0.229803</v>
+        <v>0.229948</v>
       </c>
       <c r="D20" t="n">
-        <v>0.226784</v>
+        <v>0.226586</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241143</v>
+        <v>0.240853</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2294</v>
+        <v>0.229264</v>
       </c>
       <c r="D21" t="n">
-        <v>0.225766</v>
+        <v>0.225794</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225612</v>
+        <v>0.225887</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229019</v>
+        <v>0.2293</v>
       </c>
       <c r="D22" t="n">
-        <v>0.225655</v>
+        <v>0.225364</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210773</v>
+        <v>0.210383</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241704</v>
+        <v>0.241762</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238537</v>
+        <v>0.238855</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.351847</v>
+        <v>0.3523</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240825</v>
+        <v>0.241082</v>
       </c>
       <c r="D24" t="n">
-        <v>0.237132</v>
+        <v>0.237229</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345524</v>
+        <v>0.346263</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239844</v>
+        <v>0.239655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.236032</v>
+        <v>0.236202</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.338982</v>
+        <v>0.339048</v>
       </c>
       <c r="C26" t="n">
-        <v>0.238789</v>
+        <v>0.238803</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234883</v>
+        <v>0.235229</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332199</v>
+        <v>0.332868</v>
       </c>
       <c r="C27" t="n">
-        <v>0.238093</v>
+        <v>0.238046</v>
       </c>
       <c r="D27" t="n">
-        <v>0.234226</v>
+        <v>0.234928</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324583</v>
+        <v>0.324641</v>
       </c>
       <c r="C28" t="n">
-        <v>0.236723</v>
+        <v>0.236699</v>
       </c>
       <c r="D28" t="n">
-        <v>0.233431</v>
+        <v>0.233722</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316553</v>
+        <v>0.316945</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236138</v>
+        <v>0.235985</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232627</v>
+        <v>0.232569</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307544</v>
+        <v>0.307994</v>
       </c>
       <c r="C30" t="n">
-        <v>0.234842</v>
+        <v>0.234618</v>
       </c>
       <c r="D30" t="n">
-        <v>0.231349</v>
+        <v>0.231711</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297958</v>
+        <v>0.29864</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234386</v>
+        <v>0.234481</v>
       </c>
       <c r="D31" t="n">
-        <v>0.230787</v>
+        <v>0.230993</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.287936</v>
+        <v>0.288265</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233075</v>
+        <v>0.23308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229825</v>
+        <v>0.229852</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277141</v>
+        <v>0.27668</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232598</v>
+        <v>0.232755</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229508</v>
+        <v>0.229689</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.264313</v>
+        <v>0.26381</v>
       </c>
       <c r="C34" t="n">
-        <v>0.231841</v>
+        <v>0.232028</v>
       </c>
       <c r="D34" t="n">
-        <v>0.228801</v>
+        <v>0.228391</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.250441</v>
+        <v>0.250257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.23122</v>
+        <v>0.231373</v>
       </c>
       <c r="D35" t="n">
-        <v>0.228197</v>
+        <v>0.22808</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235995</v>
+        <v>0.235943</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230683</v>
+        <v>0.230816</v>
       </c>
       <c r="D36" t="n">
-        <v>0.227128</v>
+        <v>0.22706</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219497</v>
+        <v>0.219496</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243686</v>
+        <v>0.243955</v>
       </c>
       <c r="D37" t="n">
-        <v>0.239748</v>
+        <v>0.239856</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.356236</v>
+        <v>0.356569</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242064</v>
+        <v>0.24213</v>
       </c>
       <c r="D38" t="n">
-        <v>0.238434</v>
+        <v>0.23853</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.351275</v>
+        <v>0.350838</v>
       </c>
       <c r="C39" t="n">
-        <v>0.24029</v>
+        <v>0.240368</v>
       </c>
       <c r="D39" t="n">
-        <v>0.237479</v>
+        <v>0.23712</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345157</v>
+        <v>0.345174</v>
       </c>
       <c r="C40" t="n">
-        <v>0.239711</v>
+        <v>0.239522</v>
       </c>
       <c r="D40" t="n">
-        <v>0.236231</v>
+        <v>0.236031</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3391</v>
+        <v>0.338847</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2387</v>
+        <v>0.238653</v>
       </c>
       <c r="D41" t="n">
-        <v>0.235088</v>
+        <v>0.234862</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331178</v>
+        <v>0.330197</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237633</v>
+        <v>0.237395</v>
       </c>
       <c r="D42" t="n">
-        <v>0.233995</v>
+        <v>0.234053</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3215</v>
+        <v>0.321082</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236599</v>
+        <v>0.236621</v>
       </c>
       <c r="D43" t="n">
-        <v>0.23288</v>
+        <v>0.233011</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312561</v>
+        <v>0.312213</v>
       </c>
       <c r="C44" t="n">
-        <v>0.235268</v>
+        <v>0.235428</v>
       </c>
       <c r="D44" t="n">
-        <v>0.231894</v>
+        <v>0.231727</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303102</v>
+        <v>0.30265</v>
       </c>
       <c r="C45" t="n">
-        <v>0.234604</v>
+        <v>0.234579</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230929</v>
+        <v>0.230946</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292189</v>
+        <v>0.291905</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233742</v>
+        <v>0.233987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230501</v>
+        <v>0.230486</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.28131</v>
+        <v>0.28067</v>
       </c>
       <c r="C47" t="n">
-        <v>0.233242</v>
+        <v>0.233284</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229831</v>
+        <v>0.229568</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268706</v>
+        <v>0.26856</v>
       </c>
       <c r="C48" t="n">
-        <v>0.232587</v>
+        <v>0.232805</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229036</v>
+        <v>0.228992</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255585</v>
+        <v>0.255003</v>
       </c>
       <c r="C49" t="n">
-        <v>0.231916</v>
+        <v>0.231946</v>
       </c>
       <c r="D49" t="n">
-        <v>0.228567</v>
+        <v>0.228484</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241129</v>
+        <v>0.240637</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23129</v>
+        <v>0.231567</v>
       </c>
       <c r="D50" t="n">
-        <v>0.227582</v>
+        <v>0.227631</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.22474</v>
+        <v>0.224605</v>
       </c>
       <c r="C51" t="n">
-        <v>0.244321</v>
+        <v>0.245095</v>
       </c>
       <c r="D51" t="n">
-        <v>0.239937</v>
+        <v>0.240013</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208127</v>
+        <v>0.208051</v>
       </c>
       <c r="C52" t="n">
-        <v>0.242529</v>
+        <v>0.242544</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238476</v>
+        <v>0.238555</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354794</v>
+        <v>0.354718</v>
       </c>
       <c r="C53" t="n">
-        <v>0.241673</v>
+        <v>0.241464</v>
       </c>
       <c r="D53" t="n">
-        <v>0.237111</v>
+        <v>0.237151</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348594</v>
+        <v>0.348504</v>
       </c>
       <c r="C54" t="n">
-        <v>0.24066</v>
+        <v>0.240322</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23588</v>
+        <v>0.235919</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.342018</v>
+        <v>0.341733</v>
       </c>
       <c r="C55" t="n">
-        <v>0.238842</v>
+        <v>0.238871</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234706</v>
+        <v>0.234672</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.33442</v>
+        <v>0.333918</v>
       </c>
       <c r="C56" t="n">
-        <v>0.238007</v>
+        <v>0.237942</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233808</v>
+        <v>0.233968</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.326194</v>
+        <v>0.325976</v>
       </c>
       <c r="C57" t="n">
-        <v>0.236862</v>
+        <v>0.236877</v>
       </c>
       <c r="D57" t="n">
-        <v>0.232807</v>
+        <v>0.232895</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316992</v>
+        <v>0.316595</v>
       </c>
       <c r="C58" t="n">
-        <v>0.236014</v>
+        <v>0.235936</v>
       </c>
       <c r="D58" t="n">
-        <v>0.231943</v>
+        <v>0.232247</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.307529</v>
+        <v>0.306907</v>
       </c>
       <c r="C59" t="n">
-        <v>0.235102</v>
+        <v>0.235003</v>
       </c>
       <c r="D59" t="n">
-        <v>0.231232</v>
+        <v>0.231215</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296625</v>
+        <v>0.296567</v>
       </c>
       <c r="C60" t="n">
-        <v>0.234535</v>
+        <v>0.234129</v>
       </c>
       <c r="D60" t="n">
-        <v>0.230373</v>
+        <v>0.230384</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285238</v>
+        <v>0.284954</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233459</v>
+        <v>0.233476</v>
       </c>
       <c r="D61" t="n">
-        <v>0.229488</v>
+        <v>0.229434</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272458</v>
+        <v>0.272103</v>
       </c>
       <c r="C62" t="n">
-        <v>0.232847</v>
+        <v>0.232828</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228982</v>
+        <v>0.228938</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259241</v>
+        <v>0.259334</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232044</v>
+        <v>0.232087</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228354</v>
+        <v>0.228433</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244534</v>
+        <v>0.244295</v>
       </c>
       <c r="C64" t="n">
-        <v>0.23161</v>
+        <v>0.231677</v>
       </c>
       <c r="D64" t="n">
-        <v>0.227754</v>
+        <v>0.227842</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.228924</v>
+        <v>0.228692</v>
       </c>
       <c r="C65" t="n">
-        <v>0.231161</v>
+        <v>0.231233</v>
       </c>
       <c r="D65" t="n">
-        <v>0.227159</v>
+        <v>0.227371</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212558</v>
+        <v>0.212444</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243355</v>
+        <v>0.243749</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23941</v>
+        <v>0.239666</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356706</v>
+        <v>0.356808</v>
       </c>
       <c r="C67" t="n">
-        <v>0.24209</v>
+        <v>0.242304</v>
       </c>
       <c r="D67" t="n">
-        <v>0.237718</v>
+        <v>0.238042</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350623</v>
+        <v>0.350438</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240488</v>
+        <v>0.240616</v>
       </c>
       <c r="D68" t="n">
-        <v>0.236522</v>
+        <v>0.236891</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343857</v>
+        <v>0.344044</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239379</v>
+        <v>0.239689</v>
       </c>
       <c r="D69" t="n">
-        <v>0.235499</v>
+        <v>0.235751</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336334</v>
+        <v>0.336357</v>
       </c>
       <c r="C70" t="n">
-        <v>0.23819</v>
+        <v>0.23839</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23422</v>
+        <v>0.23451</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328255</v>
+        <v>0.327909</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237069</v>
+        <v>0.237066</v>
       </c>
       <c r="D71" t="n">
-        <v>0.233252</v>
+        <v>0.233698</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.31901</v>
+        <v>0.319027</v>
       </c>
       <c r="C72" t="n">
-        <v>0.236376</v>
+        <v>0.236532</v>
       </c>
       <c r="D72" t="n">
-        <v>0.232343</v>
+        <v>0.232632</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309671</v>
+        <v>0.309709</v>
       </c>
       <c r="C73" t="n">
-        <v>0.235485</v>
+        <v>0.23552</v>
       </c>
       <c r="D73" t="n">
-        <v>0.231406</v>
+        <v>0.231664</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299184</v>
+        <v>0.299081</v>
       </c>
       <c r="C74" t="n">
-        <v>0.234425</v>
+        <v>0.23449</v>
       </c>
       <c r="D74" t="n">
-        <v>0.230512</v>
+        <v>0.23078</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28799</v>
+        <v>0.287935</v>
       </c>
       <c r="C75" t="n">
-        <v>0.233684</v>
+        <v>0.233926</v>
       </c>
       <c r="D75" t="n">
-        <v>0.22973</v>
+        <v>0.229892</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276183</v>
+        <v>0.276264</v>
       </c>
       <c r="C76" t="n">
-        <v>0.232943</v>
+        <v>0.233255</v>
       </c>
       <c r="D76" t="n">
-        <v>0.229115</v>
+        <v>0.229189</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262679</v>
+        <v>0.262819</v>
       </c>
       <c r="C77" t="n">
-        <v>0.232362</v>
+        <v>0.232456</v>
       </c>
       <c r="D77" t="n">
-        <v>0.228333</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248374</v>
+        <v>0.248719</v>
       </c>
       <c r="C78" t="n">
-        <v>0.231743</v>
+        <v>0.231714</v>
       </c>
       <c r="D78" t="n">
-        <v>0.228008</v>
+        <v>0.228019</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233433</v>
+        <v>0.233729</v>
       </c>
       <c r="C79" t="n">
-        <v>0.231488</v>
+        <v>0.23144</v>
       </c>
       <c r="D79" t="n">
-        <v>0.227775</v>
+        <v>0.227975</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216783</v>
+        <v>0.217148</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245093</v>
+        <v>0.245008</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241342</v>
+        <v>0.241186</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358482</v>
+        <v>0.35841</v>
       </c>
       <c r="C81" t="n">
-        <v>0.242819</v>
+        <v>0.242988</v>
       </c>
       <c r="D81" t="n">
-        <v>0.23963</v>
+        <v>0.23959</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352607</v>
+        <v>0.35257</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241317</v>
+        <v>0.241557</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237967</v>
+        <v>0.237877</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345596</v>
+        <v>0.34569</v>
       </c>
       <c r="C83" t="n">
-        <v>0.239816</v>
+        <v>0.239825</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23654</v>
+        <v>0.236495</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338486</v>
+        <v>0.338381</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238723</v>
+        <v>0.238637</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235297</v>
+        <v>0.235279</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330324</v>
+        <v>0.33015</v>
       </c>
       <c r="C85" t="n">
-        <v>0.237571</v>
+        <v>0.237459</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234051</v>
+        <v>0.234046</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.32121</v>
+        <v>0.321274</v>
       </c>
       <c r="C86" t="n">
-        <v>0.236658</v>
+        <v>0.236539</v>
       </c>
       <c r="D86" t="n">
-        <v>0.23293</v>
+        <v>0.23304</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.311745</v>
+        <v>0.311664</v>
       </c>
       <c r="C87" t="n">
-        <v>0.235555</v>
+        <v>0.235511</v>
       </c>
       <c r="D87" t="n">
-        <v>0.232152</v>
+        <v>0.23208</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301392</v>
+        <v>0.301286</v>
       </c>
       <c r="C88" t="n">
-        <v>0.234756</v>
+        <v>0.234773</v>
       </c>
       <c r="D88" t="n">
-        <v>0.231183</v>
+        <v>0.231167</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29017</v>
+        <v>0.289895</v>
       </c>
       <c r="C89" t="n">
-        <v>0.234069</v>
+        <v>0.233955</v>
       </c>
       <c r="D89" t="n">
-        <v>0.230437</v>
+        <v>0.230421</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278092</v>
+        <v>0.277932</v>
       </c>
       <c r="C90" t="n">
-        <v>0.23335</v>
+        <v>0.233309</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229701</v>
+        <v>0.229915</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265389</v>
+        <v>0.26531</v>
       </c>
       <c r="C91" t="n">
-        <v>0.232807</v>
+        <v>0.232682</v>
       </c>
       <c r="D91" t="n">
-        <v>0.229071</v>
+        <v>0.229175</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25151</v>
+        <v>0.251355</v>
       </c>
       <c r="C92" t="n">
-        <v>0.232166</v>
+        <v>0.232056</v>
       </c>
       <c r="D92" t="n">
-        <v>0.228518</v>
+        <v>0.228469</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236477</v>
+        <v>0.236157</v>
       </c>
       <c r="C93" t="n">
-        <v>0.231647</v>
+        <v>0.23159</v>
       </c>
       <c r="D93" t="n">
-        <v>0.228297</v>
+        <v>0.228051</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.220001</v>
+        <v>0.219973</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24605</v>
+        <v>0.24592</v>
       </c>
       <c r="D94" t="n">
-        <v>0.241769</v>
+        <v>0.241676</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359494</v>
+        <v>0.359634</v>
       </c>
       <c r="C95" t="n">
-        <v>0.243673</v>
+        <v>0.243688</v>
       </c>
       <c r="D95" t="n">
-        <v>0.23975</v>
+        <v>0.239722</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353949</v>
+        <v>0.353961</v>
       </c>
       <c r="C96" t="n">
-        <v>0.242007</v>
+        <v>0.242136</v>
       </c>
       <c r="D96" t="n">
-        <v>0.238014</v>
+        <v>0.237965</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347471</v>
+        <v>0.347646</v>
       </c>
       <c r="C97" t="n">
-        <v>0.240527</v>
+        <v>0.24053</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236548</v>
+        <v>0.236542</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340258</v>
+        <v>0.340455</v>
       </c>
       <c r="C98" t="n">
-        <v>0.239313</v>
+        <v>0.239268</v>
       </c>
       <c r="D98" t="n">
-        <v>0.23519</v>
+        <v>0.23523</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332198</v>
+        <v>0.332201</v>
       </c>
       <c r="C99" t="n">
-        <v>0.23824</v>
+        <v>0.238157</v>
       </c>
       <c r="D99" t="n">
-        <v>0.234012</v>
+        <v>0.234016</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.323267</v>
+        <v>0.32338</v>
       </c>
       <c r="C100" t="n">
-        <v>0.237168</v>
+        <v>0.23714</v>
       </c>
       <c r="D100" t="n">
-        <v>0.232866</v>
+        <v>0.232858</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313815</v>
+        <v>0.313704</v>
       </c>
       <c r="C101" t="n">
-        <v>0.236057</v>
+        <v>0.23615</v>
       </c>
       <c r="D101" t="n">
-        <v>0.232113</v>
+        <v>0.232146</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303623</v>
+        <v>0.303574</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235161</v>
+        <v>0.23517</v>
       </c>
       <c r="D102" t="n">
-        <v>0.231294</v>
+        <v>0.231252</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292861</v>
+        <v>0.294186</v>
       </c>
       <c r="C103" t="n">
-        <v>0.234298</v>
+        <v>0.23431</v>
       </c>
       <c r="D103" t="n">
-        <v>0.230609</v>
+        <v>0.23051</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28097</v>
+        <v>0.282122</v>
       </c>
       <c r="C104" t="n">
-        <v>0.233566</v>
+        <v>0.233565</v>
       </c>
       <c r="D104" t="n">
-        <v>0.229824</v>
+        <v>0.229844</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268034</v>
+        <v>0.268257</v>
       </c>
       <c r="C105" t="n">
-        <v>0.232989</v>
+        <v>0.232948</v>
       </c>
       <c r="D105" t="n">
-        <v>0.229237</v>
+        <v>0.229236</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254417</v>
+        <v>0.25429</v>
       </c>
       <c r="C106" t="n">
-        <v>0.232312</v>
+        <v>0.232343</v>
       </c>
       <c r="D106" t="n">
-        <v>0.228742</v>
+        <v>0.228733</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239543</v>
+        <v>0.239505</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231893</v>
+        <v>0.231801</v>
       </c>
       <c r="D107" t="n">
-        <v>0.228203</v>
+        <v>0.228134</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225402</v>
+        <v>0.223836</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246398</v>
+        <v>0.246246</v>
       </c>
       <c r="D108" t="n">
-        <v>0.241992</v>
+        <v>0.241923</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.206614</v>
+        <v>0.207048</v>
       </c>
       <c r="C109" t="n">
-        <v>0.244468</v>
+        <v>0.244147</v>
       </c>
       <c r="D109" t="n">
-        <v>0.239889</v>
+        <v>0.239846</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354998</v>
+        <v>0.355039</v>
       </c>
       <c r="C110" t="n">
-        <v>0.242398</v>
+        <v>0.242443</v>
       </c>
       <c r="D110" t="n">
-        <v>0.238207</v>
+        <v>0.238117</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348772</v>
+        <v>0.348845</v>
       </c>
       <c r="C111" t="n">
-        <v>0.24076</v>
+        <v>0.240787</v>
       </c>
       <c r="D111" t="n">
-        <v>0.236733</v>
+        <v>0.236559</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342609</v>
+        <v>0.341418</v>
       </c>
       <c r="C112" t="n">
-        <v>0.23943</v>
+        <v>0.239433</v>
       </c>
       <c r="D112" t="n">
-        <v>0.235411</v>
+        <v>0.235301</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334822</v>
+        <v>0.33481</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238302</v>
+        <v>0.238298</v>
       </c>
       <c r="D113" t="n">
-        <v>0.234276</v>
+        <v>0.234242</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326351</v>
+        <v>0.326379</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237253</v>
+        <v>0.237221</v>
       </c>
       <c r="D114" t="n">
-        <v>0.233281</v>
+        <v>0.233282</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317094</v>
+        <v>0.317119</v>
       </c>
       <c r="C115" t="n">
-        <v>0.236463</v>
+        <v>0.236316</v>
       </c>
       <c r="D115" t="n">
-        <v>0.232185</v>
+        <v>0.232174</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.307056</v>
+        <v>0.307046</v>
       </c>
       <c r="C116" t="n">
-        <v>0.235551</v>
+        <v>0.235433</v>
       </c>
       <c r="D116" t="n">
-        <v>0.23188</v>
+        <v>0.231839</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296463</v>
+        <v>0.296272</v>
       </c>
       <c r="C117" t="n">
-        <v>0.234671</v>
+        <v>0.234621</v>
       </c>
       <c r="D117" t="n">
-        <v>0.231051</v>
+        <v>0.231063</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284947</v>
+        <v>0.284587</v>
       </c>
       <c r="C118" t="n">
-        <v>0.233877</v>
+        <v>0.233893</v>
       </c>
       <c r="D118" t="n">
-        <v>0.230356</v>
+        <v>0.230286</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272588</v>
+        <v>0.272312</v>
       </c>
       <c r="C119" t="n">
-        <v>0.233229</v>
+        <v>0.233174</v>
       </c>
       <c r="D119" t="n">
-        <v>0.229732</v>
+        <v>0.229694</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25903</v>
+        <v>0.258927</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232746</v>
+        <v>0.232691</v>
       </c>
       <c r="D120" t="n">
-        <v>0.229139</v>
+        <v>0.229107</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244585</v>
+        <v>0.244504</v>
       </c>
       <c r="C121" t="n">
-        <v>0.232252</v>
+        <v>0.232231</v>
       </c>
       <c r="D121" t="n">
-        <v>0.228567</v>
+        <v>0.228555</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229032</v>
+        <v>0.228942</v>
       </c>
       <c r="C122" t="n">
-        <v>0.231706</v>
+        <v>0.231695</v>
       </c>
       <c r="D122" t="n">
-        <v>0.228289</v>
+        <v>0.228189</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212126</v>
+        <v>0.211907</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244609</v>
+        <v>0.244558</v>
       </c>
       <c r="D123" t="n">
-        <v>0.240377</v>
+        <v>0.240289</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356304</v>
+        <v>0.356288</v>
       </c>
       <c r="C124" t="n">
-        <v>0.242592</v>
+        <v>0.24276</v>
       </c>
       <c r="D124" t="n">
-        <v>0.238525</v>
+        <v>0.238511</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350181</v>
+        <v>0.350238</v>
       </c>
       <c r="C125" t="n">
-        <v>0.241091</v>
+        <v>0.241153</v>
       </c>
       <c r="D125" t="n">
-        <v>0.237049</v>
+        <v>0.237004</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343154</v>
+        <v>0.344092</v>
       </c>
       <c r="C126" t="n">
-        <v>0.239697</v>
+        <v>0.239718</v>
       </c>
       <c r="D126" t="n">
-        <v>0.235756</v>
+        <v>0.235749</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.335343</v>
+        <v>0.336442</v>
       </c>
       <c r="C127" t="n">
-        <v>0.238478</v>
+        <v>0.238596</v>
       </c>
       <c r="D127" t="n">
-        <v>0.234578</v>
+        <v>0.234591</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.326725</v>
+        <v>0.32811</v>
       </c>
       <c r="C128" t="n">
-        <v>0.237456</v>
+        <v>0.237589</v>
       </c>
       <c r="D128" t="n">
-        <v>0.233498</v>
+        <v>0.233496</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.318824</v>
+        <v>0.318921</v>
       </c>
       <c r="C129" t="n">
-        <v>0.236364</v>
+        <v>0.236444</v>
       </c>
       <c r="D129" t="n">
-        <v>0.23263</v>
+        <v>0.232591</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30893</v>
+        <v>0.309039</v>
       </c>
       <c r="C130" t="n">
-        <v>0.235554</v>
+        <v>0.23561</v>
       </c>
       <c r="D130" t="n">
-        <v>0.231732</v>
+        <v>0.231714</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298406</v>
+        <v>0.29838</v>
       </c>
       <c r="C131" t="n">
-        <v>0.234651</v>
+        <v>0.234778</v>
       </c>
       <c r="D131" t="n">
-        <v>0.230829</v>
+        <v>0.230885</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.286989</v>
+        <v>0.287005</v>
       </c>
       <c r="C132" t="n">
-        <v>0.233897</v>
+        <v>0.233998</v>
       </c>
       <c r="D132" t="n">
-        <v>0.230175</v>
+        <v>0.230161</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274704</v>
+        <v>0.274569</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233238</v>
+        <v>0.233357</v>
       </c>
       <c r="D133" t="n">
-        <v>0.229389</v>
+        <v>0.229433</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261496</v>
+        <v>0.26148</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232827</v>
+        <v>0.232884</v>
       </c>
       <c r="D134" t="n">
-        <v>0.228954</v>
+        <v>0.228992</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247098</v>
+        <v>0.24723</v>
       </c>
       <c r="C135" t="n">
-        <v>0.23222</v>
+        <v>0.232227</v>
       </c>
       <c r="D135" t="n">
-        <v>0.228386</v>
+        <v>0.228474</v>
       </c>
     </row>
     <row r="136">
@@ -5126,10 +5126,10 @@
         <v>0.231842</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231787</v>
+        <v>0.231884</v>
       </c>
       <c r="D136" t="n">
-        <v>0.228259</v>
+        <v>0.228194</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215347</v>
+        <v>0.215391</v>
       </c>
       <c r="C137" t="n">
-        <v>0.245042</v>
+        <v>0.245095</v>
       </c>
       <c r="D137" t="n">
-        <v>0.241293</v>
+        <v>0.241219</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357673</v>
+        <v>0.35743</v>
       </c>
       <c r="C138" t="n">
-        <v>0.243085</v>
+        <v>0.243144</v>
       </c>
       <c r="D138" t="n">
-        <v>0.239251</v>
+        <v>0.239199</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351548</v>
+        <v>0.351456</v>
       </c>
       <c r="C139" t="n">
-        <v>0.241425</v>
+        <v>0.241501</v>
       </c>
       <c r="D139" t="n">
-        <v>0.237631</v>
+        <v>0.237613</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344715</v>
+        <v>0.344771</v>
       </c>
       <c r="C140" t="n">
-        <v>0.23991</v>
+        <v>0.240175</v>
       </c>
       <c r="D140" t="n">
-        <v>0.236215</v>
+        <v>0.236186</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.336959</v>
+        <v>0.337291</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238733</v>
+        <v>0.239063</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234973</v>
+        <v>0.234923</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328954</v>
+        <v>0.328776</v>
       </c>
       <c r="C142" t="n">
-        <v>0.237588</v>
+        <v>0.237699</v>
       </c>
       <c r="D142" t="n">
-        <v>0.233955</v>
+        <v>0.233883</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.319569</v>
+        <v>0.319508</v>
       </c>
       <c r="C143" t="n">
-        <v>0.236617</v>
+        <v>0.236671</v>
       </c>
       <c r="D143" t="n">
-        <v>0.232993</v>
+        <v>0.232935</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.282421</v>
+        <v>0.274001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212616</v>
+        <v>0.210503</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210894</v>
+        <v>0.408518</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269454</v>
+        <v>0.267329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2145</v>
+        <v>0.214329</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212753</v>
+        <v>0.411036</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259835</v>
+        <v>0.257279</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214936</v>
+        <v>0.213703</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212464</v>
+        <v>0.414272</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249622</v>
+        <v>0.246046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.216629</v>
+        <v>0.216478</v>
       </c>
       <c r="D5" t="n">
-        <v>0.214088</v>
+        <v>0.413666</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237065</v>
+        <v>0.234859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.217931</v>
+        <v>0.216352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215114</v>
+        <v>0.415354</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223436</v>
+        <v>0.222376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218706</v>
+        <v>0.217674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216592</v>
+        <v>0.40246</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20885</v>
+        <v>0.206356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220086</v>
+        <v>0.219839</v>
       </c>
       <c r="D8" t="n">
-        <v>0.216292</v>
+        <v>0.405004</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.19395</v>
+        <v>0.193686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.23653</v>
+        <v>0.235523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232984</v>
+        <v>0.406585</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340812</v>
+        <v>0.33652</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235304</v>
+        <v>0.235149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.231745</v>
+        <v>0.408512</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.335086</v>
+        <v>0.330892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233956</v>
+        <v>0.233383</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230715</v>
+        <v>0.409395</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329581</v>
+        <v>0.324594</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233893</v>
+        <v>0.233501</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229694</v>
+        <v>0.41212</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.322919</v>
+        <v>0.31734</v>
       </c>
       <c r="C13" t="n">
-        <v>0.232817</v>
+        <v>0.232693</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228679</v>
+        <v>0.412393</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312903</v>
+        <v>0.311021</v>
       </c>
       <c r="C14" t="n">
-        <v>0.231466</v>
+        <v>0.232309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228323</v>
+        <v>0.414557</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30735</v>
+        <v>0.30368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232157</v>
+        <v>0.231731</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228803</v>
+        <v>0.414374</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.298502</v>
+        <v>0.295437</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230853</v>
+        <v>0.231109</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227532</v>
+        <v>0.416291</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289385</v>
+        <v>0.287556</v>
       </c>
       <c r="C17" t="n">
-        <v>0.231072</v>
+        <v>0.230424</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227421</v>
+        <v>0.418603</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277333</v>
+        <v>0.278142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230651</v>
+        <v>0.230224</v>
       </c>
       <c r="D18" t="n">
-        <v>0.227811</v>
+        <v>0.421783</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267552</v>
+        <v>0.267146</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230127</v>
+        <v>0.231335</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22734</v>
+        <v>0.422695</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254328</v>
+        <v>0.254149</v>
       </c>
       <c r="C20" t="n">
-        <v>0.229948</v>
+        <v>0.230523</v>
       </c>
       <c r="D20" t="n">
-        <v>0.226586</v>
+        <v>0.423817</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240853</v>
+        <v>0.241104</v>
       </c>
       <c r="C21" t="n">
-        <v>0.229264</v>
+        <v>0.230749</v>
       </c>
       <c r="D21" t="n">
-        <v>0.225794</v>
+        <v>0.410183</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225887</v>
+        <v>0.225619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2293</v>
+        <v>0.228827</v>
       </c>
       <c r="D22" t="n">
-        <v>0.225364</v>
+        <v>0.410908</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210383</v>
+        <v>0.209661</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241762</v>
+        <v>0.240975</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238855</v>
+        <v>0.411271</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3523</v>
+        <v>0.345819</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241082</v>
+        <v>0.239385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.237229</v>
+        <v>0.412371</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.346263</v>
+        <v>0.340522</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239655</v>
+        <v>0.239109</v>
       </c>
       <c r="D25" t="n">
-        <v>0.236202</v>
+        <v>0.414713</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.339048</v>
+        <v>0.333859</v>
       </c>
       <c r="C26" t="n">
-        <v>0.238803</v>
+        <v>0.23792</v>
       </c>
       <c r="D26" t="n">
-        <v>0.235229</v>
+        <v>0.41653</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332868</v>
+        <v>0.32862</v>
       </c>
       <c r="C27" t="n">
-        <v>0.238046</v>
+        <v>0.236605</v>
       </c>
       <c r="D27" t="n">
-        <v>0.234928</v>
+        <v>0.415545</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324641</v>
+        <v>0.321602</v>
       </c>
       <c r="C28" t="n">
-        <v>0.236699</v>
+        <v>0.235135</v>
       </c>
       <c r="D28" t="n">
-        <v>0.233722</v>
+        <v>0.417296</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316945</v>
+        <v>0.313512</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235985</v>
+        <v>0.234688</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232569</v>
+        <v>0.419382</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307994</v>
+        <v>0.304827</v>
       </c>
       <c r="C30" t="n">
-        <v>0.234618</v>
+        <v>0.234266</v>
       </c>
       <c r="D30" t="n">
-        <v>0.231711</v>
+        <v>0.41918</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29864</v>
+        <v>0.295292</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234481</v>
+        <v>0.233953</v>
       </c>
       <c r="D31" t="n">
-        <v>0.230993</v>
+        <v>0.423472</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288265</v>
+        <v>0.286035</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23308</v>
+        <v>0.233012</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229852</v>
+        <v>0.424554</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27668</v>
+        <v>0.274129</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232755</v>
+        <v>0.232508</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229689</v>
+        <v>0.425512</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26381</v>
+        <v>0.262486</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232028</v>
+        <v>0.231682</v>
       </c>
       <c r="D34" t="n">
-        <v>0.228391</v>
+        <v>0.426318</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.250257</v>
+        <v>0.25006</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231373</v>
+        <v>0.230768</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22808</v>
+        <v>0.414408</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235943</v>
+        <v>0.236366</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230816</v>
+        <v>0.230904</v>
       </c>
       <c r="D36" t="n">
-        <v>0.22706</v>
+        <v>0.416043</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219496</v>
+        <v>0.220751</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243955</v>
+        <v>0.241372</v>
       </c>
       <c r="D37" t="n">
-        <v>0.239856</v>
+        <v>0.416864</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.356569</v>
+        <v>0.350383</v>
       </c>
       <c r="C38" t="n">
-        <v>0.24213</v>
+        <v>0.240151</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23853</v>
+        <v>0.416445</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.350838</v>
+        <v>0.34689</v>
       </c>
       <c r="C39" t="n">
-        <v>0.240368</v>
+        <v>0.238789</v>
       </c>
       <c r="D39" t="n">
-        <v>0.23712</v>
+        <v>0.417423</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345174</v>
+        <v>0.340223</v>
       </c>
       <c r="C40" t="n">
-        <v>0.239522</v>
+        <v>0.238014</v>
       </c>
       <c r="D40" t="n">
-        <v>0.236031</v>
+        <v>0.418539</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.338847</v>
+        <v>0.333834</v>
       </c>
       <c r="C41" t="n">
-        <v>0.238653</v>
+        <v>0.237036</v>
       </c>
       <c r="D41" t="n">
-        <v>0.234862</v>
+        <v>0.420211</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.330197</v>
+        <v>0.326069</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237395</v>
+        <v>0.236032</v>
       </c>
       <c r="D42" t="n">
-        <v>0.234053</v>
+        <v>0.421247</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321082</v>
+        <v>0.318569</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236621</v>
+        <v>0.235333</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233011</v>
+        <v>0.421803</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312213</v>
+        <v>0.30976</v>
       </c>
       <c r="C44" t="n">
-        <v>0.235428</v>
+        <v>0.234096</v>
       </c>
       <c r="D44" t="n">
-        <v>0.231727</v>
+        <v>0.42485</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30265</v>
+        <v>0.300073</v>
       </c>
       <c r="C45" t="n">
-        <v>0.234579</v>
+        <v>0.233734</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230946</v>
+        <v>0.425268</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291905</v>
+        <v>0.290113</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233987</v>
+        <v>0.233373</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230486</v>
+        <v>0.426761</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.28067</v>
+        <v>0.280044</v>
       </c>
       <c r="C47" t="n">
-        <v>0.233284</v>
+        <v>0.232236</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229568</v>
+        <v>0.428658</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26856</v>
+        <v>0.268713</v>
       </c>
       <c r="C48" t="n">
-        <v>0.232805</v>
+        <v>0.231703</v>
       </c>
       <c r="D48" t="n">
-        <v>0.228992</v>
+        <v>0.431676</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255003</v>
+        <v>0.25599</v>
       </c>
       <c r="C49" t="n">
-        <v>0.231946</v>
+        <v>0.231076</v>
       </c>
       <c r="D49" t="n">
-        <v>0.228484</v>
+        <v>0.432984</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240637</v>
+        <v>0.241561</v>
       </c>
       <c r="C50" t="n">
-        <v>0.231567</v>
+        <v>0.23159</v>
       </c>
       <c r="D50" t="n">
-        <v>0.227631</v>
+        <v>0.424882</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.224605</v>
+        <v>0.226119</v>
       </c>
       <c r="C51" t="n">
-        <v>0.245095</v>
+        <v>0.24178</v>
       </c>
       <c r="D51" t="n">
-        <v>0.240013</v>
+        <v>0.42383</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208051</v>
+        <v>0.209569</v>
       </c>
       <c r="C52" t="n">
-        <v>0.242544</v>
+        <v>0.241438</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238555</v>
+        <v>0.423015</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354718</v>
+        <v>0.34925</v>
       </c>
       <c r="C53" t="n">
-        <v>0.241464</v>
+        <v>0.240041</v>
       </c>
       <c r="D53" t="n">
-        <v>0.237151</v>
+        <v>0.427421</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348504</v>
+        <v>0.343279</v>
       </c>
       <c r="C54" t="n">
-        <v>0.240322</v>
+        <v>0.239196</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235919</v>
+        <v>0.428761</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341733</v>
+        <v>0.337499</v>
       </c>
       <c r="C55" t="n">
-        <v>0.238871</v>
+        <v>0.237882</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234672</v>
+        <v>0.429062</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.333918</v>
+        <v>0.329666</v>
       </c>
       <c r="C56" t="n">
-        <v>0.237942</v>
+        <v>0.237658</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233968</v>
+        <v>0.432108</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325976</v>
+        <v>0.322331</v>
       </c>
       <c r="C57" t="n">
-        <v>0.236877</v>
+        <v>0.236474</v>
       </c>
       <c r="D57" t="n">
-        <v>0.232895</v>
+        <v>0.434951</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316595</v>
+        <v>0.313971</v>
       </c>
       <c r="C58" t="n">
-        <v>0.235936</v>
+        <v>0.234901</v>
       </c>
       <c r="D58" t="n">
-        <v>0.232247</v>
+        <v>0.439963</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306907</v>
+        <v>0.30492</v>
       </c>
       <c r="C59" t="n">
-        <v>0.235003</v>
+        <v>0.233853</v>
       </c>
       <c r="D59" t="n">
-        <v>0.231215</v>
+        <v>0.437681</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296567</v>
+        <v>0.295385</v>
       </c>
       <c r="C60" t="n">
-        <v>0.234129</v>
+        <v>0.232935</v>
       </c>
       <c r="D60" t="n">
-        <v>0.230384</v>
+        <v>0.444158</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284954</v>
+        <v>0.284252</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233476</v>
+        <v>0.232649</v>
       </c>
       <c r="D61" t="n">
-        <v>0.229434</v>
+        <v>0.447199</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272103</v>
+        <v>0.272672</v>
       </c>
       <c r="C62" t="n">
-        <v>0.232828</v>
+        <v>0.231734</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228938</v>
+        <v>0.453461</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259334</v>
+        <v>0.259247</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232087</v>
+        <v>0.23076</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228433</v>
+        <v>0.452819</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244295</v>
+        <v>0.244904</v>
       </c>
       <c r="C64" t="n">
-        <v>0.231677</v>
+        <v>0.230333</v>
       </c>
       <c r="D64" t="n">
-        <v>0.227842</v>
+        <v>0.483378</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.228692</v>
+        <v>0.230051</v>
       </c>
       <c r="C65" t="n">
-        <v>0.231233</v>
+        <v>0.230096</v>
       </c>
       <c r="D65" t="n">
-        <v>0.227371</v>
+        <v>0.478873</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212444</v>
+        <v>0.214514</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243749</v>
+        <v>0.242193</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239666</v>
+        <v>0.485296</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356808</v>
+        <v>0.351727</v>
       </c>
       <c r="C67" t="n">
-        <v>0.242304</v>
+        <v>0.240036</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238042</v>
+        <v>0.507073</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350438</v>
+        <v>0.345985</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240616</v>
+        <v>0.240184</v>
       </c>
       <c r="D68" t="n">
-        <v>0.236891</v>
+        <v>0.504657</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344044</v>
+        <v>0.339314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239689</v>
+        <v>0.239265</v>
       </c>
       <c r="D69" t="n">
-        <v>0.235751</v>
+        <v>0.508623</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336357</v>
+        <v>0.332511</v>
       </c>
       <c r="C70" t="n">
-        <v>0.23839</v>
+        <v>0.238071</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23451</v>
+        <v>0.524194</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.327909</v>
+        <v>0.32497</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237066</v>
+        <v>0.235727</v>
       </c>
       <c r="D71" t="n">
-        <v>0.233698</v>
+        <v>0.520679</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319027</v>
+        <v>0.316649</v>
       </c>
       <c r="C72" t="n">
-        <v>0.236532</v>
+        <v>0.235176</v>
       </c>
       <c r="D72" t="n">
-        <v>0.232632</v>
+        <v>0.539799</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309709</v>
+        <v>0.307366</v>
       </c>
       <c r="C73" t="n">
-        <v>0.23552</v>
+        <v>0.234677</v>
       </c>
       <c r="D73" t="n">
-        <v>0.231664</v>
+        <v>0.53035</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299081</v>
+        <v>0.297463</v>
       </c>
       <c r="C74" t="n">
-        <v>0.23449</v>
+        <v>0.233912</v>
       </c>
       <c r="D74" t="n">
-        <v>0.23078</v>
+        <v>0.54755</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287935</v>
+        <v>0.286817</v>
       </c>
       <c r="C75" t="n">
-        <v>0.233926</v>
+        <v>0.232882</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229892</v>
+        <v>0.538279</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276264</v>
+        <v>0.275213</v>
       </c>
       <c r="C76" t="n">
-        <v>0.233255</v>
+        <v>0.232248</v>
       </c>
       <c r="D76" t="n">
-        <v>0.229189</v>
+        <v>0.542053</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262819</v>
+        <v>0.262304</v>
       </c>
       <c r="C77" t="n">
-        <v>0.232456</v>
+        <v>0.231958</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2286</v>
+        <v>0.541088</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248719</v>
+        <v>0.249022</v>
       </c>
       <c r="C78" t="n">
-        <v>0.231714</v>
+        <v>0.231501</v>
       </c>
       <c r="D78" t="n">
-        <v>0.228019</v>
+        <v>0.604343</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233729</v>
+        <v>0.234693</v>
       </c>
       <c r="C79" t="n">
-        <v>0.23144</v>
+        <v>0.231281</v>
       </c>
       <c r="D79" t="n">
-        <v>0.227975</v>
+        <v>0.626433</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217148</v>
+        <v>0.218823</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245008</v>
+        <v>0.243459</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241186</v>
+        <v>0.609096</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35841</v>
+        <v>0.353132</v>
       </c>
       <c r="C81" t="n">
-        <v>0.242988</v>
+        <v>0.242694</v>
       </c>
       <c r="D81" t="n">
-        <v>0.23959</v>
+        <v>0.606578</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.35257</v>
+        <v>0.347661</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241557</v>
+        <v>0.241726</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237877</v>
+        <v>0.615337</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34569</v>
+        <v>0.341542</v>
       </c>
       <c r="C83" t="n">
-        <v>0.239825</v>
+        <v>0.239864</v>
       </c>
       <c r="D83" t="n">
-        <v>0.236495</v>
+        <v>0.614354</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338381</v>
+        <v>0.334324</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238637</v>
+        <v>0.238406</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235279</v>
+        <v>0.604766</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.33015</v>
+        <v>0.327052</v>
       </c>
       <c r="C85" t="n">
-        <v>0.237459</v>
+        <v>0.237448</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234046</v>
+        <v>0.606919</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321274</v>
+        <v>0.318572</v>
       </c>
       <c r="C86" t="n">
-        <v>0.236539</v>
+        <v>0.235983</v>
       </c>
       <c r="D86" t="n">
-        <v>0.23304</v>
+        <v>0.598535</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.311664</v>
+        <v>0.309481</v>
       </c>
       <c r="C87" t="n">
-        <v>0.235511</v>
+        <v>0.235621</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23208</v>
+        <v>0.599755</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301286</v>
+        <v>0.299459</v>
       </c>
       <c r="C88" t="n">
-        <v>0.234773</v>
+        <v>0.233739</v>
       </c>
       <c r="D88" t="n">
-        <v>0.231167</v>
+        <v>0.6059909999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289895</v>
+        <v>0.289177</v>
       </c>
       <c r="C89" t="n">
-        <v>0.233955</v>
+        <v>0.233172</v>
       </c>
       <c r="D89" t="n">
-        <v>0.230421</v>
+        <v>0.590731</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277932</v>
+        <v>0.277637</v>
       </c>
       <c r="C90" t="n">
-        <v>0.233309</v>
+        <v>0.232556</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229915</v>
+        <v>0.599799</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26531</v>
+        <v>0.265333</v>
       </c>
       <c r="C91" t="n">
-        <v>0.232682</v>
+        <v>0.23177</v>
       </c>
       <c r="D91" t="n">
-        <v>0.229175</v>
+        <v>0.585207</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251355</v>
+        <v>0.252215</v>
       </c>
       <c r="C92" t="n">
-        <v>0.232056</v>
+        <v>0.231274</v>
       </c>
       <c r="D92" t="n">
-        <v>0.228469</v>
+        <v>0.618602</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236157</v>
+        <v>0.237501</v>
       </c>
       <c r="C93" t="n">
-        <v>0.23159</v>
+        <v>0.230869</v>
       </c>
       <c r="D93" t="n">
-        <v>0.228051</v>
+        <v>0.6118170000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.219973</v>
+        <v>0.221666</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24592</v>
+        <v>0.245428</v>
       </c>
       <c r="D94" t="n">
-        <v>0.241676</v>
+        <v>0.610264</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359634</v>
+        <v>0.354279</v>
       </c>
       <c r="C95" t="n">
-        <v>0.243688</v>
+        <v>0.243194</v>
       </c>
       <c r="D95" t="n">
-        <v>0.239722</v>
+        <v>0.610751</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353961</v>
+        <v>0.349162</v>
       </c>
       <c r="C96" t="n">
-        <v>0.242136</v>
+        <v>0.242492</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237965</v>
+        <v>0.601735</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347646</v>
+        <v>0.343182</v>
       </c>
       <c r="C97" t="n">
-        <v>0.24053</v>
+        <v>0.240186</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236542</v>
+        <v>0.602083</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340455</v>
+        <v>0.336376</v>
       </c>
       <c r="C98" t="n">
-        <v>0.239268</v>
+        <v>0.239189</v>
       </c>
       <c r="D98" t="n">
-        <v>0.23523</v>
+        <v>0.598151</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332201</v>
+        <v>0.328603</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238157</v>
+        <v>0.237969</v>
       </c>
       <c r="D99" t="n">
-        <v>0.234016</v>
+        <v>0.595467</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.32338</v>
+        <v>0.320465</v>
       </c>
       <c r="C100" t="n">
-        <v>0.23714</v>
+        <v>0.237616</v>
       </c>
       <c r="D100" t="n">
-        <v>0.232858</v>
+        <v>0.592191</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313704</v>
+        <v>0.311369</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23615</v>
+        <v>0.235639</v>
       </c>
       <c r="D101" t="n">
-        <v>0.232146</v>
+        <v>0.588365</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303574</v>
+        <v>0.301885</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23517</v>
+        <v>0.234443</v>
       </c>
       <c r="D102" t="n">
-        <v>0.231252</v>
+        <v>0.5846710000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294186</v>
+        <v>0.291539</v>
       </c>
       <c r="C103" t="n">
-        <v>0.23431</v>
+        <v>0.233676</v>
       </c>
       <c r="D103" t="n">
-        <v>0.23051</v>
+        <v>0.581589</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282122</v>
+        <v>0.280327</v>
       </c>
       <c r="C104" t="n">
-        <v>0.233565</v>
+        <v>0.233617</v>
       </c>
       <c r="D104" t="n">
-        <v>0.229844</v>
+        <v>0.575809</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268257</v>
+        <v>0.26803</v>
       </c>
       <c r="C105" t="n">
-        <v>0.232948</v>
+        <v>0.232063</v>
       </c>
       <c r="D105" t="n">
-        <v>0.229236</v>
+        <v>0.571796</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25429</v>
+        <v>0.254941</v>
       </c>
       <c r="C106" t="n">
-        <v>0.232343</v>
+        <v>0.232707</v>
       </c>
       <c r="D106" t="n">
-        <v>0.228733</v>
+        <v>0.569906</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239505</v>
+        <v>0.240707</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231801</v>
+        <v>0.231322</v>
       </c>
       <c r="D107" t="n">
-        <v>0.228134</v>
+        <v>0.6070449999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223836</v>
+        <v>0.226046</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246246</v>
+        <v>0.245644</v>
       </c>
       <c r="D108" t="n">
-        <v>0.241923</v>
+        <v>0.606481</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207048</v>
+        <v>0.209359</v>
       </c>
       <c r="C109" t="n">
-        <v>0.244147</v>
+        <v>0.242874</v>
       </c>
       <c r="D109" t="n">
-        <v>0.239846</v>
+        <v>0.604699</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355039</v>
+        <v>0.350163</v>
       </c>
       <c r="C110" t="n">
-        <v>0.242443</v>
+        <v>0.241866</v>
       </c>
       <c r="D110" t="n">
-        <v>0.238117</v>
+        <v>0.6041339999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348845</v>
+        <v>0.34438</v>
       </c>
       <c r="C111" t="n">
-        <v>0.240787</v>
+        <v>0.239595</v>
       </c>
       <c r="D111" t="n">
-        <v>0.236559</v>
+        <v>0.600739</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.341418</v>
+        <v>0.337717</v>
       </c>
       <c r="C112" t="n">
-        <v>0.239433</v>
+        <v>0.239597</v>
       </c>
       <c r="D112" t="n">
-        <v>0.235301</v>
+        <v>0.596413</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.33481</v>
+        <v>0.330386</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238298</v>
+        <v>0.236965</v>
       </c>
       <c r="D113" t="n">
-        <v>0.234242</v>
+        <v>0.594155</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326379</v>
+        <v>0.322439</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237221</v>
+        <v>0.237027</v>
       </c>
       <c r="D114" t="n">
-        <v>0.233282</v>
+        <v>0.588434</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317119</v>
+        <v>0.313697</v>
       </c>
       <c r="C115" t="n">
-        <v>0.236316</v>
+        <v>0.236159</v>
       </c>
       <c r="D115" t="n">
-        <v>0.232174</v>
+        <v>0.5877</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.307046</v>
+        <v>0.304436</v>
       </c>
       <c r="C116" t="n">
-        <v>0.235433</v>
+        <v>0.235436</v>
       </c>
       <c r="D116" t="n">
-        <v>0.231839</v>
+        <v>0.583172</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296272</v>
+        <v>0.293936</v>
       </c>
       <c r="C117" t="n">
-        <v>0.234621</v>
+        <v>0.234284</v>
       </c>
       <c r="D117" t="n">
-        <v>0.231063</v>
+        <v>0.579143</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284587</v>
+        <v>0.282734</v>
       </c>
       <c r="C118" t="n">
-        <v>0.233893</v>
+        <v>0.232788</v>
       </c>
       <c r="D118" t="n">
-        <v>0.230286</v>
+        <v>0.575541</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272312</v>
+        <v>0.270735</v>
       </c>
       <c r="C119" t="n">
-        <v>0.233174</v>
+        <v>0.232241</v>
       </c>
       <c r="D119" t="n">
-        <v>0.229694</v>
+        <v>0.571476</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258927</v>
+        <v>0.258058</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232691</v>
+        <v>0.231888</v>
       </c>
       <c r="D120" t="n">
-        <v>0.229107</v>
+        <v>0.567829</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244504</v>
+        <v>0.243944</v>
       </c>
       <c r="C121" t="n">
-        <v>0.232231</v>
+        <v>0.231203</v>
       </c>
       <c r="D121" t="n">
-        <v>0.228555</v>
+        <v>0.6234150000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228942</v>
+        <v>0.2288</v>
       </c>
       <c r="C122" t="n">
-        <v>0.231695</v>
+        <v>0.230757</v>
       </c>
       <c r="D122" t="n">
-        <v>0.228189</v>
+        <v>0.622034</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.211907</v>
+        <v>0.212494</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244558</v>
+        <v>0.244247</v>
       </c>
       <c r="D123" t="n">
-        <v>0.240289</v>
+        <v>0.621756</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356288</v>
+        <v>0.35162</v>
       </c>
       <c r="C124" t="n">
-        <v>0.24276</v>
+        <v>0.242058</v>
       </c>
       <c r="D124" t="n">
-        <v>0.238511</v>
+        <v>0.618011</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350238</v>
+        <v>0.34572</v>
       </c>
       <c r="C125" t="n">
-        <v>0.241153</v>
+        <v>0.240323</v>
       </c>
       <c r="D125" t="n">
-        <v>0.237004</v>
+        <v>0.615328</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344092</v>
+        <v>0.339203</v>
       </c>
       <c r="C126" t="n">
-        <v>0.239718</v>
+        <v>0.239264</v>
       </c>
       <c r="D126" t="n">
-        <v>0.235749</v>
+        <v>0.611106</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.336442</v>
+        <v>0.332048</v>
       </c>
       <c r="C127" t="n">
-        <v>0.238596</v>
+        <v>0.237253</v>
       </c>
       <c r="D127" t="n">
-        <v>0.234591</v>
+        <v>0.605737</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32811</v>
+        <v>0.324072</v>
       </c>
       <c r="C128" t="n">
-        <v>0.237589</v>
+        <v>0.236683</v>
       </c>
       <c r="D128" t="n">
-        <v>0.233496</v>
+        <v>0.601542</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.318921</v>
+        <v>0.31537</v>
       </c>
       <c r="C129" t="n">
-        <v>0.236444</v>
+        <v>0.236336</v>
       </c>
       <c r="D129" t="n">
-        <v>0.232591</v>
+        <v>0.594327</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.309039</v>
+        <v>0.305948</v>
       </c>
       <c r="C130" t="n">
-        <v>0.23561</v>
+        <v>0.235682</v>
       </c>
       <c r="D130" t="n">
-        <v>0.231714</v>
+        <v>0.591815</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29838</v>
+        <v>0.295917</v>
       </c>
       <c r="C131" t="n">
-        <v>0.234778</v>
+        <v>0.235109</v>
       </c>
       <c r="D131" t="n">
-        <v>0.230885</v>
+        <v>0.587033</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287005</v>
+        <v>0.284909</v>
       </c>
       <c r="C132" t="n">
-        <v>0.233998</v>
+        <v>0.233865</v>
       </c>
       <c r="D132" t="n">
-        <v>0.230161</v>
+        <v>0.58394</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274569</v>
+        <v>0.273342</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233357</v>
+        <v>0.23254</v>
       </c>
       <c r="D133" t="n">
-        <v>0.229433</v>
+        <v>0.577581</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26148</v>
+        <v>0.260668</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232884</v>
+        <v>0.232443</v>
       </c>
       <c r="D134" t="n">
-        <v>0.228992</v>
+        <v>0.573636</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24723</v>
+        <v>0.246924</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232227</v>
+        <v>0.231322</v>
       </c>
       <c r="D135" t="n">
-        <v>0.228474</v>
+        <v>0.628952</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231842</v>
+        <v>0.232436</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231884</v>
+        <v>0.230865</v>
       </c>
       <c r="D136" t="n">
-        <v>0.228194</v>
+        <v>0.627362</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215391</v>
+        <v>0.216414</v>
       </c>
       <c r="C137" t="n">
-        <v>0.245095</v>
+        <v>0.244224</v>
       </c>
       <c r="D137" t="n">
-        <v>0.241219</v>
+        <v>0.628381</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.35743</v>
+        <v>0.352456</v>
       </c>
       <c r="C138" t="n">
-        <v>0.243144</v>
+        <v>0.24233</v>
       </c>
       <c r="D138" t="n">
-        <v>0.239199</v>
+        <v>0.621586</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351456</v>
+        <v>0.346893</v>
       </c>
       <c r="C139" t="n">
-        <v>0.241501</v>
+        <v>0.240978</v>
       </c>
       <c r="D139" t="n">
-        <v>0.237613</v>
+        <v>0.619927</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344771</v>
+        <v>0.340464</v>
       </c>
       <c r="C140" t="n">
-        <v>0.240175</v>
+        <v>0.239864</v>
       </c>
       <c r="D140" t="n">
-        <v>0.236186</v>
+        <v>0.613065</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.337291</v>
+        <v>0.333498</v>
       </c>
       <c r="C141" t="n">
-        <v>0.239063</v>
+        <v>0.237603</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234923</v>
+        <v>0.609297</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328776</v>
+        <v>0.325679</v>
       </c>
       <c r="C142" t="n">
-        <v>0.237699</v>
+        <v>0.23706</v>
       </c>
       <c r="D142" t="n">
-        <v>0.233883</v>
+        <v>0.605032</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.319508</v>
+        <v>0.317213</v>
       </c>
       <c r="C143" t="n">
-        <v>0.236671</v>
+        <v>0.236449</v>
       </c>
       <c r="D143" t="n">
-        <v>0.232935</v>
+        <v>0.600888</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.282421</v>
+        <v>0.280143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212616</v>
+        <v>0.212929</v>
       </c>
       <c r="D2" t="n">
-        <v>0.210894</v>
+        <v>0.218402</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269454</v>
+        <v>0.269594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2145</v>
+        <v>0.213893</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212753</v>
+        <v>0.217331</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259835</v>
+        <v>0.260404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214936</v>
+        <v>0.216678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212464</v>
+        <v>0.219188</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249622</v>
+        <v>0.248064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.216629</v>
+        <v>0.217586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.214088</v>
+        <v>0.219894</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237065</v>
+        <v>0.236994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.217931</v>
+        <v>0.21843</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215114</v>
+        <v>0.219691</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223436</v>
+        <v>0.223625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218706</v>
+        <v>0.219295</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216592</v>
+        <v>0.219418</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20885</v>
+        <v>0.209428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220086</v>
+        <v>0.220357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.216292</v>
+        <v>0.219895</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.19395</v>
+        <v>0.194543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.23653</v>
+        <v>0.237661</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232984</v>
+        <v>0.239867</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340812</v>
+        <v>0.340809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235304</v>
+        <v>0.235975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.231745</v>
+        <v>0.237825</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.335086</v>
+        <v>0.336203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233956</v>
+        <v>0.236956</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230715</v>
+        <v>0.23755</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329581</v>
+        <v>0.330556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.233893</v>
+        <v>0.235821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229694</v>
+        <v>0.23649</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.322919</v>
+        <v>0.32369</v>
       </c>
       <c r="C13" t="n">
-        <v>0.232817</v>
+        <v>0.233122</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228679</v>
+        <v>0.235125</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312903</v>
+        <v>0.31503</v>
       </c>
       <c r="C14" t="n">
-        <v>0.231466</v>
+        <v>0.233168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228323</v>
+        <v>0.235006</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30735</v>
+        <v>0.307072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232157</v>
+        <v>0.233018</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228803</v>
+        <v>0.235143</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.298502</v>
+        <v>0.30039</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230853</v>
+        <v>0.231419</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227532</v>
+        <v>0.233772</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289385</v>
+        <v>0.289988</v>
       </c>
       <c r="C17" t="n">
-        <v>0.231072</v>
+        <v>0.231394</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227421</v>
+        <v>0.234166</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277333</v>
+        <v>0.278512</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230651</v>
+        <v>0.231082</v>
       </c>
       <c r="D18" t="n">
-        <v>0.227811</v>
+        <v>0.233341</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267552</v>
+        <v>0.268059</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230127</v>
+        <v>0.231481</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22734</v>
+        <v>0.233135</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254328</v>
+        <v>0.254697</v>
       </c>
       <c r="C20" t="n">
-        <v>0.229948</v>
+        <v>0.233101</v>
       </c>
       <c r="D20" t="n">
-        <v>0.226586</v>
+        <v>0.231789</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240853</v>
+        <v>0.242774</v>
       </c>
       <c r="C21" t="n">
-        <v>0.229264</v>
+        <v>0.230913</v>
       </c>
       <c r="D21" t="n">
-        <v>0.225794</v>
+        <v>0.231666</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225887</v>
+        <v>0.226243</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2293</v>
+        <v>0.230466</v>
       </c>
       <c r="D22" t="n">
-        <v>0.225364</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210383</v>
+        <v>0.21117</v>
       </c>
       <c r="C23" t="n">
-        <v>0.241762</v>
+        <v>0.242256</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238855</v>
+        <v>0.243157</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3523</v>
+        <v>0.352784</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241082</v>
+        <v>0.240728</v>
       </c>
       <c r="D24" t="n">
-        <v>0.237229</v>
+        <v>0.241957</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.346263</v>
+        <v>0.346273</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239655</v>
+        <v>0.240247</v>
       </c>
       <c r="D25" t="n">
-        <v>0.236202</v>
+        <v>0.241111</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.339048</v>
+        <v>0.339704</v>
       </c>
       <c r="C26" t="n">
-        <v>0.238803</v>
+        <v>0.238843</v>
       </c>
       <c r="D26" t="n">
-        <v>0.235229</v>
+        <v>0.23968</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332868</v>
+        <v>0.332589</v>
       </c>
       <c r="C27" t="n">
-        <v>0.238046</v>
+        <v>0.237626</v>
       </c>
       <c r="D27" t="n">
-        <v>0.234928</v>
+        <v>0.238782</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324641</v>
+        <v>0.324834</v>
       </c>
       <c r="C28" t="n">
-        <v>0.236699</v>
+        <v>0.237168</v>
       </c>
       <c r="D28" t="n">
-        <v>0.233722</v>
+        <v>0.237925</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316945</v>
+        <v>0.317126</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235985</v>
+        <v>0.235814</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232569</v>
+        <v>0.236525</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307994</v>
+        <v>0.307645</v>
       </c>
       <c r="C30" t="n">
-        <v>0.234618</v>
+        <v>0.235141</v>
       </c>
       <c r="D30" t="n">
-        <v>0.231711</v>
+        <v>0.236013</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29864</v>
+        <v>0.298805</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234481</v>
+        <v>0.234928</v>
       </c>
       <c r="D31" t="n">
-        <v>0.230993</v>
+        <v>0.23538</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288265</v>
+        <v>0.288108</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23308</v>
+        <v>0.234459</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229852</v>
+        <v>0.235088</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27668</v>
+        <v>0.276895</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232755</v>
+        <v>0.232791</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229689</v>
+        <v>0.233526</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26381</v>
+        <v>0.264418</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232028</v>
+        <v>0.232668</v>
       </c>
       <c r="D34" t="n">
-        <v>0.228391</v>
+        <v>0.233098</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.250257</v>
+        <v>0.250688</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231373</v>
+        <v>0.231913</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22808</v>
+        <v>0.23241</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235943</v>
+        <v>0.235878</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230816</v>
+        <v>0.230907</v>
       </c>
       <c r="D36" t="n">
-        <v>0.22706</v>
+        <v>0.232188</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219496</v>
+        <v>0.220111</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243955</v>
+        <v>0.243727</v>
       </c>
       <c r="D37" t="n">
-        <v>0.239856</v>
+        <v>0.244724</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.356569</v>
+        <v>0.356168</v>
       </c>
       <c r="C38" t="n">
-        <v>0.24213</v>
+        <v>0.242544</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23853</v>
+        <v>0.242778</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.350838</v>
+        <v>0.350783</v>
       </c>
       <c r="C39" t="n">
-        <v>0.240368</v>
+        <v>0.241095</v>
       </c>
       <c r="D39" t="n">
-        <v>0.23712</v>
+        <v>0.241617</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345174</v>
+        <v>0.345104</v>
       </c>
       <c r="C40" t="n">
-        <v>0.239522</v>
+        <v>0.240207</v>
       </c>
       <c r="D40" t="n">
-        <v>0.236031</v>
+        <v>0.240288</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.338847</v>
+        <v>0.338072</v>
       </c>
       <c r="C41" t="n">
-        <v>0.238653</v>
+        <v>0.238482</v>
       </c>
       <c r="D41" t="n">
-        <v>0.234862</v>
+        <v>0.239152</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.330197</v>
+        <v>0.330503</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237395</v>
+        <v>0.23737</v>
       </c>
       <c r="D42" t="n">
-        <v>0.234053</v>
+        <v>0.238028</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321082</v>
+        <v>0.321973</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236621</v>
+        <v>0.236592</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233011</v>
+        <v>0.237344</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312213</v>
+        <v>0.312945</v>
       </c>
       <c r="C44" t="n">
-        <v>0.235428</v>
+        <v>0.235652</v>
       </c>
       <c r="D44" t="n">
-        <v>0.231727</v>
+        <v>0.23636</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30265</v>
+        <v>0.303144</v>
       </c>
       <c r="C45" t="n">
-        <v>0.234579</v>
+        <v>0.234915</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230946</v>
+        <v>0.235463</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291905</v>
+        <v>0.292538</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233987</v>
+        <v>0.234035</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230486</v>
+        <v>0.234738</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.28067</v>
+        <v>0.281413</v>
       </c>
       <c r="C47" t="n">
-        <v>0.233284</v>
+        <v>0.233262</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229568</v>
+        <v>0.234103</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26856</v>
+        <v>0.268994</v>
       </c>
       <c r="C48" t="n">
-        <v>0.232805</v>
+        <v>0.232712</v>
       </c>
       <c r="D48" t="n">
-        <v>0.228992</v>
+        <v>0.233452</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255003</v>
+        <v>0.255738</v>
       </c>
       <c r="C49" t="n">
-        <v>0.231946</v>
+        <v>0.231994</v>
       </c>
       <c r="D49" t="n">
-        <v>0.228484</v>
+        <v>0.232534</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240637</v>
+        <v>0.241214</v>
       </c>
       <c r="C50" t="n">
-        <v>0.231567</v>
+        <v>0.231477</v>
       </c>
       <c r="D50" t="n">
-        <v>0.227631</v>
+        <v>0.232201</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.224605</v>
+        <v>0.225205</v>
       </c>
       <c r="C51" t="n">
-        <v>0.245095</v>
+        <v>0.245083</v>
       </c>
       <c r="D51" t="n">
-        <v>0.240013</v>
+        <v>0.244883</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208051</v>
+        <v>0.208421</v>
       </c>
       <c r="C52" t="n">
-        <v>0.242544</v>
+        <v>0.243012</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238555</v>
+        <v>0.243497</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354718</v>
+        <v>0.354884</v>
       </c>
       <c r="C53" t="n">
-        <v>0.241464</v>
+        <v>0.241586</v>
       </c>
       <c r="D53" t="n">
-        <v>0.237151</v>
+        <v>0.2417</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348504</v>
+        <v>0.349029</v>
       </c>
       <c r="C54" t="n">
-        <v>0.240322</v>
+        <v>0.240193</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235919</v>
+        <v>0.240521</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341733</v>
+        <v>0.342248</v>
       </c>
       <c r="C55" t="n">
-        <v>0.238871</v>
+        <v>0.239214</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234672</v>
+        <v>0.239593</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.333918</v>
+        <v>0.334523</v>
       </c>
       <c r="C56" t="n">
-        <v>0.237942</v>
+        <v>0.238092</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233968</v>
+        <v>0.23887</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325976</v>
+        <v>0.326304</v>
       </c>
       <c r="C57" t="n">
-        <v>0.236877</v>
+        <v>0.237018</v>
       </c>
       <c r="D57" t="n">
-        <v>0.232895</v>
+        <v>0.237548</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316595</v>
+        <v>0.317231</v>
       </c>
       <c r="C58" t="n">
-        <v>0.235936</v>
+        <v>0.235828</v>
       </c>
       <c r="D58" t="n">
-        <v>0.232247</v>
+        <v>0.236647</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306907</v>
+        <v>0.307921</v>
       </c>
       <c r="C59" t="n">
-        <v>0.235003</v>
+        <v>0.235064</v>
       </c>
       <c r="D59" t="n">
-        <v>0.231215</v>
+        <v>0.235911</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296567</v>
+        <v>0.296842</v>
       </c>
       <c r="C60" t="n">
-        <v>0.234129</v>
+        <v>0.234257</v>
       </c>
       <c r="D60" t="n">
-        <v>0.230384</v>
+        <v>0.235045</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284954</v>
+        <v>0.285841</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233476</v>
+        <v>0.233485</v>
       </c>
       <c r="D61" t="n">
-        <v>0.229434</v>
+        <v>0.234308</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272103</v>
+        <v>0.272857</v>
       </c>
       <c r="C62" t="n">
-        <v>0.232828</v>
+        <v>0.232646</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228938</v>
+        <v>0.233653</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259334</v>
+        <v>0.259657</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232087</v>
+        <v>0.231932</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228433</v>
+        <v>0.232807</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244295</v>
+        <v>0.245073</v>
       </c>
       <c r="C64" t="n">
-        <v>0.231677</v>
+        <v>0.231415</v>
       </c>
       <c r="D64" t="n">
-        <v>0.227842</v>
+        <v>0.232357</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.228692</v>
+        <v>0.229146</v>
       </c>
       <c r="C65" t="n">
-        <v>0.231233</v>
+        <v>0.230857</v>
       </c>
       <c r="D65" t="n">
-        <v>0.227371</v>
+        <v>0.231804</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212444</v>
+        <v>0.212894</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243749</v>
+        <v>0.243201</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239666</v>
+        <v>0.243711</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356808</v>
+        <v>0.35679</v>
       </c>
       <c r="C67" t="n">
-        <v>0.242304</v>
+        <v>0.241749</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238042</v>
+        <v>0.242501</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350438</v>
+        <v>0.350775</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240616</v>
+        <v>0.240493</v>
       </c>
       <c r="D68" t="n">
-        <v>0.236891</v>
+        <v>0.241184</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344044</v>
+        <v>0.344345</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239689</v>
+        <v>0.239207</v>
       </c>
       <c r="D69" t="n">
-        <v>0.235751</v>
+        <v>0.239965</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336357</v>
+        <v>0.336578</v>
       </c>
       <c r="C70" t="n">
-        <v>0.23839</v>
+        <v>0.238076</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23451</v>
+        <v>0.238953</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.327909</v>
+        <v>0.328426</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237066</v>
+        <v>0.237015</v>
       </c>
       <c r="D71" t="n">
-        <v>0.233698</v>
+        <v>0.237902</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319027</v>
+        <v>0.319462</v>
       </c>
       <c r="C72" t="n">
-        <v>0.236532</v>
+        <v>0.236212</v>
       </c>
       <c r="D72" t="n">
-        <v>0.232632</v>
+        <v>0.237098</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309709</v>
+        <v>0.309922</v>
       </c>
       <c r="C73" t="n">
-        <v>0.23552</v>
+        <v>0.235319</v>
       </c>
       <c r="D73" t="n">
-        <v>0.231664</v>
+        <v>0.236211</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299081</v>
+        <v>0.299034</v>
       </c>
       <c r="C74" t="n">
-        <v>0.23449</v>
+        <v>0.234426</v>
       </c>
       <c r="D74" t="n">
-        <v>0.23078</v>
+        <v>0.235321</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287935</v>
+        <v>0.288147</v>
       </c>
       <c r="C75" t="n">
-        <v>0.233926</v>
+        <v>0.233782</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229892</v>
+        <v>0.234737</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276264</v>
+        <v>0.276283</v>
       </c>
       <c r="C76" t="n">
-        <v>0.233255</v>
+        <v>0.232994</v>
       </c>
       <c r="D76" t="n">
-        <v>0.229189</v>
+        <v>0.234027</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262819</v>
+        <v>0.262606</v>
       </c>
       <c r="C77" t="n">
-        <v>0.232456</v>
+        <v>0.232381</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2286</v>
+        <v>0.233433</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248719</v>
+        <v>0.248769</v>
       </c>
       <c r="C78" t="n">
-        <v>0.231714</v>
+        <v>0.231817</v>
       </c>
       <c r="D78" t="n">
-        <v>0.228019</v>
+        <v>0.232896</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233729</v>
+        <v>0.233678</v>
       </c>
       <c r="C79" t="n">
-        <v>0.23144</v>
+        <v>0.231412</v>
       </c>
       <c r="D79" t="n">
-        <v>0.227975</v>
+        <v>0.232343</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217148</v>
+        <v>0.217183</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245008</v>
+        <v>0.245009</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241186</v>
+        <v>0.246032</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35841</v>
+        <v>0.358573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.242988</v>
+        <v>0.243193</v>
       </c>
       <c r="D81" t="n">
-        <v>0.23959</v>
+        <v>0.243921</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.35257</v>
+        <v>0.352592</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241557</v>
+        <v>0.241588</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237877</v>
+        <v>0.242189</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34569</v>
+        <v>0.345668</v>
       </c>
       <c r="C83" t="n">
-        <v>0.239825</v>
+        <v>0.240088</v>
       </c>
       <c r="D83" t="n">
-        <v>0.236495</v>
+        <v>0.240744</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338381</v>
+        <v>0.338589</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238637</v>
+        <v>0.238902</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235279</v>
+        <v>0.239473</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.33015</v>
+        <v>0.330313</v>
       </c>
       <c r="C85" t="n">
-        <v>0.237459</v>
+        <v>0.237888</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234046</v>
+        <v>0.238378</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321274</v>
+        <v>0.321348</v>
       </c>
       <c r="C86" t="n">
-        <v>0.236539</v>
+        <v>0.236745</v>
       </c>
       <c r="D86" t="n">
-        <v>0.23304</v>
+        <v>0.237327</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.311664</v>
+        <v>0.311947</v>
       </c>
       <c r="C87" t="n">
-        <v>0.235511</v>
+        <v>0.235817</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23208</v>
+        <v>0.236463</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301286</v>
+        <v>0.301503</v>
       </c>
       <c r="C88" t="n">
-        <v>0.234773</v>
+        <v>0.234992</v>
       </c>
       <c r="D88" t="n">
-        <v>0.231167</v>
+        <v>0.235885</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289895</v>
+        <v>0.290976</v>
       </c>
       <c r="C89" t="n">
-        <v>0.233955</v>
+        <v>0.234157</v>
       </c>
       <c r="D89" t="n">
-        <v>0.230421</v>
+        <v>0.235048</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277932</v>
+        <v>0.278341</v>
       </c>
       <c r="C90" t="n">
-        <v>0.233309</v>
+        <v>0.233509</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229915</v>
+        <v>0.234367</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26531</v>
+        <v>0.265457</v>
       </c>
       <c r="C91" t="n">
-        <v>0.232682</v>
+        <v>0.232896</v>
       </c>
       <c r="D91" t="n">
-        <v>0.229175</v>
+        <v>0.233897</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251355</v>
+        <v>0.251553</v>
       </c>
       <c r="C92" t="n">
-        <v>0.232056</v>
+        <v>0.232334</v>
       </c>
       <c r="D92" t="n">
-        <v>0.228469</v>
+        <v>0.233275</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236157</v>
+        <v>0.236359</v>
       </c>
       <c r="C93" t="n">
-        <v>0.23159</v>
+        <v>0.231907</v>
       </c>
       <c r="D93" t="n">
-        <v>0.228051</v>
+        <v>0.232988</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.219973</v>
+        <v>0.220159</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24592</v>
+        <v>0.245987</v>
       </c>
       <c r="D94" t="n">
-        <v>0.241676</v>
+        <v>0.246468</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359634</v>
+        <v>0.359786</v>
       </c>
       <c r="C95" t="n">
-        <v>0.243688</v>
+        <v>0.243812</v>
       </c>
       <c r="D95" t="n">
-        <v>0.239722</v>
+        <v>0.244448</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353961</v>
+        <v>0.35409</v>
       </c>
       <c r="C96" t="n">
-        <v>0.242136</v>
+        <v>0.241938</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237965</v>
+        <v>0.24268</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347646</v>
+        <v>0.34769</v>
       </c>
       <c r="C97" t="n">
-        <v>0.24053</v>
+        <v>0.240381</v>
       </c>
       <c r="D97" t="n">
-        <v>0.236542</v>
+        <v>0.241091</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340455</v>
+        <v>0.340431</v>
       </c>
       <c r="C98" t="n">
-        <v>0.239268</v>
+        <v>0.239202</v>
       </c>
       <c r="D98" t="n">
-        <v>0.23523</v>
+        <v>0.239924</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332201</v>
+        <v>0.332332</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238157</v>
+        <v>0.237831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.234016</v>
+        <v>0.238689</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.32338</v>
+        <v>0.323499</v>
       </c>
       <c r="C100" t="n">
-        <v>0.23714</v>
+        <v>0.236898</v>
       </c>
       <c r="D100" t="n">
-        <v>0.232858</v>
+        <v>0.23769</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313704</v>
+        <v>0.313941</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23615</v>
+        <v>0.235929</v>
       </c>
       <c r="D101" t="n">
-        <v>0.232146</v>
+        <v>0.236781</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303574</v>
+        <v>0.303851</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23517</v>
+        <v>0.235146</v>
       </c>
       <c r="D102" t="n">
-        <v>0.231252</v>
+        <v>0.235919</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294186</v>
+        <v>0.294238</v>
       </c>
       <c r="C103" t="n">
-        <v>0.23431</v>
+        <v>0.234373</v>
       </c>
       <c r="D103" t="n">
-        <v>0.23051</v>
+        <v>0.235134</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282122</v>
+        <v>0.282433</v>
       </c>
       <c r="C104" t="n">
-        <v>0.233565</v>
+        <v>0.233614</v>
       </c>
       <c r="D104" t="n">
-        <v>0.229844</v>
+        <v>0.234463</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268257</v>
+        <v>0.269807</v>
       </c>
       <c r="C105" t="n">
-        <v>0.232948</v>
+        <v>0.232974</v>
       </c>
       <c r="D105" t="n">
-        <v>0.229236</v>
+        <v>0.233858</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25429</v>
+        <v>0.256211</v>
       </c>
       <c r="C106" t="n">
-        <v>0.232343</v>
+        <v>0.232484</v>
       </c>
       <c r="D106" t="n">
-        <v>0.228733</v>
+        <v>0.233385</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239505</v>
+        <v>0.240663</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231801</v>
+        <v>0.232024</v>
       </c>
       <c r="D107" t="n">
-        <v>0.228134</v>
+        <v>0.232921</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223836</v>
+        <v>0.224799</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246246</v>
+        <v>0.246253</v>
       </c>
       <c r="D108" t="n">
-        <v>0.241923</v>
+        <v>0.24677</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207048</v>
+        <v>0.207243</v>
       </c>
       <c r="C109" t="n">
-        <v>0.244147</v>
+        <v>0.24417</v>
       </c>
       <c r="D109" t="n">
-        <v>0.239846</v>
+        <v>0.244648</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355039</v>
+        <v>0.355235</v>
       </c>
       <c r="C110" t="n">
-        <v>0.242443</v>
+        <v>0.242411</v>
       </c>
       <c r="D110" t="n">
-        <v>0.238117</v>
+        <v>0.242968</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348845</v>
+        <v>0.349699</v>
       </c>
       <c r="C111" t="n">
-        <v>0.240787</v>
+        <v>0.240854</v>
       </c>
       <c r="D111" t="n">
-        <v>0.236559</v>
+        <v>0.241468</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.341418</v>
+        <v>0.342517</v>
       </c>
       <c r="C112" t="n">
-        <v>0.239433</v>
+        <v>0.239371</v>
       </c>
       <c r="D112" t="n">
-        <v>0.235301</v>
+        <v>0.239996</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.33481</v>
+        <v>0.334777</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238298</v>
+        <v>0.23835</v>
       </c>
       <c r="D113" t="n">
-        <v>0.234242</v>
+        <v>0.238971</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326379</v>
+        <v>0.326322</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237221</v>
+        <v>0.237281</v>
       </c>
       <c r="D114" t="n">
-        <v>0.233282</v>
+        <v>0.237897</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317119</v>
+        <v>0.317039</v>
       </c>
       <c r="C115" t="n">
-        <v>0.236316</v>
+        <v>0.236217</v>
       </c>
       <c r="D115" t="n">
-        <v>0.232174</v>
+        <v>0.236884</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.307046</v>
+        <v>0.307167</v>
       </c>
       <c r="C116" t="n">
-        <v>0.235433</v>
+        <v>0.23536</v>
       </c>
       <c r="D116" t="n">
-        <v>0.231839</v>
+        <v>0.236555</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296272</v>
+        <v>0.29641</v>
       </c>
       <c r="C117" t="n">
-        <v>0.234621</v>
+        <v>0.234618</v>
       </c>
       <c r="D117" t="n">
-        <v>0.231063</v>
+        <v>0.235704</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284587</v>
+        <v>0.284894</v>
       </c>
       <c r="C118" t="n">
-        <v>0.233893</v>
+        <v>0.233872</v>
       </c>
       <c r="D118" t="n">
-        <v>0.230286</v>
+        <v>0.23499</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272312</v>
+        <v>0.272593</v>
       </c>
       <c r="C119" t="n">
-        <v>0.233174</v>
+        <v>0.23315</v>
       </c>
       <c r="D119" t="n">
-        <v>0.229694</v>
+        <v>0.234236</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258927</v>
+        <v>0.259122</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232691</v>
+        <v>0.232656</v>
       </c>
       <c r="D120" t="n">
-        <v>0.229107</v>
+        <v>0.233776</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244504</v>
+        <v>0.244572</v>
       </c>
       <c r="C121" t="n">
         <v>0.232231</v>
       </c>
       <c r="D121" t="n">
-        <v>0.228555</v>
+        <v>0.233279</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228942</v>
+        <v>0.229009</v>
       </c>
       <c r="C122" t="n">
-        <v>0.231695</v>
+        <v>0.231673</v>
       </c>
       <c r="D122" t="n">
-        <v>0.228189</v>
+        <v>0.232837</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.211907</v>
+        <v>0.212049</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244558</v>
+        <v>0.244626</v>
       </c>
       <c r="D123" t="n">
-        <v>0.240289</v>
+        <v>0.245093</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356288</v>
+        <v>0.356445</v>
       </c>
       <c r="C124" t="n">
-        <v>0.24276</v>
+        <v>0.242574</v>
       </c>
       <c r="D124" t="n">
-        <v>0.238511</v>
+        <v>0.243176</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350238</v>
+        <v>0.350212</v>
       </c>
       <c r="C125" t="n">
-        <v>0.241153</v>
+        <v>0.241007</v>
       </c>
       <c r="D125" t="n">
-        <v>0.237004</v>
+        <v>0.241598</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344092</v>
+        <v>0.343259</v>
       </c>
       <c r="C126" t="n">
-        <v>0.239718</v>
+        <v>0.239672</v>
       </c>
       <c r="D126" t="n">
-        <v>0.235749</v>
+        <v>0.240328</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.336442</v>
+        <v>0.335434</v>
       </c>
       <c r="C127" t="n">
-        <v>0.238596</v>
+        <v>0.238448</v>
       </c>
       <c r="D127" t="n">
-        <v>0.234591</v>
+        <v>0.239104</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32811</v>
+        <v>0.326898</v>
       </c>
       <c r="C128" t="n">
-        <v>0.237589</v>
+        <v>0.237384</v>
       </c>
       <c r="D128" t="n">
-        <v>0.233496</v>
+        <v>0.238063</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.318921</v>
+        <v>0.317528</v>
       </c>
       <c r="C129" t="n">
-        <v>0.236444</v>
+        <v>0.236364</v>
       </c>
       <c r="D129" t="n">
-        <v>0.232591</v>
+        <v>0.237042</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.309039</v>
+        <v>0.307535</v>
       </c>
       <c r="C130" t="n">
-        <v>0.23561</v>
+        <v>0.235588</v>
       </c>
       <c r="D130" t="n">
-        <v>0.231714</v>
+        <v>0.236192</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29838</v>
+        <v>0.296734</v>
       </c>
       <c r="C131" t="n">
-        <v>0.234778</v>
+        <v>0.234759</v>
       </c>
       <c r="D131" t="n">
-        <v>0.230885</v>
+        <v>0.235421</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287005</v>
+        <v>0.285316</v>
       </c>
       <c r="C132" t="n">
-        <v>0.233998</v>
+        <v>0.234051</v>
       </c>
       <c r="D132" t="n">
-        <v>0.230161</v>
+        <v>0.234717</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274569</v>
+        <v>0.272836</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233357</v>
+        <v>0.233372</v>
       </c>
       <c r="D133" t="n">
-        <v>0.229433</v>
+        <v>0.234045</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26148</v>
+        <v>0.259649</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232884</v>
+        <v>0.232795</v>
       </c>
       <c r="D134" t="n">
-        <v>0.228992</v>
+        <v>0.233436</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24723</v>
+        <v>0.245341</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232227</v>
+        <v>0.232259</v>
       </c>
       <c r="D135" t="n">
-        <v>0.228474</v>
+        <v>0.233275</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231842</v>
+        <v>0.22997</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231884</v>
+        <v>0.231854</v>
       </c>
       <c r="D136" t="n">
-        <v>0.228194</v>
+        <v>0.233029</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215391</v>
+        <v>0.213403</v>
       </c>
       <c r="C137" t="n">
-        <v>0.245095</v>
+        <v>0.245403</v>
       </c>
       <c r="D137" t="n">
-        <v>0.241219</v>
+        <v>0.246072</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.35743</v>
+        <v>0.357568</v>
       </c>
       <c r="C138" t="n">
-        <v>0.243144</v>
+        <v>0.243391</v>
       </c>
       <c r="D138" t="n">
-        <v>0.239199</v>
+        <v>0.244128</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351456</v>
+        <v>0.351656</v>
       </c>
       <c r="C139" t="n">
-        <v>0.241501</v>
+        <v>0.241446</v>
       </c>
       <c r="D139" t="n">
-        <v>0.237613</v>
+        <v>0.24239</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344771</v>
+        <v>0.344905</v>
       </c>
       <c r="C140" t="n">
-        <v>0.240175</v>
+        <v>0.240193</v>
       </c>
       <c r="D140" t="n">
-        <v>0.236186</v>
+        <v>0.240976</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.337291</v>
+        <v>0.337063</v>
       </c>
       <c r="C141" t="n">
-        <v>0.239063</v>
+        <v>0.238788</v>
       </c>
       <c r="D141" t="n">
-        <v>0.234923</v>
+        <v>0.239785</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328776</v>
+        <v>0.328895</v>
       </c>
       <c r="C142" t="n">
-        <v>0.237699</v>
+        <v>0.237853</v>
       </c>
       <c r="D142" t="n">
-        <v>0.233883</v>
+        <v>0.238697</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.319508</v>
+        <v>0.31986</v>
       </c>
       <c r="C143" t="n">
-        <v>0.236671</v>
+        <v>0.236783</v>
       </c>
       <c r="D143" t="n">
-        <v>0.232935</v>
+        <v>0.23764</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280143</v>
+        <v>0.280959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212929</v>
+        <v>0.230842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218402</v>
+        <v>0.216884</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269594</v>
+        <v>0.268304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213893</v>
+        <v>0.23086</v>
       </c>
       <c r="D3" t="n">
-        <v>0.217331</v>
+        <v>0.217267</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260404</v>
+        <v>0.260392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.216678</v>
+        <v>0.234355</v>
       </c>
       <c r="D4" t="n">
-        <v>0.219188</v>
+        <v>0.218127</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248064</v>
+        <v>0.249455</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217586</v>
+        <v>0.23764</v>
       </c>
       <c r="D5" t="n">
-        <v>0.219894</v>
+        <v>0.220306</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236994</v>
+        <v>0.237931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.21843</v>
+        <v>0.237421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.219691</v>
+        <v>0.218845</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223625</v>
+        <v>0.223291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.219295</v>
+        <v>0.239035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.219418</v>
+        <v>0.220206</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209428</v>
+        <v>0.209383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220357</v>
+        <v>0.240994</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219895</v>
+        <v>0.220444</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194543</v>
+        <v>0.194532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.237661</v>
+        <v>0.256658</v>
       </c>
       <c r="D9" t="n">
-        <v>0.239867</v>
+        <v>0.237797</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340809</v>
+        <v>0.339973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235975</v>
+        <v>0.25451</v>
       </c>
       <c r="D10" t="n">
-        <v>0.237825</v>
+        <v>0.238419</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336203</v>
+        <v>0.336524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.236956</v>
+        <v>0.252352</v>
       </c>
       <c r="D11" t="n">
-        <v>0.23755</v>
+        <v>0.237152</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330556</v>
+        <v>0.330461</v>
       </c>
       <c r="C12" t="n">
-        <v>0.235821</v>
+        <v>0.253212</v>
       </c>
       <c r="D12" t="n">
-        <v>0.23649</v>
+        <v>0.236099</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.32369</v>
+        <v>0.324078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233122</v>
+        <v>0.252018</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235125</v>
+        <v>0.235545</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31503</v>
+        <v>0.314179</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233168</v>
+        <v>0.251471</v>
       </c>
       <c r="D14" t="n">
-        <v>0.235006</v>
+        <v>0.234615</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.307072</v>
+        <v>0.307</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233018</v>
+        <v>0.251597</v>
       </c>
       <c r="D15" t="n">
-        <v>0.235143</v>
+        <v>0.234822</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.30039</v>
+        <v>0.297911</v>
       </c>
       <c r="C16" t="n">
-        <v>0.231419</v>
+        <v>0.251484</v>
       </c>
       <c r="D16" t="n">
-        <v>0.233772</v>
+        <v>0.234418</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289988</v>
+        <v>0.289782</v>
       </c>
       <c r="C17" t="n">
-        <v>0.231394</v>
+        <v>0.25103</v>
       </c>
       <c r="D17" t="n">
-        <v>0.234166</v>
+        <v>0.233477</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.278512</v>
+        <v>0.278152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.231082</v>
+        <v>0.251829</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233341</v>
+        <v>0.233556</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268059</v>
+        <v>0.268762</v>
       </c>
       <c r="C19" t="n">
-        <v>0.231481</v>
+        <v>0.250613</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233135</v>
+        <v>0.23313</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.254697</v>
+        <v>0.255134</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233101</v>
+        <v>0.249753</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231789</v>
+        <v>0.232255</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242774</v>
+        <v>0.241367</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230913</v>
+        <v>0.249443</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231666</v>
+        <v>0.232038</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226243</v>
+        <v>0.226252</v>
       </c>
       <c r="C22" t="n">
-        <v>0.230466</v>
+        <v>0.24959</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2317</v>
+        <v>0.232024</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.21117</v>
+        <v>0.210342</v>
       </c>
       <c r="C23" t="n">
-        <v>0.242256</v>
+        <v>0.261994</v>
       </c>
       <c r="D23" t="n">
-        <v>0.243157</v>
+        <v>0.242999</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.352784</v>
+        <v>0.351532</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240728</v>
+        <v>0.260459</v>
       </c>
       <c r="D24" t="n">
-        <v>0.241957</v>
+        <v>0.241867</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.346273</v>
+        <v>0.345643</v>
       </c>
       <c r="C25" t="n">
-        <v>0.240247</v>
+        <v>0.259594</v>
       </c>
       <c r="D25" t="n">
-        <v>0.241111</v>
+        <v>0.240795</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.339704</v>
+        <v>0.339546</v>
       </c>
       <c r="C26" t="n">
-        <v>0.238843</v>
+        <v>0.258237</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23968</v>
+        <v>0.239615</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332589</v>
+        <v>0.33292</v>
       </c>
       <c r="C27" t="n">
-        <v>0.237626</v>
+        <v>0.25747</v>
       </c>
       <c r="D27" t="n">
-        <v>0.238782</v>
+        <v>0.239013</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324834</v>
+        <v>0.324758</v>
       </c>
       <c r="C28" t="n">
-        <v>0.237168</v>
+        <v>0.256887</v>
       </c>
       <c r="D28" t="n">
-        <v>0.237925</v>
+        <v>0.238073</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.317126</v>
+        <v>0.316486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235814</v>
+        <v>0.254755</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236525</v>
+        <v>0.236671</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307645</v>
+        <v>0.307815</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235141</v>
+        <v>0.254146</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236013</v>
+        <v>0.236446</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298805</v>
+        <v>0.298348</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234928</v>
+        <v>0.253812</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23538</v>
+        <v>0.235441</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288108</v>
+        <v>0.28809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.234459</v>
+        <v>0.253346</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235088</v>
+        <v>0.235117</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.276895</v>
+        <v>0.276661</v>
       </c>
       <c r="C33" t="n">
-        <v>0.232791</v>
+        <v>0.252314</v>
       </c>
       <c r="D33" t="n">
-        <v>0.233526</v>
+        <v>0.234032</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.264418</v>
+        <v>0.263743</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232668</v>
+        <v>0.250938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.233098</v>
+        <v>0.233496</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.250688</v>
+        <v>0.250554</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231913</v>
+        <v>0.250492</v>
       </c>
       <c r="D35" t="n">
-        <v>0.23241</v>
+        <v>0.232777</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235878</v>
+        <v>0.235589</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230907</v>
+        <v>0.24999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.232188</v>
+        <v>0.232151</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220111</v>
+        <v>0.219428</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243727</v>
+        <v>0.262584</v>
       </c>
       <c r="D37" t="n">
-        <v>0.244724</v>
+        <v>0.24418</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.356168</v>
+        <v>0.356426</v>
       </c>
       <c r="C38" t="n">
-        <v>0.242544</v>
+        <v>0.260939</v>
       </c>
       <c r="D38" t="n">
-        <v>0.242778</v>
+        <v>0.243363</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.350783</v>
+        <v>0.351177</v>
       </c>
       <c r="C39" t="n">
-        <v>0.241095</v>
+        <v>0.259716</v>
       </c>
       <c r="D39" t="n">
-        <v>0.241617</v>
+        <v>0.241743</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345104</v>
+        <v>0.345468</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240207</v>
+        <v>0.258417</v>
       </c>
       <c r="D40" t="n">
-        <v>0.240288</v>
+        <v>0.240445</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.338072</v>
+        <v>0.339077</v>
       </c>
       <c r="C41" t="n">
-        <v>0.238482</v>
+        <v>0.257223</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239152</v>
+        <v>0.239224</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.330503</v>
+        <v>0.331345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23737</v>
+        <v>0.25609</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238028</v>
+        <v>0.238119</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321973</v>
+        <v>0.321703</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236592</v>
+        <v>0.255146</v>
       </c>
       <c r="D43" t="n">
-        <v>0.237344</v>
+        <v>0.237225</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312945</v>
+        <v>0.31267</v>
       </c>
       <c r="C44" t="n">
-        <v>0.235652</v>
+        <v>0.254326</v>
       </c>
       <c r="D44" t="n">
-        <v>0.23636</v>
+        <v>0.236427</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303144</v>
+        <v>0.30284</v>
       </c>
       <c r="C45" t="n">
-        <v>0.234915</v>
+        <v>0.254106</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235463</v>
+        <v>0.235592</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292538</v>
+        <v>0.292364</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234035</v>
+        <v>0.253134</v>
       </c>
       <c r="D46" t="n">
-        <v>0.234738</v>
+        <v>0.234954</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281413</v>
+        <v>0.281264</v>
       </c>
       <c r="C47" t="n">
-        <v>0.233262</v>
+        <v>0.25197</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234103</v>
+        <v>0.234016</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268994</v>
+        <v>0.269145</v>
       </c>
       <c r="C48" t="n">
-        <v>0.232712</v>
+        <v>0.251659</v>
       </c>
       <c r="D48" t="n">
-        <v>0.233452</v>
+        <v>0.233433</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255738</v>
+        <v>0.255615</v>
       </c>
       <c r="C49" t="n">
-        <v>0.231994</v>
+        <v>0.250751</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232534</v>
+        <v>0.232905</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241214</v>
+        <v>0.241074</v>
       </c>
       <c r="C50" t="n">
-        <v>0.231477</v>
+        <v>0.250486</v>
       </c>
       <c r="D50" t="n">
-        <v>0.232201</v>
+        <v>0.232567</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.225205</v>
+        <v>0.224894</v>
       </c>
       <c r="C51" t="n">
-        <v>0.245083</v>
+        <v>0.263946</v>
       </c>
       <c r="D51" t="n">
-        <v>0.244883</v>
+        <v>0.244506</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208421</v>
+        <v>0.208444</v>
       </c>
       <c r="C52" t="n">
-        <v>0.243012</v>
+        <v>0.262008</v>
       </c>
       <c r="D52" t="n">
-        <v>0.243497</v>
+        <v>0.243241</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354884</v>
+        <v>0.354644</v>
       </c>
       <c r="C53" t="n">
-        <v>0.241586</v>
+        <v>0.260317</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2417</v>
+        <v>0.241742</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.349029</v>
+        <v>0.348834</v>
       </c>
       <c r="C54" t="n">
-        <v>0.240193</v>
+        <v>0.258828</v>
       </c>
       <c r="D54" t="n">
-        <v>0.240521</v>
+        <v>0.240689</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.342248</v>
+        <v>0.342101</v>
       </c>
       <c r="C55" t="n">
-        <v>0.239214</v>
+        <v>0.257863</v>
       </c>
       <c r="D55" t="n">
-        <v>0.239593</v>
+        <v>0.23969</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334523</v>
+        <v>0.334561</v>
       </c>
       <c r="C56" t="n">
-        <v>0.238092</v>
+        <v>0.257003</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23887</v>
+        <v>0.238796</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.326304</v>
+        <v>0.32646</v>
       </c>
       <c r="C57" t="n">
-        <v>0.237018</v>
+        <v>0.255745</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237548</v>
+        <v>0.237578</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.317231</v>
+        <v>0.317209</v>
       </c>
       <c r="C58" t="n">
-        <v>0.235828</v>
+        <v>0.254811</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236647</v>
+        <v>0.236796</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.307921</v>
+        <v>0.307658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.235064</v>
+        <v>0.254178</v>
       </c>
       <c r="D59" t="n">
-        <v>0.235911</v>
+        <v>0.236083</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296842</v>
+        <v>0.297004</v>
       </c>
       <c r="C60" t="n">
-        <v>0.234257</v>
+        <v>0.253212</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235045</v>
+        <v>0.235217</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285841</v>
+        <v>0.285692</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233485</v>
+        <v>0.252325</v>
       </c>
       <c r="D61" t="n">
-        <v>0.234308</v>
+        <v>0.234516</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272857</v>
+        <v>0.272917</v>
       </c>
       <c r="C62" t="n">
-        <v>0.232646</v>
+        <v>0.25146</v>
       </c>
       <c r="D62" t="n">
-        <v>0.233653</v>
+        <v>0.233984</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259657</v>
+        <v>0.259544</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231932</v>
+        <v>0.250766</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232807</v>
+        <v>0.233098</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245073</v>
+        <v>0.244759</v>
       </c>
       <c r="C64" t="n">
-        <v>0.231415</v>
+        <v>0.250162</v>
       </c>
       <c r="D64" t="n">
-        <v>0.232357</v>
+        <v>0.232822</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229146</v>
+        <v>0.229012</v>
       </c>
       <c r="C65" t="n">
-        <v>0.230857</v>
+        <v>0.249567</v>
       </c>
       <c r="D65" t="n">
-        <v>0.231804</v>
+        <v>0.231971</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212894</v>
+        <v>0.212774</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243201</v>
+        <v>0.262099</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243711</v>
+        <v>0.244334</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35679</v>
+        <v>0.356881</v>
       </c>
       <c r="C67" t="n">
-        <v>0.241749</v>
+        <v>0.260712</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242501</v>
+        <v>0.242713</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350775</v>
+        <v>0.350824</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240493</v>
+        <v>0.259616</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241184</v>
+        <v>0.241583</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344345</v>
+        <v>0.344435</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239207</v>
+        <v>0.258282</v>
       </c>
       <c r="D69" t="n">
-        <v>0.239965</v>
+        <v>0.24026</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336578</v>
+        <v>0.336879</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238076</v>
+        <v>0.257081</v>
       </c>
       <c r="D70" t="n">
-        <v>0.238953</v>
+        <v>0.23922</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328426</v>
+        <v>0.328585</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237015</v>
+        <v>0.256059</v>
       </c>
       <c r="D71" t="n">
-        <v>0.237902</v>
+        <v>0.238286</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319462</v>
+        <v>0.319628</v>
       </c>
       <c r="C72" t="n">
-        <v>0.236212</v>
+        <v>0.255193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.237098</v>
+        <v>0.23735</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309922</v>
+        <v>0.309814</v>
       </c>
       <c r="C73" t="n">
-        <v>0.235319</v>
+        <v>0.254387</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236211</v>
+        <v>0.236448</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299034</v>
+        <v>0.299329</v>
       </c>
       <c r="C74" t="n">
-        <v>0.234426</v>
+        <v>0.253486</v>
       </c>
       <c r="D74" t="n">
-        <v>0.235321</v>
+        <v>0.235616</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288147</v>
+        <v>0.288128</v>
       </c>
       <c r="C75" t="n">
-        <v>0.233782</v>
+        <v>0.252659</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234737</v>
+        <v>0.235099</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276283</v>
+        <v>0.276357</v>
       </c>
       <c r="C76" t="n">
-        <v>0.232994</v>
+        <v>0.252006</v>
       </c>
       <c r="D76" t="n">
-        <v>0.234027</v>
+        <v>0.234322</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262606</v>
+        <v>0.262821</v>
       </c>
       <c r="C77" t="n">
-        <v>0.232381</v>
+        <v>0.251164</v>
       </c>
       <c r="D77" t="n">
-        <v>0.233433</v>
+        <v>0.233736</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248769</v>
+        <v>0.248773</v>
       </c>
       <c r="C78" t="n">
-        <v>0.231817</v>
+        <v>0.250682</v>
       </c>
       <c r="D78" t="n">
-        <v>0.232896</v>
+        <v>0.233217</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233678</v>
+        <v>0.233868</v>
       </c>
       <c r="C79" t="n">
-        <v>0.231412</v>
+        <v>0.250149</v>
       </c>
       <c r="D79" t="n">
-        <v>0.232343</v>
+        <v>0.232648</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217183</v>
+        <v>0.217355</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245009</v>
+        <v>0.264307</v>
       </c>
       <c r="D80" t="n">
-        <v>0.246032</v>
+        <v>0.246226</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358573</v>
+        <v>0.358634</v>
       </c>
       <c r="C81" t="n">
-        <v>0.243193</v>
+        <v>0.262254</v>
       </c>
       <c r="D81" t="n">
-        <v>0.243921</v>
+        <v>0.244249</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352592</v>
+        <v>0.352687</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241588</v>
+        <v>0.260346</v>
       </c>
       <c r="D82" t="n">
-        <v>0.242189</v>
+        <v>0.242381</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345668</v>
+        <v>0.345854</v>
       </c>
       <c r="C83" t="n">
-        <v>0.240088</v>
+        <v>0.258963</v>
       </c>
       <c r="D83" t="n">
-        <v>0.240744</v>
+        <v>0.240937</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338589</v>
+        <v>0.338834</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238902</v>
+        <v>0.257571</v>
       </c>
       <c r="D84" t="n">
-        <v>0.239473</v>
+        <v>0.239718</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330313</v>
+        <v>0.33043</v>
       </c>
       <c r="C85" t="n">
-        <v>0.237888</v>
+        <v>0.256709</v>
       </c>
       <c r="D85" t="n">
-        <v>0.238378</v>
+        <v>0.238611</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321348</v>
+        <v>0.321375</v>
       </c>
       <c r="C86" t="n">
-        <v>0.236745</v>
+        <v>0.255909</v>
       </c>
       <c r="D86" t="n">
-        <v>0.237327</v>
+        <v>0.237649</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.311947</v>
+        <v>0.311867</v>
       </c>
       <c r="C87" t="n">
-        <v>0.235817</v>
+        <v>0.254787</v>
       </c>
       <c r="D87" t="n">
-        <v>0.236463</v>
+        <v>0.23672</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301503</v>
+        <v>0.301627</v>
       </c>
       <c r="C88" t="n">
-        <v>0.234992</v>
+        <v>0.254</v>
       </c>
       <c r="D88" t="n">
-        <v>0.235885</v>
+        <v>0.236162</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290976</v>
+        <v>0.290429</v>
       </c>
       <c r="C89" t="n">
-        <v>0.234157</v>
+        <v>0.253235</v>
       </c>
       <c r="D89" t="n">
-        <v>0.235048</v>
+        <v>0.235299</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278341</v>
+        <v>0.278253</v>
       </c>
       <c r="C90" t="n">
-        <v>0.233509</v>
+        <v>0.252454</v>
       </c>
       <c r="D90" t="n">
-        <v>0.234367</v>
+        <v>0.234587</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265457</v>
+        <v>0.265512</v>
       </c>
       <c r="C91" t="n">
-        <v>0.232896</v>
+        <v>0.251709</v>
       </c>
       <c r="D91" t="n">
-        <v>0.233897</v>
+        <v>0.234118</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251553</v>
+        <v>0.251642</v>
       </c>
       <c r="C92" t="n">
-        <v>0.232334</v>
+        <v>0.251085</v>
       </c>
       <c r="D92" t="n">
-        <v>0.233275</v>
+        <v>0.233601</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236359</v>
+        <v>0.236317</v>
       </c>
       <c r="C93" t="n">
-        <v>0.231907</v>
+        <v>0.250621</v>
       </c>
       <c r="D93" t="n">
-        <v>0.232988</v>
+        <v>0.23329</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.220159</v>
+        <v>0.220033</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245987</v>
+        <v>0.264892</v>
       </c>
       <c r="D94" t="n">
-        <v>0.246468</v>
+        <v>0.246684</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359786</v>
+        <v>0.359817</v>
       </c>
       <c r="C95" t="n">
-        <v>0.243812</v>
+        <v>0.26289</v>
       </c>
       <c r="D95" t="n">
-        <v>0.244448</v>
+        <v>0.24473</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.35409</v>
+        <v>0.354099</v>
       </c>
       <c r="C96" t="n">
-        <v>0.241938</v>
+        <v>0.26094</v>
       </c>
       <c r="D96" t="n">
-        <v>0.24268</v>
+        <v>0.242835</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34769</v>
+        <v>0.347709</v>
       </c>
       <c r="C97" t="n">
-        <v>0.240381</v>
+        <v>0.25937</v>
       </c>
       <c r="D97" t="n">
-        <v>0.241091</v>
+        <v>0.241237</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340431</v>
+        <v>0.340438</v>
       </c>
       <c r="C98" t="n">
-        <v>0.239202</v>
+        <v>0.258273</v>
       </c>
       <c r="D98" t="n">
-        <v>0.239924</v>
+        <v>0.240174</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332332</v>
+        <v>0.332308</v>
       </c>
       <c r="C99" t="n">
-        <v>0.237831</v>
+        <v>0.256966</v>
       </c>
       <c r="D99" t="n">
-        <v>0.238689</v>
+        <v>0.238916</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.323499</v>
+        <v>0.323481</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236898</v>
+        <v>0.255881</v>
       </c>
       <c r="D100" t="n">
-        <v>0.23769</v>
+        <v>0.237921</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313941</v>
+        <v>0.313946</v>
       </c>
       <c r="C101" t="n">
-        <v>0.235929</v>
+        <v>0.254821</v>
       </c>
       <c r="D101" t="n">
-        <v>0.236781</v>
+        <v>0.23697</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303851</v>
+        <v>0.303757</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235146</v>
+        <v>0.254044</v>
       </c>
       <c r="D102" t="n">
-        <v>0.235919</v>
+        <v>0.236173</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294238</v>
+        <v>0.292868</v>
       </c>
       <c r="C103" t="n">
-        <v>0.234373</v>
+        <v>0.253434</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235134</v>
+        <v>0.235481</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282433</v>
+        <v>0.282287</v>
       </c>
       <c r="C104" t="n">
-        <v>0.233614</v>
+        <v>0.252466</v>
       </c>
       <c r="D104" t="n">
-        <v>0.234463</v>
+        <v>0.234708</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269807</v>
+        <v>0.268653</v>
       </c>
       <c r="C105" t="n">
-        <v>0.232974</v>
+        <v>0.251755</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233858</v>
+        <v>0.234103</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.256211</v>
+        <v>0.254586</v>
       </c>
       <c r="C106" t="n">
-        <v>0.232484</v>
+        <v>0.251226</v>
       </c>
       <c r="D106" t="n">
-        <v>0.233385</v>
+        <v>0.233563</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240663</v>
+        <v>0.240488</v>
       </c>
       <c r="C107" t="n">
-        <v>0.232024</v>
+        <v>0.250568</v>
       </c>
       <c r="D107" t="n">
-        <v>0.232921</v>
+        <v>0.233173</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.224799</v>
+        <v>0.223834</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246253</v>
+        <v>0.265465</v>
       </c>
       <c r="D108" t="n">
-        <v>0.24677</v>
+        <v>0.247006</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207243</v>
+        <v>0.206665</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24417</v>
+        <v>0.263209</v>
       </c>
       <c r="D109" t="n">
-        <v>0.244648</v>
+        <v>0.244862</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355235</v>
+        <v>0.355554</v>
       </c>
       <c r="C110" t="n">
-        <v>0.242411</v>
+        <v>0.261418</v>
       </c>
       <c r="D110" t="n">
-        <v>0.242968</v>
+        <v>0.243221</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349699</v>
+        <v>0.349487</v>
       </c>
       <c r="C111" t="n">
-        <v>0.240854</v>
+        <v>0.259951</v>
       </c>
       <c r="D111" t="n">
-        <v>0.241468</v>
+        <v>0.241628</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342517</v>
+        <v>0.342555</v>
       </c>
       <c r="C112" t="n">
-        <v>0.239371</v>
+        <v>0.258444</v>
       </c>
       <c r="D112" t="n">
-        <v>0.239996</v>
+        <v>0.240156</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334777</v>
+        <v>0.334855</v>
       </c>
       <c r="C113" t="n">
-        <v>0.23835</v>
+        <v>0.257439</v>
       </c>
       <c r="D113" t="n">
-        <v>0.238971</v>
+        <v>0.239149</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326322</v>
+        <v>0.326422</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237281</v>
+        <v>0.256255</v>
       </c>
       <c r="D114" t="n">
-        <v>0.237897</v>
+        <v>0.238057</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317039</v>
+        <v>0.317132</v>
       </c>
       <c r="C115" t="n">
-        <v>0.236217</v>
+        <v>0.255453</v>
       </c>
       <c r="D115" t="n">
-        <v>0.236884</v>
+        <v>0.237044</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.307167</v>
+        <v>0.307019</v>
       </c>
       <c r="C116" t="n">
-        <v>0.23536</v>
+        <v>0.254505</v>
       </c>
       <c r="D116" t="n">
-        <v>0.236555</v>
+        <v>0.236672</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.29641</v>
+        <v>0.29638</v>
       </c>
       <c r="C117" t="n">
-        <v>0.234618</v>
+        <v>0.253718</v>
       </c>
       <c r="D117" t="n">
-        <v>0.235704</v>
+        <v>0.235903</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284894</v>
+        <v>0.284825</v>
       </c>
       <c r="C118" t="n">
-        <v>0.233872</v>
+        <v>0.2531</v>
       </c>
       <c r="D118" t="n">
-        <v>0.23499</v>
+        <v>0.235297</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272593</v>
+        <v>0.272421</v>
       </c>
       <c r="C119" t="n">
-        <v>0.23315</v>
+        <v>0.252004</v>
       </c>
       <c r="D119" t="n">
-        <v>0.234236</v>
+        <v>0.234498</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259122</v>
+        <v>0.259125</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232656</v>
+        <v>0.25151</v>
       </c>
       <c r="D120" t="n">
-        <v>0.233776</v>
+        <v>0.233966</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244572</v>
+        <v>0.244402</v>
       </c>
       <c r="C121" t="n">
-        <v>0.232231</v>
+        <v>0.251088</v>
       </c>
       <c r="D121" t="n">
-        <v>0.233279</v>
+        <v>0.233548</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229009</v>
+        <v>0.228824</v>
       </c>
       <c r="C122" t="n">
-        <v>0.231673</v>
+        <v>0.250615</v>
       </c>
       <c r="D122" t="n">
-        <v>0.232837</v>
+        <v>0.233167</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212049</v>
+        <v>0.211892</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244626</v>
+        <v>0.263667</v>
       </c>
       <c r="D123" t="n">
-        <v>0.245093</v>
+        <v>0.245309</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356445</v>
+        <v>0.356259</v>
       </c>
       <c r="C124" t="n">
-        <v>0.242574</v>
+        <v>0.261682</v>
       </c>
       <c r="D124" t="n">
-        <v>0.243176</v>
+        <v>0.243412</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350212</v>
+        <v>0.350074</v>
       </c>
       <c r="C125" t="n">
-        <v>0.241007</v>
+        <v>0.260035</v>
       </c>
       <c r="D125" t="n">
-        <v>0.241598</v>
+        <v>0.241852</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343259</v>
+        <v>0.343147</v>
       </c>
       <c r="C126" t="n">
-        <v>0.239672</v>
+        <v>0.258923</v>
       </c>
       <c r="D126" t="n">
-        <v>0.240328</v>
+        <v>0.240518</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.335434</v>
+        <v>0.335409</v>
       </c>
       <c r="C127" t="n">
-        <v>0.238448</v>
+        <v>0.257722</v>
       </c>
       <c r="D127" t="n">
-        <v>0.239104</v>
+        <v>0.239378</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.326898</v>
+        <v>0.326776</v>
       </c>
       <c r="C128" t="n">
-        <v>0.237384</v>
+        <v>0.256614</v>
       </c>
       <c r="D128" t="n">
-        <v>0.238063</v>
+        <v>0.238368</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.317528</v>
+        <v>0.317619</v>
       </c>
       <c r="C129" t="n">
-        <v>0.236364</v>
+        <v>0.255657</v>
       </c>
       <c r="D129" t="n">
-        <v>0.237042</v>
+        <v>0.237302</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307535</v>
+        <v>0.307562</v>
       </c>
       <c r="C130" t="n">
-        <v>0.235588</v>
+        <v>0.254793</v>
       </c>
       <c r="D130" t="n">
-        <v>0.236192</v>
+        <v>0.236453</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.296734</v>
+        <v>0.298503</v>
       </c>
       <c r="C131" t="n">
-        <v>0.234759</v>
+        <v>0.253947</v>
       </c>
       <c r="D131" t="n">
-        <v>0.235421</v>
+        <v>0.235758</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285316</v>
+        <v>0.28704</v>
       </c>
       <c r="C132" t="n">
-        <v>0.234051</v>
+        <v>0.25324</v>
       </c>
       <c r="D132" t="n">
-        <v>0.234717</v>
+        <v>0.234971</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272836</v>
+        <v>0.274736</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233372</v>
+        <v>0.252566</v>
       </c>
       <c r="D133" t="n">
-        <v>0.234045</v>
+        <v>0.234359</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.259649</v>
+        <v>0.261576</v>
       </c>
       <c r="C134" t="n">
-        <v>0.232795</v>
+        <v>0.251863</v>
       </c>
       <c r="D134" t="n">
-        <v>0.233436</v>
+        <v>0.233766</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.245341</v>
+        <v>0.247147</v>
       </c>
       <c r="C135" t="n">
-        <v>0.232259</v>
+        <v>0.251259</v>
       </c>
       <c r="D135" t="n">
-        <v>0.233275</v>
+        <v>0.233717</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.22997</v>
+        <v>0.231999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231854</v>
+        <v>0.250588</v>
       </c>
       <c r="D136" t="n">
-        <v>0.233029</v>
+        <v>0.233235</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213403</v>
+        <v>0.215434</v>
       </c>
       <c r="C137" t="n">
-        <v>0.245403</v>
+        <v>0.264162</v>
       </c>
       <c r="D137" t="n">
-        <v>0.246072</v>
+        <v>0.246329</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357568</v>
+        <v>0.35766</v>
       </c>
       <c r="C138" t="n">
-        <v>0.243391</v>
+        <v>0.262317</v>
       </c>
       <c r="D138" t="n">
-        <v>0.244128</v>
+        <v>0.244352</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351656</v>
+        <v>0.351542</v>
       </c>
       <c r="C139" t="n">
-        <v>0.241446</v>
+        <v>0.260545</v>
       </c>
       <c r="D139" t="n">
-        <v>0.24239</v>
+        <v>0.242685</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344905</v>
+        <v>0.344774</v>
       </c>
       <c r="C140" t="n">
-        <v>0.240193</v>
+        <v>0.259013</v>
       </c>
       <c r="D140" t="n">
-        <v>0.240976</v>
+        <v>0.241231</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.337063</v>
+        <v>0.33734</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238788</v>
+        <v>0.257931</v>
       </c>
       <c r="D141" t="n">
-        <v>0.239785</v>
+        <v>0.239998</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328895</v>
+        <v>0.328883</v>
       </c>
       <c r="C142" t="n">
-        <v>0.237853</v>
+        <v>0.256886</v>
       </c>
       <c r="D142" t="n">
-        <v>0.238697</v>
+        <v>0.23886</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31986</v>
+        <v>0.319839</v>
       </c>
       <c r="C143" t="n">
-        <v>0.236783</v>
+        <v>0.255802</v>
       </c>
       <c r="D143" t="n">
-        <v>0.23764</v>
+        <v>0.237872</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280959</v>
+        <v>0.28094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230842</v>
+        <v>0.231351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.216884</v>
+        <v>0.216245</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268304</v>
+        <v>0.268943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23086</v>
+        <v>0.232869</v>
       </c>
       <c r="D3" t="n">
-        <v>0.217267</v>
+        <v>0.217152</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260392</v>
+        <v>0.259785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.234355</v>
+        <v>0.235851</v>
       </c>
       <c r="D4" t="n">
-        <v>0.218127</v>
+        <v>0.218096</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249455</v>
+        <v>0.249301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23764</v>
+        <v>0.237739</v>
       </c>
       <c r="D5" t="n">
-        <v>0.220306</v>
+        <v>0.220642</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237931</v>
+        <v>0.237422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.237421</v>
+        <v>0.236797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218845</v>
+        <v>0.218843</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223291</v>
+        <v>0.223383</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239035</v>
+        <v>0.240786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.220206</v>
+        <v>0.220016</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209383</v>
+        <v>0.20866</v>
       </c>
       <c r="C8" t="n">
-        <v>0.240994</v>
+        <v>0.240206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.220444</v>
+        <v>0.220309</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194532</v>
+        <v>0.194378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.256658</v>
+        <v>0.256199</v>
       </c>
       <c r="D9" t="n">
-        <v>0.237797</v>
+        <v>0.239498</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339973</v>
+        <v>0.340805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.25451</v>
+        <v>0.253865</v>
       </c>
       <c r="D10" t="n">
-        <v>0.238419</v>
+        <v>0.238129</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336524</v>
+        <v>0.335587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.252352</v>
+        <v>0.253354</v>
       </c>
       <c r="D11" t="n">
-        <v>0.237152</v>
+        <v>0.237859</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330461</v>
+        <v>0.329724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.253212</v>
+        <v>0.254595</v>
       </c>
       <c r="D12" t="n">
-        <v>0.236099</v>
+        <v>0.236157</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324078</v>
+        <v>0.322572</v>
       </c>
       <c r="C13" t="n">
-        <v>0.252018</v>
+        <v>0.253082</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235545</v>
+        <v>0.235239</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.314179</v>
+        <v>0.313515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.251471</v>
+        <v>0.252853</v>
       </c>
       <c r="D14" t="n">
-        <v>0.234615</v>
+        <v>0.234779</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.307</v>
+        <v>0.30669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.251597</v>
+        <v>0.252743</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234822</v>
+        <v>0.234647</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.297911</v>
+        <v>0.297981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251484</v>
+        <v>0.251392</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234418</v>
+        <v>0.234299</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289782</v>
+        <v>0.29098</v>
       </c>
       <c r="C17" t="n">
-        <v>0.25103</v>
+        <v>0.251636</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233477</v>
+        <v>0.233704</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.278152</v>
+        <v>0.277082</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251829</v>
+        <v>0.250249</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233556</v>
+        <v>0.233639</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268762</v>
+        <v>0.267334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250613</v>
+        <v>0.250251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23313</v>
+        <v>0.233161</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.255134</v>
+        <v>0.25463</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249753</v>
+        <v>0.24932</v>
       </c>
       <c r="D20" t="n">
-        <v>0.232255</v>
+        <v>0.231517</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241367</v>
+        <v>0.240774</v>
       </c>
       <c r="C21" t="n">
-        <v>0.249443</v>
+        <v>0.249937</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232038</v>
+        <v>0.232004</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226252</v>
+        <v>0.225879</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24959</v>
+        <v>0.249506</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232024</v>
+        <v>0.23193</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210342</v>
+        <v>0.209819</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261994</v>
+        <v>0.261766</v>
       </c>
       <c r="D23" t="n">
-        <v>0.242999</v>
+        <v>0.242994</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.351532</v>
+        <v>0.351732</v>
       </c>
       <c r="C24" t="n">
-        <v>0.260459</v>
+        <v>0.260454</v>
       </c>
       <c r="D24" t="n">
-        <v>0.241867</v>
+        <v>0.241968</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345643</v>
+        <v>0.345797</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259594</v>
+        <v>0.259481</v>
       </c>
       <c r="D25" t="n">
-        <v>0.240795</v>
+        <v>0.240954</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.339546</v>
+        <v>0.339532</v>
       </c>
       <c r="C26" t="n">
-        <v>0.258237</v>
+        <v>0.258365</v>
       </c>
       <c r="D26" t="n">
-        <v>0.239615</v>
+        <v>0.239682</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.33292</v>
+        <v>0.332925</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25747</v>
+        <v>0.257101</v>
       </c>
       <c r="D27" t="n">
-        <v>0.239013</v>
+        <v>0.238853</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324758</v>
+        <v>0.324529</v>
       </c>
       <c r="C28" t="n">
-        <v>0.256887</v>
+        <v>0.256633</v>
       </c>
       <c r="D28" t="n">
-        <v>0.238073</v>
+        <v>0.238051</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316486</v>
+        <v>0.316389</v>
       </c>
       <c r="C29" t="n">
-        <v>0.254755</v>
+        <v>0.255279</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236671</v>
+        <v>0.236505</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307815</v>
+        <v>0.307665</v>
       </c>
       <c r="C30" t="n">
-        <v>0.254146</v>
+        <v>0.254628</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236446</v>
+        <v>0.236177</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298348</v>
+        <v>0.298346</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253812</v>
+        <v>0.254518</v>
       </c>
       <c r="D31" t="n">
-        <v>0.235441</v>
+        <v>0.235177</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28809</v>
+        <v>0.288248</v>
       </c>
       <c r="C32" t="n">
-        <v>0.253346</v>
+        <v>0.253513</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235117</v>
+        <v>0.234852</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.276661</v>
+        <v>0.276774</v>
       </c>
       <c r="C33" t="n">
-        <v>0.252314</v>
+        <v>0.251925</v>
       </c>
       <c r="D33" t="n">
-        <v>0.234032</v>
+        <v>0.233542</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.263743</v>
+        <v>0.264309</v>
       </c>
       <c r="C34" t="n">
-        <v>0.250938</v>
+        <v>0.251249</v>
       </c>
       <c r="D34" t="n">
-        <v>0.233496</v>
+        <v>0.23287</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.250554</v>
+        <v>0.250789</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250492</v>
+        <v>0.250756</v>
       </c>
       <c r="D35" t="n">
-        <v>0.232777</v>
+        <v>0.23268</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235589</v>
+        <v>0.235928</v>
       </c>
       <c r="C36" t="n">
-        <v>0.24999</v>
+        <v>0.250266</v>
       </c>
       <c r="D36" t="n">
-        <v>0.232151</v>
+        <v>0.231951</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219428</v>
+        <v>0.219849</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262584</v>
+        <v>0.262172</v>
       </c>
       <c r="D37" t="n">
-        <v>0.24418</v>
+        <v>0.244188</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.356426</v>
+        <v>0.356439</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260939</v>
+        <v>0.260932</v>
       </c>
       <c r="D38" t="n">
-        <v>0.243363</v>
+        <v>0.242715</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.351177</v>
+        <v>0.350601</v>
       </c>
       <c r="C39" t="n">
-        <v>0.259716</v>
+        <v>0.259791</v>
       </c>
       <c r="D39" t="n">
-        <v>0.241743</v>
+        <v>0.241547</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345468</v>
+        <v>0.344887</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258417</v>
+        <v>0.258106</v>
       </c>
       <c r="D40" t="n">
-        <v>0.240445</v>
+        <v>0.24027</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339077</v>
+        <v>0.337667</v>
       </c>
       <c r="C41" t="n">
-        <v>0.257223</v>
+        <v>0.257523</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239224</v>
+        <v>0.239073</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331345</v>
+        <v>0.329723</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25609</v>
+        <v>0.256259</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238119</v>
+        <v>0.238079</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321703</v>
+        <v>0.321361</v>
       </c>
       <c r="C43" t="n">
-        <v>0.255146</v>
+        <v>0.255288</v>
       </c>
       <c r="D43" t="n">
-        <v>0.237225</v>
+        <v>0.23702</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31267</v>
+        <v>0.312304</v>
       </c>
       <c r="C44" t="n">
-        <v>0.254326</v>
+        <v>0.25503</v>
       </c>
       <c r="D44" t="n">
-        <v>0.236427</v>
+        <v>0.236261</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30284</v>
+        <v>0.302373</v>
       </c>
       <c r="C45" t="n">
-        <v>0.254106</v>
+        <v>0.253904</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235592</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292364</v>
+        <v>0.291808</v>
       </c>
       <c r="C46" t="n">
-        <v>0.253134</v>
+        <v>0.253037</v>
       </c>
       <c r="D46" t="n">
-        <v>0.234954</v>
+        <v>0.234631</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281264</v>
+        <v>0.280916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.25197</v>
+        <v>0.252196</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234016</v>
+        <v>0.233843</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.269145</v>
+        <v>0.268662</v>
       </c>
       <c r="C48" t="n">
-        <v>0.251659</v>
+        <v>0.252252</v>
       </c>
       <c r="D48" t="n">
-        <v>0.233433</v>
+        <v>0.23346</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255615</v>
+        <v>0.255317</v>
       </c>
       <c r="C49" t="n">
-        <v>0.250751</v>
+        <v>0.25091</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232905</v>
+        <v>0.232753</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241074</v>
+        <v>0.240761</v>
       </c>
       <c r="C50" t="n">
-        <v>0.250486</v>
+        <v>0.250514</v>
       </c>
       <c r="D50" t="n">
-        <v>0.232567</v>
+        <v>0.232297</v>
       </c>
     </row>
     <row r="51">
@@ -3933,10 +3933,10 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.224894</v>
+        <v>0.22444</v>
       </c>
       <c r="C51" t="n">
-        <v>0.263946</v>
+        <v>0.262853</v>
       </c>
       <c r="D51" t="n">
         <v>0.244506</v>
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208444</v>
+        <v>0.208295</v>
       </c>
       <c r="C52" t="n">
-        <v>0.262008</v>
+        <v>0.261989</v>
       </c>
       <c r="D52" t="n">
-        <v>0.243241</v>
+        <v>0.243187</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354644</v>
+        <v>0.354331</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260317</v>
+        <v>0.260536</v>
       </c>
       <c r="D53" t="n">
-        <v>0.241742</v>
+        <v>0.241803</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348834</v>
+        <v>0.348499</v>
       </c>
       <c r="C54" t="n">
-        <v>0.258828</v>
+        <v>0.258736</v>
       </c>
       <c r="D54" t="n">
-        <v>0.240689</v>
+        <v>0.240471</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.342101</v>
+        <v>0.34164</v>
       </c>
       <c r="C55" t="n">
-        <v>0.257863</v>
+        <v>0.258145</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23969</v>
+        <v>0.239576</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334561</v>
+        <v>0.334042</v>
       </c>
       <c r="C56" t="n">
-        <v>0.257003</v>
+        <v>0.257207</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238796</v>
+        <v>0.23865</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32646</v>
+        <v>0.325949</v>
       </c>
       <c r="C57" t="n">
-        <v>0.255745</v>
+        <v>0.256281</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237578</v>
+        <v>0.237626</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.317209</v>
+        <v>0.316742</v>
       </c>
       <c r="C58" t="n">
-        <v>0.254811</v>
+        <v>0.255226</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236796</v>
+        <v>0.236783</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.307658</v>
+        <v>0.307215</v>
       </c>
       <c r="C59" t="n">
-        <v>0.254178</v>
+        <v>0.254241</v>
       </c>
       <c r="D59" t="n">
-        <v>0.236083</v>
+        <v>0.235879</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.297004</v>
+        <v>0.296917</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253212</v>
+        <v>0.253765</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235217</v>
+        <v>0.235183</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285692</v>
+        <v>0.285017</v>
       </c>
       <c r="C61" t="n">
-        <v>0.252325</v>
+        <v>0.252771</v>
       </c>
       <c r="D61" t="n">
-        <v>0.234516</v>
+        <v>0.234328</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272917</v>
+        <v>0.272148</v>
       </c>
       <c r="C62" t="n">
-        <v>0.25146</v>
+        <v>0.251857</v>
       </c>
       <c r="D62" t="n">
-        <v>0.233984</v>
+        <v>0.23379</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259544</v>
+        <v>0.259155</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250766</v>
+        <v>0.251362</v>
       </c>
       <c r="D63" t="n">
-        <v>0.233098</v>
+        <v>0.232875</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244759</v>
+        <v>0.244396</v>
       </c>
       <c r="C64" t="n">
-        <v>0.250162</v>
+        <v>0.250575</v>
       </c>
       <c r="D64" t="n">
-        <v>0.232822</v>
+        <v>0.232596</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229012</v>
+        <v>0.228646</v>
       </c>
       <c r="C65" t="n">
-        <v>0.249567</v>
+        <v>0.249845</v>
       </c>
       <c r="D65" t="n">
-        <v>0.231971</v>
+        <v>0.231872</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212774</v>
+        <v>0.212295</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262099</v>
+        <v>0.262005</v>
       </c>
       <c r="D66" t="n">
-        <v>0.244334</v>
+        <v>0.244036</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356881</v>
+        <v>0.356426</v>
       </c>
       <c r="C67" t="n">
-        <v>0.260712</v>
+        <v>0.260917</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242713</v>
+        <v>0.242432</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350824</v>
+        <v>0.350478</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259616</v>
+        <v>0.259701</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241583</v>
+        <v>0.241323</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344435</v>
+        <v>0.344012</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258282</v>
+        <v>0.258589</v>
       </c>
       <c r="D69" t="n">
-        <v>0.24026</v>
+        <v>0.240063</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336879</v>
+        <v>0.336184</v>
       </c>
       <c r="C70" t="n">
-        <v>0.257081</v>
+        <v>0.257279</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23922</v>
+        <v>0.238985</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328585</v>
+        <v>0.327966</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256059</v>
+        <v>0.25651</v>
       </c>
       <c r="D71" t="n">
-        <v>0.238286</v>
+        <v>0.238041</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319628</v>
+        <v>0.318987</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255193</v>
+        <v>0.255468</v>
       </c>
       <c r="D72" t="n">
-        <v>0.23735</v>
+        <v>0.237167</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309814</v>
+        <v>0.309252</v>
       </c>
       <c r="C73" t="n">
-        <v>0.254387</v>
+        <v>0.254707</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236448</v>
+        <v>0.236259</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299329</v>
+        <v>0.298714</v>
       </c>
       <c r="C74" t="n">
-        <v>0.253486</v>
+        <v>0.253928</v>
       </c>
       <c r="D74" t="n">
-        <v>0.235616</v>
+        <v>0.235406</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288128</v>
+        <v>0.287739</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252659</v>
+        <v>0.253042</v>
       </c>
       <c r="D75" t="n">
-        <v>0.235099</v>
+        <v>0.23478</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276357</v>
+        <v>0.275922</v>
       </c>
       <c r="C76" t="n">
-        <v>0.252006</v>
+        <v>0.252376</v>
       </c>
       <c r="D76" t="n">
-        <v>0.234322</v>
+        <v>0.234133</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262821</v>
+        <v>0.262366</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251164</v>
+        <v>0.251689</v>
       </c>
       <c r="D77" t="n">
-        <v>0.233736</v>
+        <v>0.233481</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248773</v>
+        <v>0.248331</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250682</v>
+        <v>0.25111</v>
       </c>
       <c r="D78" t="n">
-        <v>0.233217</v>
+        <v>0.233068</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233868</v>
+        <v>0.233325</v>
       </c>
       <c r="C79" t="n">
-        <v>0.250149</v>
+        <v>0.250329</v>
       </c>
       <c r="D79" t="n">
-        <v>0.232648</v>
+        <v>0.232646</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217355</v>
+        <v>0.216647</v>
       </c>
       <c r="C80" t="n">
-        <v>0.264307</v>
+        <v>0.264494</v>
       </c>
       <c r="D80" t="n">
-        <v>0.246226</v>
+        <v>0.245977</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358634</v>
+        <v>0.358394</v>
       </c>
       <c r="C81" t="n">
-        <v>0.262254</v>
+        <v>0.262567</v>
       </c>
       <c r="D81" t="n">
-        <v>0.244249</v>
+        <v>0.244018</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352687</v>
+        <v>0.35244</v>
       </c>
       <c r="C82" t="n">
-        <v>0.260346</v>
+        <v>0.260726</v>
       </c>
       <c r="D82" t="n">
-        <v>0.242381</v>
+        <v>0.242265</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345854</v>
+        <v>0.345577</v>
       </c>
       <c r="C83" t="n">
-        <v>0.258963</v>
+        <v>0.259487</v>
       </c>
       <c r="D83" t="n">
-        <v>0.240937</v>
+        <v>0.24075</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338834</v>
+        <v>0.338388</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257571</v>
+        <v>0.25793</v>
       </c>
       <c r="D84" t="n">
-        <v>0.239718</v>
+        <v>0.23965</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.33043</v>
+        <v>0.330255</v>
       </c>
       <c r="C85" t="n">
-        <v>0.256709</v>
+        <v>0.257159</v>
       </c>
       <c r="D85" t="n">
-        <v>0.238611</v>
+        <v>0.238483</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321375</v>
+        <v>0.321176</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255909</v>
+        <v>0.256171</v>
       </c>
       <c r="D86" t="n">
-        <v>0.237649</v>
+        <v>0.237624</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.311867</v>
+        <v>0.311842</v>
       </c>
       <c r="C87" t="n">
-        <v>0.254787</v>
+        <v>0.254991</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23672</v>
+        <v>0.236683</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301627</v>
+        <v>0.301411</v>
       </c>
       <c r="C88" t="n">
-        <v>0.254</v>
+        <v>0.254412</v>
       </c>
       <c r="D88" t="n">
-        <v>0.236162</v>
+        <v>0.23613</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290429</v>
+        <v>0.290205</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253235</v>
+        <v>0.253711</v>
       </c>
       <c r="D89" t="n">
-        <v>0.235299</v>
+        <v>0.235281</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278253</v>
+        <v>0.278066</v>
       </c>
       <c r="C90" t="n">
-        <v>0.252454</v>
+        <v>0.252998</v>
       </c>
       <c r="D90" t="n">
-        <v>0.234587</v>
+        <v>0.234514</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265512</v>
+        <v>0.265277</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251709</v>
+        <v>0.252018</v>
       </c>
       <c r="D91" t="n">
-        <v>0.234118</v>
+        <v>0.233941</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251642</v>
+        <v>0.251565</v>
       </c>
       <c r="C92" t="n">
-        <v>0.251085</v>
+        <v>0.251216</v>
       </c>
       <c r="D92" t="n">
-        <v>0.233601</v>
+        <v>0.233262</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236317</v>
+        <v>0.23613</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250621</v>
+        <v>0.250857</v>
       </c>
       <c r="D93" t="n">
-        <v>0.23329</v>
+        <v>0.232917</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.220033</v>
+        <v>0.219965</v>
       </c>
       <c r="C94" t="n">
-        <v>0.264892</v>
+        <v>0.265317</v>
       </c>
       <c r="D94" t="n">
-        <v>0.246684</v>
+        <v>0.246513</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359817</v>
+        <v>0.359633</v>
       </c>
       <c r="C95" t="n">
-        <v>0.26289</v>
+        <v>0.263348</v>
       </c>
       <c r="D95" t="n">
-        <v>0.24473</v>
+        <v>0.244671</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354099</v>
+        <v>0.353883</v>
       </c>
       <c r="C96" t="n">
-        <v>0.26094</v>
+        <v>0.261666</v>
       </c>
       <c r="D96" t="n">
-        <v>0.242835</v>
+        <v>0.242697</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347709</v>
+        <v>0.347447</v>
       </c>
       <c r="C97" t="n">
-        <v>0.25937</v>
+        <v>0.25981</v>
       </c>
       <c r="D97" t="n">
-        <v>0.241237</v>
+        <v>0.241128</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340438</v>
+        <v>0.340257</v>
       </c>
       <c r="C98" t="n">
-        <v>0.258273</v>
+        <v>0.258451</v>
       </c>
       <c r="D98" t="n">
-        <v>0.240174</v>
+        <v>0.240012</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332308</v>
+        <v>0.332172</v>
       </c>
       <c r="C99" t="n">
-        <v>0.256966</v>
+        <v>0.257588</v>
       </c>
       <c r="D99" t="n">
-        <v>0.238916</v>
+        <v>0.238817</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.323481</v>
+        <v>0.323303</v>
       </c>
       <c r="C100" t="n">
-        <v>0.255881</v>
+        <v>0.256288</v>
       </c>
       <c r="D100" t="n">
-        <v>0.237921</v>
+        <v>0.237782</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313946</v>
+        <v>0.313754</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254821</v>
+        <v>0.255448</v>
       </c>
       <c r="D101" t="n">
-        <v>0.23697</v>
+        <v>0.236801</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303757</v>
+        <v>0.303609</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254044</v>
+        <v>0.254363</v>
       </c>
       <c r="D102" t="n">
-        <v>0.236173</v>
+        <v>0.236065</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292868</v>
+        <v>0.292864</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253434</v>
+        <v>0.254005</v>
       </c>
       <c r="D103" t="n">
-        <v>0.235481</v>
+        <v>0.235303</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282287</v>
+        <v>0.28222</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252466</v>
+        <v>0.252896</v>
       </c>
       <c r="D104" t="n">
-        <v>0.234708</v>
+        <v>0.234564</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268653</v>
+        <v>0.269629</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251755</v>
+        <v>0.252169</v>
       </c>
       <c r="D105" t="n">
-        <v>0.234103</v>
+        <v>0.233903</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254586</v>
+        <v>0.254838</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251226</v>
+        <v>0.251596</v>
       </c>
       <c r="D106" t="n">
-        <v>0.233563</v>
+        <v>0.233369</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240488</v>
+        <v>0.239821</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250568</v>
+        <v>0.250814</v>
       </c>
       <c r="D107" t="n">
-        <v>0.233173</v>
+        <v>0.233004</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223834</v>
+        <v>0.223842</v>
       </c>
       <c r="C108" t="n">
-        <v>0.265465</v>
+        <v>0.265843</v>
       </c>
       <c r="D108" t="n">
-        <v>0.247006</v>
+        <v>0.246834</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.206665</v>
+        <v>0.206664</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263209</v>
+        <v>0.263786</v>
       </c>
       <c r="D109" t="n">
-        <v>0.244862</v>
+        <v>0.244732</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355554</v>
+        <v>0.355042</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261418</v>
+        <v>0.262117</v>
       </c>
       <c r="D110" t="n">
-        <v>0.243221</v>
+        <v>0.243079</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349487</v>
+        <v>0.349425</v>
       </c>
       <c r="C111" t="n">
-        <v>0.259951</v>
+        <v>0.260463</v>
       </c>
       <c r="D111" t="n">
-        <v>0.241628</v>
+        <v>0.241561</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342555</v>
+        <v>0.342539</v>
       </c>
       <c r="C112" t="n">
-        <v>0.258444</v>
+        <v>0.259218</v>
       </c>
       <c r="D112" t="n">
-        <v>0.240156</v>
+        <v>0.240068</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334855</v>
+        <v>0.33467</v>
       </c>
       <c r="C113" t="n">
-        <v>0.257439</v>
+        <v>0.258209</v>
       </c>
       <c r="D113" t="n">
-        <v>0.239149</v>
+        <v>0.239045</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326422</v>
+        <v>0.326337</v>
       </c>
       <c r="C114" t="n">
-        <v>0.256255</v>
+        <v>0.257238</v>
       </c>
       <c r="D114" t="n">
-        <v>0.238057</v>
+        <v>0.237995</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317132</v>
+        <v>0.317134</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255453</v>
+        <v>0.256183</v>
       </c>
       <c r="D115" t="n">
-        <v>0.237044</v>
+        <v>0.237026</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.307019</v>
+        <v>0.307133</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254505</v>
+        <v>0.255012</v>
       </c>
       <c r="D116" t="n">
-        <v>0.236672</v>
+        <v>0.236698</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.29638</v>
+        <v>0.296556</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253718</v>
+        <v>0.254341</v>
       </c>
       <c r="D117" t="n">
-        <v>0.235903</v>
+        <v>0.235825</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284825</v>
+        <v>0.285072</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2531</v>
+        <v>0.25342</v>
       </c>
       <c r="D118" t="n">
-        <v>0.235297</v>
+        <v>0.235083</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272421</v>
+        <v>0.272721</v>
       </c>
       <c r="C119" t="n">
-        <v>0.252004</v>
+        <v>0.252385</v>
       </c>
       <c r="D119" t="n">
-        <v>0.234498</v>
+        <v>0.234365</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259125</v>
+        <v>0.259163</v>
       </c>
       <c r="C120" t="n">
-        <v>0.25151</v>
+        <v>0.251794</v>
       </c>
       <c r="D120" t="n">
-        <v>0.233966</v>
+        <v>0.233867</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244402</v>
+        <v>0.244748</v>
       </c>
       <c r="C121" t="n">
-        <v>0.251088</v>
+        <v>0.25155</v>
       </c>
       <c r="D121" t="n">
-        <v>0.233548</v>
+        <v>0.233558</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228824</v>
+        <v>0.229045</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250615</v>
+        <v>0.251017</v>
       </c>
       <c r="D122" t="n">
-        <v>0.233167</v>
+        <v>0.233147</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.211892</v>
+        <v>0.212077</v>
       </c>
       <c r="C123" t="n">
-        <v>0.263667</v>
+        <v>0.263796</v>
       </c>
       <c r="D123" t="n">
-        <v>0.245309</v>
+        <v>0.245231</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356259</v>
+        <v>0.356302</v>
       </c>
       <c r="C124" t="n">
-        <v>0.261682</v>
+        <v>0.262227</v>
       </c>
       <c r="D124" t="n">
-        <v>0.243412</v>
+        <v>0.243447</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350074</v>
+        <v>0.350282</v>
       </c>
       <c r="C125" t="n">
-        <v>0.260035</v>
+        <v>0.26053</v>
       </c>
       <c r="D125" t="n">
-        <v>0.241852</v>
+        <v>0.241893</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343147</v>
+        <v>0.343232</v>
       </c>
       <c r="C126" t="n">
-        <v>0.258923</v>
+        <v>0.259366</v>
       </c>
       <c r="D126" t="n">
-        <v>0.240518</v>
+        <v>0.240498</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.335409</v>
+        <v>0.335459</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257722</v>
+        <v>0.258065</v>
       </c>
       <c r="D127" t="n">
-        <v>0.239378</v>
+        <v>0.239323</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.326776</v>
+        <v>0.326745</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256614</v>
+        <v>0.256989</v>
       </c>
       <c r="D128" t="n">
-        <v>0.238368</v>
+        <v>0.238251</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.317619</v>
+        <v>0.317533</v>
       </c>
       <c r="C129" t="n">
-        <v>0.255657</v>
+        <v>0.255898</v>
       </c>
       <c r="D129" t="n">
-        <v>0.237302</v>
+        <v>0.237246</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307562</v>
+        <v>0.309035</v>
       </c>
       <c r="C130" t="n">
-        <v>0.254793</v>
+        <v>0.254997</v>
       </c>
       <c r="D130" t="n">
-        <v>0.236453</v>
+        <v>0.236417</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298503</v>
+        <v>0.298323</v>
       </c>
       <c r="C131" t="n">
-        <v>0.253947</v>
+        <v>0.25427</v>
       </c>
       <c r="D131" t="n">
-        <v>0.235758</v>
+        <v>0.235622</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28704</v>
+        <v>0.287013</v>
       </c>
       <c r="C132" t="n">
-        <v>0.25324</v>
+        <v>0.253511</v>
       </c>
       <c r="D132" t="n">
-        <v>0.234971</v>
+        <v>0.234866</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274736</v>
+        <v>0.27475</v>
       </c>
       <c r="C133" t="n">
-        <v>0.252566</v>
+        <v>0.252944</v>
       </c>
       <c r="D133" t="n">
-        <v>0.234359</v>
+        <v>0.234377</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261576</v>
+        <v>0.261575</v>
       </c>
       <c r="C134" t="n">
-        <v>0.251863</v>
+        <v>0.252147</v>
       </c>
       <c r="D134" t="n">
-        <v>0.233766</v>
+        <v>0.233879</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247147</v>
+        <v>0.247097</v>
       </c>
       <c r="C135" t="n">
-        <v>0.251259</v>
+        <v>0.251461</v>
       </c>
       <c r="D135" t="n">
-        <v>0.233717</v>
+        <v>0.233724</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.231999</v>
+        <v>0.231826</v>
       </c>
       <c r="C136" t="n">
-        <v>0.250588</v>
+        <v>0.251047</v>
       </c>
       <c r="D136" t="n">
-        <v>0.233235</v>
+        <v>0.233143</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215434</v>
+        <v>0.215371</v>
       </c>
       <c r="C137" t="n">
-        <v>0.264162</v>
+        <v>0.264808</v>
       </c>
       <c r="D137" t="n">
-        <v>0.246329</v>
+        <v>0.246265</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.35766</v>
+        <v>0.357549</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262317</v>
+        <v>0.262772</v>
       </c>
       <c r="D138" t="n">
-        <v>0.244352</v>
+        <v>0.244292</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351542</v>
+        <v>0.351554</v>
       </c>
       <c r="C139" t="n">
-        <v>0.260545</v>
+        <v>0.260981</v>
       </c>
       <c r="D139" t="n">
-        <v>0.242685</v>
+        <v>0.242565</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344774</v>
+        <v>0.344788</v>
       </c>
       <c r="C140" t="n">
-        <v>0.259013</v>
+        <v>0.259594</v>
       </c>
       <c r="D140" t="n">
-        <v>0.241231</v>
+        <v>0.241163</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33734</v>
+        <v>0.337261</v>
       </c>
       <c r="C141" t="n">
-        <v>0.257931</v>
+        <v>0.258415</v>
       </c>
       <c r="D141" t="n">
-        <v>0.239998</v>
+        <v>0.239957</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328883</v>
+        <v>0.328775</v>
       </c>
       <c r="C142" t="n">
-        <v>0.256886</v>
+        <v>0.257096</v>
       </c>
       <c r="D142" t="n">
-        <v>0.23886</v>
+        <v>0.238815</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.319839</v>
+        <v>0.319593</v>
       </c>
       <c r="C143" t="n">
-        <v>0.255802</v>
+        <v>0.256503</v>
       </c>
       <c r="D143" t="n">
-        <v>0.237872</v>
+        <v>0.237738</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273909</v>
+        <v>0.273291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231097</v>
+        <v>0.230715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.393606</v>
+        <v>0.389492</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.276128</v>
+        <v>0.270293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23477</v>
+        <v>0.231908</v>
       </c>
       <c r="D3" t="n">
-        <v>0.393327</v>
+        <v>0.391046</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260742</v>
+        <v>0.259094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235617</v>
+        <v>0.23475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.395218</v>
+        <v>0.392102</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248914</v>
+        <v>0.248542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236406</v>
+        <v>0.23681</v>
       </c>
       <c r="D5" t="n">
-        <v>0.395951</v>
+        <v>0.394448</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240622</v>
+        <v>0.239892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238392</v>
+        <v>0.239358</v>
       </c>
       <c r="D6" t="n">
-        <v>0.397323</v>
+        <v>0.395974</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225752</v>
+        <v>0.224987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239376</v>
+        <v>0.238483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.395314</v>
+        <v>0.388835</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210444</v>
+        <v>0.210155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2403</v>
+        <v>0.241132</v>
       </c>
       <c r="D8" t="n">
-        <v>0.397537</v>
+        <v>0.390431</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193347</v>
+        <v>0.193461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.255335</v>
+        <v>0.256163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.398008</v>
+        <v>0.392169</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335268</v>
+        <v>0.336594</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254199</v>
+        <v>0.254351</v>
       </c>
       <c r="D10" t="n">
-        <v>0.39821</v>
+        <v>0.390498</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.331743</v>
+        <v>0.333737</v>
       </c>
       <c r="C11" t="n">
-        <v>0.255398</v>
+        <v>0.255733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.397494</v>
+        <v>0.393726</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.326184</v>
+        <v>0.326645</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2542</v>
+        <v>0.254557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.399971</v>
+        <v>0.394587</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319634</v>
+        <v>0.319694</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253616</v>
+        <v>0.254528</v>
       </c>
       <c r="D13" t="n">
-        <v>0.397932</v>
+        <v>0.395027</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312614</v>
+        <v>0.312751</v>
       </c>
       <c r="C14" t="n">
-        <v>0.253301</v>
+        <v>0.253386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.400207</v>
+        <v>0.395933</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304949</v>
+        <v>0.304437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252751</v>
+        <v>0.252816</v>
       </c>
       <c r="D15" t="n">
-        <v>0.40145</v>
+        <v>0.397892</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29482</v>
+        <v>0.295852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251144</v>
+        <v>0.252592</v>
       </c>
       <c r="D16" t="n">
-        <v>0.401033</v>
+        <v>0.397992</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286813</v>
+        <v>0.286401</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251694</v>
+        <v>0.251487</v>
       </c>
       <c r="D17" t="n">
-        <v>0.402511</v>
+        <v>0.400923</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277112</v>
+        <v>0.275624</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251695</v>
+        <v>0.252206</v>
       </c>
       <c r="D18" t="n">
-        <v>0.403198</v>
+        <v>0.402013</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26652</v>
+        <v>0.266368</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250532</v>
+        <v>0.251392</v>
       </c>
       <c r="D19" t="n">
-        <v>0.40414</v>
+        <v>0.403613</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.256053</v>
+        <v>0.256343</v>
       </c>
       <c r="C20" t="n">
-        <v>0.250707</v>
+        <v>0.25115</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405645</v>
+        <v>0.404925</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243176</v>
+        <v>0.242951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250447</v>
+        <v>0.251498</v>
       </c>
       <c r="D21" t="n">
-        <v>0.40319</v>
+        <v>0.397141</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227463</v>
+        <v>0.227938</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249898</v>
+        <v>0.251004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.401866</v>
+        <v>0.395796</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210084</v>
+        <v>0.21073</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261687</v>
+        <v>0.26303</v>
       </c>
       <c r="D23" t="n">
-        <v>0.402008</v>
+        <v>0.396839</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345298</v>
+        <v>0.345507</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26018</v>
+        <v>0.260765</v>
       </c>
       <c r="D24" t="n">
-        <v>0.402294</v>
+        <v>0.39693</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.339975</v>
+        <v>0.34259</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258759</v>
+        <v>0.259778</v>
       </c>
       <c r="D25" t="n">
-        <v>0.403981</v>
+        <v>0.398649</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336117</v>
+        <v>0.336064</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257437</v>
+        <v>0.258337</v>
       </c>
       <c r="D26" t="n">
-        <v>0.403957</v>
+        <v>0.399269</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330339</v>
+        <v>0.329859</v>
       </c>
       <c r="C27" t="n">
-        <v>0.257069</v>
+        <v>0.25811</v>
       </c>
       <c r="D27" t="n">
-        <v>0.404096</v>
+        <v>0.399814</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.320497</v>
+        <v>0.322549</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255597</v>
+        <v>0.256931</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403469</v>
+        <v>0.399081</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313015</v>
+        <v>0.314351</v>
       </c>
       <c r="C29" t="n">
-        <v>0.254238</v>
+        <v>0.256002</v>
       </c>
       <c r="D29" t="n">
-        <v>0.405414</v>
+        <v>0.40167</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304721</v>
+        <v>0.305895</v>
       </c>
       <c r="C30" t="n">
-        <v>0.253901</v>
+        <v>0.255042</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405741</v>
+        <v>0.402629</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29504</v>
+        <v>0.296387</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253271</v>
+        <v>0.253817</v>
       </c>
       <c r="D31" t="n">
-        <v>0.406918</v>
+        <v>0.404201</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28481</v>
+        <v>0.285721</v>
       </c>
       <c r="C32" t="n">
-        <v>0.252704</v>
+        <v>0.25263</v>
       </c>
       <c r="D32" t="n">
-        <v>0.407183</v>
+        <v>0.405415</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273804</v>
+        <v>0.274891</v>
       </c>
       <c r="C33" t="n">
-        <v>0.251823</v>
+        <v>0.251796</v>
       </c>
       <c r="D33" t="n">
-        <v>0.408993</v>
+        <v>0.406253</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262498</v>
+        <v>0.263537</v>
       </c>
       <c r="C34" t="n">
-        <v>0.251138</v>
+        <v>0.250897</v>
       </c>
       <c r="D34" t="n">
-        <v>0.409216</v>
+        <v>0.407738</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248607</v>
+        <v>0.249796</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250577</v>
+        <v>0.251819</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4092</v>
+        <v>0.403939</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233955</v>
+        <v>0.237233</v>
       </c>
       <c r="C36" t="n">
-        <v>0.250105</v>
+        <v>0.25039</v>
       </c>
       <c r="D36" t="n">
-        <v>0.40871</v>
+        <v>0.402647</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.218402</v>
+        <v>0.218803</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262186</v>
+        <v>0.263452</v>
       </c>
       <c r="D37" t="n">
-        <v>0.409421</v>
+        <v>0.403674</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350076</v>
+        <v>0.350533</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261093</v>
+        <v>0.262286</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408747</v>
+        <v>0.403044</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344958</v>
+        <v>0.345651</v>
       </c>
       <c r="C39" t="n">
-        <v>0.259253</v>
+        <v>0.260562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.408999</v>
+        <v>0.404628</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339497</v>
+        <v>0.339412</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258305</v>
+        <v>0.25908</v>
       </c>
       <c r="D40" t="n">
-        <v>0.408218</v>
+        <v>0.404889</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332943</v>
+        <v>0.332501</v>
       </c>
       <c r="C41" t="n">
-        <v>0.257096</v>
+        <v>0.257936</v>
       </c>
       <c r="D41" t="n">
-        <v>0.408666</v>
+        <v>0.403952</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326451</v>
+        <v>0.32562</v>
       </c>
       <c r="C42" t="n">
-        <v>0.256235</v>
+        <v>0.25677</v>
       </c>
       <c r="D42" t="n">
-        <v>0.408537</v>
+        <v>0.405519</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317509</v>
+        <v>0.3177</v>
       </c>
       <c r="C43" t="n">
-        <v>0.255421</v>
+        <v>0.256168</v>
       </c>
       <c r="D43" t="n">
-        <v>0.408961</v>
+        <v>0.407113</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309004</v>
+        <v>0.309143</v>
       </c>
       <c r="C44" t="n">
-        <v>0.254195</v>
+        <v>0.254762</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409389</v>
+        <v>0.406828</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300029</v>
+        <v>0.299896</v>
       </c>
       <c r="C45" t="n">
-        <v>0.253573</v>
+        <v>0.254415</v>
       </c>
       <c r="D45" t="n">
-        <v>0.409517</v>
+        <v>0.40726</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.289467</v>
+        <v>0.289783</v>
       </c>
       <c r="C46" t="n">
-        <v>0.252607</v>
+        <v>0.253452</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410975</v>
+        <v>0.40814</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.278568</v>
+        <v>0.278328</v>
       </c>
       <c r="C47" t="n">
-        <v>0.251951</v>
+        <v>0.252875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.410101</v>
+        <v>0.409157</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267169</v>
+        <v>0.267176</v>
       </c>
       <c r="C48" t="n">
-        <v>0.251065</v>
+        <v>0.252172</v>
       </c>
       <c r="D48" t="n">
-        <v>0.412468</v>
+        <v>0.411955</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254089</v>
+        <v>0.254009</v>
       </c>
       <c r="C49" t="n">
-        <v>0.250534</v>
+        <v>0.251399</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412562</v>
+        <v>0.414246</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239637</v>
+        <v>0.239506</v>
       </c>
       <c r="C50" t="n">
-        <v>0.25057</v>
+        <v>0.250759</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414259</v>
+        <v>0.409068</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.225352</v>
+        <v>0.225332</v>
       </c>
       <c r="C51" t="n">
-        <v>0.263631</v>
+        <v>0.265148</v>
       </c>
       <c r="D51" t="n">
-        <v>0.415626</v>
+        <v>0.40977</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209055</v>
+        <v>0.208926</v>
       </c>
       <c r="C52" t="n">
-        <v>0.261878</v>
+        <v>0.263274</v>
       </c>
       <c r="D52" t="n">
-        <v>0.415198</v>
+        <v>0.411767</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349915</v>
+        <v>0.349775</v>
       </c>
       <c r="C53" t="n">
-        <v>0.26022</v>
+        <v>0.261443</v>
       </c>
       <c r="D53" t="n">
-        <v>0.413336</v>
+        <v>0.411667</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344058</v>
+        <v>0.344185</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259006</v>
+        <v>0.259804</v>
       </c>
       <c r="D54" t="n">
-        <v>0.416474</v>
+        <v>0.412888</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.337658</v>
+        <v>0.337946</v>
       </c>
       <c r="C55" t="n">
-        <v>0.257403</v>
+        <v>0.258597</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41702</v>
+        <v>0.413945</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330913</v>
+        <v>0.330948</v>
       </c>
       <c r="C56" t="n">
-        <v>0.256266</v>
+        <v>0.25755</v>
       </c>
       <c r="D56" t="n">
-        <v>0.418884</v>
+        <v>0.415592</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322573</v>
+        <v>0.322651</v>
       </c>
       <c r="C57" t="n">
-        <v>0.255838</v>
+        <v>0.256501</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419558</v>
+        <v>0.413939</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313628</v>
+        <v>0.314003</v>
       </c>
       <c r="C58" t="n">
-        <v>0.255064</v>
+        <v>0.255741</v>
       </c>
       <c r="D58" t="n">
-        <v>0.417456</v>
+        <v>0.416331</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304152</v>
+        <v>0.304707</v>
       </c>
       <c r="C59" t="n">
-        <v>0.253872</v>
+        <v>0.254523</v>
       </c>
       <c r="D59" t="n">
-        <v>0.420793</v>
+        <v>0.420753</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294351</v>
+        <v>0.294802</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253079</v>
+        <v>0.253822</v>
       </c>
       <c r="D60" t="n">
-        <v>0.427213</v>
+        <v>0.427424</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283346</v>
+        <v>0.283458</v>
       </c>
       <c r="C61" t="n">
-        <v>0.252041</v>
+        <v>0.25313</v>
       </c>
       <c r="D61" t="n">
-        <v>0.430041</v>
+        <v>0.43082</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27205</v>
+        <v>0.272198</v>
       </c>
       <c r="C62" t="n">
-        <v>0.251264</v>
+        <v>0.252402</v>
       </c>
       <c r="D62" t="n">
-        <v>0.431095</v>
+        <v>0.432261</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259293</v>
+        <v>0.259467</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250651</v>
+        <v>0.25157</v>
       </c>
       <c r="D63" t="n">
-        <v>0.437509</v>
+        <v>0.429767</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245596</v>
+        <v>0.245932</v>
       </c>
       <c r="C64" t="n">
-        <v>0.25009</v>
+        <v>0.251218</v>
       </c>
       <c r="D64" t="n">
-        <v>0.464363</v>
+        <v>0.464605</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230515</v>
+        <v>0.230842</v>
       </c>
       <c r="C65" t="n">
-        <v>0.24943</v>
+        <v>0.250741</v>
       </c>
       <c r="D65" t="n">
-        <v>0.472893</v>
+        <v>0.463127</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214188</v>
+        <v>0.214558</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262848</v>
+        <v>0.262965</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47921</v>
+        <v>0.47229</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351196</v>
+        <v>0.35159</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261324</v>
+        <v>0.261777</v>
       </c>
       <c r="D67" t="n">
-        <v>0.498499</v>
+        <v>0.487266</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346045</v>
+        <v>0.345923</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259414</v>
+        <v>0.260078</v>
       </c>
       <c r="D68" t="n">
-        <v>0.498107</v>
+        <v>0.498889</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.339636</v>
+        <v>0.339809</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258776</v>
+        <v>0.259224</v>
       </c>
       <c r="D69" t="n">
-        <v>0.498059</v>
+        <v>0.501161</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333527</v>
+        <v>0.332877</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256877</v>
+        <v>0.258045</v>
       </c>
       <c r="D70" t="n">
-        <v>0.507899</v>
+        <v>0.506372</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325018</v>
+        <v>0.325509</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256118</v>
+        <v>0.256946</v>
       </c>
       <c r="D71" t="n">
-        <v>0.50904</v>
+        <v>0.51507</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316056</v>
+        <v>0.316882</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255689</v>
+        <v>0.256194</v>
       </c>
       <c r="D72" t="n">
-        <v>0.517639</v>
+        <v>0.510348</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307205</v>
+        <v>0.307247</v>
       </c>
       <c r="C73" t="n">
-        <v>0.254157</v>
+        <v>0.255487</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5188700000000001</v>
+        <v>0.51594</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29724</v>
+        <v>0.297203</v>
       </c>
       <c r="C74" t="n">
-        <v>0.253339</v>
+        <v>0.254668</v>
       </c>
       <c r="D74" t="n">
-        <v>0.531894</v>
+        <v>0.5292289999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286338</v>
+        <v>0.286485</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252384</v>
+        <v>0.253964</v>
       </c>
       <c r="D75" t="n">
-        <v>0.519024</v>
+        <v>0.517741</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274959</v>
+        <v>0.275318</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251906</v>
+        <v>0.252782</v>
       </c>
       <c r="D76" t="n">
-        <v>0.533538</v>
+        <v>0.531733</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262007</v>
+        <v>0.26225</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251181</v>
+        <v>0.252382</v>
       </c>
       <c r="D77" t="n">
-        <v>0.52185</v>
+        <v>0.52235</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248968</v>
+        <v>0.248736</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250643</v>
+        <v>0.251975</v>
       </c>
       <c r="D78" t="n">
-        <v>0.637234</v>
+        <v>0.633567</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234458</v>
+        <v>0.234402</v>
       </c>
       <c r="C79" t="n">
-        <v>0.250182</v>
+        <v>0.251359</v>
       </c>
       <c r="D79" t="n">
-        <v>0.638893</v>
+        <v>0.634791</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218711</v>
+        <v>0.218667</v>
       </c>
       <c r="C80" t="n">
-        <v>0.264126</v>
+        <v>0.265378</v>
       </c>
       <c r="D80" t="n">
-        <v>0.63893</v>
+        <v>0.635423</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.352903</v>
+        <v>0.353085</v>
       </c>
       <c r="C81" t="n">
-        <v>0.262951</v>
+        <v>0.263071</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6006050000000001</v>
+        <v>0.596062</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.347513</v>
+        <v>0.347686</v>
       </c>
       <c r="C82" t="n">
-        <v>0.260188</v>
+        <v>0.26157</v>
       </c>
       <c r="D82" t="n">
-        <v>0.641512</v>
+        <v>0.638782</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341491</v>
+        <v>0.341665</v>
       </c>
       <c r="C83" t="n">
-        <v>0.258657</v>
+        <v>0.260225</v>
       </c>
       <c r="D83" t="n">
-        <v>0.603234</v>
+        <v>0.601571</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334705</v>
+        <v>0.334868</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257481</v>
+        <v>0.259023</v>
       </c>
       <c r="D84" t="n">
-        <v>0.595248</v>
+        <v>0.591849</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326983</v>
+        <v>0.327156</v>
       </c>
       <c r="C85" t="n">
-        <v>0.256752</v>
+        <v>0.257913</v>
       </c>
       <c r="D85" t="n">
-        <v>0.594591</v>
+        <v>0.591743</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318618</v>
+        <v>0.318878</v>
       </c>
       <c r="C86" t="n">
-        <v>0.25573</v>
+        <v>0.256808</v>
       </c>
       <c r="D86" t="n">
-        <v>0.601666</v>
+        <v>0.598891</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309606</v>
+        <v>0.309904</v>
       </c>
       <c r="C87" t="n">
-        <v>0.254669</v>
+        <v>0.255842</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5844009999999999</v>
+        <v>0.583026</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299775</v>
+        <v>0.300009</v>
       </c>
       <c r="C88" t="n">
-        <v>0.254014</v>
+        <v>0.255305</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5920879999999999</v>
+        <v>0.589893</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289279</v>
+        <v>0.289397</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253007</v>
+        <v>0.254506</v>
       </c>
       <c r="D89" t="n">
-        <v>0.602448</v>
+        <v>0.60075</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277705</v>
+        <v>0.277989</v>
       </c>
       <c r="C90" t="n">
-        <v>0.252381</v>
+        <v>0.253601</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5814780000000001</v>
+        <v>0.5809800000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265684</v>
+        <v>0.265798</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251613</v>
+        <v>0.25303</v>
       </c>
       <c r="D91" t="n">
-        <v>0.563847</v>
+        <v>0.564703</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252213</v>
+        <v>0.252255</v>
       </c>
       <c r="C92" t="n">
-        <v>0.25114</v>
+        <v>0.252358</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6112109999999999</v>
+        <v>0.602059</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237521</v>
+        <v>0.23739</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250989</v>
+        <v>0.251643</v>
       </c>
       <c r="D93" t="n">
-        <v>0.605707</v>
+        <v>0.594197</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221676</v>
+        <v>0.221651</v>
       </c>
       <c r="C94" t="n">
-        <v>0.265175</v>
+        <v>0.265575</v>
       </c>
       <c r="D94" t="n">
-        <v>0.602209</v>
+        <v>0.593414</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354463</v>
+        <v>0.354313</v>
       </c>
       <c r="C95" t="n">
-        <v>0.263493</v>
+        <v>0.263638</v>
       </c>
       <c r="D95" t="n">
-        <v>0.597512</v>
+        <v>0.589004</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349173</v>
+        <v>0.349478</v>
       </c>
       <c r="C96" t="n">
-        <v>0.260756</v>
+        <v>0.261946</v>
       </c>
       <c r="D96" t="n">
-        <v>0.597656</v>
+        <v>0.59054</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.342973</v>
+        <v>0.343251</v>
       </c>
       <c r="C97" t="n">
-        <v>0.259166</v>
+        <v>0.260388</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592483</v>
+        <v>0.585806</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336134</v>
+        <v>0.336271</v>
       </c>
       <c r="C98" t="n">
-        <v>0.257931</v>
+        <v>0.259121</v>
       </c>
       <c r="D98" t="n">
-        <v>0.587381</v>
+        <v>0.581244</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328621</v>
+        <v>0.328729</v>
       </c>
       <c r="C99" t="n">
-        <v>0.256836</v>
+        <v>0.257857</v>
       </c>
       <c r="D99" t="n">
-        <v>0.582373</v>
+        <v>0.577165</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320359</v>
+        <v>0.320483</v>
       </c>
       <c r="C100" t="n">
-        <v>0.255939</v>
+        <v>0.256919</v>
       </c>
       <c r="D100" t="n">
-        <v>0.577237</v>
+        <v>0.573456</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311695</v>
+        <v>0.311577</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254753</v>
+        <v>0.255968</v>
       </c>
       <c r="D101" t="n">
-        <v>0.571719</v>
+        <v>0.568132</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302171</v>
+        <v>0.301871</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253971</v>
+        <v>0.255171</v>
       </c>
       <c r="D102" t="n">
-        <v>0.568727</v>
+        <v>0.566336</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291365</v>
+        <v>0.291495</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253222</v>
+        <v>0.254535</v>
       </c>
       <c r="D103" t="n">
-        <v>0.564738</v>
+        <v>0.56126</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280298</v>
+        <v>0.280297</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252449</v>
+        <v>0.253864</v>
       </c>
       <c r="D104" t="n">
-        <v>0.557987</v>
+        <v>0.555538</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268416</v>
+        <v>0.268294</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251754</v>
+        <v>0.25312</v>
       </c>
       <c r="D105" t="n">
-        <v>0.55579</v>
+        <v>0.554573</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254998</v>
+        <v>0.255143</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251277</v>
+        <v>0.252658</v>
       </c>
       <c r="D106" t="n">
-        <v>0.551471</v>
+        <v>0.551061</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240941</v>
+        <v>0.240948</v>
       </c>
       <c r="C107" t="n">
-        <v>0.25091</v>
+        <v>0.252296</v>
       </c>
       <c r="D107" t="n">
-        <v>0.606332</v>
+        <v>0.592569</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226074</v>
+        <v>0.226118</v>
       </c>
       <c r="C108" t="n">
-        <v>0.265674</v>
+        <v>0.266449</v>
       </c>
       <c r="D108" t="n">
-        <v>0.604467</v>
+        <v>0.591832</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209164</v>
+        <v>0.209905</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263158</v>
+        <v>0.264156</v>
       </c>
       <c r="D109" t="n">
-        <v>0.599559</v>
+        <v>0.587821</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350161</v>
+        <v>0.350327</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261595</v>
+        <v>0.262116</v>
       </c>
       <c r="D110" t="n">
-        <v>0.597015</v>
+        <v>0.586024</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344283</v>
+        <v>0.344384</v>
       </c>
       <c r="C111" t="n">
-        <v>0.259691</v>
+        <v>0.26079</v>
       </c>
       <c r="D111" t="n">
-        <v>0.592813</v>
+        <v>0.583126</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337762</v>
+        <v>0.337796</v>
       </c>
       <c r="C112" t="n">
-        <v>0.258441</v>
+        <v>0.25943</v>
       </c>
       <c r="D112" t="n">
-        <v>0.586668</v>
+        <v>0.577971</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330172</v>
+        <v>0.330242</v>
       </c>
       <c r="C113" t="n">
-        <v>0.257374</v>
+        <v>0.258174</v>
       </c>
       <c r="D113" t="n">
-        <v>0.583078</v>
+        <v>0.577199</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322099</v>
+        <v>0.322029</v>
       </c>
       <c r="C114" t="n">
-        <v>0.256186</v>
+        <v>0.25705</v>
       </c>
       <c r="D114" t="n">
-        <v>0.576634</v>
+        <v>0.5708490000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313649</v>
+        <v>0.313336</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255422</v>
+        <v>0.2561</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5698299999999999</v>
+        <v>0.567059</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303705</v>
+        <v>0.30369</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254586</v>
+        <v>0.255312</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5666</v>
+        <v>0.564181</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293583</v>
+        <v>0.293554</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253884</v>
+        <v>0.254515</v>
       </c>
       <c r="D117" t="n">
-        <v>0.561221</v>
+        <v>0.559429</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282504</v>
+        <v>0.283177</v>
       </c>
       <c r="C118" t="n">
-        <v>0.253088</v>
+        <v>0.253789</v>
       </c>
       <c r="D118" t="n">
-        <v>0.557637</v>
+        <v>0.556231</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270709</v>
+        <v>0.270689</v>
       </c>
       <c r="C119" t="n">
-        <v>0.252051</v>
+        <v>0.253283</v>
       </c>
       <c r="D119" t="n">
-        <v>0.552947</v>
+        <v>0.5522899999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.257777</v>
+        <v>0.257812</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251773</v>
+        <v>0.252632</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5481740000000001</v>
+        <v>0.548588</v>
       </c>
     </row>
     <row r="121">
@@ -4916,10 +4916,10 @@
         <v>0.243979</v>
       </c>
       <c r="C121" t="n">
-        <v>0.251074</v>
+        <v>0.25221</v>
       </c>
       <c r="D121" t="n">
-        <v>0.617185</v>
+        <v>0.609028</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229082</v>
+        <v>0.229018</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250866</v>
+        <v>0.251645</v>
       </c>
       <c r="D122" t="n">
-        <v>0.616569</v>
+        <v>0.608457</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212677</v>
+        <v>0.212758</v>
       </c>
       <c r="C123" t="n">
-        <v>0.264046</v>
+        <v>0.264718</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6135080000000001</v>
+        <v>0.605664</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351338</v>
+        <v>0.351401</v>
       </c>
       <c r="C124" t="n">
-        <v>0.262203</v>
+        <v>0.262749</v>
       </c>
       <c r="D124" t="n">
-        <v>0.60922</v>
+        <v>0.6019099999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345516</v>
+        <v>0.345662</v>
       </c>
       <c r="C125" t="n">
-        <v>0.260374</v>
+        <v>0.261075</v>
       </c>
       <c r="D125" t="n">
-        <v>0.604732</v>
+        <v>0.597899</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339245</v>
+        <v>0.339076</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25905</v>
+        <v>0.259667</v>
       </c>
       <c r="D126" t="n">
-        <v>0.600652</v>
+        <v>0.594531</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.331731</v>
+        <v>0.331912</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257805</v>
+        <v>0.258434</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593899</v>
+        <v>0.58857</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323594</v>
+        <v>0.323868</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256677</v>
+        <v>0.257336</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5872039999999999</v>
+        <v>0.582718</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314993</v>
+        <v>0.315047</v>
       </c>
       <c r="C129" t="n">
-        <v>0.255743</v>
+        <v>0.256331</v>
       </c>
       <c r="D129" t="n">
-        <v>0.580138</v>
+        <v>0.574451</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305981</v>
+        <v>0.305799</v>
       </c>
       <c r="C130" t="n">
-        <v>0.255018</v>
+        <v>0.255503</v>
       </c>
       <c r="D130" t="n">
-        <v>0.574623</v>
+        <v>0.570276</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29584</v>
+        <v>0.296032</v>
       </c>
       <c r="C131" t="n">
-        <v>0.254107</v>
+        <v>0.254676</v>
       </c>
       <c r="D131" t="n">
-        <v>0.570553</v>
+        <v>0.566989</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284907</v>
+        <v>0.28502</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253278</v>
+        <v>0.254061</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5650810000000001</v>
+        <v>0.563183</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273124</v>
+        <v>0.273206</v>
       </c>
       <c r="C133" t="n">
-        <v>0.252578</v>
+        <v>0.253481</v>
       </c>
       <c r="D133" t="n">
-        <v>0.560519</v>
+        <v>0.559198</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260285</v>
+        <v>0.260723</v>
       </c>
       <c r="C134" t="n">
-        <v>0.252128</v>
+        <v>0.253042</v>
       </c>
       <c r="D134" t="n">
-        <v>0.556714</v>
+        <v>0.556132</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246648</v>
+        <v>0.246751</v>
       </c>
       <c r="C135" t="n">
-        <v>0.251382</v>
+        <v>0.252635</v>
       </c>
       <c r="D135" t="n">
-        <v>0.622789</v>
+        <v>0.611781</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23208</v>
+        <v>0.232235</v>
       </c>
       <c r="C136" t="n">
-        <v>0.250619</v>
+        <v>0.252125</v>
       </c>
       <c r="D136" t="n">
-        <v>0.624899</v>
+        <v>0.613895</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215968</v>
+        <v>0.216146</v>
       </c>
       <c r="C137" t="n">
-        <v>0.264232</v>
+        <v>0.265204</v>
       </c>
       <c r="D137" t="n">
-        <v>0.620692</v>
+        <v>0.610548</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352695</v>
+        <v>0.352594</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262474</v>
+        <v>0.263294</v>
       </c>
       <c r="D138" t="n">
-        <v>0.616919</v>
+        <v>0.607595</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.346653</v>
+        <v>0.348239</v>
       </c>
       <c r="C139" t="n">
-        <v>0.260761</v>
+        <v>0.26146</v>
       </c>
       <c r="D139" t="n">
-        <v>0.61072</v>
+        <v>0.602078</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340402</v>
+        <v>0.340405</v>
       </c>
       <c r="C140" t="n">
-        <v>0.259547</v>
+        <v>0.260032</v>
       </c>
       <c r="D140" t="n">
-        <v>0.603417</v>
+        <v>0.595364</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333053</v>
+        <v>0.334143</v>
       </c>
       <c r="C141" t="n">
-        <v>0.257955</v>
+        <v>0.258731</v>
       </c>
       <c r="D141" t="n">
-        <v>0.598874</v>
+        <v>0.592072</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325429</v>
+        <v>0.326058</v>
       </c>
       <c r="C142" t="n">
-        <v>0.256968</v>
+        <v>0.257592</v>
       </c>
       <c r="D142" t="n">
-        <v>0.592595</v>
+        <v>0.58725</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31694</v>
+        <v>0.317061</v>
       </c>
       <c r="C143" t="n">
-        <v>0.256117</v>
+        <v>0.256547</v>
       </c>
       <c r="D143" t="n">
-        <v>0.584738</v>
+        <v>0.579053</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273909</v>
+        <v>0.283341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231097</v>
+        <v>0.232112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.393606</v>
+        <v>0.393792</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.276128</v>
+        <v>0.274076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23477</v>
+        <v>0.234098</v>
       </c>
       <c r="D3" t="n">
-        <v>0.393327</v>
+        <v>0.393051</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260742</v>
+        <v>0.26404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235617</v>
+        <v>0.235293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.395218</v>
+        <v>0.394999</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248914</v>
+        <v>0.250326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236406</v>
+        <v>0.236435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.395951</v>
+        <v>0.39525</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240622</v>
+        <v>0.237376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238392</v>
+        <v>0.238298</v>
       </c>
       <c r="D6" t="n">
-        <v>0.397323</v>
+        <v>0.396261</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225752</v>
+        <v>0.226121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239376</v>
+        <v>0.238685</v>
       </c>
       <c r="D7" t="n">
-        <v>0.395314</v>
+        <v>0.395946</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210444</v>
+        <v>0.211343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2403</v>
+        <v>0.239255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.397537</v>
+        <v>0.39693</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193347</v>
+        <v>0.195316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.255335</v>
+        <v>0.256279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.398008</v>
+        <v>0.396598</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335268</v>
+        <v>0.33631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254199</v>
+        <v>0.254715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.39821</v>
+        <v>0.397976</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.331743</v>
+        <v>0.330308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.255398</v>
+        <v>0.254637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.397494</v>
+        <v>0.397666</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.326184</v>
+        <v>0.325947</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2542</v>
+        <v>0.253321</v>
       </c>
       <c r="D12" t="n">
-        <v>0.399971</v>
+        <v>0.399832</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319634</v>
+        <v>0.32232</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253616</v>
+        <v>0.253688</v>
       </c>
       <c r="D13" t="n">
-        <v>0.397932</v>
+        <v>0.398047</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312614</v>
+        <v>0.312728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.253301</v>
+        <v>0.252849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.400207</v>
+        <v>0.400796</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304949</v>
+        <v>0.30422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252751</v>
+        <v>0.252423</v>
       </c>
       <c r="D15" t="n">
-        <v>0.40145</v>
+        <v>0.400824</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29482</v>
+        <v>0.296163</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251144</v>
+        <v>0.250927</v>
       </c>
       <c r="D16" t="n">
-        <v>0.401033</v>
+        <v>0.400864</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286813</v>
+        <v>0.28755</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251694</v>
+        <v>0.25204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.402511</v>
+        <v>0.402632</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277112</v>
+        <v>0.277517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251695</v>
+        <v>0.251467</v>
       </c>
       <c r="D18" t="n">
-        <v>0.403198</v>
+        <v>0.403561</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26652</v>
+        <v>0.267341</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250532</v>
+        <v>0.250864</v>
       </c>
       <c r="D19" t="n">
-        <v>0.40414</v>
+        <v>0.404986</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.256053</v>
+        <v>0.25649</v>
       </c>
       <c r="C20" t="n">
-        <v>0.250707</v>
+        <v>0.250834</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405645</v>
+        <v>0.405941</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243176</v>
+        <v>0.243199</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250447</v>
+        <v>0.250512</v>
       </c>
       <c r="D21" t="n">
-        <v>0.40319</v>
+        <v>0.403772</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227463</v>
+        <v>0.227756</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249898</v>
+        <v>0.249859</v>
       </c>
       <c r="D22" t="n">
-        <v>0.401866</v>
+        <v>0.40234</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210084</v>
+        <v>0.210689</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261687</v>
+        <v>0.261592</v>
       </c>
       <c r="D23" t="n">
-        <v>0.402008</v>
+        <v>0.40233</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345298</v>
+        <v>0.346046</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26018</v>
+        <v>0.260691</v>
       </c>
       <c r="D24" t="n">
-        <v>0.402294</v>
+        <v>0.402921</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.339975</v>
+        <v>0.34238</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258759</v>
+        <v>0.259568</v>
       </c>
       <c r="D25" t="n">
-        <v>0.403981</v>
+        <v>0.404626</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336117</v>
+        <v>0.336088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257437</v>
+        <v>0.258161</v>
       </c>
       <c r="D26" t="n">
-        <v>0.403957</v>
+        <v>0.404164</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330339</v>
+        <v>0.330698</v>
       </c>
       <c r="C27" t="n">
-        <v>0.257069</v>
+        <v>0.257319</v>
       </c>
       <c r="D27" t="n">
-        <v>0.404096</v>
+        <v>0.405001</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.320497</v>
+        <v>0.321922</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255597</v>
+        <v>0.255865</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403469</v>
+        <v>0.404095</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313015</v>
+        <v>0.313258</v>
       </c>
       <c r="C29" t="n">
-        <v>0.254238</v>
+        <v>0.254291</v>
       </c>
       <c r="D29" t="n">
-        <v>0.405414</v>
+        <v>0.406694</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304721</v>
+        <v>0.30546</v>
       </c>
       <c r="C30" t="n">
-        <v>0.253901</v>
+        <v>0.254056</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405741</v>
+        <v>0.406105</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29504</v>
+        <v>0.295987</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253271</v>
+        <v>0.253888</v>
       </c>
       <c r="D31" t="n">
-        <v>0.406918</v>
+        <v>0.406784</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28481</v>
+        <v>0.285756</v>
       </c>
       <c r="C32" t="n">
-        <v>0.252704</v>
+        <v>0.253361</v>
       </c>
       <c r="D32" t="n">
-        <v>0.407183</v>
+        <v>0.407039</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273804</v>
+        <v>0.275586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.251823</v>
+        <v>0.252245</v>
       </c>
       <c r="D33" t="n">
-        <v>0.408993</v>
+        <v>0.409397</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262498</v>
+        <v>0.263156</v>
       </c>
       <c r="C34" t="n">
-        <v>0.251138</v>
+        <v>0.250989</v>
       </c>
       <c r="D34" t="n">
-        <v>0.409216</v>
+        <v>0.408738</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248607</v>
+        <v>0.249202</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250577</v>
+        <v>0.250252</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4092</v>
+        <v>0.409693</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233955</v>
+        <v>0.23651</v>
       </c>
       <c r="C36" t="n">
-        <v>0.250105</v>
+        <v>0.249107</v>
       </c>
       <c r="D36" t="n">
-        <v>0.40871</v>
+        <v>0.408963</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.218402</v>
+        <v>0.219837</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262186</v>
+        <v>0.26146</v>
       </c>
       <c r="D37" t="n">
-        <v>0.409421</v>
+        <v>0.408976</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350076</v>
+        <v>0.350342</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261093</v>
+        <v>0.260317</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408747</v>
+        <v>0.40893</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344958</v>
+        <v>0.345316</v>
       </c>
       <c r="C39" t="n">
-        <v>0.259253</v>
+        <v>0.259534</v>
       </c>
       <c r="D39" t="n">
-        <v>0.408999</v>
+        <v>0.408949</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339497</v>
+        <v>0.339175</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258305</v>
+        <v>0.258457</v>
       </c>
       <c r="D40" t="n">
-        <v>0.408218</v>
+        <v>0.408905</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332943</v>
+        <v>0.333144</v>
       </c>
       <c r="C41" t="n">
-        <v>0.257096</v>
+        <v>0.257057</v>
       </c>
       <c r="D41" t="n">
-        <v>0.408666</v>
+        <v>0.409431</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326451</v>
+        <v>0.325821</v>
       </c>
       <c r="C42" t="n">
-        <v>0.256235</v>
+        <v>0.256223</v>
       </c>
       <c r="D42" t="n">
-        <v>0.408537</v>
+        <v>0.408449</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317509</v>
+        <v>0.318885</v>
       </c>
       <c r="C43" t="n">
-        <v>0.255421</v>
+        <v>0.25562</v>
       </c>
       <c r="D43" t="n">
-        <v>0.408961</v>
+        <v>0.40915</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309004</v>
+        <v>0.309241</v>
       </c>
       <c r="C44" t="n">
-        <v>0.254195</v>
+        <v>0.254202</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409389</v>
+        <v>0.410178</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300029</v>
+        <v>0.300849</v>
       </c>
       <c r="C45" t="n">
-        <v>0.253573</v>
+        <v>0.253698</v>
       </c>
       <c r="D45" t="n">
-        <v>0.409517</v>
+        <v>0.410145</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.289467</v>
+        <v>0.289975</v>
       </c>
       <c r="C46" t="n">
-        <v>0.252607</v>
+        <v>0.252703</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410975</v>
+        <v>0.409832</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.278568</v>
+        <v>0.278954</v>
       </c>
       <c r="C47" t="n">
-        <v>0.251951</v>
+        <v>0.252062</v>
       </c>
       <c r="D47" t="n">
-        <v>0.410101</v>
+        <v>0.410208</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267169</v>
+        <v>0.267439</v>
       </c>
       <c r="C48" t="n">
-        <v>0.251065</v>
+        <v>0.251235</v>
       </c>
       <c r="D48" t="n">
-        <v>0.412468</v>
+        <v>0.411551</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254089</v>
+        <v>0.253918</v>
       </c>
       <c r="C49" t="n">
-        <v>0.250534</v>
+        <v>0.250354</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412562</v>
+        <v>0.412588</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239637</v>
+        <v>0.239645</v>
       </c>
       <c r="C50" t="n">
-        <v>0.25057</v>
+        <v>0.250377</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414259</v>
+        <v>0.411548</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.225352</v>
+        <v>0.22536</v>
       </c>
       <c r="C51" t="n">
-        <v>0.263631</v>
+        <v>0.263202</v>
       </c>
       <c r="D51" t="n">
-        <v>0.415626</v>
+        <v>0.412367</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209055</v>
+        <v>0.208997</v>
       </c>
       <c r="C52" t="n">
-        <v>0.261878</v>
+        <v>0.261165</v>
       </c>
       <c r="D52" t="n">
-        <v>0.415198</v>
+        <v>0.413225</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349915</v>
+        <v>0.350041</v>
       </c>
       <c r="C53" t="n">
-        <v>0.26022</v>
+        <v>0.26044</v>
       </c>
       <c r="D53" t="n">
-        <v>0.413336</v>
+        <v>0.412545</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344058</v>
+        <v>0.344279</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259006</v>
+        <v>0.258818</v>
       </c>
       <c r="D54" t="n">
-        <v>0.416474</v>
+        <v>0.414823</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.337658</v>
+        <v>0.337938</v>
       </c>
       <c r="C55" t="n">
-        <v>0.257403</v>
+        <v>0.257675</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41702</v>
+        <v>0.415611</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330913</v>
+        <v>0.330522</v>
       </c>
       <c r="C56" t="n">
-        <v>0.256266</v>
+        <v>0.256917</v>
       </c>
       <c r="D56" t="n">
-        <v>0.418884</v>
+        <v>0.417244</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322573</v>
+        <v>0.322542</v>
       </c>
       <c r="C57" t="n">
-        <v>0.255838</v>
+        <v>0.255841</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419558</v>
+        <v>0.418757</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313628</v>
+        <v>0.313933</v>
       </c>
       <c r="C58" t="n">
-        <v>0.255064</v>
+        <v>0.254667</v>
       </c>
       <c r="D58" t="n">
-        <v>0.417456</v>
+        <v>0.416634</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304152</v>
+        <v>0.305266</v>
       </c>
       <c r="C59" t="n">
-        <v>0.253872</v>
+        <v>0.254047</v>
       </c>
       <c r="D59" t="n">
-        <v>0.420793</v>
+        <v>0.420181</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294351</v>
+        <v>0.294677</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253079</v>
+        <v>0.253069</v>
       </c>
       <c r="D60" t="n">
-        <v>0.427213</v>
+        <v>0.424438</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283346</v>
+        <v>0.284374</v>
       </c>
       <c r="C61" t="n">
-        <v>0.252041</v>
+        <v>0.25223</v>
       </c>
       <c r="D61" t="n">
-        <v>0.430041</v>
+        <v>0.429062</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27205</v>
+        <v>0.272855</v>
       </c>
       <c r="C62" t="n">
-        <v>0.251264</v>
+        <v>0.251435</v>
       </c>
       <c r="D62" t="n">
-        <v>0.431095</v>
+        <v>0.431608</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259293</v>
+        <v>0.259513</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250651</v>
+        <v>0.250715</v>
       </c>
       <c r="D63" t="n">
-        <v>0.437509</v>
+        <v>0.437075</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245596</v>
+        <v>0.245543</v>
       </c>
       <c r="C64" t="n">
-        <v>0.25009</v>
+        <v>0.250083</v>
       </c>
       <c r="D64" t="n">
-        <v>0.464363</v>
+        <v>0.460134</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230515</v>
+        <v>0.230565</v>
       </c>
       <c r="C65" t="n">
-        <v>0.24943</v>
+        <v>0.249463</v>
       </c>
       <c r="D65" t="n">
-        <v>0.472893</v>
+        <v>0.467939</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214188</v>
+        <v>0.214247</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262848</v>
+        <v>0.262361</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47921</v>
+        <v>0.479018</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351196</v>
+        <v>0.351607</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261324</v>
+        <v>0.2615</v>
       </c>
       <c r="D67" t="n">
-        <v>0.498499</v>
+        <v>0.5011910000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346045</v>
+        <v>0.346253</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259414</v>
+        <v>0.259858</v>
       </c>
       <c r="D68" t="n">
-        <v>0.498107</v>
+        <v>0.499535</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.339636</v>
+        <v>0.340229</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258776</v>
+        <v>0.258746</v>
       </c>
       <c r="D69" t="n">
-        <v>0.498059</v>
+        <v>0.501075</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333527</v>
+        <v>0.33295</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256877</v>
+        <v>0.257377</v>
       </c>
       <c r="D70" t="n">
-        <v>0.507899</v>
+        <v>0.512616</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325018</v>
+        <v>0.325307</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256118</v>
+        <v>0.256628</v>
       </c>
       <c r="D71" t="n">
-        <v>0.50904</v>
+        <v>0.512103</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316056</v>
+        <v>0.316652</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255689</v>
+        <v>0.255858</v>
       </c>
       <c r="D72" t="n">
-        <v>0.517639</v>
+        <v>0.521124</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307205</v>
+        <v>0.308366</v>
       </c>
       <c r="C73" t="n">
-        <v>0.254157</v>
+        <v>0.254787</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5188700000000001</v>
+        <v>0.522777</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29724</v>
+        <v>0.297333</v>
       </c>
       <c r="C74" t="n">
-        <v>0.253339</v>
+        <v>0.253749</v>
       </c>
       <c r="D74" t="n">
-        <v>0.531894</v>
+        <v>0.537242</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286338</v>
+        <v>0.286737</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252384</v>
+        <v>0.252631</v>
       </c>
       <c r="D75" t="n">
-        <v>0.519024</v>
+        <v>0.5227810000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274959</v>
+        <v>0.275571</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251906</v>
+        <v>0.252191</v>
       </c>
       <c r="D76" t="n">
-        <v>0.533538</v>
+        <v>0.539135</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262007</v>
+        <v>0.262329</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251181</v>
+        <v>0.251361</v>
       </c>
       <c r="D77" t="n">
-        <v>0.52185</v>
+        <v>0.5284180000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248968</v>
+        <v>0.248661</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250643</v>
+        <v>0.250742</v>
       </c>
       <c r="D78" t="n">
-        <v>0.637234</v>
+        <v>0.648912</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234458</v>
+        <v>0.234707</v>
       </c>
       <c r="C79" t="n">
-        <v>0.250182</v>
+        <v>0.250148</v>
       </c>
       <c r="D79" t="n">
-        <v>0.638893</v>
+        <v>0.649554</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218711</v>
+        <v>0.218782</v>
       </c>
       <c r="C80" t="n">
-        <v>0.264126</v>
+        <v>0.2646</v>
       </c>
       <c r="D80" t="n">
-        <v>0.63893</v>
+        <v>0.649338</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.352903</v>
+        <v>0.353163</v>
       </c>
       <c r="C81" t="n">
-        <v>0.262951</v>
+        <v>0.263263</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6006050000000001</v>
+        <v>0.609509</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.347513</v>
+        <v>0.347719</v>
       </c>
       <c r="C82" t="n">
-        <v>0.260188</v>
+        <v>0.260646</v>
       </c>
       <c r="D82" t="n">
-        <v>0.641512</v>
+        <v>0.652168</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341491</v>
+        <v>0.341779</v>
       </c>
       <c r="C83" t="n">
-        <v>0.258657</v>
+        <v>0.259102</v>
       </c>
       <c r="D83" t="n">
-        <v>0.603234</v>
+        <v>0.612549</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334705</v>
+        <v>0.335044</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257481</v>
+        <v>0.257955</v>
       </c>
       <c r="D84" t="n">
-        <v>0.595248</v>
+        <v>0.60378</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326983</v>
+        <v>0.327393</v>
       </c>
       <c r="C85" t="n">
-        <v>0.256752</v>
+        <v>0.256925</v>
       </c>
       <c r="D85" t="n">
-        <v>0.594591</v>
+        <v>0.603135</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318618</v>
+        <v>0.319166</v>
       </c>
       <c r="C86" t="n">
-        <v>0.25573</v>
+        <v>0.256182</v>
       </c>
       <c r="D86" t="n">
-        <v>0.601666</v>
+        <v>0.610567</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309606</v>
+        <v>0.309869</v>
       </c>
       <c r="C87" t="n">
-        <v>0.254669</v>
+        <v>0.255094</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5844009999999999</v>
+        <v>0.593089</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299775</v>
+        <v>0.300411</v>
       </c>
       <c r="C88" t="n">
-        <v>0.254014</v>
+        <v>0.254481</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5920879999999999</v>
+        <v>0.60063</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289279</v>
+        <v>0.289413</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253007</v>
+        <v>0.253356</v>
       </c>
       <c r="D89" t="n">
-        <v>0.602448</v>
+        <v>0.611564</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277705</v>
+        <v>0.278116</v>
       </c>
       <c r="C90" t="n">
-        <v>0.252381</v>
+        <v>0.252693</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5814780000000001</v>
+        <v>0.590708</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265684</v>
+        <v>0.265781</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251613</v>
+        <v>0.251843</v>
       </c>
       <c r="D91" t="n">
-        <v>0.563847</v>
+        <v>0.57243</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252213</v>
+        <v>0.252293</v>
       </c>
       <c r="C92" t="n">
-        <v>0.25114</v>
+        <v>0.251336</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6112109999999999</v>
+        <v>0.619833</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237521</v>
+        <v>0.237809</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250989</v>
+        <v>0.251352</v>
       </c>
       <c r="D93" t="n">
-        <v>0.605707</v>
+        <v>0.613147</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221676</v>
+        <v>0.222014</v>
       </c>
       <c r="C94" t="n">
-        <v>0.265175</v>
+        <v>0.265384</v>
       </c>
       <c r="D94" t="n">
-        <v>0.602209</v>
+        <v>0.6111220000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354463</v>
+        <v>0.354672</v>
       </c>
       <c r="C95" t="n">
-        <v>0.263493</v>
+        <v>0.263661</v>
       </c>
       <c r="D95" t="n">
-        <v>0.597512</v>
+        <v>0.605959</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349173</v>
+        <v>0.349593</v>
       </c>
       <c r="C96" t="n">
-        <v>0.260756</v>
+        <v>0.26125</v>
       </c>
       <c r="D96" t="n">
-        <v>0.597656</v>
+        <v>0.606401</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.342973</v>
+        <v>0.343309</v>
       </c>
       <c r="C97" t="n">
-        <v>0.259166</v>
+        <v>0.259372</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592483</v>
+        <v>0.601425</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336134</v>
+        <v>0.33653</v>
       </c>
       <c r="C98" t="n">
-        <v>0.257931</v>
+        <v>0.258288</v>
       </c>
       <c r="D98" t="n">
-        <v>0.587381</v>
+        <v>0.596027</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328621</v>
+        <v>0.328958</v>
       </c>
       <c r="C99" t="n">
-        <v>0.256836</v>
+        <v>0.257068</v>
       </c>
       <c r="D99" t="n">
-        <v>0.582373</v>
+        <v>0.591129</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320359</v>
+        <v>0.320484</v>
       </c>
       <c r="C100" t="n">
-        <v>0.255939</v>
+        <v>0.25606</v>
       </c>
       <c r="D100" t="n">
-        <v>0.577237</v>
+        <v>0.5863</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311695</v>
+        <v>0.311639</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254753</v>
+        <v>0.255092</v>
       </c>
       <c r="D101" t="n">
-        <v>0.571719</v>
+        <v>0.580152</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302171</v>
+        <v>0.302119</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253971</v>
+        <v>0.254185</v>
       </c>
       <c r="D102" t="n">
-        <v>0.568727</v>
+        <v>0.577179</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291365</v>
+        <v>0.291627</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253222</v>
+        <v>0.253339</v>
       </c>
       <c r="D103" t="n">
-        <v>0.564738</v>
+        <v>0.572543</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280298</v>
+        <v>0.280402</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252449</v>
+        <v>0.252426</v>
       </c>
       <c r="D104" t="n">
-        <v>0.557987</v>
+        <v>0.565204</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268416</v>
+        <v>0.268386</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251754</v>
+        <v>0.251786</v>
       </c>
       <c r="D105" t="n">
-        <v>0.55579</v>
+        <v>0.562948</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254998</v>
+        <v>0.255235</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251277</v>
+        <v>0.251259</v>
       </c>
       <c r="D106" t="n">
-        <v>0.551471</v>
+        <v>0.558582</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240941</v>
+        <v>0.241099</v>
       </c>
       <c r="C107" t="n">
-        <v>0.25091</v>
+        <v>0.25107</v>
       </c>
       <c r="D107" t="n">
-        <v>0.606332</v>
+        <v>0.613248</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226074</v>
+        <v>0.226308</v>
       </c>
       <c r="C108" t="n">
-        <v>0.265674</v>
+        <v>0.265724</v>
       </c>
       <c r="D108" t="n">
-        <v>0.604467</v>
+        <v>0.611992</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209164</v>
+        <v>0.209476</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263158</v>
+        <v>0.26359</v>
       </c>
       <c r="D109" t="n">
-        <v>0.599559</v>
+        <v>0.606907</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350161</v>
+        <v>0.350494</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261595</v>
+        <v>0.261851</v>
       </c>
       <c r="D110" t="n">
-        <v>0.597015</v>
+        <v>0.604961</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344283</v>
+        <v>0.344481</v>
       </c>
       <c r="C111" t="n">
-        <v>0.259691</v>
+        <v>0.259831</v>
       </c>
       <c r="D111" t="n">
-        <v>0.592813</v>
+        <v>0.60044</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337762</v>
+        <v>0.337708</v>
       </c>
       <c r="C112" t="n">
-        <v>0.258441</v>
+        <v>0.25854</v>
       </c>
       <c r="D112" t="n">
-        <v>0.586668</v>
+        <v>0.594402</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330172</v>
+        <v>0.33021</v>
       </c>
       <c r="C113" t="n">
-        <v>0.257374</v>
+        <v>0.257382</v>
       </c>
       <c r="D113" t="n">
-        <v>0.583078</v>
+        <v>0.592076</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322099</v>
+        <v>0.322095</v>
       </c>
       <c r="C114" t="n">
-        <v>0.256186</v>
+        <v>0.256249</v>
       </c>
       <c r="D114" t="n">
-        <v>0.576634</v>
+        <v>0.5856</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313649</v>
+        <v>0.313554</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255422</v>
+        <v>0.255431</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5698299999999999</v>
+        <v>0.579259</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303705</v>
+        <v>0.30365</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254586</v>
+        <v>0.254692</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5666</v>
+        <v>0.576296</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293583</v>
+        <v>0.293558</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253884</v>
+        <v>0.253891</v>
       </c>
       <c r="D117" t="n">
-        <v>0.561221</v>
+        <v>0.570419</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282504</v>
+        <v>0.282495</v>
       </c>
       <c r="C118" t="n">
-        <v>0.253088</v>
+        <v>0.253231</v>
       </c>
       <c r="D118" t="n">
-        <v>0.557637</v>
+        <v>0.566793</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270709</v>
+        <v>0.270633</v>
       </c>
       <c r="C119" t="n">
-        <v>0.252051</v>
+        <v>0.25228</v>
       </c>
       <c r="D119" t="n">
-        <v>0.552947</v>
+        <v>0.562214</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.257777</v>
+        <v>0.257868</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251773</v>
+        <v>0.251994</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5481740000000001</v>
+        <v>0.557352</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243979</v>
+        <v>0.243907</v>
       </c>
       <c r="C121" t="n">
-        <v>0.251074</v>
+        <v>0.251275</v>
       </c>
       <c r="D121" t="n">
-        <v>0.617185</v>
+        <v>0.630077</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229082</v>
+        <v>0.229315</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250866</v>
+        <v>0.251277</v>
       </c>
       <c r="D122" t="n">
-        <v>0.616569</v>
+        <v>0.629575</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212677</v>
+        <v>0.213075</v>
       </c>
       <c r="C123" t="n">
-        <v>0.264046</v>
+        <v>0.264026</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6135080000000001</v>
+        <v>0.626654</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351338</v>
+        <v>0.351588</v>
       </c>
       <c r="C124" t="n">
-        <v>0.262203</v>
+        <v>0.262108</v>
       </c>
       <c r="D124" t="n">
-        <v>0.60922</v>
+        <v>0.622244</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345516</v>
+        <v>0.345698</v>
       </c>
       <c r="C125" t="n">
-        <v>0.260374</v>
+        <v>0.260265</v>
       </c>
       <c r="D125" t="n">
-        <v>0.604732</v>
+        <v>0.6179249999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339245</v>
+        <v>0.339036</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25905</v>
+        <v>0.258943</v>
       </c>
       <c r="D126" t="n">
-        <v>0.600652</v>
+        <v>0.612943</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.331731</v>
+        <v>0.331898</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257805</v>
+        <v>0.257639</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593899</v>
+        <v>0.606965</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323594</v>
+        <v>0.323682</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256677</v>
+        <v>0.256688</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5872039999999999</v>
+        <v>0.615402</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314993</v>
+        <v>0.314988</v>
       </c>
       <c r="C129" t="n">
-        <v>0.255743</v>
+        <v>0.255702</v>
       </c>
       <c r="D129" t="n">
-        <v>0.580138</v>
+        <v>0.608757</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305981</v>
+        <v>0.306296</v>
       </c>
       <c r="C130" t="n">
-        <v>0.255018</v>
+        <v>0.25481</v>
       </c>
       <c r="D130" t="n">
-        <v>0.574623</v>
+        <v>0.6038019999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29584</v>
+        <v>0.296094</v>
       </c>
       <c r="C131" t="n">
-        <v>0.254107</v>
+        <v>0.254161</v>
       </c>
       <c r="D131" t="n">
-        <v>0.570553</v>
+        <v>0.5999989999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284907</v>
+        <v>0.284975</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253278</v>
+        <v>0.253323</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5650810000000001</v>
+        <v>0.594872</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273124</v>
+        <v>0.273199</v>
       </c>
       <c r="C133" t="n">
-        <v>0.252578</v>
+        <v>0.252757</v>
       </c>
       <c r="D133" t="n">
-        <v>0.560519</v>
+        <v>0.590638</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260285</v>
+        <v>0.260567</v>
       </c>
       <c r="C134" t="n">
-        <v>0.252128</v>
+        <v>0.252163</v>
       </c>
       <c r="D134" t="n">
-        <v>0.556714</v>
+        <v>0.587144</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246648</v>
+        <v>0.246929</v>
       </c>
       <c r="C135" t="n">
-        <v>0.251382</v>
+        <v>0.251515</v>
       </c>
       <c r="D135" t="n">
-        <v>0.622789</v>
+        <v>0.646405</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23208</v>
+        <v>0.232248</v>
       </c>
       <c r="C136" t="n">
-        <v>0.250619</v>
+        <v>0.251135</v>
       </c>
       <c r="D136" t="n">
-        <v>0.624899</v>
+        <v>0.649558</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215968</v>
+        <v>0.216304</v>
       </c>
       <c r="C137" t="n">
-        <v>0.264232</v>
+        <v>0.264737</v>
       </c>
       <c r="D137" t="n">
-        <v>0.620692</v>
+        <v>0.646282</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352695</v>
+        <v>0.35269</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262474</v>
+        <v>0.262708</v>
       </c>
       <c r="D138" t="n">
-        <v>0.616919</v>
+        <v>0.643038</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.346653</v>
+        <v>0.347026</v>
       </c>
       <c r="C139" t="n">
-        <v>0.260761</v>
+        <v>0.260842</v>
       </c>
       <c r="D139" t="n">
-        <v>0.61072</v>
+        <v>0.636194</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340402</v>
+        <v>0.340636</v>
       </c>
       <c r="C140" t="n">
-        <v>0.259547</v>
+        <v>0.259468</v>
       </c>
       <c r="D140" t="n">
-        <v>0.603417</v>
+        <v>0.62968</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333053</v>
+        <v>0.333258</v>
       </c>
       <c r="C141" t="n">
-        <v>0.257955</v>
+        <v>0.258189</v>
       </c>
       <c r="D141" t="n">
-        <v>0.598874</v>
+        <v>0.6258629999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325429</v>
+        <v>0.325406</v>
       </c>
       <c r="C142" t="n">
-        <v>0.256968</v>
+        <v>0.256816</v>
       </c>
       <c r="D142" t="n">
-        <v>0.592595</v>
+        <v>0.619978</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31694</v>
+        <v>0.316739</v>
       </c>
       <c r="C143" t="n">
-        <v>0.256117</v>
+        <v>0.256028</v>
       </c>
       <c r="D143" t="n">
-        <v>0.584738</v>
+        <v>0.612869</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273909</v>
+        <v>0.276639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231097</v>
+        <v>0.223049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.393606</v>
+        <v>0.400712</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.276128</v>
+        <v>0.271704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23477</v>
+        <v>0.223571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.393327</v>
+        <v>0.402057</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260742</v>
+        <v>0.26105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235617</v>
+        <v>0.229058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.395218</v>
+        <v>0.403903</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248914</v>
+        <v>0.249199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236406</v>
+        <v>0.227393</v>
       </c>
       <c r="D5" t="n">
-        <v>0.395951</v>
+        <v>0.406291</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240622</v>
+        <v>0.241715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238392</v>
+        <v>0.233143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.397323</v>
+        <v>0.407046</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225752</v>
+        <v>0.225414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.239376</v>
+        <v>0.235261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.395314</v>
+        <v>0.397939</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210444</v>
+        <v>0.208088</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2403</v>
+        <v>0.23275</v>
       </c>
       <c r="D8" t="n">
-        <v>0.397537</v>
+        <v>0.400356</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193347</v>
+        <v>0.191053</v>
       </c>
       <c r="C9" t="n">
-        <v>0.255335</v>
+        <v>0.25301</v>
       </c>
       <c r="D9" t="n">
-        <v>0.398008</v>
+        <v>0.401179</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335268</v>
+        <v>0.339259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254199</v>
+        <v>0.253671</v>
       </c>
       <c r="D10" t="n">
-        <v>0.39821</v>
+        <v>0.40175</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.331743</v>
+        <v>0.332214</v>
       </c>
       <c r="C11" t="n">
-        <v>0.255398</v>
+        <v>0.252862</v>
       </c>
       <c r="D11" t="n">
-        <v>0.397494</v>
+        <v>0.401463</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.326184</v>
+        <v>0.331061</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2542</v>
+        <v>0.252539</v>
       </c>
       <c r="D12" t="n">
-        <v>0.399971</v>
+        <v>0.403155</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319634</v>
+        <v>0.324032</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253616</v>
+        <v>0.249048</v>
       </c>
       <c r="D13" t="n">
-        <v>0.397932</v>
+        <v>0.40391</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312614</v>
+        <v>0.31666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.253301</v>
+        <v>0.248723</v>
       </c>
       <c r="D14" t="n">
-        <v>0.400207</v>
+        <v>0.405017</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304949</v>
+        <v>0.307122</v>
       </c>
       <c r="C15" t="n">
-        <v>0.252751</v>
+        <v>0.248611</v>
       </c>
       <c r="D15" t="n">
-        <v>0.40145</v>
+        <v>0.406687</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29482</v>
+        <v>0.298906</v>
       </c>
       <c r="C16" t="n">
-        <v>0.251144</v>
+        <v>0.24715</v>
       </c>
       <c r="D16" t="n">
-        <v>0.401033</v>
+        <v>0.407906</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286813</v>
+        <v>0.289219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.251694</v>
+        <v>0.246828</v>
       </c>
       <c r="D17" t="n">
-        <v>0.402511</v>
+        <v>0.408914</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277112</v>
+        <v>0.277824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.251695</v>
+        <v>0.248486</v>
       </c>
       <c r="D18" t="n">
-        <v>0.403198</v>
+        <v>0.412726</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26652</v>
+        <v>0.26715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250532</v>
+        <v>0.245556</v>
       </c>
       <c r="D19" t="n">
-        <v>0.40414</v>
+        <v>0.414253</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.256053</v>
+        <v>0.2569</v>
       </c>
       <c r="C20" t="n">
-        <v>0.250707</v>
+        <v>0.247968</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405645</v>
+        <v>0.416662</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243176</v>
+        <v>0.243251</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250447</v>
+        <v>0.245112</v>
       </c>
       <c r="D21" t="n">
-        <v>0.40319</v>
+        <v>0.406001</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227463</v>
+        <v>0.227621</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249898</v>
+        <v>0.246113</v>
       </c>
       <c r="D22" t="n">
-        <v>0.401866</v>
+        <v>0.40466</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210084</v>
+        <v>0.2112</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261687</v>
+        <v>0.266374</v>
       </c>
       <c r="D23" t="n">
-        <v>0.402008</v>
+        <v>0.405425</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345298</v>
+        <v>0.350139</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26018</v>
+        <v>0.262444</v>
       </c>
       <c r="D24" t="n">
-        <v>0.402294</v>
+        <v>0.406075</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.339975</v>
+        <v>0.344057</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258759</v>
+        <v>0.259075</v>
       </c>
       <c r="D25" t="n">
-        <v>0.403981</v>
+        <v>0.407868</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336117</v>
+        <v>0.337824</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257437</v>
+        <v>0.257721</v>
       </c>
       <c r="D26" t="n">
-        <v>0.403957</v>
+        <v>0.408203</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330339</v>
+        <v>0.334288</v>
       </c>
       <c r="C27" t="n">
-        <v>0.257069</v>
+        <v>0.256702</v>
       </c>
       <c r="D27" t="n">
-        <v>0.404096</v>
+        <v>0.409752</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.320497</v>
+        <v>0.325567</v>
       </c>
       <c r="C28" t="n">
-        <v>0.255597</v>
+        <v>0.256717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403469</v>
+        <v>0.409105</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313015</v>
+        <v>0.317088</v>
       </c>
       <c r="C29" t="n">
-        <v>0.254238</v>
+        <v>0.256017</v>
       </c>
       <c r="D29" t="n">
-        <v>0.405414</v>
+        <v>0.411708</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.304721</v>
+        <v>0.307935</v>
       </c>
       <c r="C30" t="n">
-        <v>0.253901</v>
+        <v>0.254704</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405741</v>
+        <v>0.413464</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29504</v>
+        <v>0.298083</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253271</v>
+        <v>0.253594</v>
       </c>
       <c r="D31" t="n">
-        <v>0.406918</v>
+        <v>0.415385</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28481</v>
+        <v>0.287693</v>
       </c>
       <c r="C32" t="n">
-        <v>0.252704</v>
+        <v>0.253452</v>
       </c>
       <c r="D32" t="n">
-        <v>0.407183</v>
+        <v>0.416457</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273804</v>
+        <v>0.276486</v>
       </c>
       <c r="C33" t="n">
-        <v>0.251823</v>
+        <v>0.254699</v>
       </c>
       <c r="D33" t="n">
-        <v>0.408993</v>
+        <v>0.418806</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262498</v>
+        <v>0.264499</v>
       </c>
       <c r="C34" t="n">
-        <v>0.251138</v>
+        <v>0.257148</v>
       </c>
       <c r="D34" t="n">
-        <v>0.409216</v>
+        <v>0.4193</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248607</v>
+        <v>0.249714</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250577</v>
+        <v>0.25517</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4092</v>
+        <v>0.412449</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233955</v>
+        <v>0.233197</v>
       </c>
       <c r="C36" t="n">
-        <v>0.250105</v>
+        <v>0.248759</v>
       </c>
       <c r="D36" t="n">
-        <v>0.40871</v>
+        <v>0.412805</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.218402</v>
+        <v>0.21678</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262186</v>
+        <v>0.263856</v>
       </c>
       <c r="D37" t="n">
-        <v>0.409421</v>
+        <v>0.41391</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350076</v>
+        <v>0.355734</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261093</v>
+        <v>0.262276</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408747</v>
+        <v>0.413715</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344958</v>
+        <v>0.35014</v>
       </c>
       <c r="C39" t="n">
-        <v>0.259253</v>
+        <v>0.259206</v>
       </c>
       <c r="D39" t="n">
-        <v>0.408999</v>
+        <v>0.413666</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339497</v>
+        <v>0.343602</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258305</v>
+        <v>0.257385</v>
       </c>
       <c r="D40" t="n">
-        <v>0.408218</v>
+        <v>0.414588</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332943</v>
+        <v>0.337115</v>
       </c>
       <c r="C41" t="n">
-        <v>0.257096</v>
+        <v>0.256327</v>
       </c>
       <c r="D41" t="n">
-        <v>0.408666</v>
+        <v>0.41499</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326451</v>
+        <v>0.329544</v>
       </c>
       <c r="C42" t="n">
-        <v>0.256235</v>
+        <v>0.255107</v>
       </c>
       <c r="D42" t="n">
-        <v>0.408537</v>
+        <v>0.416072</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317509</v>
+        <v>0.320879</v>
       </c>
       <c r="C43" t="n">
-        <v>0.255421</v>
+        <v>0.254305</v>
       </c>
       <c r="D43" t="n">
-        <v>0.408961</v>
+        <v>0.416763</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309004</v>
+        <v>0.312845</v>
       </c>
       <c r="C44" t="n">
-        <v>0.254195</v>
+        <v>0.253487</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409389</v>
+        <v>0.418309</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300029</v>
+        <v>0.30251</v>
       </c>
       <c r="C45" t="n">
-        <v>0.253573</v>
+        <v>0.251296</v>
       </c>
       <c r="D45" t="n">
-        <v>0.409517</v>
+        <v>0.419778</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.289467</v>
+        <v>0.291899</v>
       </c>
       <c r="C46" t="n">
-        <v>0.252607</v>
+        <v>0.250388</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410975</v>
+        <v>0.420764</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.278568</v>
+        <v>0.279902</v>
       </c>
       <c r="C47" t="n">
-        <v>0.251951</v>
+        <v>0.250779</v>
       </c>
       <c r="D47" t="n">
-        <v>0.410101</v>
+        <v>0.421131</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267169</v>
+        <v>0.267984</v>
       </c>
       <c r="C48" t="n">
-        <v>0.251065</v>
+        <v>0.251281</v>
       </c>
       <c r="D48" t="n">
-        <v>0.412468</v>
+        <v>0.422038</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254089</v>
+        <v>0.254325</v>
       </c>
       <c r="C49" t="n">
-        <v>0.250534</v>
+        <v>0.251506</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412562</v>
+        <v>0.424173</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239637</v>
+        <v>0.239698</v>
       </c>
       <c r="C50" t="n">
-        <v>0.25057</v>
+        <v>0.250143</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414259</v>
+        <v>0.418439</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.225352</v>
+        <v>0.224723</v>
       </c>
       <c r="C51" t="n">
-        <v>0.263631</v>
+        <v>0.26479</v>
       </c>
       <c r="D51" t="n">
-        <v>0.415626</v>
+        <v>0.41469</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209055</v>
+        <v>0.206735</v>
       </c>
       <c r="C52" t="n">
-        <v>0.261878</v>
+        <v>0.262132</v>
       </c>
       <c r="D52" t="n">
-        <v>0.415198</v>
+        <v>0.416677</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349915</v>
+        <v>0.354709</v>
       </c>
       <c r="C53" t="n">
-        <v>0.26022</v>
+        <v>0.259655</v>
       </c>
       <c r="D53" t="n">
-        <v>0.413336</v>
+        <v>0.41825</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344058</v>
+        <v>0.34854</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259006</v>
+        <v>0.257768</v>
       </c>
       <c r="D54" t="n">
-        <v>0.416474</v>
+        <v>0.419589</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.337658</v>
+        <v>0.341746</v>
       </c>
       <c r="C55" t="n">
-        <v>0.257403</v>
+        <v>0.256324</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41702</v>
+        <v>0.420042</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330913</v>
+        <v>0.334347</v>
       </c>
       <c r="C56" t="n">
-        <v>0.256266</v>
+        <v>0.255289</v>
       </c>
       <c r="D56" t="n">
-        <v>0.418884</v>
+        <v>0.423881</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322573</v>
+        <v>0.326208</v>
       </c>
       <c r="C57" t="n">
-        <v>0.255838</v>
+        <v>0.254269</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419558</v>
+        <v>0.426977</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313628</v>
+        <v>0.31773</v>
       </c>
       <c r="C58" t="n">
-        <v>0.255064</v>
+        <v>0.253137</v>
       </c>
       <c r="D58" t="n">
-        <v>0.417456</v>
+        <v>0.42507</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304152</v>
+        <v>0.30764</v>
       </c>
       <c r="C59" t="n">
-        <v>0.253872</v>
+        <v>0.252538</v>
       </c>
       <c r="D59" t="n">
-        <v>0.420793</v>
+        <v>0.431038</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294351</v>
+        <v>0.297291</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253079</v>
+        <v>0.251599</v>
       </c>
       <c r="D60" t="n">
-        <v>0.427213</v>
+        <v>0.436013</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.283346</v>
+        <v>0.284626</v>
       </c>
       <c r="C61" t="n">
-        <v>0.252041</v>
+        <v>0.251528</v>
       </c>
       <c r="D61" t="n">
-        <v>0.430041</v>
+        <v>0.440153</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27205</v>
+        <v>0.272383</v>
       </c>
       <c r="C62" t="n">
-        <v>0.251264</v>
+        <v>0.250344</v>
       </c>
       <c r="D62" t="n">
-        <v>0.431095</v>
+        <v>0.441249</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259293</v>
+        <v>0.258948</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250651</v>
+        <v>0.249566</v>
       </c>
       <c r="D63" t="n">
-        <v>0.437509</v>
+        <v>0.446236</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245596</v>
+        <v>0.24629</v>
       </c>
       <c r="C64" t="n">
-        <v>0.25009</v>
+        <v>0.249275</v>
       </c>
       <c r="D64" t="n">
-        <v>0.464363</v>
+        <v>0.459903</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230515</v>
+        <v>0.229488</v>
       </c>
       <c r="C65" t="n">
-        <v>0.24943</v>
+        <v>0.249623</v>
       </c>
       <c r="D65" t="n">
-        <v>0.472893</v>
+        <v>0.469416</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214188</v>
+        <v>0.212638</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262848</v>
+        <v>0.262701</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47921</v>
+        <v>0.47705</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351196</v>
+        <v>0.357098</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261324</v>
+        <v>0.260546</v>
       </c>
       <c r="D67" t="n">
-        <v>0.498499</v>
+        <v>0.488036</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.346045</v>
+        <v>0.351411</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259414</v>
+        <v>0.258713</v>
       </c>
       <c r="D68" t="n">
-        <v>0.498107</v>
+        <v>0.513855</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.339636</v>
+        <v>0.345345</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258776</v>
+        <v>0.256934</v>
       </c>
       <c r="D69" t="n">
-        <v>0.498059</v>
+        <v>0.497804</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.333527</v>
+        <v>0.337876</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256877</v>
+        <v>0.256027</v>
       </c>
       <c r="D70" t="n">
-        <v>0.507899</v>
+        <v>0.502132</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.325018</v>
+        <v>0.328853</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256118</v>
+        <v>0.255433</v>
       </c>
       <c r="D71" t="n">
-        <v>0.50904</v>
+        <v>0.51598</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316056</v>
+        <v>0.320371</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255689</v>
+        <v>0.254254</v>
       </c>
       <c r="D72" t="n">
-        <v>0.517639</v>
+        <v>0.514839</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307205</v>
+        <v>0.30957</v>
       </c>
       <c r="C73" t="n">
-        <v>0.254157</v>
+        <v>0.253066</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5188700000000001</v>
+        <v>0.535917</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29724</v>
+        <v>0.299972</v>
       </c>
       <c r="C74" t="n">
-        <v>0.253339</v>
+        <v>0.251913</v>
       </c>
       <c r="D74" t="n">
-        <v>0.531894</v>
+        <v>0.522381</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286338</v>
+        <v>0.28877</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252384</v>
+        <v>0.251543</v>
       </c>
       <c r="D75" t="n">
-        <v>0.519024</v>
+        <v>0.538748</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274959</v>
+        <v>0.276442</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251906</v>
+        <v>0.251828</v>
       </c>
       <c r="D76" t="n">
-        <v>0.533538</v>
+        <v>0.526909</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262007</v>
+        <v>0.264306</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251181</v>
+        <v>0.250737</v>
       </c>
       <c r="D77" t="n">
-        <v>0.52185</v>
+        <v>0.542382</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248968</v>
+        <v>0.24853</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250643</v>
+        <v>0.250477</v>
       </c>
       <c r="D78" t="n">
-        <v>0.637234</v>
+        <v>0.6369590000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234458</v>
+        <v>0.233577</v>
       </c>
       <c r="C79" t="n">
-        <v>0.250182</v>
+        <v>0.249804</v>
       </c>
       <c r="D79" t="n">
-        <v>0.638893</v>
+        <v>0.638639</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218711</v>
+        <v>0.217178</v>
       </c>
       <c r="C80" t="n">
-        <v>0.264126</v>
+        <v>0.26427</v>
       </c>
       <c r="D80" t="n">
-        <v>0.63893</v>
+        <v>0.640032</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.352903</v>
+        <v>0.358248</v>
       </c>
       <c r="C81" t="n">
-        <v>0.262951</v>
+        <v>0.261644</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6006050000000001</v>
+        <v>0.619676</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.347513</v>
+        <v>0.352658</v>
       </c>
       <c r="C82" t="n">
-        <v>0.260188</v>
+        <v>0.259458</v>
       </c>
       <c r="D82" t="n">
-        <v>0.641512</v>
+        <v>0.634665</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341491</v>
+        <v>0.346131</v>
       </c>
       <c r="C83" t="n">
-        <v>0.258657</v>
+        <v>0.257272</v>
       </c>
       <c r="D83" t="n">
-        <v>0.603234</v>
+        <v>0.602765</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334705</v>
+        <v>0.338856</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257481</v>
+        <v>0.256162</v>
       </c>
       <c r="D84" t="n">
-        <v>0.595248</v>
+        <v>0.595931</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326983</v>
+        <v>0.330676</v>
       </c>
       <c r="C85" t="n">
-        <v>0.256752</v>
+        <v>0.255171</v>
       </c>
       <c r="D85" t="n">
-        <v>0.594591</v>
+        <v>0.596714</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318618</v>
+        <v>0.321603</v>
       </c>
       <c r="C86" t="n">
-        <v>0.25573</v>
+        <v>0.254301</v>
       </c>
       <c r="D86" t="n">
-        <v>0.601666</v>
+        <v>0.603718</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309606</v>
+        <v>0.312047</v>
       </c>
       <c r="C87" t="n">
-        <v>0.254669</v>
+        <v>0.253252</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5844009999999999</v>
+        <v>0.588904</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299775</v>
+        <v>0.301574</v>
       </c>
       <c r="C88" t="n">
-        <v>0.254014</v>
+        <v>0.252485</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5920879999999999</v>
+        <v>0.595697</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289279</v>
+        <v>0.290345</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253007</v>
+        <v>0.252065</v>
       </c>
       <c r="D89" t="n">
-        <v>0.602448</v>
+        <v>0.607777</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277705</v>
+        <v>0.278217</v>
       </c>
       <c r="C90" t="n">
-        <v>0.252381</v>
+        <v>0.25111</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5814780000000001</v>
+        <v>0.588006</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265684</v>
+        <v>0.265566</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251613</v>
+        <v>0.250797</v>
       </c>
       <c r="D91" t="n">
-        <v>0.563847</v>
+        <v>0.571605</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252213</v>
+        <v>0.251754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.25114</v>
+        <v>0.250108</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6112109999999999</v>
+        <v>0.603669</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.237521</v>
+        <v>0.236346</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250989</v>
+        <v>0.249674</v>
       </c>
       <c r="D93" t="n">
-        <v>0.605707</v>
+        <v>0.596473</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221676</v>
+        <v>0.219977</v>
       </c>
       <c r="C94" t="n">
-        <v>0.265175</v>
+        <v>0.264052</v>
       </c>
       <c r="D94" t="n">
-        <v>0.602209</v>
+        <v>0.596237</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354463</v>
+        <v>0.359496</v>
       </c>
       <c r="C95" t="n">
-        <v>0.263493</v>
+        <v>0.261747</v>
       </c>
       <c r="D95" t="n">
-        <v>0.597512</v>
+        <v>0.591071</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349173</v>
+        <v>0.354132</v>
       </c>
       <c r="C96" t="n">
-        <v>0.260756</v>
+        <v>0.259553</v>
       </c>
       <c r="D96" t="n">
-        <v>0.597656</v>
+        <v>0.591628</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.342973</v>
+        <v>0.347759</v>
       </c>
       <c r="C97" t="n">
-        <v>0.259166</v>
+        <v>0.257972</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592483</v>
+        <v>0.588162</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.336134</v>
+        <v>0.340374</v>
       </c>
       <c r="C98" t="n">
-        <v>0.257931</v>
+        <v>0.256587</v>
       </c>
       <c r="D98" t="n">
-        <v>0.587381</v>
+        <v>0.583553</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328621</v>
+        <v>0.33243</v>
       </c>
       <c r="C99" t="n">
-        <v>0.256836</v>
+        <v>0.255295</v>
       </c>
       <c r="D99" t="n">
-        <v>0.582373</v>
+        <v>0.57999</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320359</v>
+        <v>0.323437</v>
       </c>
       <c r="C100" t="n">
-        <v>0.255939</v>
+        <v>0.25423</v>
       </c>
       <c r="D100" t="n">
-        <v>0.577237</v>
+        <v>0.576301</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311695</v>
+        <v>0.313951</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254753</v>
+        <v>0.253249</v>
       </c>
       <c r="D101" t="n">
-        <v>0.571719</v>
+        <v>0.571626</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302171</v>
+        <v>0.303805</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253971</v>
+        <v>0.252613</v>
       </c>
       <c r="D102" t="n">
-        <v>0.568727</v>
+        <v>0.570168</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291365</v>
+        <v>0.292696</v>
       </c>
       <c r="C103" t="n">
-        <v>0.253222</v>
+        <v>0.251896</v>
       </c>
       <c r="D103" t="n">
-        <v>0.564738</v>
+        <v>0.5668</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280298</v>
+        <v>0.281002</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252449</v>
+        <v>0.251728</v>
       </c>
       <c r="D104" t="n">
-        <v>0.557987</v>
+        <v>0.560322</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268416</v>
+        <v>0.268164</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251754</v>
+        <v>0.251901</v>
       </c>
       <c r="D105" t="n">
-        <v>0.55579</v>
+        <v>0.560103</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254998</v>
+        <v>0.254551</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251277</v>
+        <v>0.251531</v>
       </c>
       <c r="D106" t="n">
-        <v>0.551471</v>
+        <v>0.557083</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240941</v>
+        <v>0.239722</v>
       </c>
       <c r="C107" t="n">
-        <v>0.25091</v>
+        <v>0.250968</v>
       </c>
       <c r="D107" t="n">
-        <v>0.606332</v>
+        <v>0.595739</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226074</v>
+        <v>0.226135</v>
       </c>
       <c r="C108" t="n">
-        <v>0.265674</v>
+        <v>0.264525</v>
       </c>
       <c r="D108" t="n">
-        <v>0.604467</v>
+        <v>0.595224</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209164</v>
+        <v>0.208837</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263158</v>
+        <v>0.262097</v>
       </c>
       <c r="D109" t="n">
-        <v>0.599559</v>
+        <v>0.591262</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350161</v>
+        <v>0.355199</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261595</v>
+        <v>0.260188</v>
       </c>
       <c r="D110" t="n">
-        <v>0.597015</v>
+        <v>0.58948</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344283</v>
+        <v>0.348855</v>
       </c>
       <c r="C111" t="n">
-        <v>0.259691</v>
+        <v>0.25864</v>
       </c>
       <c r="D111" t="n">
-        <v>0.592813</v>
+        <v>0.586442</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337762</v>
+        <v>0.342064</v>
       </c>
       <c r="C112" t="n">
-        <v>0.258441</v>
+        <v>0.257249</v>
       </c>
       <c r="D112" t="n">
-        <v>0.586668</v>
+        <v>0.582025</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.330172</v>
+        <v>0.334056</v>
       </c>
       <c r="C113" t="n">
-        <v>0.257374</v>
+        <v>0.255676</v>
       </c>
       <c r="D113" t="n">
-        <v>0.583078</v>
+        <v>0.579917</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322099</v>
+        <v>0.325407</v>
       </c>
       <c r="C114" t="n">
-        <v>0.256186</v>
+        <v>0.25503</v>
       </c>
       <c r="D114" t="n">
-        <v>0.576634</v>
+        <v>0.57497</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313649</v>
+        <v>0.317236</v>
       </c>
       <c r="C115" t="n">
-        <v>0.255422</v>
+        <v>0.253418</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5698299999999999</v>
+        <v>0.570379</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303705</v>
+        <v>0.306981</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254586</v>
+        <v>0.252605</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5666</v>
+        <v>0.567084</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293583</v>
+        <v>0.296872</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253884</v>
+        <v>0.251977</v>
       </c>
       <c r="D117" t="n">
-        <v>0.561221</v>
+        <v>0.56319</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282504</v>
+        <v>0.285307</v>
       </c>
       <c r="C118" t="n">
-        <v>0.253088</v>
+        <v>0.251877</v>
       </c>
       <c r="D118" t="n">
-        <v>0.557637</v>
+        <v>0.560301</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270709</v>
+        <v>0.272339</v>
       </c>
       <c r="C119" t="n">
-        <v>0.252051</v>
+        <v>0.251568</v>
       </c>
       <c r="D119" t="n">
-        <v>0.552947</v>
+        <v>0.557125</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.257777</v>
+        <v>0.259519</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251773</v>
+        <v>0.25088</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5481740000000001</v>
+        <v>0.553717</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243979</v>
+        <v>0.244798</v>
       </c>
       <c r="C121" t="n">
-        <v>0.251074</v>
+        <v>0.250583</v>
       </c>
       <c r="D121" t="n">
-        <v>0.617185</v>
+        <v>0.609105</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229082</v>
+        <v>0.227596</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250866</v>
+        <v>0.250298</v>
       </c>
       <c r="D122" t="n">
-        <v>0.616569</v>
+        <v>0.6101569999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212677</v>
+        <v>0.210594</v>
       </c>
       <c r="C123" t="n">
-        <v>0.264046</v>
+        <v>0.26276</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6135080000000001</v>
+        <v>0.607522</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351338</v>
+        <v>0.356653</v>
       </c>
       <c r="C124" t="n">
-        <v>0.262203</v>
+        <v>0.260561</v>
       </c>
       <c r="D124" t="n">
-        <v>0.60922</v>
+        <v>0.603887</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345516</v>
+        <v>0.350827</v>
       </c>
       <c r="C125" t="n">
-        <v>0.260374</v>
+        <v>0.258899</v>
       </c>
       <c r="D125" t="n">
-        <v>0.604732</v>
+        <v>0.601167</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.339245</v>
+        <v>0.344221</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25905</v>
+        <v>0.25741</v>
       </c>
       <c r="D126" t="n">
-        <v>0.600652</v>
+        <v>0.59711</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.331731</v>
+        <v>0.33714</v>
       </c>
       <c r="C127" t="n">
-        <v>0.257805</v>
+        <v>0.256067</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593899</v>
+        <v>0.592291</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323594</v>
+        <v>0.328811</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256677</v>
+        <v>0.255035</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5872039999999999</v>
+        <v>0.586365</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314993</v>
+        <v>0.319129</v>
       </c>
       <c r="C129" t="n">
-        <v>0.255743</v>
+        <v>0.254093</v>
       </c>
       <c r="D129" t="n">
-        <v>0.580138</v>
+        <v>0.580144</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305981</v>
+        <v>0.309402</v>
       </c>
       <c r="C130" t="n">
-        <v>0.255018</v>
+        <v>0.252949</v>
       </c>
       <c r="D130" t="n">
-        <v>0.574623</v>
+        <v>0.575607</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29584</v>
+        <v>0.298726</v>
       </c>
       <c r="C131" t="n">
-        <v>0.254107</v>
+        <v>0.252415</v>
       </c>
       <c r="D131" t="n">
-        <v>0.570553</v>
+        <v>0.572972</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284907</v>
+        <v>0.287218</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253278</v>
+        <v>0.251505</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5650810000000001</v>
+        <v>0.568877</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273124</v>
+        <v>0.274959</v>
       </c>
       <c r="C133" t="n">
-        <v>0.252578</v>
+        <v>0.251367</v>
       </c>
       <c r="D133" t="n">
-        <v>0.560519</v>
+        <v>0.565215</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260285</v>
+        <v>0.261688</v>
       </c>
       <c r="C134" t="n">
-        <v>0.252128</v>
+        <v>0.251203</v>
       </c>
       <c r="D134" t="n">
-        <v>0.556714</v>
+        <v>0.56248</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246648</v>
+        <v>0.247485</v>
       </c>
       <c r="C135" t="n">
-        <v>0.251382</v>
+        <v>0.250778</v>
       </c>
       <c r="D135" t="n">
-        <v>0.622789</v>
+        <v>0.61468</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23208</v>
+        <v>0.23068</v>
       </c>
       <c r="C136" t="n">
-        <v>0.250619</v>
+        <v>0.250236</v>
       </c>
       <c r="D136" t="n">
-        <v>0.624899</v>
+        <v>0.617606</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215968</v>
+        <v>0.214195</v>
       </c>
       <c r="C137" t="n">
-        <v>0.264232</v>
+        <v>0.262986</v>
       </c>
       <c r="D137" t="n">
-        <v>0.620692</v>
+        <v>0.614326</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.352695</v>
+        <v>0.357762</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262474</v>
+        <v>0.260877</v>
       </c>
       <c r="D138" t="n">
-        <v>0.616919</v>
+        <v>0.611544</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.346653</v>
+        <v>0.351693</v>
       </c>
       <c r="C139" t="n">
-        <v>0.260761</v>
+        <v>0.259261</v>
       </c>
       <c r="D139" t="n">
-        <v>0.61072</v>
+        <v>0.60561</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340402</v>
+        <v>0.34504</v>
       </c>
       <c r="C140" t="n">
-        <v>0.259547</v>
+        <v>0.257719</v>
       </c>
       <c r="D140" t="n">
-        <v>0.603417</v>
+        <v>0.59889</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333053</v>
+        <v>0.33751</v>
       </c>
       <c r="C141" t="n">
-        <v>0.257955</v>
+        <v>0.256503</v>
       </c>
       <c r="D141" t="n">
-        <v>0.598874</v>
+        <v>0.596923</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325429</v>
+        <v>0.328994</v>
       </c>
       <c r="C142" t="n">
-        <v>0.256968</v>
+        <v>0.255335</v>
       </c>
       <c r="D142" t="n">
-        <v>0.592595</v>
+        <v>0.591203</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31694</v>
+        <v>0.320086</v>
       </c>
       <c r="C143" t="n">
-        <v>0.256117</v>
+        <v>0.254298</v>
       </c>
       <c r="D143" t="n">
-        <v>0.584738</v>
+        <v>0.583919</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276639</v>
+        <v>0.275732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223049</v>
+        <v>0.222203</v>
       </c>
       <c r="D2" t="n">
-        <v>0.400712</v>
+        <v>0.400999</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.271704</v>
+        <v>0.270933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223571</v>
+        <v>0.22343</v>
       </c>
       <c r="D3" t="n">
-        <v>0.402057</v>
+        <v>0.402309</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26105</v>
+        <v>0.25941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229058</v>
+        <v>0.227978</v>
       </c>
       <c r="D4" t="n">
-        <v>0.403903</v>
+        <v>0.402497</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249199</v>
+        <v>0.249672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.227393</v>
+        <v>0.228619</v>
       </c>
       <c r="D5" t="n">
-        <v>0.406291</v>
+        <v>0.406731</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241715</v>
+        <v>0.242044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233143</v>
+        <v>0.231067</v>
       </c>
       <c r="D6" t="n">
-        <v>0.407046</v>
+        <v>0.407249</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225414</v>
+        <v>0.223492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235261</v>
+        <v>0.234986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.397939</v>
+        <v>0.400072</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.208088</v>
+        <v>0.209391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23275</v>
+        <v>0.234678</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400356</v>
+        <v>0.400361</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.191053</v>
+        <v>0.191753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.25301</v>
+        <v>0.251171</v>
       </c>
       <c r="D9" t="n">
-        <v>0.401179</v>
+        <v>0.401459</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339259</v>
+        <v>0.339442</v>
       </c>
       <c r="C10" t="n">
-        <v>0.253671</v>
+        <v>0.25162</v>
       </c>
       <c r="D10" t="n">
-        <v>0.40175</v>
+        <v>0.399789</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.332214</v>
+        <v>0.336877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.252862</v>
+        <v>0.250932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.401463</v>
+        <v>0.400251</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.331061</v>
+        <v>0.330485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252539</v>
+        <v>0.250557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403155</v>
+        <v>0.40276</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324032</v>
+        <v>0.323963</v>
       </c>
       <c r="C13" t="n">
-        <v>0.249048</v>
+        <v>0.249894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.40391</v>
+        <v>0.403055</v>
       </c>
     </row>
     <row r="14">
@@ -3418,10 +3418,10 @@
         <v>0.31666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.248723</v>
+        <v>0.249218</v>
       </c>
       <c r="D14" t="n">
-        <v>0.405017</v>
+        <v>0.404764</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.307122</v>
+        <v>0.308158</v>
       </c>
       <c r="C15" t="n">
-        <v>0.248611</v>
+        <v>0.248808</v>
       </c>
       <c r="D15" t="n">
-        <v>0.406687</v>
+        <v>0.407037</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.298906</v>
+        <v>0.299451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24715</v>
+        <v>0.248245</v>
       </c>
       <c r="D16" t="n">
-        <v>0.407906</v>
+        <v>0.406884</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289219</v>
+        <v>0.289609</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246828</v>
+        <v>0.248398</v>
       </c>
       <c r="D17" t="n">
-        <v>0.408914</v>
+        <v>0.409643</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277824</v>
+        <v>0.277412</v>
       </c>
       <c r="C18" t="n">
-        <v>0.248486</v>
+        <v>0.24829</v>
       </c>
       <c r="D18" t="n">
-        <v>0.412726</v>
+        <v>0.414039</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26715</v>
+        <v>0.267269</v>
       </c>
       <c r="C19" t="n">
-        <v>0.245556</v>
+        <v>0.247972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.414253</v>
+        <v>0.415225</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2569</v>
+        <v>0.256598</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247968</v>
+        <v>0.248106</v>
       </c>
       <c r="D20" t="n">
-        <v>0.416662</v>
+        <v>0.416884</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243251</v>
+        <v>0.241872</v>
       </c>
       <c r="C21" t="n">
-        <v>0.245112</v>
+        <v>0.248051</v>
       </c>
       <c r="D21" t="n">
-        <v>0.406001</v>
+        <v>0.406569</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227621</v>
+        <v>0.227247</v>
       </c>
       <c r="C22" t="n">
-        <v>0.246113</v>
+        <v>0.246353</v>
       </c>
       <c r="D22" t="n">
-        <v>0.40466</v>
+        <v>0.404937</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2112</v>
+        <v>0.210496</v>
       </c>
       <c r="C23" t="n">
-        <v>0.266374</v>
+        <v>0.265491</v>
       </c>
       <c r="D23" t="n">
-        <v>0.405425</v>
+        <v>0.406399</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.350139</v>
+        <v>0.350151</v>
       </c>
       <c r="C24" t="n">
-        <v>0.262444</v>
+        <v>0.262264</v>
       </c>
       <c r="D24" t="n">
-        <v>0.406075</v>
+        <v>0.406844</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.344057</v>
+        <v>0.343834</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259075</v>
+        <v>0.259023</v>
       </c>
       <c r="D25" t="n">
-        <v>0.407868</v>
+        <v>0.409012</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337824</v>
+        <v>0.341057</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257721</v>
+        <v>0.25741</v>
       </c>
       <c r="D26" t="n">
-        <v>0.408203</v>
+        <v>0.410074</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.334288</v>
+        <v>0.334368</v>
       </c>
       <c r="C27" t="n">
-        <v>0.256702</v>
+        <v>0.256439</v>
       </c>
       <c r="D27" t="n">
-        <v>0.409752</v>
+        <v>0.410887</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.325567</v>
+        <v>0.325556</v>
       </c>
       <c r="C28" t="n">
-        <v>0.256717</v>
+        <v>0.256529</v>
       </c>
       <c r="D28" t="n">
-        <v>0.409105</v>
+        <v>0.410757</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.317088</v>
+        <v>0.316828</v>
       </c>
       <c r="C29" t="n">
-        <v>0.256017</v>
+        <v>0.255974</v>
       </c>
       <c r="D29" t="n">
-        <v>0.411708</v>
+        <v>0.412817</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307935</v>
+        <v>0.308581</v>
       </c>
       <c r="C30" t="n">
-        <v>0.254704</v>
+        <v>0.254591</v>
       </c>
       <c r="D30" t="n">
-        <v>0.413464</v>
+        <v>0.415352</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298083</v>
+        <v>0.298697</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253594</v>
+        <v>0.253755</v>
       </c>
       <c r="D31" t="n">
-        <v>0.415385</v>
+        <v>0.416777</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.287693</v>
+        <v>0.286946</v>
       </c>
       <c r="C32" t="n">
-        <v>0.253452</v>
+        <v>0.2533</v>
       </c>
       <c r="D32" t="n">
-        <v>0.416457</v>
+        <v>0.418274</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.276486</v>
+        <v>0.27698</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254699</v>
+        <v>0.251073</v>
       </c>
       <c r="D33" t="n">
-        <v>0.418806</v>
+        <v>0.419514</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.264499</v>
+        <v>0.264317</v>
       </c>
       <c r="C34" t="n">
-        <v>0.257148</v>
+        <v>0.250562</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4193</v>
+        <v>0.42088</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249714</v>
+        <v>0.249318</v>
       </c>
       <c r="C35" t="n">
-        <v>0.25517</v>
+        <v>0.250425</v>
       </c>
       <c r="D35" t="n">
-        <v>0.412449</v>
+        <v>0.412489</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233197</v>
+        <v>0.236292</v>
       </c>
       <c r="C36" t="n">
-        <v>0.248759</v>
+        <v>0.248903</v>
       </c>
       <c r="D36" t="n">
-        <v>0.412805</v>
+        <v>0.413722</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21678</v>
+        <v>0.216944</v>
       </c>
       <c r="C37" t="n">
-        <v>0.263856</v>
+        <v>0.263998</v>
       </c>
       <c r="D37" t="n">
-        <v>0.41391</v>
+        <v>0.414211</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.355734</v>
+        <v>0.35563</v>
       </c>
       <c r="C38" t="n">
-        <v>0.262276</v>
+        <v>0.262058</v>
       </c>
       <c r="D38" t="n">
-        <v>0.413715</v>
+        <v>0.41379</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35014</v>
+        <v>0.350201</v>
       </c>
       <c r="C39" t="n">
-        <v>0.259206</v>
+        <v>0.258711</v>
       </c>
       <c r="D39" t="n">
-        <v>0.413666</v>
+        <v>0.413777</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.343602</v>
+        <v>0.344133</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257385</v>
+        <v>0.257856</v>
       </c>
       <c r="D40" t="n">
-        <v>0.414588</v>
+        <v>0.415436</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.337115</v>
+        <v>0.337223</v>
       </c>
       <c r="C41" t="n">
-        <v>0.256327</v>
+        <v>0.256419</v>
       </c>
       <c r="D41" t="n">
-        <v>0.41499</v>
+        <v>0.415726</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.329544</v>
+        <v>0.329607</v>
       </c>
       <c r="C42" t="n">
-        <v>0.255107</v>
+        <v>0.255361</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416072</v>
+        <v>0.416964</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320879</v>
+        <v>0.320932</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254305</v>
+        <v>0.254316</v>
       </c>
       <c r="D43" t="n">
-        <v>0.416763</v>
+        <v>0.418063</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312845</v>
+        <v>0.311938</v>
       </c>
       <c r="C44" t="n">
-        <v>0.253487</v>
+        <v>0.253021</v>
       </c>
       <c r="D44" t="n">
-        <v>0.418309</v>
+        <v>0.419492</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30251</v>
+        <v>0.302921</v>
       </c>
       <c r="C45" t="n">
-        <v>0.251296</v>
+        <v>0.25101</v>
       </c>
       <c r="D45" t="n">
-        <v>0.419778</v>
+        <v>0.420814</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291899</v>
+        <v>0.292326</v>
       </c>
       <c r="C46" t="n">
-        <v>0.250388</v>
+        <v>0.250129</v>
       </c>
       <c r="D46" t="n">
-        <v>0.420764</v>
+        <v>0.421863</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279902</v>
+        <v>0.280155</v>
       </c>
       <c r="C47" t="n">
-        <v>0.250779</v>
+        <v>0.249733</v>
       </c>
       <c r="D47" t="n">
-        <v>0.421131</v>
+        <v>0.422171</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267984</v>
+        <v>0.268119</v>
       </c>
       <c r="C48" t="n">
-        <v>0.251281</v>
+        <v>0.250109</v>
       </c>
       <c r="D48" t="n">
-        <v>0.422038</v>
+        <v>0.423954</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254325</v>
+        <v>0.254824</v>
       </c>
       <c r="C49" t="n">
-        <v>0.251506</v>
+        <v>0.251273</v>
       </c>
       <c r="D49" t="n">
-        <v>0.424173</v>
+        <v>0.426239</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239698</v>
+        <v>0.239846</v>
       </c>
       <c r="C50" t="n">
-        <v>0.250143</v>
+        <v>0.251618</v>
       </c>
       <c r="D50" t="n">
-        <v>0.418439</v>
+        <v>0.418304</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.224723</v>
+        <v>0.223708</v>
       </c>
       <c r="C51" t="n">
-        <v>0.26479</v>
+        <v>0.264914</v>
       </c>
       <c r="D51" t="n">
-        <v>0.41469</v>
+        <v>0.418318</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.206735</v>
+        <v>0.206648</v>
       </c>
       <c r="C52" t="n">
-        <v>0.262132</v>
+        <v>0.262314</v>
       </c>
       <c r="D52" t="n">
-        <v>0.416677</v>
+        <v>0.419869</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354709</v>
+        <v>0.354867</v>
       </c>
       <c r="C53" t="n">
-        <v>0.259655</v>
+        <v>0.260334</v>
       </c>
       <c r="D53" t="n">
-        <v>0.41825</v>
+        <v>0.420319</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34854</v>
+        <v>0.34846</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257768</v>
+        <v>0.25823</v>
       </c>
       <c r="D54" t="n">
-        <v>0.419589</v>
+        <v>0.422163</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341746</v>
+        <v>0.34305</v>
       </c>
       <c r="C55" t="n">
-        <v>0.256324</v>
+        <v>0.256297</v>
       </c>
       <c r="D55" t="n">
-        <v>0.420042</v>
+        <v>0.422663</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334347</v>
+        <v>0.3361</v>
       </c>
       <c r="C56" t="n">
         <v>0.255289</v>
       </c>
       <c r="D56" t="n">
-        <v>0.423881</v>
+        <v>0.424577</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.326208</v>
+        <v>0.32724</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254269</v>
+        <v>0.254117</v>
       </c>
       <c r="D57" t="n">
-        <v>0.426977</v>
+        <v>0.424863</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31773</v>
+        <v>0.318216</v>
       </c>
       <c r="C58" t="n">
-        <v>0.253137</v>
+        <v>0.253252</v>
       </c>
       <c r="D58" t="n">
-        <v>0.42507</v>
+        <v>0.428976</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30764</v>
+        <v>0.308165</v>
       </c>
       <c r="C59" t="n">
-        <v>0.252538</v>
+        <v>0.252172</v>
       </c>
       <c r="D59" t="n">
-        <v>0.431038</v>
+        <v>0.434799</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.297291</v>
+        <v>0.297799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.251599</v>
+        <v>0.251504</v>
       </c>
       <c r="D60" t="n">
-        <v>0.436013</v>
+        <v>0.437716</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284626</v>
+        <v>0.284635</v>
       </c>
       <c r="C61" t="n">
-        <v>0.251528</v>
+        <v>0.251378</v>
       </c>
       <c r="D61" t="n">
-        <v>0.440153</v>
+        <v>0.444349</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272383</v>
+        <v>0.272757</v>
       </c>
       <c r="C62" t="n">
-        <v>0.250344</v>
+        <v>0.250124</v>
       </c>
       <c r="D62" t="n">
-        <v>0.441249</v>
+        <v>0.439275</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258948</v>
+        <v>0.259484</v>
       </c>
       <c r="C63" t="n">
-        <v>0.249566</v>
+        <v>0.249967</v>
       </c>
       <c r="D63" t="n">
-        <v>0.446236</v>
+        <v>0.444217</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24629</v>
+        <v>0.245182</v>
       </c>
       <c r="C64" t="n">
-        <v>0.249275</v>
+        <v>0.248898</v>
       </c>
       <c r="D64" t="n">
-        <v>0.459903</v>
+        <v>0.477567</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229488</v>
+        <v>0.229665</v>
       </c>
       <c r="C65" t="n">
-        <v>0.249623</v>
+        <v>0.249905</v>
       </c>
       <c r="D65" t="n">
-        <v>0.469416</v>
+        <v>0.47578</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212638</v>
+        <v>0.212901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262701</v>
+        <v>0.262294</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47705</v>
+        <v>0.482164</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.357098</v>
+        <v>0.357062</v>
       </c>
       <c r="C67" t="n">
-        <v>0.260546</v>
+        <v>0.260178</v>
       </c>
       <c r="D67" t="n">
-        <v>0.488036</v>
+        <v>0.492335</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351411</v>
+        <v>0.351217</v>
       </c>
       <c r="C68" t="n">
-        <v>0.258713</v>
+        <v>0.25852</v>
       </c>
       <c r="D68" t="n">
-        <v>0.513855</v>
+        <v>0.496882</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.345345</v>
+        <v>0.344663</v>
       </c>
       <c r="C69" t="n">
-        <v>0.256934</v>
+        <v>0.256617</v>
       </c>
       <c r="D69" t="n">
-        <v>0.497804</v>
+        <v>0.499262</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.337876</v>
+        <v>0.337104</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256027</v>
+        <v>0.255531</v>
       </c>
       <c r="D70" t="n">
-        <v>0.502132</v>
+        <v>0.510093</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328853</v>
+        <v>0.328868</v>
       </c>
       <c r="C71" t="n">
-        <v>0.255433</v>
+        <v>0.25502</v>
       </c>
       <c r="D71" t="n">
-        <v>0.51598</v>
+        <v>0.511721</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.320371</v>
+        <v>0.32001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.254254</v>
+        <v>0.254038</v>
       </c>
       <c r="D72" t="n">
-        <v>0.514839</v>
+        <v>0.52141</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30957</v>
+        <v>0.309131</v>
       </c>
       <c r="C73" t="n">
-        <v>0.253066</v>
+        <v>0.25294</v>
       </c>
       <c r="D73" t="n">
-        <v>0.535917</v>
+        <v>0.522445</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299972</v>
+        <v>0.30032</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251913</v>
+        <v>0.251568</v>
       </c>
       <c r="D74" t="n">
-        <v>0.522381</v>
+        <v>0.537442</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28877</v>
+        <v>0.28909</v>
       </c>
       <c r="C75" t="n">
-        <v>0.251543</v>
+        <v>0.251303</v>
       </c>
       <c r="D75" t="n">
-        <v>0.538748</v>
+        <v>0.525074</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276442</v>
+        <v>0.277105</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251828</v>
+        <v>0.251363</v>
       </c>
       <c r="D76" t="n">
-        <v>0.526909</v>
+        <v>0.541134</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.264306</v>
+        <v>0.262413</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250737</v>
+        <v>0.250844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.542382</v>
+        <v>0.530968</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24853</v>
+        <v>0.248481</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250477</v>
+        <v>0.250046</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6369590000000001</v>
+        <v>0.636149</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233577</v>
+        <v>0.233528</v>
       </c>
       <c r="C79" t="n">
-        <v>0.249804</v>
+        <v>0.249571</v>
       </c>
       <c r="D79" t="n">
-        <v>0.638639</v>
+        <v>0.638417</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217178</v>
+        <v>0.217046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26427</v>
+        <v>0.264384</v>
       </c>
       <c r="D80" t="n">
-        <v>0.640032</v>
+        <v>0.639529</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358248</v>
+        <v>0.358273</v>
       </c>
       <c r="C81" t="n">
-        <v>0.261644</v>
+        <v>0.261602</v>
       </c>
       <c r="D81" t="n">
-        <v>0.619676</v>
+        <v>0.59954</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352658</v>
+        <v>0.352334</v>
       </c>
       <c r="C82" t="n">
-        <v>0.259458</v>
+        <v>0.258974</v>
       </c>
       <c r="D82" t="n">
-        <v>0.634665</v>
+        <v>0.643659</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346131</v>
+        <v>0.345929</v>
       </c>
       <c r="C83" t="n">
-        <v>0.257272</v>
+        <v>0.257314</v>
       </c>
       <c r="D83" t="n">
-        <v>0.602765</v>
+        <v>0.605621</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338856</v>
+        <v>0.338587</v>
       </c>
       <c r="C84" t="n">
-        <v>0.256162</v>
+        <v>0.256066</v>
       </c>
       <c r="D84" t="n">
-        <v>0.595931</v>
+        <v>0.5976129999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330676</v>
+        <v>0.330478</v>
       </c>
       <c r="C85" t="n">
-        <v>0.255171</v>
+        <v>0.255047</v>
       </c>
       <c r="D85" t="n">
-        <v>0.596714</v>
+        <v>0.598532</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321603</v>
+        <v>0.321456</v>
       </c>
       <c r="C86" t="n">
-        <v>0.254301</v>
+        <v>0.254117</v>
       </c>
       <c r="D86" t="n">
-        <v>0.603718</v>
+        <v>0.604853</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.312047</v>
+        <v>0.311867</v>
       </c>
       <c r="C87" t="n">
-        <v>0.253252</v>
+        <v>0.25309</v>
       </c>
       <c r="D87" t="n">
-        <v>0.588904</v>
+        <v>0.590069</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301574</v>
+        <v>0.302018</v>
       </c>
       <c r="C88" t="n">
-        <v>0.252485</v>
+        <v>0.252307</v>
       </c>
       <c r="D88" t="n">
-        <v>0.595697</v>
+        <v>0.597337</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290345</v>
+        <v>0.290242</v>
       </c>
       <c r="C89" t="n">
-        <v>0.252065</v>
+        <v>0.251887</v>
       </c>
       <c r="D89" t="n">
-        <v>0.607777</v>
+        <v>0.609541</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278217</v>
+        <v>0.278106</v>
       </c>
       <c r="C90" t="n">
-        <v>0.25111</v>
+        <v>0.251248</v>
       </c>
       <c r="D90" t="n">
-        <v>0.588006</v>
+        <v>0.589396</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265566</v>
+        <v>0.265156</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250797</v>
+        <v>0.25055</v>
       </c>
       <c r="D91" t="n">
-        <v>0.571605</v>
+        <v>0.573129</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251754</v>
+        <v>0.251404</v>
       </c>
       <c r="C92" t="n">
-        <v>0.250108</v>
+        <v>0.249982</v>
       </c>
       <c r="D92" t="n">
-        <v>0.603669</v>
+        <v>0.605596</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236346</v>
+        <v>0.236107</v>
       </c>
       <c r="C93" t="n">
-        <v>0.249674</v>
+        <v>0.249746</v>
       </c>
       <c r="D93" t="n">
-        <v>0.596473</v>
+        <v>0.598559</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.219977</v>
+        <v>0.219901</v>
       </c>
       <c r="C94" t="n">
-        <v>0.264052</v>
+        <v>0.264196</v>
       </c>
       <c r="D94" t="n">
-        <v>0.596237</v>
+        <v>0.597106</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359496</v>
+        <v>0.359456</v>
       </c>
       <c r="C95" t="n">
-        <v>0.261747</v>
+        <v>0.261636</v>
       </c>
       <c r="D95" t="n">
-        <v>0.591071</v>
+        <v>0.592782</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354132</v>
+        <v>0.353948</v>
       </c>
       <c r="C96" t="n">
-        <v>0.259553</v>
+        <v>0.259466</v>
       </c>
       <c r="D96" t="n">
-        <v>0.591628</v>
+        <v>0.593689</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347759</v>
+        <v>0.347448</v>
       </c>
       <c r="C97" t="n">
-        <v>0.257972</v>
+        <v>0.257896</v>
       </c>
       <c r="D97" t="n">
-        <v>0.588162</v>
+        <v>0.590172</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340374</v>
+        <v>0.340146</v>
       </c>
       <c r="C98" t="n">
-        <v>0.256587</v>
+        <v>0.256343</v>
       </c>
       <c r="D98" t="n">
-        <v>0.583553</v>
+        <v>0.586844</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.33243</v>
+        <v>0.332094</v>
       </c>
       <c r="C99" t="n">
-        <v>0.255295</v>
+        <v>0.255158</v>
       </c>
       <c r="D99" t="n">
-        <v>0.57999</v>
+        <v>0.58104</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.323437</v>
+        <v>0.323126</v>
       </c>
       <c r="C100" t="n">
-        <v>0.25423</v>
+        <v>0.253993</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576301</v>
+        <v>0.578889</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313951</v>
+        <v>0.313714</v>
       </c>
       <c r="C101" t="n">
-        <v>0.253249</v>
+        <v>0.253196</v>
       </c>
       <c r="D101" t="n">
-        <v>0.571626</v>
+        <v>0.572766</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303805</v>
+        <v>0.303593</v>
       </c>
       <c r="C102" t="n">
-        <v>0.252613</v>
+        <v>0.252445</v>
       </c>
       <c r="D102" t="n">
-        <v>0.570168</v>
+        <v>0.571673</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292696</v>
+        <v>0.292536</v>
       </c>
       <c r="C103" t="n">
-        <v>0.251896</v>
+        <v>0.251701</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5668</v>
+        <v>0.569105</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281002</v>
+        <v>0.280946</v>
       </c>
       <c r="C104" t="n">
-        <v>0.251728</v>
+        <v>0.251856</v>
       </c>
       <c r="D104" t="n">
-        <v>0.560322</v>
+        <v>0.562473</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268164</v>
+        <v>0.268035</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251901</v>
+        <v>0.251877</v>
       </c>
       <c r="D105" t="n">
-        <v>0.560103</v>
+        <v>0.561014</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254551</v>
+        <v>0.254501</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251531</v>
+        <v>0.251365</v>
       </c>
       <c r="D106" t="n">
-        <v>0.557083</v>
+        <v>0.558049</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239722</v>
+        <v>0.239637</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250968</v>
+        <v>0.250882</v>
       </c>
       <c r="D107" t="n">
-        <v>0.595739</v>
+        <v>0.598622</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226135</v>
+        <v>0.224103</v>
       </c>
       <c r="C108" t="n">
-        <v>0.264525</v>
+        <v>0.264492</v>
       </c>
       <c r="D108" t="n">
-        <v>0.595224</v>
+        <v>0.597212</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.208837</v>
+        <v>0.208904</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262097</v>
+        <v>0.262491</v>
       </c>
       <c r="D109" t="n">
-        <v>0.591262</v>
+        <v>0.592778</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355199</v>
+        <v>0.355092</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260188</v>
+        <v>0.260293</v>
       </c>
       <c r="D110" t="n">
-        <v>0.58948</v>
+        <v>0.592132</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348855</v>
+        <v>0.348899</v>
       </c>
       <c r="C111" t="n">
-        <v>0.25864</v>
+        <v>0.258107</v>
       </c>
       <c r="D111" t="n">
-        <v>0.586442</v>
+        <v>0.58696</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342064</v>
+        <v>0.341915</v>
       </c>
       <c r="C112" t="n">
-        <v>0.257249</v>
+        <v>0.25676</v>
       </c>
       <c r="D112" t="n">
-        <v>0.582025</v>
+        <v>0.584169</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334056</v>
+        <v>0.334042</v>
       </c>
       <c r="C113" t="n">
-        <v>0.255676</v>
+        <v>0.255562</v>
       </c>
       <c r="D113" t="n">
-        <v>0.579917</v>
+        <v>0.579875</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.325407</v>
+        <v>0.325322</v>
       </c>
       <c r="C114" t="n">
-        <v>0.25503</v>
+        <v>0.254495</v>
       </c>
       <c r="D114" t="n">
-        <v>0.57497</v>
+        <v>0.576194</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317236</v>
+        <v>0.316163</v>
       </c>
       <c r="C115" t="n">
-        <v>0.253418</v>
+        <v>0.253537</v>
       </c>
       <c r="D115" t="n">
-        <v>0.570379</v>
+        <v>0.571611</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.306981</v>
+        <v>0.306111</v>
       </c>
       <c r="C116" t="n">
-        <v>0.252605</v>
+        <v>0.25267</v>
       </c>
       <c r="D116" t="n">
-        <v>0.567084</v>
+        <v>0.567141</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296872</v>
+        <v>0.296277</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251977</v>
+        <v>0.252174</v>
       </c>
       <c r="D117" t="n">
-        <v>0.56319</v>
+        <v>0.56374</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285307</v>
+        <v>0.284639</v>
       </c>
       <c r="C118" t="n">
-        <v>0.251877</v>
+        <v>0.251835</v>
       </c>
       <c r="D118" t="n">
-        <v>0.560301</v>
+        <v>0.561039</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272339</v>
+        <v>0.272242</v>
       </c>
       <c r="C119" t="n">
-        <v>0.251568</v>
+        <v>0.251608</v>
       </c>
       <c r="D119" t="n">
-        <v>0.557125</v>
+        <v>0.5577530000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259519</v>
+        <v>0.258803</v>
       </c>
       <c r="C120" t="n">
-        <v>0.25088</v>
+        <v>0.250999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.553717</v>
+        <v>0.554283</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244798</v>
+        <v>0.244461</v>
       </c>
       <c r="C121" t="n">
-        <v>0.250583</v>
+        <v>0.250524</v>
       </c>
       <c r="D121" t="n">
-        <v>0.609105</v>
+        <v>0.610137</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.227596</v>
+        <v>0.227419</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250298</v>
+        <v>0.250425</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6101569999999999</v>
+        <v>0.6111799999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.210594</v>
+        <v>0.210647</v>
       </c>
       <c r="C123" t="n">
-        <v>0.26276</v>
+        <v>0.262647</v>
       </c>
       <c r="D123" t="n">
-        <v>0.607522</v>
+        <v>0.609116</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356653</v>
+        <v>0.356639</v>
       </c>
       <c r="C124" t="n">
-        <v>0.260561</v>
+        <v>0.2605</v>
       </c>
       <c r="D124" t="n">
-        <v>0.603887</v>
+        <v>0.60472</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350827</v>
+        <v>0.350779</v>
       </c>
       <c r="C125" t="n">
-        <v>0.258899</v>
+        <v>0.258888</v>
       </c>
       <c r="D125" t="n">
-        <v>0.601167</v>
+        <v>0.601698</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344221</v>
+        <v>0.344229</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25741</v>
+        <v>0.257388</v>
       </c>
       <c r="D126" t="n">
-        <v>0.59711</v>
+        <v>0.5982690000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33714</v>
+        <v>0.336694</v>
       </c>
       <c r="C127" t="n">
-        <v>0.256067</v>
+        <v>0.256092</v>
       </c>
       <c r="D127" t="n">
-        <v>0.592291</v>
+        <v>0.593224</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328811</v>
+        <v>0.328414</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255035</v>
+        <v>0.255034</v>
       </c>
       <c r="D128" t="n">
-        <v>0.586365</v>
+        <v>0.587172</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.319129</v>
+        <v>0.319144</v>
       </c>
       <c r="C129" t="n">
-        <v>0.254093</v>
+        <v>0.254163</v>
       </c>
       <c r="D129" t="n">
-        <v>0.580144</v>
+        <v>0.581115</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.309402</v>
+        <v>0.30935</v>
       </c>
       <c r="C130" t="n">
-        <v>0.252949</v>
+        <v>0.252896</v>
       </c>
       <c r="D130" t="n">
-        <v>0.575607</v>
+        <v>0.576635</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298726</v>
+        <v>0.298598</v>
       </c>
       <c r="C131" t="n">
-        <v>0.252415</v>
+        <v>0.252299</v>
       </c>
       <c r="D131" t="n">
-        <v>0.572972</v>
+        <v>0.573531</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287218</v>
+        <v>0.287438</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251505</v>
+        <v>0.251508</v>
       </c>
       <c r="D132" t="n">
-        <v>0.568877</v>
+        <v>0.569547</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274959</v>
+        <v>0.275032</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251367</v>
+        <v>0.251364</v>
       </c>
       <c r="D133" t="n">
-        <v>0.565215</v>
+        <v>0.5660269999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261688</v>
+        <v>0.261773</v>
       </c>
       <c r="C134" t="n">
-        <v>0.251203</v>
+        <v>0.25099</v>
       </c>
       <c r="D134" t="n">
-        <v>0.56248</v>
+        <v>0.562929</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247485</v>
+        <v>0.247458</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250778</v>
+        <v>0.250664</v>
       </c>
       <c r="D135" t="n">
-        <v>0.61468</v>
+        <v>0.6146509999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23068</v>
+        <v>0.230653</v>
       </c>
       <c r="C136" t="n">
-        <v>0.250236</v>
+        <v>0.250206</v>
       </c>
       <c r="D136" t="n">
-        <v>0.617606</v>
+        <v>0.616323</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.214195</v>
+        <v>0.214083</v>
       </c>
       <c r="C137" t="n">
-        <v>0.262986</v>
+        <v>0.262998</v>
       </c>
       <c r="D137" t="n">
-        <v>0.614326</v>
+        <v>0.614424</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357762</v>
+        <v>0.357894</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260877</v>
+        <v>0.260848</v>
       </c>
       <c r="D138" t="n">
-        <v>0.611544</v>
+        <v>0.611743</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351693</v>
+        <v>0.351643</v>
       </c>
       <c r="C139" t="n">
-        <v>0.259261</v>
+        <v>0.259107</v>
       </c>
       <c r="D139" t="n">
-        <v>0.60561</v>
+        <v>0.6055</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.34504</v>
+        <v>0.344885</v>
       </c>
       <c r="C140" t="n">
-        <v>0.257719</v>
+        <v>0.257664</v>
       </c>
       <c r="D140" t="n">
-        <v>0.59889</v>
+        <v>0.599375</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33751</v>
+        <v>0.3373</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256503</v>
+        <v>0.256297</v>
       </c>
       <c r="D141" t="n">
-        <v>0.596923</v>
+        <v>0.5979409999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328994</v>
+        <v>0.328978</v>
       </c>
       <c r="C142" t="n">
-        <v>0.255335</v>
+        <v>0.255246</v>
       </c>
       <c r="D142" t="n">
-        <v>0.591203</v>
+        <v>0.591876</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.320086</v>
+        <v>0.319885</v>
       </c>
       <c r="C143" t="n">
-        <v>0.254298</v>
+        <v>0.254171</v>
       </c>
       <c r="D143" t="n">
-        <v>0.583919</v>
+        <v>0.585591</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -3214,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="P19" sqref="P19"/>
@@ -3247,13 +3247,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.275732</v>
+        <v>0.282548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222203</v>
+        <v>0.389348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.400999</v>
+        <v>0.226068</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.414283</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3264,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.270933</v>
+        <v>0.272697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22343</v>
+        <v>0.390684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.402309</v>
+        <v>0.226333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.414761</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3281,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.25941</v>
+        <v>0.258964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.227978</v>
+        <v>0.391544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.402497</v>
+        <v>0.229047</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.413848</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3298,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249672</v>
+        <v>0.249268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228619</v>
+        <v>0.392132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.406731</v>
+        <v>0.23253</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.413424</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3315,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.242044</v>
+        <v>0.237404</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231067</v>
+        <v>0.394114</v>
       </c>
       <c r="D6" t="n">
-        <v>0.407249</v>
+        <v>0.232609</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.41365</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3332,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223492</v>
+        <v>0.224048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.234986</v>
+        <v>0.391936</v>
       </c>
       <c r="D7" t="n">
-        <v>0.400072</v>
+        <v>0.234378</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.413082</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3349,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.209391</v>
+        <v>0.211293</v>
       </c>
       <c r="C8" t="n">
-        <v>0.234678</v>
+        <v>0.391701</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400361</v>
+        <v>0.237206</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.41272</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3366,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.191753</v>
+        <v>0.193973</v>
       </c>
       <c r="C9" t="n">
-        <v>0.251171</v>
+        <v>0.392222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.401459</v>
+        <v>0.254581</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.428002</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3383,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339442</v>
+        <v>0.337991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.25162</v>
+        <v>0.392413</v>
       </c>
       <c r="D10" t="n">
-        <v>0.399789</v>
+        <v>0.254132</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.427685</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3400,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336877</v>
+        <v>0.330662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.250932</v>
+        <v>0.394354</v>
       </c>
       <c r="D11" t="n">
-        <v>0.400251</v>
+        <v>0.253571</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.425144</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3417,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330485</v>
+        <v>0.324871</v>
       </c>
       <c r="C12" t="n">
-        <v>0.250557</v>
+        <v>0.394653</v>
       </c>
       <c r="D12" t="n">
-        <v>0.40276</v>
+        <v>0.253209</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.425569</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3434,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.323963</v>
+        <v>0.319466</v>
       </c>
       <c r="C13" t="n">
-        <v>0.249894</v>
+        <v>0.39549</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403055</v>
+        <v>0.252703</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.42419</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3451,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31666</v>
+        <v>0.312035</v>
       </c>
       <c r="C14" t="n">
-        <v>0.249218</v>
+        <v>0.396435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.404764</v>
+        <v>0.252244</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.424015</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3468,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.308158</v>
+        <v>0.303786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.248808</v>
+        <v>0.397777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.407037</v>
+        <v>0.251505</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.422362</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3485,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.299451</v>
+        <v>0.29452</v>
       </c>
       <c r="C16" t="n">
-        <v>0.248245</v>
+        <v>0.399321</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406884</v>
+        <v>0.251565</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.421835</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3502,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289609</v>
+        <v>0.287784</v>
       </c>
       <c r="C17" t="n">
-        <v>0.248398</v>
+        <v>0.400646</v>
       </c>
       <c r="D17" t="n">
-        <v>0.409643</v>
+        <v>0.251511</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.420761</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3519,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277412</v>
+        <v>0.277208</v>
       </c>
       <c r="C18" t="n">
-        <v>0.24829</v>
+        <v>0.40143</v>
       </c>
       <c r="D18" t="n">
-        <v>0.414039</v>
+        <v>0.250981</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.419703</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3536,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.267269</v>
+        <v>0.266814</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247972</v>
+        <v>0.402763</v>
       </c>
       <c r="D19" t="n">
-        <v>0.415225</v>
+        <v>0.249266</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.419617</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3553,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.256598</v>
+        <v>0.253538</v>
       </c>
       <c r="C20" t="n">
-        <v>0.248106</v>
+        <v>0.403713</v>
       </c>
       <c r="D20" t="n">
-        <v>0.416884</v>
+        <v>0.250155</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.418813</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3570,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241872</v>
+        <v>0.241255</v>
       </c>
       <c r="C21" t="n">
-        <v>0.248051</v>
+        <v>0.40064</v>
       </c>
       <c r="D21" t="n">
-        <v>0.406569</v>
+        <v>0.249088</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.418509</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3587,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227247</v>
+        <v>0.227411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.246353</v>
+        <v>0.399886</v>
       </c>
       <c r="D22" t="n">
-        <v>0.404937</v>
+        <v>0.247882</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.417905</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3604,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210496</v>
+        <v>0.210584</v>
       </c>
       <c r="C23" t="n">
-        <v>0.265491</v>
+        <v>0.399688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.406399</v>
+        <v>0.266868</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.432892</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3621,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.350151</v>
+        <v>0.346052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.262264</v>
+        <v>0.400131</v>
       </c>
       <c r="D24" t="n">
-        <v>0.406844</v>
+        <v>0.26282</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.431914</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3638,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.343834</v>
+        <v>0.340077</v>
       </c>
       <c r="C25" t="n">
-        <v>0.259023</v>
+        <v>0.400278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.409012</v>
+        <v>0.260863</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.430324</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3655,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.341057</v>
+        <v>0.333498</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25741</v>
+        <v>0.39916</v>
       </c>
       <c r="D26" t="n">
-        <v>0.410074</v>
+        <v>0.259736</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4287</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3672,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.334368</v>
+        <v>0.326784</v>
       </c>
       <c r="C27" t="n">
-        <v>0.256439</v>
+        <v>0.401788</v>
       </c>
       <c r="D27" t="n">
-        <v>0.410887</v>
+        <v>0.25815</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.427064</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3689,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.325556</v>
+        <v>0.321038</v>
       </c>
       <c r="C28" t="n">
-        <v>0.256529</v>
+        <v>0.401425</v>
       </c>
       <c r="D28" t="n">
-        <v>0.410757</v>
+        <v>0.256878</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.426375</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3706,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316828</v>
+        <v>0.312602</v>
       </c>
       <c r="C29" t="n">
-        <v>0.255974</v>
+        <v>0.402023</v>
       </c>
       <c r="D29" t="n">
-        <v>0.412817</v>
+        <v>0.256521</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.425333</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3723,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.308581</v>
+        <v>0.304226</v>
       </c>
       <c r="C30" t="n">
-        <v>0.254591</v>
+        <v>0.402729</v>
       </c>
       <c r="D30" t="n">
-        <v>0.415352</v>
+        <v>0.255966</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.424296</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3740,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298697</v>
+        <v>0.295234</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253755</v>
+        <v>0.404089</v>
       </c>
       <c r="D31" t="n">
-        <v>0.416777</v>
+        <v>0.255023</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.423026</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3757,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.286946</v>
+        <v>0.28537</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2533</v>
+        <v>0.404819</v>
       </c>
       <c r="D32" t="n">
-        <v>0.418274</v>
+        <v>0.25413</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.422058</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3774,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27698</v>
+        <v>0.274615</v>
       </c>
       <c r="C33" t="n">
-        <v>0.251073</v>
+        <v>0.405517</v>
       </c>
       <c r="D33" t="n">
-        <v>0.419514</v>
+        <v>0.25312</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.420994</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3791,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.264317</v>
+        <v>0.261882</v>
       </c>
       <c r="C34" t="n">
-        <v>0.250562</v>
+        <v>0.406542</v>
       </c>
       <c r="D34" t="n">
-        <v>0.42088</v>
+        <v>0.253902</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.420209</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3808,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249318</v>
+        <v>0.249927</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250425</v>
+        <v>0.406436</v>
       </c>
       <c r="D35" t="n">
-        <v>0.412489</v>
+        <v>0.252869</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.419318</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3825,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236292</v>
+        <v>0.235443</v>
       </c>
       <c r="C36" t="n">
-        <v>0.248903</v>
+        <v>0.407539</v>
       </c>
       <c r="D36" t="n">
-        <v>0.413722</v>
+        <v>0.251118</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.417324</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3842,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216944</v>
+        <v>0.221098</v>
       </c>
       <c r="C37" t="n">
-        <v>0.263998</v>
+        <v>0.40641</v>
       </c>
       <c r="D37" t="n">
-        <v>0.414211</v>
+        <v>0.265615</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.434069</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3859,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.35563</v>
+        <v>0.351371</v>
       </c>
       <c r="C38" t="n">
-        <v>0.262058</v>
+        <v>0.406914</v>
       </c>
       <c r="D38" t="n">
-        <v>0.41379</v>
+        <v>0.264087</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.432391</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3876,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.350201</v>
+        <v>0.346679</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258711</v>
+        <v>0.405512</v>
       </c>
       <c r="D39" t="n">
-        <v>0.413777</v>
+        <v>0.260973</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.430665</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3893,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.344133</v>
+        <v>0.340659</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257856</v>
+        <v>0.406825</v>
       </c>
       <c r="D40" t="n">
-        <v>0.415436</v>
+        <v>0.260324</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.43102</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3910,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.337223</v>
+        <v>0.334209</v>
       </c>
       <c r="C41" t="n">
-        <v>0.256419</v>
+        <v>0.407224</v>
       </c>
       <c r="D41" t="n">
-        <v>0.415726</v>
+        <v>0.25871</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.428711</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3927,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.329607</v>
+        <v>0.326441</v>
       </c>
       <c r="C42" t="n">
-        <v>0.255361</v>
+        <v>0.406973</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416964</v>
+        <v>0.257703</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.427594</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3944,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320932</v>
+        <v>0.319443</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254316</v>
+        <v>0.40721</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418063</v>
+        <v>0.256919</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.426342</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3961,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311938</v>
+        <v>0.309531</v>
       </c>
       <c r="C44" t="n">
-        <v>0.253021</v>
+        <v>0.407319</v>
       </c>
       <c r="D44" t="n">
-        <v>0.419492</v>
+        <v>0.255654</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.425867</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3978,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302921</v>
+        <v>0.2999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.25101</v>
+        <v>0.40791</v>
       </c>
       <c r="D45" t="n">
-        <v>0.420814</v>
+        <v>0.2541</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.42447</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3995,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292326</v>
+        <v>0.291113</v>
       </c>
       <c r="C46" t="n">
-        <v>0.250129</v>
+        <v>0.409027</v>
       </c>
       <c r="D46" t="n">
-        <v>0.421863</v>
+        <v>0.253507</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.423252</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +4012,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280155</v>
+        <v>0.279866</v>
       </c>
       <c r="C47" t="n">
-        <v>0.249733</v>
+        <v>0.40942</v>
       </c>
       <c r="D47" t="n">
-        <v>0.422171</v>
+        <v>0.253337</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.42237</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +4029,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268119</v>
+        <v>0.267411</v>
       </c>
       <c r="C48" t="n">
-        <v>0.250109</v>
+        <v>0.409969</v>
       </c>
       <c r="D48" t="n">
-        <v>0.423954</v>
+        <v>0.253354</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.421807</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +4046,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254824</v>
+        <v>0.254881</v>
       </c>
       <c r="C49" t="n">
-        <v>0.251273</v>
+        <v>0.41134</v>
       </c>
       <c r="D49" t="n">
-        <v>0.426239</v>
+        <v>0.25192</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.420899</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +4063,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239846</v>
+        <v>0.240719</v>
       </c>
       <c r="C50" t="n">
-        <v>0.251618</v>
+        <v>0.412473</v>
       </c>
       <c r="D50" t="n">
-        <v>0.418304</v>
+        <v>0.25178</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.419824</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +4080,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.223708</v>
+        <v>0.22648</v>
       </c>
       <c r="C51" t="n">
-        <v>0.264914</v>
+        <v>0.41359</v>
       </c>
       <c r="D51" t="n">
-        <v>0.418318</v>
+        <v>0.267489</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.435225</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +4097,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.206648</v>
+        <v>0.209304</v>
       </c>
       <c r="C52" t="n">
-        <v>0.262314</v>
+        <v>0.413782</v>
       </c>
       <c r="D52" t="n">
-        <v>0.419869</v>
+        <v>0.265469</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.434197</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +4114,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354867</v>
+        <v>0.349666</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260334</v>
+        <v>0.411959</v>
       </c>
       <c r="D53" t="n">
-        <v>0.420319</v>
+        <v>0.262883</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.432408</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +4131,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34846</v>
+        <v>0.34391</v>
       </c>
       <c r="C54" t="n">
-        <v>0.25823</v>
+        <v>0.412965</v>
       </c>
       <c r="D54" t="n">
-        <v>0.422163</v>
+        <v>0.260608</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.430775</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +4148,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34305</v>
+        <v>0.337612</v>
       </c>
       <c r="C55" t="n">
-        <v>0.256297</v>
+        <v>0.412695</v>
       </c>
       <c r="D55" t="n">
-        <v>0.422663</v>
+        <v>0.259213</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.429285</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4165,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3361</v>
+        <v>0.329976</v>
       </c>
       <c r="C56" t="n">
-        <v>0.255289</v>
+        <v>0.415023</v>
       </c>
       <c r="D56" t="n">
-        <v>0.424577</v>
+        <v>0.258072</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.427874</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4182,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32724</v>
+        <v>0.32189</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254117</v>
+        <v>0.415577</v>
       </c>
       <c r="D57" t="n">
-        <v>0.424863</v>
+        <v>0.257414</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.426856</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4199,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.318216</v>
+        <v>0.313338</v>
       </c>
       <c r="C58" t="n">
-        <v>0.253252</v>
+        <v>0.415979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428976</v>
+        <v>0.256665</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.425929</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4216,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.308165</v>
+        <v>0.304552</v>
       </c>
       <c r="C59" t="n">
-        <v>0.252172</v>
+        <v>0.41793</v>
       </c>
       <c r="D59" t="n">
-        <v>0.434799</v>
+        <v>0.255709</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.425175</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4233,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.297799</v>
+        <v>0.294377</v>
       </c>
       <c r="C60" t="n">
-        <v>0.251504</v>
+        <v>0.421473</v>
       </c>
       <c r="D60" t="n">
-        <v>0.437716</v>
+        <v>0.254769</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.424734</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4250,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284635</v>
+        <v>0.283903</v>
       </c>
       <c r="C61" t="n">
-        <v>0.251378</v>
+        <v>0.42332</v>
       </c>
       <c r="D61" t="n">
-        <v>0.444349</v>
+        <v>0.253237</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.423599</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4267,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272757</v>
+        <v>0.272493</v>
       </c>
       <c r="C62" t="n">
-        <v>0.250124</v>
+        <v>0.426218</v>
       </c>
       <c r="D62" t="n">
-        <v>0.439275</v>
+        <v>0.253552</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.422383</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4284,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259484</v>
+        <v>0.2594</v>
       </c>
       <c r="C63" t="n">
-        <v>0.249967</v>
+        <v>0.428053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.444217</v>
+        <v>0.252615</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.421499</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4301,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245182</v>
+        <v>0.245865</v>
       </c>
       <c r="C64" t="n">
-        <v>0.248898</v>
+        <v>0.460806</v>
       </c>
       <c r="D64" t="n">
-        <v>0.477567</v>
+        <v>0.251119</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.420851</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4318,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229665</v>
+        <v>0.231365</v>
       </c>
       <c r="C65" t="n">
-        <v>0.249905</v>
+        <v>0.468283</v>
       </c>
       <c r="D65" t="n">
-        <v>0.47578</v>
+        <v>0.253172</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.419654</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4335,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212901</v>
+        <v>0.214761</v>
       </c>
       <c r="C66" t="n">
-        <v>0.262294</v>
+        <v>0.479073</v>
       </c>
       <c r="D66" t="n">
-        <v>0.482164</v>
+        <v>0.265497</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.43482</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4352,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.357062</v>
+        <v>0.351755</v>
       </c>
       <c r="C67" t="n">
-        <v>0.260178</v>
+        <v>0.480578</v>
       </c>
       <c r="D67" t="n">
-        <v>0.492335</v>
+        <v>0.263457</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.432971</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4369,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351217</v>
+        <v>0.346019</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25852</v>
+        <v>0.490307</v>
       </c>
       <c r="D68" t="n">
-        <v>0.496882</v>
+        <v>0.261573</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.431731</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4386,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344663</v>
+        <v>0.340064</v>
       </c>
       <c r="C69" t="n">
-        <v>0.256617</v>
+        <v>0.494935</v>
       </c>
       <c r="D69" t="n">
-        <v>0.499262</v>
+        <v>0.259985</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.43059</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4403,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.337104</v>
+        <v>0.332774</v>
       </c>
       <c r="C70" t="n">
-        <v>0.255531</v>
+        <v>0.499668</v>
       </c>
       <c r="D70" t="n">
-        <v>0.510093</v>
+        <v>0.258727</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.429269</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4420,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328868</v>
+        <v>0.325285</v>
       </c>
       <c r="C71" t="n">
-        <v>0.25502</v>
+        <v>0.505413</v>
       </c>
       <c r="D71" t="n">
-        <v>0.511721</v>
+        <v>0.25775</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.428012</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4437,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.32001</v>
+        <v>0.316527</v>
       </c>
       <c r="C72" t="n">
-        <v>0.254038</v>
+        <v>0.529191</v>
       </c>
       <c r="D72" t="n">
-        <v>0.52141</v>
+        <v>0.256628</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.427357</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4454,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309131</v>
+        <v>0.307717</v>
       </c>
       <c r="C73" t="n">
-        <v>0.25294</v>
+        <v>0.5147699999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.522445</v>
+        <v>0.255581</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.425977</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4471,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30032</v>
+        <v>0.297561</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251568</v>
+        <v>0.5363599999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.537442</v>
+        <v>0.254613</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.425175</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4488,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28909</v>
+        <v>0.286775</v>
       </c>
       <c r="C75" t="n">
-        <v>0.251303</v>
+        <v>0.543413</v>
       </c>
       <c r="D75" t="n">
-        <v>0.525074</v>
+        <v>0.254261</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.424049</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4505,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.277105</v>
+        <v>0.275144</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251363</v>
+        <v>0.542258</v>
       </c>
       <c r="D76" t="n">
-        <v>0.541134</v>
+        <v>0.25354</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.422969</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4522,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262413</v>
+        <v>0.263422</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250844</v>
+        <v>0.52144</v>
       </c>
       <c r="D77" t="n">
-        <v>0.530968</v>
+        <v>0.252424</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.422019</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4539,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248481</v>
+        <v>0.249973</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250046</v>
+        <v>0.59904</v>
       </c>
       <c r="D78" t="n">
-        <v>0.636149</v>
+        <v>0.252022</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.421335</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4556,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233528</v>
+        <v>0.235344</v>
       </c>
       <c r="C79" t="n">
-        <v>0.249571</v>
+        <v>0.601977</v>
       </c>
       <c r="D79" t="n">
-        <v>0.638417</v>
+        <v>0.250927</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.420404</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4573,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217046</v>
+        <v>0.218933</v>
       </c>
       <c r="C80" t="n">
-        <v>0.264384</v>
+        <v>0.603951</v>
       </c>
       <c r="D80" t="n">
-        <v>0.639529</v>
+        <v>0.266051</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.435043</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4590,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358273</v>
+        <v>0.353549</v>
       </c>
       <c r="C81" t="n">
-        <v>0.261602</v>
+        <v>0.6403799999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.59954</v>
+        <v>0.263854</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.433435</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4607,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352334</v>
+        <v>0.347958</v>
       </c>
       <c r="C82" t="n">
-        <v>0.258974</v>
+        <v>0.63779</v>
       </c>
       <c r="D82" t="n">
-        <v>0.643659</v>
+        <v>0.261933</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.432089</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4624,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345929</v>
+        <v>0.341488</v>
       </c>
       <c r="C83" t="n">
-        <v>0.257314</v>
+        <v>0.634957</v>
       </c>
       <c r="D83" t="n">
-        <v>0.605621</v>
+        <v>0.260484</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.430542</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4641,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338587</v>
+        <v>0.334905</v>
       </c>
       <c r="C84" t="n">
-        <v>0.256066</v>
+        <v>0.592965</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5976129999999999</v>
+        <v>0.258903</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4294</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4658,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330478</v>
+        <v>0.326816</v>
       </c>
       <c r="C85" t="n">
-        <v>0.255047</v>
+        <v>0.588435</v>
       </c>
       <c r="D85" t="n">
-        <v>0.598532</v>
+        <v>0.258189</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.428085</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4675,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321456</v>
+        <v>0.318436</v>
       </c>
       <c r="C86" t="n">
-        <v>0.254117</v>
+        <v>0.583827</v>
       </c>
       <c r="D86" t="n">
-        <v>0.604853</v>
+        <v>0.256804</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.426935</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4692,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.311867</v>
+        <v>0.30937</v>
       </c>
       <c r="C87" t="n">
-        <v>0.25309</v>
+        <v>0.580533</v>
       </c>
       <c r="D87" t="n">
-        <v>0.590069</v>
+        <v>0.25586</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.425891</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4709,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302018</v>
+        <v>0.299715</v>
       </c>
       <c r="C88" t="n">
-        <v>0.252307</v>
+        <v>0.575425</v>
       </c>
       <c r="D88" t="n">
-        <v>0.597337</v>
+        <v>0.254817</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.425061</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4726,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290242</v>
+        <v>0.289329</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251887</v>
+        <v>0.573412</v>
       </c>
       <c r="D89" t="n">
-        <v>0.609541</v>
+        <v>0.254854</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.424061</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4743,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278106</v>
+        <v>0.277737</v>
       </c>
       <c r="C90" t="n">
-        <v>0.251248</v>
+        <v>0.565692</v>
       </c>
       <c r="D90" t="n">
-        <v>0.589396</v>
+        <v>0.253031</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.423073</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4760,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265156</v>
+        <v>0.265646</v>
       </c>
       <c r="C91" t="n">
-        <v>0.25055</v>
+        <v>0.561594</v>
       </c>
       <c r="D91" t="n">
-        <v>0.573129</v>
+        <v>0.253018</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.421931</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4777,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251404</v>
+        <v>0.252746</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249982</v>
+        <v>0.613425</v>
       </c>
       <c r="D92" t="n">
-        <v>0.605596</v>
+        <v>0.252563</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.420966</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4794,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236107</v>
+        <v>0.238259</v>
       </c>
       <c r="C93" t="n">
-        <v>0.249746</v>
+        <v>0.612919</v>
       </c>
       <c r="D93" t="n">
-        <v>0.598559</v>
+        <v>0.252355</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.420163</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4811,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.219901</v>
+        <v>0.223016</v>
       </c>
       <c r="C94" t="n">
-        <v>0.264196</v>
+        <v>0.610658</v>
       </c>
       <c r="D94" t="n">
-        <v>0.597106</v>
+        <v>0.266559</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.435384</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4828,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359456</v>
+        <v>0.354505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.261636</v>
+        <v>0.608473</v>
       </c>
       <c r="D95" t="n">
-        <v>0.592782</v>
+        <v>0.264797</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.433767</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4845,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353948</v>
+        <v>0.34906</v>
       </c>
       <c r="C96" t="n">
-        <v>0.259466</v>
+        <v>0.603761</v>
       </c>
       <c r="D96" t="n">
-        <v>0.593689</v>
+        <v>0.262239</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.43259</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4862,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347448</v>
+        <v>0.342798</v>
       </c>
       <c r="C97" t="n">
-        <v>0.257896</v>
+        <v>0.597935</v>
       </c>
       <c r="D97" t="n">
-        <v>0.590172</v>
+        <v>0.260653</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.431208</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4879,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340146</v>
+        <v>0.33594</v>
       </c>
       <c r="C98" t="n">
-        <v>0.256343</v>
+        <v>0.592202</v>
       </c>
       <c r="D98" t="n">
-        <v>0.586844</v>
+        <v>0.259198</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.430025</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4896,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332094</v>
+        <v>0.328726</v>
       </c>
       <c r="C99" t="n">
-        <v>0.255158</v>
+        <v>0.576383</v>
       </c>
       <c r="D99" t="n">
-        <v>0.58104</v>
+        <v>0.25794</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.428951</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4913,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.323126</v>
+        <v>0.320487</v>
       </c>
       <c r="C100" t="n">
-        <v>0.253993</v>
+        <v>0.571474</v>
       </c>
       <c r="D100" t="n">
-        <v>0.578889</v>
+        <v>0.256883</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.427625</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4930,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.313714</v>
+        <v>0.311159</v>
       </c>
       <c r="C101" t="n">
-        <v>0.253196</v>
+        <v>0.566715</v>
       </c>
       <c r="D101" t="n">
-        <v>0.572766</v>
+        <v>0.255761</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.426723</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4947,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303593</v>
+        <v>0.30175</v>
       </c>
       <c r="C102" t="n">
-        <v>0.252445</v>
+        <v>0.561721</v>
       </c>
       <c r="D102" t="n">
-        <v>0.571673</v>
+        <v>0.254976</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.425669</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4964,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292536</v>
+        <v>0.291451</v>
       </c>
       <c r="C103" t="n">
-        <v>0.251701</v>
+        <v>0.5575830000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.569105</v>
+        <v>0.255224</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.424518</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4981,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280946</v>
+        <v>0.280537</v>
       </c>
       <c r="C104" t="n">
-        <v>0.251856</v>
+        <v>0.553014</v>
       </c>
       <c r="D104" t="n">
-        <v>0.562473</v>
+        <v>0.25472</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.423811</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4998,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268035</v>
+        <v>0.268483</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251877</v>
+        <v>0.549171</v>
       </c>
       <c r="D105" t="n">
-        <v>0.561014</v>
+        <v>0.254198</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.422952</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +5015,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254501</v>
+        <v>0.25579</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251365</v>
+        <v>0.545052</v>
       </c>
       <c r="D106" t="n">
-        <v>0.558049</v>
+        <v>0.253478</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.421953</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +5032,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239637</v>
+        <v>0.241672</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250882</v>
+        <v>0.596759</v>
       </c>
       <c r="D107" t="n">
-        <v>0.598622</v>
+        <v>0.253071</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.421049</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +5049,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.224103</v>
+        <v>0.226368</v>
       </c>
       <c r="C108" t="n">
-        <v>0.264492</v>
+        <v>0.5939410000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.597212</v>
+        <v>0.266906</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.436229</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +5066,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.208904</v>
+        <v>0.20892</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262491</v>
+        <v>0.59322</v>
       </c>
       <c r="D109" t="n">
-        <v>0.592778</v>
+        <v>0.265078</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.434521</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +5083,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355092</v>
+        <v>0.350739</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260293</v>
+        <v>0.587608</v>
       </c>
       <c r="D110" t="n">
-        <v>0.592132</v>
+        <v>0.263032</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.433406</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +5100,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348899</v>
+        <v>0.344423</v>
       </c>
       <c r="C111" t="n">
-        <v>0.258107</v>
+        <v>0.586662</v>
       </c>
       <c r="D111" t="n">
-        <v>0.58696</v>
+        <v>0.261007</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.431711</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +5117,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.341915</v>
+        <v>0.337678</v>
       </c>
       <c r="C112" t="n">
-        <v>0.25676</v>
+        <v>0.582319</v>
       </c>
       <c r="D112" t="n">
-        <v>0.584169</v>
+        <v>0.259499</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.430296</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +5134,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334042</v>
+        <v>0.330122</v>
       </c>
       <c r="C113" t="n">
-        <v>0.255562</v>
+        <v>0.589678</v>
       </c>
       <c r="D113" t="n">
-        <v>0.579875</v>
+        <v>0.25831</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.428839</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +5151,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.325322</v>
+        <v>0.32183</v>
       </c>
       <c r="C114" t="n">
-        <v>0.254495</v>
+        <v>0.582442</v>
       </c>
       <c r="D114" t="n">
-        <v>0.576194</v>
+        <v>0.257251</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.427885</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +5168,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.316163</v>
+        <v>0.313052</v>
       </c>
       <c r="C115" t="n">
-        <v>0.253537</v>
+        <v>0.575178</v>
       </c>
       <c r="D115" t="n">
-        <v>0.571611</v>
+        <v>0.256027</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.426296</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +5185,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.306111</v>
+        <v>0.303541</v>
       </c>
       <c r="C116" t="n">
-        <v>0.25267</v>
+        <v>0.569093</v>
       </c>
       <c r="D116" t="n">
-        <v>0.567141</v>
+        <v>0.255093</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.425521</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +5202,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296277</v>
+        <v>0.293557</v>
       </c>
       <c r="C117" t="n">
-        <v>0.252174</v>
+        <v>0.561949</v>
       </c>
       <c r="D117" t="n">
-        <v>0.56374</v>
+        <v>0.254283</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.424442</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +5219,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284639</v>
+        <v>0.282558</v>
       </c>
       <c r="C118" t="n">
-        <v>0.251835</v>
+        <v>0.555572</v>
       </c>
       <c r="D118" t="n">
-        <v>0.561039</v>
+        <v>0.254206</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.423462</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +5236,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272242</v>
+        <v>0.270949</v>
       </c>
       <c r="C119" t="n">
-        <v>0.251608</v>
+        <v>0.551267</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5577530000000001</v>
+        <v>0.253201</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.422627</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +5253,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258803</v>
+        <v>0.258534</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250999</v>
+        <v>0.543902</v>
       </c>
       <c r="D120" t="n">
-        <v>0.554283</v>
+        <v>0.253159</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.421579</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +5270,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244461</v>
+        <v>0.24444</v>
       </c>
       <c r="C121" t="n">
-        <v>0.250524</v>
+        <v>0.633076</v>
       </c>
       <c r="D121" t="n">
-        <v>0.610137</v>
+        <v>0.252738</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.421069</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +5287,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.227419</v>
+        <v>0.229578</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250425</v>
+        <v>0.629854</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6111799999999999</v>
+        <v>0.252553</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.419907</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +5304,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.210647</v>
+        <v>0.213032</v>
       </c>
       <c r="C123" t="n">
-        <v>0.262647</v>
+        <v>0.625909</v>
       </c>
       <c r="D123" t="n">
-        <v>0.609116</v>
+        <v>0.264585</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.434809</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +5321,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356639</v>
+        <v>0.351693</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2605</v>
+        <v>0.620763</v>
       </c>
       <c r="D124" t="n">
-        <v>0.60472</v>
+        <v>0.262399</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.433241</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +5338,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350779</v>
+        <v>0.346135</v>
       </c>
       <c r="C125" t="n">
-        <v>0.258888</v>
+        <v>0.614604</v>
       </c>
       <c r="D125" t="n">
-        <v>0.601698</v>
+        <v>0.260936</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.432062</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +5355,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344229</v>
+        <v>0.339386</v>
       </c>
       <c r="C126" t="n">
-        <v>0.257388</v>
+        <v>0.607636</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5982690000000001</v>
+        <v>0.25961</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.430486</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +5372,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.336694</v>
+        <v>0.333755</v>
       </c>
       <c r="C127" t="n">
-        <v>0.256092</v>
+        <v>0.588772</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593224</v>
+        <v>0.258216</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.429538</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5389,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328414</v>
+        <v>0.324445</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255034</v>
+        <v>0.582799</v>
       </c>
       <c r="D128" t="n">
-        <v>0.587172</v>
+        <v>0.257062</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.428192</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5406,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.319144</v>
+        <v>0.314871</v>
       </c>
       <c r="C129" t="n">
-        <v>0.254163</v>
+        <v>0.576898</v>
       </c>
       <c r="D129" t="n">
-        <v>0.581115</v>
+        <v>0.256253</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.426887</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5423,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30935</v>
+        <v>0.305604</v>
       </c>
       <c r="C130" t="n">
-        <v>0.252896</v>
+        <v>0.571161</v>
       </c>
       <c r="D130" t="n">
-        <v>0.576635</v>
+        <v>0.25524</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.426228</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5440,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298598</v>
+        <v>0.296038</v>
       </c>
       <c r="C131" t="n">
-        <v>0.252299</v>
+        <v>0.566009</v>
       </c>
       <c r="D131" t="n">
-        <v>0.573531</v>
+        <v>0.254532</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.424713</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5457,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287438</v>
+        <v>0.284871</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251508</v>
+        <v>0.561048</v>
       </c>
       <c r="D132" t="n">
-        <v>0.569547</v>
+        <v>0.254453</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.423914</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5474,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275032</v>
+        <v>0.273086</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251364</v>
+        <v>0.556024</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5660269999999999</v>
+        <v>0.253771</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.423095</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5491,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261773</v>
+        <v>0.260397</v>
       </c>
       <c r="C134" t="n">
-        <v>0.25099</v>
+        <v>0.553598</v>
       </c>
       <c r="D134" t="n">
-        <v>0.562929</v>
+        <v>0.253253</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.422164</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5508,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247458</v>
+        <v>0.246972</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250664</v>
+        <v>0.621956</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6146509999999999</v>
+        <v>0.252479</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.421185</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5525,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.230653</v>
+        <v>0.232227</v>
       </c>
       <c r="C136" t="n">
-        <v>0.250206</v>
+        <v>0.6133150000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.616323</v>
+        <v>0.252221</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.420969</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5542,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.214083</v>
+        <v>0.215929</v>
       </c>
       <c r="C137" t="n">
-        <v>0.262998</v>
+        <v>0.614057</v>
       </c>
       <c r="D137" t="n">
-        <v>0.614424</v>
+        <v>0.265292</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.435186</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5559,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357894</v>
+        <v>0.353393</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260848</v>
+        <v>0.605488</v>
       </c>
       <c r="D138" t="n">
-        <v>0.611743</v>
+        <v>0.263569</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.433637</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5576,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351643</v>
+        <v>0.347452</v>
       </c>
       <c r="C139" t="n">
-        <v>0.259107</v>
+        <v>0.6020450000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6055</v>
+        <v>0.26146</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.432068</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5593,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344885</v>
+        <v>0.34104</v>
       </c>
       <c r="C140" t="n">
-        <v>0.257664</v>
+        <v>0.595938</v>
       </c>
       <c r="D140" t="n">
-        <v>0.599375</v>
+        <v>0.260234</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.430774</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5610,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3373</v>
+        <v>0.334436</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256297</v>
+        <v>0.605037</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5979409999999999</v>
+        <v>0.25916</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.429345</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5627,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328978</v>
+        <v>0.325196</v>
       </c>
       <c r="C142" t="n">
-        <v>0.255246</v>
+        <v>0.597418</v>
       </c>
       <c r="D142" t="n">
-        <v>0.591876</v>
+        <v>0.257831</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.428082</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5644,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.319885</v>
+        <v>0.317708</v>
       </c>
       <c r="C143" t="n">
-        <v>0.254171</v>
+        <v>0.589117</v>
       </c>
       <c r="D143" t="n">
-        <v>0.585591</v>
+        <v>0.256813</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.426698</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.277394</v>
+        <v>0.276308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.389592</v>
+        <v>0.455945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225673</v>
+        <v>0.389516</v>
       </c>
       <c r="E2" t="n">
-        <v>0.414237</v>
+        <v>0.223535</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.417187</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.270863</v>
+        <v>0.272473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.389936</v>
+        <v>0.459888</v>
       </c>
       <c r="D3" t="n">
-        <v>0.225376</v>
+        <v>0.390701</v>
       </c>
       <c r="E3" t="n">
-        <v>0.414394</v>
+        <v>0.225315</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.414782</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.257774</v>
+        <v>0.261177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.392592</v>
+        <v>0.450099</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229461</v>
+        <v>0.391717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.413322</v>
+        <v>0.228017</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.415058</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247923</v>
+        <v>0.248314</v>
       </c>
       <c r="C5" t="n">
-        <v>0.39163</v>
+        <v>0.430616</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232518</v>
+        <v>0.393086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.413592</v>
+        <v>0.234254</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.415066</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237912</v>
+        <v>0.234685</v>
       </c>
       <c r="C6" t="n">
-        <v>0.392917</v>
+        <v>0.421363</v>
       </c>
       <c r="D6" t="n">
-        <v>0.232439</v>
+        <v>0.393905</v>
       </c>
       <c r="E6" t="n">
-        <v>0.413734</v>
+        <v>0.233699</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4143</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222704</v>
+        <v>0.22468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.392371</v>
+        <v>0.408074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236098</v>
+        <v>0.389072</v>
       </c>
       <c r="E7" t="n">
-        <v>0.413063</v>
+        <v>0.236145</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.413523</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.211188</v>
+        <v>0.206617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.39274</v>
+        <v>0.393708</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23581</v>
+        <v>0.393271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.412673</v>
+        <v>0.237079</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.413478</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193365</v>
+        <v>0.191864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.392428</v>
+        <v>0.380975</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253952</v>
+        <v>0.393805</v>
       </c>
       <c r="E9" t="n">
-        <v>0.42833</v>
+        <v>0.255446</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.426704</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.338469</v>
+        <v>0.340842</v>
       </c>
       <c r="C10" t="n">
-        <v>0.392105</v>
+        <v>0.5159010000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254084</v>
+        <v>0.39438</v>
       </c>
       <c r="E10" t="n">
-        <v>0.428157</v>
+        <v>0.25521</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.42711</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.330804</v>
+        <v>0.334478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.395788</v>
+        <v>0.510457</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253893</v>
+        <v>0.394654</v>
       </c>
       <c r="E11" t="n">
-        <v>0.425785</v>
+        <v>0.254676</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.42616</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32466</v>
+        <v>0.326732</v>
       </c>
       <c r="C12" t="n">
-        <v>0.394625</v>
+        <v>0.506184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253255</v>
+        <v>0.394766</v>
       </c>
       <c r="E12" t="n">
-        <v>0.424912</v>
+        <v>0.253505</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.423496</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319639</v>
+        <v>0.321795</v>
       </c>
       <c r="C13" t="n">
-        <v>0.396305</v>
+        <v>0.498863</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252708</v>
+        <v>0.393833</v>
       </c>
       <c r="E13" t="n">
-        <v>0.423854</v>
+        <v>0.253353</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.424936</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312202</v>
+        <v>0.314147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.397722</v>
+        <v>0.490459</v>
       </c>
       <c r="D14" t="n">
-        <v>0.252153</v>
+        <v>0.39934</v>
       </c>
       <c r="E14" t="n">
-        <v>0.424562</v>
+        <v>0.252208</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.423588</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.303527</v>
+        <v>0.304915</v>
       </c>
       <c r="C15" t="n">
-        <v>0.397683</v>
+        <v>0.483121</v>
       </c>
       <c r="D15" t="n">
-        <v>0.251541</v>
+        <v>0.398504</v>
       </c>
       <c r="E15" t="n">
-        <v>0.423103</v>
+        <v>0.251513</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.423554</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.294218</v>
+        <v>0.297684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.398255</v>
+        <v>0.471675</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250838</v>
+        <v>0.399838</v>
       </c>
       <c r="E16" t="n">
-        <v>0.421838</v>
+        <v>0.252197</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.420884</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.287249</v>
+        <v>0.28667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.400567</v>
+        <v>0.465556</v>
       </c>
       <c r="D17" t="n">
-        <v>0.251126</v>
+        <v>0.401999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.420709</v>
+        <v>0.251738</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.421546</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276627</v>
+        <v>0.275189</v>
       </c>
       <c r="C18" t="n">
-        <v>0.401543</v>
+        <v>0.458136</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250177</v>
+        <v>0.403119</v>
       </c>
       <c r="E18" t="n">
-        <v>0.419917</v>
+        <v>0.250755</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.421719</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265466</v>
+        <v>0.263768</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4022</v>
+        <v>0.44919</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249769</v>
+        <v>0.403292</v>
       </c>
       <c r="E19" t="n">
-        <v>0.419317</v>
+        <v>0.250548</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.420161</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253546</v>
+        <v>0.250349</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40348</v>
+        <v>0.432283</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249775</v>
+        <v>0.405603</v>
       </c>
       <c r="E20" t="n">
-        <v>0.418834</v>
+        <v>0.250234</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.418805</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240682</v>
+        <v>0.241751</v>
       </c>
       <c r="C21" t="n">
-        <v>0.400383</v>
+        <v>0.417343</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247727</v>
+        <v>0.399725</v>
       </c>
       <c r="E21" t="n">
-        <v>0.418998</v>
+        <v>0.248203</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.419386</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226528</v>
+        <v>0.230256</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400427</v>
+        <v>0.408672</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249357</v>
+        <v>0.398444</v>
       </c>
       <c r="E22" t="n">
-        <v>0.41838</v>
+        <v>0.249536</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.41875</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210149</v>
+        <v>0.206461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.399688</v>
+        <v>0.392354</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266146</v>
+        <v>0.398548</v>
       </c>
       <c r="E23" t="n">
-        <v>0.433255</v>
+        <v>0.266625</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.43167</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.346099</v>
+        <v>0.348831</v>
       </c>
       <c r="C24" t="n">
-        <v>0.400312</v>
+        <v>0.516385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262615</v>
+        <v>0.401809</v>
       </c>
       <c r="E24" t="n">
-        <v>0.432944</v>
+        <v>0.264479</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4308</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340272</v>
+        <v>0.342909</v>
       </c>
       <c r="C25" t="n">
-        <v>0.400529</v>
+        <v>0.5194220000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260661</v>
+        <v>0.401074</v>
       </c>
       <c r="E25" t="n">
-        <v>0.430383</v>
+        <v>0.261351</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.429576</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.333259</v>
+        <v>0.336258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.399328</v>
+        <v>0.511114</v>
       </c>
       <c r="D26" t="n">
-        <v>0.259322</v>
+        <v>0.401881</v>
       </c>
       <c r="E26" t="n">
-        <v>0.428677</v>
+        <v>0.260099</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.427995</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.326742</v>
+        <v>0.330993</v>
       </c>
       <c r="C27" t="n">
-        <v>0.401585</v>
+        <v>0.502727</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258098</v>
+        <v>0.403642</v>
       </c>
       <c r="E27" t="n">
-        <v>0.427548</v>
+        <v>0.258802</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.427041</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321135</v>
+        <v>0.322904</v>
       </c>
       <c r="C28" t="n">
-        <v>0.401221</v>
+        <v>0.495248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2568</v>
+        <v>0.403213</v>
       </c>
       <c r="E28" t="n">
-        <v>0.426896</v>
+        <v>0.257713</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.426827</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.312663</v>
+        <v>0.31401</v>
       </c>
       <c r="C29" t="n">
-        <v>0.40189</v>
+        <v>0.492464</v>
       </c>
       <c r="D29" t="n">
-        <v>0.256407</v>
+        <v>0.404407</v>
       </c>
       <c r="E29" t="n">
-        <v>0.425924</v>
+        <v>0.256851</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.425832</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30435</v>
+        <v>0.30641</v>
       </c>
       <c r="C30" t="n">
-        <v>0.402977</v>
+        <v>0.473702</v>
       </c>
       <c r="D30" t="n">
-        <v>0.255507</v>
+        <v>0.404633</v>
       </c>
       <c r="E30" t="n">
-        <v>0.424601</v>
+        <v>0.256242</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.424855</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.295529</v>
+        <v>0.296668</v>
       </c>
       <c r="C31" t="n">
-        <v>0.403936</v>
+        <v>0.465723</v>
       </c>
       <c r="D31" t="n">
-        <v>0.254978</v>
+        <v>0.406448</v>
       </c>
       <c r="E31" t="n">
-        <v>0.42329</v>
+        <v>0.254968</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.423485</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285342</v>
+        <v>0.285113</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4037</v>
+        <v>0.45842</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254455</v>
+        <v>0.4071</v>
       </c>
       <c r="E32" t="n">
-        <v>0.422087</v>
+        <v>0.254825</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.422811</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274331</v>
+        <v>0.272462</v>
       </c>
       <c r="C33" t="n">
-        <v>0.405258</v>
+        <v>0.446528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253501</v>
+        <v>0.406954</v>
       </c>
       <c r="E33" t="n">
-        <v>0.42132</v>
+        <v>0.256803</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.421934</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261841</v>
+        <v>0.261478</v>
       </c>
       <c r="C34" t="n">
-        <v>0.406158</v>
+        <v>0.443223</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253127</v>
+        <v>0.40899</v>
       </c>
       <c r="E34" t="n">
-        <v>0.420303</v>
+        <v>0.25661</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4215</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249902</v>
+        <v>0.247923</v>
       </c>
       <c r="C35" t="n">
-        <v>0.406691</v>
+        <v>0.423417</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252647</v>
+        <v>0.406337</v>
       </c>
       <c r="E35" t="n">
-        <v>0.419842</v>
+        <v>0.25176</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.420201</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234935</v>
+        <v>0.232936</v>
       </c>
       <c r="C36" t="n">
-        <v>0.407573</v>
+        <v>0.413107</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250686</v>
+        <v>0.40627</v>
       </c>
       <c r="E36" t="n">
-        <v>0.417711</v>
+        <v>0.249757</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.419127</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22063</v>
+        <v>0.217333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.406633</v>
+        <v>0.402322</v>
       </c>
       <c r="D37" t="n">
-        <v>0.265707</v>
+        <v>0.407207</v>
       </c>
       <c r="E37" t="n">
-        <v>0.43411</v>
+        <v>0.267391</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.434044</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351022</v>
+        <v>0.354377</v>
       </c>
       <c r="C38" t="n">
-        <v>0.406745</v>
+        <v>0.526613</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263773</v>
+        <v>0.405519</v>
       </c>
       <c r="E38" t="n">
-        <v>0.432785</v>
+        <v>0.264648</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.431921</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346156</v>
+        <v>0.349238</v>
       </c>
       <c r="C39" t="n">
-        <v>0.405198</v>
+        <v>0.522306</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2608</v>
+        <v>0.40361</v>
       </c>
       <c r="E39" t="n">
-        <v>0.431023</v>
+        <v>0.261145</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.430575</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.340264</v>
+        <v>0.343866</v>
       </c>
       <c r="C40" t="n">
-        <v>0.406074</v>
+        <v>0.51601</v>
       </c>
       <c r="D40" t="n">
-        <v>0.259904</v>
+        <v>0.404042</v>
       </c>
       <c r="E40" t="n">
-        <v>0.431488</v>
+        <v>0.260435</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.430442</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333905</v>
+        <v>0.337161</v>
       </c>
       <c r="C41" t="n">
-        <v>0.407037</v>
+        <v>0.5091560000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.258402</v>
+        <v>0.403632</v>
       </c>
       <c r="E41" t="n">
-        <v>0.429213</v>
+        <v>0.259022</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.428674</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325988</v>
+        <v>0.329994</v>
       </c>
       <c r="C42" t="n">
-        <v>0.406631</v>
+        <v>0.501071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257859</v>
+        <v>0.404445</v>
       </c>
       <c r="E42" t="n">
-        <v>0.42808</v>
+        <v>0.257596</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.427805</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318091</v>
+        <v>0.321247</v>
       </c>
       <c r="C43" t="n">
-        <v>0.406989</v>
+        <v>0.488721</v>
       </c>
       <c r="D43" t="n">
-        <v>0.256711</v>
+        <v>0.408436</v>
       </c>
       <c r="E43" t="n">
-        <v>0.426571</v>
+        <v>0.257147</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.426849</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309414</v>
+        <v>0.311818</v>
       </c>
       <c r="C44" t="n">
-        <v>0.407571</v>
+        <v>0.485602</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255266</v>
+        <v>0.405441</v>
       </c>
       <c r="E44" t="n">
-        <v>0.426093</v>
+        <v>0.255769</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.426053</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.299694</v>
+        <v>0.30175</v>
       </c>
       <c r="C45" t="n">
-        <v>0.408202</v>
+        <v>0.476369</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253752</v>
+        <v>0.406137</v>
       </c>
       <c r="E45" t="n">
-        <v>0.42484</v>
+        <v>0.253947</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.425131</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290576</v>
+        <v>0.290465</v>
       </c>
       <c r="C46" t="n">
-        <v>0.408986</v>
+        <v>0.471068</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253076</v>
+        <v>0.408715</v>
       </c>
       <c r="E46" t="n">
-        <v>0.423651</v>
+        <v>0.252876</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.423461</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280195</v>
+        <v>0.279577</v>
       </c>
       <c r="C47" t="n">
-        <v>0.409294</v>
+        <v>0.463861</v>
       </c>
       <c r="D47" t="n">
-        <v>0.253468</v>
+        <v>0.408193</v>
       </c>
       <c r="E47" t="n">
-        <v>0.422733</v>
+        <v>0.252434</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.422967</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267197</v>
+        <v>0.267217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.409758</v>
+        <v>0.444975</v>
       </c>
       <c r="D48" t="n">
-        <v>0.252909</v>
+        <v>0.409787</v>
       </c>
       <c r="E48" t="n">
-        <v>0.422212</v>
+        <v>0.252277</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.422371</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25493</v>
+        <v>0.253558</v>
       </c>
       <c r="C49" t="n">
-        <v>0.411669</v>
+        <v>0.433646</v>
       </c>
       <c r="D49" t="n">
-        <v>0.25128</v>
+        <v>0.411942</v>
       </c>
       <c r="E49" t="n">
-        <v>0.421223</v>
+        <v>0.252241</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.421588</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240921</v>
+        <v>0.238696</v>
       </c>
       <c r="C50" t="n">
-        <v>0.410386</v>
+        <v>0.425576</v>
       </c>
       <c r="D50" t="n">
-        <v>0.251263</v>
+        <v>0.408577</v>
       </c>
       <c r="E50" t="n">
-        <v>0.419834</v>
+        <v>0.250723</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.420648</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.226361</v>
+        <v>0.222812</v>
       </c>
       <c r="C51" t="n">
-        <v>0.41329</v>
+        <v>0.40257</v>
       </c>
       <c r="D51" t="n">
-        <v>0.267403</v>
+        <v>0.408463</v>
       </c>
       <c r="E51" t="n">
-        <v>0.435374</v>
+        <v>0.267658</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.434547</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209271</v>
+        <v>0.207145</v>
       </c>
       <c r="C52" t="n">
-        <v>0.413091</v>
+        <v>0.384383</v>
       </c>
       <c r="D52" t="n">
-        <v>0.264157</v>
+        <v>0.410262</v>
       </c>
       <c r="E52" t="n">
-        <v>0.434124</v>
+        <v>0.264753</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.433416</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349051</v>
+        <v>0.353521</v>
       </c>
       <c r="C53" t="n">
-        <v>0.411315</v>
+        <v>0.522494</v>
       </c>
       <c r="D53" t="n">
-        <v>0.262457</v>
+        <v>0.408206</v>
       </c>
       <c r="E53" t="n">
-        <v>0.432671</v>
+        <v>0.26329</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.431965</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.343491</v>
+        <v>0.347549</v>
       </c>
       <c r="C54" t="n">
-        <v>0.411889</v>
+        <v>0.517176</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26042</v>
+        <v>0.410537</v>
       </c>
       <c r="E54" t="n">
-        <v>0.430664</v>
+        <v>0.260298</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.430641</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.337487</v>
+        <v>0.340853</v>
       </c>
       <c r="C55" t="n">
-        <v>0.414976</v>
+        <v>0.515221</v>
       </c>
       <c r="D55" t="n">
-        <v>0.25912</v>
+        <v>0.411471</v>
       </c>
       <c r="E55" t="n">
-        <v>0.429372</v>
+        <v>0.25929</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.428902</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329576</v>
+        <v>0.334051</v>
       </c>
       <c r="C56" t="n">
-        <v>0.414479</v>
+        <v>0.5016659999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.257863</v>
+        <v>0.414727</v>
       </c>
       <c r="E56" t="n">
-        <v>0.427769</v>
+        <v>0.25796</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.427992</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321569</v>
+        <v>0.326042</v>
       </c>
       <c r="C57" t="n">
-        <v>0.416115</v>
+        <v>0.506229</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257139</v>
+        <v>0.414126</v>
       </c>
       <c r="E57" t="n">
-        <v>0.426968</v>
+        <v>0.257224</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.42727</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313052</v>
+        <v>0.316256</v>
       </c>
       <c r="C58" t="n">
-        <v>0.417272</v>
+        <v>0.503853</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256618</v>
+        <v>0.417879</v>
       </c>
       <c r="E58" t="n">
-        <v>0.426027</v>
+        <v>0.256327</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.426297</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304442</v>
+        <v>0.306745</v>
       </c>
       <c r="C59" t="n">
-        <v>0.419616</v>
+        <v>0.490289</v>
       </c>
       <c r="D59" t="n">
-        <v>0.255519</v>
+        <v>0.419717</v>
       </c>
       <c r="E59" t="n">
-        <v>0.425272</v>
+        <v>0.255346</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.425404</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294447</v>
+        <v>0.295915</v>
       </c>
       <c r="C60" t="n">
-        <v>0.42619</v>
+        <v>0.490109</v>
       </c>
       <c r="D60" t="n">
-        <v>0.254585</v>
+        <v>0.423893</v>
       </c>
       <c r="E60" t="n">
-        <v>0.42489</v>
+        <v>0.254381</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.424964</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284224</v>
+        <v>0.284355</v>
       </c>
       <c r="C61" t="n">
-        <v>0.426719</v>
+        <v>0.484226</v>
       </c>
       <c r="D61" t="n">
-        <v>0.253758</v>
+        <v>0.420702</v>
       </c>
       <c r="E61" t="n">
-        <v>0.423723</v>
+        <v>0.253697</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.424107</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272282</v>
+        <v>0.271986</v>
       </c>
       <c r="C62" t="n">
-        <v>0.428118</v>
+        <v>0.469635</v>
       </c>
       <c r="D62" t="n">
-        <v>0.252655</v>
+        <v>0.427675</v>
       </c>
       <c r="E62" t="n">
-        <v>0.422383</v>
+        <v>0.252799</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.423137</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.259115</v>
+        <v>0.258241</v>
       </c>
       <c r="C63" t="n">
-        <v>0.432719</v>
+        <v>0.44124</v>
       </c>
       <c r="D63" t="n">
-        <v>0.252372</v>
+        <v>0.433261</v>
       </c>
       <c r="E63" t="n">
-        <v>0.421595</v>
+        <v>0.251889</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.422237</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245489</v>
+        <v>0.243793</v>
       </c>
       <c r="C64" t="n">
-        <v>0.467341</v>
+        <v>0.455107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.251767</v>
+        <v>0.458727</v>
       </c>
       <c r="E64" t="n">
-        <v>0.420701</v>
+        <v>0.252918</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.421647</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.23124</v>
+        <v>0.228531</v>
       </c>
       <c r="C65" t="n">
-        <v>0.468133</v>
+        <v>0.433492</v>
       </c>
       <c r="D65" t="n">
-        <v>0.252704</v>
+        <v>0.471104</v>
       </c>
       <c r="E65" t="n">
-        <v>0.419844</v>
+        <v>0.251498</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.421123</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214719</v>
+        <v>0.212144</v>
       </c>
       <c r="C66" t="n">
-        <v>0.483985</v>
+        <v>0.419248</v>
       </c>
       <c r="D66" t="n">
-        <v>0.265137</v>
+        <v>0.47519</v>
       </c>
       <c r="E66" t="n">
-        <v>0.434564</v>
+        <v>0.265621</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.433602</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351663</v>
+        <v>0.356003</v>
       </c>
       <c r="C67" t="n">
-        <v>0.481856</v>
+        <v>0.568439</v>
       </c>
       <c r="D67" t="n">
-        <v>0.263235</v>
+        <v>0.484128</v>
       </c>
       <c r="E67" t="n">
-        <v>0.432916</v>
+        <v>0.263313</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.432059</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.345702</v>
+        <v>0.350758</v>
       </c>
       <c r="C68" t="n">
-        <v>0.494129</v>
+        <v>0.571925</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261282</v>
+        <v>0.487496</v>
       </c>
       <c r="E68" t="n">
-        <v>0.431502</v>
+        <v>0.261686</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.431812</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.339608</v>
+        <v>0.343885</v>
       </c>
       <c r="C69" t="n">
-        <v>0.497771</v>
+        <v>0.547254</v>
       </c>
       <c r="D69" t="n">
-        <v>0.259725</v>
+        <v>0.495097</v>
       </c>
       <c r="E69" t="n">
-        <v>0.430224</v>
+        <v>0.259584</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.429714</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.332299</v>
+        <v>0.33621</v>
       </c>
       <c r="C70" t="n">
-        <v>0.502196</v>
+        <v>0.560281</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258558</v>
+        <v>0.499432</v>
       </c>
       <c r="E70" t="n">
-        <v>0.429106</v>
+        <v>0.258373</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.428594</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.324732</v>
+        <v>0.328039</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5077700000000001</v>
+        <v>0.508744</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25768</v>
+        <v>0.529281</v>
       </c>
       <c r="E71" t="n">
-        <v>0.427957</v>
+        <v>0.257502</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.427645</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317016</v>
+        <v>0.318865</v>
       </c>
       <c r="C72" t="n">
-        <v>0.52994</v>
+        <v>0.548719</v>
       </c>
       <c r="D72" t="n">
-        <v>0.256472</v>
+        <v>0.511998</v>
       </c>
       <c r="E72" t="n">
-        <v>0.427269</v>
+        <v>0.256103</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.42656</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307419</v>
+        <v>0.309384</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5137930000000001</v>
+        <v>0.532125</v>
       </c>
       <c r="D73" t="n">
-        <v>0.255508</v>
+        <v>0.5148779999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.425806</v>
+        <v>0.254983</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.425652</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297838</v>
+        <v>0.299053</v>
       </c>
       <c r="C74" t="n">
-        <v>0.535581</v>
+        <v>0.52661</v>
       </c>
       <c r="D74" t="n">
-        <v>0.254326</v>
+        <v>0.5176230000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.424767</v>
+        <v>0.254176</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.424522</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286875</v>
+        <v>0.287833</v>
       </c>
       <c r="C75" t="n">
-        <v>0.539111</v>
+        <v>0.52905</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253651</v>
+        <v>0.516315</v>
       </c>
       <c r="E75" t="n">
-        <v>0.423791</v>
+        <v>0.254023</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.424125</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275354</v>
+        <v>0.275528</v>
       </c>
       <c r="C76" t="n">
-        <v>0.541305</v>
+        <v>0.516859</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253236</v>
+        <v>0.520167</v>
       </c>
       <c r="E76" t="n">
-        <v>0.423023</v>
+        <v>0.252743</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.423088</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263194</v>
+        <v>0.262685</v>
       </c>
       <c r="C77" t="n">
-        <v>0.540335</v>
+        <v>0.53856</v>
       </c>
       <c r="D77" t="n">
-        <v>0.253009</v>
+        <v>0.521076</v>
       </c>
       <c r="E77" t="n">
-        <v>0.421921</v>
+        <v>0.252311</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.423072</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.249904</v>
+        <v>0.248523</v>
       </c>
       <c r="C78" t="n">
-        <v>0.598655</v>
+        <v>0.495061</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25158</v>
+        <v>0.600036</v>
       </c>
       <c r="E78" t="n">
-        <v>0.421197</v>
+        <v>0.252021</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.421531</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.235131</v>
+        <v>0.233136</v>
       </c>
       <c r="C79" t="n">
-        <v>0.599415</v>
+        <v>0.48975</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25075</v>
+        <v>0.587954</v>
       </c>
       <c r="E79" t="n">
-        <v>0.420526</v>
+        <v>0.251262</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.420891</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218832</v>
+        <v>0.216154</v>
       </c>
       <c r="C80" t="n">
-        <v>0.602706</v>
+        <v>0.522809</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266445</v>
+        <v>0.601562</v>
       </c>
       <c r="E80" t="n">
-        <v>0.435025</v>
+        <v>0.266403</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.434109</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.353491</v>
+        <v>0.35744</v>
       </c>
       <c r="C81" t="n">
-        <v>0.637011</v>
+        <v>0.614301</v>
       </c>
       <c r="D81" t="n">
-        <v>0.264049</v>
+        <v>0.593128</v>
       </c>
       <c r="E81" t="n">
-        <v>0.433436</v>
+        <v>0.263825</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.432912</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34774</v>
+        <v>0.351959</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6354070000000001</v>
+        <v>0.599032</v>
       </c>
       <c r="D82" t="n">
-        <v>0.262009</v>
+        <v>0.589492</v>
       </c>
       <c r="E82" t="n">
-        <v>0.43196</v>
+        <v>0.261576</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.431363</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341502</v>
+        <v>0.345813</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6326619999999999</v>
+        <v>0.581361</v>
       </c>
       <c r="D83" t="n">
-        <v>0.260517</v>
+        <v>0.585517</v>
       </c>
       <c r="E83" t="n">
-        <v>0.43056</v>
+        <v>0.260096</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.430255</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.334824</v>
+        <v>0.338741</v>
       </c>
       <c r="C84" t="n">
-        <v>0.591102</v>
+        <v>0.638119</v>
       </c>
       <c r="D84" t="n">
-        <v>0.258984</v>
+        <v>0.59388</v>
       </c>
       <c r="E84" t="n">
-        <v>0.429312</v>
+        <v>0.258974</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.429098</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.327115</v>
+        <v>0.330434</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5869259999999999</v>
+        <v>0.601732</v>
       </c>
       <c r="D85" t="n">
-        <v>0.258087</v>
+        <v>0.57873</v>
       </c>
       <c r="E85" t="n">
-        <v>0.428138</v>
+        <v>0.257875</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.428505</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318385</v>
+        <v>0.321596</v>
       </c>
       <c r="C86" t="n">
-        <v>0.583057</v>
+        <v>0.6600240000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256835</v>
+        <v>0.580958</v>
       </c>
       <c r="E86" t="n">
-        <v>0.426941</v>
+        <v>0.256578</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.427995</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309604</v>
+        <v>0.311955</v>
       </c>
       <c r="C87" t="n">
-        <v>0.579645</v>
+        <v>0.6091259999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255821</v>
+        <v>0.576641</v>
       </c>
       <c r="E87" t="n">
-        <v>0.426028</v>
+        <v>0.255426</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.426645</v>
       </c>
     </row>
     <row r="88">
@@ -5642,13 +5900,16 @@
         <v>0.299878</v>
       </c>
       <c r="C88" t="n">
-        <v>0.573323</v>
+        <v>0.515002</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254685</v>
+        <v>0.570927</v>
       </c>
       <c r="E88" t="n">
-        <v>0.425073</v>
+        <v>0.25452</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.425618</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289418</v>
+        <v>0.288523</v>
       </c>
       <c r="C89" t="n">
-        <v>0.56735</v>
+        <v>0.532201</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254181</v>
+        <v>0.567537</v>
       </c>
       <c r="E89" t="n">
-        <v>0.424036</v>
+        <v>0.254177</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.42518</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278011</v>
+        <v>0.276588</v>
       </c>
       <c r="C90" t="n">
-        <v>0.564334</v>
+        <v>0.556885</v>
       </c>
       <c r="D90" t="n">
-        <v>0.253579</v>
+        <v>0.565855</v>
       </c>
       <c r="E90" t="n">
-        <v>0.423152</v>
+        <v>0.253463</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.424708</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265672</v>
+        <v>0.263519</v>
       </c>
       <c r="C91" t="n">
-        <v>0.560318</v>
+        <v>0.5233179999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.252995</v>
+        <v>0.560324</v>
       </c>
       <c r="E91" t="n">
-        <v>0.421951</v>
+        <v>0.252836</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.423067</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252699</v>
+        <v>0.249618</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6111220000000001</v>
+        <v>0.578989</v>
       </c>
       <c r="D92" t="n">
-        <v>0.252306</v>
+        <v>0.614776</v>
       </c>
       <c r="E92" t="n">
-        <v>0.421099</v>
+        <v>0.252339</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.423238</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238222</v>
+        <v>0.23449</v>
       </c>
       <c r="C93" t="n">
-        <v>0.614148</v>
+        <v>0.479436</v>
       </c>
       <c r="D93" t="n">
-        <v>0.252162</v>
+        <v>0.6152030000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>0.420465</v>
+        <v>0.25201</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.422689</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222931</v>
+        <v>0.218316</v>
       </c>
       <c r="C94" t="n">
-        <v>0.611116</v>
+        <v>0.519162</v>
       </c>
       <c r="D94" t="n">
-        <v>0.266672</v>
+        <v>0.608864</v>
       </c>
       <c r="E94" t="n">
-        <v>0.435434</v>
+        <v>0.266658</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.435175</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354635</v>
+        <v>0.358794</v>
       </c>
       <c r="C95" t="n">
-        <v>0.606717</v>
+        <v>0.528384</v>
       </c>
       <c r="D95" t="n">
-        <v>0.26475</v>
+        <v>0.597477</v>
       </c>
       <c r="E95" t="n">
-        <v>0.433891</v>
+        <v>0.264236</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.432593</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349036</v>
+        <v>0.354293</v>
       </c>
       <c r="C96" t="n">
-        <v>0.602222</v>
+        <v>0.643211</v>
       </c>
       <c r="D96" t="n">
-        <v>0.262363</v>
+        <v>0.593957</v>
       </c>
       <c r="E96" t="n">
-        <v>0.43276</v>
+        <v>0.262217</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.431464</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.342823</v>
+        <v>0.34786</v>
       </c>
       <c r="C97" t="n">
-        <v>0.596954</v>
+        <v>0.658995</v>
       </c>
       <c r="D97" t="n">
-        <v>0.260802</v>
+        <v>0.592662</v>
       </c>
       <c r="E97" t="n">
-        <v>0.431408</v>
+        <v>0.260637</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.430891</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.335948</v>
+        <v>0.340674</v>
       </c>
       <c r="C98" t="n">
-        <v>0.593322</v>
+        <v>0.645143</v>
       </c>
       <c r="D98" t="n">
-        <v>0.259418</v>
+        <v>0.585966</v>
       </c>
       <c r="E98" t="n">
-        <v>0.430116</v>
+        <v>0.259187</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.429367</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32868</v>
+        <v>0.332891</v>
       </c>
       <c r="C99" t="n">
-        <v>0.574733</v>
+        <v>0.586928</v>
       </c>
       <c r="D99" t="n">
-        <v>0.258278</v>
+        <v>0.58144</v>
       </c>
       <c r="E99" t="n">
-        <v>0.428987</v>
+        <v>0.257817</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.427849</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320243</v>
+        <v>0.324003</v>
       </c>
       <c r="C100" t="n">
-        <v>0.569671</v>
+        <v>0.645697</v>
       </c>
       <c r="D100" t="n">
-        <v>0.257141</v>
+        <v>0.570412</v>
       </c>
       <c r="E100" t="n">
-        <v>0.42765</v>
+        <v>0.256647</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.426865</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311275</v>
+        <v>0.314369</v>
       </c>
       <c r="C101" t="n">
-        <v>0.564715</v>
+        <v>0.541179</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255908</v>
+        <v>0.564104</v>
       </c>
       <c r="E101" t="n">
-        <v>0.426558</v>
+        <v>0.255463</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.427541</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301798</v>
+        <v>0.304188</v>
       </c>
       <c r="C102" t="n">
-        <v>0.560289</v>
+        <v>0.620308</v>
       </c>
       <c r="D102" t="n">
-        <v>0.255161</v>
+        <v>0.560355</v>
       </c>
       <c r="E102" t="n">
-        <v>0.425551</v>
+        <v>0.25484</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.426459</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291662</v>
+        <v>0.293351</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5547879999999999</v>
+        <v>0.588473</v>
       </c>
       <c r="D103" t="n">
-        <v>0.255003</v>
+        <v>0.556536</v>
       </c>
       <c r="E103" t="n">
-        <v>0.424595</v>
+        <v>0.253813</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.425603</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.280393</v>
+        <v>0.281049</v>
       </c>
       <c r="C104" t="n">
-        <v>0.550675</v>
+        <v>0.589993</v>
       </c>
       <c r="D104" t="n">
-        <v>0.254722</v>
+        <v>0.555915</v>
       </c>
       <c r="E104" t="n">
-        <v>0.423783</v>
+        <v>0.25396</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.423744</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268444</v>
+        <v>0.268607</v>
       </c>
       <c r="C105" t="n">
-        <v>0.546775</v>
+        <v>0.543297</v>
       </c>
       <c r="D105" t="n">
-        <v>0.254109</v>
+        <v>0.547295</v>
       </c>
       <c r="E105" t="n">
-        <v>0.422742</v>
+        <v>0.253284</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.423048</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255767</v>
+        <v>0.254654</v>
       </c>
       <c r="C106" t="n">
-        <v>0.54258</v>
+        <v>0.534999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.253352</v>
+        <v>0.544727</v>
       </c>
       <c r="E106" t="n">
-        <v>0.421929</v>
+        <v>0.253056</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.422426</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24179</v>
+        <v>0.239892</v>
       </c>
       <c r="C107" t="n">
-        <v>0.594336</v>
+        <v>0.512761</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252749</v>
+        <v>0.587746</v>
       </c>
       <c r="E107" t="n">
-        <v>0.421068</v>
+        <v>0.252281</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.421648</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226274</v>
+        <v>0.224108</v>
       </c>
       <c r="C108" t="n">
-        <v>0.59166</v>
+        <v>0.448639</v>
       </c>
       <c r="D108" t="n">
-        <v>0.267075</v>
+        <v>0.613332</v>
       </c>
       <c r="E108" t="n">
-        <v>0.436137</v>
+        <v>0.267032</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.434601</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.208685</v>
+        <v>0.206876</v>
       </c>
       <c r="C109" t="n">
-        <v>0.592225</v>
+        <v>0.435017</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265142</v>
+        <v>0.610268</v>
       </c>
       <c r="E109" t="n">
-        <v>0.434609</v>
+        <v>0.264633</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.434191</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350494</v>
+        <v>0.354867</v>
       </c>
       <c r="C110" t="n">
-        <v>0.585278</v>
+        <v>0.530013</v>
       </c>
       <c r="D110" t="n">
-        <v>0.26263</v>
+        <v>0.584809</v>
       </c>
       <c r="E110" t="n">
-        <v>0.43397</v>
+        <v>0.262853</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.432932</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344289</v>
+        <v>0.348861</v>
       </c>
       <c r="C111" t="n">
-        <v>0.584852</v>
+        <v>0.576993</v>
       </c>
       <c r="D111" t="n">
-        <v>0.260769</v>
+        <v>0.585887</v>
       </c>
       <c r="E111" t="n">
-        <v>0.432773</v>
+        <v>0.261257</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.430689</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.337596</v>
+        <v>0.341985</v>
       </c>
       <c r="C112" t="n">
-        <v>0.580009</v>
+        <v>0.541204</v>
       </c>
       <c r="D112" t="n">
-        <v>0.259603</v>
+        <v>0.585311</v>
       </c>
       <c r="E112" t="n">
-        <v>0.43047</v>
+        <v>0.259401</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.429549</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.329898</v>
+        <v>0.334532</v>
       </c>
       <c r="C113" t="n">
-        <v>0.587417</v>
+        <v>0.66694</v>
       </c>
       <c r="D113" t="n">
-        <v>0.258539</v>
+        <v>0.5702390000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.429001</v>
+        <v>0.258228</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.428425</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321632</v>
+        <v>0.326191</v>
       </c>
       <c r="C114" t="n">
-        <v>0.580602</v>
+        <v>0.62802</v>
       </c>
       <c r="D114" t="n">
-        <v>0.257205</v>
+        <v>0.566925</v>
       </c>
       <c r="E114" t="n">
-        <v>0.42808</v>
+        <v>0.256983</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.428225</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313166</v>
+        <v>0.316937</v>
       </c>
       <c r="C115" t="n">
-        <v>0.573174</v>
+        <v>0.583944</v>
       </c>
       <c r="D115" t="n">
-        <v>0.256264</v>
+        <v>0.564671</v>
       </c>
       <c r="E115" t="n">
-        <v>0.426998</v>
+        <v>0.255795</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.426818</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303553</v>
+        <v>0.305386</v>
       </c>
       <c r="C116" t="n">
-        <v>0.567012</v>
+        <v>0.614141</v>
       </c>
       <c r="D116" t="n">
-        <v>0.255234</v>
+        <v>0.559202</v>
       </c>
       <c r="E116" t="n">
-        <v>0.425524</v>
+        <v>0.254865</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.426287</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293556</v>
+        <v>0.294422</v>
       </c>
       <c r="C117" t="n">
-        <v>0.561516</v>
+        <v>0.555276</v>
       </c>
       <c r="D117" t="n">
-        <v>0.25457</v>
+        <v>0.553534</v>
       </c>
       <c r="E117" t="n">
-        <v>0.424466</v>
+        <v>0.253918</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.424598</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.282534</v>
+        <v>0.284222</v>
       </c>
       <c r="C118" t="n">
-        <v>0.553581</v>
+        <v>0.511371</v>
       </c>
       <c r="D118" t="n">
-        <v>0.254407</v>
+        <v>0.549975</v>
       </c>
       <c r="E118" t="n">
-        <v>0.423387</v>
+        <v>0.253751</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.42375</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271076</v>
+        <v>0.271517</v>
       </c>
       <c r="C119" t="n">
-        <v>0.549527</v>
+        <v>0.576862</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253818</v>
+        <v>0.548881</v>
       </c>
       <c r="E119" t="n">
-        <v>0.422575</v>
+        <v>0.252998</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.423803</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258484</v>
+        <v>0.258193</v>
       </c>
       <c r="C120" t="n">
-        <v>0.542275</v>
+        <v>0.480908</v>
       </c>
       <c r="D120" t="n">
-        <v>0.253068</v>
+        <v>0.54344</v>
       </c>
       <c r="E120" t="n">
-        <v>0.421758</v>
+        <v>0.252306</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.423307</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244522</v>
+        <v>0.243718</v>
       </c>
       <c r="C121" t="n">
-        <v>0.630204</v>
+        <v>0.52665</v>
       </c>
       <c r="D121" t="n">
-        <v>0.252778</v>
+        <v>0.603159</v>
       </c>
       <c r="E121" t="n">
-        <v>0.421213</v>
+        <v>0.252118</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.421576</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229568</v>
+        <v>0.227732</v>
       </c>
       <c r="C122" t="n">
-        <v>0.626824</v>
+        <v>0.505618</v>
       </c>
       <c r="D122" t="n">
-        <v>0.252349</v>
+        <v>0.6230290000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.420121</v>
+        <v>0.251481</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.42092</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.213007</v>
+        <v>0.211238</v>
       </c>
       <c r="C123" t="n">
-        <v>0.622875</v>
+        <v>0.448382</v>
       </c>
       <c r="D123" t="n">
-        <v>0.26504</v>
+        <v>0.6029600000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.43513</v>
+        <v>0.265053</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.433305</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.352049</v>
+        <v>0.3567</v>
       </c>
       <c r="C124" t="n">
-        <v>0.618094</v>
+        <v>0.538455</v>
       </c>
       <c r="D124" t="n">
-        <v>0.263024</v>
+        <v>0.616208</v>
       </c>
       <c r="E124" t="n">
-        <v>0.433592</v>
+        <v>0.262843</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.431953</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345783</v>
+        <v>0.350713</v>
       </c>
       <c r="C125" t="n">
-        <v>0.614224</v>
+        <v>0.636448</v>
       </c>
       <c r="D125" t="n">
-        <v>0.261239</v>
+        <v>0.6115390000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.432198</v>
+        <v>0.261099</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.431555</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.33911</v>
+        <v>0.343863</v>
       </c>
       <c r="C126" t="n">
-        <v>0.604901</v>
+        <v>0.5545330000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.259766</v>
+        <v>0.604132</v>
       </c>
       <c r="E126" t="n">
-        <v>0.430764</v>
+        <v>0.259599</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.43033</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.332443</v>
+        <v>0.336647</v>
       </c>
       <c r="C127" t="n">
-        <v>0.585745</v>
+        <v>0.616716</v>
       </c>
       <c r="D127" t="n">
-        <v>0.25874</v>
+        <v>0.6004930000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.429582</v>
+        <v>0.25828</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.42925</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324421</v>
+        <v>0.328082</v>
       </c>
       <c r="C128" t="n">
-        <v>0.57986</v>
+        <v>0.593822</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257474</v>
+        <v>0.585494</v>
       </c>
       <c r="E128" t="n">
-        <v>0.428376</v>
+        <v>0.257111</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.427491</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315174</v>
+        <v>0.31949</v>
       </c>
       <c r="C129" t="n">
-        <v>0.577368</v>
+        <v>0.6556070000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.256581</v>
+        <v>0.5851420000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>0.427137</v>
+        <v>0.256113</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.426185</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305665</v>
+        <v>0.309144</v>
       </c>
       <c r="C130" t="n">
-        <v>0.571856</v>
+        <v>0.605472</v>
       </c>
       <c r="D130" t="n">
-        <v>0.255564</v>
+        <v>0.573834</v>
       </c>
       <c r="E130" t="n">
-        <v>0.426041</v>
+        <v>0.25519</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.426143</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295597</v>
+        <v>0.29836</v>
       </c>
       <c r="C131" t="n">
-        <v>0.56637</v>
+        <v>0.580134</v>
       </c>
       <c r="D131" t="n">
-        <v>0.254939</v>
+        <v>0.569303</v>
       </c>
       <c r="E131" t="n">
-        <v>0.424533</v>
+        <v>0.254442</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.424395</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285071</v>
+        <v>0.2872</v>
       </c>
       <c r="C132" t="n">
-        <v>0.559442</v>
+        <v>0.560463</v>
       </c>
       <c r="D132" t="n">
-        <v>0.254495</v>
+        <v>0.563717</v>
       </c>
       <c r="E132" t="n">
-        <v>0.424092</v>
+        <v>0.253729</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.423376</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273175</v>
+        <v>0.274808</v>
       </c>
       <c r="C133" t="n">
-        <v>0.553708</v>
+        <v>0.575831</v>
       </c>
       <c r="D133" t="n">
-        <v>0.253847</v>
+        <v>0.558149</v>
       </c>
       <c r="E133" t="n">
-        <v>0.423149</v>
+        <v>0.253068</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.422903</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.260482</v>
+        <v>0.261682</v>
       </c>
       <c r="C134" t="n">
-        <v>0.550749</v>
+        <v>0.544732</v>
       </c>
       <c r="D134" t="n">
-        <v>0.253352</v>
+        <v>0.552806</v>
       </c>
       <c r="E134" t="n">
-        <v>0.422103</v>
+        <v>0.25247</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.422043</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247364</v>
+        <v>0.247501</v>
       </c>
       <c r="C135" t="n">
-        <v>0.61891</v>
+        <v>0.5259</v>
       </c>
       <c r="D135" t="n">
-        <v>0.252671</v>
+        <v>0.611955</v>
       </c>
       <c r="E135" t="n">
-        <v>0.421453</v>
+        <v>0.251933</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.422299</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.232261</v>
+        <v>0.230513</v>
       </c>
       <c r="C136" t="n">
-        <v>0.610486</v>
+        <v>0.511047</v>
       </c>
       <c r="D136" t="n">
-        <v>0.252189</v>
+        <v>0.614443</v>
       </c>
       <c r="E136" t="n">
-        <v>0.420564</v>
+        <v>0.251555</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.420716</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.216138</v>
+        <v>0.213863</v>
       </c>
       <c r="C137" t="n">
-        <v>0.611361</v>
+        <v>0.489099</v>
       </c>
       <c r="D137" t="n">
-        <v>0.265579</v>
+        <v>0.628389</v>
       </c>
       <c r="E137" t="n">
-        <v>0.435374</v>
+        <v>0.265523</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.433659</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.353807</v>
+        <v>0.35783</v>
       </c>
       <c r="C138" t="n">
-        <v>0.605205</v>
+        <v>0.673326</v>
       </c>
       <c r="D138" t="n">
-        <v>0.263579</v>
+        <v>0.610544</v>
       </c>
       <c r="E138" t="n">
-        <v>0.433806</v>
+        <v>0.263367</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.432524</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.348348</v>
+        <v>0.352376</v>
       </c>
       <c r="C139" t="n">
-        <v>0.59873</v>
+        <v>0.667493</v>
       </c>
       <c r="D139" t="n">
-        <v>0.261707</v>
+        <v>0.603391</v>
       </c>
       <c r="E139" t="n">
-        <v>0.432289</v>
+        <v>0.26176</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.431206</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.342389</v>
+        <v>0.346182</v>
       </c>
       <c r="C140" t="n">
-        <v>0.593793</v>
+        <v>0.625385</v>
       </c>
       <c r="D140" t="n">
-        <v>0.260562</v>
+        <v>0.604245</v>
       </c>
       <c r="E140" t="n">
-        <v>0.431076</v>
+        <v>0.260271</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.429849</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.335052</v>
+        <v>0.338533</v>
       </c>
       <c r="C141" t="n">
-        <v>0.602288</v>
+        <v>0.617272</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259216</v>
+        <v>0.603734</v>
       </c>
       <c r="E141" t="n">
-        <v>0.429618</v>
+        <v>0.258956</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.428646</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325716</v>
+        <v>0.330363</v>
       </c>
       <c r="C142" t="n">
-        <v>0.595301</v>
+        <v>0.634646</v>
       </c>
       <c r="D142" t="n">
-        <v>0.258042</v>
+        <v>0.597106</v>
       </c>
       <c r="E142" t="n">
-        <v>0.428551</v>
+        <v>0.257728</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.427531</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317796</v>
+        <v>0.322375</v>
       </c>
       <c r="C143" t="n">
-        <v>0.58677</v>
+        <v>0.628295</v>
       </c>
       <c r="D143" t="n">
-        <v>0.256796</v>
+        <v>0.589096</v>
       </c>
       <c r="E143" t="n">
-        <v>0.426902</v>
+        <v>0.256705</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.426744</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.282548</v>
+                  <v>0.276308</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.272697</v>
+                  <v>0.272473</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.258964</v>
+                  <v>0.261177</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.249268</v>
+                  <v>0.248314</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.237404</v>
+                  <v>0.234685</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224048</v>
+                  <v>0.22468</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.211293</v>
+                  <v>0.206617</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193973</v>
+                  <v>0.191864</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.337991</v>
+                  <v>0.340842</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.330662</v>
+                  <v>0.334478</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.324871</v>
+                  <v>0.326732</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.319466</v>
+                  <v>0.321795</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.312035</v>
+                  <v>0.314147</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.303786</v>
+                  <v>0.304915</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.29452</v>
+                  <v>0.297684</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.287784</v>
+                  <v>0.28667</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.277208</v>
+                  <v>0.275189</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.266814</v>
+                  <v>0.263768</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.253538</v>
+                  <v>0.250349</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.241255</v>
+                  <v>0.241751</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.227411</v>
+                  <v>0.230256</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.210584</v>
+                  <v>0.206461</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.346052</v>
+                  <v>0.348831</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.340077</v>
+                  <v>0.342909</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.333498</v>
+                  <v>0.336258</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.326784</v>
+                  <v>0.330993</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.321038</v>
+                  <v>0.322904</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.312602</v>
+                  <v>0.31401</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.304226</v>
+                  <v>0.30641</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.295234</v>
+                  <v>0.296668</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.28537</v>
+                  <v>0.285113</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.274615</v>
+                  <v>0.272462</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.261882</v>
+                  <v>0.261478</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.249927</v>
+                  <v>0.247923</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.235443</v>
+                  <v>0.232936</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.221098</v>
+                  <v>0.217333</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.351371</v>
+                  <v>0.354377</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.346679</v>
+                  <v>0.349238</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.340659</v>
+                  <v>0.343866</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.334209</v>
+                  <v>0.337161</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.326441</v>
+                  <v>0.329994</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.319443</v>
+                  <v>0.321247</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.309531</v>
+                  <v>0.311818</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.2999</v>
+                  <v>0.30175</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.291113</v>
+                  <v>0.290465</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.279866</v>
+                  <v>0.279577</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.267411</v>
+                  <v>0.267217</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.254881</v>
+                  <v>0.253558</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.240719</v>
+                  <v>0.238696</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.22648</v>
+                  <v>0.222812</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.209304</v>
+                  <v>0.207145</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.349666</v>
+                  <v>0.353521</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.34391</v>
+                  <v>0.347549</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.337612</v>
+                  <v>0.340853</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.329976</v>
+                  <v>0.334051</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.32189</v>
+                  <v>0.326042</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.313338</v>
+                  <v>0.316256</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.304552</v>
+                  <v>0.306745</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.294377</v>
+                  <v>0.295915</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.283903</v>
+                  <v>0.284355</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.272493</v>
+                  <v>0.271986</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2594</v>
+                  <v>0.258241</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.245865</v>
+                  <v>0.243793</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.231365</v>
+                  <v>0.228531</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.214761</v>
+                  <v>0.212144</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.351755</v>
+                  <v>0.356003</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.346019</v>
+                  <v>0.350758</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.340064</v>
+                  <v>0.343885</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.332774</v>
+                  <v>0.33621</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.325285</v>
+                  <v>0.328039</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.316527</v>
+                  <v>0.318865</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.307717</v>
+                  <v>0.309384</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.297561</v>
+                  <v>0.299053</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.286775</v>
+                  <v>0.287833</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.275144</v>
+                  <v>0.275528</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.263422</v>
+                  <v>0.262685</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.249973</v>
+                  <v>0.248523</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.235344</v>
+                  <v>0.233136</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.218933</v>
+                  <v>0.216154</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.353549</v>
+                  <v>0.35744</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.347958</v>
+                  <v>0.351959</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.341488</v>
+                  <v>0.345813</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.334905</v>
+                  <v>0.338741</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.326816</v>
+                  <v>0.330434</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.318436</v>
+                  <v>0.321596</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.30937</v>
+                  <v>0.311955</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.299715</v>
+                  <v>0.299878</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.289329</v>
+                  <v>0.288523</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.277737</v>
+                  <v>0.276588</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.265646</v>
+                  <v>0.263519</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.252746</v>
+                  <v>0.249618</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.238259</v>
+                  <v>0.23449</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.223016</v>
+                  <v>0.218316</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.354505</v>
+                  <v>0.358794</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.34906</v>
+                  <v>0.354293</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.342798</v>
+                  <v>0.34786</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.33594</v>
+                  <v>0.340674</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.328726</v>
+                  <v>0.332891</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.320487</v>
+                  <v>0.324003</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.311159</v>
+                  <v>0.314369</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.30175</v>
+                  <v>0.304188</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.291451</v>
+                  <v>0.293351</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.280537</v>
+                  <v>0.281049</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.268483</v>
+                  <v>0.268607</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.25579</v>
+                  <v>0.254654</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.241672</v>
+                  <v>0.239892</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.226368</v>
+                  <v>0.224108</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.20892</v>
+                  <v>0.206876</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.350739</v>
+                  <v>0.354867</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.344423</v>
+                  <v>0.348861</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.337678</v>
+                  <v>0.341985</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.330122</v>
+                  <v>0.334532</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.32183</v>
+                  <v>0.326191</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.313052</v>
+                  <v>0.316937</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.303541</v>
+                  <v>0.305386</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.293557</v>
+                  <v>0.294422</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.282558</v>
+                  <v>0.284222</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.270949</v>
+                  <v>0.271517</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.258534</v>
+                  <v>0.258193</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.24444</v>
+                  <v>0.243718</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.229578</v>
+                  <v>0.227732</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.213032</v>
+                  <v>0.211238</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.351693</v>
+                  <v>0.3567</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.346135</v>
+                  <v>0.350713</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.339386</v>
+                  <v>0.343863</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.333755</v>
+                  <v>0.336647</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.324445</v>
+                  <v>0.328082</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.314871</v>
+                  <v>0.31949</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.305604</v>
+                  <v>0.309144</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.296038</v>
+                  <v>0.29836</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.284871</v>
+                  <v>0.2872</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.273086</v>
+                  <v>0.274808</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.260397</v>
+                  <v>0.261682</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.246972</v>
+                  <v>0.247501</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.232227</v>
+                  <v>0.230513</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.215929</v>
+                  <v>0.213863</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.353393</v>
+                  <v>0.35783</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.347452</v>
+                  <v>0.352376</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.34104</v>
+                  <v>0.346182</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.334436</v>
+                  <v>0.338533</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.325196</v>
+                  <v>0.330363</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.317708</v>
+                  <v>0.322375</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.389348</v>
+                  <v>0.455945</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.390684</v>
+                  <v>0.459888</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.391544</v>
+                  <v>0.450099</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.392132</v>
+                  <v>0.430616</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.394114</v>
+                  <v>0.421363</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.391936</v>
+                  <v>0.408074</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.391701</v>
+                  <v>0.393708</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.392222</v>
+                  <v>0.380975</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.392413</v>
+                  <v>0.5159010000000001</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.394354</v>
+                  <v>0.510457</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.394653</v>
+                  <v>0.506184</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.39549</v>
+                  <v>0.498863</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.396435</v>
+                  <v>0.490459</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.397777</v>
+                  <v>0.483121</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.399321</v>
+                  <v>0.471675</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.400646</v>
+                  <v>0.465556</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.40143</v>
+                  <v>0.458136</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.402763</v>
+                  <v>0.44919</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.403713</v>
+                  <v>0.432283</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.40064</v>
+                  <v>0.417343</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.399886</v>
+                  <v>0.408672</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.399688</v>
+                  <v>0.392354</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.400131</v>
+                  <v>0.516385</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.400278</v>
+                  <v>0.5194220000000001</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.39916</v>
+                  <v>0.511114</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.401788</v>
+                  <v>0.502727</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.401425</v>
+                  <v>0.495248</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.402023</v>
+                  <v>0.492464</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.402729</v>
+                  <v>0.473702</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.404089</v>
+                  <v>0.465723</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.404819</v>
+                  <v>0.45842</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.405517</v>
+                  <v>0.446528</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.406542</v>
+                  <v>0.443223</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.406436</v>
+                  <v>0.423417</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.407539</v>
+                  <v>0.413107</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.40641</v>
+                  <v>0.402322</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.406914</v>
+                  <v>0.526613</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.405512</v>
+                  <v>0.522306</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.406825</v>
+                  <v>0.51601</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.407224</v>
+                  <v>0.5091560000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.406973</v>
+                  <v>0.501071</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.40721</v>
+                  <v>0.488721</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.407319</v>
+                  <v>0.485602</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.40791</v>
+                  <v>0.476369</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.409027</v>
+                  <v>0.471068</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.40942</v>
+                  <v>0.463861</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.409969</v>
+                  <v>0.444975</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.41134</v>
+                  <v>0.433646</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.412473</v>
+                  <v>0.425576</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.41359</v>
+                  <v>0.40257</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.413782</v>
+                  <v>0.384383</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.411959</v>
+                  <v>0.522494</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.412965</v>
+                  <v>0.517176</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.412695</v>
+                  <v>0.515221</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.415023</v>
+                  <v>0.5016659999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.415577</v>
+                  <v>0.506229</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.415979</v>
+                  <v>0.503853</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.41793</v>
+                  <v>0.490289</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.421473</v>
+                  <v>0.490109</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.42332</v>
+                  <v>0.484226</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.426218</v>
+                  <v>0.469635</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.428053</v>
+                  <v>0.44124</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.460806</v>
+                  <v>0.455107</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.468283</v>
+                  <v>0.433492</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.479073</v>
+                  <v>0.419248</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.480578</v>
+                  <v>0.568439</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.490307</v>
+                  <v>0.571925</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.494935</v>
+                  <v>0.547254</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.499668</v>
+                  <v>0.560281</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.505413</v>
+                  <v>0.508744</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.529191</v>
+                  <v>0.548719</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.5147699999999999</v>
+                  <v>0.532125</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.5363599999999999</v>
+                  <v>0.52661</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.543413</v>
+                  <v>0.52905</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.542258</v>
+                  <v>0.516859</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.52144</v>
+                  <v>0.53856</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.59904</v>
+                  <v>0.495061</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.601977</v>
+                  <v>0.48975</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.603951</v>
+                  <v>0.522809</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.6403799999999999</v>
+                  <v>0.614301</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.63779</v>
+                  <v>0.599032</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.634957</v>
+                  <v>0.581361</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.592965</v>
+                  <v>0.638119</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.588435</v>
+                  <v>0.601732</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.583827</v>
+                  <v>0.6600240000000001</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.580533</v>
+                  <v>0.6091259999999999</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.575425</v>
+                  <v>0.515002</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.573412</v>
+                  <v>0.532201</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.565692</v>
+                  <v>0.556885</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.561594</v>
+                  <v>0.5233179999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.613425</v>
+                  <v>0.578989</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.612919</v>
+                  <v>0.479436</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.610658</v>
+                  <v>0.519162</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.608473</v>
+                  <v>0.528384</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.603761</v>
+                  <v>0.643211</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.597935</v>
+                  <v>0.658995</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.592202</v>
+                  <v>0.645143</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.576383</v>
+                  <v>0.586928</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.571474</v>
+                  <v>0.645697</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.566715</v>
+                  <v>0.541179</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.561721</v>
+                  <v>0.620308</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.5575830000000001</v>
+                  <v>0.588473</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.553014</v>
+                  <v>0.589993</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.549171</v>
+                  <v>0.543297</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.545052</v>
+                  <v>0.534999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.596759</v>
+                  <v>0.512761</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.5939410000000001</v>
+                  <v>0.448639</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.59322</v>
+                  <v>0.435017</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.587608</v>
+                  <v>0.530013</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.586662</v>
+                  <v>0.576993</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.582319</v>
+                  <v>0.541204</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.589678</v>
+                  <v>0.66694</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.582442</v>
+                  <v>0.62802</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.575178</v>
+                  <v>0.583944</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.569093</v>
+                  <v>0.614141</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.561949</v>
+                  <v>0.555276</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.555572</v>
+                  <v>0.511371</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.551267</v>
+                  <v>0.576862</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.543902</v>
+                  <v>0.480908</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.633076</v>
+                  <v>0.52665</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.629854</v>
+                  <v>0.505618</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625909</v>
+                  <v>0.448382</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.620763</v>
+                  <v>0.538455</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.614604</v>
+                  <v>0.636448</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.607636</v>
+                  <v>0.5545330000000001</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.588772</v>
+                  <v>0.616716</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.582799</v>
+                  <v>0.593822</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.576898</v>
+                  <v>0.6556070000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.571161</v>
+                  <v>0.605472</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.566009</v>
+                  <v>0.580134</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.561048</v>
+                  <v>0.560463</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.556024</v>
+                  <v>0.575831</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.553598</v>
+                  <v>0.544732</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.621956</v>
+                  <v>0.5259</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.6133150000000001</v>
+                  <v>0.511047</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.614057</v>
+                  <v>0.489099</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.605488</v>
+                  <v>0.673326</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.6020450000000001</v>
+                  <v>0.667493</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.595938</v>
+                  <v>0.625385</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.605037</v>
+                  <v>0.617272</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.597418</v>
+                  <v>0.634646</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.589117</v>
+                  <v>0.628295</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.226068</v>
+                  <v>0.389516</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.226333</v>
+                  <v>0.390701</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.229047</v>
+                  <v>0.391717</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.23253</v>
+                  <v>0.393086</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.232609</v>
+                  <v>0.393905</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.234378</v>
+                  <v>0.389072</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.237206</v>
+                  <v>0.393271</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.254581</v>
+                  <v>0.393805</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.254132</v>
+                  <v>0.39438</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.253571</v>
+                  <v>0.394654</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.253209</v>
+                  <v>0.394766</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.252703</v>
+                  <v>0.393833</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.252244</v>
+                  <v>0.39934</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.251505</v>
+                  <v>0.398504</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.251565</v>
+                  <v>0.399838</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.251511</v>
+                  <v>0.401999</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.250981</v>
+                  <v>0.403119</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.249266</v>
+                  <v>0.403292</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.250155</v>
+                  <v>0.405603</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.249088</v>
+                  <v>0.399725</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.247882</v>
+                  <v>0.398444</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.266868</v>
+                  <v>0.398548</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.26282</v>
+                  <v>0.401809</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.260863</v>
+                  <v>0.401074</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.259736</v>
+                  <v>0.401881</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.25815</v>
+                  <v>0.403642</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.256878</v>
+                  <v>0.403213</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.256521</v>
+                  <v>0.404407</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.255966</v>
+                  <v>0.404633</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.255023</v>
+                  <v>0.406448</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.25413</v>
+                  <v>0.4071</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.25312</v>
+                  <v>0.406954</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.253902</v>
+                  <v>0.40899</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.252869</v>
+                  <v>0.406337</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.251118</v>
+                  <v>0.40627</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.265615</v>
+                  <v>0.407207</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.264087</v>
+                  <v>0.405519</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.260973</v>
+                  <v>0.40361</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.260324</v>
+                  <v>0.404042</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.25871</v>
+                  <v>0.403632</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.257703</v>
+                  <v>0.404445</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.256919</v>
+                  <v>0.408436</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.255654</v>
+                  <v>0.405441</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.2541</v>
+                  <v>0.406137</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.253507</v>
+                  <v>0.408715</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.253337</v>
+                  <v>0.408193</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.253354</v>
+                  <v>0.409787</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.25192</v>
+                  <v>0.411942</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.25178</v>
+                  <v>0.408577</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.267489</v>
+                  <v>0.408463</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.265469</v>
+                  <v>0.410262</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.262883</v>
+                  <v>0.408206</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.260608</v>
+                  <v>0.410537</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.259213</v>
+                  <v>0.411471</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.258072</v>
+                  <v>0.414727</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.257414</v>
+                  <v>0.414126</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.256665</v>
+                  <v>0.417879</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.255709</v>
+                  <v>0.419717</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.254769</v>
+                  <v>0.423893</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.253237</v>
+                  <v>0.420702</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.253552</v>
+                  <v>0.427675</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252615</v>
+                  <v>0.433261</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.251119</v>
+                  <v>0.458727</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.253172</v>
+                  <v>0.471104</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.265497</v>
+                  <v>0.47519</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.263457</v>
+                  <v>0.484128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261573</v>
+                  <v>0.487496</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.259985</v>
+                  <v>0.495097</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.258727</v>
+                  <v>0.499432</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.25775</v>
+                  <v>0.529281</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.256628</v>
+                  <v>0.511998</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.255581</v>
+                  <v>0.5148779999999999</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.254613</v>
+                  <v>0.5176230000000001</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.254261</v>
+                  <v>0.516315</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.25354</v>
+                  <v>0.520167</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.252424</v>
+                  <v>0.521076</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.252022</v>
+                  <v>0.600036</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.250927</v>
+                  <v>0.587954</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.266051</v>
+                  <v>0.601562</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263854</v>
+                  <v>0.593128</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.261933</v>
+                  <v>0.589492</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260484</v>
+                  <v>0.585517</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258903</v>
+                  <v>0.59388</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.258189</v>
+                  <v>0.57873</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.256804</v>
+                  <v>0.580958</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.25586</v>
+                  <v>0.576641</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.254817</v>
+                  <v>0.570927</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.254854</v>
+                  <v>0.567537</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.253031</v>
+                  <v>0.565855</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.253018</v>
+                  <v>0.560324</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.252563</v>
+                  <v>0.614776</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.252355</v>
+                  <v>0.6152030000000001</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.266559</v>
+                  <v>0.608864</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.264797</v>
+                  <v>0.597477</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.262239</v>
+                  <v>0.593957</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.260653</v>
+                  <v>0.592662</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.259198</v>
+                  <v>0.585966</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.25794</v>
+                  <v>0.58144</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.256883</v>
+                  <v>0.570412</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.255761</v>
+                  <v>0.564104</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.254976</v>
+                  <v>0.560355</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.255224</v>
+                  <v>0.556536</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.25472</v>
+                  <v>0.555915</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.254198</v>
+                  <v>0.547295</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.253478</v>
+                  <v>0.544727</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.253071</v>
+                  <v>0.587746</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.266906</v>
+                  <v>0.613332</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265078</v>
+                  <v>0.610268</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.263032</v>
+                  <v>0.584809</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.261007</v>
+                  <v>0.585887</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.259499</v>
+                  <v>0.585311</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.25831</v>
+                  <v>0.5702390000000001</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.257251</v>
+                  <v>0.566925</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.256027</v>
+                  <v>0.564671</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.255093</v>
+                  <v>0.559202</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.254283</v>
+                  <v>0.553534</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.254206</v>
+                  <v>0.549975</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.253201</v>
+                  <v>0.548881</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.253159</v>
+                  <v>0.54344</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.252738</v>
+                  <v>0.603159</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.252553</v>
+                  <v>0.6230290000000001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.264585</v>
+                  <v>0.6029600000000001</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.262399</v>
+                  <v>0.616208</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.260936</v>
+                  <v>0.6115390000000001</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.25961</v>
+                  <v>0.604132</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.258216</v>
+                  <v>0.6004930000000001</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.257062</v>
+                  <v>0.585494</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.256253</v>
+                  <v>0.5851420000000001</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.25524</v>
+                  <v>0.573834</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.254532</v>
+                  <v>0.569303</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.254453</v>
+                  <v>0.563717</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.253771</v>
+                  <v>0.558149</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.253253</v>
+                  <v>0.552806</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.252479</v>
+                  <v>0.611955</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.252221</v>
+                  <v>0.614443</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.265292</v>
+                  <v>0.628389</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.263569</v>
+                  <v>0.610544</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.26146</v>
+                  <v>0.603391</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.260234</v>
+                  <v>0.604245</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.25916</v>
+                  <v>0.603734</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.257831</v>
+                  <v>0.597106</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.256813</v>
+                  <v>0.589096</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.414283</v>
+                  <v>0.223535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.414761</v>
+                  <v>0.225315</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.413848</v>
+                  <v>0.228017</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.413424</v>
+                  <v>0.234254</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.41365</v>
+                  <v>0.233699</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.413082</v>
+                  <v>0.236145</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.41272</v>
+                  <v>0.237079</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.428002</v>
+                  <v>0.255446</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.427685</v>
+                  <v>0.25521</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.425144</v>
+                  <v>0.254676</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.425569</v>
+                  <v>0.253505</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.42419</v>
+                  <v>0.253353</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.424015</v>
+                  <v>0.252208</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.422362</v>
+                  <v>0.251513</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.421835</v>
+                  <v>0.252197</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.420761</v>
+                  <v>0.251738</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.419703</v>
+                  <v>0.250755</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.419617</v>
+                  <v>0.250548</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.418813</v>
+                  <v>0.250234</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.418509</v>
+                  <v>0.248203</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.417905</v>
+                  <v>0.249536</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.432892</v>
+                  <v>0.266625</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.431914</v>
+                  <v>0.264479</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.430324</v>
+                  <v>0.261351</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.4287</v>
+                  <v>0.260099</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.427064</v>
+                  <v>0.258802</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.426375</v>
+                  <v>0.257713</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.425333</v>
+                  <v>0.256851</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.424296</v>
+                  <v>0.256242</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.423026</v>
+                  <v>0.254968</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.422058</v>
+                  <v>0.254825</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.420994</v>
+                  <v>0.256803</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.420209</v>
+                  <v>0.25661</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.419318</v>
+                  <v>0.25176</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.417324</v>
+                  <v>0.249757</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.434069</v>
+                  <v>0.267391</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.432391</v>
+                  <v>0.264648</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.430665</v>
+                  <v>0.261145</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.43102</v>
+                  <v>0.260435</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.428711</v>
+                  <v>0.259022</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.427594</v>
+                  <v>0.257596</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.426342</v>
+                  <v>0.257147</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.425867</v>
+                  <v>0.255769</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.42447</v>
+                  <v>0.253947</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.423252</v>
+                  <v>0.252876</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.42237</v>
+                  <v>0.252434</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.421807</v>
+                  <v>0.252277</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.420899</v>
+                  <v>0.252241</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.419824</v>
+                  <v>0.250723</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.435225</v>
+                  <v>0.267658</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.434197</v>
+                  <v>0.264753</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.432408</v>
+                  <v>0.26329</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.430775</v>
+                  <v>0.260298</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.429285</v>
+                  <v>0.25929</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.427874</v>
+                  <v>0.25796</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.426856</v>
+                  <v>0.257224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.425929</v>
+                  <v>0.256327</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.425175</v>
+                  <v>0.255346</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.424734</v>
+                  <v>0.254381</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.423599</v>
+                  <v>0.253697</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.422383</v>
+                  <v>0.252799</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.421499</v>
+                  <v>0.251889</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.420851</v>
+                  <v>0.252918</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.419654</v>
+                  <v>0.251498</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.43482</v>
+                  <v>0.265621</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.432971</v>
+                  <v>0.263313</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.431731</v>
+                  <v>0.261686</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.43059</v>
+                  <v>0.259584</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.429269</v>
+                  <v>0.258373</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.428012</v>
+                  <v>0.257502</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.427357</v>
+                  <v>0.256103</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.425977</v>
+                  <v>0.254983</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.425175</v>
+                  <v>0.254176</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.424049</v>
+                  <v>0.254023</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.422969</v>
+                  <v>0.252743</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.422019</v>
+                  <v>0.252311</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.421335</v>
+                  <v>0.252021</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.420404</v>
+                  <v>0.251262</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.435043</v>
+                  <v>0.266403</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.433435</v>
+                  <v>0.263825</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.432089</v>
+                  <v>0.261576</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.430542</v>
+                  <v>0.260096</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.4294</v>
+                  <v>0.258974</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.428085</v>
+                  <v>0.257875</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.426935</v>
+                  <v>0.256578</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.425891</v>
+                  <v>0.255426</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.425061</v>
+                  <v>0.25452</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.424061</v>
+                  <v>0.254177</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.423073</v>
+                  <v>0.253463</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.421931</v>
+                  <v>0.252836</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.420966</v>
+                  <v>0.252339</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.420163</v>
+                  <v>0.25201</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.435384</v>
+                  <v>0.266658</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.433767</v>
+                  <v>0.264236</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.43259</v>
+                  <v>0.262217</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.431208</v>
+                  <v>0.260637</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.430025</v>
+                  <v>0.259187</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.428951</v>
+                  <v>0.257817</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.427625</v>
+                  <v>0.256647</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.426723</v>
+                  <v>0.255463</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.425669</v>
+                  <v>0.25484</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.424518</v>
+                  <v>0.253813</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.423811</v>
+                  <v>0.25396</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.422952</v>
+                  <v>0.253284</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421953</v>
+                  <v>0.253056</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.421049</v>
+                  <v>0.252281</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.436229</v>
+                  <v>0.267032</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.434521</v>
+                  <v>0.264633</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.433406</v>
+                  <v>0.262853</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.431711</v>
+                  <v>0.261257</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.430296</v>
+                  <v>0.259401</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.428839</v>
+                  <v>0.258228</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.427885</v>
+                  <v>0.256983</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.426296</v>
+                  <v>0.255795</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.425521</v>
+                  <v>0.254865</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.424442</v>
+                  <v>0.253918</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.423462</v>
+                  <v>0.253751</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.422627</v>
+                  <v>0.252998</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.421579</v>
+                  <v>0.252306</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.421069</v>
+                  <v>0.252118</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.419907</v>
+                  <v>0.251481</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.434809</v>
+                  <v>0.265053</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.433241</v>
+                  <v>0.262843</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.432062</v>
+                  <v>0.261099</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.430486</v>
+                  <v>0.259599</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.429538</v>
+                  <v>0.25828</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.428192</v>
+                  <v>0.257111</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.426887</v>
+                  <v>0.256113</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.426228</v>
+                  <v>0.25519</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.424713</v>
+                  <v>0.254442</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.423914</v>
+                  <v>0.253729</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.423095</v>
+                  <v>0.253068</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.422164</v>
+                  <v>0.25247</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.421185</v>
+                  <v>0.251933</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.420969</v>
+                  <v>0.251555</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.435186</v>
+                  <v>0.265523</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.433637</v>
+                  <v>0.263367</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.432068</v>
+                  <v>0.26176</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.430774</v>
+                  <v>0.260271</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.429345</v>
+                  <v>0.258956</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.428082</v>
+                  <v>0.257728</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.426698</v>
+                  <v>0.256705</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.417187</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.414782</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.415058</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.415066</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.4143</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.413523</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.413478</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.426704</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.42711</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.42616</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.423496</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.424936</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.423588</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.423554</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.420884</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.421546</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.421719</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.420161</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.418805</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.419386</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.41875</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.43167</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.4308</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.429576</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.427995</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.427041</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.426827</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.425832</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.424855</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.423485</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.422811</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.421934</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.4215</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.420201</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.419127</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.434044</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.431921</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.430575</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.430442</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.428674</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.427805</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.426849</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.426053</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.425131</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.423461</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.422967</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.422371</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.421588</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.420648</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.434547</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.433416</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.431965</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.430641</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.428902</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.427992</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.42727</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.426297</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.425404</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.424964</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.424107</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.423137</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.422237</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.421647</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.421123</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.433602</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.432059</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.431812</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.429714</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.428594</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.427645</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.42656</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.425652</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.424522</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.424125</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.423088</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.423072</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.421531</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.420891</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.434109</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.432912</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.431363</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.430255</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.429098</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.428505</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.427995</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.426645</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.425618</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.42518</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.424708</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.423067</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.423238</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.422689</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.435175</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.432593</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.431464</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.430891</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.429367</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.427849</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.426865</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.427541</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.426459</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.425603</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.423744</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.423048</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.422426</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.421648</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.434601</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.434191</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.432932</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.430689</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.429549</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.428425</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.428225</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.426818</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.426287</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.424598</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.42375</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.423803</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.423307</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.421576</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.42092</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.433305</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.431953</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.431555</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.43033</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.42925</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.427491</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.426185</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.426143</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.424395</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.423376</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.422903</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.422043</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.422299</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.420716</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.433659</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.432524</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.431206</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.429849</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.428646</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.427531</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.426744</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3750,6 +4652,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="0.9"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3792,7 +4695,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5045,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5061,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276308</v>
+        <v>0.272346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455945</v>
+        <v>0.455327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389516</v>
+        <v>0.389629</v>
       </c>
       <c r="E2" t="n">
-        <v>0.223535</v>
+        <v>0.225197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.417187</v>
+        <v>0.41868</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.272473</v>
+        <v>0.269812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.459888</v>
+        <v>0.449962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390701</v>
+        <v>0.390834</v>
       </c>
       <c r="E3" t="n">
-        <v>0.225315</v>
+        <v>0.227552</v>
       </c>
       <c r="F3" t="n">
-        <v>0.414782</v>
+        <v>0.415323</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261177</v>
+        <v>0.258997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.450099</v>
+        <v>0.449795</v>
       </c>
       <c r="D4" t="n">
-        <v>0.391717</v>
+        <v>0.393093</v>
       </c>
       <c r="E4" t="n">
-        <v>0.228017</v>
+        <v>0.228178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.415058</v>
+        <v>0.415211</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248314</v>
+        <v>0.246869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.430616</v>
+        <v>0.435387</v>
       </c>
       <c r="D5" t="n">
-        <v>0.393086</v>
+        <v>0.393962</v>
       </c>
       <c r="E5" t="n">
-        <v>0.234254</v>
+        <v>0.231715</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415066</v>
+        <v>0.415335</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234685</v>
+        <v>0.236963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.421363</v>
+        <v>0.42687</v>
       </c>
       <c r="D6" t="n">
-        <v>0.393905</v>
+        <v>0.394063</v>
       </c>
       <c r="E6" t="n">
-        <v>0.233699</v>
+        <v>0.233624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4143</v>
+        <v>0.414597</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22468</v>
+        <v>0.224659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.408074</v>
+        <v>0.412537</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389072</v>
+        <v>0.389046</v>
       </c>
       <c r="E7" t="n">
-        <v>0.236145</v>
+        <v>0.236648</v>
       </c>
       <c r="F7" t="n">
-        <v>0.413523</v>
+        <v>0.414316</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206617</v>
+        <v>0.206629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.393708</v>
+        <v>0.399681</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393271</v>
+        <v>0.393055</v>
       </c>
       <c r="E8" t="n">
-        <v>0.237079</v>
+        <v>0.238408</v>
       </c>
       <c r="F8" t="n">
-        <v>0.413478</v>
+        <v>0.414176</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.191864</v>
+        <v>0.190154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.380975</v>
+        <v>0.386278</v>
       </c>
       <c r="D9" t="n">
-        <v>0.393805</v>
+        <v>0.394013</v>
       </c>
       <c r="E9" t="n">
-        <v>0.255446</v>
+        <v>0.253275</v>
       </c>
       <c r="F9" t="n">
-        <v>0.426704</v>
+        <v>0.427313</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340842</v>
+        <v>0.339924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5159010000000001</v>
+        <v>0.520146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.39438</v>
+        <v>0.394137</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25521</v>
+        <v>0.253967</v>
       </c>
       <c r="F10" t="n">
-        <v>0.42711</v>
+        <v>0.427941</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.334478</v>
+        <v>0.334582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.510457</v>
+        <v>0.511672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.394654</v>
+        <v>0.393227</v>
       </c>
       <c r="E11" t="n">
-        <v>0.254676</v>
+        <v>0.253553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.42616</v>
+        <v>0.427083</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.326732</v>
+        <v>0.32637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.506184</v>
+        <v>0.506078</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394766</v>
+        <v>0.394652</v>
       </c>
       <c r="E12" t="n">
-        <v>0.253505</v>
+        <v>0.252775</v>
       </c>
       <c r="F12" t="n">
-        <v>0.423496</v>
+        <v>0.42408</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.321795</v>
+        <v>0.320602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.498863</v>
+        <v>0.502177</v>
       </c>
       <c r="D13" t="n">
-        <v>0.393833</v>
+        <v>0.394399</v>
       </c>
       <c r="E13" t="n">
-        <v>0.253353</v>
+        <v>0.254478</v>
       </c>
       <c r="F13" t="n">
-        <v>0.424936</v>
+        <v>0.426104</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.314147</v>
+        <v>0.312893</v>
       </c>
       <c r="C14" t="n">
-        <v>0.490459</v>
+        <v>0.490189</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39934</v>
+        <v>0.39948</v>
       </c>
       <c r="E14" t="n">
-        <v>0.252208</v>
+        <v>0.251911</v>
       </c>
       <c r="F14" t="n">
-        <v>0.423588</v>
+        <v>0.423804</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304915</v>
+        <v>0.304401</v>
       </c>
       <c r="C15" t="n">
-        <v>0.483121</v>
+        <v>0.483206</v>
       </c>
       <c r="D15" t="n">
-        <v>0.398504</v>
+        <v>0.39796</v>
       </c>
       <c r="E15" t="n">
-        <v>0.251513</v>
+        <v>0.250493</v>
       </c>
       <c r="F15" t="n">
-        <v>0.423554</v>
+        <v>0.42461</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.297684</v>
+        <v>0.296138</v>
       </c>
       <c r="C16" t="n">
-        <v>0.471675</v>
+        <v>0.472479</v>
       </c>
       <c r="D16" t="n">
-        <v>0.399838</v>
+        <v>0.399379</v>
       </c>
       <c r="E16" t="n">
-        <v>0.252197</v>
+        <v>0.251943</v>
       </c>
       <c r="F16" t="n">
-        <v>0.420884</v>
+        <v>0.421334</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.28667</v>
+        <v>0.285829</v>
       </c>
       <c r="C17" t="n">
-        <v>0.465556</v>
+        <v>0.46613</v>
       </c>
       <c r="D17" t="n">
-        <v>0.401999</v>
+        <v>0.401698</v>
       </c>
       <c r="E17" t="n">
-        <v>0.251738</v>
+        <v>0.250289</v>
       </c>
       <c r="F17" t="n">
-        <v>0.421546</v>
+        <v>0.422003</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275189</v>
+        <v>0.274604</v>
       </c>
       <c r="C18" t="n">
-        <v>0.458136</v>
+        <v>0.455529</v>
       </c>
       <c r="D18" t="n">
-        <v>0.403119</v>
+        <v>0.402716</v>
       </c>
       <c r="E18" t="n">
-        <v>0.250755</v>
+        <v>0.251398</v>
       </c>
       <c r="F18" t="n">
-        <v>0.421719</v>
+        <v>0.421759</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263768</v>
+        <v>0.263078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.44919</v>
+        <v>0.449449</v>
       </c>
       <c r="D19" t="n">
-        <v>0.403292</v>
+        <v>0.404143</v>
       </c>
       <c r="E19" t="n">
-        <v>0.250548</v>
+        <v>0.250964</v>
       </c>
       <c r="F19" t="n">
-        <v>0.420161</v>
+        <v>0.421088</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250349</v>
+        <v>0.250373</v>
       </c>
       <c r="C20" t="n">
-        <v>0.432283</v>
+        <v>0.432608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405603</v>
+        <v>0.40448</v>
       </c>
       <c r="E20" t="n">
-        <v>0.250234</v>
+        <v>0.249437</v>
       </c>
       <c r="F20" t="n">
-        <v>0.418805</v>
+        <v>0.418855</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241751</v>
+        <v>0.24242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.417343</v>
+        <v>0.417629</v>
       </c>
       <c r="D21" t="n">
-        <v>0.399725</v>
+        <v>0.399073</v>
       </c>
       <c r="E21" t="n">
-        <v>0.248203</v>
+        <v>0.248332</v>
       </c>
       <c r="F21" t="n">
-        <v>0.419386</v>
+        <v>0.418824</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.230256</v>
+        <v>0.225312</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408672</v>
+        <v>0.408619</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398444</v>
+        <v>0.398421</v>
       </c>
       <c r="E22" t="n">
-        <v>0.249536</v>
+        <v>0.249488</v>
       </c>
       <c r="F22" t="n">
-        <v>0.41875</v>
+        <v>0.418581</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206461</v>
+        <v>0.206704</v>
       </c>
       <c r="C23" t="n">
-        <v>0.392354</v>
+        <v>0.39236</v>
       </c>
       <c r="D23" t="n">
-        <v>0.398548</v>
+        <v>0.397966</v>
       </c>
       <c r="E23" t="n">
-        <v>0.266625</v>
+        <v>0.267401</v>
       </c>
       <c r="F23" t="n">
-        <v>0.43167</v>
+        <v>0.431863</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348831</v>
+        <v>0.348924</v>
       </c>
       <c r="C24" t="n">
-        <v>0.516385</v>
+        <v>0.516846</v>
       </c>
       <c r="D24" t="n">
-        <v>0.401809</v>
+        <v>0.401365</v>
       </c>
       <c r="E24" t="n">
-        <v>0.264479</v>
+        <v>0.264093</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4308</v>
+        <v>0.430655</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342909</v>
+        <v>0.342145</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5194220000000001</v>
+        <v>0.518669</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401074</v>
+        <v>0.401274</v>
       </c>
       <c r="E25" t="n">
-        <v>0.261351</v>
+        <v>0.26148</v>
       </c>
       <c r="F25" t="n">
-        <v>0.429576</v>
+        <v>0.429696</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336258</v>
+        <v>0.336542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511114</v>
+        <v>0.511415</v>
       </c>
       <c r="D26" t="n">
-        <v>0.401881</v>
+        <v>0.401196</v>
       </c>
       <c r="E26" t="n">
-        <v>0.260099</v>
+        <v>0.260281</v>
       </c>
       <c r="F26" t="n">
-        <v>0.427995</v>
+        <v>0.428374</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330993</v>
+        <v>0.332835</v>
       </c>
       <c r="C27" t="n">
-        <v>0.502727</v>
+        <v>0.501667</v>
       </c>
       <c r="D27" t="n">
-        <v>0.403642</v>
+        <v>0.402806</v>
       </c>
       <c r="E27" t="n">
-        <v>0.258802</v>
+        <v>0.258989</v>
       </c>
       <c r="F27" t="n">
-        <v>0.427041</v>
+        <v>0.426977</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322904</v>
+        <v>0.322547</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495248</v>
+        <v>0.495012</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403213</v>
+        <v>0.403005</v>
       </c>
       <c r="E28" t="n">
-        <v>0.257713</v>
+        <v>0.25792</v>
       </c>
       <c r="F28" t="n">
-        <v>0.426827</v>
+        <v>0.427141</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.31401</v>
+        <v>0.314066</v>
       </c>
       <c r="C29" t="n">
-        <v>0.492464</v>
+        <v>0.493009</v>
       </c>
       <c r="D29" t="n">
-        <v>0.404407</v>
+        <v>0.403768</v>
       </c>
       <c r="E29" t="n">
-        <v>0.256851</v>
+        <v>0.257683</v>
       </c>
       <c r="F29" t="n">
-        <v>0.425832</v>
+        <v>0.426286</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30641</v>
+        <v>0.305506</v>
       </c>
       <c r="C30" t="n">
-        <v>0.473702</v>
+        <v>0.470029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.404633</v>
+        <v>0.405634</v>
       </c>
       <c r="E30" t="n">
-        <v>0.256242</v>
+        <v>0.257374</v>
       </c>
       <c r="F30" t="n">
-        <v>0.424855</v>
+        <v>0.424913</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296668</v>
+        <v>0.296171</v>
       </c>
       <c r="C31" t="n">
-        <v>0.465723</v>
+        <v>0.465921</v>
       </c>
       <c r="D31" t="n">
-        <v>0.406448</v>
+        <v>0.405918</v>
       </c>
       <c r="E31" t="n">
-        <v>0.254968</v>
+        <v>0.2556</v>
       </c>
       <c r="F31" t="n">
-        <v>0.423485</v>
+        <v>0.423711</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285113</v>
+        <v>0.284467</v>
       </c>
       <c r="C32" t="n">
-        <v>0.45842</v>
+        <v>0.463334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4071</v>
+        <v>0.406692</v>
       </c>
       <c r="E32" t="n">
-        <v>0.254825</v>
+        <v>0.254989</v>
       </c>
       <c r="F32" t="n">
-        <v>0.422811</v>
+        <v>0.422714</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272462</v>
+        <v>0.272533</v>
       </c>
       <c r="C33" t="n">
-        <v>0.446528</v>
+        <v>0.447129</v>
       </c>
       <c r="D33" t="n">
-        <v>0.406954</v>
+        <v>0.406881</v>
       </c>
       <c r="E33" t="n">
-        <v>0.256803</v>
+        <v>0.256689</v>
       </c>
       <c r="F33" t="n">
-        <v>0.421934</v>
+        <v>0.421952</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261478</v>
+        <v>0.261034</v>
       </c>
       <c r="C34" t="n">
-        <v>0.443223</v>
+        <v>0.442975</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40899</v>
+        <v>0.407874</v>
       </c>
       <c r="E34" t="n">
-        <v>0.25661</v>
+        <v>0.257309</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4215</v>
+        <v>0.421474</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247923</v>
+        <v>0.248061</v>
       </c>
       <c r="C35" t="n">
-        <v>0.423417</v>
+        <v>0.424348</v>
       </c>
       <c r="D35" t="n">
-        <v>0.406337</v>
+        <v>0.408812</v>
       </c>
       <c r="E35" t="n">
-        <v>0.25176</v>
+        <v>0.251925</v>
       </c>
       <c r="F35" t="n">
-        <v>0.420201</v>
+        <v>0.419992</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232936</v>
+        <v>0.232523</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413107</v>
+        <v>0.413419</v>
       </c>
       <c r="D36" t="n">
-        <v>0.40627</v>
+        <v>0.406063</v>
       </c>
       <c r="E36" t="n">
-        <v>0.249757</v>
+        <v>0.25001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.419127</v>
+        <v>0.418897</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.217333</v>
+        <v>0.216938</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402322</v>
+        <v>0.402063</v>
       </c>
       <c r="D37" t="n">
-        <v>0.407207</v>
+        <v>0.407414</v>
       </c>
       <c r="E37" t="n">
-        <v>0.267391</v>
+        <v>0.266983</v>
       </c>
       <c r="F37" t="n">
-        <v>0.434044</v>
+        <v>0.43393</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354377</v>
+        <v>0.354916</v>
       </c>
       <c r="C38" t="n">
-        <v>0.526613</v>
+        <v>0.527362</v>
       </c>
       <c r="D38" t="n">
-        <v>0.405519</v>
+        <v>0.40558</v>
       </c>
       <c r="E38" t="n">
-        <v>0.264648</v>
+        <v>0.265021</v>
       </c>
       <c r="F38" t="n">
-        <v>0.431921</v>
+        <v>0.431998</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.349238</v>
+        <v>0.349682</v>
       </c>
       <c r="C39" t="n">
-        <v>0.522306</v>
+        <v>0.521707</v>
       </c>
       <c r="D39" t="n">
-        <v>0.40361</v>
+        <v>0.405583</v>
       </c>
       <c r="E39" t="n">
-        <v>0.261145</v>
+        <v>0.261299</v>
       </c>
       <c r="F39" t="n">
-        <v>0.430575</v>
+        <v>0.430479</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.343866</v>
+        <v>0.344015</v>
       </c>
       <c r="C40" t="n">
-        <v>0.51601</v>
+        <v>0.51579</v>
       </c>
       <c r="D40" t="n">
-        <v>0.404042</v>
+        <v>0.406369</v>
       </c>
       <c r="E40" t="n">
-        <v>0.260435</v>
+        <v>0.260584</v>
       </c>
       <c r="F40" t="n">
-        <v>0.430442</v>
+        <v>0.430525</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.337161</v>
+        <v>0.336977</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5091560000000001</v>
+        <v>0.509339</v>
       </c>
       <c r="D41" t="n">
-        <v>0.403632</v>
+        <v>0.405752</v>
       </c>
       <c r="E41" t="n">
-        <v>0.259022</v>
+        <v>0.259295</v>
       </c>
       <c r="F41" t="n">
-        <v>0.428674</v>
+        <v>0.428787</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.329994</v>
+        <v>0.32994</v>
       </c>
       <c r="C42" t="n">
-        <v>0.501071</v>
+        <v>0.497843</v>
       </c>
       <c r="D42" t="n">
-        <v>0.404445</v>
+        <v>0.406457</v>
       </c>
       <c r="E42" t="n">
-        <v>0.257596</v>
+        <v>0.257978</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427805</v>
+        <v>0.427963</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321247</v>
+        <v>0.320957</v>
       </c>
       <c r="C43" t="n">
-        <v>0.488721</v>
+        <v>0.488709</v>
       </c>
       <c r="D43" t="n">
-        <v>0.408436</v>
+        <v>0.407437</v>
       </c>
       <c r="E43" t="n">
-        <v>0.257147</v>
+        <v>0.256853</v>
       </c>
       <c r="F43" t="n">
-        <v>0.426849</v>
+        <v>0.426466</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311818</v>
+        <v>0.312324</v>
       </c>
       <c r="C44" t="n">
-        <v>0.485602</v>
+        <v>0.485232</v>
       </c>
       <c r="D44" t="n">
-        <v>0.405441</v>
+        <v>0.408152</v>
       </c>
       <c r="E44" t="n">
-        <v>0.255769</v>
+        <v>0.255846</v>
       </c>
       <c r="F44" t="n">
-        <v>0.426053</v>
+        <v>0.42571</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30175</v>
+        <v>0.301906</v>
       </c>
       <c r="C45" t="n">
-        <v>0.476369</v>
+        <v>0.474197</v>
       </c>
       <c r="D45" t="n">
-        <v>0.406137</v>
+        <v>0.410196</v>
       </c>
       <c r="E45" t="n">
-        <v>0.253947</v>
+        <v>0.254129</v>
       </c>
       <c r="F45" t="n">
-        <v>0.425131</v>
+        <v>0.424896</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290465</v>
+        <v>0.290698</v>
       </c>
       <c r="C46" t="n">
-        <v>0.471068</v>
+        <v>0.467157</v>
       </c>
       <c r="D46" t="n">
-        <v>0.408715</v>
+        <v>0.410086</v>
       </c>
       <c r="E46" t="n">
-        <v>0.252876</v>
+        <v>0.252888</v>
       </c>
       <c r="F46" t="n">
-        <v>0.423461</v>
+        <v>0.423295</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279577</v>
+        <v>0.279796</v>
       </c>
       <c r="C47" t="n">
-        <v>0.463861</v>
+        <v>0.456765</v>
       </c>
       <c r="D47" t="n">
-        <v>0.408193</v>
+        <v>0.411567</v>
       </c>
       <c r="E47" t="n">
-        <v>0.252434</v>
+        <v>0.253138</v>
       </c>
       <c r="F47" t="n">
-        <v>0.422967</v>
+        <v>0.422717</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267217</v>
+        <v>0.267189</v>
       </c>
       <c r="C48" t="n">
-        <v>0.444975</v>
+        <v>0.444733</v>
       </c>
       <c r="D48" t="n">
-        <v>0.409787</v>
+        <v>0.411921</v>
       </c>
       <c r="E48" t="n">
-        <v>0.252277</v>
+        <v>0.252393</v>
       </c>
       <c r="F48" t="n">
-        <v>0.422371</v>
+        <v>0.422157</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253558</v>
+        <v>0.253292</v>
       </c>
       <c r="C49" t="n">
-        <v>0.433646</v>
+        <v>0.431035</v>
       </c>
       <c r="D49" t="n">
-        <v>0.411942</v>
+        <v>0.413776</v>
       </c>
       <c r="E49" t="n">
-        <v>0.252241</v>
+        <v>0.25286</v>
       </c>
       <c r="F49" t="n">
-        <v>0.421588</v>
+        <v>0.421617</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238696</v>
+        <v>0.238716</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425576</v>
+        <v>0.418151</v>
       </c>
       <c r="D50" t="n">
-        <v>0.408577</v>
+        <v>0.423173</v>
       </c>
       <c r="E50" t="n">
-        <v>0.250723</v>
+        <v>0.252545</v>
       </c>
       <c r="F50" t="n">
-        <v>0.420648</v>
+        <v>0.420947</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222812</v>
+        <v>0.222737</v>
       </c>
       <c r="C51" t="n">
-        <v>0.40257</v>
+        <v>0.402754</v>
       </c>
       <c r="D51" t="n">
-        <v>0.408463</v>
+        <v>0.411879</v>
       </c>
       <c r="E51" t="n">
-        <v>0.267658</v>
+        <v>0.267634</v>
       </c>
       <c r="F51" t="n">
-        <v>0.434547</v>
+        <v>0.434643</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207145</v>
+        <v>0.207277</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384383</v>
+        <v>0.384032</v>
       </c>
       <c r="D52" t="n">
-        <v>0.410262</v>
+        <v>0.411951</v>
       </c>
       <c r="E52" t="n">
-        <v>0.264753</v>
+        <v>0.265018</v>
       </c>
       <c r="F52" t="n">
-        <v>0.433416</v>
+        <v>0.433929</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353521</v>
+        <v>0.353548</v>
       </c>
       <c r="C53" t="n">
-        <v>0.522494</v>
+        <v>0.523112</v>
       </c>
       <c r="D53" t="n">
-        <v>0.408206</v>
+        <v>0.412016</v>
       </c>
       <c r="E53" t="n">
-        <v>0.26329</v>
+        <v>0.262834</v>
       </c>
       <c r="F53" t="n">
-        <v>0.431965</v>
+        <v>0.432263</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347549</v>
+        <v>0.347278</v>
       </c>
       <c r="C54" t="n">
-        <v>0.517176</v>
+        <v>0.517844</v>
       </c>
       <c r="D54" t="n">
-        <v>0.410537</v>
+        <v>0.413923</v>
       </c>
       <c r="E54" t="n">
-        <v>0.260298</v>
+        <v>0.260253</v>
       </c>
       <c r="F54" t="n">
-        <v>0.430641</v>
+        <v>0.431043</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.340853</v>
+        <v>0.34099</v>
       </c>
       <c r="C55" t="n">
-        <v>0.515221</v>
+        <v>0.51564</v>
       </c>
       <c r="D55" t="n">
-        <v>0.411471</v>
+        <v>0.41548</v>
       </c>
       <c r="E55" t="n">
-        <v>0.25929</v>
+        <v>0.258877</v>
       </c>
       <c r="F55" t="n">
-        <v>0.428902</v>
+        <v>0.429116</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334051</v>
+        <v>0.334234</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5016659999999999</v>
+        <v>0.5044149999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.414727</v>
+        <v>0.417043</v>
       </c>
       <c r="E56" t="n">
-        <v>0.25796</v>
+        <v>0.258167</v>
       </c>
       <c r="F56" t="n">
-        <v>0.427992</v>
+        <v>0.428223</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.326042</v>
+        <v>0.325864</v>
       </c>
       <c r="C57" t="n">
-        <v>0.506229</v>
+        <v>0.504354</v>
       </c>
       <c r="D57" t="n">
-        <v>0.414126</v>
+        <v>0.417269</v>
       </c>
       <c r="E57" t="n">
-        <v>0.257224</v>
+        <v>0.256948</v>
       </c>
       <c r="F57" t="n">
-        <v>0.42727</v>
+        <v>0.427294</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316256</v>
+        <v>0.316934</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503853</v>
+        <v>0.503741</v>
       </c>
       <c r="D58" t="n">
-        <v>0.417879</v>
+        <v>0.420621</v>
       </c>
       <c r="E58" t="n">
-        <v>0.256327</v>
+        <v>0.256264</v>
       </c>
       <c r="F58" t="n">
-        <v>0.426297</v>
+        <v>0.426081</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306745</v>
+        <v>0.306967</v>
       </c>
       <c r="C59" t="n">
-        <v>0.490289</v>
+        <v>0.488419</v>
       </c>
       <c r="D59" t="n">
-        <v>0.419717</v>
+        <v>0.42225</v>
       </c>
       <c r="E59" t="n">
-        <v>0.255346</v>
+        <v>0.255159</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425404</v>
+        <v>0.425155</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295915</v>
+        <v>0.296627</v>
       </c>
       <c r="C60" t="n">
-        <v>0.490109</v>
+        <v>0.489037</v>
       </c>
       <c r="D60" t="n">
-        <v>0.423893</v>
+        <v>0.425164</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254381</v>
+        <v>0.254187</v>
       </c>
       <c r="F60" t="n">
-        <v>0.424964</v>
+        <v>0.424604</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284355</v>
+        <v>0.285073</v>
       </c>
       <c r="C61" t="n">
-        <v>0.484226</v>
+        <v>0.480878</v>
       </c>
       <c r="D61" t="n">
-        <v>0.420702</v>
+        <v>0.424396</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253697</v>
+        <v>0.253912</v>
       </c>
       <c r="F61" t="n">
-        <v>0.424107</v>
+        <v>0.4238</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271986</v>
+        <v>0.272103</v>
       </c>
       <c r="C62" t="n">
-        <v>0.469635</v>
+        <v>0.46733</v>
       </c>
       <c r="D62" t="n">
-        <v>0.427675</v>
+        <v>0.42918</v>
       </c>
       <c r="E62" t="n">
-        <v>0.252799</v>
+        <v>0.252735</v>
       </c>
       <c r="F62" t="n">
-        <v>0.423137</v>
+        <v>0.422961</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258241</v>
+        <v>0.25853</v>
       </c>
       <c r="C63" t="n">
-        <v>0.44124</v>
+        <v>0.439923</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433261</v>
+        <v>0.433539</v>
       </c>
       <c r="E63" t="n">
-        <v>0.251889</v>
+        <v>0.251931</v>
       </c>
       <c r="F63" t="n">
-        <v>0.422237</v>
+        <v>0.421994</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.243793</v>
+        <v>0.244292</v>
       </c>
       <c r="C64" t="n">
-        <v>0.455107</v>
+        <v>0.455376</v>
       </c>
       <c r="D64" t="n">
-        <v>0.458727</v>
+        <v>0.460964</v>
       </c>
       <c r="E64" t="n">
-        <v>0.252918</v>
+        <v>0.252713</v>
       </c>
       <c r="F64" t="n">
-        <v>0.421647</v>
+        <v>0.421413</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.228531</v>
+        <v>0.229266</v>
       </c>
       <c r="C65" t="n">
-        <v>0.433492</v>
+        <v>0.433808</v>
       </c>
       <c r="D65" t="n">
-        <v>0.471104</v>
+        <v>0.471598</v>
       </c>
       <c r="E65" t="n">
-        <v>0.251498</v>
+        <v>0.251349</v>
       </c>
       <c r="F65" t="n">
-        <v>0.421123</v>
+        <v>0.421221</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212144</v>
+        <v>0.212145</v>
       </c>
       <c r="C66" t="n">
-        <v>0.419248</v>
+        <v>0.418068</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47519</v>
+        <v>0.475838</v>
       </c>
       <c r="E66" t="n">
-        <v>0.265621</v>
+        <v>0.265408</v>
       </c>
       <c r="F66" t="n">
-        <v>0.433602</v>
+        <v>0.433777</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356003</v>
+        <v>0.35586</v>
       </c>
       <c r="C67" t="n">
-        <v>0.568439</v>
+        <v>0.565989</v>
       </c>
       <c r="D67" t="n">
-        <v>0.484128</v>
+        <v>0.483297</v>
       </c>
       <c r="E67" t="n">
-        <v>0.263313</v>
+        <v>0.263557</v>
       </c>
       <c r="F67" t="n">
-        <v>0.432059</v>
+        <v>0.432274</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350758</v>
+        <v>0.350277</v>
       </c>
       <c r="C68" t="n">
-        <v>0.571925</v>
+        <v>0.569313</v>
       </c>
       <c r="D68" t="n">
-        <v>0.487496</v>
+        <v>0.487535</v>
       </c>
       <c r="E68" t="n">
-        <v>0.261686</v>
+        <v>0.261756</v>
       </c>
       <c r="F68" t="n">
-        <v>0.431812</v>
+        <v>0.431269</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343885</v>
+        <v>0.343883</v>
       </c>
       <c r="C69" t="n">
-        <v>0.547254</v>
+        <v>0.5471279999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.495097</v>
+        <v>0.497936</v>
       </c>
       <c r="E69" t="n">
-        <v>0.259584</v>
+        <v>0.259687</v>
       </c>
       <c r="F69" t="n">
-        <v>0.429714</v>
+        <v>0.429816</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.33621</v>
+        <v>0.336246</v>
       </c>
       <c r="C70" t="n">
-        <v>0.560281</v>
+        <v>0.559566</v>
       </c>
       <c r="D70" t="n">
-        <v>0.499432</v>
+        <v>0.497974</v>
       </c>
       <c r="E70" t="n">
-        <v>0.258373</v>
+        <v>0.258524</v>
       </c>
       <c r="F70" t="n">
-        <v>0.428594</v>
+        <v>0.428882</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328039</v>
+        <v>0.328472</v>
       </c>
       <c r="C71" t="n">
-        <v>0.508744</v>
+        <v>0.505322</v>
       </c>
       <c r="D71" t="n">
-        <v>0.529281</v>
+        <v>0.523675</v>
       </c>
       <c r="E71" t="n">
-        <v>0.257502</v>
+        <v>0.257513</v>
       </c>
       <c r="F71" t="n">
-        <v>0.427645</v>
+        <v>0.427764</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.318865</v>
+        <v>0.319039</v>
       </c>
       <c r="C72" t="n">
-        <v>0.548719</v>
+        <v>0.5452399999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.511998</v>
+        <v>0.511529</v>
       </c>
       <c r="E72" t="n">
-        <v>0.256103</v>
+        <v>0.256439</v>
       </c>
       <c r="F72" t="n">
-        <v>0.42656</v>
+        <v>0.426826</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309384</v>
+        <v>0.309491</v>
       </c>
       <c r="C73" t="n">
-        <v>0.532125</v>
+        <v>0.527386</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5148779999999999</v>
+        <v>0.515375</v>
       </c>
       <c r="E73" t="n">
-        <v>0.254983</v>
+        <v>0.255282</v>
       </c>
       <c r="F73" t="n">
-        <v>0.425652</v>
+        <v>0.425633</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299053</v>
+        <v>0.298991</v>
       </c>
       <c r="C74" t="n">
-        <v>0.52661</v>
+        <v>0.52323</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5176230000000001</v>
+        <v>0.516987</v>
       </c>
       <c r="E74" t="n">
-        <v>0.254176</v>
+        <v>0.254335</v>
       </c>
       <c r="F74" t="n">
-        <v>0.424522</v>
+        <v>0.424887</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287833</v>
+        <v>0.288126</v>
       </c>
       <c r="C75" t="n">
-        <v>0.52905</v>
+        <v>0.525216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.516315</v>
+        <v>0.520607</v>
       </c>
       <c r="E75" t="n">
-        <v>0.254023</v>
+        <v>0.254359</v>
       </c>
       <c r="F75" t="n">
-        <v>0.424125</v>
+        <v>0.424119</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275528</v>
+        <v>0.275559</v>
       </c>
       <c r="C76" t="n">
-        <v>0.516859</v>
+        <v>0.5180129999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.520167</v>
+        <v>0.518552</v>
       </c>
       <c r="E76" t="n">
-        <v>0.252743</v>
+        <v>0.253056</v>
       </c>
       <c r="F76" t="n">
-        <v>0.423088</v>
+        <v>0.423229</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262685</v>
+        <v>0.26262</v>
       </c>
       <c r="C77" t="n">
-        <v>0.53856</v>
+        <v>0.536555</v>
       </c>
       <c r="D77" t="n">
-        <v>0.521076</v>
+        <v>0.518828</v>
       </c>
       <c r="E77" t="n">
-        <v>0.252311</v>
+        <v>0.252668</v>
       </c>
       <c r="F77" t="n">
-        <v>0.423072</v>
+        <v>0.422675</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248523</v>
+        <v>0.248838</v>
       </c>
       <c r="C78" t="n">
-        <v>0.495061</v>
+        <v>0.491122</v>
       </c>
       <c r="D78" t="n">
-        <v>0.600036</v>
+        <v>0.594841</v>
       </c>
       <c r="E78" t="n">
-        <v>0.252021</v>
+        <v>0.252348</v>
       </c>
       <c r="F78" t="n">
-        <v>0.421531</v>
+        <v>0.421754</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233136</v>
+        <v>0.233392</v>
       </c>
       <c r="C79" t="n">
-        <v>0.48975</v>
+        <v>0.487405</v>
       </c>
       <c r="D79" t="n">
-        <v>0.587954</v>
+        <v>0.585117</v>
       </c>
       <c r="E79" t="n">
-        <v>0.251262</v>
+        <v>0.252156</v>
       </c>
       <c r="F79" t="n">
-        <v>0.420891</v>
+        <v>0.420974</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216154</v>
+        <v>0.216639</v>
       </c>
       <c r="C80" t="n">
-        <v>0.522809</v>
+        <v>0.519826</v>
       </c>
       <c r="D80" t="n">
-        <v>0.601562</v>
+        <v>0.598462</v>
       </c>
       <c r="E80" t="n">
-        <v>0.266403</v>
+        <v>0.266162</v>
       </c>
       <c r="F80" t="n">
-        <v>0.434109</v>
+        <v>0.434136</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35744</v>
+        <v>0.357053</v>
       </c>
       <c r="C81" t="n">
-        <v>0.614301</v>
+        <v>0.6125389999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.593128</v>
+        <v>0.590319</v>
       </c>
       <c r="E81" t="n">
-        <v>0.263825</v>
+        <v>0.263854</v>
       </c>
       <c r="F81" t="n">
-        <v>0.432912</v>
+        <v>0.432836</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351959</v>
+        <v>0.351502</v>
       </c>
       <c r="C82" t="n">
-        <v>0.599032</v>
+        <v>0.597276</v>
       </c>
       <c r="D82" t="n">
-        <v>0.589492</v>
+        <v>0.585214</v>
       </c>
       <c r="E82" t="n">
-        <v>0.261576</v>
+        <v>0.261614</v>
       </c>
       <c r="F82" t="n">
-        <v>0.431363</v>
+        <v>0.431366</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345813</v>
+        <v>0.345866</v>
       </c>
       <c r="C83" t="n">
-        <v>0.581361</v>
+        <v>0.579887</v>
       </c>
       <c r="D83" t="n">
-        <v>0.585517</v>
+        <v>0.5817290000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.260096</v>
+        <v>0.260054</v>
       </c>
       <c r="F83" t="n">
-        <v>0.430255</v>
+        <v>0.430178</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338741</v>
+        <v>0.338659</v>
       </c>
       <c r="C84" t="n">
-        <v>0.638119</v>
+        <v>0.635254</v>
       </c>
       <c r="D84" t="n">
-        <v>0.59388</v>
+        <v>0.5901380000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.258974</v>
+        <v>0.258832</v>
       </c>
       <c r="F84" t="n">
-        <v>0.429098</v>
+        <v>0.429037</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330434</v>
+        <v>0.330791</v>
       </c>
       <c r="C85" t="n">
-        <v>0.601732</v>
+        <v>0.5973889999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.57873</v>
+        <v>0.574226</v>
       </c>
       <c r="E85" t="n">
-        <v>0.257875</v>
+        <v>0.257741</v>
       </c>
       <c r="F85" t="n">
-        <v>0.428505</v>
+        <v>0.428068</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321596</v>
+        <v>0.321623</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6600240000000001</v>
+        <v>0.655758</v>
       </c>
       <c r="D86" t="n">
-        <v>0.580958</v>
+        <v>0.5772</v>
       </c>
       <c r="E86" t="n">
-        <v>0.256578</v>
+        <v>0.256441</v>
       </c>
       <c r="F86" t="n">
-        <v>0.427995</v>
+        <v>0.426859</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.311955</v>
+        <v>0.312285</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6091259999999999</v>
+        <v>0.605693</v>
       </c>
       <c r="D87" t="n">
-        <v>0.576641</v>
+        <v>0.573275</v>
       </c>
       <c r="E87" t="n">
-        <v>0.255426</v>
+        <v>0.255536</v>
       </c>
       <c r="F87" t="n">
-        <v>0.426645</v>
+        <v>0.425938</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299878</v>
+        <v>0.300239</v>
       </c>
       <c r="C88" t="n">
-        <v>0.515002</v>
+        <v>0.512067</v>
       </c>
       <c r="D88" t="n">
-        <v>0.570927</v>
+        <v>0.566455</v>
       </c>
       <c r="E88" t="n">
-        <v>0.25452</v>
+        <v>0.254444</v>
       </c>
       <c r="F88" t="n">
-        <v>0.425618</v>
+        <v>0.425617</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.288523</v>
+        <v>0.288897</v>
       </c>
       <c r="C89" t="n">
-        <v>0.532201</v>
+        <v>0.529232</v>
       </c>
       <c r="D89" t="n">
-        <v>0.567537</v>
+        <v>0.565269</v>
       </c>
       <c r="E89" t="n">
-        <v>0.254177</v>
+        <v>0.254463</v>
       </c>
       <c r="F89" t="n">
-        <v>0.42518</v>
+        <v>0.424419</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276588</v>
+        <v>0.276543</v>
       </c>
       <c r="C90" t="n">
-        <v>0.556885</v>
+        <v>0.552091</v>
       </c>
       <c r="D90" t="n">
-        <v>0.565855</v>
+        <v>0.560454</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253463</v>
+        <v>0.253388</v>
       </c>
       <c r="F90" t="n">
-        <v>0.424708</v>
+        <v>0.423621</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.263519</v>
+        <v>0.2635</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5233179999999999</v>
+        <v>0.494801</v>
       </c>
       <c r="D91" t="n">
-        <v>0.560324</v>
+        <v>0.556939</v>
       </c>
       <c r="E91" t="n">
-        <v>0.252836</v>
+        <v>0.25267</v>
       </c>
       <c r="F91" t="n">
-        <v>0.423067</v>
+        <v>0.422698</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.249618</v>
+        <v>0.24963</v>
       </c>
       <c r="C92" t="n">
-        <v>0.578989</v>
+        <v>0.57533</v>
       </c>
       <c r="D92" t="n">
-        <v>0.614776</v>
+        <v>0.609942</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252339</v>
+        <v>0.252008</v>
       </c>
       <c r="F92" t="n">
-        <v>0.423238</v>
+        <v>0.421994</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23449</v>
+        <v>0.234533</v>
       </c>
       <c r="C93" t="n">
-        <v>0.479436</v>
+        <v>0.475719</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6152030000000001</v>
+        <v>0.608312</v>
       </c>
       <c r="E93" t="n">
-        <v>0.25201</v>
+        <v>0.251867</v>
       </c>
       <c r="F93" t="n">
-        <v>0.422689</v>
+        <v>0.421527</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.218316</v>
+        <v>0.218409</v>
       </c>
       <c r="C94" t="n">
-        <v>0.519162</v>
+        <v>0.5158430000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.608864</v>
+        <v>0.6044</v>
       </c>
       <c r="E94" t="n">
-        <v>0.266658</v>
+        <v>0.26688</v>
       </c>
       <c r="F94" t="n">
-        <v>0.435175</v>
+        <v>0.434164</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.358794</v>
+        <v>0.35895</v>
       </c>
       <c r="C95" t="n">
-        <v>0.528384</v>
+        <v>0.5288</v>
       </c>
       <c r="D95" t="n">
-        <v>0.597477</v>
+        <v>0.59317</v>
       </c>
       <c r="E95" t="n">
-        <v>0.264236</v>
+        <v>0.264204</v>
       </c>
       <c r="F95" t="n">
-        <v>0.432593</v>
+        <v>0.432965</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354293</v>
+        <v>0.354263</v>
       </c>
       <c r="C96" t="n">
-        <v>0.643211</v>
+        <v>0.640159</v>
       </c>
       <c r="D96" t="n">
-        <v>0.593957</v>
+        <v>0.5896</v>
       </c>
       <c r="E96" t="n">
-        <v>0.262217</v>
+        <v>0.262146</v>
       </c>
       <c r="F96" t="n">
-        <v>0.431464</v>
+        <v>0.431681</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34786</v>
+        <v>0.347988</v>
       </c>
       <c r="C97" t="n">
-        <v>0.658995</v>
+        <v>0.655469</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592662</v>
+        <v>0.587707</v>
       </c>
       <c r="E97" t="n">
-        <v>0.260637</v>
+        <v>0.260519</v>
       </c>
       <c r="F97" t="n">
-        <v>0.430891</v>
+        <v>0.430557</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340674</v>
+        <v>0.340727</v>
       </c>
       <c r="C98" t="n">
-        <v>0.645143</v>
+        <v>0.6403720000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.585966</v>
+        <v>0.580935</v>
       </c>
       <c r="E98" t="n">
-        <v>0.259187</v>
+        <v>0.259163</v>
       </c>
       <c r="F98" t="n">
-        <v>0.429367</v>
+        <v>0.429233</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332891</v>
+        <v>0.332988</v>
       </c>
       <c r="C99" t="n">
-        <v>0.586928</v>
+        <v>0.582647</v>
       </c>
       <c r="D99" t="n">
-        <v>0.58144</v>
+        <v>0.57761</v>
       </c>
       <c r="E99" t="n">
-        <v>0.257817</v>
+        <v>0.257818</v>
       </c>
       <c r="F99" t="n">
-        <v>0.427849</v>
+        <v>0.428082</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.324003</v>
+        <v>0.324847</v>
       </c>
       <c r="C100" t="n">
-        <v>0.645697</v>
+        <v>0.642421</v>
       </c>
       <c r="D100" t="n">
-        <v>0.570412</v>
+        <v>0.566479</v>
       </c>
       <c r="E100" t="n">
-        <v>0.256647</v>
+        <v>0.256584</v>
       </c>
       <c r="F100" t="n">
-        <v>0.426865</v>
+        <v>0.427372</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.314369</v>
+        <v>0.31476</v>
       </c>
       <c r="C101" t="n">
-        <v>0.541179</v>
+        <v>0.540256</v>
       </c>
       <c r="D101" t="n">
-        <v>0.564104</v>
+        <v>0.558815</v>
       </c>
       <c r="E101" t="n">
-        <v>0.255463</v>
+        <v>0.255407</v>
       </c>
       <c r="F101" t="n">
-        <v>0.427541</v>
+        <v>0.426392</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304188</v>
+        <v>0.304237</v>
       </c>
       <c r="C102" t="n">
-        <v>0.620308</v>
+        <v>0.616721</v>
       </c>
       <c r="D102" t="n">
-        <v>0.560355</v>
+        <v>0.556434</v>
       </c>
       <c r="E102" t="n">
-        <v>0.25484</v>
+        <v>0.254668</v>
       </c>
       <c r="F102" t="n">
-        <v>0.426459</v>
+        <v>0.425192</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293351</v>
+        <v>0.293687</v>
       </c>
       <c r="C103" t="n">
-        <v>0.588473</v>
+        <v>0.585662</v>
       </c>
       <c r="D103" t="n">
-        <v>0.556536</v>
+        <v>0.553164</v>
       </c>
       <c r="E103" t="n">
-        <v>0.253813</v>
+        <v>0.253941</v>
       </c>
       <c r="F103" t="n">
-        <v>0.425603</v>
+        <v>0.424328</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281049</v>
+        <v>0.281387</v>
       </c>
       <c r="C104" t="n">
-        <v>0.589993</v>
+        <v>0.584964</v>
       </c>
       <c r="D104" t="n">
-        <v>0.555915</v>
+        <v>0.552415</v>
       </c>
       <c r="E104" t="n">
-        <v>0.25396</v>
+        <v>0.253885</v>
       </c>
       <c r="F104" t="n">
-        <v>0.423744</v>
+        <v>0.423457</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268607</v>
+        <v>0.269222</v>
       </c>
       <c r="C105" t="n">
-        <v>0.543297</v>
+        <v>0.540002</v>
       </c>
       <c r="D105" t="n">
-        <v>0.547295</v>
+        <v>0.54447</v>
       </c>
       <c r="E105" t="n">
-        <v>0.253284</v>
+        <v>0.253541</v>
       </c>
       <c r="F105" t="n">
-        <v>0.423048</v>
+        <v>0.423044</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254654</v>
+        <v>0.255168</v>
       </c>
       <c r="C106" t="n">
-        <v>0.534999</v>
+        <v>0.53176</v>
       </c>
       <c r="D106" t="n">
-        <v>0.544727</v>
+        <v>0.540809</v>
       </c>
       <c r="E106" t="n">
-        <v>0.253056</v>
+        <v>0.252969</v>
       </c>
       <c r="F106" t="n">
-        <v>0.422426</v>
+        <v>0.422294</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239892</v>
+        <v>0.240048</v>
       </c>
       <c r="C107" t="n">
-        <v>0.512761</v>
+        <v>0.51006</v>
       </c>
       <c r="D107" t="n">
-        <v>0.587746</v>
+        <v>0.582974</v>
       </c>
       <c r="E107" t="n">
-        <v>0.252281</v>
+        <v>0.25222</v>
       </c>
       <c r="F107" t="n">
-        <v>0.421648</v>
+        <v>0.421557</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.224108</v>
+        <v>0.223883</v>
       </c>
       <c r="C108" t="n">
-        <v>0.448639</v>
+        <v>0.446561</v>
       </c>
       <c r="D108" t="n">
-        <v>0.613332</v>
+        <v>0.606843</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267032</v>
+        <v>0.267997</v>
       </c>
       <c r="F108" t="n">
-        <v>0.434601</v>
+        <v>0.434648</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.206876</v>
+        <v>0.207211</v>
       </c>
       <c r="C109" t="n">
-        <v>0.435017</v>
+        <v>0.434367</v>
       </c>
       <c r="D109" t="n">
-        <v>0.610268</v>
+        <v>0.603374</v>
       </c>
       <c r="E109" t="n">
-        <v>0.264633</v>
+        <v>0.265088</v>
       </c>
       <c r="F109" t="n">
-        <v>0.434191</v>
+        <v>0.433841</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354867</v>
+        <v>0.355352</v>
       </c>
       <c r="C110" t="n">
-        <v>0.530013</v>
+        <v>0.525075</v>
       </c>
       <c r="D110" t="n">
-        <v>0.584809</v>
+        <v>0.580456</v>
       </c>
       <c r="E110" t="n">
-        <v>0.262853</v>
+        <v>0.263112</v>
       </c>
       <c r="F110" t="n">
-        <v>0.432932</v>
+        <v>0.43194</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348861</v>
+        <v>0.349173</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576993</v>
+        <v>0.574663</v>
       </c>
       <c r="D111" t="n">
-        <v>0.585887</v>
+        <v>0.579811</v>
       </c>
       <c r="E111" t="n">
-        <v>0.261257</v>
+        <v>0.261388</v>
       </c>
       <c r="F111" t="n">
-        <v>0.430689</v>
+        <v>0.430684</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.341985</v>
+        <v>0.342399</v>
       </c>
       <c r="C112" t="n">
-        <v>0.541204</v>
+        <v>0.540157</v>
       </c>
       <c r="D112" t="n">
-        <v>0.585311</v>
+        <v>0.5805169999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259401</v>
+        <v>0.259687</v>
       </c>
       <c r="F112" t="n">
-        <v>0.429549</v>
+        <v>0.429595</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334532</v>
+        <v>0.334975</v>
       </c>
       <c r="C113" t="n">
-        <v>0.66694</v>
+        <v>0.663407</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5702390000000001</v>
+        <v>0.566317</v>
       </c>
       <c r="E113" t="n">
-        <v>0.258228</v>
+        <v>0.258222</v>
       </c>
       <c r="F113" t="n">
-        <v>0.428425</v>
+        <v>0.42835</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326191</v>
+        <v>0.326639</v>
       </c>
       <c r="C114" t="n">
-        <v>0.62802</v>
+        <v>0.624499</v>
       </c>
       <c r="D114" t="n">
-        <v>0.566925</v>
+        <v>0.562239</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256983</v>
+        <v>0.256929</v>
       </c>
       <c r="F114" t="n">
-        <v>0.428225</v>
+        <v>0.427223</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.316937</v>
+        <v>0.317014</v>
       </c>
       <c r="C115" t="n">
-        <v>0.583944</v>
+        <v>0.580412</v>
       </c>
       <c r="D115" t="n">
-        <v>0.564671</v>
+        <v>0.5581390000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.255795</v>
+        <v>0.255907</v>
       </c>
       <c r="F115" t="n">
-        <v>0.426818</v>
+        <v>0.426399</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305386</v>
+        <v>0.305678</v>
       </c>
       <c r="C116" t="n">
-        <v>0.614141</v>
+        <v>0.610474</v>
       </c>
       <c r="D116" t="n">
-        <v>0.559202</v>
+        <v>0.5554559999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.254865</v>
+        <v>0.254961</v>
       </c>
       <c r="F116" t="n">
-        <v>0.426287</v>
+        <v>0.425672</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294422</v>
+        <v>0.294874</v>
       </c>
       <c r="C117" t="n">
-        <v>0.555276</v>
+        <v>0.552466</v>
       </c>
       <c r="D117" t="n">
-        <v>0.553534</v>
+        <v>0.55025</v>
       </c>
       <c r="E117" t="n">
-        <v>0.253918</v>
+        <v>0.254053</v>
       </c>
       <c r="F117" t="n">
-        <v>0.424598</v>
+        <v>0.424464</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284222</v>
+        <v>0.284366</v>
       </c>
       <c r="C118" t="n">
-        <v>0.511371</v>
+        <v>0.510684</v>
       </c>
       <c r="D118" t="n">
-        <v>0.549975</v>
+        <v>0.546417</v>
       </c>
       <c r="E118" t="n">
-        <v>0.253751</v>
+        <v>0.253813</v>
       </c>
       <c r="F118" t="n">
-        <v>0.42375</v>
+        <v>0.423646</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271517</v>
+        <v>0.272129</v>
       </c>
       <c r="C119" t="n">
-        <v>0.576862</v>
+        <v>0.572644</v>
       </c>
       <c r="D119" t="n">
-        <v>0.548881</v>
+        <v>0.543798</v>
       </c>
       <c r="E119" t="n">
-        <v>0.252998</v>
+        <v>0.25315</v>
       </c>
       <c r="F119" t="n">
-        <v>0.423803</v>
+        <v>0.42285</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258193</v>
+        <v>0.259089</v>
       </c>
       <c r="C120" t="n">
-        <v>0.480908</v>
+        <v>0.479136</v>
       </c>
       <c r="D120" t="n">
-        <v>0.54344</v>
+        <v>0.539963</v>
       </c>
       <c r="E120" t="n">
-        <v>0.252306</v>
+        <v>0.252672</v>
       </c>
       <c r="F120" t="n">
-        <v>0.423307</v>
+        <v>0.422311</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243718</v>
+        <v>0.244325</v>
       </c>
       <c r="C121" t="n">
-        <v>0.52665</v>
+        <v>0.5228429999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.603159</v>
+        <v>0.598661</v>
       </c>
       <c r="E121" t="n">
-        <v>0.252118</v>
+        <v>0.252285</v>
       </c>
       <c r="F121" t="n">
-        <v>0.421576</v>
+        <v>0.421722</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.227732</v>
+        <v>0.228392</v>
       </c>
       <c r="C122" t="n">
-        <v>0.505618</v>
+        <v>0.503529</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6230290000000001</v>
+        <v>0.618057</v>
       </c>
       <c r="E122" t="n">
-        <v>0.251481</v>
+        <v>0.251741</v>
       </c>
       <c r="F122" t="n">
-        <v>0.42092</v>
+        <v>0.420803</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.211238</v>
+        <v>0.210992</v>
       </c>
       <c r="C123" t="n">
-        <v>0.448382</v>
+        <v>0.447354</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6029600000000001</v>
+        <v>0.594201</v>
       </c>
       <c r="E123" t="n">
-        <v>0.265053</v>
+        <v>0.264974</v>
       </c>
       <c r="F123" t="n">
-        <v>0.433305</v>
+        <v>0.433346</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3567</v>
+        <v>0.356909</v>
       </c>
       <c r="C124" t="n">
-        <v>0.538455</v>
+        <v>0.537801</v>
       </c>
       <c r="D124" t="n">
-        <v>0.616208</v>
+        <v>0.6078170000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.262843</v>
+        <v>0.262803</v>
       </c>
       <c r="F124" t="n">
-        <v>0.431953</v>
+        <v>0.43205</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350713</v>
+        <v>0.350761</v>
       </c>
       <c r="C125" t="n">
-        <v>0.636448</v>
+        <v>0.634008</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6115390000000001</v>
+        <v>0.602958</v>
       </c>
       <c r="E125" t="n">
-        <v>0.261099</v>
+        <v>0.261062</v>
       </c>
       <c r="F125" t="n">
-        <v>0.431555</v>
+        <v>0.430886</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343863</v>
+        <v>0.34441</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5545330000000001</v>
+        <v>0.553411</v>
       </c>
       <c r="D126" t="n">
-        <v>0.604132</v>
+        <v>0.597371</v>
       </c>
       <c r="E126" t="n">
-        <v>0.259599</v>
+        <v>0.259709</v>
       </c>
       <c r="F126" t="n">
-        <v>0.43033</v>
+        <v>0.429461</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.336647</v>
+        <v>0.337109</v>
       </c>
       <c r="C127" t="n">
-        <v>0.616716</v>
+        <v>0.61473</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6004930000000001</v>
+        <v>0.593377</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25828</v>
+        <v>0.258387</v>
       </c>
       <c r="F127" t="n">
-        <v>0.42925</v>
+        <v>0.428524</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328082</v>
+        <v>0.328892</v>
       </c>
       <c r="C128" t="n">
-        <v>0.593822</v>
+        <v>0.591591</v>
       </c>
       <c r="D128" t="n">
-        <v>0.585494</v>
+        <v>0.57707</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257111</v>
+        <v>0.257159</v>
       </c>
       <c r="F128" t="n">
-        <v>0.427491</v>
+        <v>0.427321</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31949</v>
+        <v>0.320021</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6556070000000001</v>
+        <v>0.6526960000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5851420000000001</v>
+        <v>0.578332</v>
       </c>
       <c r="E129" t="n">
-        <v>0.256113</v>
+        <v>0.25626</v>
       </c>
       <c r="F129" t="n">
-        <v>0.426185</v>
+        <v>0.426314</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.309144</v>
+        <v>0.310661</v>
       </c>
       <c r="C130" t="n">
-        <v>0.605472</v>
+        <v>0.602846</v>
       </c>
       <c r="D130" t="n">
-        <v>0.573834</v>
+        <v>0.56626</v>
       </c>
       <c r="E130" t="n">
-        <v>0.25519</v>
+        <v>0.255324</v>
       </c>
       <c r="F130" t="n">
-        <v>0.426143</v>
+        <v>0.425402</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29836</v>
+        <v>0.300536</v>
       </c>
       <c r="C131" t="n">
-        <v>0.580134</v>
+        <v>0.577126</v>
       </c>
       <c r="D131" t="n">
-        <v>0.569303</v>
+        <v>0.561171</v>
       </c>
       <c r="E131" t="n">
-        <v>0.254442</v>
+        <v>0.254453</v>
       </c>
       <c r="F131" t="n">
-        <v>0.424395</v>
+        <v>0.424383</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2872</v>
+        <v>0.289207</v>
       </c>
       <c r="C132" t="n">
-        <v>0.560463</v>
+        <v>0.558079</v>
       </c>
       <c r="D132" t="n">
-        <v>0.563717</v>
+        <v>0.556728</v>
       </c>
       <c r="E132" t="n">
-        <v>0.253729</v>
+        <v>0.253995</v>
       </c>
       <c r="F132" t="n">
-        <v>0.423376</v>
+        <v>0.423727</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274808</v>
+        <v>0.275953</v>
       </c>
       <c r="C133" t="n">
-        <v>0.575831</v>
+        <v>0.574466</v>
       </c>
       <c r="D133" t="n">
-        <v>0.558149</v>
+        <v>0.551732</v>
       </c>
       <c r="E133" t="n">
-        <v>0.253068</v>
+        <v>0.252729</v>
       </c>
       <c r="F133" t="n">
-        <v>0.422903</v>
+        <v>0.422884</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261682</v>
+        <v>0.26246</v>
       </c>
       <c r="C134" t="n">
-        <v>0.544732</v>
+        <v>0.542837</v>
       </c>
       <c r="D134" t="n">
-        <v>0.552806</v>
+        <v>0.546183</v>
       </c>
       <c r="E134" t="n">
-        <v>0.25247</v>
+        <v>0.252506</v>
       </c>
       <c r="F134" t="n">
-        <v>0.422043</v>
+        <v>0.422146</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247501</v>
+        <v>0.248676</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5259</v>
+        <v>0.526803</v>
       </c>
       <c r="D135" t="n">
-        <v>0.611955</v>
+        <v>0.603724</v>
       </c>
       <c r="E135" t="n">
-        <v>0.251933</v>
+        <v>0.252212</v>
       </c>
       <c r="F135" t="n">
-        <v>0.422299</v>
+        <v>0.421489</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.230513</v>
+        <v>0.23102</v>
       </c>
       <c r="C136" t="n">
-        <v>0.511047</v>
+        <v>0.508982</v>
       </c>
       <c r="D136" t="n">
-        <v>0.614443</v>
+        <v>0.605334</v>
       </c>
       <c r="E136" t="n">
-        <v>0.251555</v>
+        <v>0.251556</v>
       </c>
       <c r="F136" t="n">
-        <v>0.420716</v>
+        <v>0.421484</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213863</v>
+        <v>0.213594</v>
       </c>
       <c r="C137" t="n">
-        <v>0.489099</v>
+        <v>0.489641</v>
       </c>
       <c r="D137" t="n">
-        <v>0.628389</v>
+        <v>0.621842</v>
       </c>
       <c r="E137" t="n">
-        <v>0.265523</v>
+        <v>0.26562</v>
       </c>
       <c r="F137" t="n">
-        <v>0.433659</v>
+        <v>0.433882</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.35783</v>
+        <v>0.358002</v>
       </c>
       <c r="C138" t="n">
-        <v>0.673326</v>
+        <v>0.670577</v>
       </c>
       <c r="D138" t="n">
-        <v>0.610544</v>
+        <v>0.598319</v>
       </c>
       <c r="E138" t="n">
-        <v>0.263367</v>
+        <v>0.263426</v>
       </c>
       <c r="F138" t="n">
-        <v>0.432524</v>
+        <v>0.432279</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352376</v>
+        <v>0.3528</v>
       </c>
       <c r="C139" t="n">
-        <v>0.667493</v>
+        <v>0.663311</v>
       </c>
       <c r="D139" t="n">
-        <v>0.603391</v>
+        <v>0.595182</v>
       </c>
       <c r="E139" t="n">
-        <v>0.26176</v>
+        <v>0.261745</v>
       </c>
       <c r="F139" t="n">
-        <v>0.431206</v>
+        <v>0.431281</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346182</v>
+        <v>0.346737</v>
       </c>
       <c r="C140" t="n">
-        <v>0.625385</v>
+        <v>0.622059</v>
       </c>
       <c r="D140" t="n">
-        <v>0.604245</v>
+        <v>0.5930029999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.260271</v>
+        <v>0.260262</v>
       </c>
       <c r="F140" t="n">
-        <v>0.429849</v>
+        <v>0.429859</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338533</v>
+        <v>0.339249</v>
       </c>
       <c r="C141" t="n">
-        <v>0.617272</v>
+        <v>0.615532</v>
       </c>
       <c r="D141" t="n">
-        <v>0.603734</v>
+        <v>0.59651</v>
       </c>
       <c r="E141" t="n">
-        <v>0.258956</v>
+        <v>0.259026</v>
       </c>
       <c r="F141" t="n">
-        <v>0.428646</v>
+        <v>0.428618</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.330363</v>
+        <v>0.331128</v>
       </c>
       <c r="C142" t="n">
-        <v>0.634646</v>
+        <v>0.631863</v>
       </c>
       <c r="D142" t="n">
-        <v>0.597106</v>
+        <v>0.589654</v>
       </c>
       <c r="E142" t="n">
-        <v>0.257728</v>
+        <v>0.257725</v>
       </c>
       <c r="F142" t="n">
-        <v>0.427531</v>
+        <v>0.42757</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.322375</v>
+        <v>0.322484</v>
       </c>
       <c r="C143" t="n">
-        <v>0.628295</v>
+        <v>0.630348</v>
       </c>
       <c r="D143" t="n">
-        <v>0.589096</v>
+        <v>0.582334</v>
       </c>
       <c r="E143" t="n">
-        <v>0.256705</v>
+        <v>0.256765</v>
       </c>
       <c r="F143" t="n">
-        <v>0.426744</v>
+        <v>0.426633</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.272346</v>
+        <v>0.271359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455327</v>
+        <v>0.456343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389629</v>
+        <v>0.390093</v>
       </c>
       <c r="E2" t="n">
-        <v>0.225197</v>
+        <v>0.223701</v>
       </c>
       <c r="F2" t="n">
-        <v>0.41868</v>
+        <v>0.417986</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269812</v>
+        <v>0.269942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.449962</v>
+        <v>0.453428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390834</v>
+        <v>0.38958</v>
       </c>
       <c r="E3" t="n">
-        <v>0.227552</v>
+        <v>0.226015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.415323</v>
+        <v>0.418244</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258997</v>
+        <v>0.255994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.449795</v>
+        <v>0.443674</v>
       </c>
       <c r="D4" t="n">
-        <v>0.393093</v>
+        <v>0.391931</v>
       </c>
       <c r="E4" t="n">
-        <v>0.228178</v>
+        <v>0.227364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.415211</v>
+        <v>0.417277</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246869</v>
+        <v>0.245365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435387</v>
+        <v>0.435506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.393962</v>
+        <v>0.392891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.231715</v>
+        <v>0.234791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415335</v>
+        <v>0.415527</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236963</v>
+        <v>0.234119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42687</v>
+        <v>0.420747</v>
       </c>
       <c r="D6" t="n">
-        <v>0.394063</v>
+        <v>0.393751</v>
       </c>
       <c r="E6" t="n">
-        <v>0.233624</v>
+        <v>0.234169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.414597</v>
+        <v>0.414472</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224659</v>
+        <v>0.224565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412537</v>
+        <v>0.407658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389046</v>
+        <v>0.389351</v>
       </c>
       <c r="E7" t="n">
-        <v>0.236648</v>
+        <v>0.23701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.414316</v>
+        <v>0.413953</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206629</v>
+        <v>0.206376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399681</v>
+        <v>0.395005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393055</v>
+        <v>0.393718</v>
       </c>
       <c r="E8" t="n">
-        <v>0.238408</v>
+        <v>0.237349</v>
       </c>
       <c r="F8" t="n">
-        <v>0.414176</v>
+        <v>0.413289</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190154</v>
+        <v>0.190148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.386278</v>
+        <v>0.38591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.394013</v>
+        <v>0.393493</v>
       </c>
       <c r="E9" t="n">
-        <v>0.253275</v>
+        <v>0.253703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.427313</v>
+        <v>0.427087</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339924</v>
+        <v>0.340578</v>
       </c>
       <c r="C10" t="n">
-        <v>0.520146</v>
+        <v>0.5202369999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.394137</v>
+        <v>0.393709</v>
       </c>
       <c r="E10" t="n">
-        <v>0.253967</v>
+        <v>0.25396</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427941</v>
+        <v>0.427831</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.334582</v>
+        <v>0.333773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.511672</v>
+        <v>0.5164299999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.393227</v>
+        <v>0.393969</v>
       </c>
       <c r="E11" t="n">
-        <v>0.253553</v>
+        <v>0.253848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.427083</v>
+        <v>0.426585</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32637</v>
+        <v>0.327045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.506078</v>
+        <v>0.510141</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394652</v>
+        <v>0.394718</v>
       </c>
       <c r="E12" t="n">
-        <v>0.252775</v>
+        <v>0.252684</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42408</v>
+        <v>0.423768</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.320602</v>
+        <v>0.321462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.502177</v>
+        <v>0.501881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394399</v>
+        <v>0.394286</v>
       </c>
       <c r="E13" t="n">
-        <v>0.254478</v>
+        <v>0.252703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.426104</v>
+        <v>0.425286</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312893</v>
+        <v>0.313277</v>
       </c>
       <c r="C14" t="n">
-        <v>0.490189</v>
+        <v>0.491815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39948</v>
+        <v>0.39696</v>
       </c>
       <c r="E14" t="n">
-        <v>0.251911</v>
+        <v>0.252361</v>
       </c>
       <c r="F14" t="n">
-        <v>0.423804</v>
+        <v>0.423949</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304401</v>
+        <v>0.305801</v>
       </c>
       <c r="C15" t="n">
-        <v>0.483206</v>
+        <v>0.48365</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39796</v>
+        <v>0.395206</v>
       </c>
       <c r="E15" t="n">
-        <v>0.250493</v>
+        <v>0.2509</v>
       </c>
       <c r="F15" t="n">
-        <v>0.42461</v>
+        <v>0.423787</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.296138</v>
+        <v>0.296811</v>
       </c>
       <c r="C16" t="n">
-        <v>0.472479</v>
+        <v>0.474054</v>
       </c>
       <c r="D16" t="n">
-        <v>0.399379</v>
+        <v>0.397569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.251943</v>
+        <v>0.2519</v>
       </c>
       <c r="F16" t="n">
-        <v>0.421334</v>
+        <v>0.421179</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285829</v>
+        <v>0.286648</v>
       </c>
       <c r="C17" t="n">
-        <v>0.46613</v>
+        <v>0.465896</v>
       </c>
       <c r="D17" t="n">
-        <v>0.401698</v>
+        <v>0.398818</v>
       </c>
       <c r="E17" t="n">
-        <v>0.250289</v>
+        <v>0.250101</v>
       </c>
       <c r="F17" t="n">
-        <v>0.422003</v>
+        <v>0.420821</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274604</v>
+        <v>0.275757</v>
       </c>
       <c r="C18" t="n">
-        <v>0.455529</v>
+        <v>0.457175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.402716</v>
+        <v>0.399661</v>
       </c>
       <c r="E18" t="n">
-        <v>0.251398</v>
+        <v>0.249252</v>
       </c>
       <c r="F18" t="n">
-        <v>0.421759</v>
+        <v>0.420373</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263078</v>
+        <v>0.264184</v>
       </c>
       <c r="C19" t="n">
-        <v>0.449449</v>
+        <v>0.450161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.404143</v>
+        <v>0.400233</v>
       </c>
       <c r="E19" t="n">
-        <v>0.250964</v>
+        <v>0.251358</v>
       </c>
       <c r="F19" t="n">
-        <v>0.421088</v>
+        <v>0.41988</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250373</v>
+        <v>0.250557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.432608</v>
+        <v>0.433784</v>
       </c>
       <c r="D20" t="n">
-        <v>0.40448</v>
+        <v>0.402261</v>
       </c>
       <c r="E20" t="n">
-        <v>0.249437</v>
+        <v>0.250446</v>
       </c>
       <c r="F20" t="n">
-        <v>0.418855</v>
+        <v>0.418641</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24242</v>
+        <v>0.242372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.417629</v>
+        <v>0.417232</v>
       </c>
       <c r="D21" t="n">
-        <v>0.399073</v>
+        <v>0.397608</v>
       </c>
       <c r="E21" t="n">
-        <v>0.248332</v>
+        <v>0.248181</v>
       </c>
       <c r="F21" t="n">
-        <v>0.418824</v>
+        <v>0.419288</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225312</v>
+        <v>0.226409</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408619</v>
+        <v>0.408961</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398421</v>
+        <v>0.396092</v>
       </c>
       <c r="E22" t="n">
-        <v>0.249488</v>
+        <v>0.248146</v>
       </c>
       <c r="F22" t="n">
-        <v>0.418581</v>
+        <v>0.418894</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206704</v>
+        <v>0.211409</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39236</v>
+        <v>0.392853</v>
       </c>
       <c r="D23" t="n">
-        <v>0.397966</v>
+        <v>0.395658</v>
       </c>
       <c r="E23" t="n">
-        <v>0.267401</v>
+        <v>0.267273</v>
       </c>
       <c r="F23" t="n">
-        <v>0.431863</v>
+        <v>0.432526</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348924</v>
+        <v>0.348267</v>
       </c>
       <c r="C24" t="n">
-        <v>0.516846</v>
+        <v>0.517648</v>
       </c>
       <c r="D24" t="n">
-        <v>0.401365</v>
+        <v>0.398211</v>
       </c>
       <c r="E24" t="n">
-        <v>0.264093</v>
+        <v>0.263399</v>
       </c>
       <c r="F24" t="n">
-        <v>0.430655</v>
+        <v>0.430758</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342145</v>
+        <v>0.342533</v>
       </c>
       <c r="C25" t="n">
-        <v>0.518669</v>
+        <v>0.518756</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401274</v>
+        <v>0.398811</v>
       </c>
       <c r="E25" t="n">
-        <v>0.26148</v>
+        <v>0.260837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.429696</v>
+        <v>0.430658</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336542</v>
+        <v>0.336812</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511415</v>
+        <v>0.511319</v>
       </c>
       <c r="D26" t="n">
-        <v>0.401196</v>
+        <v>0.399509</v>
       </c>
       <c r="E26" t="n">
-        <v>0.260281</v>
+        <v>0.259703</v>
       </c>
       <c r="F26" t="n">
-        <v>0.428374</v>
+        <v>0.427874</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332835</v>
+        <v>0.332949</v>
       </c>
       <c r="C27" t="n">
-        <v>0.501667</v>
+        <v>0.504066</v>
       </c>
       <c r="D27" t="n">
-        <v>0.402806</v>
+        <v>0.400444</v>
       </c>
       <c r="E27" t="n">
-        <v>0.258989</v>
+        <v>0.258748</v>
       </c>
       <c r="F27" t="n">
-        <v>0.426977</v>
+        <v>0.427088</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322547</v>
+        <v>0.322155</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495012</v>
+        <v>0.495133</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403005</v>
+        <v>0.399508</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25792</v>
+        <v>0.257668</v>
       </c>
       <c r="F28" t="n">
-        <v>0.427141</v>
+        <v>0.427198</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314066</v>
+        <v>0.313933</v>
       </c>
       <c r="C29" t="n">
-        <v>0.493009</v>
+        <v>0.49216</v>
       </c>
       <c r="D29" t="n">
-        <v>0.403768</v>
+        <v>0.40238</v>
       </c>
       <c r="E29" t="n">
-        <v>0.257683</v>
+        <v>0.25704</v>
       </c>
       <c r="F29" t="n">
-        <v>0.426286</v>
+        <v>0.426064</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305506</v>
+        <v>0.30565</v>
       </c>
       <c r="C30" t="n">
-        <v>0.470029</v>
+        <v>0.473537</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405634</v>
+        <v>0.401585</v>
       </c>
       <c r="E30" t="n">
-        <v>0.257374</v>
+        <v>0.256666</v>
       </c>
       <c r="F30" t="n">
-        <v>0.424913</v>
+        <v>0.424864</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296171</v>
+        <v>0.295842</v>
       </c>
       <c r="C31" t="n">
-        <v>0.465921</v>
+        <v>0.466003</v>
       </c>
       <c r="D31" t="n">
-        <v>0.405918</v>
+        <v>0.403521</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2556</v>
+        <v>0.255355</v>
       </c>
       <c r="F31" t="n">
-        <v>0.423711</v>
+        <v>0.423546</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284467</v>
+        <v>0.284669</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463334</v>
+        <v>0.463389</v>
       </c>
       <c r="D32" t="n">
-        <v>0.406692</v>
+        <v>0.403989</v>
       </c>
       <c r="E32" t="n">
-        <v>0.254989</v>
+        <v>0.254656</v>
       </c>
       <c r="F32" t="n">
-        <v>0.422714</v>
+        <v>0.422676</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272533</v>
+        <v>0.272177</v>
       </c>
       <c r="C33" t="n">
-        <v>0.447129</v>
+        <v>0.44652</v>
       </c>
       <c r="D33" t="n">
-        <v>0.406881</v>
+        <v>0.404153</v>
       </c>
       <c r="E33" t="n">
-        <v>0.256689</v>
+        <v>0.256835</v>
       </c>
       <c r="F33" t="n">
-        <v>0.421952</v>
+        <v>0.421881</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261034</v>
+        <v>0.260832</v>
       </c>
       <c r="C34" t="n">
-        <v>0.442975</v>
+        <v>0.444634</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407874</v>
+        <v>0.406023</v>
       </c>
       <c r="E34" t="n">
-        <v>0.257309</v>
+        <v>0.257033</v>
       </c>
       <c r="F34" t="n">
-        <v>0.421474</v>
+        <v>0.421656</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248061</v>
+        <v>0.247069</v>
       </c>
       <c r="C35" t="n">
-        <v>0.424348</v>
+        <v>0.424064</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408812</v>
+        <v>0.404057</v>
       </c>
       <c r="E35" t="n">
-        <v>0.251925</v>
+        <v>0.251582</v>
       </c>
       <c r="F35" t="n">
-        <v>0.419992</v>
+        <v>0.419732</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232523</v>
+        <v>0.232526</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413419</v>
+        <v>0.413452</v>
       </c>
       <c r="D36" t="n">
-        <v>0.406063</v>
+        <v>0.403511</v>
       </c>
       <c r="E36" t="n">
-        <v>0.25001</v>
+        <v>0.25064</v>
       </c>
       <c r="F36" t="n">
-        <v>0.418897</v>
+        <v>0.418927</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216938</v>
+        <v>0.216596</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402063</v>
+        <v>0.404211</v>
       </c>
       <c r="D37" t="n">
-        <v>0.407414</v>
+        <v>0.404309</v>
       </c>
       <c r="E37" t="n">
-        <v>0.266983</v>
+        <v>0.267667</v>
       </c>
       <c r="F37" t="n">
-        <v>0.43393</v>
+        <v>0.433771</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354916</v>
+        <v>0.355031</v>
       </c>
       <c r="C38" t="n">
-        <v>0.527362</v>
+        <v>0.526877</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40558</v>
+        <v>0.40305</v>
       </c>
       <c r="E38" t="n">
-        <v>0.265021</v>
+        <v>0.264807</v>
       </c>
       <c r="F38" t="n">
-        <v>0.431998</v>
+        <v>0.431733</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.349682</v>
+        <v>0.349534</v>
       </c>
       <c r="C39" t="n">
-        <v>0.521707</v>
+        <v>0.521761</v>
       </c>
       <c r="D39" t="n">
-        <v>0.405583</v>
+        <v>0.403037</v>
       </c>
       <c r="E39" t="n">
-        <v>0.261299</v>
+        <v>0.261183</v>
       </c>
       <c r="F39" t="n">
-        <v>0.430479</v>
+        <v>0.43086</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.344015</v>
+        <v>0.34399</v>
       </c>
       <c r="C40" t="n">
-        <v>0.51579</v>
+        <v>0.515971</v>
       </c>
       <c r="D40" t="n">
-        <v>0.406369</v>
+        <v>0.403925</v>
       </c>
       <c r="E40" t="n">
-        <v>0.260584</v>
+        <v>0.260506</v>
       </c>
       <c r="F40" t="n">
-        <v>0.430525</v>
+        <v>0.430524</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.336977</v>
+        <v>0.337097</v>
       </c>
       <c r="C41" t="n">
-        <v>0.509339</v>
+        <v>0.508991</v>
       </c>
       <c r="D41" t="n">
-        <v>0.405752</v>
+        <v>0.403057</v>
       </c>
       <c r="E41" t="n">
-        <v>0.259295</v>
+        <v>0.259132</v>
       </c>
       <c r="F41" t="n">
-        <v>0.428787</v>
+        <v>0.428617</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32994</v>
+        <v>0.330084</v>
       </c>
       <c r="C42" t="n">
-        <v>0.497843</v>
+        <v>0.498187</v>
       </c>
       <c r="D42" t="n">
-        <v>0.406457</v>
+        <v>0.404076</v>
       </c>
       <c r="E42" t="n">
-        <v>0.257978</v>
+        <v>0.257713</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427963</v>
+        <v>0.42776</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320957</v>
+        <v>0.321931</v>
       </c>
       <c r="C43" t="n">
-        <v>0.488709</v>
+        <v>0.488385</v>
       </c>
       <c r="D43" t="n">
-        <v>0.407437</v>
+        <v>0.404639</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256853</v>
+        <v>0.257418</v>
       </c>
       <c r="F43" t="n">
-        <v>0.426466</v>
+        <v>0.427058</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312324</v>
+        <v>0.312607</v>
       </c>
       <c r="C44" t="n">
-        <v>0.485232</v>
+        <v>0.48579</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408152</v>
+        <v>0.405842</v>
       </c>
       <c r="E44" t="n">
-        <v>0.255846</v>
+        <v>0.255663</v>
       </c>
       <c r="F44" t="n">
-        <v>0.42571</v>
+        <v>0.425418</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301906</v>
+        <v>0.302075</v>
       </c>
       <c r="C45" t="n">
-        <v>0.474197</v>
+        <v>0.474337</v>
       </c>
       <c r="D45" t="n">
-        <v>0.410196</v>
+        <v>0.407168</v>
       </c>
       <c r="E45" t="n">
-        <v>0.254129</v>
+        <v>0.253714</v>
       </c>
       <c r="F45" t="n">
-        <v>0.424896</v>
+        <v>0.424829</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290698</v>
+        <v>0.291006</v>
       </c>
       <c r="C46" t="n">
-        <v>0.467157</v>
+        <v>0.467043</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410086</v>
+        <v>0.406989</v>
       </c>
       <c r="E46" t="n">
-        <v>0.252888</v>
+        <v>0.252932</v>
       </c>
       <c r="F46" t="n">
-        <v>0.423295</v>
+        <v>0.423529</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279796</v>
+        <v>0.280108</v>
       </c>
       <c r="C47" t="n">
-        <v>0.456765</v>
+        <v>0.456707</v>
       </c>
       <c r="D47" t="n">
-        <v>0.411567</v>
+        <v>0.408171</v>
       </c>
       <c r="E47" t="n">
-        <v>0.253138</v>
+        <v>0.252548</v>
       </c>
       <c r="F47" t="n">
-        <v>0.422717</v>
+        <v>0.422754</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267189</v>
+        <v>0.267332</v>
       </c>
       <c r="C48" t="n">
-        <v>0.444733</v>
+        <v>0.444805</v>
       </c>
       <c r="D48" t="n">
-        <v>0.411921</v>
+        <v>0.409394</v>
       </c>
       <c r="E48" t="n">
-        <v>0.252393</v>
+        <v>0.252234</v>
       </c>
       <c r="F48" t="n">
-        <v>0.422157</v>
+        <v>0.422155</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253292</v>
+        <v>0.25353</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431035</v>
+        <v>0.431267</v>
       </c>
       <c r="D49" t="n">
-        <v>0.413776</v>
+        <v>0.411114</v>
       </c>
       <c r="E49" t="n">
-        <v>0.25286</v>
+        <v>0.252587</v>
       </c>
       <c r="F49" t="n">
-        <v>0.421617</v>
+        <v>0.421541</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238716</v>
+        <v>0.239223</v>
       </c>
       <c r="C50" t="n">
-        <v>0.418151</v>
+        <v>0.42428</v>
       </c>
       <c r="D50" t="n">
-        <v>0.423173</v>
+        <v>0.407627</v>
       </c>
       <c r="E50" t="n">
-        <v>0.252545</v>
+        <v>0.250143</v>
       </c>
       <c r="F50" t="n">
-        <v>0.420947</v>
+        <v>0.420517</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222737</v>
+        <v>0.222987</v>
       </c>
       <c r="C51" t="n">
-        <v>0.402754</v>
+        <v>0.402307</v>
       </c>
       <c r="D51" t="n">
-        <v>0.411879</v>
+        <v>0.40828</v>
       </c>
       <c r="E51" t="n">
-        <v>0.267634</v>
+        <v>0.267414</v>
       </c>
       <c r="F51" t="n">
-        <v>0.434643</v>
+        <v>0.434427</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207277</v>
+        <v>0.207496</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384032</v>
+        <v>0.384262</v>
       </c>
       <c r="D52" t="n">
-        <v>0.411951</v>
+        <v>0.409344</v>
       </c>
       <c r="E52" t="n">
-        <v>0.265018</v>
+        <v>0.265023</v>
       </c>
       <c r="F52" t="n">
-        <v>0.433929</v>
+        <v>0.433245</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353548</v>
+        <v>0.353738</v>
       </c>
       <c r="C53" t="n">
-        <v>0.523112</v>
+        <v>0.523312</v>
       </c>
       <c r="D53" t="n">
-        <v>0.412016</v>
+        <v>0.408261</v>
       </c>
       <c r="E53" t="n">
-        <v>0.262834</v>
+        <v>0.262714</v>
       </c>
       <c r="F53" t="n">
-        <v>0.432263</v>
+        <v>0.431674</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347278</v>
+        <v>0.347414</v>
       </c>
       <c r="C54" t="n">
-        <v>0.517844</v>
+        <v>0.517918</v>
       </c>
       <c r="D54" t="n">
-        <v>0.413923</v>
+        <v>0.41094</v>
       </c>
       <c r="E54" t="n">
-        <v>0.260253</v>
+        <v>0.260577</v>
       </c>
       <c r="F54" t="n">
-        <v>0.431043</v>
+        <v>0.430271</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34099</v>
+        <v>0.340803</v>
       </c>
       <c r="C55" t="n">
-        <v>0.51564</v>
+        <v>0.51675</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41548</v>
+        <v>0.411323</v>
       </c>
       <c r="E55" t="n">
-        <v>0.258877</v>
+        <v>0.258979</v>
       </c>
       <c r="F55" t="n">
-        <v>0.429116</v>
+        <v>0.428788</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334234</v>
+        <v>0.334343</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.502291</v>
       </c>
       <c r="D56" t="n">
-        <v>0.417043</v>
+        <v>0.415461</v>
       </c>
       <c r="E56" t="n">
-        <v>0.258167</v>
+        <v>0.257985</v>
       </c>
       <c r="F56" t="n">
-        <v>0.428223</v>
+        <v>0.427874</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325864</v>
+        <v>0.32572</v>
       </c>
       <c r="C57" t="n">
-        <v>0.504354</v>
+        <v>0.505802</v>
       </c>
       <c r="D57" t="n">
-        <v>0.417269</v>
+        <v>0.416824</v>
       </c>
       <c r="E57" t="n">
-        <v>0.256948</v>
+        <v>0.257023</v>
       </c>
       <c r="F57" t="n">
-        <v>0.427294</v>
+        <v>0.426854</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316934</v>
+        <v>0.317111</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503741</v>
+        <v>0.503437</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420621</v>
+        <v>0.420279</v>
       </c>
       <c r="E58" t="n">
-        <v>0.256264</v>
+        <v>0.256175</v>
       </c>
       <c r="F58" t="n">
-        <v>0.426081</v>
+        <v>0.425971</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306967</v>
+        <v>0.30719</v>
       </c>
       <c r="C59" t="n">
-        <v>0.488419</v>
+        <v>0.489518</v>
       </c>
       <c r="D59" t="n">
-        <v>0.42225</v>
+        <v>0.424054</v>
       </c>
       <c r="E59" t="n">
-        <v>0.255159</v>
+        <v>0.255132</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425155</v>
+        <v>0.425042</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296627</v>
+        <v>0.296274</v>
       </c>
       <c r="C60" t="n">
-        <v>0.489037</v>
+        <v>0.493626</v>
       </c>
       <c r="D60" t="n">
-        <v>0.425164</v>
+        <v>0.425672</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254187</v>
+        <v>0.254216</v>
       </c>
       <c r="F60" t="n">
-        <v>0.424604</v>
+        <v>0.424622</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285073</v>
+        <v>0.285235</v>
       </c>
       <c r="C61" t="n">
-        <v>0.480878</v>
+        <v>0.485995</v>
       </c>
       <c r="D61" t="n">
-        <v>0.424396</v>
+        <v>0.426152</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253912</v>
+        <v>0.254085</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4238</v>
+        <v>0.426676</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272103</v>
+        <v>0.272346</v>
       </c>
       <c r="C62" t="n">
-        <v>0.46733</v>
+        <v>0.459603</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42918</v>
+        <v>0.43496</v>
       </c>
       <c r="E62" t="n">
-        <v>0.252735</v>
+        <v>0.253456</v>
       </c>
       <c r="F62" t="n">
-        <v>0.422961</v>
+        <v>0.425662</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25853</v>
+        <v>0.258628</v>
       </c>
       <c r="C63" t="n">
-        <v>0.439923</v>
+        <v>0.437083</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433539</v>
+        <v>0.438628</v>
       </c>
       <c r="E63" t="n">
-        <v>0.251931</v>
+        <v>0.252413</v>
       </c>
       <c r="F63" t="n">
-        <v>0.421994</v>
+        <v>0.424392</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244292</v>
+        <v>0.244188</v>
       </c>
       <c r="C64" t="n">
-        <v>0.455376</v>
+        <v>0.464654</v>
       </c>
       <c r="D64" t="n">
-        <v>0.460964</v>
+        <v>0.479853</v>
       </c>
       <c r="E64" t="n">
-        <v>0.252713</v>
+        <v>0.253135</v>
       </c>
       <c r="F64" t="n">
-        <v>0.421413</v>
+        <v>0.423884</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229266</v>
+        <v>0.229179</v>
       </c>
       <c r="C65" t="n">
-        <v>0.433808</v>
+        <v>0.441298</v>
       </c>
       <c r="D65" t="n">
-        <v>0.471598</v>
+        <v>0.475419</v>
       </c>
       <c r="E65" t="n">
-        <v>0.251349</v>
+        <v>0.251646</v>
       </c>
       <c r="F65" t="n">
-        <v>0.421221</v>
+        <v>0.423639</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212145</v>
+        <v>0.212327</v>
       </c>
       <c r="C66" t="n">
-        <v>0.418068</v>
+        <v>0.426194</v>
       </c>
       <c r="D66" t="n">
-        <v>0.475838</v>
+        <v>0.480255</v>
       </c>
       <c r="E66" t="n">
-        <v>0.265408</v>
+        <v>0.265377</v>
       </c>
       <c r="F66" t="n">
-        <v>0.433777</v>
+        <v>0.437129</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35586</v>
+        <v>0.355846</v>
       </c>
       <c r="C67" t="n">
-        <v>0.565989</v>
+        <v>0.571842</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483297</v>
+        <v>0.486821</v>
       </c>
       <c r="E67" t="n">
-        <v>0.263557</v>
+        <v>0.263262</v>
       </c>
       <c r="F67" t="n">
-        <v>0.432274</v>
+        <v>0.435518</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350277</v>
+        <v>0.350238</v>
       </c>
       <c r="C68" t="n">
-        <v>0.569313</v>
+        <v>0.576776</v>
       </c>
       <c r="D68" t="n">
-        <v>0.487535</v>
+        <v>0.492643</v>
       </c>
       <c r="E68" t="n">
-        <v>0.261756</v>
+        <v>0.261524</v>
       </c>
       <c r="F68" t="n">
-        <v>0.431269</v>
+        <v>0.434286</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343883</v>
+        <v>0.34374</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5471279999999999</v>
+        <v>0.552418</v>
       </c>
       <c r="D69" t="n">
-        <v>0.497936</v>
+        <v>0.499209</v>
       </c>
       <c r="E69" t="n">
-        <v>0.259687</v>
+        <v>0.259555</v>
       </c>
       <c r="F69" t="n">
-        <v>0.429816</v>
+        <v>0.432899</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336246</v>
+        <v>0.336215</v>
       </c>
       <c r="C70" t="n">
-        <v>0.559566</v>
+        <v>0.566958</v>
       </c>
       <c r="D70" t="n">
-        <v>0.497974</v>
+        <v>0.5055460000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.258524</v>
+        <v>0.258482</v>
       </c>
       <c r="F70" t="n">
-        <v>0.428882</v>
+        <v>0.431915</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328472</v>
+        <v>0.328172</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505322</v>
+        <v>0.569497</v>
       </c>
       <c r="D71" t="n">
-        <v>0.523675</v>
+        <v>0.507355</v>
       </c>
       <c r="E71" t="n">
-        <v>0.257513</v>
+        <v>0.257291</v>
       </c>
       <c r="F71" t="n">
-        <v>0.427764</v>
+        <v>0.430241</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319039</v>
+        <v>0.319237</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5452399999999999</v>
+        <v>0.551745</v>
       </c>
       <c r="D72" t="n">
-        <v>0.511529</v>
+        <v>0.513309</v>
       </c>
       <c r="E72" t="n">
-        <v>0.256439</v>
+        <v>0.256232</v>
       </c>
       <c r="F72" t="n">
-        <v>0.426826</v>
+        <v>0.429095</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309491</v>
+        <v>0.309482</v>
       </c>
       <c r="C73" t="n">
-        <v>0.527386</v>
+        <v>0.533501</v>
       </c>
       <c r="D73" t="n">
-        <v>0.515375</v>
+        <v>0.51632</v>
       </c>
       <c r="E73" t="n">
-        <v>0.255282</v>
+        <v>0.255013</v>
       </c>
       <c r="F73" t="n">
-        <v>0.425633</v>
+        <v>0.428313</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298991</v>
+        <v>0.299013</v>
       </c>
       <c r="C74" t="n">
-        <v>0.52323</v>
+        <v>0.528655</v>
       </c>
       <c r="D74" t="n">
-        <v>0.516987</v>
+        <v>0.522749</v>
       </c>
       <c r="E74" t="n">
-        <v>0.254335</v>
+        <v>0.254839</v>
       </c>
       <c r="F74" t="n">
-        <v>0.424887</v>
+        <v>0.42751</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288126</v>
+        <v>0.288296</v>
       </c>
       <c r="C75" t="n">
-        <v>0.525216</v>
+        <v>0.5427650000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.520607</v>
+        <v>0.51588</v>
       </c>
       <c r="E75" t="n">
-        <v>0.254359</v>
+        <v>0.254077</v>
       </c>
       <c r="F75" t="n">
-        <v>0.424119</v>
+        <v>0.426198</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275559</v>
+        <v>0.275573</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5180129999999999</v>
+        <v>0.519118</v>
       </c>
       <c r="D76" t="n">
-        <v>0.518552</v>
+        <v>0.520083</v>
       </c>
       <c r="E76" t="n">
-        <v>0.253056</v>
+        <v>0.253023</v>
       </c>
       <c r="F76" t="n">
-        <v>0.423229</v>
+        <v>0.425557</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26262</v>
+        <v>0.262556</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536555</v>
+        <v>0.5409350000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.518828</v>
+        <v>0.521916</v>
       </c>
       <c r="E77" t="n">
-        <v>0.252668</v>
+        <v>0.252368</v>
       </c>
       <c r="F77" t="n">
-        <v>0.422675</v>
+        <v>0.425182</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248838</v>
+        <v>0.248431</v>
       </c>
       <c r="C78" t="n">
-        <v>0.491122</v>
+        <v>0.497116</v>
       </c>
       <c r="D78" t="n">
-        <v>0.594841</v>
+        <v>0.5975200000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.252348</v>
+        <v>0.252133</v>
       </c>
       <c r="F78" t="n">
-        <v>0.421754</v>
+        <v>0.424026</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233392</v>
+        <v>0.233179</v>
       </c>
       <c r="C79" t="n">
-        <v>0.487405</v>
+        <v>0.492075</v>
       </c>
       <c r="D79" t="n">
-        <v>0.585117</v>
+        <v>0.5890879999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.252156</v>
+        <v>0.25173</v>
       </c>
       <c r="F79" t="n">
-        <v>0.420974</v>
+        <v>0.423175</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216639</v>
+        <v>0.216079</v>
       </c>
       <c r="C80" t="n">
-        <v>0.519826</v>
+        <v>0.525325</v>
       </c>
       <c r="D80" t="n">
-        <v>0.598462</v>
+        <v>0.601111</v>
       </c>
       <c r="E80" t="n">
-        <v>0.266162</v>
+        <v>0.26615</v>
       </c>
       <c r="F80" t="n">
-        <v>0.434136</v>
+        <v>0.43699</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357053</v>
+        <v>0.357407</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6125389999999999</v>
+        <v>0.618371</v>
       </c>
       <c r="D81" t="n">
-        <v>0.590319</v>
+        <v>0.593935</v>
       </c>
       <c r="E81" t="n">
-        <v>0.263854</v>
+        <v>0.2637</v>
       </c>
       <c r="F81" t="n">
-        <v>0.432836</v>
+        <v>0.435647</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351502</v>
+        <v>0.352037</v>
       </c>
       <c r="C82" t="n">
-        <v>0.597276</v>
+        <v>0.602828</v>
       </c>
       <c r="D82" t="n">
-        <v>0.585214</v>
+        <v>0.59124</v>
       </c>
       <c r="E82" t="n">
-        <v>0.261614</v>
+        <v>0.261726</v>
       </c>
       <c r="F82" t="n">
-        <v>0.431366</v>
+        <v>0.434357</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345866</v>
+        <v>0.345756</v>
       </c>
       <c r="C83" t="n">
-        <v>0.579887</v>
+        <v>0.584988</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5817290000000001</v>
+        <v>0.586466</v>
       </c>
       <c r="E83" t="n">
-        <v>0.260054</v>
+        <v>0.260058</v>
       </c>
       <c r="F83" t="n">
-        <v>0.430178</v>
+        <v>0.433117</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338659</v>
+        <v>0.338762</v>
       </c>
       <c r="C84" t="n">
-        <v>0.635254</v>
+        <v>0.641085</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5901380000000001</v>
+        <v>0.594926</v>
       </c>
       <c r="E84" t="n">
-        <v>0.258832</v>
+        <v>0.258822</v>
       </c>
       <c r="F84" t="n">
-        <v>0.429037</v>
+        <v>0.431942</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330791</v>
+        <v>0.330434</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5973889999999999</v>
+        <v>0.604598</v>
       </c>
       <c r="D85" t="n">
-        <v>0.574226</v>
+        <v>0.58118</v>
       </c>
       <c r="E85" t="n">
-        <v>0.257741</v>
+        <v>0.257831</v>
       </c>
       <c r="F85" t="n">
-        <v>0.428068</v>
+        <v>0.430971</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321623</v>
+        <v>0.32147</v>
       </c>
       <c r="C86" t="n">
-        <v>0.655758</v>
+        <v>0.6623250000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5772</v>
+        <v>0.581323</v>
       </c>
       <c r="E86" t="n">
-        <v>0.256441</v>
+        <v>0.256555</v>
       </c>
       <c r="F86" t="n">
-        <v>0.426859</v>
+        <v>0.429495</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.312285</v>
+        <v>0.312131</v>
       </c>
       <c r="C87" t="n">
-        <v>0.605693</v>
+        <v>0.61212</v>
       </c>
       <c r="D87" t="n">
-        <v>0.573275</v>
+        <v>0.5777600000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.255536</v>
+        <v>0.255426</v>
       </c>
       <c r="F87" t="n">
-        <v>0.425938</v>
+        <v>0.428703</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>0.3001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.512067</v>
+        <v>0.517848</v>
       </c>
       <c r="D88" t="n">
-        <v>0.566455</v>
+        <v>0.571495</v>
       </c>
       <c r="E88" t="n">
-        <v>0.254444</v>
+        <v>0.254495</v>
       </c>
       <c r="F88" t="n">
-        <v>0.425617</v>
+        <v>0.428127</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.288897</v>
+        <v>0.288476</v>
       </c>
       <c r="C89" t="n">
-        <v>0.529232</v>
+        <v>0.534593</v>
       </c>
       <c r="D89" t="n">
-        <v>0.565269</v>
+        <v>0.56756</v>
       </c>
       <c r="E89" t="n">
-        <v>0.254463</v>
+        <v>0.254207</v>
       </c>
       <c r="F89" t="n">
-        <v>0.424419</v>
+        <v>0.427249</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276543</v>
+        <v>0.276436</v>
       </c>
       <c r="C90" t="n">
-        <v>0.552091</v>
+        <v>0.52359</v>
       </c>
       <c r="D90" t="n">
-        <v>0.560454</v>
+        <v>0.565631</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253388</v>
+        <v>0.253665</v>
       </c>
       <c r="F90" t="n">
-        <v>0.423621</v>
+        <v>0.426237</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2635</v>
+        <v>0.263526</v>
       </c>
       <c r="C91" t="n">
-        <v>0.494801</v>
+        <v>0.500701</v>
       </c>
       <c r="D91" t="n">
-        <v>0.556939</v>
+        <v>0.5620849999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.25267</v>
+        <v>0.252848</v>
       </c>
       <c r="F91" t="n">
-        <v>0.422698</v>
+        <v>0.425432</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24963</v>
+        <v>0.249532</v>
       </c>
       <c r="C92" t="n">
-        <v>0.57533</v>
+        <v>0.581124</v>
       </c>
       <c r="D92" t="n">
-        <v>0.609942</v>
+        <v>0.613357</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252008</v>
+        <v>0.252263</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421994</v>
+        <v>0.424536</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234533</v>
+        <v>0.234506</v>
       </c>
       <c r="C93" t="n">
-        <v>0.475719</v>
+        <v>0.48271</v>
       </c>
       <c r="D93" t="n">
-        <v>0.608312</v>
+        <v>0.611038</v>
       </c>
       <c r="E93" t="n">
-        <v>0.251867</v>
+        <v>0.252258</v>
       </c>
       <c r="F93" t="n">
-        <v>0.421527</v>
+        <v>0.42397</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.218409</v>
+        <v>0.21847</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5158430000000001</v>
+        <v>0.500315</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6044</v>
+        <v>0.606915</v>
       </c>
       <c r="E94" t="n">
-        <v>0.26688</v>
+        <v>0.266833</v>
       </c>
       <c r="F94" t="n">
-        <v>0.434164</v>
+        <v>0.439651</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35895</v>
+        <v>0.359281</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5288</v>
+        <v>0.697558</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59317</v>
+        <v>0.591372</v>
       </c>
       <c r="E95" t="n">
-        <v>0.264204</v>
+        <v>0.264179</v>
       </c>
       <c r="F95" t="n">
-        <v>0.432965</v>
+        <v>0.435785</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354263</v>
+        <v>0.35417</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640159</v>
+        <v>0.645683</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5896</v>
+        <v>0.5938020000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.262146</v>
+        <v>0.262078</v>
       </c>
       <c r="F96" t="n">
-        <v>0.431681</v>
+        <v>0.434473</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347988</v>
+        <v>0.347817</v>
       </c>
       <c r="C97" t="n">
-        <v>0.655469</v>
+        <v>0.661637</v>
       </c>
       <c r="D97" t="n">
-        <v>0.587707</v>
+        <v>0.592619</v>
       </c>
       <c r="E97" t="n">
-        <v>0.260519</v>
+        <v>0.260564</v>
       </c>
       <c r="F97" t="n">
-        <v>0.430557</v>
+        <v>0.433377</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340727</v>
+        <v>0.3408</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6403720000000001</v>
+        <v>0.646513</v>
       </c>
       <c r="D98" t="n">
-        <v>0.580935</v>
+        <v>0.585118</v>
       </c>
       <c r="E98" t="n">
-        <v>0.259163</v>
+        <v>0.259099</v>
       </c>
       <c r="F98" t="n">
-        <v>0.429233</v>
+        <v>0.43212</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332988</v>
+        <v>0.332807</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582647</v>
+        <v>0.589435</v>
       </c>
       <c r="D99" t="n">
-        <v>0.57761</v>
+        <v>0.582472</v>
       </c>
       <c r="E99" t="n">
-        <v>0.257818</v>
+        <v>0.25768</v>
       </c>
       <c r="F99" t="n">
-        <v>0.428082</v>
+        <v>0.430877</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.324847</v>
+        <v>0.323799</v>
       </c>
       <c r="C100" t="n">
-        <v>0.642421</v>
+        <v>0.649196</v>
       </c>
       <c r="D100" t="n">
-        <v>0.566479</v>
+        <v>0.572141</v>
       </c>
       <c r="E100" t="n">
-        <v>0.256584</v>
+        <v>0.256652</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427372</v>
+        <v>0.429618</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31476</v>
+        <v>0.314412</v>
       </c>
       <c r="C101" t="n">
-        <v>0.540256</v>
+        <v>0.546208</v>
       </c>
       <c r="D101" t="n">
-        <v>0.558815</v>
+        <v>0.565712</v>
       </c>
       <c r="E101" t="n">
-        <v>0.255407</v>
+        <v>0.255525</v>
       </c>
       <c r="F101" t="n">
-        <v>0.426392</v>
+        <v>0.428961</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304237</v>
+        <v>0.304429</v>
       </c>
       <c r="C102" t="n">
-        <v>0.616721</v>
+        <v>0.6250329999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.556434</v>
+        <v>0.561772</v>
       </c>
       <c r="E102" t="n">
-        <v>0.254668</v>
+        <v>0.254699</v>
       </c>
       <c r="F102" t="n">
-        <v>0.425192</v>
+        <v>0.427911</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293687</v>
+        <v>0.293589</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585662</v>
+        <v>0.592299</v>
       </c>
       <c r="D103" t="n">
-        <v>0.553164</v>
+        <v>0.558592</v>
       </c>
       <c r="E103" t="n">
-        <v>0.253941</v>
+        <v>0.253808</v>
       </c>
       <c r="F103" t="n">
-        <v>0.424328</v>
+        <v>0.426965</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281387</v>
+        <v>0.281649</v>
       </c>
       <c r="C104" t="n">
-        <v>0.584964</v>
+        <v>0.591793</v>
       </c>
       <c r="D104" t="n">
-        <v>0.552415</v>
+        <v>0.557338</v>
       </c>
       <c r="E104" t="n">
-        <v>0.253885</v>
+        <v>0.254092</v>
       </c>
       <c r="F104" t="n">
-        <v>0.423457</v>
+        <v>0.425979</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269222</v>
+        <v>0.268573</v>
       </c>
       <c r="C105" t="n">
-        <v>0.540002</v>
+        <v>0.544395</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54447</v>
+        <v>0.5490390000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.253541</v>
+        <v>0.253428</v>
       </c>
       <c r="F105" t="n">
-        <v>0.423044</v>
+        <v>0.425068</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255168</v>
+        <v>0.254686</v>
       </c>
       <c r="C106" t="n">
-        <v>0.53176</v>
+        <v>0.536766</v>
       </c>
       <c r="D106" t="n">
-        <v>0.540809</v>
+        <v>0.546157</v>
       </c>
       <c r="E106" t="n">
-        <v>0.252969</v>
+        <v>0.252896</v>
       </c>
       <c r="F106" t="n">
-        <v>0.422294</v>
+        <v>0.42437</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240048</v>
+        <v>0.239759</v>
       </c>
       <c r="C107" t="n">
-        <v>0.51006</v>
+        <v>0.5152949999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.582974</v>
+        <v>0.588421</v>
       </c>
       <c r="E107" t="n">
-        <v>0.25222</v>
+        <v>0.25231</v>
       </c>
       <c r="F107" t="n">
-        <v>0.421557</v>
+        <v>0.423702</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223883</v>
+        <v>0.223864</v>
       </c>
       <c r="C108" t="n">
-        <v>0.446561</v>
+        <v>0.451274</v>
       </c>
       <c r="D108" t="n">
-        <v>0.606843</v>
+        <v>0.611998</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267997</v>
+        <v>0.266834</v>
       </c>
       <c r="F108" t="n">
-        <v>0.434648</v>
+        <v>0.438229</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207211</v>
+        <v>0.206741</v>
       </c>
       <c r="C109" t="n">
-        <v>0.434367</v>
+        <v>0.440748</v>
       </c>
       <c r="D109" t="n">
-        <v>0.603374</v>
+        <v>0.606626</v>
       </c>
       <c r="E109" t="n">
-        <v>0.265088</v>
+        <v>0.264534</v>
       </c>
       <c r="F109" t="n">
-        <v>0.433841</v>
+        <v>0.436813</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355352</v>
+        <v>0.355353</v>
       </c>
       <c r="C110" t="n">
-        <v>0.525075</v>
+        <v>0.535062</v>
       </c>
       <c r="D110" t="n">
-        <v>0.580456</v>
+        <v>0.585655</v>
       </c>
       <c r="E110" t="n">
-        <v>0.263112</v>
+        <v>0.26279</v>
       </c>
       <c r="F110" t="n">
-        <v>0.43194</v>
+        <v>0.435282</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349173</v>
+        <v>0.349231</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574663</v>
+        <v>0.585288</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579811</v>
+        <v>0.584171</v>
       </c>
       <c r="E111" t="n">
-        <v>0.261388</v>
+        <v>0.260623</v>
       </c>
       <c r="F111" t="n">
-        <v>0.430684</v>
+        <v>0.434016</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342399</v>
+        <v>0.342216</v>
       </c>
       <c r="C112" t="n">
-        <v>0.540157</v>
+        <v>0.54655</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5805169999999999</v>
+        <v>0.586079</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259687</v>
+        <v>0.259413</v>
       </c>
       <c r="F112" t="n">
-        <v>0.429595</v>
+        <v>0.433014</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334975</v>
+        <v>0.335034</v>
       </c>
       <c r="C113" t="n">
-        <v>0.663407</v>
+        <v>0.670024</v>
       </c>
       <c r="D113" t="n">
-        <v>0.566317</v>
+        <v>0.572128</v>
       </c>
       <c r="E113" t="n">
-        <v>0.258222</v>
+        <v>0.258189</v>
       </c>
       <c r="F113" t="n">
-        <v>0.42835</v>
+        <v>0.431388</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326639</v>
+        <v>0.326428</v>
       </c>
       <c r="C114" t="n">
-        <v>0.624499</v>
+        <v>0.631041</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562239</v>
+        <v>0.567893</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256929</v>
+        <v>0.256913</v>
       </c>
       <c r="F114" t="n">
-        <v>0.427223</v>
+        <v>0.430545</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317014</v>
+        <v>0.316869</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580412</v>
+        <v>0.587106</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5581390000000001</v>
+        <v>0.564002</v>
       </c>
       <c r="E115" t="n">
-        <v>0.255907</v>
+        <v>0.25581</v>
       </c>
       <c r="F115" t="n">
-        <v>0.426399</v>
+        <v>0.429385</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305678</v>
+        <v>0.305519</v>
       </c>
       <c r="C116" t="n">
-        <v>0.610474</v>
+        <v>0.616986</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5554559999999999</v>
+        <v>0.561241</v>
       </c>
       <c r="E116" t="n">
-        <v>0.254961</v>
+        <v>0.254885</v>
       </c>
       <c r="F116" t="n">
-        <v>0.425672</v>
+        <v>0.428679</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294874</v>
+        <v>0.294532</v>
       </c>
       <c r="C117" t="n">
-        <v>0.552466</v>
+        <v>0.55907</v>
       </c>
       <c r="D117" t="n">
-        <v>0.55025</v>
+        <v>0.556386</v>
       </c>
       <c r="E117" t="n">
-        <v>0.254053</v>
+        <v>0.254034</v>
       </c>
       <c r="F117" t="n">
-        <v>0.424464</v>
+        <v>0.427539</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284366</v>
+        <v>0.283924</v>
       </c>
       <c r="C118" t="n">
-        <v>0.510684</v>
+        <v>0.516231</v>
       </c>
       <c r="D118" t="n">
-        <v>0.546417</v>
+        <v>0.55233</v>
       </c>
       <c r="E118" t="n">
-        <v>0.253813</v>
+        <v>0.253821</v>
       </c>
       <c r="F118" t="n">
-        <v>0.423646</v>
+        <v>0.426693</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272129</v>
+        <v>0.271256</v>
       </c>
       <c r="C119" t="n">
-        <v>0.572644</v>
+        <v>0.580322</v>
       </c>
       <c r="D119" t="n">
-        <v>0.543798</v>
+        <v>0.54981</v>
       </c>
       <c r="E119" t="n">
-        <v>0.25315</v>
+        <v>0.253008</v>
       </c>
       <c r="F119" t="n">
-        <v>0.42285</v>
+        <v>0.426204</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259089</v>
+        <v>0.258453</v>
       </c>
       <c r="C120" t="n">
-        <v>0.479136</v>
+        <v>0.485567</v>
       </c>
       <c r="D120" t="n">
-        <v>0.539963</v>
+        <v>0.545777</v>
       </c>
       <c r="E120" t="n">
-        <v>0.252672</v>
+        <v>0.252521</v>
       </c>
       <c r="F120" t="n">
-        <v>0.422311</v>
+        <v>0.425385</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244325</v>
+        <v>0.244419</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.529759</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598661</v>
+        <v>0.604382</v>
       </c>
       <c r="E121" t="n">
-        <v>0.252285</v>
+        <v>0.252194</v>
       </c>
       <c r="F121" t="n">
-        <v>0.421722</v>
+        <v>0.424331</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228392</v>
+        <v>0.22793</v>
       </c>
       <c r="C122" t="n">
-        <v>0.503529</v>
+        <v>0.508897</v>
       </c>
       <c r="D122" t="n">
-        <v>0.618057</v>
+        <v>0.621713</v>
       </c>
       <c r="E122" t="n">
-        <v>0.251741</v>
+        <v>0.251552</v>
       </c>
       <c r="F122" t="n">
-        <v>0.420803</v>
+        <v>0.42328</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.210992</v>
+        <v>0.211071</v>
       </c>
       <c r="C123" t="n">
-        <v>0.447354</v>
+        <v>0.452661</v>
       </c>
       <c r="D123" t="n">
-        <v>0.594201</v>
+        <v>0.5995780000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.264974</v>
+        <v>0.265052</v>
       </c>
       <c r="F123" t="n">
-        <v>0.433346</v>
+        <v>0.436413</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356909</v>
+        <v>0.356917</v>
       </c>
       <c r="C124" t="n">
-        <v>0.537801</v>
+        <v>0.5429929999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6078170000000001</v>
+        <v>0.61214</v>
       </c>
       <c r="E124" t="n">
-        <v>0.262803</v>
+        <v>0.262775</v>
       </c>
       <c r="F124" t="n">
-        <v>0.43205</v>
+        <v>0.434818</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350761</v>
+        <v>0.350912</v>
       </c>
       <c r="C125" t="n">
-        <v>0.634008</v>
+        <v>0.637807</v>
       </c>
       <c r="D125" t="n">
-        <v>0.602958</v>
+        <v>0.606371</v>
       </c>
       <c r="E125" t="n">
-        <v>0.261062</v>
+        <v>0.260984</v>
       </c>
       <c r="F125" t="n">
-        <v>0.430886</v>
+        <v>0.434266</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.34441</v>
+        <v>0.344348</v>
       </c>
       <c r="C126" t="n">
-        <v>0.553411</v>
+        <v>0.559345</v>
       </c>
       <c r="D126" t="n">
-        <v>0.597371</v>
+        <v>0.600997</v>
       </c>
       <c r="E126" t="n">
-        <v>0.259709</v>
+        <v>0.259663</v>
       </c>
       <c r="F126" t="n">
-        <v>0.429461</v>
+        <v>0.432879</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337109</v>
+        <v>0.336925</v>
       </c>
       <c r="C127" t="n">
-        <v>0.61473</v>
+        <v>0.620437</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593377</v>
+        <v>0.597011</v>
       </c>
       <c r="E127" t="n">
-        <v>0.258387</v>
+        <v>0.258361</v>
       </c>
       <c r="F127" t="n">
-        <v>0.428524</v>
+        <v>0.431713</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328892</v>
+        <v>0.328303</v>
       </c>
       <c r="C128" t="n">
-        <v>0.591591</v>
+        <v>0.59787</v>
       </c>
       <c r="D128" t="n">
-        <v>0.57707</v>
+        <v>0.583458</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257159</v>
+        <v>0.257133</v>
       </c>
       <c r="F128" t="n">
-        <v>0.427321</v>
+        <v>0.43047</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.320021</v>
+        <v>0.319562</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6526960000000001</v>
+        <v>0.660423</v>
       </c>
       <c r="D129" t="n">
-        <v>0.578332</v>
+        <v>0.582349</v>
       </c>
       <c r="E129" t="n">
-        <v>0.25626</v>
+        <v>0.256197</v>
       </c>
       <c r="F129" t="n">
-        <v>0.426314</v>
+        <v>0.429582</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.310661</v>
+        <v>0.309839</v>
       </c>
       <c r="C130" t="n">
-        <v>0.602846</v>
+        <v>0.607993</v>
       </c>
       <c r="D130" t="n">
-        <v>0.56626</v>
+        <v>0.573093</v>
       </c>
       <c r="E130" t="n">
-        <v>0.255324</v>
+        <v>0.255242</v>
       </c>
       <c r="F130" t="n">
-        <v>0.425402</v>
+        <v>0.428485</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.300536</v>
+        <v>0.299213</v>
       </c>
       <c r="C131" t="n">
-        <v>0.577126</v>
+        <v>0.583871</v>
       </c>
       <c r="D131" t="n">
-        <v>0.561171</v>
+        <v>0.566649</v>
       </c>
       <c r="E131" t="n">
-        <v>0.254453</v>
+        <v>0.254467</v>
       </c>
       <c r="F131" t="n">
-        <v>0.424383</v>
+        <v>0.427519</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.289207</v>
+        <v>0.28758</v>
       </c>
       <c r="C132" t="n">
-        <v>0.558079</v>
+        <v>0.564298</v>
       </c>
       <c r="D132" t="n">
-        <v>0.556728</v>
+        <v>0.561995</v>
       </c>
       <c r="E132" t="n">
-        <v>0.253995</v>
+        <v>0.253851</v>
       </c>
       <c r="F132" t="n">
-        <v>0.423727</v>
+        <v>0.426639</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275953</v>
+        <v>0.275846</v>
       </c>
       <c r="C133" t="n">
-        <v>0.574466</v>
+        <v>0.578068</v>
       </c>
       <c r="D133" t="n">
-        <v>0.551732</v>
+        <v>0.556131</v>
       </c>
       <c r="E133" t="n">
-        <v>0.252729</v>
+        <v>0.253088</v>
       </c>
       <c r="F133" t="n">
-        <v>0.422884</v>
+        <v>0.426233</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26246</v>
+        <v>0.262516</v>
       </c>
       <c r="C134" t="n">
-        <v>0.542837</v>
+        <v>0.549663</v>
       </c>
       <c r="D134" t="n">
-        <v>0.546183</v>
+        <v>0.550729</v>
       </c>
       <c r="E134" t="n">
-        <v>0.252506</v>
+        <v>0.252519</v>
       </c>
       <c r="F134" t="n">
-        <v>0.422146</v>
+        <v>0.425096</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248676</v>
+        <v>0.248059</v>
       </c>
       <c r="C135" t="n">
-        <v>0.526803</v>
+        <v>0.529475</v>
       </c>
       <c r="D135" t="n">
-        <v>0.603724</v>
+        <v>0.609258</v>
       </c>
       <c r="E135" t="n">
-        <v>0.252212</v>
+        <v>0.252257</v>
       </c>
       <c r="F135" t="n">
-        <v>0.421489</v>
+        <v>0.424352</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23102</v>
+        <v>0.230763</v>
       </c>
       <c r="C136" t="n">
-        <v>0.508982</v>
+        <v>0.514411</v>
       </c>
       <c r="D136" t="n">
-        <v>0.605334</v>
+        <v>0.611703</v>
       </c>
       <c r="E136" t="n">
-        <v>0.251556</v>
+        <v>0.251633</v>
       </c>
       <c r="F136" t="n">
-        <v>0.421484</v>
+        <v>0.42357</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213594</v>
+        <v>0.213399</v>
       </c>
       <c r="C137" t="n">
-        <v>0.489641</v>
+        <v>0.4919</v>
       </c>
       <c r="D137" t="n">
-        <v>0.621842</v>
+        <v>0.625978</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26562</v>
+        <v>0.265547</v>
       </c>
       <c r="F137" t="n">
-        <v>0.433882</v>
+        <v>0.436839</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358002</v>
+        <v>0.358484</v>
       </c>
       <c r="C138" t="n">
-        <v>0.670577</v>
+        <v>0.679354</v>
       </c>
       <c r="D138" t="n">
-        <v>0.598319</v>
+        <v>0.603743</v>
       </c>
       <c r="E138" t="n">
-        <v>0.263426</v>
+        <v>0.263375</v>
       </c>
       <c r="F138" t="n">
-        <v>0.432279</v>
+        <v>0.435537</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3528</v>
+        <v>0.352651</v>
       </c>
       <c r="C139" t="n">
-        <v>0.663311</v>
+        <v>0.673123</v>
       </c>
       <c r="D139" t="n">
-        <v>0.595182</v>
+        <v>0.60023</v>
       </c>
       <c r="E139" t="n">
-        <v>0.261745</v>
+        <v>0.26173</v>
       </c>
       <c r="F139" t="n">
-        <v>0.431281</v>
+        <v>0.434182</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346737</v>
+        <v>0.34674</v>
       </c>
       <c r="C140" t="n">
-        <v>0.622059</v>
+        <v>0.627513</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5930029999999999</v>
+        <v>0.598062</v>
       </c>
       <c r="E140" t="n">
-        <v>0.260262</v>
+        <v>0.260208</v>
       </c>
       <c r="F140" t="n">
-        <v>0.429859</v>
+        <v>0.433043</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339249</v>
+        <v>0.339679</v>
       </c>
       <c r="C141" t="n">
-        <v>0.615532</v>
+        <v>0.620129</v>
       </c>
       <c r="D141" t="n">
-        <v>0.59651</v>
+        <v>0.600947</v>
       </c>
       <c r="E141" t="n">
-        <v>0.259026</v>
+        <v>0.258902</v>
       </c>
       <c r="F141" t="n">
-        <v>0.428618</v>
+        <v>0.431782</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331128</v>
+        <v>0.330843</v>
       </c>
       <c r="C142" t="n">
-        <v>0.631863</v>
+        <v>0.637938</v>
       </c>
       <c r="D142" t="n">
-        <v>0.589654</v>
+        <v>0.593538</v>
       </c>
       <c r="E142" t="n">
-        <v>0.257725</v>
+        <v>0.257665</v>
       </c>
       <c r="F142" t="n">
-        <v>0.42757</v>
+        <v>0.430633</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.322484</v>
+        <v>0.322788</v>
       </c>
       <c r="C143" t="n">
-        <v>0.630348</v>
+        <v>0.631979</v>
       </c>
       <c r="D143" t="n">
-        <v>0.582334</v>
+        <v>0.586656</v>
       </c>
       <c r="E143" t="n">
-        <v>0.256765</v>
+        <v>0.256644</v>
       </c>
       <c r="F143" t="n">
-        <v>0.426633</v>
+        <v>0.429564</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.271359</v>
+        <v>0.277146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.456343</v>
+        <v>0.45902</v>
       </c>
       <c r="D2" t="n">
-        <v>0.390093</v>
+        <v>0.389902</v>
       </c>
       <c r="E2" t="n">
-        <v>0.223701</v>
+        <v>0.224581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.417986</v>
+        <v>0.417503</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269942</v>
+        <v>0.272551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.453428</v>
+        <v>0.461411</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38958</v>
+        <v>0.389737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.226015</v>
+        <v>0.22724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.418244</v>
+        <v>0.415684</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.255994</v>
+        <v>0.261312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.443674</v>
+        <v>0.448426</v>
       </c>
       <c r="D4" t="n">
-        <v>0.391931</v>
+        <v>0.393167</v>
       </c>
       <c r="E4" t="n">
-        <v>0.227364</v>
+        <v>0.227649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.417277</v>
+        <v>0.414813</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245365</v>
+        <v>0.248439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435506</v>
+        <v>0.435214</v>
       </c>
       <c r="D5" t="n">
-        <v>0.392891</v>
+        <v>0.392645</v>
       </c>
       <c r="E5" t="n">
-        <v>0.234791</v>
+        <v>0.234281</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415527</v>
+        <v>0.415141</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234119</v>
+        <v>0.234068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.420747</v>
+        <v>0.420814</v>
       </c>
       <c r="D6" t="n">
-        <v>0.393751</v>
+        <v>0.393019</v>
       </c>
       <c r="E6" t="n">
-        <v>0.234169</v>
+        <v>0.232386</v>
       </c>
       <c r="F6" t="n">
-        <v>0.414472</v>
+        <v>0.414782</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224565</v>
+        <v>0.226475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.407658</v>
+        <v>0.407251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389351</v>
+        <v>0.389359</v>
       </c>
       <c r="E7" t="n">
-        <v>0.23701</v>
+        <v>0.23482</v>
       </c>
       <c r="F7" t="n">
-        <v>0.413953</v>
+        <v>0.413595</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206376</v>
+        <v>0.206641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.395005</v>
+        <v>0.393628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393718</v>
+        <v>0.393031</v>
       </c>
       <c r="E8" t="n">
-        <v>0.237349</v>
+        <v>0.236562</v>
       </c>
       <c r="F8" t="n">
-        <v>0.413289</v>
+        <v>0.414073</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190148</v>
+        <v>0.190894</v>
       </c>
       <c r="C9" t="n">
-        <v>0.38591</v>
+        <v>0.380725</v>
       </c>
       <c r="D9" t="n">
-        <v>0.393493</v>
+        <v>0.393155</v>
       </c>
       <c r="E9" t="n">
-        <v>0.253703</v>
+        <v>0.254193</v>
       </c>
       <c r="F9" t="n">
-        <v>0.427087</v>
+        <v>0.42717</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340578</v>
+        <v>0.341654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5202369999999999</v>
+        <v>0.516271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.393709</v>
+        <v>0.396835</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25396</v>
+        <v>0.253614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427831</v>
+        <v>0.427774</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.333773</v>
+        <v>0.334279</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5164299999999999</v>
+        <v>0.512792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.393969</v>
+        <v>0.394843</v>
       </c>
       <c r="E11" t="n">
-        <v>0.253848</v>
+        <v>0.253659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.426585</v>
+        <v>0.426318</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.327045</v>
+        <v>0.327345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.510141</v>
+        <v>0.506605</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394718</v>
+        <v>0.395806</v>
       </c>
       <c r="E12" t="n">
-        <v>0.252684</v>
+        <v>0.252809</v>
       </c>
       <c r="F12" t="n">
-        <v>0.423768</v>
+        <v>0.423781</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.321462</v>
+        <v>0.322027</v>
       </c>
       <c r="C13" t="n">
-        <v>0.501881</v>
+        <v>0.499125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394286</v>
+        <v>0.394359</v>
       </c>
       <c r="E13" t="n">
-        <v>0.252703</v>
+        <v>0.25318</v>
       </c>
       <c r="F13" t="n">
-        <v>0.425286</v>
+        <v>0.425415</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.313277</v>
+        <v>0.314376</v>
       </c>
       <c r="C14" t="n">
-        <v>0.491815</v>
+        <v>0.491981</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39696</v>
+        <v>0.396494</v>
       </c>
       <c r="E14" t="n">
-        <v>0.252361</v>
+        <v>0.252415</v>
       </c>
       <c r="F14" t="n">
-        <v>0.423949</v>
+        <v>0.423909</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.305801</v>
+        <v>0.306227</v>
       </c>
       <c r="C15" t="n">
-        <v>0.48365</v>
+        <v>0.483908</v>
       </c>
       <c r="D15" t="n">
-        <v>0.395206</v>
+        <v>0.395448</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2509</v>
+        <v>0.251453</v>
       </c>
       <c r="F15" t="n">
-        <v>0.423787</v>
+        <v>0.42355</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.296811</v>
+        <v>0.297622</v>
       </c>
       <c r="C16" t="n">
-        <v>0.474054</v>
+        <v>0.472729</v>
       </c>
       <c r="D16" t="n">
-        <v>0.397569</v>
+        <v>0.396921</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2519</v>
+        <v>0.250852</v>
       </c>
       <c r="F16" t="n">
-        <v>0.421179</v>
+        <v>0.421265</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286648</v>
+        <v>0.287227</v>
       </c>
       <c r="C17" t="n">
-        <v>0.465896</v>
+        <v>0.466334</v>
       </c>
       <c r="D17" t="n">
-        <v>0.398818</v>
+        <v>0.399068</v>
       </c>
       <c r="E17" t="n">
-        <v>0.250101</v>
+        <v>0.250778</v>
       </c>
       <c r="F17" t="n">
-        <v>0.420821</v>
+        <v>0.422445</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275757</v>
+        <v>0.275064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.457175</v>
+        <v>0.456801</v>
       </c>
       <c r="D18" t="n">
-        <v>0.399661</v>
+        <v>0.399841</v>
       </c>
       <c r="E18" t="n">
-        <v>0.249252</v>
+        <v>0.25053</v>
       </c>
       <c r="F18" t="n">
-        <v>0.420373</v>
+        <v>0.421405</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.264184</v>
+        <v>0.263978</v>
       </c>
       <c r="C19" t="n">
-        <v>0.450161</v>
+        <v>0.445274</v>
       </c>
       <c r="D19" t="n">
-        <v>0.400233</v>
+        <v>0.400569</v>
       </c>
       <c r="E19" t="n">
-        <v>0.251358</v>
+        <v>0.249445</v>
       </c>
       <c r="F19" t="n">
-        <v>0.41988</v>
+        <v>0.419997</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250557</v>
+        <v>0.250076</v>
       </c>
       <c r="C20" t="n">
-        <v>0.433784</v>
+        <v>0.42813</v>
       </c>
       <c r="D20" t="n">
-        <v>0.402261</v>
+        <v>0.402257</v>
       </c>
       <c r="E20" t="n">
-        <v>0.250446</v>
+        <v>0.249413</v>
       </c>
       <c r="F20" t="n">
-        <v>0.418641</v>
+        <v>0.418946</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242372</v>
+        <v>0.242567</v>
       </c>
       <c r="C21" t="n">
-        <v>0.417232</v>
+        <v>0.416763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.397608</v>
+        <v>0.397489</v>
       </c>
       <c r="E21" t="n">
-        <v>0.248181</v>
+        <v>0.247343</v>
       </c>
       <c r="F21" t="n">
-        <v>0.419288</v>
+        <v>0.418541</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226409</v>
+        <v>0.226125</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408961</v>
+        <v>0.408373</v>
       </c>
       <c r="D22" t="n">
-        <v>0.396092</v>
+        <v>0.395299</v>
       </c>
       <c r="E22" t="n">
-        <v>0.248146</v>
+        <v>0.248338</v>
       </c>
       <c r="F22" t="n">
-        <v>0.418894</v>
+        <v>0.418552</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.211409</v>
+        <v>0.207445</v>
       </c>
       <c r="C23" t="n">
-        <v>0.392853</v>
+        <v>0.391412</v>
       </c>
       <c r="D23" t="n">
-        <v>0.395658</v>
+        <v>0.39589</v>
       </c>
       <c r="E23" t="n">
-        <v>0.267273</v>
+        <v>0.266128</v>
       </c>
       <c r="F23" t="n">
-        <v>0.432526</v>
+        <v>0.431572</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348267</v>
+        <v>0.349296</v>
       </c>
       <c r="C24" t="n">
-        <v>0.517648</v>
+        <v>0.516641</v>
       </c>
       <c r="D24" t="n">
-        <v>0.398211</v>
+        <v>0.399257</v>
       </c>
       <c r="E24" t="n">
-        <v>0.263399</v>
+        <v>0.264539</v>
       </c>
       <c r="F24" t="n">
-        <v>0.430758</v>
+        <v>0.430284</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342533</v>
+        <v>0.342892</v>
       </c>
       <c r="C25" t="n">
-        <v>0.518756</v>
+        <v>0.518886</v>
       </c>
       <c r="D25" t="n">
-        <v>0.398811</v>
+        <v>0.399378</v>
       </c>
       <c r="E25" t="n">
-        <v>0.260837</v>
+        <v>0.261228</v>
       </c>
       <c r="F25" t="n">
-        <v>0.430658</v>
+        <v>0.429591</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336812</v>
+        <v>0.336246</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511319</v>
+        <v>0.510976</v>
       </c>
       <c r="D26" t="n">
-        <v>0.399509</v>
+        <v>0.399808</v>
       </c>
       <c r="E26" t="n">
-        <v>0.259703</v>
+        <v>0.259664</v>
       </c>
       <c r="F26" t="n">
-        <v>0.427874</v>
+        <v>0.427908</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332949</v>
+        <v>0.329949</v>
       </c>
       <c r="C27" t="n">
-        <v>0.504066</v>
+        <v>0.502431</v>
       </c>
       <c r="D27" t="n">
-        <v>0.400444</v>
+        <v>0.400277</v>
       </c>
       <c r="E27" t="n">
-        <v>0.258748</v>
+        <v>0.25859</v>
       </c>
       <c r="F27" t="n">
-        <v>0.427088</v>
+        <v>0.426859</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322155</v>
+        <v>0.321711</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495133</v>
+        <v>0.49514</v>
       </c>
       <c r="D28" t="n">
-        <v>0.399508</v>
+        <v>0.399909</v>
       </c>
       <c r="E28" t="n">
-        <v>0.257668</v>
+        <v>0.257537</v>
       </c>
       <c r="F28" t="n">
-        <v>0.427198</v>
+        <v>0.426912</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313933</v>
+        <v>0.313888</v>
       </c>
       <c r="C29" t="n">
-        <v>0.49216</v>
+        <v>0.491979</v>
       </c>
       <c r="D29" t="n">
-        <v>0.40238</v>
+        <v>0.401476</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25704</v>
+        <v>0.25703</v>
       </c>
       <c r="F29" t="n">
-        <v>0.426064</v>
+        <v>0.425913</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30565</v>
+        <v>0.306056</v>
       </c>
       <c r="C30" t="n">
-        <v>0.473537</v>
+        <v>0.474329</v>
       </c>
       <c r="D30" t="n">
-        <v>0.401585</v>
+        <v>0.401621</v>
       </c>
       <c r="E30" t="n">
-        <v>0.256666</v>
+        <v>0.255408</v>
       </c>
       <c r="F30" t="n">
-        <v>0.424864</v>
+        <v>0.424883</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.295842</v>
+        <v>0.296282</v>
       </c>
       <c r="C31" t="n">
-        <v>0.466003</v>
+        <v>0.46559</v>
       </c>
       <c r="D31" t="n">
-        <v>0.403521</v>
+        <v>0.404161</v>
       </c>
       <c r="E31" t="n">
-        <v>0.255355</v>
+        <v>0.254939</v>
       </c>
       <c r="F31" t="n">
-        <v>0.423546</v>
+        <v>0.423362</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284669</v>
+        <v>0.284213</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463389</v>
+        <v>0.463048</v>
       </c>
       <c r="D32" t="n">
-        <v>0.403989</v>
+        <v>0.404192</v>
       </c>
       <c r="E32" t="n">
-        <v>0.254656</v>
+        <v>0.254494</v>
       </c>
       <c r="F32" t="n">
-        <v>0.422676</v>
+        <v>0.422684</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272177</v>
+        <v>0.273097</v>
       </c>
       <c r="C33" t="n">
-        <v>0.44652</v>
+        <v>0.446302</v>
       </c>
       <c r="D33" t="n">
-        <v>0.404153</v>
+        <v>0.403707</v>
       </c>
       <c r="E33" t="n">
-        <v>0.256835</v>
+        <v>0.256297</v>
       </c>
       <c r="F33" t="n">
-        <v>0.421881</v>
+        <v>0.421742</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260832</v>
+        <v>0.261141</v>
       </c>
       <c r="C34" t="n">
-        <v>0.444634</v>
+        <v>0.442676</v>
       </c>
       <c r="D34" t="n">
-        <v>0.406023</v>
+        <v>0.405506</v>
       </c>
       <c r="E34" t="n">
-        <v>0.257033</v>
+        <v>0.251025</v>
       </c>
       <c r="F34" t="n">
-        <v>0.421656</v>
+        <v>0.421334</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247069</v>
+        <v>0.247637</v>
       </c>
       <c r="C35" t="n">
-        <v>0.424064</v>
+        <v>0.423917</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404057</v>
+        <v>0.403662</v>
       </c>
       <c r="E35" t="n">
-        <v>0.251582</v>
+        <v>0.251251</v>
       </c>
       <c r="F35" t="n">
-        <v>0.419732</v>
+        <v>0.420038</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232526</v>
+        <v>0.23329</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413452</v>
+        <v>0.413031</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403511</v>
+        <v>0.403708</v>
       </c>
       <c r="E36" t="n">
-        <v>0.25064</v>
+        <v>0.249397</v>
       </c>
       <c r="F36" t="n">
-        <v>0.418927</v>
+        <v>0.418826</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216596</v>
+        <v>0.217167</v>
       </c>
       <c r="C37" t="n">
-        <v>0.404211</v>
+        <v>0.402035</v>
       </c>
       <c r="D37" t="n">
-        <v>0.404309</v>
+        <v>0.404139</v>
       </c>
       <c r="E37" t="n">
-        <v>0.267667</v>
+        <v>0.267025</v>
       </c>
       <c r="F37" t="n">
-        <v>0.433771</v>
+        <v>0.433664</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.355031</v>
+        <v>0.354952</v>
       </c>
       <c r="C38" t="n">
-        <v>0.526877</v>
+        <v>0.527577</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40305</v>
+        <v>0.403451</v>
       </c>
       <c r="E38" t="n">
-        <v>0.264807</v>
+        <v>0.264813</v>
       </c>
       <c r="F38" t="n">
-        <v>0.431733</v>
+        <v>0.431746</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.349534</v>
+        <v>0.349605</v>
       </c>
       <c r="C39" t="n">
-        <v>0.521761</v>
+        <v>0.522356</v>
       </c>
       <c r="D39" t="n">
-        <v>0.403037</v>
+        <v>0.403361</v>
       </c>
       <c r="E39" t="n">
-        <v>0.261183</v>
+        <v>0.261095</v>
       </c>
       <c r="F39" t="n">
-        <v>0.43086</v>
+        <v>0.430548</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.34399</v>
+        <v>0.344154</v>
       </c>
       <c r="C40" t="n">
-        <v>0.515971</v>
+        <v>0.51613</v>
       </c>
       <c r="D40" t="n">
-        <v>0.403925</v>
+        <v>0.403959</v>
       </c>
       <c r="E40" t="n">
-        <v>0.260506</v>
+        <v>0.260539</v>
       </c>
       <c r="F40" t="n">
-        <v>0.430524</v>
+        <v>0.430444</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.337097</v>
+        <v>0.337258</v>
       </c>
       <c r="C41" t="n">
-        <v>0.508991</v>
+        <v>0.509065</v>
       </c>
       <c r="D41" t="n">
-        <v>0.403057</v>
+        <v>0.403138</v>
       </c>
       <c r="E41" t="n">
-        <v>0.259132</v>
+        <v>0.25928</v>
       </c>
       <c r="F41" t="n">
-        <v>0.428617</v>
+        <v>0.428673</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.330084</v>
+        <v>0.330231</v>
       </c>
       <c r="C42" t="n">
-        <v>0.498187</v>
+        <v>0.497655</v>
       </c>
       <c r="D42" t="n">
-        <v>0.404076</v>
+        <v>0.403374</v>
       </c>
       <c r="E42" t="n">
-        <v>0.257713</v>
+        <v>0.257815</v>
       </c>
       <c r="F42" t="n">
-        <v>0.42776</v>
+        <v>0.427692</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321931</v>
+        <v>0.321559</v>
       </c>
       <c r="C43" t="n">
-        <v>0.488385</v>
+        <v>0.488073</v>
       </c>
       <c r="D43" t="n">
-        <v>0.404639</v>
+        <v>0.405</v>
       </c>
       <c r="E43" t="n">
-        <v>0.257418</v>
+        <v>0.257038</v>
       </c>
       <c r="F43" t="n">
-        <v>0.427058</v>
+        <v>0.426358</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312607</v>
+        <v>0.312319</v>
       </c>
       <c r="C44" t="n">
-        <v>0.48579</v>
+        <v>0.483896</v>
       </c>
       <c r="D44" t="n">
-        <v>0.405842</v>
+        <v>0.40535</v>
       </c>
       <c r="E44" t="n">
-        <v>0.255663</v>
+        <v>0.255957</v>
       </c>
       <c r="F44" t="n">
-        <v>0.425418</v>
+        <v>0.425491</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302075</v>
+        <v>0.301769</v>
       </c>
       <c r="C45" t="n">
-        <v>0.474337</v>
+        <v>0.474263</v>
       </c>
       <c r="D45" t="n">
-        <v>0.407168</v>
+        <v>0.406877</v>
       </c>
       <c r="E45" t="n">
-        <v>0.253714</v>
+        <v>0.253942</v>
       </c>
       <c r="F45" t="n">
-        <v>0.424829</v>
+        <v>0.424898</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291006</v>
+        <v>0.29125</v>
       </c>
       <c r="C46" t="n">
-        <v>0.467043</v>
+        <v>0.466817</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406989</v>
+        <v>0.406971</v>
       </c>
       <c r="E46" t="n">
-        <v>0.252932</v>
+        <v>0.253043</v>
       </c>
       <c r="F46" t="n">
-        <v>0.423529</v>
+        <v>0.423226</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280108</v>
+        <v>0.28</v>
       </c>
       <c r="C47" t="n">
-        <v>0.456707</v>
+        <v>0.457079</v>
       </c>
       <c r="D47" t="n">
-        <v>0.408171</v>
+        <v>0.409086</v>
       </c>
       <c r="E47" t="n">
-        <v>0.252548</v>
+        <v>0.252249</v>
       </c>
       <c r="F47" t="n">
-        <v>0.422754</v>
+        <v>0.422741</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267332</v>
+        <v>0.267394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.444805</v>
+        <v>0.444711</v>
       </c>
       <c r="D48" t="n">
-        <v>0.409394</v>
+        <v>0.409146</v>
       </c>
       <c r="E48" t="n">
-        <v>0.252234</v>
+        <v>0.252097</v>
       </c>
       <c r="F48" t="n">
-        <v>0.422155</v>
+        <v>0.422457</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25353</v>
+        <v>0.253681</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431267</v>
+        <v>0.432302</v>
       </c>
       <c r="D49" t="n">
-        <v>0.411114</v>
+        <v>0.410939</v>
       </c>
       <c r="E49" t="n">
-        <v>0.252587</v>
+        <v>0.251537</v>
       </c>
       <c r="F49" t="n">
-        <v>0.421541</v>
+        <v>0.421443</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239223</v>
+        <v>0.238367</v>
       </c>
       <c r="C50" t="n">
-        <v>0.42428</v>
+        <v>0.424018</v>
       </c>
       <c r="D50" t="n">
-        <v>0.407627</v>
+        <v>0.407596</v>
       </c>
       <c r="E50" t="n">
-        <v>0.250143</v>
+        <v>0.250639</v>
       </c>
       <c r="F50" t="n">
-        <v>0.420517</v>
+        <v>0.420631</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222987</v>
+        <v>0.223274</v>
       </c>
       <c r="C51" t="n">
-        <v>0.402307</v>
+        <v>0.403435</v>
       </c>
       <c r="D51" t="n">
-        <v>0.40828</v>
+        <v>0.407755</v>
       </c>
       <c r="E51" t="n">
-        <v>0.267414</v>
+        <v>0.267543</v>
       </c>
       <c r="F51" t="n">
-        <v>0.434427</v>
+        <v>0.434714</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207496</v>
+        <v>0.207129</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384262</v>
+        <v>0.383974</v>
       </c>
       <c r="D52" t="n">
-        <v>0.409344</v>
+        <v>0.409389</v>
       </c>
       <c r="E52" t="n">
-        <v>0.265023</v>
+        <v>0.264873</v>
       </c>
       <c r="F52" t="n">
-        <v>0.433245</v>
+        <v>0.433807</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353738</v>
+        <v>0.353407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.523312</v>
+        <v>0.524494</v>
       </c>
       <c r="D53" t="n">
-        <v>0.408261</v>
+        <v>0.408266</v>
       </c>
       <c r="E53" t="n">
-        <v>0.262714</v>
+        <v>0.26261</v>
       </c>
       <c r="F53" t="n">
-        <v>0.431674</v>
+        <v>0.432201</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347414</v>
+        <v>0.347215</v>
       </c>
       <c r="C54" t="n">
-        <v>0.517918</v>
+        <v>0.518472</v>
       </c>
       <c r="D54" t="n">
-        <v>0.41094</v>
+        <v>0.410605</v>
       </c>
       <c r="E54" t="n">
-        <v>0.260577</v>
+        <v>0.260372</v>
       </c>
       <c r="F54" t="n">
-        <v>0.430271</v>
+        <v>0.430459</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.340803</v>
+        <v>0.34107</v>
       </c>
       <c r="C55" t="n">
-        <v>0.51675</v>
+        <v>0.514691</v>
       </c>
       <c r="D55" t="n">
-        <v>0.411323</v>
+        <v>0.411558</v>
       </c>
       <c r="E55" t="n">
-        <v>0.258979</v>
+        <v>0.258866</v>
       </c>
       <c r="F55" t="n">
-        <v>0.428788</v>
+        <v>0.428871</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334343</v>
+        <v>0.334349</v>
       </c>
       <c r="C56" t="n">
-        <v>0.502291</v>
+        <v>0.500885</v>
       </c>
       <c r="D56" t="n">
-        <v>0.415461</v>
+        <v>0.412515</v>
       </c>
       <c r="E56" t="n">
-        <v>0.257985</v>
+        <v>0.257924</v>
       </c>
       <c r="F56" t="n">
-        <v>0.427874</v>
+        <v>0.427787</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32572</v>
+        <v>0.325554</v>
       </c>
       <c r="C57" t="n">
-        <v>0.505802</v>
+        <v>0.499533</v>
       </c>
       <c r="D57" t="n">
-        <v>0.416824</v>
+        <v>0.411815</v>
       </c>
       <c r="E57" t="n">
-        <v>0.257023</v>
+        <v>0.25708</v>
       </c>
       <c r="F57" t="n">
-        <v>0.426854</v>
+        <v>0.427081</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.317111</v>
+        <v>0.31712</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503437</v>
+        <v>0.497439</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420279</v>
+        <v>0.41351</v>
       </c>
       <c r="E58" t="n">
-        <v>0.256175</v>
+        <v>0.256351</v>
       </c>
       <c r="F58" t="n">
-        <v>0.425971</v>
+        <v>0.4262</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30719</v>
+        <v>0.306867</v>
       </c>
       <c r="C59" t="n">
-        <v>0.489518</v>
+        <v>0.484984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.424054</v>
+        <v>0.416121</v>
       </c>
       <c r="E59" t="n">
-        <v>0.255132</v>
+        <v>0.255136</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425042</v>
+        <v>0.425225</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296274</v>
+        <v>0.296037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.493626</v>
+        <v>0.484869</v>
       </c>
       <c r="D60" t="n">
-        <v>0.425672</v>
+        <v>0.420455</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254216</v>
+        <v>0.254184</v>
       </c>
       <c r="F60" t="n">
-        <v>0.424622</v>
+        <v>0.424773</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285235</v>
+        <v>0.284415</v>
       </c>
       <c r="C61" t="n">
-        <v>0.485995</v>
+        <v>0.477796</v>
       </c>
       <c r="D61" t="n">
-        <v>0.426152</v>
+        <v>0.420868</v>
       </c>
       <c r="E61" t="n">
-        <v>0.254085</v>
+        <v>0.253741</v>
       </c>
       <c r="F61" t="n">
-        <v>0.426676</v>
+        <v>0.423846</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272346</v>
+        <v>0.271872</v>
       </c>
       <c r="C62" t="n">
-        <v>0.459603</v>
+        <v>0.464228</v>
       </c>
       <c r="D62" t="n">
-        <v>0.43496</v>
+        <v>0.424833</v>
       </c>
       <c r="E62" t="n">
-        <v>0.253456</v>
+        <v>0.252688</v>
       </c>
       <c r="F62" t="n">
-        <v>0.425662</v>
+        <v>0.423016</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258628</v>
+        <v>0.258147</v>
       </c>
       <c r="C63" t="n">
-        <v>0.437083</v>
+        <v>0.438699</v>
       </c>
       <c r="D63" t="n">
-        <v>0.438628</v>
+        <v>0.429744</v>
       </c>
       <c r="E63" t="n">
-        <v>0.252413</v>
+        <v>0.2519</v>
       </c>
       <c r="F63" t="n">
-        <v>0.424392</v>
+        <v>0.422347</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244188</v>
+        <v>0.244029</v>
       </c>
       <c r="C64" t="n">
-        <v>0.464654</v>
+        <v>0.45076</v>
       </c>
       <c r="D64" t="n">
-        <v>0.479853</v>
+        <v>0.45536</v>
       </c>
       <c r="E64" t="n">
-        <v>0.253135</v>
+        <v>0.252587</v>
       </c>
       <c r="F64" t="n">
-        <v>0.423884</v>
+        <v>0.421744</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229179</v>
+        <v>0.229781</v>
       </c>
       <c r="C65" t="n">
-        <v>0.441298</v>
+        <v>0.429099</v>
       </c>
       <c r="D65" t="n">
-        <v>0.475419</v>
+        <v>0.465505</v>
       </c>
       <c r="E65" t="n">
-        <v>0.251646</v>
+        <v>0.251361</v>
       </c>
       <c r="F65" t="n">
-        <v>0.423639</v>
+        <v>0.421386</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212327</v>
+        <v>0.212207</v>
       </c>
       <c r="C66" t="n">
-        <v>0.426194</v>
+        <v>0.413964</v>
       </c>
       <c r="D66" t="n">
-        <v>0.480255</v>
+        <v>0.469935</v>
       </c>
       <c r="E66" t="n">
-        <v>0.265377</v>
+        <v>0.265543</v>
       </c>
       <c r="F66" t="n">
-        <v>0.437129</v>
+        <v>0.433934</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.355846</v>
+        <v>0.355642</v>
       </c>
       <c r="C67" t="n">
-        <v>0.571842</v>
+        <v>0.56349</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486821</v>
+        <v>0.479265</v>
       </c>
       <c r="E67" t="n">
-        <v>0.263262</v>
+        <v>0.263365</v>
       </c>
       <c r="F67" t="n">
-        <v>0.435518</v>
+        <v>0.432359</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350238</v>
+        <v>0.350183</v>
       </c>
       <c r="C68" t="n">
-        <v>0.576776</v>
+        <v>0.569229</v>
       </c>
       <c r="D68" t="n">
-        <v>0.492643</v>
+        <v>0.484931</v>
       </c>
       <c r="E68" t="n">
-        <v>0.261524</v>
+        <v>0.261497</v>
       </c>
       <c r="F68" t="n">
-        <v>0.434286</v>
+        <v>0.431282</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.34374</v>
+        <v>0.343895</v>
       </c>
       <c r="C69" t="n">
-        <v>0.552418</v>
+        <v>0.545924</v>
       </c>
       <c r="D69" t="n">
-        <v>0.499209</v>
+        <v>0.494554</v>
       </c>
       <c r="E69" t="n">
-        <v>0.259555</v>
+        <v>0.259503</v>
       </c>
       <c r="F69" t="n">
-        <v>0.432899</v>
+        <v>0.429835</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336215</v>
+        <v>0.336564</v>
       </c>
       <c r="C70" t="n">
-        <v>0.566958</v>
+        <v>0.557042</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5055460000000001</v>
+        <v>0.494938</v>
       </c>
       <c r="E70" t="n">
-        <v>0.258482</v>
+        <v>0.258304</v>
       </c>
       <c r="F70" t="n">
-        <v>0.431915</v>
+        <v>0.428963</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328172</v>
+        <v>0.328255</v>
       </c>
       <c r="C71" t="n">
-        <v>0.569497</v>
+        <v>0.503763</v>
       </c>
       <c r="D71" t="n">
-        <v>0.507355</v>
+        <v>0.5215070000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.257291</v>
+        <v>0.257453</v>
       </c>
       <c r="F71" t="n">
-        <v>0.430241</v>
+        <v>0.427711</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319237</v>
+        <v>0.31919</v>
       </c>
       <c r="C72" t="n">
-        <v>0.551745</v>
+        <v>0.544478</v>
       </c>
       <c r="D72" t="n">
-        <v>0.513309</v>
+        <v>0.508046</v>
       </c>
       <c r="E72" t="n">
-        <v>0.256232</v>
+        <v>0.256291</v>
       </c>
       <c r="F72" t="n">
-        <v>0.429095</v>
+        <v>0.426743</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309482</v>
+        <v>0.309414</v>
       </c>
       <c r="C73" t="n">
-        <v>0.533501</v>
+        <v>0.526662</v>
       </c>
       <c r="D73" t="n">
-        <v>0.51632</v>
+        <v>0.512657</v>
       </c>
       <c r="E73" t="n">
-        <v>0.255013</v>
+        <v>0.255018</v>
       </c>
       <c r="F73" t="n">
-        <v>0.428313</v>
+        <v>0.425548</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299013</v>
+        <v>0.299115</v>
       </c>
       <c r="C74" t="n">
-        <v>0.528655</v>
+        <v>0.521891</v>
       </c>
       <c r="D74" t="n">
-        <v>0.522749</v>
+        <v>0.515162</v>
       </c>
       <c r="E74" t="n">
-        <v>0.254839</v>
+        <v>0.254137</v>
       </c>
       <c r="F74" t="n">
-        <v>0.42751</v>
+        <v>0.424773</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288296</v>
+        <v>0.288049</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5427650000000001</v>
+        <v>0.524282</v>
       </c>
       <c r="D75" t="n">
-        <v>0.51588</v>
+        <v>0.515616</v>
       </c>
       <c r="E75" t="n">
-        <v>0.254077</v>
+        <v>0.253845</v>
       </c>
       <c r="F75" t="n">
-        <v>0.426198</v>
+        <v>0.423896</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275573</v>
+        <v>0.27558</v>
       </c>
       <c r="C76" t="n">
-        <v>0.519118</v>
+        <v>0.512425</v>
       </c>
       <c r="D76" t="n">
-        <v>0.520083</v>
+        <v>0.516729</v>
       </c>
       <c r="E76" t="n">
-        <v>0.253023</v>
+        <v>0.252984</v>
       </c>
       <c r="F76" t="n">
-        <v>0.425557</v>
+        <v>0.42324</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262556</v>
+        <v>0.26257</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5409350000000001</v>
+        <v>0.535969</v>
       </c>
       <c r="D77" t="n">
-        <v>0.521916</v>
+        <v>0.5184609999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.252368</v>
+        <v>0.252286</v>
       </c>
       <c r="F77" t="n">
-        <v>0.425182</v>
+        <v>0.422772</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248431</v>
+        <v>0.248544</v>
       </c>
       <c r="C78" t="n">
-        <v>0.497116</v>
+        <v>0.491663</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5975200000000001</v>
+        <v>0.595435</v>
       </c>
       <c r="E78" t="n">
-        <v>0.252133</v>
+        <v>0.251575</v>
       </c>
       <c r="F78" t="n">
-        <v>0.424026</v>
+        <v>0.421746</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233179</v>
+        <v>0.233158</v>
       </c>
       <c r="C79" t="n">
-        <v>0.492075</v>
+        <v>0.486915</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5890879999999999</v>
+        <v>0.584947</v>
       </c>
       <c r="E79" t="n">
-        <v>0.25173</v>
+        <v>0.250797</v>
       </c>
       <c r="F79" t="n">
-        <v>0.423175</v>
+        <v>0.421058</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216079</v>
+        <v>0.216226</v>
       </c>
       <c r="C80" t="n">
-        <v>0.525325</v>
+        <v>0.5195650000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.601111</v>
+        <v>0.596527</v>
       </c>
       <c r="E80" t="n">
-        <v>0.26615</v>
+        <v>0.266323</v>
       </c>
       <c r="F80" t="n">
-        <v>0.43699</v>
+        <v>0.434201</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357407</v>
+        <v>0.357515</v>
       </c>
       <c r="C81" t="n">
-        <v>0.618371</v>
+        <v>0.613078</v>
       </c>
       <c r="D81" t="n">
-        <v>0.593935</v>
+        <v>0.58997</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2637</v>
+        <v>0.263816</v>
       </c>
       <c r="F81" t="n">
-        <v>0.435647</v>
+        <v>0.432854</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352037</v>
+        <v>0.35177</v>
       </c>
       <c r="C82" t="n">
-        <v>0.602828</v>
+        <v>0.59811</v>
       </c>
       <c r="D82" t="n">
-        <v>0.59124</v>
+        <v>0.58628</v>
       </c>
       <c r="E82" t="n">
-        <v>0.261726</v>
+        <v>0.261543</v>
       </c>
       <c r="F82" t="n">
-        <v>0.434357</v>
+        <v>0.431448</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345756</v>
+        <v>0.344949</v>
       </c>
       <c r="C83" t="n">
-        <v>0.584988</v>
+        <v>0.580088</v>
       </c>
       <c r="D83" t="n">
-        <v>0.586466</v>
+        <v>0.582279</v>
       </c>
       <c r="E83" t="n">
-        <v>0.260058</v>
+        <v>0.260038</v>
       </c>
       <c r="F83" t="n">
-        <v>0.433117</v>
+        <v>0.430883</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338762</v>
+        <v>0.338688</v>
       </c>
       <c r="C84" t="n">
-        <v>0.641085</v>
+        <v>0.635273</v>
       </c>
       <c r="D84" t="n">
-        <v>0.594926</v>
+        <v>0.590817</v>
       </c>
       <c r="E84" t="n">
-        <v>0.258822</v>
+        <v>0.258624</v>
       </c>
       <c r="F84" t="n">
-        <v>0.431942</v>
+        <v>0.429866</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330434</v>
+        <v>0.330583</v>
       </c>
       <c r="C85" t="n">
-        <v>0.604598</v>
+        <v>0.599662</v>
       </c>
       <c r="D85" t="n">
-        <v>0.58118</v>
+        <v>0.575285</v>
       </c>
       <c r="E85" t="n">
-        <v>0.257831</v>
+        <v>0.257861</v>
       </c>
       <c r="F85" t="n">
-        <v>0.430971</v>
+        <v>0.428557</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.32147</v>
+        <v>0.321531</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6623250000000001</v>
+        <v>0.6560859999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.581323</v>
+        <v>0.577777</v>
       </c>
       <c r="E86" t="n">
-        <v>0.256555</v>
+        <v>0.256509</v>
       </c>
       <c r="F86" t="n">
-        <v>0.429495</v>
+        <v>0.428272</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.312131</v>
+        <v>0.312122</v>
       </c>
       <c r="C87" t="n">
-        <v>0.61212</v>
+        <v>0.607169</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5777600000000001</v>
+        <v>0.574245</v>
       </c>
       <c r="E87" t="n">
-        <v>0.255426</v>
+        <v>0.255514</v>
       </c>
       <c r="F87" t="n">
-        <v>0.428703</v>
+        <v>0.426442</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3001</v>
+        <v>0.300145</v>
       </c>
       <c r="C88" t="n">
-        <v>0.517848</v>
+        <v>0.511504</v>
       </c>
       <c r="D88" t="n">
-        <v>0.571495</v>
+        <v>0.567348</v>
       </c>
       <c r="E88" t="n">
-        <v>0.254495</v>
+        <v>0.254577</v>
       </c>
       <c r="F88" t="n">
-        <v>0.428127</v>
+        <v>0.425473</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.288476</v>
+        <v>0.288977</v>
       </c>
       <c r="C89" t="n">
-        <v>0.534593</v>
+        <v>0.528698</v>
       </c>
       <c r="D89" t="n">
-        <v>0.56756</v>
+        <v>0.563675</v>
       </c>
       <c r="E89" t="n">
-        <v>0.254207</v>
+        <v>0.254243</v>
       </c>
       <c r="F89" t="n">
-        <v>0.427249</v>
+        <v>0.424826</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276436</v>
+        <v>0.276629</v>
       </c>
       <c r="C90" t="n">
-        <v>0.52359</v>
+        <v>0.518868</v>
       </c>
       <c r="D90" t="n">
-        <v>0.565631</v>
+        <v>0.561148</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253665</v>
+        <v>0.253379</v>
       </c>
       <c r="F90" t="n">
-        <v>0.426237</v>
+        <v>0.423947</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.263526</v>
+        <v>0.263664</v>
       </c>
       <c r="C91" t="n">
-        <v>0.500701</v>
+        <v>0.495584</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5620849999999999</v>
+        <v>0.557162</v>
       </c>
       <c r="E91" t="n">
-        <v>0.252848</v>
+        <v>0.252618</v>
       </c>
       <c r="F91" t="n">
-        <v>0.425432</v>
+        <v>0.422944</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.249532</v>
+        <v>0.249737</v>
       </c>
       <c r="C92" t="n">
-        <v>0.581124</v>
+        <v>0.575709</v>
       </c>
       <c r="D92" t="n">
-        <v>0.613357</v>
+        <v>0.609754</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252263</v>
+        <v>0.252465</v>
       </c>
       <c r="F92" t="n">
-        <v>0.424536</v>
+        <v>0.4224</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234506</v>
+        <v>0.234502</v>
       </c>
       <c r="C93" t="n">
-        <v>0.48271</v>
+        <v>0.476611</v>
       </c>
       <c r="D93" t="n">
-        <v>0.611038</v>
+        <v>0.609231</v>
       </c>
       <c r="E93" t="n">
-        <v>0.252258</v>
+        <v>0.251743</v>
       </c>
       <c r="F93" t="n">
-        <v>0.42397</v>
+        <v>0.421947</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.21847</v>
+        <v>0.218346</v>
       </c>
       <c r="C94" t="n">
-        <v>0.500315</v>
+        <v>0.516551</v>
       </c>
       <c r="D94" t="n">
-        <v>0.606915</v>
+        <v>0.604536</v>
       </c>
       <c r="E94" t="n">
-        <v>0.266833</v>
+        <v>0.266593</v>
       </c>
       <c r="F94" t="n">
-        <v>0.439651</v>
+        <v>0.434484</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359281</v>
+        <v>0.358841</v>
       </c>
       <c r="C95" t="n">
-        <v>0.697558</v>
+        <v>0.528488</v>
       </c>
       <c r="D95" t="n">
-        <v>0.591372</v>
+        <v>0.593832</v>
       </c>
       <c r="E95" t="n">
-        <v>0.264179</v>
+        <v>0.264255</v>
       </c>
       <c r="F95" t="n">
-        <v>0.435785</v>
+        <v>0.433073</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.35417</v>
+        <v>0.354129</v>
       </c>
       <c r="C96" t="n">
-        <v>0.645683</v>
+        <v>0.640826</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5938020000000001</v>
+        <v>0.590018</v>
       </c>
       <c r="E96" t="n">
-        <v>0.262078</v>
+        <v>0.262027</v>
       </c>
       <c r="F96" t="n">
-        <v>0.434473</v>
+        <v>0.431839</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347817</v>
+        <v>0.347867</v>
       </c>
       <c r="C97" t="n">
-        <v>0.661637</v>
+        <v>0.656531</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592619</v>
+        <v>0.5881690000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.260564</v>
+        <v>0.260461</v>
       </c>
       <c r="F97" t="n">
-        <v>0.433377</v>
+        <v>0.430678</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3408</v>
+        <v>0.340752</v>
       </c>
       <c r="C98" t="n">
-        <v>0.646513</v>
+        <v>0.641045</v>
       </c>
       <c r="D98" t="n">
-        <v>0.585118</v>
+        <v>0.581732</v>
       </c>
       <c r="E98" t="n">
         <v>0.259099</v>
       </c>
       <c r="F98" t="n">
-        <v>0.43212</v>
+        <v>0.429428</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332807</v>
+        <v>0.332913</v>
       </c>
       <c r="C99" t="n">
-        <v>0.589435</v>
+        <v>0.5830070000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.582472</v>
+        <v>0.57842</v>
       </c>
       <c r="E99" t="n">
-        <v>0.25768</v>
+        <v>0.257812</v>
       </c>
       <c r="F99" t="n">
-        <v>0.430877</v>
+        <v>0.428293</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.323799</v>
+        <v>0.323942</v>
       </c>
       <c r="C100" t="n">
-        <v>0.649196</v>
+        <v>0.644255</v>
       </c>
       <c r="D100" t="n">
-        <v>0.572141</v>
+        <v>0.567449</v>
       </c>
       <c r="E100" t="n">
-        <v>0.256652</v>
+        <v>0.256688</v>
       </c>
       <c r="F100" t="n">
-        <v>0.429618</v>
+        <v>0.427784</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.314412</v>
+        <v>0.314538</v>
       </c>
       <c r="C101" t="n">
-        <v>0.546208</v>
+        <v>0.540701</v>
       </c>
       <c r="D101" t="n">
-        <v>0.565712</v>
+        <v>0.559377</v>
       </c>
       <c r="E101" t="n">
-        <v>0.255525</v>
+        <v>0.255528</v>
       </c>
       <c r="F101" t="n">
-        <v>0.428961</v>
+        <v>0.42638</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304429</v>
+        <v>0.304462</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6250329999999999</v>
+        <v>0.617715</v>
       </c>
       <c r="D102" t="n">
-        <v>0.561772</v>
+        <v>0.556711</v>
       </c>
       <c r="E102" t="n">
-        <v>0.254699</v>
+        <v>0.254808</v>
       </c>
       <c r="F102" t="n">
-        <v>0.427911</v>
+        <v>0.425463</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293589</v>
+        <v>0.293531</v>
       </c>
       <c r="C103" t="n">
-        <v>0.592299</v>
+        <v>0.586244</v>
       </c>
       <c r="D103" t="n">
-        <v>0.558592</v>
+        <v>0.553418</v>
       </c>
       <c r="E103" t="n">
-        <v>0.253808</v>
+        <v>0.253801</v>
       </c>
       <c r="F103" t="n">
-        <v>0.426965</v>
+        <v>0.424637</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281649</v>
+        <v>0.281492</v>
       </c>
       <c r="C104" t="n">
-        <v>0.591793</v>
+        <v>0.585871</v>
       </c>
       <c r="D104" t="n">
-        <v>0.557338</v>
+        <v>0.552758</v>
       </c>
       <c r="E104" t="n">
-        <v>0.254092</v>
+        <v>0.254026</v>
       </c>
       <c r="F104" t="n">
-        <v>0.425979</v>
+        <v>0.423816</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268573</v>
+        <v>0.268613</v>
       </c>
       <c r="C105" t="n">
-        <v>0.544395</v>
+        <v>0.538965</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5490390000000001</v>
+        <v>0.54439</v>
       </c>
       <c r="E105" t="n">
-        <v>0.253428</v>
+        <v>0.253565</v>
       </c>
       <c r="F105" t="n">
-        <v>0.425068</v>
+        <v>0.423267</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254686</v>
+        <v>0.254951</v>
       </c>
       <c r="C106" t="n">
-        <v>0.536766</v>
+        <v>0.533381</v>
       </c>
       <c r="D106" t="n">
-        <v>0.546157</v>
+        <v>0.54081</v>
       </c>
       <c r="E106" t="n">
-        <v>0.252896</v>
+        <v>0.253125</v>
       </c>
       <c r="F106" t="n">
-        <v>0.42437</v>
+        <v>0.422809</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239759</v>
+        <v>0.239938</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5152949999999999</v>
+        <v>0.510761</v>
       </c>
       <c r="D107" t="n">
-        <v>0.588421</v>
+        <v>0.583576</v>
       </c>
       <c r="E107" t="n">
-        <v>0.25231</v>
+        <v>0.252606</v>
       </c>
       <c r="F107" t="n">
-        <v>0.423702</v>
+        <v>0.421709</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223864</v>
+        <v>0.222606</v>
       </c>
       <c r="C108" t="n">
-        <v>0.451274</v>
+        <v>0.447408</v>
       </c>
       <c r="D108" t="n">
-        <v>0.611998</v>
+        <v>0.609392</v>
       </c>
       <c r="E108" t="n">
-        <v>0.266834</v>
+        <v>0.266971</v>
       </c>
       <c r="F108" t="n">
-        <v>0.438229</v>
+        <v>0.434929</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.206741</v>
+        <v>0.206913</v>
       </c>
       <c r="C109" t="n">
-        <v>0.440748</v>
+        <v>0.43482</v>
       </c>
       <c r="D109" t="n">
-        <v>0.606626</v>
+        <v>0.60399</v>
       </c>
       <c r="E109" t="n">
-        <v>0.264534</v>
+        <v>0.264706</v>
       </c>
       <c r="F109" t="n">
-        <v>0.436813</v>
+        <v>0.43356</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355353</v>
+        <v>0.354868</v>
       </c>
       <c r="C110" t="n">
-        <v>0.535062</v>
+        <v>0.528492</v>
       </c>
       <c r="D110" t="n">
-        <v>0.585655</v>
+        <v>0.580976</v>
       </c>
       <c r="E110" t="n">
-        <v>0.26279</v>
+        <v>0.262709</v>
       </c>
       <c r="F110" t="n">
-        <v>0.435282</v>
+        <v>0.432166</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349231</v>
+        <v>0.34858</v>
       </c>
       <c r="C111" t="n">
-        <v>0.585288</v>
+        <v>0.575091</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584171</v>
+        <v>0.580046</v>
       </c>
       <c r="E111" t="n">
-        <v>0.260623</v>
+        <v>0.260714</v>
       </c>
       <c r="F111" t="n">
-        <v>0.434016</v>
+        <v>0.431974</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342216</v>
+        <v>0.341922</v>
       </c>
       <c r="C112" t="n">
-        <v>0.54655</v>
+        <v>0.5405219999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.586079</v>
+        <v>0.580711</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259413</v>
+        <v>0.25942</v>
       </c>
       <c r="F112" t="n">
-        <v>0.433014</v>
+        <v>0.42976</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.335034</v>
+        <v>0.33509</v>
       </c>
       <c r="C113" t="n">
-        <v>0.670024</v>
+        <v>0.664006</v>
       </c>
       <c r="D113" t="n">
-        <v>0.572128</v>
+        <v>0.566683</v>
       </c>
       <c r="E113" t="n">
-        <v>0.258189</v>
+        <v>0.258168</v>
       </c>
       <c r="F113" t="n">
-        <v>0.431388</v>
+        <v>0.428523</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326428</v>
+        <v>0.326156</v>
       </c>
       <c r="C114" t="n">
-        <v>0.631041</v>
+        <v>0.624261</v>
       </c>
       <c r="D114" t="n">
-        <v>0.567893</v>
+        <v>0.562603</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256913</v>
+        <v>0.256971</v>
       </c>
       <c r="F114" t="n">
-        <v>0.430545</v>
+        <v>0.427526</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.316869</v>
+        <v>0.316888</v>
       </c>
       <c r="C115" t="n">
-        <v>0.587106</v>
+        <v>0.580254</v>
       </c>
       <c r="D115" t="n">
-        <v>0.564002</v>
+        <v>0.558483</v>
       </c>
       <c r="E115" t="n">
-        <v>0.25581</v>
+        <v>0.255831</v>
       </c>
       <c r="F115" t="n">
-        <v>0.429385</v>
+        <v>0.426942</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305519</v>
+        <v>0.305239</v>
       </c>
       <c r="C116" t="n">
-        <v>0.616986</v>
+        <v>0.611271</v>
       </c>
       <c r="D116" t="n">
-        <v>0.561241</v>
+        <v>0.556036</v>
       </c>
       <c r="E116" t="n">
-        <v>0.254885</v>
+        <v>0.25493</v>
       </c>
       <c r="F116" t="n">
-        <v>0.428679</v>
+        <v>0.425755</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294532</v>
+        <v>0.294387</v>
       </c>
       <c r="C117" t="n">
-        <v>0.55907</v>
+        <v>0.55227</v>
       </c>
       <c r="D117" t="n">
-        <v>0.556386</v>
+        <v>0.550579</v>
       </c>
       <c r="E117" t="n">
-        <v>0.254034</v>
+        <v>0.254069</v>
       </c>
       <c r="F117" t="n">
-        <v>0.427539</v>
+        <v>0.42487</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283924</v>
+        <v>0.284181</v>
       </c>
       <c r="C118" t="n">
-        <v>0.516231</v>
+        <v>0.512256</v>
       </c>
       <c r="D118" t="n">
-        <v>0.55233</v>
+        <v>0.5471200000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.253821</v>
+        <v>0.253825</v>
       </c>
       <c r="F118" t="n">
-        <v>0.426693</v>
+        <v>0.424676</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271256</v>
+        <v>0.271958</v>
       </c>
       <c r="C119" t="n">
-        <v>0.580322</v>
+        <v>0.57448</v>
       </c>
       <c r="D119" t="n">
-        <v>0.54981</v>
+        <v>0.544419</v>
       </c>
       <c r="E119" t="n">
-        <v>0.253008</v>
+        <v>0.25316</v>
       </c>
       <c r="F119" t="n">
-        <v>0.426204</v>
+        <v>0.423964</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258453</v>
+        <v>0.25861</v>
       </c>
       <c r="C120" t="n">
-        <v>0.485567</v>
+        <v>0.479514</v>
       </c>
       <c r="D120" t="n">
-        <v>0.545777</v>
+        <v>0.540194</v>
       </c>
       <c r="E120" t="n">
-        <v>0.252521</v>
+        <v>0.252402</v>
       </c>
       <c r="F120" t="n">
-        <v>0.425385</v>
+        <v>0.422673</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244419</v>
+        <v>0.243854</v>
       </c>
       <c r="C121" t="n">
-        <v>0.529759</v>
+        <v>0.522867</v>
       </c>
       <c r="D121" t="n">
-        <v>0.604382</v>
+        <v>0.598955</v>
       </c>
       <c r="E121" t="n">
-        <v>0.252194</v>
+        <v>0.252047</v>
       </c>
       <c r="F121" t="n">
-        <v>0.424331</v>
+        <v>0.421867</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.22793</v>
+        <v>0.22787</v>
       </c>
       <c r="C122" t="n">
-        <v>0.508897</v>
+        <v>0.503225</v>
       </c>
       <c r="D122" t="n">
-        <v>0.621713</v>
+        <v>0.618309</v>
       </c>
       <c r="E122" t="n">
-        <v>0.251552</v>
+        <v>0.251507</v>
       </c>
       <c r="F122" t="n">
-        <v>0.42328</v>
+        <v>0.421078</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.211071</v>
+        <v>0.210947</v>
       </c>
       <c r="C123" t="n">
-        <v>0.452661</v>
+        <v>0.44733</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5995780000000001</v>
+        <v>0.594209</v>
       </c>
       <c r="E123" t="n">
-        <v>0.265052</v>
+        <v>0.264887</v>
       </c>
       <c r="F123" t="n">
-        <v>0.436413</v>
+        <v>0.433722</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356917</v>
+        <v>0.356875</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5429929999999999</v>
+        <v>0.537842</v>
       </c>
       <c r="D124" t="n">
-        <v>0.61214</v>
+        <v>0.608135</v>
       </c>
       <c r="E124" t="n">
-        <v>0.262775</v>
+        <v>0.262633</v>
       </c>
       <c r="F124" t="n">
-        <v>0.434818</v>
+        <v>0.432261</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350912</v>
+        <v>0.350866</v>
       </c>
       <c r="C125" t="n">
-        <v>0.637807</v>
+        <v>0.634081</v>
       </c>
       <c r="D125" t="n">
-        <v>0.606371</v>
+        <v>0.602517</v>
       </c>
       <c r="E125" t="n">
-        <v>0.260984</v>
+        <v>0.260987</v>
       </c>
       <c r="F125" t="n">
-        <v>0.434266</v>
+        <v>0.431025</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344348</v>
+        <v>0.343785</v>
       </c>
       <c r="C126" t="n">
-        <v>0.559345</v>
+        <v>0.553504</v>
       </c>
       <c r="D126" t="n">
-        <v>0.600997</v>
+        <v>0.597083</v>
       </c>
       <c r="E126" t="n">
-        <v>0.259663</v>
+        <v>0.259532</v>
       </c>
       <c r="F126" t="n">
-        <v>0.432879</v>
+        <v>0.429738</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.336925</v>
+        <v>0.33641</v>
       </c>
       <c r="C127" t="n">
-        <v>0.620437</v>
+        <v>0.614252</v>
       </c>
       <c r="D127" t="n">
-        <v>0.597011</v>
+        <v>0.593541</v>
       </c>
       <c r="E127" t="n">
-        <v>0.258361</v>
+        <v>0.258288</v>
       </c>
       <c r="F127" t="n">
-        <v>0.431713</v>
+        <v>0.428684</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328303</v>
+        <v>0.328018</v>
       </c>
       <c r="C128" t="n">
-        <v>0.59787</v>
+        <v>0.591702</v>
       </c>
       <c r="D128" t="n">
-        <v>0.583458</v>
+        <v>0.577524</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257133</v>
+        <v>0.257139</v>
       </c>
       <c r="F128" t="n">
-        <v>0.43047</v>
+        <v>0.428056</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.319562</v>
+        <v>0.318587</v>
       </c>
       <c r="C129" t="n">
-        <v>0.660423</v>
+        <v>0.652698</v>
       </c>
       <c r="D129" t="n">
-        <v>0.582349</v>
+        <v>0.578742</v>
       </c>
       <c r="E129" t="n">
-        <v>0.256197</v>
+        <v>0.256171</v>
       </c>
       <c r="F129" t="n">
-        <v>0.429582</v>
+        <v>0.426582</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.309839</v>
+        <v>0.309169</v>
       </c>
       <c r="C130" t="n">
-        <v>0.607993</v>
+        <v>0.607418</v>
       </c>
       <c r="D130" t="n">
-        <v>0.573093</v>
+        <v>0.565694</v>
       </c>
       <c r="E130" t="n">
-        <v>0.255242</v>
+        <v>0.255274</v>
       </c>
       <c r="F130" t="n">
-        <v>0.428485</v>
+        <v>0.425671</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.299213</v>
+        <v>0.29936</v>
       </c>
       <c r="C131" t="n">
-        <v>0.583871</v>
+        <v>0.576911</v>
       </c>
       <c r="D131" t="n">
-        <v>0.566649</v>
+        <v>0.561165</v>
       </c>
       <c r="E131" t="n">
-        <v>0.254467</v>
+        <v>0.254425</v>
       </c>
       <c r="F131" t="n">
-        <v>0.427519</v>
+        <v>0.425211</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28758</v>
+        <v>0.288024</v>
       </c>
       <c r="C132" t="n">
-        <v>0.564298</v>
+        <v>0.563944</v>
       </c>
       <c r="D132" t="n">
-        <v>0.561995</v>
+        <v>0.556576</v>
       </c>
       <c r="E132" t="n">
-        <v>0.253851</v>
+        <v>0.253821</v>
       </c>
       <c r="F132" t="n">
-        <v>0.426639</v>
+        <v>0.424247</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275846</v>
+        <v>0.274925</v>
       </c>
       <c r="C133" t="n">
-        <v>0.578068</v>
+        <v>0.571743</v>
       </c>
       <c r="D133" t="n">
-        <v>0.556131</v>
+        <v>0.5519309999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.253088</v>
+        <v>0.253162</v>
       </c>
       <c r="F133" t="n">
-        <v>0.426233</v>
+        <v>0.423475</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.262516</v>
+        <v>0.261675</v>
       </c>
       <c r="C134" t="n">
-        <v>0.549663</v>
+        <v>0.542112</v>
       </c>
       <c r="D134" t="n">
-        <v>0.550729</v>
+        <v>0.545751</v>
       </c>
       <c r="E134" t="n">
-        <v>0.252519</v>
+        <v>0.252464</v>
       </c>
       <c r="F134" t="n">
-        <v>0.425096</v>
+        <v>0.422311</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248059</v>
+        <v>0.247597</v>
       </c>
       <c r="C135" t="n">
-        <v>0.529475</v>
+        <v>0.523293</v>
       </c>
       <c r="D135" t="n">
-        <v>0.609258</v>
+        <v>0.602834</v>
       </c>
       <c r="E135" t="n">
-        <v>0.252257</v>
+        <v>0.252003</v>
       </c>
       <c r="F135" t="n">
-        <v>0.424352</v>
+        <v>0.421709</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.230763</v>
+        <v>0.230337</v>
       </c>
       <c r="C136" t="n">
-        <v>0.514411</v>
+        <v>0.508221</v>
       </c>
       <c r="D136" t="n">
-        <v>0.611703</v>
+        <v>0.604427</v>
       </c>
       <c r="E136" t="n">
-        <v>0.251633</v>
+        <v>0.251661</v>
       </c>
       <c r="F136" t="n">
-        <v>0.42357</v>
+        <v>0.421012</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213399</v>
+        <v>0.213593</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4919</v>
+        <v>0.486551</v>
       </c>
       <c r="D137" t="n">
-        <v>0.625978</v>
+        <v>0.620798</v>
       </c>
       <c r="E137" t="n">
-        <v>0.265547</v>
+        <v>0.265577</v>
       </c>
       <c r="F137" t="n">
-        <v>0.436839</v>
+        <v>0.434055</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358484</v>
+        <v>0.357972</v>
       </c>
       <c r="C138" t="n">
-        <v>0.679354</v>
+        <v>0.670228</v>
       </c>
       <c r="D138" t="n">
-        <v>0.603743</v>
+        <v>0.59685</v>
       </c>
       <c r="E138" t="n">
-        <v>0.263375</v>
+        <v>0.263385</v>
       </c>
       <c r="F138" t="n">
-        <v>0.435537</v>
+        <v>0.432555</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352651</v>
+        <v>0.352065</v>
       </c>
       <c r="C139" t="n">
-        <v>0.673123</v>
+        <v>0.663028</v>
       </c>
       <c r="D139" t="n">
-        <v>0.60023</v>
+        <v>0.5939410000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.26173</v>
+        <v>0.261735</v>
       </c>
       <c r="F139" t="n">
-        <v>0.434182</v>
+        <v>0.43147</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.34674</v>
+        <v>0.346966</v>
       </c>
       <c r="C140" t="n">
-        <v>0.627513</v>
+        <v>0.622015</v>
       </c>
       <c r="D140" t="n">
-        <v>0.598062</v>
+        <v>0.592288</v>
       </c>
       <c r="E140" t="n">
-        <v>0.260208</v>
+        <v>0.260205</v>
       </c>
       <c r="F140" t="n">
-        <v>0.433043</v>
+        <v>0.43012</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339679</v>
+        <v>0.338802</v>
       </c>
       <c r="C141" t="n">
-        <v>0.620129</v>
+        <v>0.615669</v>
       </c>
       <c r="D141" t="n">
-        <v>0.600947</v>
+        <v>0.596542</v>
       </c>
       <c r="E141" t="n">
-        <v>0.258902</v>
+        <v>0.258935</v>
       </c>
       <c r="F141" t="n">
-        <v>0.431782</v>
+        <v>0.428849</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.330843</v>
+        <v>0.331288</v>
       </c>
       <c r="C142" t="n">
-        <v>0.637938</v>
+        <v>0.6320249999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.593538</v>
+        <v>0.590453</v>
       </c>
       <c r="E142" t="n">
-        <v>0.257665</v>
+        <v>0.257736</v>
       </c>
       <c r="F142" t="n">
-        <v>0.430633</v>
+        <v>0.427788</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.322788</v>
+        <v>0.321806</v>
       </c>
       <c r="C143" t="n">
-        <v>0.631979</v>
+        <v>0.626657</v>
       </c>
       <c r="D143" t="n">
-        <v>0.586656</v>
+        <v>0.582305</v>
       </c>
       <c r="E143" t="n">
-        <v>0.256644</v>
+        <v>0.256696</v>
       </c>
       <c r="F143" t="n">
-        <v>0.429564</v>
+        <v>0.427333</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.272346</v>
+        <v>0.277435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455327</v>
+        <v>0.454651</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389629</v>
+        <v>0.389018</v>
       </c>
       <c r="E2" t="n">
-        <v>0.225197</v>
+        <v>0.22485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.41868</v>
+        <v>0.414989</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269812</v>
+        <v>0.270349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.449962</v>
+        <v>0.449477</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390834</v>
+        <v>0.390015</v>
       </c>
       <c r="E3" t="n">
-        <v>0.227552</v>
+        <v>0.226624</v>
       </c>
       <c r="F3" t="n">
-        <v>0.415323</v>
+        <v>0.411724</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258997</v>
+        <v>0.259776</v>
       </c>
       <c r="C4" t="n">
-        <v>0.449795</v>
+        <v>0.449389</v>
       </c>
       <c r="D4" t="n">
-        <v>0.393093</v>
+        <v>0.39184</v>
       </c>
       <c r="E4" t="n">
-        <v>0.228178</v>
+        <v>0.227932</v>
       </c>
       <c r="F4" t="n">
-        <v>0.415211</v>
+        <v>0.412553</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246869</v>
+        <v>0.246855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435387</v>
+        <v>0.43028</v>
       </c>
       <c r="D5" t="n">
-        <v>0.393962</v>
+        <v>0.392306</v>
       </c>
       <c r="E5" t="n">
-        <v>0.231715</v>
+        <v>0.230864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415335</v>
+        <v>0.412778</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236963</v>
+        <v>0.233272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42687</v>
+        <v>0.420978</v>
       </c>
       <c r="D6" t="n">
-        <v>0.394063</v>
+        <v>0.392849</v>
       </c>
       <c r="E6" t="n">
-        <v>0.233624</v>
+        <v>0.23412</v>
       </c>
       <c r="F6" t="n">
-        <v>0.414597</v>
+        <v>0.412143</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224659</v>
+        <v>0.225532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412537</v>
+        <v>0.407395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389046</v>
+        <v>0.389382</v>
       </c>
       <c r="E7" t="n">
-        <v>0.236648</v>
+        <v>0.235993</v>
       </c>
       <c r="F7" t="n">
-        <v>0.414316</v>
+        <v>0.411752</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206629</v>
+        <v>0.207199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399681</v>
+        <v>0.394114</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393055</v>
+        <v>0.392914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.238408</v>
+        <v>0.234573</v>
       </c>
       <c r="F8" t="n">
-        <v>0.414176</v>
+        <v>0.410809</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190154</v>
+        <v>0.190061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.386278</v>
+        <v>0.380478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.394013</v>
+        <v>0.393522</v>
       </c>
       <c r="E9" t="n">
-        <v>0.253275</v>
+        <v>0.253423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.427313</v>
+        <v>0.424922</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339924</v>
+        <v>0.340857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.520146</v>
+        <v>0.515754</v>
       </c>
       <c r="D10" t="n">
-        <v>0.394137</v>
+        <v>0.394095</v>
       </c>
       <c r="E10" t="n">
-        <v>0.253967</v>
+        <v>0.252595</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427941</v>
+        <v>0.423645</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.334582</v>
+        <v>0.33462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.511672</v>
+        <v>0.509818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.393227</v>
+        <v>0.396747</v>
       </c>
       <c r="E11" t="n">
-        <v>0.253553</v>
+        <v>0.251667</v>
       </c>
       <c r="F11" t="n">
-        <v>0.427083</v>
+        <v>0.423351</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32637</v>
+        <v>0.327753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.506078</v>
+        <v>0.505835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394652</v>
+        <v>0.394952</v>
       </c>
       <c r="E12" t="n">
-        <v>0.252775</v>
+        <v>0.250573</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42408</v>
+        <v>0.420567</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.320602</v>
+        <v>0.321233</v>
       </c>
       <c r="C13" t="n">
-        <v>0.502177</v>
+        <v>0.498471</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394399</v>
+        <v>0.394353</v>
       </c>
       <c r="E13" t="n">
-        <v>0.254478</v>
+        <v>0.251252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.426104</v>
+        <v>0.422058</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312893</v>
+        <v>0.312871</v>
       </c>
       <c r="C14" t="n">
-        <v>0.490189</v>
+        <v>0.490789</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39948</v>
+        <v>0.398544</v>
       </c>
       <c r="E14" t="n">
-        <v>0.251911</v>
+        <v>0.250119</v>
       </c>
       <c r="F14" t="n">
-        <v>0.423804</v>
+        <v>0.419892</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304401</v>
+        <v>0.30508</v>
       </c>
       <c r="C15" t="n">
-        <v>0.483206</v>
+        <v>0.482975</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39796</v>
+        <v>0.398561</v>
       </c>
       <c r="E15" t="n">
-        <v>0.250493</v>
+        <v>0.24933</v>
       </c>
       <c r="F15" t="n">
-        <v>0.42461</v>
+        <v>0.420278</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.296138</v>
+        <v>0.296638</v>
       </c>
       <c r="C16" t="n">
-        <v>0.472479</v>
+        <v>0.472551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.399379</v>
+        <v>0.399811</v>
       </c>
       <c r="E16" t="n">
-        <v>0.251943</v>
+        <v>0.248839</v>
       </c>
       <c r="F16" t="n">
-        <v>0.421334</v>
+        <v>0.418332</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285829</v>
+        <v>0.286882</v>
       </c>
       <c r="C17" t="n">
-        <v>0.46613</v>
+        <v>0.466018</v>
       </c>
       <c r="D17" t="n">
-        <v>0.401698</v>
+        <v>0.402102</v>
       </c>
       <c r="E17" t="n">
-        <v>0.250289</v>
+        <v>0.249097</v>
       </c>
       <c r="F17" t="n">
-        <v>0.422003</v>
+        <v>0.419015</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274604</v>
+        <v>0.273958</v>
       </c>
       <c r="C18" t="n">
-        <v>0.455529</v>
+        <v>0.457902</v>
       </c>
       <c r="D18" t="n">
-        <v>0.402716</v>
+        <v>0.403301</v>
       </c>
       <c r="E18" t="n">
-        <v>0.251398</v>
+        <v>0.248208</v>
       </c>
       <c r="F18" t="n">
-        <v>0.421759</v>
+        <v>0.417889</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263078</v>
+        <v>0.263583</v>
       </c>
       <c r="C19" t="n">
-        <v>0.449449</v>
+        <v>0.444371</v>
       </c>
       <c r="D19" t="n">
-        <v>0.404143</v>
+        <v>0.403639</v>
       </c>
       <c r="E19" t="n">
-        <v>0.250964</v>
+        <v>0.248366</v>
       </c>
       <c r="F19" t="n">
-        <v>0.421088</v>
+        <v>0.416606</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250373</v>
+        <v>0.250494</v>
       </c>
       <c r="C20" t="n">
-        <v>0.432608</v>
+        <v>0.427778</v>
       </c>
       <c r="D20" t="n">
-        <v>0.40448</v>
+        <v>0.40425</v>
       </c>
       <c r="E20" t="n">
-        <v>0.249437</v>
+        <v>0.247834</v>
       </c>
       <c r="F20" t="n">
-        <v>0.418855</v>
+        <v>0.415182</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24242</v>
+        <v>0.241609</v>
       </c>
       <c r="C21" t="n">
-        <v>0.417629</v>
+        <v>0.417056</v>
       </c>
       <c r="D21" t="n">
-        <v>0.399073</v>
+        <v>0.400377</v>
       </c>
       <c r="E21" t="n">
-        <v>0.248332</v>
+        <v>0.247179</v>
       </c>
       <c r="F21" t="n">
-        <v>0.418824</v>
+        <v>0.415856</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225312</v>
+        <v>0.225615</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408619</v>
+        <v>0.408481</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398421</v>
+        <v>0.398952</v>
       </c>
       <c r="E22" t="n">
-        <v>0.249488</v>
+        <v>0.247468</v>
       </c>
       <c r="F22" t="n">
-        <v>0.418581</v>
+        <v>0.416251</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206704</v>
+        <v>0.206785</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39236</v>
+        <v>0.391745</v>
       </c>
       <c r="D23" t="n">
-        <v>0.397966</v>
+        <v>0.399104</v>
       </c>
       <c r="E23" t="n">
-        <v>0.267401</v>
+        <v>0.265016</v>
       </c>
       <c r="F23" t="n">
-        <v>0.431863</v>
+        <v>0.42858</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348924</v>
+        <v>0.348961</v>
       </c>
       <c r="C24" t="n">
-        <v>0.516846</v>
+        <v>0.516333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.401365</v>
+        <v>0.401248</v>
       </c>
       <c r="E24" t="n">
-        <v>0.264093</v>
+        <v>0.262632</v>
       </c>
       <c r="F24" t="n">
-        <v>0.430655</v>
+        <v>0.426925</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342145</v>
+        <v>0.342215</v>
       </c>
       <c r="C25" t="n">
-        <v>0.518669</v>
+        <v>0.519041</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401274</v>
+        <v>0.401477</v>
       </c>
       <c r="E25" t="n">
-        <v>0.26148</v>
+        <v>0.25931</v>
       </c>
       <c r="F25" t="n">
-        <v>0.429696</v>
+        <v>0.426348</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336542</v>
+        <v>0.336451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511415</v>
+        <v>0.511046</v>
       </c>
       <c r="D26" t="n">
-        <v>0.401196</v>
+        <v>0.401873</v>
       </c>
       <c r="E26" t="n">
-        <v>0.260281</v>
+        <v>0.258321</v>
       </c>
       <c r="F26" t="n">
-        <v>0.428374</v>
+        <v>0.425243</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332835</v>
+        <v>0.329528</v>
       </c>
       <c r="C27" t="n">
-        <v>0.501667</v>
+        <v>0.502139</v>
       </c>
       <c r="D27" t="n">
-        <v>0.402806</v>
+        <v>0.402792</v>
       </c>
       <c r="E27" t="n">
-        <v>0.258989</v>
+        <v>0.256935</v>
       </c>
       <c r="F27" t="n">
-        <v>0.426977</v>
+        <v>0.423903</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322547</v>
+        <v>0.322041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495012</v>
+        <v>0.494683</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403005</v>
+        <v>0.402172</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25792</v>
+        <v>0.25588</v>
       </c>
       <c r="F28" t="n">
-        <v>0.427141</v>
+        <v>0.423865</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314066</v>
+        <v>0.313435</v>
       </c>
       <c r="C29" t="n">
-        <v>0.493009</v>
+        <v>0.492293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.403768</v>
+        <v>0.403613</v>
       </c>
       <c r="E29" t="n">
-        <v>0.257683</v>
+        <v>0.255237</v>
       </c>
       <c r="F29" t="n">
-        <v>0.426286</v>
+        <v>0.423226</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305506</v>
+        <v>0.305825</v>
       </c>
       <c r="C30" t="n">
-        <v>0.470029</v>
+        <v>0.473604</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405634</v>
+        <v>0.40471</v>
       </c>
       <c r="E30" t="n">
-        <v>0.257374</v>
+        <v>0.254302</v>
       </c>
       <c r="F30" t="n">
-        <v>0.424913</v>
+        <v>0.421793</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296171</v>
+        <v>0.296388</v>
       </c>
       <c r="C31" t="n">
-        <v>0.465921</v>
+        <v>0.46581</v>
       </c>
       <c r="D31" t="n">
-        <v>0.405918</v>
+        <v>0.406938</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2556</v>
+        <v>0.253156</v>
       </c>
       <c r="F31" t="n">
-        <v>0.423711</v>
+        <v>0.420315</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284467</v>
+        <v>0.284148</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463334</v>
+        <v>0.46324</v>
       </c>
       <c r="D32" t="n">
-        <v>0.406692</v>
+        <v>0.407002</v>
       </c>
       <c r="E32" t="n">
-        <v>0.254989</v>
+        <v>0.251967</v>
       </c>
       <c r="F32" t="n">
-        <v>0.422714</v>
+        <v>0.420393</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272533</v>
+        <v>0.273157</v>
       </c>
       <c r="C33" t="n">
-        <v>0.447129</v>
+        <v>0.446764</v>
       </c>
       <c r="D33" t="n">
-        <v>0.406881</v>
+        <v>0.40706</v>
       </c>
       <c r="E33" t="n">
-        <v>0.256689</v>
+        <v>0.251331</v>
       </c>
       <c r="F33" t="n">
-        <v>0.421952</v>
+        <v>0.418753</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261034</v>
+        <v>0.261647</v>
       </c>
       <c r="C34" t="n">
-        <v>0.442975</v>
+        <v>0.442323</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407874</v>
+        <v>0.408236</v>
       </c>
       <c r="E34" t="n">
-        <v>0.257309</v>
+        <v>0.25062</v>
       </c>
       <c r="F34" t="n">
-        <v>0.421474</v>
+        <v>0.41846</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248061</v>
+        <v>0.248902</v>
       </c>
       <c r="C35" t="n">
-        <v>0.424348</v>
+        <v>0.423386</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408812</v>
+        <v>0.406271</v>
       </c>
       <c r="E35" t="n">
-        <v>0.251925</v>
+        <v>0.249834</v>
       </c>
       <c r="F35" t="n">
-        <v>0.419992</v>
+        <v>0.416994</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232523</v>
+        <v>0.232855</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413419</v>
+        <v>0.412963</v>
       </c>
       <c r="D36" t="n">
-        <v>0.406063</v>
+        <v>0.406344</v>
       </c>
       <c r="E36" t="n">
-        <v>0.25001</v>
+        <v>0.249411</v>
       </c>
       <c r="F36" t="n">
-        <v>0.418897</v>
+        <v>0.416154</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216938</v>
+        <v>0.216666</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402063</v>
+        <v>0.402088</v>
       </c>
       <c r="D37" t="n">
-        <v>0.407414</v>
+        <v>0.406802</v>
       </c>
       <c r="E37" t="n">
-        <v>0.266983</v>
+        <v>0.265636</v>
       </c>
       <c r="F37" t="n">
-        <v>0.43393</v>
+        <v>0.4305</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354916</v>
+        <v>0.354265</v>
       </c>
       <c r="C38" t="n">
-        <v>0.527362</v>
+        <v>0.526945</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40558</v>
+        <v>0.405584</v>
       </c>
       <c r="E38" t="n">
-        <v>0.265021</v>
+        <v>0.26301</v>
       </c>
       <c r="F38" t="n">
-        <v>0.431998</v>
+        <v>0.428704</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.349682</v>
+        <v>0.349336</v>
       </c>
       <c r="C39" t="n">
-        <v>0.521707</v>
+        <v>0.5217039999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.405583</v>
+        <v>0.406127</v>
       </c>
       <c r="E39" t="n">
-        <v>0.261299</v>
+        <v>0.259834</v>
       </c>
       <c r="F39" t="n">
-        <v>0.430479</v>
+        <v>0.427614</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.344015</v>
+        <v>0.344113</v>
       </c>
       <c r="C40" t="n">
-        <v>0.51579</v>
+        <v>0.516118</v>
       </c>
       <c r="D40" t="n">
-        <v>0.406369</v>
+        <v>0.406851</v>
       </c>
       <c r="E40" t="n">
-        <v>0.260584</v>
+        <v>0.259056</v>
       </c>
       <c r="F40" t="n">
-        <v>0.430525</v>
+        <v>0.427626</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.336977</v>
+        <v>0.337036</v>
       </c>
       <c r="C41" t="n">
-        <v>0.509339</v>
+        <v>0.508798</v>
       </c>
       <c r="D41" t="n">
-        <v>0.405752</v>
+        <v>0.405827</v>
       </c>
       <c r="E41" t="n">
-        <v>0.259295</v>
+        <v>0.257594</v>
       </c>
       <c r="F41" t="n">
-        <v>0.428787</v>
+        <v>0.425515</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32994</v>
+        <v>0.330062</v>
       </c>
       <c r="C42" t="n">
-        <v>0.497843</v>
+        <v>0.497645</v>
       </c>
       <c r="D42" t="n">
-        <v>0.406457</v>
+        <v>0.406403</v>
       </c>
       <c r="E42" t="n">
-        <v>0.257978</v>
+        <v>0.256302</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427963</v>
+        <v>0.424966</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320957</v>
+        <v>0.321044</v>
       </c>
       <c r="C43" t="n">
-        <v>0.488709</v>
+        <v>0.488385</v>
       </c>
       <c r="D43" t="n">
-        <v>0.407437</v>
+        <v>0.40729</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256853</v>
+        <v>0.255344</v>
       </c>
       <c r="F43" t="n">
-        <v>0.426466</v>
+        <v>0.423487</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312324</v>
+        <v>0.312524</v>
       </c>
       <c r="C44" t="n">
-        <v>0.485232</v>
+        <v>0.485509</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408152</v>
+        <v>0.40803</v>
       </c>
       <c r="E44" t="n">
-        <v>0.255846</v>
+        <v>0.254157</v>
       </c>
       <c r="F44" t="n">
-        <v>0.42571</v>
+        <v>0.422536</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301906</v>
+        <v>0.302393</v>
       </c>
       <c r="C45" t="n">
-        <v>0.474197</v>
+        <v>0.475007</v>
       </c>
       <c r="D45" t="n">
-        <v>0.410196</v>
+        <v>0.410014</v>
       </c>
       <c r="E45" t="n">
-        <v>0.254129</v>
+        <v>0.252878</v>
       </c>
       <c r="F45" t="n">
-        <v>0.424896</v>
+        <v>0.421141</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290698</v>
+        <v>0.291349</v>
       </c>
       <c r="C46" t="n">
-        <v>0.467157</v>
+        <v>0.467755</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410086</v>
+        <v>0.410733</v>
       </c>
       <c r="E46" t="n">
-        <v>0.252888</v>
+        <v>0.251875</v>
       </c>
       <c r="F46" t="n">
-        <v>0.423295</v>
+        <v>0.420069</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279796</v>
+        <v>0.27974</v>
       </c>
       <c r="C47" t="n">
-        <v>0.456765</v>
+        <v>0.456947</v>
       </c>
       <c r="D47" t="n">
-        <v>0.411567</v>
+        <v>0.412192</v>
       </c>
       <c r="E47" t="n">
-        <v>0.253138</v>
+        <v>0.251</v>
       </c>
       <c r="F47" t="n">
-        <v>0.422717</v>
+        <v>0.419693</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267189</v>
+        <v>0.267297</v>
       </c>
       <c r="C48" t="n">
-        <v>0.444733</v>
+        <v>0.444703</v>
       </c>
       <c r="D48" t="n">
-        <v>0.411921</v>
+        <v>0.409083</v>
       </c>
       <c r="E48" t="n">
-        <v>0.252393</v>
+        <v>0.250623</v>
       </c>
       <c r="F48" t="n">
-        <v>0.422157</v>
+        <v>0.419503</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253292</v>
+        <v>0.25345</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431035</v>
+        <v>0.431757</v>
       </c>
       <c r="D49" t="n">
-        <v>0.413776</v>
+        <v>0.410504</v>
       </c>
       <c r="E49" t="n">
-        <v>0.25286</v>
+        <v>0.251009</v>
       </c>
       <c r="F49" t="n">
-        <v>0.421617</v>
+        <v>0.419312</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238716</v>
+        <v>0.238978</v>
       </c>
       <c r="C50" t="n">
-        <v>0.418151</v>
+        <v>0.424659</v>
       </c>
       <c r="D50" t="n">
-        <v>0.423173</v>
+        <v>0.410076</v>
       </c>
       <c r="E50" t="n">
-        <v>0.252545</v>
+        <v>0.249391</v>
       </c>
       <c r="F50" t="n">
-        <v>0.420947</v>
+        <v>0.419793</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222737</v>
+        <v>0.222828</v>
       </c>
       <c r="C51" t="n">
-        <v>0.402754</v>
+        <v>0.403398</v>
       </c>
       <c r="D51" t="n">
-        <v>0.411879</v>
+        <v>0.409775</v>
       </c>
       <c r="E51" t="n">
-        <v>0.267634</v>
+        <v>0.265782</v>
       </c>
       <c r="F51" t="n">
-        <v>0.434643</v>
+        <v>0.430879</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207277</v>
+        <v>0.207597</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384032</v>
+        <v>0.384463</v>
       </c>
       <c r="D52" t="n">
-        <v>0.411951</v>
+        <v>0.409432</v>
       </c>
       <c r="E52" t="n">
-        <v>0.265018</v>
+        <v>0.263054</v>
       </c>
       <c r="F52" t="n">
-        <v>0.433929</v>
+        <v>0.429803</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353548</v>
+        <v>0.353642</v>
       </c>
       <c r="C53" t="n">
-        <v>0.523112</v>
+        <v>0.524879</v>
       </c>
       <c r="D53" t="n">
-        <v>0.412016</v>
+        <v>0.410372</v>
       </c>
       <c r="E53" t="n">
-        <v>0.262834</v>
+        <v>0.260393</v>
       </c>
       <c r="F53" t="n">
-        <v>0.432263</v>
+        <v>0.428321</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347278</v>
+        <v>0.347309</v>
       </c>
       <c r="C54" t="n">
-        <v>0.517844</v>
+        <v>0.5192020000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.413923</v>
+        <v>0.409354</v>
       </c>
       <c r="E54" t="n">
-        <v>0.260253</v>
+        <v>0.258672</v>
       </c>
       <c r="F54" t="n">
-        <v>0.431043</v>
+        <v>0.427082</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34099</v>
+        <v>0.340938</v>
       </c>
       <c r="C55" t="n">
-        <v>0.51564</v>
+        <v>0.516015</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41548</v>
+        <v>0.412632</v>
       </c>
       <c r="E55" t="n">
-        <v>0.258877</v>
+        <v>0.257621</v>
       </c>
       <c r="F55" t="n">
-        <v>0.429116</v>
+        <v>0.425778</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334234</v>
+        <v>0.334237</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.503464</v>
       </c>
       <c r="D56" t="n">
-        <v>0.417043</v>
+        <v>0.417827</v>
       </c>
       <c r="E56" t="n">
-        <v>0.258167</v>
+        <v>0.257144</v>
       </c>
       <c r="F56" t="n">
-        <v>0.428223</v>
+        <v>0.424536</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325864</v>
+        <v>0.325797</v>
       </c>
       <c r="C57" t="n">
-        <v>0.504354</v>
+        <v>0.505734</v>
       </c>
       <c r="D57" t="n">
-        <v>0.417269</v>
+        <v>0.414039</v>
       </c>
       <c r="E57" t="n">
-        <v>0.256948</v>
+        <v>0.255805</v>
       </c>
       <c r="F57" t="n">
-        <v>0.427294</v>
+        <v>0.424105</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316934</v>
+        <v>0.316716</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503741</v>
+        <v>0.505032</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420621</v>
+        <v>0.415365</v>
       </c>
       <c r="E58" t="n">
-        <v>0.256264</v>
+        <v>0.254963</v>
       </c>
       <c r="F58" t="n">
-        <v>0.426081</v>
+        <v>0.423005</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306967</v>
+        <v>0.307196</v>
       </c>
       <c r="C59" t="n">
-        <v>0.488419</v>
+        <v>0.490595</v>
       </c>
       <c r="D59" t="n">
-        <v>0.42225</v>
+        <v>0.419617</v>
       </c>
       <c r="E59" t="n">
-        <v>0.255159</v>
+        <v>0.254196</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425155</v>
+        <v>0.424529</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296627</v>
+        <v>0.296037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.489037</v>
+        <v>0.482902</v>
       </c>
       <c r="D60" t="n">
-        <v>0.425164</v>
+        <v>0.422536</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254187</v>
+        <v>0.253238</v>
       </c>
       <c r="F60" t="n">
-        <v>0.424604</v>
+        <v>0.422056</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285073</v>
+        <v>0.284719</v>
       </c>
       <c r="C61" t="n">
-        <v>0.480878</v>
+        <v>0.484679</v>
       </c>
       <c r="D61" t="n">
-        <v>0.424396</v>
+        <v>0.421825</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253912</v>
+        <v>0.252637</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4238</v>
+        <v>0.420724</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272103</v>
+        <v>0.272141</v>
       </c>
       <c r="C62" t="n">
-        <v>0.46733</v>
+        <v>0.472246</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42918</v>
+        <v>0.429316</v>
       </c>
       <c r="E62" t="n">
-        <v>0.252735</v>
+        <v>0.252128</v>
       </c>
       <c r="F62" t="n">
-        <v>0.422961</v>
+        <v>0.420304</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25853</v>
+        <v>0.258668</v>
       </c>
       <c r="C63" t="n">
-        <v>0.439923</v>
+        <v>0.441287</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433539</v>
+        <v>0.432399</v>
       </c>
       <c r="E63" t="n">
-        <v>0.251931</v>
+        <v>0.251376</v>
       </c>
       <c r="F63" t="n">
-        <v>0.421994</v>
+        <v>0.420308</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244292</v>
+        <v>0.244237</v>
       </c>
       <c r="C64" t="n">
-        <v>0.455376</v>
+        <v>0.45948</v>
       </c>
       <c r="D64" t="n">
-        <v>0.460964</v>
+        <v>0.458612</v>
       </c>
       <c r="E64" t="n">
-        <v>0.252713</v>
+        <v>0.251416</v>
       </c>
       <c r="F64" t="n">
-        <v>0.421413</v>
+        <v>0.418995</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229266</v>
+        <v>0.229046</v>
       </c>
       <c r="C65" t="n">
-        <v>0.433808</v>
+        <v>0.436114</v>
       </c>
       <c r="D65" t="n">
-        <v>0.471598</v>
+        <v>0.484558</v>
       </c>
       <c r="E65" t="n">
-        <v>0.251349</v>
+        <v>0.2501</v>
       </c>
       <c r="F65" t="n">
-        <v>0.421221</v>
+        <v>0.418194</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212145</v>
+        <v>0.212019</v>
       </c>
       <c r="C66" t="n">
-        <v>0.418068</v>
+        <v>0.420968</v>
       </c>
       <c r="D66" t="n">
-        <v>0.475838</v>
+        <v>0.478771</v>
       </c>
       <c r="E66" t="n">
-        <v>0.265408</v>
+        <v>0.263767</v>
       </c>
       <c r="F66" t="n">
-        <v>0.433777</v>
+        <v>0.430344</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35586</v>
+        <v>0.355906</v>
       </c>
       <c r="C67" t="n">
-        <v>0.565989</v>
+        <v>0.569214</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483297</v>
+        <v>0.486722</v>
       </c>
       <c r="E67" t="n">
-        <v>0.263557</v>
+        <v>0.261582</v>
       </c>
       <c r="F67" t="n">
-        <v>0.432274</v>
+        <v>0.428966</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350277</v>
+        <v>0.350688</v>
       </c>
       <c r="C68" t="n">
-        <v>0.569313</v>
+        <v>0.574116</v>
       </c>
       <c r="D68" t="n">
-        <v>0.487535</v>
+        <v>0.491317</v>
       </c>
       <c r="E68" t="n">
-        <v>0.261756</v>
+        <v>0.259699</v>
       </c>
       <c r="F68" t="n">
-        <v>0.431269</v>
+        <v>0.427912</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343883</v>
+        <v>0.343874</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5471279999999999</v>
+        <v>0.549199</v>
       </c>
       <c r="D69" t="n">
-        <v>0.497936</v>
+        <v>0.499022</v>
       </c>
       <c r="E69" t="n">
-        <v>0.259687</v>
+        <v>0.25827</v>
       </c>
       <c r="F69" t="n">
-        <v>0.429816</v>
+        <v>0.426729</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336246</v>
+        <v>0.336323</v>
       </c>
       <c r="C70" t="n">
-        <v>0.559566</v>
+        <v>0.561307</v>
       </c>
       <c r="D70" t="n">
-        <v>0.497974</v>
+        <v>0.499676</v>
       </c>
       <c r="E70" t="n">
-        <v>0.258524</v>
+        <v>0.257178</v>
       </c>
       <c r="F70" t="n">
-        <v>0.428882</v>
+        <v>0.42606</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328472</v>
+        <v>0.328397</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505322</v>
+        <v>0.508258</v>
       </c>
       <c r="D71" t="n">
-        <v>0.523675</v>
+        <v>0.525687</v>
       </c>
       <c r="E71" t="n">
-        <v>0.257513</v>
+        <v>0.256092</v>
       </c>
       <c r="F71" t="n">
-        <v>0.427764</v>
+        <v>0.424682</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319039</v>
+        <v>0.318997</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5452399999999999</v>
+        <v>0.547072</v>
       </c>
       <c r="D72" t="n">
-        <v>0.511529</v>
+        <v>0.510948</v>
       </c>
       <c r="E72" t="n">
-        <v>0.256439</v>
+        <v>0.255127</v>
       </c>
       <c r="F72" t="n">
-        <v>0.426826</v>
+        <v>0.423544</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309491</v>
+        <v>0.309682</v>
       </c>
       <c r="C73" t="n">
-        <v>0.527386</v>
+        <v>0.527928</v>
       </c>
       <c r="D73" t="n">
-        <v>0.515375</v>
+        <v>0.5154570000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.255282</v>
+        <v>0.25382</v>
       </c>
       <c r="F73" t="n">
-        <v>0.425633</v>
+        <v>0.42257</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298991</v>
+        <v>0.299199</v>
       </c>
       <c r="C74" t="n">
-        <v>0.52323</v>
+        <v>0.523814</v>
       </c>
       <c r="D74" t="n">
-        <v>0.516987</v>
+        <v>0.539922</v>
       </c>
       <c r="E74" t="n">
-        <v>0.254335</v>
+        <v>0.253048</v>
       </c>
       <c r="F74" t="n">
-        <v>0.424887</v>
+        <v>0.42222</v>
       </c>
     </row>
     <row r="75">
@@ -6548,16 +6548,16 @@
         <v>0.288126</v>
       </c>
       <c r="C75" t="n">
-        <v>0.525216</v>
+        <v>0.5233179999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.520607</v>
+        <v>0.5177659999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.254359</v>
+        <v>0.252467</v>
       </c>
       <c r="F75" t="n">
-        <v>0.424119</v>
+        <v>0.421107</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275559</v>
+        <v>0.275732</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5180129999999999</v>
+        <v>0.516821</v>
       </c>
       <c r="D76" t="n">
-        <v>0.518552</v>
+        <v>0.519092</v>
       </c>
       <c r="E76" t="n">
-        <v>0.253056</v>
+        <v>0.252278</v>
       </c>
       <c r="F76" t="n">
-        <v>0.423229</v>
+        <v>0.420411</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26262</v>
+        <v>0.262835</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536555</v>
+        <v>0.537687</v>
       </c>
       <c r="D77" t="n">
-        <v>0.518828</v>
+        <v>0.529729</v>
       </c>
       <c r="E77" t="n">
-        <v>0.252668</v>
+        <v>0.251486</v>
       </c>
       <c r="F77" t="n">
-        <v>0.422675</v>
+        <v>0.420544</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248838</v>
+        <v>0.248795</v>
       </c>
       <c r="C78" t="n">
-        <v>0.491122</v>
+        <v>0.494221</v>
       </c>
       <c r="D78" t="n">
-        <v>0.594841</v>
+        <v>0.598826</v>
       </c>
       <c r="E78" t="n">
-        <v>0.252348</v>
+        <v>0.251004</v>
       </c>
       <c r="F78" t="n">
-        <v>0.421754</v>
+        <v>0.418791</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233392</v>
+        <v>0.233347</v>
       </c>
       <c r="C79" t="n">
-        <v>0.487405</v>
+        <v>0.490561</v>
       </c>
       <c r="D79" t="n">
-        <v>0.585117</v>
+        <v>0.587558</v>
       </c>
       <c r="E79" t="n">
-        <v>0.252156</v>
+        <v>0.25029</v>
       </c>
       <c r="F79" t="n">
-        <v>0.420974</v>
+        <v>0.418376</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216639</v>
+        <v>0.216289</v>
       </c>
       <c r="C80" t="n">
-        <v>0.519826</v>
+        <v>0.521996</v>
       </c>
       <c r="D80" t="n">
-        <v>0.598462</v>
+        <v>0.601712</v>
       </c>
       <c r="E80" t="n">
-        <v>0.266162</v>
+        <v>0.26465</v>
       </c>
       <c r="F80" t="n">
-        <v>0.434136</v>
+        <v>0.431862</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357053</v>
+        <v>0.357854</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6125389999999999</v>
+        <v>0.638474</v>
       </c>
       <c r="D81" t="n">
-        <v>0.590319</v>
+        <v>0.588289</v>
       </c>
       <c r="E81" t="n">
-        <v>0.263854</v>
+        <v>0.262446</v>
       </c>
       <c r="F81" t="n">
-        <v>0.432836</v>
+        <v>0.430684</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351502</v>
+        <v>0.352147</v>
       </c>
       <c r="C82" t="n">
-        <v>0.597276</v>
+        <v>0.598934</v>
       </c>
       <c r="D82" t="n">
-        <v>0.585214</v>
+        <v>0.588888</v>
       </c>
       <c r="E82" t="n">
-        <v>0.261614</v>
+        <v>0.260304</v>
       </c>
       <c r="F82" t="n">
-        <v>0.431366</v>
+        <v>0.429424</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345866</v>
+        <v>0.345553</v>
       </c>
       <c r="C83" t="n">
-        <v>0.579887</v>
+        <v>0.581417</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5817290000000001</v>
+        <v>0.584975</v>
       </c>
       <c r="E83" t="n">
-        <v>0.260054</v>
+        <v>0.258749</v>
       </c>
       <c r="F83" t="n">
-        <v>0.430178</v>
+        <v>0.429124</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338659</v>
+        <v>0.338817</v>
       </c>
       <c r="C84" t="n">
-        <v>0.635254</v>
+        <v>0.637383</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5901380000000001</v>
+        <v>0.593845</v>
       </c>
       <c r="E84" t="n">
-        <v>0.258832</v>
+        <v>0.257589</v>
       </c>
       <c r="F84" t="n">
-        <v>0.429037</v>
+        <v>0.427623</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330791</v>
+        <v>0.330798</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5973889999999999</v>
+        <v>0.601251</v>
       </c>
       <c r="D85" t="n">
-        <v>0.574226</v>
+        <v>0.578121</v>
       </c>
       <c r="E85" t="n">
-        <v>0.257741</v>
+        <v>0.256579</v>
       </c>
       <c r="F85" t="n">
-        <v>0.428068</v>
+        <v>0.426964</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321623</v>
+        <v>0.321574</v>
       </c>
       <c r="C86" t="n">
-        <v>0.655758</v>
+        <v>0.6593</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5772</v>
+        <v>0.580454</v>
       </c>
       <c r="E86" t="n">
-        <v>0.256441</v>
+        <v>0.255399</v>
       </c>
       <c r="F86" t="n">
-        <v>0.426859</v>
+        <v>0.424813</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.312285</v>
+        <v>0.31203</v>
       </c>
       <c r="C87" t="n">
-        <v>0.605693</v>
+        <v>0.608469</v>
       </c>
       <c r="D87" t="n">
-        <v>0.573275</v>
+        <v>0.57686</v>
       </c>
       <c r="E87" t="n">
-        <v>0.255536</v>
+        <v>0.254415</v>
       </c>
       <c r="F87" t="n">
-        <v>0.425938</v>
+        <v>0.424537</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>0.300179</v>
       </c>
       <c r="C88" t="n">
-        <v>0.512067</v>
+        <v>0.515341</v>
       </c>
       <c r="D88" t="n">
-        <v>0.566455</v>
+        <v>0.570582</v>
       </c>
       <c r="E88" t="n">
-        <v>0.254444</v>
+        <v>0.253413</v>
       </c>
       <c r="F88" t="n">
-        <v>0.425617</v>
+        <v>0.422671</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.288897</v>
+        <v>0.28875</v>
       </c>
       <c r="C89" t="n">
-        <v>0.529232</v>
+        <v>0.529491</v>
       </c>
       <c r="D89" t="n">
-        <v>0.565269</v>
+        <v>0.5673</v>
       </c>
       <c r="E89" t="n">
-        <v>0.254463</v>
+        <v>0.252902</v>
       </c>
       <c r="F89" t="n">
-        <v>0.424419</v>
+        <v>0.421654</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276543</v>
+        <v>0.276955</v>
       </c>
       <c r="C90" t="n">
-        <v>0.552091</v>
+        <v>0.5541469999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.560454</v>
+        <v>0.563547</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253388</v>
+        <v>0.251921</v>
       </c>
       <c r="F90" t="n">
-        <v>0.423621</v>
+        <v>0.421004</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2635</v>
+        <v>0.263663</v>
       </c>
       <c r="C91" t="n">
-        <v>0.494801</v>
+        <v>0.495971</v>
       </c>
       <c r="D91" t="n">
-        <v>0.556939</v>
+        <v>0.558782</v>
       </c>
       <c r="E91" t="n">
-        <v>0.25267</v>
+        <v>0.251254</v>
       </c>
       <c r="F91" t="n">
-        <v>0.422698</v>
+        <v>0.420224</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24963</v>
+        <v>0.249616</v>
       </c>
       <c r="C92" t="n">
-        <v>0.57533</v>
+        <v>0.578369</v>
       </c>
       <c r="D92" t="n">
-        <v>0.609942</v>
+        <v>0.6130060000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252008</v>
+        <v>0.250958</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421994</v>
+        <v>0.41946</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234533</v>
+        <v>0.234776</v>
       </c>
       <c r="C93" t="n">
-        <v>0.475719</v>
+        <v>0.476976</v>
       </c>
       <c r="D93" t="n">
-        <v>0.608312</v>
+        <v>0.612256</v>
       </c>
       <c r="E93" t="n">
-        <v>0.251867</v>
+        <v>0.250515</v>
       </c>
       <c r="F93" t="n">
-        <v>0.421527</v>
+        <v>0.419264</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.218409</v>
+        <v>0.218442</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5158430000000001</v>
+        <v>0.518549</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6044</v>
+        <v>0.607876</v>
       </c>
       <c r="E94" t="n">
-        <v>0.26688</v>
+        <v>0.265251</v>
       </c>
       <c r="F94" t="n">
-        <v>0.434164</v>
+        <v>0.430953</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35895</v>
+        <v>0.358747</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5288</v>
+        <v>0.528809</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59317</v>
+        <v>0.596527</v>
       </c>
       <c r="E95" t="n">
-        <v>0.264204</v>
+        <v>0.262642</v>
       </c>
       <c r="F95" t="n">
-        <v>0.432965</v>
+        <v>0.429809</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354263</v>
+        <v>0.354175</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640159</v>
+        <v>0.642609</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5896</v>
+        <v>0.592734</v>
       </c>
       <c r="E96" t="n">
-        <v>0.262146</v>
+        <v>0.26062</v>
       </c>
       <c r="F96" t="n">
-        <v>0.431681</v>
+        <v>0.428659</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347988</v>
+        <v>0.347885</v>
       </c>
       <c r="C97" t="n">
-        <v>0.655469</v>
+        <v>0.6588349999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.587707</v>
+        <v>0.59079</v>
       </c>
       <c r="E97" t="n">
-        <v>0.260519</v>
+        <v>0.259283</v>
       </c>
       <c r="F97" t="n">
-        <v>0.430557</v>
+        <v>0.427381</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340727</v>
+        <v>0.340711</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6403720000000001</v>
+        <v>0.643068</v>
       </c>
       <c r="D98" t="n">
-        <v>0.580935</v>
+        <v>0.584408</v>
       </c>
       <c r="E98" t="n">
-        <v>0.259163</v>
+        <v>0.257821</v>
       </c>
       <c r="F98" t="n">
-        <v>0.429233</v>
+        <v>0.426184</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332988</v>
+        <v>0.332819</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582647</v>
+        <v>0.584335</v>
       </c>
       <c r="D99" t="n">
-        <v>0.57761</v>
+        <v>0.580712</v>
       </c>
       <c r="E99" t="n">
-        <v>0.257818</v>
+        <v>0.25666</v>
       </c>
       <c r="F99" t="n">
-        <v>0.428082</v>
+        <v>0.424928</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.324847</v>
+        <v>0.323948</v>
       </c>
       <c r="C100" t="n">
-        <v>0.642421</v>
+        <v>0.644969</v>
       </c>
       <c r="D100" t="n">
-        <v>0.566479</v>
+        <v>0.569847</v>
       </c>
       <c r="E100" t="n">
-        <v>0.256584</v>
+        <v>0.25552</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427372</v>
+        <v>0.424117</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31476</v>
+        <v>0.314542</v>
       </c>
       <c r="C101" t="n">
-        <v>0.540256</v>
+        <v>0.542117</v>
       </c>
       <c r="D101" t="n">
-        <v>0.558815</v>
+        <v>0.563378</v>
       </c>
       <c r="E101" t="n">
-        <v>0.255407</v>
+        <v>0.254449</v>
       </c>
       <c r="F101" t="n">
-        <v>0.426392</v>
+        <v>0.423496</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304237</v>
+        <v>0.304475</v>
       </c>
       <c r="C102" t="n">
-        <v>0.616721</v>
+        <v>0.619625</v>
       </c>
       <c r="D102" t="n">
-        <v>0.556434</v>
+        <v>0.559288</v>
       </c>
       <c r="E102" t="n">
-        <v>0.254668</v>
+        <v>0.253695</v>
       </c>
       <c r="F102" t="n">
-        <v>0.425192</v>
+        <v>0.422392</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293687</v>
+        <v>0.293519</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585662</v>
+        <v>0.588319</v>
       </c>
       <c r="D103" t="n">
-        <v>0.553164</v>
+        <v>0.556102</v>
       </c>
       <c r="E103" t="n">
-        <v>0.253941</v>
+        <v>0.252741</v>
       </c>
       <c r="F103" t="n">
-        <v>0.424328</v>
+        <v>0.422391</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281387</v>
+        <v>0.281403</v>
       </c>
       <c r="C104" t="n">
-        <v>0.584964</v>
+        <v>0.589661</v>
       </c>
       <c r="D104" t="n">
-        <v>0.552415</v>
+        <v>0.55553</v>
       </c>
       <c r="E104" t="n">
-        <v>0.253885</v>
+        <v>0.252909</v>
       </c>
       <c r="F104" t="n">
-        <v>0.423457</v>
+        <v>0.421424</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269222</v>
+        <v>0.268562</v>
       </c>
       <c r="C105" t="n">
-        <v>0.540002</v>
+        <v>0.543376</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54447</v>
+        <v>0.54704</v>
       </c>
       <c r="E105" t="n">
-        <v>0.253541</v>
+        <v>0.252314</v>
       </c>
       <c r="F105" t="n">
-        <v>0.423044</v>
+        <v>0.420818</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255168</v>
+        <v>0.254986</v>
       </c>
       <c r="C106" t="n">
-        <v>0.53176</v>
+        <v>0.534797</v>
       </c>
       <c r="D106" t="n">
-        <v>0.540809</v>
+        <v>0.542915</v>
       </c>
       <c r="E106" t="n">
-        <v>0.252969</v>
+        <v>0.251953</v>
       </c>
       <c r="F106" t="n">
-        <v>0.422294</v>
+        <v>0.420561</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240048</v>
+        <v>0.239808</v>
       </c>
       <c r="C107" t="n">
-        <v>0.51006</v>
+        <v>0.512961</v>
       </c>
       <c r="D107" t="n">
-        <v>0.582974</v>
+        <v>0.587423</v>
       </c>
       <c r="E107" t="n">
-        <v>0.25222</v>
+        <v>0.2517</v>
       </c>
       <c r="F107" t="n">
-        <v>0.421557</v>
+        <v>0.418742</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223883</v>
+        <v>0.223216</v>
       </c>
       <c r="C108" t="n">
-        <v>0.446561</v>
+        <v>0.448391</v>
       </c>
       <c r="D108" t="n">
-        <v>0.606843</v>
+        <v>0.612563</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267997</v>
+        <v>0.265445</v>
       </c>
       <c r="F108" t="n">
-        <v>0.434648</v>
+        <v>0.431618</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207211</v>
+        <v>0.207019</v>
       </c>
       <c r="C109" t="n">
-        <v>0.434367</v>
+        <v>0.434888</v>
       </c>
       <c r="D109" t="n">
-        <v>0.603374</v>
+        <v>0.609602</v>
       </c>
       <c r="E109" t="n">
-        <v>0.265088</v>
+        <v>0.263208</v>
       </c>
       <c r="F109" t="n">
-        <v>0.433841</v>
+        <v>0.430818</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355352</v>
+        <v>0.355087</v>
       </c>
       <c r="C110" t="n">
-        <v>0.525075</v>
+        <v>0.524954</v>
       </c>
       <c r="D110" t="n">
-        <v>0.580456</v>
+        <v>0.587283</v>
       </c>
       <c r="E110" t="n">
-        <v>0.263112</v>
+        <v>0.261709</v>
       </c>
       <c r="F110" t="n">
-        <v>0.43194</v>
+        <v>0.429103</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349173</v>
+        <v>0.349064</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574663</v>
+        <v>0.576228</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579811</v>
+        <v>0.586489</v>
       </c>
       <c r="E111" t="n">
-        <v>0.261388</v>
+        <v>0.259897</v>
       </c>
       <c r="F111" t="n">
-        <v>0.430684</v>
+        <v>0.428001</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342399</v>
+        <v>0.342255</v>
       </c>
       <c r="C112" t="n">
-        <v>0.540157</v>
+        <v>0.541126</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5805169999999999</v>
+        <v>0.587368</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259687</v>
+        <v>0.258065</v>
       </c>
       <c r="F112" t="n">
-        <v>0.429595</v>
+        <v>0.426811</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334975</v>
+        <v>0.334828</v>
       </c>
       <c r="C113" t="n">
-        <v>0.663407</v>
+        <v>0.666438</v>
       </c>
       <c r="D113" t="n">
-        <v>0.566317</v>
+        <v>0.573198</v>
       </c>
       <c r="E113" t="n">
-        <v>0.258222</v>
+        <v>0.256814</v>
       </c>
       <c r="F113" t="n">
-        <v>0.42835</v>
+        <v>0.426528</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326639</v>
+        <v>0.326304</v>
       </c>
       <c r="C114" t="n">
-        <v>0.624499</v>
+        <v>0.627647</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562239</v>
+        <v>0.568836</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256929</v>
+        <v>0.255773</v>
       </c>
       <c r="F114" t="n">
-        <v>0.427223</v>
+        <v>0.425397</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317014</v>
+        <v>0.317103</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580412</v>
+        <v>0.583329</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5581390000000001</v>
+        <v>0.564945</v>
       </c>
       <c r="E115" t="n">
-        <v>0.255907</v>
+        <v>0.254755</v>
       </c>
       <c r="F115" t="n">
-        <v>0.426399</v>
+        <v>0.424443</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305678</v>
+        <v>0.305846</v>
       </c>
       <c r="C116" t="n">
-        <v>0.610474</v>
+        <v>0.613932</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5554559999999999</v>
+        <v>0.561679</v>
       </c>
       <c r="E116" t="n">
-        <v>0.254961</v>
+        <v>0.253883</v>
       </c>
       <c r="F116" t="n">
-        <v>0.425672</v>
+        <v>0.422874</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294874</v>
+        <v>0.294733</v>
       </c>
       <c r="C117" t="n">
-        <v>0.552466</v>
+        <v>0.553702</v>
       </c>
       <c r="D117" t="n">
-        <v>0.55025</v>
+        <v>0.556692</v>
       </c>
       <c r="E117" t="n">
-        <v>0.254053</v>
+        <v>0.25303</v>
       </c>
       <c r="F117" t="n">
-        <v>0.424464</v>
+        <v>0.421947</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284366</v>
+        <v>0.284066</v>
       </c>
       <c r="C118" t="n">
-        <v>0.510684</v>
+        <v>0.511617</v>
       </c>
       <c r="D118" t="n">
-        <v>0.546417</v>
+        <v>0.553007</v>
       </c>
       <c r="E118" t="n">
-        <v>0.253813</v>
+        <v>0.252467</v>
       </c>
       <c r="F118" t="n">
-        <v>0.423646</v>
+        <v>0.421325</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272129</v>
+        <v>0.271484</v>
       </c>
       <c r="C119" t="n">
-        <v>0.572644</v>
+        <v>0.576499</v>
       </c>
       <c r="D119" t="n">
-        <v>0.543798</v>
+        <v>0.549891</v>
       </c>
       <c r="E119" t="n">
-        <v>0.25315</v>
+        <v>0.25178</v>
       </c>
       <c r="F119" t="n">
-        <v>0.42285</v>
+        <v>0.420927</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259089</v>
+        <v>0.258193</v>
       </c>
       <c r="C120" t="n">
-        <v>0.479136</v>
+        <v>0.480807</v>
       </c>
       <c r="D120" t="n">
-        <v>0.539963</v>
+        <v>0.545924</v>
       </c>
       <c r="E120" t="n">
-        <v>0.252672</v>
+        <v>0.251565</v>
       </c>
       <c r="F120" t="n">
-        <v>0.422311</v>
+        <v>0.420454</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244325</v>
+        <v>0.24334</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.52593</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598661</v>
+        <v>0.605858</v>
       </c>
       <c r="E121" t="n">
-        <v>0.252285</v>
+        <v>0.250588</v>
       </c>
       <c r="F121" t="n">
-        <v>0.421722</v>
+        <v>0.419222</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228392</v>
+        <v>0.22801</v>
       </c>
       <c r="C122" t="n">
-        <v>0.503529</v>
+        <v>0.505379</v>
       </c>
       <c r="D122" t="n">
-        <v>0.618057</v>
+        <v>0.625091</v>
       </c>
       <c r="E122" t="n">
-        <v>0.251741</v>
+        <v>0.250536</v>
       </c>
       <c r="F122" t="n">
-        <v>0.420803</v>
+        <v>0.418182</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.210992</v>
+        <v>0.210724</v>
       </c>
       <c r="C123" t="n">
-        <v>0.447354</v>
+        <v>0.448457</v>
       </c>
       <c r="D123" t="n">
-        <v>0.594201</v>
+        <v>0.601401</v>
       </c>
       <c r="E123" t="n">
-        <v>0.264974</v>
+        <v>0.263173</v>
       </c>
       <c r="F123" t="n">
-        <v>0.433346</v>
+        <v>0.430479</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356909</v>
+        <v>0.356382</v>
       </c>
       <c r="C124" t="n">
-        <v>0.537801</v>
+        <v>0.538095</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6078170000000001</v>
+        <v>0.614159</v>
       </c>
       <c r="E124" t="n">
-        <v>0.262803</v>
+        <v>0.260983</v>
       </c>
       <c r="F124" t="n">
-        <v>0.43205</v>
+        <v>0.429362</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350761</v>
+        <v>0.350602</v>
       </c>
       <c r="C125" t="n">
-        <v>0.634008</v>
+        <v>0.63617</v>
       </c>
       <c r="D125" t="n">
-        <v>0.602958</v>
+        <v>0.608476</v>
       </c>
       <c r="E125" t="n">
-        <v>0.261062</v>
+        <v>0.259377</v>
       </c>
       <c r="F125" t="n">
-        <v>0.430886</v>
+        <v>0.428152</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.34441</v>
+        <v>0.344088</v>
       </c>
       <c r="C126" t="n">
-        <v>0.553411</v>
+        <v>0.554262</v>
       </c>
       <c r="D126" t="n">
-        <v>0.597371</v>
+        <v>0.6033770000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.259709</v>
+        <v>0.2581</v>
       </c>
       <c r="F126" t="n">
-        <v>0.429461</v>
+        <v>0.42642</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337109</v>
+        <v>0.3368</v>
       </c>
       <c r="C127" t="n">
-        <v>0.61473</v>
+        <v>0.616155</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593377</v>
+        <v>0.599187</v>
       </c>
       <c r="E127" t="n">
-        <v>0.258387</v>
+        <v>0.256874</v>
       </c>
       <c r="F127" t="n">
-        <v>0.428524</v>
+        <v>0.426061</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328892</v>
+        <v>0.328005</v>
       </c>
       <c r="C128" t="n">
-        <v>0.591591</v>
+        <v>0.5934120000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.57707</v>
+        <v>0.58363</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257159</v>
+        <v>0.255777</v>
       </c>
       <c r="F128" t="n">
-        <v>0.427321</v>
+        <v>0.42471</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.320021</v>
+        <v>0.319428</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6526960000000001</v>
+        <v>0.654716</v>
       </c>
       <c r="D129" t="n">
-        <v>0.578332</v>
+        <v>0.581917</v>
       </c>
       <c r="E129" t="n">
-        <v>0.25626</v>
+        <v>0.254869</v>
       </c>
       <c r="F129" t="n">
-        <v>0.426314</v>
+        <v>0.423738</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.310661</v>
+        <v>0.309549</v>
       </c>
       <c r="C130" t="n">
-        <v>0.602846</v>
+        <v>0.609284</v>
       </c>
       <c r="D130" t="n">
-        <v>0.56626</v>
+        <v>0.569726</v>
       </c>
       <c r="E130" t="n">
-        <v>0.255324</v>
+        <v>0.253955</v>
       </c>
       <c r="F130" t="n">
-        <v>0.425402</v>
+        <v>0.422854</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.300536</v>
+        <v>0.299778</v>
       </c>
       <c r="C131" t="n">
-        <v>0.577126</v>
+        <v>0.578722</v>
       </c>
       <c r="D131" t="n">
-        <v>0.561171</v>
+        <v>0.563577</v>
       </c>
       <c r="E131" t="n">
-        <v>0.254453</v>
+        <v>0.253263</v>
       </c>
       <c r="F131" t="n">
-        <v>0.424383</v>
+        <v>0.421864</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.289207</v>
+        <v>0.287582</v>
       </c>
       <c r="C132" t="n">
-        <v>0.558079</v>
+        <v>0.56479</v>
       </c>
       <c r="D132" t="n">
-        <v>0.556728</v>
+        <v>0.559325</v>
       </c>
       <c r="E132" t="n">
-        <v>0.253995</v>
+        <v>0.252553</v>
       </c>
       <c r="F132" t="n">
-        <v>0.423727</v>
+        <v>0.421053</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275953</v>
+        <v>0.275635</v>
       </c>
       <c r="C133" t="n">
-        <v>0.574466</v>
+        <v>0.578939</v>
       </c>
       <c r="D133" t="n">
-        <v>0.551732</v>
+        <v>0.554695</v>
       </c>
       <c r="E133" t="n">
-        <v>0.252729</v>
+        <v>0.252148</v>
       </c>
       <c r="F133" t="n">
-        <v>0.422884</v>
+        <v>0.421062</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26246</v>
+        <v>0.261937</v>
       </c>
       <c r="C134" t="n">
-        <v>0.542837</v>
+        <v>0.545418</v>
       </c>
       <c r="D134" t="n">
-        <v>0.546183</v>
+        <v>0.547783</v>
       </c>
       <c r="E134" t="n">
-        <v>0.252506</v>
+        <v>0.251589</v>
       </c>
       <c r="F134" t="n">
-        <v>0.422146</v>
+        <v>0.419659</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248676</v>
+        <v>0.246854</v>
       </c>
       <c r="C135" t="n">
-        <v>0.526803</v>
+        <v>0.526462</v>
       </c>
       <c r="D135" t="n">
-        <v>0.603724</v>
+        <v>0.607251</v>
       </c>
       <c r="E135" t="n">
-        <v>0.252212</v>
+        <v>0.250769</v>
       </c>
       <c r="F135" t="n">
-        <v>0.421489</v>
+        <v>0.419391</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23102</v>
+        <v>0.230366</v>
       </c>
       <c r="C136" t="n">
-        <v>0.508982</v>
+        <v>0.510866</v>
       </c>
       <c r="D136" t="n">
-        <v>0.605334</v>
+        <v>0.60839</v>
       </c>
       <c r="E136" t="n">
-        <v>0.251556</v>
+        <v>0.250352</v>
       </c>
       <c r="F136" t="n">
-        <v>0.421484</v>
+        <v>0.418543</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213594</v>
+        <v>0.213568</v>
       </c>
       <c r="C137" t="n">
-        <v>0.489641</v>
+        <v>0.490834</v>
       </c>
       <c r="D137" t="n">
-        <v>0.621842</v>
+        <v>0.62583</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26562</v>
+        <v>0.263758</v>
       </c>
       <c r="F137" t="n">
-        <v>0.433882</v>
+        <v>0.430593</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358002</v>
+        <v>0.358119</v>
       </c>
       <c r="C138" t="n">
-        <v>0.670577</v>
+        <v>0.6728420000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.598319</v>
+        <v>0.60097</v>
       </c>
       <c r="E138" t="n">
-        <v>0.263426</v>
+        <v>0.261622</v>
       </c>
       <c r="F138" t="n">
-        <v>0.432279</v>
+        <v>0.429431</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3528</v>
+        <v>0.352856</v>
       </c>
       <c r="C139" t="n">
-        <v>0.663311</v>
+        <v>0.666385</v>
       </c>
       <c r="D139" t="n">
-        <v>0.595182</v>
+        <v>0.5979989999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.261745</v>
+        <v>0.260078</v>
       </c>
       <c r="F139" t="n">
-        <v>0.431281</v>
+        <v>0.428327</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346737</v>
+        <v>0.345895</v>
       </c>
       <c r="C140" t="n">
-        <v>0.622059</v>
+        <v>0.624803</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5930029999999999</v>
+        <v>0.59576</v>
       </c>
       <c r="E140" t="n">
-        <v>0.260262</v>
+        <v>0.258629</v>
       </c>
       <c r="F140" t="n">
-        <v>0.429859</v>
+        <v>0.427144</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339249</v>
+        <v>0.33806</v>
       </c>
       <c r="C141" t="n">
-        <v>0.615532</v>
+        <v>0.617564</v>
       </c>
       <c r="D141" t="n">
-        <v>0.59651</v>
+        <v>0.600082</v>
       </c>
       <c r="E141" t="n">
-        <v>0.259026</v>
+        <v>0.257333</v>
       </c>
       <c r="F141" t="n">
-        <v>0.428618</v>
+        <v>0.425764</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331128</v>
+        <v>0.330164</v>
       </c>
       <c r="C142" t="n">
-        <v>0.631863</v>
+        <v>0.634037</v>
       </c>
       <c r="D142" t="n">
-        <v>0.589654</v>
+        <v>0.593467</v>
       </c>
       <c r="E142" t="n">
-        <v>0.257725</v>
+        <v>0.256285</v>
       </c>
       <c r="F142" t="n">
-        <v>0.42757</v>
+        <v>0.425045</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.322484</v>
+        <v>0.322018</v>
       </c>
       <c r="C143" t="n">
-        <v>0.630348</v>
+        <v>0.628713</v>
       </c>
       <c r="D143" t="n">
-        <v>0.582334</v>
+        <v>0.585233</v>
       </c>
       <c r="E143" t="n">
-        <v>0.256765</v>
+        <v>0.255185</v>
       </c>
       <c r="F143" t="n">
-        <v>0.426633</v>
+        <v>0.423868</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.277435</v>
+        <v>0.272601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.454651</v>
+        <v>0.455625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389018</v>
+        <v>0.388982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.22485</v>
+        <v>0.225902</v>
       </c>
       <c r="F2" t="n">
-        <v>0.414989</v>
+        <v>0.415599</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.270349</v>
+        <v>0.268354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.449477</v>
+        <v>0.460664</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390015</v>
+        <v>0.390096</v>
       </c>
       <c r="E3" t="n">
-        <v>0.226624</v>
+        <v>0.226334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.411724</v>
+        <v>0.415065</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259776</v>
+        <v>0.257391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.449389</v>
+        <v>0.446786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39184</v>
+        <v>0.390876</v>
       </c>
       <c r="E4" t="n">
-        <v>0.227932</v>
+        <v>0.229722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.412553</v>
+        <v>0.415579</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246855</v>
+        <v>0.247658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.43028</v>
+        <v>0.440112</v>
       </c>
       <c r="D5" t="n">
-        <v>0.392306</v>
+        <v>0.393033</v>
       </c>
       <c r="E5" t="n">
-        <v>0.230864</v>
+        <v>0.232571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.412778</v>
+        <v>0.412675</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233272</v>
+        <v>0.234727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.420978</v>
+        <v>0.425562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.392849</v>
+        <v>0.393502</v>
       </c>
       <c r="E6" t="n">
-        <v>0.23412</v>
+        <v>0.233826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.412143</v>
+        <v>0.415734</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.225532</v>
+        <v>0.226617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.407395</v>
+        <v>0.411659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389382</v>
+        <v>0.38882</v>
       </c>
       <c r="E7" t="n">
-        <v>0.235993</v>
+        <v>0.236346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.411752</v>
+        <v>0.411418</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.207199</v>
+        <v>0.206747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.394114</v>
+        <v>0.393088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.392914</v>
+        <v>0.393692</v>
       </c>
       <c r="E8" t="n">
-        <v>0.234573</v>
+        <v>0.235151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.410809</v>
+        <v>0.411536</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190061</v>
+        <v>0.190664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.380478</v>
+        <v>0.378956</v>
       </c>
       <c r="D9" t="n">
-        <v>0.393522</v>
+        <v>0.392825</v>
       </c>
       <c r="E9" t="n">
-        <v>0.253423</v>
+        <v>0.252044</v>
       </c>
       <c r="F9" t="n">
-        <v>0.424922</v>
+        <v>0.424632</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.340857</v>
+        <v>0.339729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.515754</v>
+        <v>0.516744</v>
       </c>
       <c r="D10" t="n">
-        <v>0.394095</v>
+        <v>0.394078</v>
       </c>
       <c r="E10" t="n">
-        <v>0.252595</v>
+        <v>0.252889</v>
       </c>
       <c r="F10" t="n">
-        <v>0.423645</v>
+        <v>0.424613</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.33462</v>
+        <v>0.334197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.509818</v>
+        <v>0.512368</v>
       </c>
       <c r="D11" t="n">
-        <v>0.396747</v>
+        <v>0.394408</v>
       </c>
       <c r="E11" t="n">
-        <v>0.251667</v>
+        <v>0.251287</v>
       </c>
       <c r="F11" t="n">
-        <v>0.423351</v>
+        <v>0.423221</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.327753</v>
+        <v>0.326803</v>
       </c>
       <c r="C12" t="n">
-        <v>0.505835</v>
+        <v>0.50696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394952</v>
+        <v>0.394088</v>
       </c>
       <c r="E12" t="n">
-        <v>0.250573</v>
+        <v>0.251318</v>
       </c>
       <c r="F12" t="n">
-        <v>0.420567</v>
+        <v>0.421327</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.321233</v>
+        <v>0.321219</v>
       </c>
       <c r="C13" t="n">
-        <v>0.498471</v>
+        <v>0.499721</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394353</v>
+        <v>0.39513</v>
       </c>
       <c r="E13" t="n">
-        <v>0.251252</v>
+        <v>0.25044</v>
       </c>
       <c r="F13" t="n">
-        <v>0.422058</v>
+        <v>0.421729</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312871</v>
+        <v>0.313853</v>
       </c>
       <c r="C14" t="n">
-        <v>0.490789</v>
+        <v>0.492932</v>
       </c>
       <c r="D14" t="n">
-        <v>0.398544</v>
+        <v>0.399763</v>
       </c>
       <c r="E14" t="n">
-        <v>0.250119</v>
+        <v>0.250204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.419892</v>
+        <v>0.420614</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30508</v>
+        <v>0.304574</v>
       </c>
       <c r="C15" t="n">
-        <v>0.482975</v>
+        <v>0.483903</v>
       </c>
       <c r="D15" t="n">
-        <v>0.398561</v>
+        <v>0.398956</v>
       </c>
       <c r="E15" t="n">
-        <v>0.24933</v>
+        <v>0.249402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.420278</v>
+        <v>0.420742</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.296638</v>
+        <v>0.296325</v>
       </c>
       <c r="C16" t="n">
-        <v>0.472551</v>
+        <v>0.473003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.399811</v>
+        <v>0.399227</v>
       </c>
       <c r="E16" t="n">
-        <v>0.248839</v>
+        <v>0.249198</v>
       </c>
       <c r="F16" t="n">
-        <v>0.418332</v>
+        <v>0.418645</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.286882</v>
+        <v>0.286462</v>
       </c>
       <c r="C17" t="n">
-        <v>0.466018</v>
+        <v>0.466242</v>
       </c>
       <c r="D17" t="n">
-        <v>0.402102</v>
+        <v>0.402065</v>
       </c>
       <c r="E17" t="n">
-        <v>0.249097</v>
+        <v>0.248632</v>
       </c>
       <c r="F17" t="n">
-        <v>0.419015</v>
+        <v>0.418918</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.273958</v>
+        <v>0.274729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.457902</v>
+        <v>0.458141</v>
       </c>
       <c r="D18" t="n">
-        <v>0.403301</v>
+        <v>0.402782</v>
       </c>
       <c r="E18" t="n">
-        <v>0.248208</v>
+        <v>0.248949</v>
       </c>
       <c r="F18" t="n">
-        <v>0.417889</v>
+        <v>0.419044</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263583</v>
+        <v>0.263433</v>
       </c>
       <c r="C19" t="n">
-        <v>0.444371</v>
+        <v>0.450146</v>
       </c>
       <c r="D19" t="n">
-        <v>0.403639</v>
+        <v>0.405043</v>
       </c>
       <c r="E19" t="n">
-        <v>0.248366</v>
+        <v>0.248498</v>
       </c>
       <c r="F19" t="n">
-        <v>0.416606</v>
+        <v>0.417607</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250494</v>
+        <v>0.250549</v>
       </c>
       <c r="C20" t="n">
-        <v>0.427778</v>
+        <v>0.433011</v>
       </c>
       <c r="D20" t="n">
-        <v>0.40425</v>
+        <v>0.404846</v>
       </c>
       <c r="E20" t="n">
-        <v>0.247834</v>
+        <v>0.248145</v>
       </c>
       <c r="F20" t="n">
-        <v>0.415182</v>
+        <v>0.415825</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241609</v>
+        <v>0.241602</v>
       </c>
       <c r="C21" t="n">
-        <v>0.417056</v>
+        <v>0.417266</v>
       </c>
       <c r="D21" t="n">
-        <v>0.400377</v>
+        <v>0.39953</v>
       </c>
       <c r="E21" t="n">
-        <v>0.247179</v>
+        <v>0.246849</v>
       </c>
       <c r="F21" t="n">
-        <v>0.415856</v>
+        <v>0.416122</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225615</v>
+        <v>0.225398</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408481</v>
+        <v>0.406871</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398952</v>
+        <v>0.39801</v>
       </c>
       <c r="E22" t="n">
-        <v>0.247468</v>
+        <v>0.248675</v>
       </c>
       <c r="F22" t="n">
-        <v>0.416251</v>
+        <v>0.417294</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206785</v>
+        <v>0.207143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.391745</v>
+        <v>0.392289</v>
       </c>
       <c r="D23" t="n">
-        <v>0.399104</v>
+        <v>0.39986</v>
       </c>
       <c r="E23" t="n">
-        <v>0.265016</v>
+        <v>0.265784</v>
       </c>
       <c r="F23" t="n">
-        <v>0.42858</v>
+        <v>0.431329</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348961</v>
+        <v>0.348643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.516333</v>
+        <v>0.517075</v>
       </c>
       <c r="D24" t="n">
-        <v>0.401248</v>
+        <v>0.402302</v>
       </c>
       <c r="E24" t="n">
-        <v>0.262632</v>
+        <v>0.262662</v>
       </c>
       <c r="F24" t="n">
-        <v>0.426925</v>
+        <v>0.429312</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342215</v>
+        <v>0.341815</v>
       </c>
       <c r="C25" t="n">
-        <v>0.519041</v>
+        <v>0.518898</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401477</v>
+        <v>0.401495</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25931</v>
+        <v>0.259504</v>
       </c>
       <c r="F25" t="n">
-        <v>0.426348</v>
+        <v>0.429755</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336451</v>
+        <v>0.336414</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511046</v>
+        <v>0.511742</v>
       </c>
       <c r="D26" t="n">
-        <v>0.401873</v>
+        <v>0.402342</v>
       </c>
       <c r="E26" t="n">
-        <v>0.258321</v>
+        <v>0.257982</v>
       </c>
       <c r="F26" t="n">
-        <v>0.425243</v>
+        <v>0.425511</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329528</v>
+        <v>0.330008</v>
       </c>
       <c r="C27" t="n">
-        <v>0.502139</v>
+        <v>0.502705</v>
       </c>
       <c r="D27" t="n">
-        <v>0.402792</v>
+        <v>0.402416</v>
       </c>
       <c r="E27" t="n">
-        <v>0.256935</v>
+        <v>0.257088</v>
       </c>
       <c r="F27" t="n">
-        <v>0.423903</v>
+        <v>0.424148</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322041</v>
+        <v>0.322035</v>
       </c>
       <c r="C28" t="n">
-        <v>0.494683</v>
+        <v>0.491172</v>
       </c>
       <c r="D28" t="n">
-        <v>0.402172</v>
+        <v>0.401649</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25588</v>
+        <v>0.255893</v>
       </c>
       <c r="F28" t="n">
-        <v>0.423865</v>
+        <v>0.424209</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313435</v>
+        <v>0.314298</v>
       </c>
       <c r="C29" t="n">
-        <v>0.492293</v>
+        <v>0.490608</v>
       </c>
       <c r="D29" t="n">
-        <v>0.403613</v>
+        <v>0.403929</v>
       </c>
       <c r="E29" t="n">
-        <v>0.255237</v>
+        <v>0.255324</v>
       </c>
       <c r="F29" t="n">
-        <v>0.423226</v>
+        <v>0.423594</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305825</v>
+        <v>0.305636</v>
       </c>
       <c r="C30" t="n">
-        <v>0.473604</v>
+        <v>0.474249</v>
       </c>
       <c r="D30" t="n">
-        <v>0.40471</v>
+        <v>0.40493</v>
       </c>
       <c r="E30" t="n">
-        <v>0.254302</v>
+        <v>0.253948</v>
       </c>
       <c r="F30" t="n">
-        <v>0.421793</v>
+        <v>0.422038</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296388</v>
+        <v>0.296643</v>
       </c>
       <c r="C31" t="n">
-        <v>0.46581</v>
+        <v>0.466661</v>
       </c>
       <c r="D31" t="n">
-        <v>0.406938</v>
+        <v>0.407638</v>
       </c>
       <c r="E31" t="n">
-        <v>0.253156</v>
+        <v>0.253273</v>
       </c>
       <c r="F31" t="n">
-        <v>0.420315</v>
+        <v>0.420701</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284148</v>
+        <v>0.284472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.46324</v>
+        <v>0.463399</v>
       </c>
       <c r="D32" t="n">
-        <v>0.407002</v>
+        <v>0.407087</v>
       </c>
       <c r="E32" t="n">
-        <v>0.251967</v>
+        <v>0.252565</v>
       </c>
       <c r="F32" t="n">
-        <v>0.420393</v>
+        <v>0.420457</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273157</v>
+        <v>0.273351</v>
       </c>
       <c r="C33" t="n">
-        <v>0.446764</v>
+        <v>0.446716</v>
       </c>
       <c r="D33" t="n">
-        <v>0.40706</v>
+        <v>0.407266</v>
       </c>
       <c r="E33" t="n">
-        <v>0.251331</v>
+        <v>0.252202</v>
       </c>
       <c r="F33" t="n">
-        <v>0.418753</v>
+        <v>0.418989</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261647</v>
+        <v>0.261205</v>
       </c>
       <c r="C34" t="n">
-        <v>0.442323</v>
+        <v>0.442903</v>
       </c>
       <c r="D34" t="n">
-        <v>0.408236</v>
+        <v>0.408664</v>
       </c>
       <c r="E34" t="n">
-        <v>0.25062</v>
+        <v>0.25152</v>
       </c>
       <c r="F34" t="n">
-        <v>0.41846</v>
+        <v>0.418888</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248902</v>
+        <v>0.248262</v>
       </c>
       <c r="C35" t="n">
-        <v>0.423386</v>
+        <v>0.425467</v>
       </c>
       <c r="D35" t="n">
-        <v>0.406271</v>
+        <v>0.409049</v>
       </c>
       <c r="E35" t="n">
-        <v>0.249834</v>
+        <v>0.249848</v>
       </c>
       <c r="F35" t="n">
-        <v>0.416994</v>
+        <v>0.416937</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232855</v>
+        <v>0.233791</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412963</v>
+        <v>0.413357</v>
       </c>
       <c r="D36" t="n">
-        <v>0.406344</v>
+        <v>0.406416</v>
       </c>
       <c r="E36" t="n">
-        <v>0.249411</v>
+        <v>0.248577</v>
       </c>
       <c r="F36" t="n">
-        <v>0.416154</v>
+        <v>0.41624</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216666</v>
+        <v>0.217234</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402088</v>
+        <v>0.406316</v>
       </c>
       <c r="D37" t="n">
-        <v>0.406802</v>
+        <v>0.406667</v>
       </c>
       <c r="E37" t="n">
-        <v>0.265636</v>
+        <v>0.265509</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4305</v>
+        <v>0.43251</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354265</v>
+        <v>0.354402</v>
       </c>
       <c r="C38" t="n">
-        <v>0.526945</v>
+        <v>0.5271980000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.405584</v>
+        <v>0.406451</v>
       </c>
       <c r="E38" t="n">
-        <v>0.26301</v>
+        <v>0.262854</v>
       </c>
       <c r="F38" t="n">
-        <v>0.428704</v>
+        <v>0.429028</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.349336</v>
+        <v>0.349407</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5217039999999999</v>
+        <v>0.521841</v>
       </c>
       <c r="D39" t="n">
-        <v>0.406127</v>
+        <v>0.406131</v>
       </c>
       <c r="E39" t="n">
-        <v>0.259834</v>
+        <v>0.259626</v>
       </c>
       <c r="F39" t="n">
-        <v>0.427614</v>
+        <v>0.427133</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.344113</v>
+        <v>0.343883</v>
       </c>
       <c r="C40" t="n">
-        <v>0.516118</v>
+        <v>0.516348</v>
       </c>
       <c r="D40" t="n">
-        <v>0.406851</v>
+        <v>0.404256</v>
       </c>
       <c r="E40" t="n">
-        <v>0.259056</v>
+        <v>0.259184</v>
       </c>
       <c r="F40" t="n">
-        <v>0.427626</v>
+        <v>0.427651</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.337036</v>
+        <v>0.336776</v>
       </c>
       <c r="C41" t="n">
-        <v>0.508798</v>
+        <v>0.509437</v>
       </c>
       <c r="D41" t="n">
-        <v>0.405827</v>
+        <v>0.403927</v>
       </c>
       <c r="E41" t="n">
-        <v>0.257594</v>
+        <v>0.257432</v>
       </c>
       <c r="F41" t="n">
-        <v>0.425515</v>
+        <v>0.425717</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.330062</v>
+        <v>0.329504</v>
       </c>
       <c r="C42" t="n">
-        <v>0.497645</v>
+        <v>0.498532</v>
       </c>
       <c r="D42" t="n">
-        <v>0.406403</v>
+        <v>0.403431</v>
       </c>
       <c r="E42" t="n">
-        <v>0.256302</v>
+        <v>0.256297</v>
       </c>
       <c r="F42" t="n">
-        <v>0.424966</v>
+        <v>0.424803</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321044</v>
+        <v>0.320901</v>
       </c>
       <c r="C43" t="n">
-        <v>0.488385</v>
+        <v>0.488623</v>
       </c>
       <c r="D43" t="n">
-        <v>0.40729</v>
+        <v>0.404518</v>
       </c>
       <c r="E43" t="n">
-        <v>0.255344</v>
+        <v>0.255088</v>
       </c>
       <c r="F43" t="n">
-        <v>0.423487</v>
+        <v>0.423818</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312524</v>
+        <v>0.312177</v>
       </c>
       <c r="C44" t="n">
-        <v>0.485509</v>
+        <v>0.485964</v>
       </c>
       <c r="D44" t="n">
-        <v>0.40803</v>
+        <v>0.405457</v>
       </c>
       <c r="E44" t="n">
-        <v>0.254157</v>
+        <v>0.253965</v>
       </c>
       <c r="F44" t="n">
-        <v>0.422536</v>
+        <v>0.4222</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302393</v>
+        <v>0.301505</v>
       </c>
       <c r="C45" t="n">
-        <v>0.475007</v>
+        <v>0.47679</v>
       </c>
       <c r="D45" t="n">
-        <v>0.410014</v>
+        <v>0.406113</v>
       </c>
       <c r="E45" t="n">
-        <v>0.252878</v>
+        <v>0.252928</v>
       </c>
       <c r="F45" t="n">
-        <v>0.421141</v>
+        <v>0.421468</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291349</v>
+        <v>0.290989</v>
       </c>
       <c r="C46" t="n">
-        <v>0.467755</v>
+        <v>0.473096</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410733</v>
+        <v>0.408221</v>
       </c>
       <c r="E46" t="n">
-        <v>0.251875</v>
+        <v>0.251938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.420069</v>
+        <v>0.420448</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.27974</v>
+        <v>0.279779</v>
       </c>
       <c r="C47" t="n">
-        <v>0.456947</v>
+        <v>0.459227</v>
       </c>
       <c r="D47" t="n">
-        <v>0.412192</v>
+        <v>0.407815</v>
       </c>
       <c r="E47" t="n">
-        <v>0.251</v>
+        <v>0.251186</v>
       </c>
       <c r="F47" t="n">
-        <v>0.419693</v>
+        <v>0.419982</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267297</v>
+        <v>0.267488</v>
       </c>
       <c r="C48" t="n">
-        <v>0.444703</v>
+        <v>0.444909</v>
       </c>
       <c r="D48" t="n">
-        <v>0.409083</v>
+        <v>0.409128</v>
       </c>
       <c r="E48" t="n">
-        <v>0.250623</v>
+        <v>0.250627</v>
       </c>
       <c r="F48" t="n">
-        <v>0.419503</v>
+        <v>0.41921</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25345</v>
+        <v>0.253724</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431757</v>
+        <v>0.431944</v>
       </c>
       <c r="D49" t="n">
-        <v>0.410504</v>
+        <v>0.410446</v>
       </c>
       <c r="E49" t="n">
-        <v>0.251009</v>
+        <v>0.251081</v>
       </c>
       <c r="F49" t="n">
-        <v>0.419312</v>
+        <v>0.418954</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238978</v>
+        <v>0.238912</v>
       </c>
       <c r="C50" t="n">
-        <v>0.424659</v>
+        <v>0.424115</v>
       </c>
       <c r="D50" t="n">
-        <v>0.410076</v>
+        <v>0.409188</v>
       </c>
       <c r="E50" t="n">
-        <v>0.249391</v>
+        <v>0.249484</v>
       </c>
       <c r="F50" t="n">
-        <v>0.419793</v>
+        <v>0.419809</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222828</v>
+        <v>0.222714</v>
       </c>
       <c r="C51" t="n">
-        <v>0.403398</v>
+        <v>0.40264</v>
       </c>
       <c r="D51" t="n">
-        <v>0.409775</v>
+        <v>0.408122</v>
       </c>
       <c r="E51" t="n">
-        <v>0.265782</v>
+        <v>0.265389</v>
       </c>
       <c r="F51" t="n">
-        <v>0.430879</v>
+        <v>0.43111</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207597</v>
+        <v>0.207423</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384463</v>
+        <v>0.384539</v>
       </c>
       <c r="D52" t="n">
-        <v>0.409432</v>
+        <v>0.411344</v>
       </c>
       <c r="E52" t="n">
-        <v>0.263054</v>
+        <v>0.262867</v>
       </c>
       <c r="F52" t="n">
-        <v>0.429803</v>
+        <v>0.43178</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353642</v>
+        <v>0.353597</v>
       </c>
       <c r="C53" t="n">
-        <v>0.524879</v>
+        <v>0.523215</v>
       </c>
       <c r="D53" t="n">
-        <v>0.410372</v>
+        <v>0.407666</v>
       </c>
       <c r="E53" t="n">
-        <v>0.260393</v>
+        <v>0.260452</v>
       </c>
       <c r="F53" t="n">
-        <v>0.428321</v>
+        <v>0.428459</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347309</v>
+        <v>0.347265</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5192020000000001</v>
+        <v>0.516246</v>
       </c>
       <c r="D54" t="n">
-        <v>0.409354</v>
+        <v>0.408788</v>
       </c>
       <c r="E54" t="n">
-        <v>0.258672</v>
+        <v>0.258715</v>
       </c>
       <c r="F54" t="n">
-        <v>0.427082</v>
+        <v>0.427071</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.340938</v>
+        <v>0.341015</v>
       </c>
       <c r="C55" t="n">
-        <v>0.516015</v>
+        <v>0.514747</v>
       </c>
       <c r="D55" t="n">
-        <v>0.412632</v>
+        <v>0.408545</v>
       </c>
       <c r="E55" t="n">
-        <v>0.257621</v>
+        <v>0.259319</v>
       </c>
       <c r="F55" t="n">
-        <v>0.425778</v>
+        <v>0.425446</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334237</v>
+        <v>0.334244</v>
       </c>
       <c r="C56" t="n">
-        <v>0.503464</v>
+        <v>0.502622</v>
       </c>
       <c r="D56" t="n">
-        <v>0.417827</v>
+        <v>0.413904</v>
       </c>
       <c r="E56" t="n">
-        <v>0.257144</v>
+        <v>0.257589</v>
       </c>
       <c r="F56" t="n">
-        <v>0.424536</v>
+        <v>0.424528</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325797</v>
+        <v>0.326174</v>
       </c>
       <c r="C57" t="n">
-        <v>0.505734</v>
+        <v>0.502407</v>
       </c>
       <c r="D57" t="n">
-        <v>0.414039</v>
+        <v>0.411103</v>
       </c>
       <c r="E57" t="n">
-        <v>0.255805</v>
+        <v>0.255466</v>
       </c>
       <c r="F57" t="n">
-        <v>0.424105</v>
+        <v>0.423603</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316716</v>
+        <v>0.316505</v>
       </c>
       <c r="C58" t="n">
-        <v>0.505032</v>
+        <v>0.505239</v>
       </c>
       <c r="D58" t="n">
-        <v>0.415365</v>
+        <v>0.413409</v>
       </c>
       <c r="E58" t="n">
-        <v>0.254963</v>
+        <v>0.25471</v>
       </c>
       <c r="F58" t="n">
-        <v>0.423005</v>
+        <v>0.42304</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.307196</v>
+        <v>0.30669</v>
       </c>
       <c r="C59" t="n">
-        <v>0.490595</v>
+        <v>0.492498</v>
       </c>
       <c r="D59" t="n">
-        <v>0.419617</v>
+        <v>0.417476</v>
       </c>
       <c r="E59" t="n">
-        <v>0.254196</v>
+        <v>0.253797</v>
       </c>
       <c r="F59" t="n">
-        <v>0.424529</v>
+        <v>0.422393</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296037</v>
+        <v>0.296707</v>
       </c>
       <c r="C60" t="n">
-        <v>0.482902</v>
+        <v>0.487968</v>
       </c>
       <c r="D60" t="n">
-        <v>0.422536</v>
+        <v>0.420922</v>
       </c>
       <c r="E60" t="n">
-        <v>0.253238</v>
+        <v>0.252828</v>
       </c>
       <c r="F60" t="n">
-        <v>0.422056</v>
+        <v>0.423269</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284719</v>
+        <v>0.28487</v>
       </c>
       <c r="C61" t="n">
-        <v>0.484679</v>
+        <v>0.484834</v>
       </c>
       <c r="D61" t="n">
-        <v>0.421825</v>
+        <v>0.41867</v>
       </c>
       <c r="E61" t="n">
-        <v>0.252637</v>
+        <v>0.252526</v>
       </c>
       <c r="F61" t="n">
-        <v>0.420724</v>
+        <v>0.420965</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272141</v>
+        <v>0.271812</v>
       </c>
       <c r="C62" t="n">
-        <v>0.472246</v>
+        <v>0.465318</v>
       </c>
       <c r="D62" t="n">
-        <v>0.429316</v>
+        <v>0.427619</v>
       </c>
       <c r="E62" t="n">
-        <v>0.252128</v>
+        <v>0.251837</v>
       </c>
       <c r="F62" t="n">
-        <v>0.420304</v>
+        <v>0.421622</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258668</v>
+        <v>0.258667</v>
       </c>
       <c r="C63" t="n">
-        <v>0.441287</v>
+        <v>0.441328</v>
       </c>
       <c r="D63" t="n">
-        <v>0.432399</v>
+        <v>0.43131</v>
       </c>
       <c r="E63" t="n">
-        <v>0.251376</v>
+        <v>0.251364</v>
       </c>
       <c r="F63" t="n">
-        <v>0.420308</v>
+        <v>0.421195</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244237</v>
+        <v>0.244455</v>
       </c>
       <c r="C64" t="n">
-        <v>0.45948</v>
+        <v>0.457524</v>
       </c>
       <c r="D64" t="n">
-        <v>0.458612</v>
+        <v>0.457692</v>
       </c>
       <c r="E64" t="n">
-        <v>0.251416</v>
+        <v>0.251336</v>
       </c>
       <c r="F64" t="n">
-        <v>0.418995</v>
+        <v>0.419351</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229046</v>
+        <v>0.229004</v>
       </c>
       <c r="C65" t="n">
-        <v>0.436114</v>
+        <v>0.435941</v>
       </c>
       <c r="D65" t="n">
-        <v>0.484558</v>
+        <v>0.471619</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2501</v>
+        <v>0.250069</v>
       </c>
       <c r="F65" t="n">
-        <v>0.418194</v>
+        <v>0.418498</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212019</v>
+        <v>0.212213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.420968</v>
+        <v>0.418936</v>
       </c>
       <c r="D66" t="n">
-        <v>0.478771</v>
+        <v>0.476705</v>
       </c>
       <c r="E66" t="n">
-        <v>0.263767</v>
+        <v>0.263911</v>
       </c>
       <c r="F66" t="n">
-        <v>0.430344</v>
+        <v>0.430426</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.355906</v>
+        <v>0.35596</v>
       </c>
       <c r="C67" t="n">
-        <v>0.569214</v>
+        <v>0.566705</v>
       </c>
       <c r="D67" t="n">
-        <v>0.486722</v>
+        <v>0.485928</v>
       </c>
       <c r="E67" t="n">
-        <v>0.261582</v>
+        <v>0.261397</v>
       </c>
       <c r="F67" t="n">
-        <v>0.428966</v>
+        <v>0.429246</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350688</v>
+        <v>0.350163</v>
       </c>
       <c r="C68" t="n">
-        <v>0.574116</v>
+        <v>0.57111</v>
       </c>
       <c r="D68" t="n">
-        <v>0.491317</v>
+        <v>0.491999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.259699</v>
+        <v>0.259675</v>
       </c>
       <c r="F68" t="n">
-        <v>0.427912</v>
+        <v>0.428069</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343874</v>
+        <v>0.34382</v>
       </c>
       <c r="C69" t="n">
-        <v>0.549199</v>
+        <v>0.547723</v>
       </c>
       <c r="D69" t="n">
-        <v>0.499022</v>
+        <v>0.501564</v>
       </c>
       <c r="E69" t="n">
-        <v>0.25827</v>
+        <v>0.258192</v>
       </c>
       <c r="F69" t="n">
-        <v>0.426729</v>
+        <v>0.426647</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336323</v>
+        <v>0.336078</v>
       </c>
       <c r="C70" t="n">
-        <v>0.561307</v>
+        <v>0.5607529999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.499676</v>
+        <v>0.499331</v>
       </c>
       <c r="E70" t="n">
-        <v>0.257178</v>
+        <v>0.257058</v>
       </c>
       <c r="F70" t="n">
-        <v>0.42606</v>
+        <v>0.425506</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328397</v>
+        <v>0.328346</v>
       </c>
       <c r="C71" t="n">
-        <v>0.508258</v>
+        <v>0.508282</v>
       </c>
       <c r="D71" t="n">
-        <v>0.525687</v>
+        <v>0.527317</v>
       </c>
       <c r="E71" t="n">
-        <v>0.256092</v>
+        <v>0.256173</v>
       </c>
       <c r="F71" t="n">
-        <v>0.424682</v>
+        <v>0.424532</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.318997</v>
+        <v>0.31898</v>
       </c>
       <c r="C72" t="n">
-        <v>0.547072</v>
+        <v>0.54611</v>
       </c>
       <c r="D72" t="n">
-        <v>0.510948</v>
+        <v>0.511956</v>
       </c>
       <c r="E72" t="n">
-        <v>0.255127</v>
+        <v>0.255003</v>
       </c>
       <c r="F72" t="n">
-        <v>0.423544</v>
+        <v>0.423371</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309682</v>
+        <v>0.3094</v>
       </c>
       <c r="C73" t="n">
-        <v>0.527928</v>
+        <v>0.527899</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5154570000000001</v>
+        <v>0.515251</v>
       </c>
       <c r="E73" t="n">
-        <v>0.25382</v>
+        <v>0.253801</v>
       </c>
       <c r="F73" t="n">
-        <v>0.42257</v>
+        <v>0.4226</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299199</v>
+        <v>0.299115</v>
       </c>
       <c r="C74" t="n">
-        <v>0.523814</v>
+        <v>0.524257</v>
       </c>
       <c r="D74" t="n">
-        <v>0.539922</v>
+        <v>0.539807</v>
       </c>
       <c r="E74" t="n">
-        <v>0.253048</v>
+        <v>0.253051</v>
       </c>
       <c r="F74" t="n">
-        <v>0.42222</v>
+        <v>0.42196</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288126</v>
+        <v>0.287954</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5233179999999999</v>
+        <v>0.528457</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5177659999999999</v>
+        <v>0.515649</v>
       </c>
       <c r="E75" t="n">
-        <v>0.252467</v>
+        <v>0.252419</v>
       </c>
       <c r="F75" t="n">
-        <v>0.421107</v>
+        <v>0.421001</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275732</v>
+        <v>0.275447</v>
       </c>
       <c r="C76" t="n">
-        <v>0.516821</v>
+        <v>0.516671</v>
       </c>
       <c r="D76" t="n">
-        <v>0.519092</v>
+        <v>0.517717</v>
       </c>
       <c r="E76" t="n">
-        <v>0.252278</v>
+        <v>0.25277</v>
       </c>
       <c r="F76" t="n">
-        <v>0.420411</v>
+        <v>0.420164</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262835</v>
+        <v>0.262714</v>
       </c>
       <c r="C77" t="n">
-        <v>0.537687</v>
+        <v>0.537703</v>
       </c>
       <c r="D77" t="n">
-        <v>0.529729</v>
+        <v>0.532479</v>
       </c>
       <c r="E77" t="n">
-        <v>0.251486</v>
+        <v>0.251528</v>
       </c>
       <c r="F77" t="n">
-        <v>0.420544</v>
+        <v>0.421731</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248795</v>
+        <v>0.248469</v>
       </c>
       <c r="C78" t="n">
-        <v>0.494221</v>
+        <v>0.494394</v>
       </c>
       <c r="D78" t="n">
-        <v>0.598826</v>
+        <v>0.597287</v>
       </c>
       <c r="E78" t="n">
-        <v>0.251004</v>
+        <v>0.250725</v>
       </c>
       <c r="F78" t="n">
-        <v>0.418791</v>
+        <v>0.418582</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233347</v>
+        <v>0.233145</v>
       </c>
       <c r="C79" t="n">
-        <v>0.490561</v>
+        <v>0.488364</v>
       </c>
       <c r="D79" t="n">
-        <v>0.587558</v>
+        <v>0.5854819999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.25029</v>
+        <v>0.249861</v>
       </c>
       <c r="F79" t="n">
-        <v>0.418376</v>
+        <v>0.417883</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216289</v>
+        <v>0.216338</v>
       </c>
       <c r="C80" t="n">
-        <v>0.521996</v>
+        <v>0.521298</v>
       </c>
       <c r="D80" t="n">
-        <v>0.601712</v>
+        <v>0.60014</v>
       </c>
       <c r="E80" t="n">
-        <v>0.26465</v>
+        <v>0.264458</v>
       </c>
       <c r="F80" t="n">
-        <v>0.431862</v>
+        <v>0.4322</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357854</v>
+        <v>0.357285</v>
       </c>
       <c r="C81" t="n">
-        <v>0.638474</v>
+        <v>0.613577</v>
       </c>
       <c r="D81" t="n">
-        <v>0.588289</v>
+        <v>0.591128</v>
       </c>
       <c r="E81" t="n">
-        <v>0.262446</v>
+        <v>0.262285</v>
       </c>
       <c r="F81" t="n">
-        <v>0.430684</v>
+        <v>0.429504</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352147</v>
+        <v>0.352051</v>
       </c>
       <c r="C82" t="n">
-        <v>0.598934</v>
+        <v>0.598094</v>
       </c>
       <c r="D82" t="n">
-        <v>0.588888</v>
+        <v>0.587513</v>
       </c>
       <c r="E82" t="n">
-        <v>0.260304</v>
+        <v>0.260151</v>
       </c>
       <c r="F82" t="n">
-        <v>0.429424</v>
+        <v>0.428228</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345553</v>
+        <v>0.345674</v>
       </c>
       <c r="C83" t="n">
-        <v>0.581417</v>
+        <v>0.580562</v>
       </c>
       <c r="D83" t="n">
-        <v>0.584975</v>
+        <v>0.582311</v>
       </c>
       <c r="E83" t="n">
-        <v>0.258749</v>
+        <v>0.258685</v>
       </c>
       <c r="F83" t="n">
-        <v>0.429124</v>
+        <v>0.427218</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338817</v>
+        <v>0.338779</v>
       </c>
       <c r="C84" t="n">
-        <v>0.637383</v>
+        <v>0.635759</v>
       </c>
       <c r="D84" t="n">
-        <v>0.593845</v>
+        <v>0.591869</v>
       </c>
       <c r="E84" t="n">
-        <v>0.257589</v>
+        <v>0.257412</v>
       </c>
       <c r="F84" t="n">
-        <v>0.427623</v>
+        <v>0.42644</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330798</v>
+        <v>0.33048</v>
       </c>
       <c r="C85" t="n">
-        <v>0.601251</v>
+        <v>0.599653</v>
       </c>
       <c r="D85" t="n">
-        <v>0.578121</v>
+        <v>0.577369</v>
       </c>
       <c r="E85" t="n">
-        <v>0.256579</v>
+        <v>0.256541</v>
       </c>
       <c r="F85" t="n">
-        <v>0.426964</v>
+        <v>0.426718</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321574</v>
+        <v>0.321707</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6593</v>
+        <v>0.656906</v>
       </c>
       <c r="D86" t="n">
-        <v>0.580454</v>
+        <v>0.578506</v>
       </c>
       <c r="E86" t="n">
-        <v>0.255399</v>
+        <v>0.255232</v>
       </c>
       <c r="F86" t="n">
-        <v>0.424813</v>
+        <v>0.425901</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.31203</v>
+        <v>0.312034</v>
       </c>
       <c r="C87" t="n">
-        <v>0.608469</v>
+        <v>0.606816</v>
       </c>
       <c r="D87" t="n">
-        <v>0.57686</v>
+        <v>0.575028</v>
       </c>
       <c r="E87" t="n">
-        <v>0.254415</v>
+        <v>0.254191</v>
       </c>
       <c r="F87" t="n">
-        <v>0.424537</v>
+        <v>0.425129</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300179</v>
+        <v>0.299828</v>
       </c>
       <c r="C88" t="n">
-        <v>0.515341</v>
+        <v>0.515042</v>
       </c>
       <c r="D88" t="n">
-        <v>0.570582</v>
+        <v>0.567843</v>
       </c>
       <c r="E88" t="n">
-        <v>0.253413</v>
+        <v>0.253403</v>
       </c>
       <c r="F88" t="n">
-        <v>0.422671</v>
+        <v>0.42375</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28875</v>
+        <v>0.288903</v>
       </c>
       <c r="C89" t="n">
-        <v>0.529491</v>
+        <v>0.531695</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5673</v>
+        <v>0.565323</v>
       </c>
       <c r="E89" t="n">
-        <v>0.252902</v>
+        <v>0.252744</v>
       </c>
       <c r="F89" t="n">
-        <v>0.421654</v>
+        <v>0.423728</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276955</v>
+        <v>0.276429</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5541469999999999</v>
+        <v>0.555507</v>
       </c>
       <c r="D90" t="n">
-        <v>0.563547</v>
+        <v>0.562008</v>
       </c>
       <c r="E90" t="n">
-        <v>0.251921</v>
+        <v>0.252191</v>
       </c>
       <c r="F90" t="n">
-        <v>0.421004</v>
+        <v>0.421052</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.263663</v>
+        <v>0.263454</v>
       </c>
       <c r="C91" t="n">
-        <v>0.495971</v>
+        <v>0.497542</v>
       </c>
       <c r="D91" t="n">
-        <v>0.558782</v>
+        <v>0.559245</v>
       </c>
       <c r="E91" t="n">
-        <v>0.251254</v>
+        <v>0.25138</v>
       </c>
       <c r="F91" t="n">
-        <v>0.420224</v>
+        <v>0.420133</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.249616</v>
+        <v>0.249721</v>
       </c>
       <c r="C92" t="n">
-        <v>0.578369</v>
+        <v>0.576697</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6130060000000001</v>
+        <v>0.611885</v>
       </c>
       <c r="E92" t="n">
-        <v>0.250958</v>
+        <v>0.250734</v>
       </c>
       <c r="F92" t="n">
-        <v>0.41946</v>
+        <v>0.41969</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234776</v>
+        <v>0.234475</v>
       </c>
       <c r="C93" t="n">
-        <v>0.476976</v>
+        <v>0.478734</v>
       </c>
       <c r="D93" t="n">
-        <v>0.612256</v>
+        <v>0.611698</v>
       </c>
       <c r="E93" t="n">
-        <v>0.250515</v>
+        <v>0.250144</v>
       </c>
       <c r="F93" t="n">
-        <v>0.419264</v>
+        <v>0.419372</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.218442</v>
+        <v>0.218512</v>
       </c>
       <c r="C94" t="n">
-        <v>0.518549</v>
+        <v>0.519028</v>
       </c>
       <c r="D94" t="n">
-        <v>0.607876</v>
+        <v>0.607065</v>
       </c>
       <c r="E94" t="n">
-        <v>0.265251</v>
+        <v>0.264763</v>
       </c>
       <c r="F94" t="n">
-        <v>0.430953</v>
+        <v>0.431419</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.358747</v>
+        <v>0.358772</v>
       </c>
       <c r="C95" t="n">
-        <v>0.528809</v>
+        <v>0.530989</v>
       </c>
       <c r="D95" t="n">
-        <v>0.596527</v>
+        <v>0.594917</v>
       </c>
       <c r="E95" t="n">
-        <v>0.262642</v>
+        <v>0.262415</v>
       </c>
       <c r="F95" t="n">
-        <v>0.429809</v>
+        <v>0.429519</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354175</v>
+        <v>0.354209</v>
       </c>
       <c r="C96" t="n">
-        <v>0.642609</v>
+        <v>0.643878</v>
       </c>
       <c r="D96" t="n">
-        <v>0.592734</v>
+        <v>0.591071</v>
       </c>
       <c r="E96" t="n">
-        <v>0.26062</v>
+        <v>0.260583</v>
       </c>
       <c r="F96" t="n">
-        <v>0.428659</v>
+        <v>0.428469</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347885</v>
+        <v>0.347988</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6588349999999999</v>
+        <v>0.657828</v>
       </c>
       <c r="D97" t="n">
-        <v>0.59079</v>
+        <v>0.589343</v>
       </c>
       <c r="E97" t="n">
-        <v>0.259283</v>
+        <v>0.259054</v>
       </c>
       <c r="F97" t="n">
-        <v>0.427381</v>
+        <v>0.428312</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340711</v>
+        <v>0.340532</v>
       </c>
       <c r="C98" t="n">
-        <v>0.643068</v>
+        <v>0.6420940000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.584408</v>
+        <v>0.582493</v>
       </c>
       <c r="E98" t="n">
-        <v>0.257821</v>
+        <v>0.257659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.426184</v>
+        <v>0.426359</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332819</v>
+        <v>0.332806</v>
       </c>
       <c r="C99" t="n">
-        <v>0.584335</v>
+        <v>0.584834</v>
       </c>
       <c r="D99" t="n">
-        <v>0.580712</v>
+        <v>0.579272</v>
       </c>
       <c r="E99" t="n">
-        <v>0.25666</v>
+        <v>0.25655</v>
       </c>
       <c r="F99" t="n">
-        <v>0.424928</v>
+        <v>0.425043</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.323948</v>
+        <v>0.323869</v>
       </c>
       <c r="C100" t="n">
-        <v>0.644969</v>
+        <v>0.6460129999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.569847</v>
+        <v>0.567887</v>
       </c>
       <c r="E100" t="n">
-        <v>0.25552</v>
+        <v>0.255359</v>
       </c>
       <c r="F100" t="n">
-        <v>0.424117</v>
+        <v>0.424304</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.314542</v>
+        <v>0.31467</v>
       </c>
       <c r="C101" t="n">
-        <v>0.542117</v>
+        <v>0.5419040000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.563378</v>
+        <v>0.560377</v>
       </c>
       <c r="E101" t="n">
-        <v>0.254449</v>
+        <v>0.254234</v>
       </c>
       <c r="F101" t="n">
-        <v>0.423496</v>
+        <v>0.424072</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304475</v>
+        <v>0.304317</v>
       </c>
       <c r="C102" t="n">
-        <v>0.619625</v>
+        <v>0.617694</v>
       </c>
       <c r="D102" t="n">
-        <v>0.559288</v>
+        <v>0.557875</v>
       </c>
       <c r="E102" t="n">
-        <v>0.253695</v>
+        <v>0.253589</v>
       </c>
       <c r="F102" t="n">
-        <v>0.422392</v>
+        <v>0.423242</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293519</v>
+        <v>0.293465</v>
       </c>
       <c r="C103" t="n">
-        <v>0.588319</v>
+        <v>0.587214</v>
       </c>
       <c r="D103" t="n">
-        <v>0.556102</v>
+        <v>0.55461</v>
       </c>
       <c r="E103" t="n">
-        <v>0.252741</v>
+        <v>0.252689</v>
       </c>
       <c r="F103" t="n">
-        <v>0.422391</v>
+        <v>0.422205</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281403</v>
+        <v>0.28175</v>
       </c>
       <c r="C104" t="n">
-        <v>0.589661</v>
+        <v>0.587998</v>
       </c>
       <c r="D104" t="n">
-        <v>0.55553</v>
+        <v>0.5539770000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>0.252909</v>
+        <v>0.252907</v>
       </c>
       <c r="F104" t="n">
-        <v>0.421424</v>
+        <v>0.42078</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268562</v>
+        <v>0.268782</v>
       </c>
       <c r="C105" t="n">
-        <v>0.543376</v>
+        <v>0.5420469999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54704</v>
+        <v>0.545322</v>
       </c>
       <c r="E105" t="n">
-        <v>0.252314</v>
+        <v>0.252049</v>
       </c>
       <c r="F105" t="n">
-        <v>0.420818</v>
+        <v>0.420468</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254986</v>
+        <v>0.254513</v>
       </c>
       <c r="C106" t="n">
-        <v>0.534797</v>
+        <v>0.533015</v>
       </c>
       <c r="D106" t="n">
-        <v>0.542915</v>
+        <v>0.542193</v>
       </c>
       <c r="E106" t="n">
-        <v>0.251953</v>
+        <v>0.252072</v>
       </c>
       <c r="F106" t="n">
-        <v>0.420561</v>
+        <v>0.420199</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239808</v>
+        <v>0.239676</v>
       </c>
       <c r="C107" t="n">
-        <v>0.512961</v>
+        <v>0.5120130000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.587423</v>
+        <v>0.584901</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2517</v>
+        <v>0.251188</v>
       </c>
       <c r="F107" t="n">
-        <v>0.418742</v>
+        <v>0.418888</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223216</v>
+        <v>0.223741</v>
       </c>
       <c r="C108" t="n">
-        <v>0.448391</v>
+        <v>0.448237</v>
       </c>
       <c r="D108" t="n">
-        <v>0.612563</v>
+        <v>0.610225</v>
       </c>
       <c r="E108" t="n">
-        <v>0.265445</v>
+        <v>0.265042</v>
       </c>
       <c r="F108" t="n">
-        <v>0.431618</v>
+        <v>0.432101</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207019</v>
+        <v>0.20697</v>
       </c>
       <c r="C109" t="n">
-        <v>0.434888</v>
+        <v>0.435971</v>
       </c>
       <c r="D109" t="n">
-        <v>0.609602</v>
+        <v>0.60546</v>
       </c>
       <c r="E109" t="n">
-        <v>0.263208</v>
+        <v>0.262788</v>
       </c>
       <c r="F109" t="n">
-        <v>0.430818</v>
+        <v>0.430617</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355087</v>
+        <v>0.355269</v>
       </c>
       <c r="C110" t="n">
-        <v>0.524954</v>
+        <v>0.528575</v>
       </c>
       <c r="D110" t="n">
-        <v>0.587283</v>
+        <v>0.582334</v>
       </c>
       <c r="E110" t="n">
-        <v>0.261709</v>
+        <v>0.260822</v>
       </c>
       <c r="F110" t="n">
-        <v>0.429103</v>
+        <v>0.428907</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349064</v>
+        <v>0.348496</v>
       </c>
       <c r="C111" t="n">
-        <v>0.576228</v>
+        <v>0.579638</v>
       </c>
       <c r="D111" t="n">
-        <v>0.586489</v>
+        <v>0.580714</v>
       </c>
       <c r="E111" t="n">
-        <v>0.259897</v>
+        <v>0.259084</v>
       </c>
       <c r="F111" t="n">
-        <v>0.428001</v>
+        <v>0.428717</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342255</v>
+        <v>0.34175</v>
       </c>
       <c r="C112" t="n">
-        <v>0.541126</v>
+        <v>0.542179</v>
       </c>
       <c r="D112" t="n">
-        <v>0.587368</v>
+        <v>0.586797</v>
       </c>
       <c r="E112" t="n">
-        <v>0.258065</v>
+        <v>0.257836</v>
       </c>
       <c r="F112" t="n">
-        <v>0.426811</v>
+        <v>0.42751</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334828</v>
+        <v>0.33502</v>
       </c>
       <c r="C113" t="n">
-        <v>0.666438</v>
+        <v>0.664707</v>
       </c>
       <c r="D113" t="n">
-        <v>0.573198</v>
+        <v>0.570748</v>
       </c>
       <c r="E113" t="n">
-        <v>0.256814</v>
+        <v>0.256576</v>
       </c>
       <c r="F113" t="n">
-        <v>0.426528</v>
+        <v>0.426019</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326304</v>
+        <v>0.326392</v>
       </c>
       <c r="C114" t="n">
-        <v>0.627647</v>
+        <v>0.625427</v>
       </c>
       <c r="D114" t="n">
-        <v>0.568836</v>
+        <v>0.566909</v>
       </c>
       <c r="E114" t="n">
-        <v>0.255773</v>
+        <v>0.255615</v>
       </c>
       <c r="F114" t="n">
-        <v>0.425397</v>
+        <v>0.425027</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317103</v>
+        <v>0.317195</v>
       </c>
       <c r="C115" t="n">
-        <v>0.583329</v>
+        <v>0.581826</v>
       </c>
       <c r="D115" t="n">
-        <v>0.564945</v>
+        <v>0.56262</v>
       </c>
       <c r="E115" t="n">
-        <v>0.254755</v>
+        <v>0.25468</v>
       </c>
       <c r="F115" t="n">
-        <v>0.424443</v>
+        <v>0.423626</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305846</v>
+        <v>0.305869</v>
       </c>
       <c r="C116" t="n">
-        <v>0.613932</v>
+        <v>0.611196</v>
       </c>
       <c r="D116" t="n">
-        <v>0.561679</v>
+        <v>0.559957</v>
       </c>
       <c r="E116" t="n">
-        <v>0.253883</v>
+        <v>0.253776</v>
       </c>
       <c r="F116" t="n">
-        <v>0.422874</v>
+        <v>0.422721</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294733</v>
+        <v>0.295323</v>
       </c>
       <c r="C117" t="n">
-        <v>0.553702</v>
+        <v>0.553077</v>
       </c>
       <c r="D117" t="n">
-        <v>0.556692</v>
+        <v>0.554913</v>
       </c>
       <c r="E117" t="n">
-        <v>0.25303</v>
+        <v>0.252921</v>
       </c>
       <c r="F117" t="n">
-        <v>0.421947</v>
+        <v>0.422126</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284066</v>
+        <v>0.284618</v>
       </c>
       <c r="C118" t="n">
-        <v>0.511617</v>
+        <v>0.512547</v>
       </c>
       <c r="D118" t="n">
-        <v>0.553007</v>
+        <v>0.551408</v>
       </c>
       <c r="E118" t="n">
-        <v>0.252467</v>
+        <v>0.252448</v>
       </c>
       <c r="F118" t="n">
-        <v>0.421325</v>
+        <v>0.421724</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271484</v>
+        <v>0.272282</v>
       </c>
       <c r="C119" t="n">
-        <v>0.576499</v>
+        <v>0.57503</v>
       </c>
       <c r="D119" t="n">
-        <v>0.549891</v>
+        <v>0.5485449999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.25178</v>
+        <v>0.251719</v>
       </c>
       <c r="F119" t="n">
-        <v>0.420927</v>
+        <v>0.420646</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258193</v>
+        <v>0.258459</v>
       </c>
       <c r="C120" t="n">
-        <v>0.480807</v>
+        <v>0.481454</v>
       </c>
       <c r="D120" t="n">
-        <v>0.545924</v>
+        <v>0.545027</v>
       </c>
       <c r="E120" t="n">
-        <v>0.251565</v>
+        <v>0.25111</v>
       </c>
       <c r="F120" t="n">
-        <v>0.420454</v>
+        <v>0.420418</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24334</v>
+        <v>0.243451</v>
       </c>
       <c r="C121" t="n">
-        <v>0.52593</v>
+        <v>0.525378</v>
       </c>
       <c r="D121" t="n">
-        <v>0.605858</v>
+        <v>0.603197</v>
       </c>
       <c r="E121" t="n">
-        <v>0.250588</v>
+        <v>0.250617</v>
       </c>
       <c r="F121" t="n">
-        <v>0.419222</v>
+        <v>0.41915</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.22801</v>
+        <v>0.227641</v>
       </c>
       <c r="C122" t="n">
-        <v>0.505379</v>
+        <v>0.504525</v>
       </c>
       <c r="D122" t="n">
-        <v>0.625091</v>
+        <v>0.621967</v>
       </c>
       <c r="E122" t="n">
-        <v>0.250536</v>
+        <v>0.250524</v>
       </c>
       <c r="F122" t="n">
-        <v>0.418182</v>
+        <v>0.418403</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.210724</v>
+        <v>0.210827</v>
       </c>
       <c r="C123" t="n">
-        <v>0.448457</v>
+        <v>0.45081</v>
       </c>
       <c r="D123" t="n">
-        <v>0.601401</v>
+        <v>0.598342</v>
       </c>
       <c r="E123" t="n">
-        <v>0.263173</v>
+        <v>0.263136</v>
       </c>
       <c r="F123" t="n">
-        <v>0.430479</v>
+        <v>0.43029</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356382</v>
+        <v>0.356256</v>
       </c>
       <c r="C124" t="n">
-        <v>0.538095</v>
+        <v>0.537977</v>
       </c>
       <c r="D124" t="n">
-        <v>0.614159</v>
+        <v>0.609464</v>
       </c>
       <c r="E124" t="n">
-        <v>0.260983</v>
+        <v>0.260972</v>
       </c>
       <c r="F124" t="n">
-        <v>0.429362</v>
+        <v>0.428944</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350602</v>
+        <v>0.350715</v>
       </c>
       <c r="C125" t="n">
-        <v>0.63617</v>
+        <v>0.63411</v>
       </c>
       <c r="D125" t="n">
-        <v>0.608476</v>
+        <v>0.6038750000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.259377</v>
+        <v>0.259422</v>
       </c>
       <c r="F125" t="n">
-        <v>0.428152</v>
+        <v>0.427734</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344088</v>
+        <v>0.343818</v>
       </c>
       <c r="C126" t="n">
-        <v>0.554262</v>
+        <v>0.553599</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6033770000000001</v>
+        <v>0.598402</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2581</v>
+        <v>0.258054</v>
       </c>
       <c r="F126" t="n">
-        <v>0.42642</v>
+        <v>0.42687</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3368</v>
+        <v>0.336566</v>
       </c>
       <c r="C127" t="n">
-        <v>0.616155</v>
+        <v>0.61538</v>
       </c>
       <c r="D127" t="n">
-        <v>0.599187</v>
+        <v>0.595491</v>
       </c>
       <c r="E127" t="n">
-        <v>0.256874</v>
+        <v>0.256872</v>
       </c>
       <c r="F127" t="n">
-        <v>0.426061</v>
+        <v>0.425691</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328005</v>
+        <v>0.328532</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5934120000000001</v>
+        <v>0.5920609999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.58363</v>
+        <v>0.578391</v>
       </c>
       <c r="E128" t="n">
-        <v>0.255777</v>
+        <v>0.255815</v>
       </c>
       <c r="F128" t="n">
-        <v>0.42471</v>
+        <v>0.425098</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.319428</v>
+        <v>0.319165</v>
       </c>
       <c r="C129" t="n">
-        <v>0.654716</v>
+        <v>0.653276</v>
       </c>
       <c r="D129" t="n">
-        <v>0.581917</v>
+        <v>0.580079</v>
       </c>
       <c r="E129" t="n">
-        <v>0.254869</v>
+        <v>0.254782</v>
       </c>
       <c r="F129" t="n">
-        <v>0.423738</v>
+        <v>0.423476</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.309549</v>
+        <v>0.309033</v>
       </c>
       <c r="C130" t="n">
-        <v>0.609284</v>
+        <v>0.60814</v>
       </c>
       <c r="D130" t="n">
-        <v>0.569726</v>
+        <v>0.568258</v>
       </c>
       <c r="E130" t="n">
-        <v>0.253955</v>
+        <v>0.253932</v>
       </c>
       <c r="F130" t="n">
-        <v>0.422854</v>
+        <v>0.422584</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.299778</v>
+        <v>0.298656</v>
       </c>
       <c r="C131" t="n">
-        <v>0.578722</v>
+        <v>0.578109</v>
       </c>
       <c r="D131" t="n">
-        <v>0.563577</v>
+        <v>0.562323</v>
       </c>
       <c r="E131" t="n">
-        <v>0.253263</v>
+        <v>0.253073</v>
       </c>
       <c r="F131" t="n">
-        <v>0.421864</v>
+        <v>0.421621</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287582</v>
+        <v>0.287391</v>
       </c>
       <c r="C132" t="n">
-        <v>0.56479</v>
+        <v>0.5587</v>
       </c>
       <c r="D132" t="n">
-        <v>0.559325</v>
+        <v>0.557559</v>
       </c>
       <c r="E132" t="n">
-        <v>0.252553</v>
+        <v>0.252401</v>
       </c>
       <c r="F132" t="n">
-        <v>0.421053</v>
+        <v>0.420824</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275635</v>
+        <v>0.27523</v>
       </c>
       <c r="C133" t="n">
-        <v>0.578939</v>
+        <v>0.572959</v>
       </c>
       <c r="D133" t="n">
-        <v>0.554695</v>
+        <v>0.553152</v>
       </c>
       <c r="E133" t="n">
-        <v>0.252148</v>
+        <v>0.25193</v>
       </c>
       <c r="F133" t="n">
-        <v>0.421062</v>
+        <v>0.420362</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261937</v>
+        <v>0.262326</v>
       </c>
       <c r="C134" t="n">
-        <v>0.545418</v>
+        <v>0.54362</v>
       </c>
       <c r="D134" t="n">
-        <v>0.547783</v>
+        <v>0.5473749999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.251589</v>
+        <v>0.251091</v>
       </c>
       <c r="F134" t="n">
-        <v>0.419659</v>
+        <v>0.419187</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246854</v>
+        <v>0.248344</v>
       </c>
       <c r="C135" t="n">
-        <v>0.526462</v>
+        <v>0.530003</v>
       </c>
       <c r="D135" t="n">
-        <v>0.607251</v>
+        <v>0.60503</v>
       </c>
       <c r="E135" t="n">
-        <v>0.250769</v>
+        <v>0.250601</v>
       </c>
       <c r="F135" t="n">
-        <v>0.419391</v>
+        <v>0.418986</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.230366</v>
+        <v>0.23045</v>
       </c>
       <c r="C136" t="n">
-        <v>0.510866</v>
+        <v>0.514886</v>
       </c>
       <c r="D136" t="n">
-        <v>0.60839</v>
+        <v>0.606616</v>
       </c>
       <c r="E136" t="n">
-        <v>0.250352</v>
+        <v>0.250556</v>
       </c>
       <c r="F136" t="n">
-        <v>0.418543</v>
+        <v>0.417978</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213568</v>
+        <v>0.214439</v>
       </c>
       <c r="C137" t="n">
-        <v>0.490834</v>
+        <v>0.488066</v>
       </c>
       <c r="D137" t="n">
-        <v>0.62583</v>
+        <v>0.623408</v>
       </c>
       <c r="E137" t="n">
-        <v>0.263758</v>
+        <v>0.263628</v>
       </c>
       <c r="F137" t="n">
-        <v>0.430593</v>
+        <v>0.430486</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358119</v>
+        <v>0.357933</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6728420000000001</v>
+        <v>0.670645</v>
       </c>
       <c r="D138" t="n">
-        <v>0.60097</v>
+        <v>0.5988830000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261622</v>
+        <v>0.261603</v>
       </c>
       <c r="F138" t="n">
-        <v>0.429431</v>
+        <v>0.429506</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352856</v>
+        <v>0.352407</v>
       </c>
       <c r="C139" t="n">
-        <v>0.666385</v>
+        <v>0.663896</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5979989999999999</v>
+        <v>0.5956050000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.260078</v>
+        <v>0.259965</v>
       </c>
       <c r="F139" t="n">
-        <v>0.428327</v>
+        <v>0.428626</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345895</v>
+        <v>0.346396</v>
       </c>
       <c r="C140" t="n">
-        <v>0.624803</v>
+        <v>0.6231179999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.59576</v>
+        <v>0.593494</v>
       </c>
       <c r="E140" t="n">
-        <v>0.258629</v>
+        <v>0.258627</v>
       </c>
       <c r="F140" t="n">
-        <v>0.427144</v>
+        <v>0.427376</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33806</v>
+        <v>0.338374</v>
       </c>
       <c r="C141" t="n">
-        <v>0.617564</v>
+        <v>0.615629</v>
       </c>
       <c r="D141" t="n">
-        <v>0.600082</v>
+        <v>0.597419</v>
       </c>
       <c r="E141" t="n">
-        <v>0.257333</v>
+        <v>0.25737</v>
       </c>
       <c r="F141" t="n">
-        <v>0.425764</v>
+        <v>0.426102</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.330164</v>
+        <v>0.329828</v>
       </c>
       <c r="C142" t="n">
-        <v>0.634037</v>
+        <v>0.632023</v>
       </c>
       <c r="D142" t="n">
-        <v>0.593467</v>
+        <v>0.590234</v>
       </c>
       <c r="E142" t="n">
-        <v>0.256285</v>
+        <v>0.256201</v>
       </c>
       <c r="F142" t="n">
-        <v>0.425045</v>
+        <v>0.425091</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.322018</v>
+        <v>0.321549</v>
       </c>
       <c r="C143" t="n">
-        <v>0.628713</v>
+        <v>0.63029</v>
       </c>
       <c r="D143" t="n">
-        <v>0.585233</v>
+        <v>0.584032</v>
       </c>
       <c r="E143" t="n">
-        <v>0.255185</v>
+        <v>0.255315</v>
       </c>
       <c r="F143" t="n">
-        <v>0.423868</v>
+        <v>0.42386</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.272346</v>
+        <v>0.271275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455327</v>
+        <v>0.455621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389629</v>
+        <v>0.392864</v>
       </c>
       <c r="E2" t="n">
-        <v>0.225197</v>
+        <v>0.224959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.41868</v>
+        <v>0.414184</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269812</v>
+        <v>0.26854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.449962</v>
+        <v>0.460676</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390834</v>
+        <v>0.393357</v>
       </c>
       <c r="E3" t="n">
-        <v>0.227552</v>
+        <v>0.225858</v>
       </c>
       <c r="F3" t="n">
-        <v>0.415323</v>
+        <v>0.412478</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258997</v>
+        <v>0.25769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.449795</v>
+        <v>0.448175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.393093</v>
+        <v>0.396153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.228178</v>
+        <v>0.228615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.415211</v>
+        <v>0.412202</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246869</v>
+        <v>0.248507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435387</v>
+        <v>0.435839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.393962</v>
+        <v>0.39754</v>
       </c>
       <c r="E5" t="n">
-        <v>0.231715</v>
+        <v>0.230312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415335</v>
+        <v>0.414553</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236963</v>
+        <v>0.236433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42687</v>
+        <v>0.425931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.394063</v>
+        <v>0.398525</v>
       </c>
       <c r="E6" t="n">
-        <v>0.233624</v>
+        <v>0.233235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.414597</v>
+        <v>0.412915</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224659</v>
+        <v>0.225822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412537</v>
+        <v>0.412282</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389046</v>
+        <v>0.394862</v>
       </c>
       <c r="E7" t="n">
-        <v>0.236648</v>
+        <v>0.23701</v>
       </c>
       <c r="F7" t="n">
-        <v>0.414316</v>
+        <v>0.411953</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206629</v>
+        <v>0.207834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399681</v>
+        <v>0.398933</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393055</v>
+        <v>0.397927</v>
       </c>
       <c r="E8" t="n">
-        <v>0.238408</v>
+        <v>0.234988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.414176</v>
+        <v>0.411044</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190154</v>
+        <v>0.192292</v>
       </c>
       <c r="C9" t="n">
-        <v>0.386278</v>
+        <v>0.383532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.394013</v>
+        <v>0.398272</v>
       </c>
       <c r="E9" t="n">
-        <v>0.253275</v>
+        <v>0.252613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.427313</v>
+        <v>0.425412</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339924</v>
+        <v>0.340237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.520146</v>
+        <v>0.5201710000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.394137</v>
+        <v>0.398595</v>
       </c>
       <c r="E10" t="n">
-        <v>0.253967</v>
+        <v>0.253346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427941</v>
+        <v>0.425565</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.334582</v>
+        <v>0.334003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.511672</v>
+        <v>0.516189</v>
       </c>
       <c r="D11" t="n">
-        <v>0.393227</v>
+        <v>0.398968</v>
       </c>
       <c r="E11" t="n">
-        <v>0.253553</v>
+        <v>0.251507</v>
       </c>
       <c r="F11" t="n">
-        <v>0.427083</v>
+        <v>0.422702</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32637</v>
+        <v>0.327861</v>
       </c>
       <c r="C12" t="n">
-        <v>0.506078</v>
+        <v>0.510785</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394652</v>
+        <v>0.400097</v>
       </c>
       <c r="E12" t="n">
-        <v>0.252775</v>
+        <v>0.250983</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42408</v>
+        <v>0.421221</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.320602</v>
+        <v>0.321459</v>
       </c>
       <c r="C13" t="n">
-        <v>0.502177</v>
+        <v>0.501867</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394399</v>
+        <v>0.3993</v>
       </c>
       <c r="E13" t="n">
-        <v>0.254478</v>
+        <v>0.25046</v>
       </c>
       <c r="F13" t="n">
-        <v>0.426104</v>
+        <v>0.420857</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312893</v>
+        <v>0.31422</v>
       </c>
       <c r="C14" t="n">
-        <v>0.490189</v>
+        <v>0.491477</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39948</v>
+        <v>0.400715</v>
       </c>
       <c r="E14" t="n">
-        <v>0.251911</v>
+        <v>0.250231</v>
       </c>
       <c r="F14" t="n">
-        <v>0.423804</v>
+        <v>0.420101</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304401</v>
+        <v>0.305189</v>
       </c>
       <c r="C15" t="n">
-        <v>0.483206</v>
+        <v>0.48375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39796</v>
+        <v>0.399464</v>
       </c>
       <c r="E15" t="n">
-        <v>0.250493</v>
+        <v>0.249892</v>
       </c>
       <c r="F15" t="n">
-        <v>0.42461</v>
+        <v>0.419524</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.296138</v>
+        <v>0.296274</v>
       </c>
       <c r="C16" t="n">
-        <v>0.472479</v>
+        <v>0.473642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.399379</v>
+        <v>0.401501</v>
       </c>
       <c r="E16" t="n">
-        <v>0.251943</v>
+        <v>0.249481</v>
       </c>
       <c r="F16" t="n">
-        <v>0.421334</v>
+        <v>0.41832</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285829</v>
+        <v>0.287108</v>
       </c>
       <c r="C17" t="n">
-        <v>0.46613</v>
+        <v>0.467149</v>
       </c>
       <c r="D17" t="n">
-        <v>0.401698</v>
+        <v>0.402766</v>
       </c>
       <c r="E17" t="n">
-        <v>0.250289</v>
+        <v>0.249347</v>
       </c>
       <c r="F17" t="n">
-        <v>0.422003</v>
+        <v>0.419071</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274604</v>
+        <v>0.274642</v>
       </c>
       <c r="C18" t="n">
-        <v>0.455529</v>
+        <v>0.458011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.402716</v>
+        <v>0.403773</v>
       </c>
       <c r="E18" t="n">
-        <v>0.251398</v>
+        <v>0.24818</v>
       </c>
       <c r="F18" t="n">
-        <v>0.421759</v>
+        <v>0.418226</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263078</v>
+        <v>0.263705</v>
       </c>
       <c r="C19" t="n">
-        <v>0.449449</v>
+        <v>0.449387</v>
       </c>
       <c r="D19" t="n">
-        <v>0.404143</v>
+        <v>0.404869</v>
       </c>
       <c r="E19" t="n">
-        <v>0.250964</v>
+        <v>0.248569</v>
       </c>
       <c r="F19" t="n">
-        <v>0.421088</v>
+        <v>0.417139</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250373</v>
+        <v>0.251077</v>
       </c>
       <c r="C20" t="n">
-        <v>0.432608</v>
+        <v>0.432654</v>
       </c>
       <c r="D20" t="n">
-        <v>0.40448</v>
+        <v>0.40728</v>
       </c>
       <c r="E20" t="n">
-        <v>0.249437</v>
+        <v>0.248229</v>
       </c>
       <c r="F20" t="n">
-        <v>0.418855</v>
+        <v>0.415699</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24242</v>
+        <v>0.242519</v>
       </c>
       <c r="C21" t="n">
-        <v>0.417629</v>
+        <v>0.416671</v>
       </c>
       <c r="D21" t="n">
-        <v>0.399073</v>
+        <v>0.40218</v>
       </c>
       <c r="E21" t="n">
-        <v>0.248332</v>
+        <v>0.24693</v>
       </c>
       <c r="F21" t="n">
-        <v>0.418824</v>
+        <v>0.416108</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225312</v>
+        <v>0.226014</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408619</v>
+        <v>0.408549</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398421</v>
+        <v>0.400643</v>
       </c>
       <c r="E22" t="n">
-        <v>0.249488</v>
+        <v>0.24737</v>
       </c>
       <c r="F22" t="n">
-        <v>0.418581</v>
+        <v>0.417026</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206704</v>
+        <v>0.207285</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39236</v>
+        <v>0.392058</v>
       </c>
       <c r="D23" t="n">
-        <v>0.397966</v>
+        <v>0.400675</v>
       </c>
       <c r="E23" t="n">
-        <v>0.267401</v>
+        <v>0.265582</v>
       </c>
       <c r="F23" t="n">
-        <v>0.431863</v>
+        <v>0.429447</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348924</v>
+        <v>0.348357</v>
       </c>
       <c r="C24" t="n">
-        <v>0.516846</v>
+        <v>0.51681</v>
       </c>
       <c r="D24" t="n">
-        <v>0.401365</v>
+        <v>0.403293</v>
       </c>
       <c r="E24" t="n">
-        <v>0.264093</v>
+        <v>0.261609</v>
       </c>
       <c r="F24" t="n">
-        <v>0.430655</v>
+        <v>0.427433</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342145</v>
+        <v>0.342479</v>
       </c>
       <c r="C25" t="n">
-        <v>0.518669</v>
+        <v>0.519557</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401274</v>
+        <v>0.403414</v>
       </c>
       <c r="E25" t="n">
-        <v>0.26148</v>
+        <v>0.259375</v>
       </c>
       <c r="F25" t="n">
-        <v>0.429696</v>
+        <v>0.426407</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336542</v>
+        <v>0.336933</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511415</v>
+        <v>0.511076</v>
       </c>
       <c r="D26" t="n">
-        <v>0.401196</v>
+        <v>0.403538</v>
       </c>
       <c r="E26" t="n">
-        <v>0.260281</v>
+        <v>0.25826</v>
       </c>
       <c r="F26" t="n">
-        <v>0.428374</v>
+        <v>0.425106</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332835</v>
+        <v>0.330147</v>
       </c>
       <c r="C27" t="n">
-        <v>0.501667</v>
+        <v>0.503103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.402806</v>
+        <v>0.404562</v>
       </c>
       <c r="E27" t="n">
-        <v>0.258989</v>
+        <v>0.257278</v>
       </c>
       <c r="F27" t="n">
-        <v>0.426977</v>
+        <v>0.424244</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322547</v>
+        <v>0.322957</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495012</v>
+        <v>0.494977</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403005</v>
+        <v>0.403958</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25792</v>
+        <v>0.256794</v>
       </c>
       <c r="F28" t="n">
-        <v>0.427141</v>
+        <v>0.423958</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314066</v>
+        <v>0.314469</v>
       </c>
       <c r="C29" t="n">
-        <v>0.493009</v>
+        <v>0.492923</v>
       </c>
       <c r="D29" t="n">
-        <v>0.403768</v>
+        <v>0.404251</v>
       </c>
       <c r="E29" t="n">
-        <v>0.257683</v>
+        <v>0.255412</v>
       </c>
       <c r="F29" t="n">
-        <v>0.426286</v>
+        <v>0.423112</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305506</v>
+        <v>0.305853</v>
       </c>
       <c r="C30" t="n">
-        <v>0.470029</v>
+        <v>0.473535</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405634</v>
+        <v>0.405571</v>
       </c>
       <c r="E30" t="n">
-        <v>0.257374</v>
+        <v>0.25418</v>
       </c>
       <c r="F30" t="n">
-        <v>0.424913</v>
+        <v>0.422111</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296171</v>
+        <v>0.296377</v>
       </c>
       <c r="C31" t="n">
-        <v>0.465921</v>
+        <v>0.465981</v>
       </c>
       <c r="D31" t="n">
-        <v>0.405918</v>
+        <v>0.406728</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2556</v>
+        <v>0.253255</v>
       </c>
       <c r="F31" t="n">
-        <v>0.423711</v>
+        <v>0.420696</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284467</v>
+        <v>0.284887</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463334</v>
+        <v>0.463392</v>
       </c>
       <c r="D32" t="n">
-        <v>0.406692</v>
+        <v>0.407464</v>
       </c>
       <c r="E32" t="n">
-        <v>0.254989</v>
+        <v>0.252457</v>
       </c>
       <c r="F32" t="n">
-        <v>0.422714</v>
+        <v>0.420585</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272533</v>
+        <v>0.273198</v>
       </c>
       <c r="C33" t="n">
-        <v>0.447129</v>
+        <v>0.446599</v>
       </c>
       <c r="D33" t="n">
-        <v>0.406881</v>
+        <v>0.40803</v>
       </c>
       <c r="E33" t="n">
-        <v>0.256689</v>
+        <v>0.251672</v>
       </c>
       <c r="F33" t="n">
-        <v>0.421952</v>
+        <v>0.419266</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261034</v>
+        <v>0.261396</v>
       </c>
       <c r="C34" t="n">
-        <v>0.442975</v>
+        <v>0.443215</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407874</v>
+        <v>0.409063</v>
       </c>
       <c r="E34" t="n">
-        <v>0.257309</v>
+        <v>0.251354</v>
       </c>
       <c r="F34" t="n">
-        <v>0.421474</v>
+        <v>0.418845</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248061</v>
+        <v>0.247331</v>
       </c>
       <c r="C35" t="n">
-        <v>0.424348</v>
+        <v>0.423605</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408812</v>
+        <v>0.408183</v>
       </c>
       <c r="E35" t="n">
-        <v>0.251925</v>
+        <v>0.250297</v>
       </c>
       <c r="F35" t="n">
-        <v>0.419992</v>
+        <v>0.417476</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232523</v>
+        <v>0.232908</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413419</v>
+        <v>0.413218</v>
       </c>
       <c r="D36" t="n">
-        <v>0.406063</v>
+        <v>0.408348</v>
       </c>
       <c r="E36" t="n">
-        <v>0.25001</v>
+        <v>0.250298</v>
       </c>
       <c r="F36" t="n">
-        <v>0.418897</v>
+        <v>0.416644</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216938</v>
+        <v>0.21752</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402063</v>
+        <v>0.402199</v>
       </c>
       <c r="D37" t="n">
-        <v>0.407414</v>
+        <v>0.408588</v>
       </c>
       <c r="E37" t="n">
-        <v>0.266983</v>
+        <v>0.265519</v>
       </c>
       <c r="F37" t="n">
-        <v>0.43393</v>
+        <v>0.430459</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354916</v>
+        <v>0.354829</v>
       </c>
       <c r="C38" t="n">
-        <v>0.527362</v>
+        <v>0.526829</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40558</v>
+        <v>0.406792</v>
       </c>
       <c r="E38" t="n">
-        <v>0.265021</v>
+        <v>0.263558</v>
       </c>
       <c r="F38" t="n">
-        <v>0.431998</v>
+        <v>0.428882</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.349682</v>
+        <v>0.349496</v>
       </c>
       <c r="C39" t="n">
-        <v>0.521707</v>
+        <v>0.522064</v>
       </c>
       <c r="D39" t="n">
-        <v>0.405583</v>
+        <v>0.407312</v>
       </c>
       <c r="E39" t="n">
-        <v>0.261299</v>
+        <v>0.259995</v>
       </c>
       <c r="F39" t="n">
-        <v>0.430479</v>
+        <v>0.427427</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.344015</v>
+        <v>0.344092</v>
       </c>
       <c r="C40" t="n">
-        <v>0.51579</v>
+        <v>0.5157620000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.406369</v>
+        <v>0.407402</v>
       </c>
       <c r="E40" t="n">
-        <v>0.260584</v>
+        <v>0.259466</v>
       </c>
       <c r="F40" t="n">
-        <v>0.430525</v>
+        <v>0.42765</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.336977</v>
+        <v>0.337118</v>
       </c>
       <c r="C41" t="n">
-        <v>0.509339</v>
+        <v>0.509512</v>
       </c>
       <c r="D41" t="n">
-        <v>0.405752</v>
+        <v>0.4075</v>
       </c>
       <c r="E41" t="n">
-        <v>0.259295</v>
+        <v>0.257767</v>
       </c>
       <c r="F41" t="n">
-        <v>0.428787</v>
+        <v>0.425713</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32994</v>
+        <v>0.330151</v>
       </c>
       <c r="C42" t="n">
-        <v>0.497843</v>
+        <v>0.494037</v>
       </c>
       <c r="D42" t="n">
-        <v>0.406457</v>
+        <v>0.407132</v>
       </c>
       <c r="E42" t="n">
-        <v>0.257978</v>
+        <v>0.256591</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427963</v>
+        <v>0.425359</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320957</v>
+        <v>0.321221</v>
       </c>
       <c r="C43" t="n">
-        <v>0.488709</v>
+        <v>0.484544</v>
       </c>
       <c r="D43" t="n">
-        <v>0.407437</v>
+        <v>0.407652</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256853</v>
+        <v>0.255527</v>
       </c>
       <c r="F43" t="n">
-        <v>0.426466</v>
+        <v>0.423998</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312324</v>
+        <v>0.312016</v>
       </c>
       <c r="C44" t="n">
-        <v>0.485232</v>
+        <v>0.486139</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408152</v>
+        <v>0.408995</v>
       </c>
       <c r="E44" t="n">
-        <v>0.255846</v>
+        <v>0.254118</v>
       </c>
       <c r="F44" t="n">
-        <v>0.42571</v>
+        <v>0.422934</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301906</v>
+        <v>0.301548</v>
       </c>
       <c r="C45" t="n">
-        <v>0.474197</v>
+        <v>0.474823</v>
       </c>
       <c r="D45" t="n">
-        <v>0.410196</v>
+        <v>0.409652</v>
       </c>
       <c r="E45" t="n">
-        <v>0.254129</v>
+        <v>0.25281</v>
       </c>
       <c r="F45" t="n">
-        <v>0.424896</v>
+        <v>0.421834</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290698</v>
+        <v>0.291126</v>
       </c>
       <c r="C46" t="n">
-        <v>0.467157</v>
+        <v>0.468196</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410086</v>
+        <v>0.411993</v>
       </c>
       <c r="E46" t="n">
-        <v>0.252888</v>
+        <v>0.251942</v>
       </c>
       <c r="F46" t="n">
-        <v>0.423295</v>
+        <v>0.420744</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279796</v>
+        <v>0.279671</v>
       </c>
       <c r="C47" t="n">
-        <v>0.456765</v>
+        <v>0.457523</v>
       </c>
       <c r="D47" t="n">
-        <v>0.411567</v>
+        <v>0.412257</v>
       </c>
       <c r="E47" t="n">
-        <v>0.253138</v>
+        <v>0.251158</v>
       </c>
       <c r="F47" t="n">
-        <v>0.422717</v>
+        <v>0.42018</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267189</v>
+        <v>0.267342</v>
       </c>
       <c r="C48" t="n">
-        <v>0.444733</v>
+        <v>0.445178</v>
       </c>
       <c r="D48" t="n">
-        <v>0.411921</v>
+        <v>0.412611</v>
       </c>
       <c r="E48" t="n">
-        <v>0.252393</v>
+        <v>0.250497</v>
       </c>
       <c r="F48" t="n">
-        <v>0.422157</v>
+        <v>0.419652</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253292</v>
+        <v>0.253873</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431035</v>
+        <v>0.431853</v>
       </c>
       <c r="D49" t="n">
-        <v>0.413776</v>
+        <v>0.415398</v>
       </c>
       <c r="E49" t="n">
-        <v>0.25286</v>
+        <v>0.251051</v>
       </c>
       <c r="F49" t="n">
-        <v>0.421617</v>
+        <v>0.419085</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238716</v>
+        <v>0.238184</v>
       </c>
       <c r="C50" t="n">
-        <v>0.418151</v>
+        <v>0.423411</v>
       </c>
       <c r="D50" t="n">
-        <v>0.423173</v>
+        <v>0.412073</v>
       </c>
       <c r="E50" t="n">
-        <v>0.252545</v>
+        <v>0.249457</v>
       </c>
       <c r="F50" t="n">
-        <v>0.420947</v>
+        <v>0.419867</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222737</v>
+        <v>0.223587</v>
       </c>
       <c r="C51" t="n">
-        <v>0.402754</v>
+        <v>0.402108</v>
       </c>
       <c r="D51" t="n">
-        <v>0.411879</v>
+        <v>0.410468</v>
       </c>
       <c r="E51" t="n">
-        <v>0.267634</v>
+        <v>0.265804</v>
       </c>
       <c r="F51" t="n">
-        <v>0.434643</v>
+        <v>0.43105</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207277</v>
+        <v>0.207387</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384032</v>
+        <v>0.383897</v>
       </c>
       <c r="D52" t="n">
-        <v>0.411951</v>
+        <v>0.41355</v>
       </c>
       <c r="E52" t="n">
-        <v>0.265018</v>
+        <v>0.263086</v>
       </c>
       <c r="F52" t="n">
-        <v>0.433929</v>
+        <v>0.430265</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353548</v>
+        <v>0.353596</v>
       </c>
       <c r="C53" t="n">
-        <v>0.523112</v>
+        <v>0.523991</v>
       </c>
       <c r="D53" t="n">
-        <v>0.412016</v>
+        <v>0.411848</v>
       </c>
       <c r="E53" t="n">
-        <v>0.262834</v>
+        <v>0.260693</v>
       </c>
       <c r="F53" t="n">
-        <v>0.432263</v>
+        <v>0.428734</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347278</v>
+        <v>0.347509</v>
       </c>
       <c r="C54" t="n">
-        <v>0.517844</v>
+        <v>0.516752</v>
       </c>
       <c r="D54" t="n">
-        <v>0.413923</v>
+        <v>0.413922</v>
       </c>
       <c r="E54" t="n">
-        <v>0.260253</v>
+        <v>0.258815</v>
       </c>
       <c r="F54" t="n">
-        <v>0.431043</v>
+        <v>0.427449</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34099</v>
+        <v>0.341105</v>
       </c>
       <c r="C55" t="n">
-        <v>0.51564</v>
+        <v>0.5171790000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41548</v>
+        <v>0.416373</v>
       </c>
       <c r="E55" t="n">
-        <v>0.258877</v>
+        <v>0.257677</v>
       </c>
       <c r="F55" t="n">
-        <v>0.429116</v>
+        <v>0.425991</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334234</v>
+        <v>0.334188</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.5025500000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.417043</v>
+        <v>0.418348</v>
       </c>
       <c r="E56" t="n">
-        <v>0.258167</v>
+        <v>0.256517</v>
       </c>
       <c r="F56" t="n">
-        <v>0.428223</v>
+        <v>0.425039</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325864</v>
+        <v>0.325472</v>
       </c>
       <c r="C57" t="n">
-        <v>0.504354</v>
+        <v>0.5037509999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.417269</v>
+        <v>0.417236</v>
       </c>
       <c r="E57" t="n">
-        <v>0.256948</v>
+        <v>0.255578</v>
       </c>
       <c r="F57" t="n">
-        <v>0.427294</v>
+        <v>0.424027</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316934</v>
+        <v>0.316761</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503741</v>
+        <v>0.502464</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420621</v>
+        <v>0.418768</v>
       </c>
       <c r="E58" t="n">
-        <v>0.256264</v>
+        <v>0.254662</v>
       </c>
       <c r="F58" t="n">
-        <v>0.426081</v>
+        <v>0.423436</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306967</v>
+        <v>0.306985</v>
       </c>
       <c r="C59" t="n">
-        <v>0.488419</v>
+        <v>0.489047</v>
       </c>
       <c r="D59" t="n">
-        <v>0.42225</v>
+        <v>0.421895</v>
       </c>
       <c r="E59" t="n">
-        <v>0.255159</v>
+        <v>0.253989</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425155</v>
+        <v>0.422772</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296627</v>
+        <v>0.296303</v>
       </c>
       <c r="C60" t="n">
-        <v>0.489037</v>
+        <v>0.489394</v>
       </c>
       <c r="D60" t="n">
-        <v>0.425164</v>
+        <v>0.424687</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254187</v>
+        <v>0.253105</v>
       </c>
       <c r="F60" t="n">
-        <v>0.424604</v>
+        <v>0.422712</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285073</v>
+        <v>0.284603</v>
       </c>
       <c r="C61" t="n">
-        <v>0.480878</v>
+        <v>0.481329</v>
       </c>
       <c r="D61" t="n">
-        <v>0.424396</v>
+        <v>0.423126</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253912</v>
+        <v>0.252732</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4238</v>
+        <v>0.42107</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272103</v>
+        <v>0.271613</v>
       </c>
       <c r="C62" t="n">
-        <v>0.46733</v>
+        <v>0.469317</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42918</v>
+        <v>0.42861</v>
       </c>
       <c r="E62" t="n">
-        <v>0.252735</v>
+        <v>0.252121</v>
       </c>
       <c r="F62" t="n">
-        <v>0.422961</v>
+        <v>0.420962</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25853</v>
+        <v>0.258768</v>
       </c>
       <c r="C63" t="n">
-        <v>0.439923</v>
+        <v>0.440115</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433539</v>
+        <v>0.43406</v>
       </c>
       <c r="E63" t="n">
-        <v>0.251931</v>
+        <v>0.251465</v>
       </c>
       <c r="F63" t="n">
-        <v>0.421994</v>
+        <v>0.419742</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244292</v>
+        <v>0.244322</v>
       </c>
       <c r="C64" t="n">
-        <v>0.455376</v>
+        <v>0.455444</v>
       </c>
       <c r="D64" t="n">
-        <v>0.460964</v>
+        <v>0.462021</v>
       </c>
       <c r="E64" t="n">
-        <v>0.252713</v>
+        <v>0.2524</v>
       </c>
       <c r="F64" t="n">
-        <v>0.421413</v>
+        <v>0.419799</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229266</v>
+        <v>0.229242</v>
       </c>
       <c r="C65" t="n">
-        <v>0.433808</v>
+        <v>0.434045</v>
       </c>
       <c r="D65" t="n">
-        <v>0.471598</v>
+        <v>0.471918</v>
       </c>
       <c r="E65" t="n">
-        <v>0.251349</v>
+        <v>0.250177</v>
       </c>
       <c r="F65" t="n">
-        <v>0.421221</v>
+        <v>0.419179</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212145</v>
+        <v>0.211175</v>
       </c>
       <c r="C66" t="n">
-        <v>0.418068</v>
+        <v>0.418999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.475838</v>
+        <v>0.479528</v>
       </c>
       <c r="E66" t="n">
-        <v>0.265408</v>
+        <v>0.263817</v>
       </c>
       <c r="F66" t="n">
-        <v>0.433777</v>
+        <v>0.432423</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35586</v>
+        <v>0.355768</v>
       </c>
       <c r="C67" t="n">
-        <v>0.565989</v>
+        <v>0.563733</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483297</v>
+        <v>0.487585</v>
       </c>
       <c r="E67" t="n">
-        <v>0.263557</v>
+        <v>0.261599</v>
       </c>
       <c r="F67" t="n">
-        <v>0.432274</v>
+        <v>0.429441</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350277</v>
+        <v>0.350415</v>
       </c>
       <c r="C68" t="n">
-        <v>0.569313</v>
+        <v>0.57312</v>
       </c>
       <c r="D68" t="n">
-        <v>0.487535</v>
+        <v>0.494548</v>
       </c>
       <c r="E68" t="n">
-        <v>0.261756</v>
+        <v>0.259687</v>
       </c>
       <c r="F68" t="n">
-        <v>0.431269</v>
+        <v>0.428203</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343883</v>
+        <v>0.344056</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5471279999999999</v>
+        <v>0.54832</v>
       </c>
       <c r="D69" t="n">
-        <v>0.497936</v>
+        <v>0.500993</v>
       </c>
       <c r="E69" t="n">
-        <v>0.259687</v>
+        <v>0.258215</v>
       </c>
       <c r="F69" t="n">
-        <v>0.429816</v>
+        <v>0.42676</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336246</v>
+        <v>0.336687</v>
       </c>
       <c r="C70" t="n">
-        <v>0.559566</v>
+        <v>0.560995</v>
       </c>
       <c r="D70" t="n">
-        <v>0.497974</v>
+        <v>0.502598</v>
       </c>
       <c r="E70" t="n">
-        <v>0.258524</v>
+        <v>0.257071</v>
       </c>
       <c r="F70" t="n">
-        <v>0.428882</v>
+        <v>0.42572</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328472</v>
+        <v>0.328661</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505322</v>
+        <v>0.507864</v>
       </c>
       <c r="D71" t="n">
-        <v>0.523675</v>
+        <v>0.5278310000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.257513</v>
+        <v>0.256081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.427764</v>
+        <v>0.425725</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319039</v>
+        <v>0.319237</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5452399999999999</v>
+        <v>0.54672</v>
       </c>
       <c r="D72" t="n">
-        <v>0.511529</v>
+        <v>0.514328</v>
       </c>
       <c r="E72" t="n">
-        <v>0.256439</v>
+        <v>0.25513</v>
       </c>
       <c r="F72" t="n">
-        <v>0.426826</v>
+        <v>0.423671</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309491</v>
+        <v>0.309858</v>
       </c>
       <c r="C73" t="n">
-        <v>0.527386</v>
+        <v>0.52845</v>
       </c>
       <c r="D73" t="n">
-        <v>0.515375</v>
+        <v>0.517532</v>
       </c>
       <c r="E73" t="n">
-        <v>0.255282</v>
+        <v>0.254004</v>
       </c>
       <c r="F73" t="n">
-        <v>0.425633</v>
+        <v>0.422579</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298991</v>
+        <v>0.299109</v>
       </c>
       <c r="C74" t="n">
-        <v>0.52323</v>
+        <v>0.523981</v>
       </c>
       <c r="D74" t="n">
-        <v>0.516987</v>
+        <v>0.541652</v>
       </c>
       <c r="E74" t="n">
-        <v>0.254335</v>
+        <v>0.253201</v>
       </c>
       <c r="F74" t="n">
-        <v>0.424887</v>
+        <v>0.421857</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288126</v>
+        <v>0.288156</v>
       </c>
       <c r="C75" t="n">
-        <v>0.525216</v>
+        <v>0.521906</v>
       </c>
       <c r="D75" t="n">
-        <v>0.520607</v>
+        <v>0.517993</v>
       </c>
       <c r="E75" t="n">
-        <v>0.254359</v>
+        <v>0.252675</v>
       </c>
       <c r="F75" t="n">
-        <v>0.424119</v>
+        <v>0.421002</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275559</v>
+        <v>0.275857</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5180129999999999</v>
+        <v>0.514408</v>
       </c>
       <c r="D76" t="n">
-        <v>0.518552</v>
+        <v>0.521184</v>
       </c>
       <c r="E76" t="n">
-        <v>0.253056</v>
+        <v>0.251715</v>
       </c>
       <c r="F76" t="n">
-        <v>0.423229</v>
+        <v>0.4204</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26262</v>
+        <v>0.262787</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536555</v>
+        <v>0.537449</v>
       </c>
       <c r="D77" t="n">
-        <v>0.518828</v>
+        <v>0.53126</v>
       </c>
       <c r="E77" t="n">
-        <v>0.252668</v>
+        <v>0.251685</v>
       </c>
       <c r="F77" t="n">
-        <v>0.422675</v>
+        <v>0.419956</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248838</v>
+        <v>0.249139</v>
       </c>
       <c r="C78" t="n">
-        <v>0.491122</v>
+        <v>0.493199</v>
       </c>
       <c r="D78" t="n">
-        <v>0.594841</v>
+        <v>0.603857</v>
       </c>
       <c r="E78" t="n">
-        <v>0.252348</v>
+        <v>0.25145</v>
       </c>
       <c r="F78" t="n">
-        <v>0.421754</v>
+        <v>0.418799</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233392</v>
+        <v>0.233509</v>
       </c>
       <c r="C79" t="n">
-        <v>0.487405</v>
+        <v>0.488437</v>
       </c>
       <c r="D79" t="n">
-        <v>0.585117</v>
+        <v>0.59251</v>
       </c>
       <c r="E79" t="n">
-        <v>0.252156</v>
+        <v>0.250811</v>
       </c>
       <c r="F79" t="n">
-        <v>0.420974</v>
+        <v>0.418226</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216639</v>
+        <v>0.2164</v>
       </c>
       <c r="C80" t="n">
-        <v>0.519826</v>
+        <v>0.5218159999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.598462</v>
+        <v>0.604568</v>
       </c>
       <c r="E80" t="n">
-        <v>0.266162</v>
+        <v>0.264545</v>
       </c>
       <c r="F80" t="n">
-        <v>0.434136</v>
+        <v>0.432048</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357053</v>
+        <v>0.357926</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6125389999999999</v>
+        <v>0.61487</v>
       </c>
       <c r="D81" t="n">
-        <v>0.590319</v>
+        <v>0.597367</v>
       </c>
       <c r="E81" t="n">
-        <v>0.263854</v>
+        <v>0.262372</v>
       </c>
       <c r="F81" t="n">
-        <v>0.432836</v>
+        <v>0.430017</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351502</v>
+        <v>0.351923</v>
       </c>
       <c r="C82" t="n">
-        <v>0.597276</v>
+        <v>0.599402</v>
       </c>
       <c r="D82" t="n">
-        <v>0.585214</v>
+        <v>0.5929140000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.261614</v>
+        <v>0.260237</v>
       </c>
       <c r="F82" t="n">
-        <v>0.431366</v>
+        <v>0.428513</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345866</v>
+        <v>0.345996</v>
       </c>
       <c r="C83" t="n">
-        <v>0.579887</v>
+        <v>0.583251</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5817290000000001</v>
+        <v>0.587805</v>
       </c>
       <c r="E83" t="n">
-        <v>0.260054</v>
+        <v>0.258713</v>
       </c>
       <c r="F83" t="n">
-        <v>0.430178</v>
+        <v>0.427474</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338659</v>
+        <v>0.338887</v>
       </c>
       <c r="C84" t="n">
-        <v>0.635254</v>
+        <v>0.638127</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5901380000000001</v>
+        <v>0.595851</v>
       </c>
       <c r="E84" t="n">
-        <v>0.258832</v>
+        <v>0.257456</v>
       </c>
       <c r="F84" t="n">
-        <v>0.429037</v>
+        <v>0.426252</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330791</v>
+        <v>0.330821</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5973889999999999</v>
+        <v>0.599983</v>
       </c>
       <c r="D85" t="n">
-        <v>0.574226</v>
+        <v>0.579661</v>
       </c>
       <c r="E85" t="n">
-        <v>0.257741</v>
+        <v>0.256528</v>
       </c>
       <c r="F85" t="n">
-        <v>0.428068</v>
+        <v>0.426081</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321623</v>
+        <v>0.321925</v>
       </c>
       <c r="C86" t="n">
-        <v>0.655758</v>
+        <v>0.659421</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5772</v>
+        <v>0.582421</v>
       </c>
       <c r="E86" t="n">
-        <v>0.256441</v>
+        <v>0.255276</v>
       </c>
       <c r="F86" t="n">
-        <v>0.426859</v>
+        <v>0.423949</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.312285</v>
+        <v>0.312736</v>
       </c>
       <c r="C87" t="n">
-        <v>0.605693</v>
+        <v>0.608981</v>
       </c>
       <c r="D87" t="n">
-        <v>0.573275</v>
+        <v>0.581545</v>
       </c>
       <c r="E87" t="n">
-        <v>0.255536</v>
+        <v>0.25445</v>
       </c>
       <c r="F87" t="n">
-        <v>0.425938</v>
+        <v>0.423066</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>0.30021</v>
       </c>
       <c r="C88" t="n">
-        <v>0.512067</v>
+        <v>0.512391</v>
       </c>
       <c r="D88" t="n">
-        <v>0.566455</v>
+        <v>0.574099</v>
       </c>
       <c r="E88" t="n">
-        <v>0.254444</v>
+        <v>0.253514</v>
       </c>
       <c r="F88" t="n">
-        <v>0.425617</v>
+        <v>0.422551</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.288897</v>
+        <v>0.288786</v>
       </c>
       <c r="C89" t="n">
-        <v>0.529232</v>
+        <v>0.529802</v>
       </c>
       <c r="D89" t="n">
-        <v>0.565269</v>
+        <v>0.572315</v>
       </c>
       <c r="E89" t="n">
-        <v>0.254463</v>
+        <v>0.252942</v>
       </c>
       <c r="F89" t="n">
-        <v>0.424419</v>
+        <v>0.421818</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276543</v>
+        <v>0.276494</v>
       </c>
       <c r="C90" t="n">
-        <v>0.552091</v>
+        <v>0.55677</v>
       </c>
       <c r="D90" t="n">
-        <v>0.560454</v>
+        <v>0.568883</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253388</v>
+        <v>0.252094</v>
       </c>
       <c r="F90" t="n">
-        <v>0.423621</v>
+        <v>0.420922</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2635</v>
+        <v>0.263588</v>
       </c>
       <c r="C91" t="n">
-        <v>0.494801</v>
+        <v>0.522576</v>
       </c>
       <c r="D91" t="n">
-        <v>0.556939</v>
+        <v>0.564191</v>
       </c>
       <c r="E91" t="n">
-        <v>0.25267</v>
+        <v>0.251235</v>
       </c>
       <c r="F91" t="n">
-        <v>0.422698</v>
+        <v>0.421974</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24963</v>
+        <v>0.249511</v>
       </c>
       <c r="C92" t="n">
-        <v>0.57533</v>
+        <v>0.578264</v>
       </c>
       <c r="D92" t="n">
-        <v>0.609942</v>
+        <v>0.623624</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252008</v>
+        <v>0.250508</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421994</v>
+        <v>0.419874</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234533</v>
+        <v>0.234583</v>
       </c>
       <c r="C93" t="n">
-        <v>0.475719</v>
+        <v>0.478857</v>
       </c>
       <c r="D93" t="n">
-        <v>0.608312</v>
+        <v>0.621302</v>
       </c>
       <c r="E93" t="n">
-        <v>0.251867</v>
+        <v>0.250356</v>
       </c>
       <c r="F93" t="n">
-        <v>0.421527</v>
+        <v>0.420403</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.218409</v>
+        <v>0.218419</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5158430000000001</v>
+        <v>0.520019</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6044</v>
+        <v>0.616271</v>
       </c>
       <c r="E94" t="n">
-        <v>0.26688</v>
+        <v>0.265416</v>
       </c>
       <c r="F94" t="n">
-        <v>0.434164</v>
+        <v>0.431587</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35895</v>
+        <v>0.358785</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5288</v>
+        <v>0.531722</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59317</v>
+        <v>0.6023849999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.264204</v>
+        <v>0.262495</v>
       </c>
       <c r="F95" t="n">
-        <v>0.432965</v>
+        <v>0.43015</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354263</v>
+        <v>0.354329</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640159</v>
+        <v>0.64613</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5896</v>
+        <v>0.598345</v>
       </c>
       <c r="E96" t="n">
-        <v>0.262146</v>
+        <v>0.260624</v>
       </c>
       <c r="F96" t="n">
-        <v>0.431681</v>
+        <v>0.429409</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347988</v>
+        <v>0.347851</v>
       </c>
       <c r="C97" t="n">
-        <v>0.655469</v>
+        <v>0.6608309999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.587707</v>
+        <v>0.595985</v>
       </c>
       <c r="E97" t="n">
-        <v>0.260519</v>
+        <v>0.259116</v>
       </c>
       <c r="F97" t="n">
-        <v>0.430557</v>
+        <v>0.428346</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340727</v>
+        <v>0.34066</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6403720000000001</v>
+        <v>0.643056</v>
       </c>
       <c r="D98" t="n">
-        <v>0.580935</v>
+        <v>0.589571</v>
       </c>
       <c r="E98" t="n">
-        <v>0.259163</v>
+        <v>0.25767</v>
       </c>
       <c r="F98" t="n">
-        <v>0.429233</v>
+        <v>0.426342</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332988</v>
+        <v>0.332991</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582647</v>
+        <v>0.5856749999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.57761</v>
+        <v>0.58521</v>
       </c>
       <c r="E99" t="n">
-        <v>0.257818</v>
+        <v>0.25657</v>
       </c>
       <c r="F99" t="n">
-        <v>0.428082</v>
+        <v>0.425165</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.324847</v>
+        <v>0.323937</v>
       </c>
       <c r="C100" t="n">
-        <v>0.642421</v>
+        <v>0.645128</v>
       </c>
       <c r="D100" t="n">
-        <v>0.566479</v>
+        <v>0.5741540000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>0.256584</v>
+        <v>0.255448</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427372</v>
+        <v>0.424258</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31476</v>
+        <v>0.314738</v>
       </c>
       <c r="C101" t="n">
-        <v>0.540256</v>
+        <v>0.542328</v>
       </c>
       <c r="D101" t="n">
-        <v>0.558815</v>
+        <v>0.56598</v>
       </c>
       <c r="E101" t="n">
-        <v>0.255407</v>
+        <v>0.254336</v>
       </c>
       <c r="F101" t="n">
-        <v>0.426392</v>
+        <v>0.424423</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304237</v>
+        <v>0.304472</v>
       </c>
       <c r="C102" t="n">
-        <v>0.616721</v>
+        <v>0.620243</v>
       </c>
       <c r="D102" t="n">
-        <v>0.556434</v>
+        <v>0.563594</v>
       </c>
       <c r="E102" t="n">
-        <v>0.254668</v>
+        <v>0.253634</v>
       </c>
       <c r="F102" t="n">
-        <v>0.425192</v>
+        <v>0.423639</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293687</v>
+        <v>0.293669</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585662</v>
+        <v>0.5880379999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.553164</v>
+        <v>0.560023</v>
       </c>
       <c r="E103" t="n">
-        <v>0.253941</v>
+        <v>0.252761</v>
       </c>
       <c r="F103" t="n">
-        <v>0.424328</v>
+        <v>0.423232</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281387</v>
+        <v>0.281447</v>
       </c>
       <c r="C104" t="n">
-        <v>0.584964</v>
+        <v>0.590128</v>
       </c>
       <c r="D104" t="n">
-        <v>0.552415</v>
+        <v>0.558997</v>
       </c>
       <c r="E104" t="n">
-        <v>0.253885</v>
+        <v>0.252864</v>
       </c>
       <c r="F104" t="n">
-        <v>0.423457</v>
+        <v>0.421312</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269222</v>
+        <v>0.268958</v>
       </c>
       <c r="C105" t="n">
-        <v>0.540002</v>
+        <v>0.542844</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54447</v>
+        <v>0.551156</v>
       </c>
       <c r="E105" t="n">
-        <v>0.253541</v>
+        <v>0.252294</v>
       </c>
       <c r="F105" t="n">
-        <v>0.423044</v>
+        <v>0.420333</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255168</v>
+        <v>0.255</v>
       </c>
       <c r="C106" t="n">
-        <v>0.53176</v>
+        <v>0.534752</v>
       </c>
       <c r="D106" t="n">
-        <v>0.540809</v>
+        <v>0.547111</v>
       </c>
       <c r="E106" t="n">
-        <v>0.252969</v>
+        <v>0.251595</v>
       </c>
       <c r="F106" t="n">
-        <v>0.422294</v>
+        <v>0.421059</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240048</v>
+        <v>0.240103</v>
       </c>
       <c r="C107" t="n">
-        <v>0.51006</v>
+        <v>0.512276</v>
       </c>
       <c r="D107" t="n">
-        <v>0.582974</v>
+        <v>0.592843</v>
       </c>
       <c r="E107" t="n">
-        <v>0.25222</v>
+        <v>0.251053</v>
       </c>
       <c r="F107" t="n">
-        <v>0.421557</v>
+        <v>0.418663</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223883</v>
+        <v>0.223756</v>
       </c>
       <c r="C108" t="n">
-        <v>0.446561</v>
+        <v>0.448049</v>
       </c>
       <c r="D108" t="n">
-        <v>0.606843</v>
+        <v>0.61911</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267997</v>
+        <v>0.265158</v>
       </c>
       <c r="F108" t="n">
-        <v>0.434648</v>
+        <v>0.432351</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207211</v>
+        <v>0.207197</v>
       </c>
       <c r="C109" t="n">
-        <v>0.434367</v>
+        <v>0.435562</v>
       </c>
       <c r="D109" t="n">
-        <v>0.603374</v>
+        <v>0.613123</v>
       </c>
       <c r="E109" t="n">
-        <v>0.265088</v>
+        <v>0.262933</v>
       </c>
       <c r="F109" t="n">
-        <v>0.433841</v>
+        <v>0.430743</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355352</v>
+        <v>0.354874</v>
       </c>
       <c r="C110" t="n">
-        <v>0.525075</v>
+        <v>0.5305879999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.580456</v>
+        <v>0.589564</v>
       </c>
       <c r="E110" t="n">
-        <v>0.263112</v>
+        <v>0.26156</v>
       </c>
       <c r="F110" t="n">
-        <v>0.43194</v>
+        <v>0.42912</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349173</v>
+        <v>0.348837</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574663</v>
+        <v>0.576399</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579811</v>
+        <v>0.5882500000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.261388</v>
+        <v>0.259855</v>
       </c>
       <c r="F111" t="n">
-        <v>0.430684</v>
+        <v>0.428613</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342399</v>
+        <v>0.341764</v>
       </c>
       <c r="C112" t="n">
-        <v>0.540157</v>
+        <v>0.54317</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5805169999999999</v>
+        <v>0.591021</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259687</v>
+        <v>0.258088</v>
       </c>
       <c r="F112" t="n">
-        <v>0.429595</v>
+        <v>0.427041</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334975</v>
+        <v>0.335219</v>
       </c>
       <c r="C113" t="n">
-        <v>0.663407</v>
+        <v>0.6668190000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.566317</v>
+        <v>0.574574</v>
       </c>
       <c r="E113" t="n">
-        <v>0.258222</v>
+        <v>0.256807</v>
       </c>
       <c r="F113" t="n">
-        <v>0.42835</v>
+        <v>0.425885</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326639</v>
+        <v>0.326225</v>
       </c>
       <c r="C114" t="n">
-        <v>0.624499</v>
+        <v>0.626982</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562239</v>
+        <v>0.570213</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256929</v>
+        <v>0.255762</v>
       </c>
       <c r="F114" t="n">
-        <v>0.427223</v>
+        <v>0.42501</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317014</v>
+        <v>0.317002</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580412</v>
+        <v>0.582161</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5581390000000001</v>
+        <v>0.565632</v>
       </c>
       <c r="E115" t="n">
-        <v>0.255907</v>
+        <v>0.25476</v>
       </c>
       <c r="F115" t="n">
-        <v>0.426399</v>
+        <v>0.424114</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305678</v>
+        <v>0.306085</v>
       </c>
       <c r="C116" t="n">
-        <v>0.610474</v>
+        <v>0.612969</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5554559999999999</v>
+        <v>0.563016</v>
       </c>
       <c r="E116" t="n">
-        <v>0.254961</v>
+        <v>0.253925</v>
       </c>
       <c r="F116" t="n">
-        <v>0.425672</v>
+        <v>0.423102</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294874</v>
+        <v>0.294876</v>
       </c>
       <c r="C117" t="n">
-        <v>0.552466</v>
+        <v>0.553661</v>
       </c>
       <c r="D117" t="n">
-        <v>0.55025</v>
+        <v>0.557748</v>
       </c>
       <c r="E117" t="n">
-        <v>0.254053</v>
+        <v>0.253067</v>
       </c>
       <c r="F117" t="n">
-        <v>0.424464</v>
+        <v>0.422199</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284366</v>
+        <v>0.284746</v>
       </c>
       <c r="C118" t="n">
-        <v>0.510684</v>
+        <v>0.511389</v>
       </c>
       <c r="D118" t="n">
-        <v>0.546417</v>
+        <v>0.553704</v>
       </c>
       <c r="E118" t="n">
-        <v>0.253813</v>
+        <v>0.252653</v>
       </c>
       <c r="F118" t="n">
-        <v>0.423646</v>
+        <v>0.421551</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272129</v>
+        <v>0.271979</v>
       </c>
       <c r="C119" t="n">
-        <v>0.572644</v>
+        <v>0.575404</v>
       </c>
       <c r="D119" t="n">
-        <v>0.543798</v>
+        <v>0.550857</v>
       </c>
       <c r="E119" t="n">
-        <v>0.25315</v>
+        <v>0.25198</v>
       </c>
       <c r="F119" t="n">
-        <v>0.42285</v>
+        <v>0.420724</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259089</v>
+        <v>0.25862</v>
       </c>
       <c r="C120" t="n">
-        <v>0.479136</v>
+        <v>0.479922</v>
       </c>
       <c r="D120" t="n">
-        <v>0.539963</v>
+        <v>0.546921</v>
       </c>
       <c r="E120" t="n">
-        <v>0.252672</v>
+        <v>0.251403</v>
       </c>
       <c r="F120" t="n">
-        <v>0.422311</v>
+        <v>0.420278</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244325</v>
+        <v>0.243886</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.524904</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598661</v>
+        <v>0.608924</v>
       </c>
       <c r="E121" t="n">
-        <v>0.252285</v>
+        <v>0.251422</v>
       </c>
       <c r="F121" t="n">
-        <v>0.421722</v>
+        <v>0.419973</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228392</v>
+        <v>0.227879</v>
       </c>
       <c r="C122" t="n">
-        <v>0.503529</v>
+        <v>0.505231</v>
       </c>
       <c r="D122" t="n">
-        <v>0.618057</v>
+        <v>0.628007</v>
       </c>
       <c r="E122" t="n">
-        <v>0.251741</v>
+        <v>0.250567</v>
       </c>
       <c r="F122" t="n">
-        <v>0.420803</v>
+        <v>0.418427</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.210992</v>
+        <v>0.210946</v>
       </c>
       <c r="C123" t="n">
-        <v>0.447354</v>
+        <v>0.448189</v>
       </c>
       <c r="D123" t="n">
-        <v>0.594201</v>
+        <v>0.603268</v>
       </c>
       <c r="E123" t="n">
-        <v>0.264974</v>
+        <v>0.263278</v>
       </c>
       <c r="F123" t="n">
-        <v>0.433346</v>
+        <v>0.430642</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356909</v>
+        <v>0.356801</v>
       </c>
       <c r="C124" t="n">
-        <v>0.537801</v>
+        <v>0.538251</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6078170000000001</v>
+        <v>0.617094</v>
       </c>
       <c r="E124" t="n">
-        <v>0.262803</v>
+        <v>0.261185</v>
       </c>
       <c r="F124" t="n">
-        <v>0.43205</v>
+        <v>0.429655</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350761</v>
+        <v>0.351122</v>
       </c>
       <c r="C125" t="n">
-        <v>0.634008</v>
+        <v>0.636101</v>
       </c>
       <c r="D125" t="n">
-        <v>0.602958</v>
+        <v>0.611096</v>
       </c>
       <c r="E125" t="n">
-        <v>0.261062</v>
+        <v>0.259484</v>
       </c>
       <c r="F125" t="n">
-        <v>0.430886</v>
+        <v>0.428084</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.34441</v>
+        <v>0.343854</v>
       </c>
       <c r="C126" t="n">
-        <v>0.553411</v>
+        <v>0.5543090000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.597371</v>
+        <v>0.605523</v>
       </c>
       <c r="E126" t="n">
-        <v>0.259709</v>
+        <v>0.258177</v>
       </c>
       <c r="F126" t="n">
-        <v>0.429461</v>
+        <v>0.426851</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337109</v>
+        <v>0.337399</v>
       </c>
       <c r="C127" t="n">
-        <v>0.61473</v>
+        <v>0.617155</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593377</v>
+        <v>0.60183</v>
       </c>
       <c r="E127" t="n">
-        <v>0.258387</v>
+        <v>0.257063</v>
       </c>
       <c r="F127" t="n">
-        <v>0.428524</v>
+        <v>0.426077</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328892</v>
+        <v>0.328136</v>
       </c>
       <c r="C128" t="n">
-        <v>0.591591</v>
+        <v>0.592395</v>
       </c>
       <c r="D128" t="n">
-        <v>0.57707</v>
+        <v>0.584199</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257159</v>
+        <v>0.255989</v>
       </c>
       <c r="F128" t="n">
-        <v>0.427321</v>
+        <v>0.425102</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.320021</v>
+        <v>0.320193</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6526960000000001</v>
+        <v>0.655242</v>
       </c>
       <c r="D129" t="n">
-        <v>0.578332</v>
+        <v>0.586235</v>
       </c>
       <c r="E129" t="n">
-        <v>0.25626</v>
+        <v>0.254984</v>
       </c>
       <c r="F129" t="n">
-        <v>0.426314</v>
+        <v>0.423828</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.310661</v>
+        <v>0.310133</v>
       </c>
       <c r="C130" t="n">
-        <v>0.602846</v>
+        <v>0.60963</v>
       </c>
       <c r="D130" t="n">
-        <v>0.56626</v>
+        <v>0.573136</v>
       </c>
       <c r="E130" t="n">
-        <v>0.255324</v>
+        <v>0.254085</v>
       </c>
       <c r="F130" t="n">
-        <v>0.425402</v>
+        <v>0.423005</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.300536</v>
+        <v>0.298845</v>
       </c>
       <c r="C131" t="n">
-        <v>0.577126</v>
+        <v>0.579036</v>
       </c>
       <c r="D131" t="n">
-        <v>0.561171</v>
+        <v>0.5679689999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.254453</v>
+        <v>0.253284</v>
       </c>
       <c r="F131" t="n">
-        <v>0.424383</v>
+        <v>0.421916</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.289207</v>
+        <v>0.287033</v>
       </c>
       <c r="C132" t="n">
-        <v>0.558079</v>
+        <v>0.560074</v>
       </c>
       <c r="D132" t="n">
-        <v>0.556728</v>
+        <v>0.563913</v>
       </c>
       <c r="E132" t="n">
-        <v>0.253995</v>
+        <v>0.252847</v>
       </c>
       <c r="F132" t="n">
-        <v>0.423727</v>
+        <v>0.421134</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275953</v>
+        <v>0.274844</v>
       </c>
       <c r="C133" t="n">
-        <v>0.574466</v>
+        <v>0.575755</v>
       </c>
       <c r="D133" t="n">
-        <v>0.551732</v>
+        <v>0.558879</v>
       </c>
       <c r="E133" t="n">
-        <v>0.252729</v>
+        <v>0.252128</v>
       </c>
       <c r="F133" t="n">
-        <v>0.422884</v>
+        <v>0.420392</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26246</v>
+        <v>0.261904</v>
       </c>
       <c r="C134" t="n">
-        <v>0.542837</v>
+        <v>0.5447380000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.546183</v>
+        <v>0.552677</v>
       </c>
       <c r="E134" t="n">
-        <v>0.252506</v>
+        <v>0.251313</v>
       </c>
       <c r="F134" t="n">
-        <v>0.422146</v>
+        <v>0.419501</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248676</v>
+        <v>0.248112</v>
       </c>
       <c r="C135" t="n">
-        <v>0.526803</v>
+        <v>0.525691</v>
       </c>
       <c r="D135" t="n">
-        <v>0.603724</v>
+        <v>0.613509</v>
       </c>
       <c r="E135" t="n">
-        <v>0.252212</v>
+        <v>0.250911</v>
       </c>
       <c r="F135" t="n">
-        <v>0.421489</v>
+        <v>0.419226</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23102</v>
+        <v>0.230886</v>
       </c>
       <c r="C136" t="n">
-        <v>0.508982</v>
+        <v>0.515049</v>
       </c>
       <c r="D136" t="n">
-        <v>0.605334</v>
+        <v>0.614719</v>
       </c>
       <c r="E136" t="n">
-        <v>0.251556</v>
+        <v>0.250242</v>
       </c>
       <c r="F136" t="n">
-        <v>0.421484</v>
+        <v>0.418342</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213594</v>
+        <v>0.213956</v>
       </c>
       <c r="C137" t="n">
-        <v>0.489641</v>
+        <v>0.489076</v>
       </c>
       <c r="D137" t="n">
-        <v>0.621842</v>
+        <v>0.631548</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26562</v>
+        <v>0.26374</v>
       </c>
       <c r="F137" t="n">
-        <v>0.433882</v>
+        <v>0.431114</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358002</v>
+        <v>0.358872</v>
       </c>
       <c r="C138" t="n">
-        <v>0.670577</v>
+        <v>0.673261</v>
       </c>
       <c r="D138" t="n">
-        <v>0.598319</v>
+        <v>0.607531</v>
       </c>
       <c r="E138" t="n">
-        <v>0.263426</v>
+        <v>0.26175</v>
       </c>
       <c r="F138" t="n">
-        <v>0.432279</v>
+        <v>0.430348</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3528</v>
+        <v>0.353002</v>
       </c>
       <c r="C139" t="n">
-        <v>0.663311</v>
+        <v>0.666562</v>
       </c>
       <c r="D139" t="n">
-        <v>0.595182</v>
+        <v>0.6046859999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.261745</v>
+        <v>0.260102</v>
       </c>
       <c r="F139" t="n">
-        <v>0.431281</v>
+        <v>0.428859</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346737</v>
+        <v>0.346132</v>
       </c>
       <c r="C140" t="n">
-        <v>0.622059</v>
+        <v>0.6240560000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5930029999999999</v>
+        <v>0.600823</v>
       </c>
       <c r="E140" t="n">
-        <v>0.260262</v>
+        <v>0.258773</v>
       </c>
       <c r="F140" t="n">
-        <v>0.429859</v>
+        <v>0.427611</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339249</v>
+        <v>0.340144</v>
       </c>
       <c r="C141" t="n">
-        <v>0.615532</v>
+        <v>0.617555</v>
       </c>
       <c r="D141" t="n">
-        <v>0.59651</v>
+        <v>0.605356</v>
       </c>
       <c r="E141" t="n">
-        <v>0.259026</v>
+        <v>0.257528</v>
       </c>
       <c r="F141" t="n">
-        <v>0.428618</v>
+        <v>0.426646</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331128</v>
+        <v>0.331195</v>
       </c>
       <c r="C142" t="n">
-        <v>0.631863</v>
+        <v>0.634341</v>
       </c>
       <c r="D142" t="n">
-        <v>0.589654</v>
+        <v>0.5986629999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.257725</v>
+        <v>0.256363</v>
       </c>
       <c r="F142" t="n">
-        <v>0.42757</v>
+        <v>0.425482</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.322484</v>
+        <v>0.322494</v>
       </c>
       <c r="C143" t="n">
-        <v>0.630348</v>
+        <v>0.628945</v>
       </c>
       <c r="D143" t="n">
-        <v>0.582334</v>
+        <v>0.589958</v>
       </c>
       <c r="E143" t="n">
-        <v>0.256765</v>
+        <v>0.255345</v>
       </c>
       <c r="F143" t="n">
-        <v>0.426633</v>
+        <v>0.424615</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.272346</v>
+        <v>0.282412</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455327</v>
+        <v>0.466002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389629</v>
+        <v>0.390934</v>
       </c>
       <c r="E2" t="n">
-        <v>0.225197</v>
+        <v>0.226997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.41868</v>
+        <v>0.415653</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269812</v>
+        <v>0.275881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.449962</v>
+        <v>0.462428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390834</v>
+        <v>0.392625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.227552</v>
+        <v>0.227544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.415323</v>
+        <v>0.41602</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258997</v>
+        <v>0.264305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.449795</v>
+        <v>0.451077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.393093</v>
+        <v>0.395458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.228178</v>
+        <v>0.23248</v>
       </c>
       <c r="F4" t="n">
-        <v>0.415211</v>
+        <v>0.416006</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246869</v>
+        <v>0.251303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435387</v>
+        <v>0.438267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.393962</v>
+        <v>0.396025</v>
       </c>
       <c r="E5" t="n">
-        <v>0.231715</v>
+        <v>0.233901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415335</v>
+        <v>0.416178</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236963</v>
+        <v>0.23966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42687</v>
+        <v>0.424181</v>
       </c>
       <c r="D6" t="n">
-        <v>0.394063</v>
+        <v>0.39784</v>
       </c>
       <c r="E6" t="n">
-        <v>0.233624</v>
+        <v>0.234486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.414597</v>
+        <v>0.415864</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224659</v>
+        <v>0.223224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412537</v>
+        <v>0.410544</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389046</v>
+        <v>0.395088</v>
       </c>
       <c r="E7" t="n">
-        <v>0.236648</v>
+        <v>0.238335</v>
       </c>
       <c r="F7" t="n">
-        <v>0.414316</v>
+        <v>0.415365</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206629</v>
+        <v>0.208757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399681</v>
+        <v>0.395571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393055</v>
+        <v>0.396489</v>
       </c>
       <c r="E8" t="n">
-        <v>0.238408</v>
+        <v>0.239791</v>
       </c>
       <c r="F8" t="n">
-        <v>0.414176</v>
+        <v>0.416203</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190154</v>
+        <v>0.192019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.386278</v>
+        <v>0.38373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.394013</v>
+        <v>0.397606</v>
       </c>
       <c r="E9" t="n">
-        <v>0.253275</v>
+        <v>0.255948</v>
       </c>
       <c r="F9" t="n">
-        <v>0.427313</v>
+        <v>0.429476</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339924</v>
+        <v>0.338745</v>
       </c>
       <c r="C10" t="n">
-        <v>0.520146</v>
+        <v>0.532037</v>
       </c>
       <c r="D10" t="n">
-        <v>0.394137</v>
+        <v>0.396604</v>
       </c>
       <c r="E10" t="n">
-        <v>0.253967</v>
+        <v>0.257137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427941</v>
+        <v>0.429576</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.334582</v>
+        <v>0.33236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.511672</v>
+        <v>0.5277230000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.393227</v>
+        <v>0.397719</v>
       </c>
       <c r="E11" t="n">
-        <v>0.253553</v>
+        <v>0.257095</v>
       </c>
       <c r="F11" t="n">
-        <v>0.427083</v>
+        <v>0.428191</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32637</v>
+        <v>0.328074</v>
       </c>
       <c r="C12" t="n">
-        <v>0.506078</v>
+        <v>0.521523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394652</v>
+        <v>0.397302</v>
       </c>
       <c r="E12" t="n">
-        <v>0.252775</v>
+        <v>0.256537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42408</v>
+        <v>0.426879</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.320602</v>
+        <v>0.322918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.502177</v>
+        <v>0.508274</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394399</v>
+        <v>0.398348</v>
       </c>
       <c r="E13" t="n">
-        <v>0.254478</v>
+        <v>0.255493</v>
       </c>
       <c r="F13" t="n">
-        <v>0.426104</v>
+        <v>0.42541</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312893</v>
+        <v>0.314346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.490189</v>
+        <v>0.5021679999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39948</v>
+        <v>0.400427</v>
       </c>
       <c r="E14" t="n">
-        <v>0.251911</v>
+        <v>0.255276</v>
       </c>
       <c r="F14" t="n">
-        <v>0.423804</v>
+        <v>0.425775</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304401</v>
+        <v>0.306134</v>
       </c>
       <c r="C15" t="n">
-        <v>0.483206</v>
+        <v>0.48866</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39796</v>
+        <v>0.400302</v>
       </c>
       <c r="E15" t="n">
-        <v>0.250493</v>
+        <v>0.254935</v>
       </c>
       <c r="F15" t="n">
-        <v>0.42461</v>
+        <v>0.424903</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.296138</v>
+        <v>0.297889</v>
       </c>
       <c r="C16" t="n">
-        <v>0.472479</v>
+        <v>0.478918</v>
       </c>
       <c r="D16" t="n">
-        <v>0.399379</v>
+        <v>0.400025</v>
       </c>
       <c r="E16" t="n">
-        <v>0.251943</v>
+        <v>0.253975</v>
       </c>
       <c r="F16" t="n">
-        <v>0.421334</v>
+        <v>0.422505</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285829</v>
+        <v>0.287029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.46613</v>
+        <v>0.469623</v>
       </c>
       <c r="D17" t="n">
-        <v>0.401698</v>
+        <v>0.402204</v>
       </c>
       <c r="E17" t="n">
-        <v>0.250289</v>
+        <v>0.254694</v>
       </c>
       <c r="F17" t="n">
-        <v>0.422003</v>
+        <v>0.422454</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274604</v>
+        <v>0.276685</v>
       </c>
       <c r="C18" t="n">
-        <v>0.455529</v>
+        <v>0.463773</v>
       </c>
       <c r="D18" t="n">
-        <v>0.402716</v>
+        <v>0.403441</v>
       </c>
       <c r="E18" t="n">
-        <v>0.251398</v>
+        <v>0.253704</v>
       </c>
       <c r="F18" t="n">
-        <v>0.421759</v>
+        <v>0.422785</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263078</v>
+        <v>0.265493</v>
       </c>
       <c r="C19" t="n">
-        <v>0.449449</v>
+        <v>0.451413</v>
       </c>
       <c r="D19" t="n">
-        <v>0.404143</v>
+        <v>0.402605</v>
       </c>
       <c r="E19" t="n">
-        <v>0.250964</v>
+        <v>0.252627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.421088</v>
+        <v>0.421236</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250373</v>
+        <v>0.253578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.432608</v>
+        <v>0.433032</v>
       </c>
       <c r="D20" t="n">
-        <v>0.40448</v>
+        <v>0.405765</v>
       </c>
       <c r="E20" t="n">
-        <v>0.249437</v>
+        <v>0.252046</v>
       </c>
       <c r="F20" t="n">
-        <v>0.418855</v>
+        <v>0.420681</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24242</v>
+        <v>0.239688</v>
       </c>
       <c r="C21" t="n">
-        <v>0.417629</v>
+        <v>0.418456</v>
       </c>
       <c r="D21" t="n">
-        <v>0.399073</v>
+        <v>0.400465</v>
       </c>
       <c r="E21" t="n">
-        <v>0.248332</v>
+        <v>0.252207</v>
       </c>
       <c r="F21" t="n">
-        <v>0.418824</v>
+        <v>0.420404</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225312</v>
+        <v>0.224443</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408619</v>
+        <v>0.407756</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398421</v>
+        <v>0.401431</v>
       </c>
       <c r="E22" t="n">
-        <v>0.249488</v>
+        <v>0.251939</v>
       </c>
       <c r="F22" t="n">
-        <v>0.418581</v>
+        <v>0.420581</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206704</v>
+        <v>0.209813</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39236</v>
+        <v>0.389935</v>
       </c>
       <c r="D23" t="n">
-        <v>0.397966</v>
+        <v>0.402366</v>
       </c>
       <c r="E23" t="n">
-        <v>0.267401</v>
+        <v>0.26964</v>
       </c>
       <c r="F23" t="n">
-        <v>0.431863</v>
+        <v>0.434096</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348924</v>
+        <v>0.350379</v>
       </c>
       <c r="C24" t="n">
-        <v>0.516846</v>
+        <v>0.53549</v>
       </c>
       <c r="D24" t="n">
-        <v>0.401365</v>
+        <v>0.401635</v>
       </c>
       <c r="E24" t="n">
-        <v>0.264093</v>
+        <v>0.266537</v>
       </c>
       <c r="F24" t="n">
-        <v>0.430655</v>
+        <v>0.432075</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342145</v>
+        <v>0.344465</v>
       </c>
       <c r="C25" t="n">
-        <v>0.518669</v>
+        <v>0.5310240000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401274</v>
+        <v>0.404441</v>
       </c>
       <c r="E25" t="n">
-        <v>0.26148</v>
+        <v>0.264783</v>
       </c>
       <c r="F25" t="n">
-        <v>0.429696</v>
+        <v>0.43096</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336542</v>
+        <v>0.338174</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511415</v>
+        <v>0.52227</v>
       </c>
       <c r="D26" t="n">
-        <v>0.401196</v>
+        <v>0.402451</v>
       </c>
       <c r="E26" t="n">
-        <v>0.260281</v>
+        <v>0.263781</v>
       </c>
       <c r="F26" t="n">
-        <v>0.428374</v>
+        <v>0.429451</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332835</v>
+        <v>0.331298</v>
       </c>
       <c r="C27" t="n">
-        <v>0.501667</v>
+        <v>0.510697</v>
       </c>
       <c r="D27" t="n">
-        <v>0.402806</v>
+        <v>0.402631</v>
       </c>
       <c r="E27" t="n">
-        <v>0.258989</v>
+        <v>0.262371</v>
       </c>
       <c r="F27" t="n">
-        <v>0.426977</v>
+        <v>0.428145</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322547</v>
+        <v>0.324228</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495012</v>
+        <v>0.502095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403005</v>
+        <v>0.402879</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25792</v>
+        <v>0.261342</v>
       </c>
       <c r="F28" t="n">
-        <v>0.427141</v>
+        <v>0.428301</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314066</v>
+        <v>0.316175</v>
       </c>
       <c r="C29" t="n">
-        <v>0.493009</v>
+        <v>0.500082</v>
       </c>
       <c r="D29" t="n">
-        <v>0.403768</v>
+        <v>0.404446</v>
       </c>
       <c r="E29" t="n">
-        <v>0.257683</v>
+        <v>0.260343</v>
       </c>
       <c r="F29" t="n">
-        <v>0.426286</v>
+        <v>0.426992</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305506</v>
+        <v>0.307405</v>
       </c>
       <c r="C30" t="n">
-        <v>0.470029</v>
+        <v>0.486083</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405634</v>
+        <v>0.404913</v>
       </c>
       <c r="E30" t="n">
-        <v>0.257374</v>
+        <v>0.259303</v>
       </c>
       <c r="F30" t="n">
-        <v>0.424913</v>
+        <v>0.425948</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296171</v>
+        <v>0.297572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.465921</v>
+        <v>0.46837</v>
       </c>
       <c r="D31" t="n">
-        <v>0.405918</v>
+        <v>0.405606</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2556</v>
+        <v>0.258174</v>
       </c>
       <c r="F31" t="n">
-        <v>0.423711</v>
+        <v>0.425752</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284467</v>
+        <v>0.286894</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463334</v>
+        <v>0.463572</v>
       </c>
       <c r="D32" t="n">
-        <v>0.406692</v>
+        <v>0.407541</v>
       </c>
       <c r="E32" t="n">
-        <v>0.254989</v>
+        <v>0.257446</v>
       </c>
       <c r="F32" t="n">
-        <v>0.422714</v>
+        <v>0.424978</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272533</v>
+        <v>0.273741</v>
       </c>
       <c r="C33" t="n">
-        <v>0.447129</v>
+        <v>0.453504</v>
       </c>
       <c r="D33" t="n">
-        <v>0.406881</v>
+        <v>0.408251</v>
       </c>
       <c r="E33" t="n">
-        <v>0.256689</v>
+        <v>0.256313</v>
       </c>
       <c r="F33" t="n">
-        <v>0.421952</v>
+        <v>0.42376</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261034</v>
+        <v>0.260015</v>
       </c>
       <c r="C34" t="n">
-        <v>0.442975</v>
+        <v>0.441111</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407874</v>
+        <v>0.407953</v>
       </c>
       <c r="E34" t="n">
-        <v>0.257309</v>
+        <v>0.255907</v>
       </c>
       <c r="F34" t="n">
-        <v>0.421474</v>
+        <v>0.423746</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248061</v>
+        <v>0.246139</v>
       </c>
       <c r="C35" t="n">
-        <v>0.424348</v>
+        <v>0.419035</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408812</v>
+        <v>0.408258</v>
       </c>
       <c r="E35" t="n">
-        <v>0.251925</v>
+        <v>0.255263</v>
       </c>
       <c r="F35" t="n">
-        <v>0.419992</v>
+        <v>0.421662</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232523</v>
+        <v>0.231389</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413419</v>
+        <v>0.409603</v>
       </c>
       <c r="D36" t="n">
-        <v>0.406063</v>
+        <v>0.408382</v>
       </c>
       <c r="E36" t="n">
-        <v>0.25001</v>
+        <v>0.254643</v>
       </c>
       <c r="F36" t="n">
-        <v>0.418897</v>
+        <v>0.42043</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216938</v>
+        <v>0.219737</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402063</v>
+        <v>0.40069</v>
       </c>
       <c r="D37" t="n">
-        <v>0.407414</v>
+        <v>0.40902</v>
       </c>
       <c r="E37" t="n">
-        <v>0.266983</v>
+        <v>0.26961</v>
       </c>
       <c r="F37" t="n">
-        <v>0.43393</v>
+        <v>0.435454</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354916</v>
+        <v>0.354622</v>
       </c>
       <c r="C38" t="n">
-        <v>0.527362</v>
+        <v>0.534906</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40558</v>
+        <v>0.407652</v>
       </c>
       <c r="E38" t="n">
-        <v>0.265021</v>
+        <v>0.267805</v>
       </c>
       <c r="F38" t="n">
-        <v>0.431998</v>
+        <v>0.433836</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.349682</v>
+        <v>0.350539</v>
       </c>
       <c r="C39" t="n">
-        <v>0.521707</v>
+        <v>0.527643</v>
       </c>
       <c r="D39" t="n">
-        <v>0.405583</v>
+        <v>0.408016</v>
       </c>
       <c r="E39" t="n">
-        <v>0.261299</v>
+        <v>0.264644</v>
       </c>
       <c r="F39" t="n">
-        <v>0.430479</v>
+        <v>0.432703</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.344015</v>
+        <v>0.344787</v>
       </c>
       <c r="C40" t="n">
-        <v>0.51579</v>
+        <v>0.520852</v>
       </c>
       <c r="D40" t="n">
-        <v>0.406369</v>
+        <v>0.408078</v>
       </c>
       <c r="E40" t="n">
-        <v>0.260584</v>
+        <v>0.26403</v>
       </c>
       <c r="F40" t="n">
-        <v>0.430525</v>
+        <v>0.43207</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.336977</v>
+        <v>0.336741</v>
       </c>
       <c r="C41" t="n">
-        <v>0.509339</v>
+        <v>0.511602</v>
       </c>
       <c r="D41" t="n">
-        <v>0.405752</v>
+        <v>0.407806</v>
       </c>
       <c r="E41" t="n">
-        <v>0.259295</v>
+        <v>0.262445</v>
       </c>
       <c r="F41" t="n">
-        <v>0.428787</v>
+        <v>0.43076</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32994</v>
+        <v>0.328768</v>
       </c>
       <c r="C42" t="n">
-        <v>0.497843</v>
+        <v>0.506907</v>
       </c>
       <c r="D42" t="n">
-        <v>0.406457</v>
+        <v>0.407526</v>
       </c>
       <c r="E42" t="n">
-        <v>0.257978</v>
+        <v>0.2618</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427963</v>
+        <v>0.429472</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320957</v>
+        <v>0.320308</v>
       </c>
       <c r="C43" t="n">
-        <v>0.488709</v>
+        <v>0.495313</v>
       </c>
       <c r="D43" t="n">
-        <v>0.407437</v>
+        <v>0.410211</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256853</v>
+        <v>0.260539</v>
       </c>
       <c r="F43" t="n">
-        <v>0.426466</v>
+        <v>0.428299</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312324</v>
+        <v>0.310784</v>
       </c>
       <c r="C44" t="n">
-        <v>0.485232</v>
+        <v>0.48446</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408152</v>
+        <v>0.409562</v>
       </c>
       <c r="E44" t="n">
-        <v>0.255846</v>
+        <v>0.259471</v>
       </c>
       <c r="F44" t="n">
-        <v>0.42571</v>
+        <v>0.42747</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301906</v>
+        <v>0.301053</v>
       </c>
       <c r="C45" t="n">
-        <v>0.474197</v>
+        <v>0.478384</v>
       </c>
       <c r="D45" t="n">
-        <v>0.410196</v>
+        <v>0.410203</v>
       </c>
       <c r="E45" t="n">
-        <v>0.254129</v>
+        <v>0.257984</v>
       </c>
       <c r="F45" t="n">
-        <v>0.424896</v>
+        <v>0.426197</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290698</v>
+        <v>0.290079</v>
       </c>
       <c r="C46" t="n">
-        <v>0.467157</v>
+        <v>0.466679</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410086</v>
+        <v>0.410215</v>
       </c>
       <c r="E46" t="n">
-        <v>0.252888</v>
+        <v>0.257115</v>
       </c>
       <c r="F46" t="n">
-        <v>0.423295</v>
+        <v>0.424828</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279796</v>
+        <v>0.278427</v>
       </c>
       <c r="C47" t="n">
-        <v>0.456765</v>
+        <v>0.455768</v>
       </c>
       <c r="D47" t="n">
-        <v>0.411567</v>
+        <v>0.410825</v>
       </c>
       <c r="E47" t="n">
-        <v>0.253138</v>
+        <v>0.257141</v>
       </c>
       <c r="F47" t="n">
-        <v>0.422717</v>
+        <v>0.424155</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267189</v>
+        <v>0.265986</v>
       </c>
       <c r="C48" t="n">
-        <v>0.444733</v>
+        <v>0.44408</v>
       </c>
       <c r="D48" t="n">
-        <v>0.411921</v>
+        <v>0.4127</v>
       </c>
       <c r="E48" t="n">
-        <v>0.252393</v>
+        <v>0.255927</v>
       </c>
       <c r="F48" t="n">
-        <v>0.422157</v>
+        <v>0.423751</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253292</v>
+        <v>0.252671</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431035</v>
+        <v>0.42848</v>
       </c>
       <c r="D49" t="n">
-        <v>0.413776</v>
+        <v>0.412419</v>
       </c>
       <c r="E49" t="n">
-        <v>0.25286</v>
+        <v>0.255789</v>
       </c>
       <c r="F49" t="n">
-        <v>0.421617</v>
+        <v>0.423359</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238716</v>
+        <v>0.237814</v>
       </c>
       <c r="C50" t="n">
-        <v>0.418151</v>
+        <v>0.418834</v>
       </c>
       <c r="D50" t="n">
-        <v>0.423173</v>
+        <v>0.413729</v>
       </c>
       <c r="E50" t="n">
-        <v>0.252545</v>
+        <v>0.254869</v>
       </c>
       <c r="F50" t="n">
-        <v>0.420947</v>
+        <v>0.421583</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222737</v>
+        <v>0.223752</v>
       </c>
       <c r="C51" t="n">
-        <v>0.402754</v>
+        <v>0.399006</v>
       </c>
       <c r="D51" t="n">
-        <v>0.411879</v>
+        <v>0.414068</v>
       </c>
       <c r="E51" t="n">
-        <v>0.267634</v>
+        <v>0.270171</v>
       </c>
       <c r="F51" t="n">
-        <v>0.434643</v>
+        <v>0.436403</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207277</v>
+        <v>0.205211</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384032</v>
+        <v>0.377976</v>
       </c>
       <c r="D52" t="n">
-        <v>0.411951</v>
+        <v>0.415325</v>
       </c>
       <c r="E52" t="n">
-        <v>0.265018</v>
+        <v>0.268549</v>
       </c>
       <c r="F52" t="n">
-        <v>0.433929</v>
+        <v>0.434908</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353548</v>
+        <v>0.353446</v>
       </c>
       <c r="C53" t="n">
-        <v>0.523112</v>
+        <v>0.534453</v>
       </c>
       <c r="D53" t="n">
-        <v>0.412016</v>
+        <v>0.41241</v>
       </c>
       <c r="E53" t="n">
-        <v>0.262834</v>
+        <v>0.265973</v>
       </c>
       <c r="F53" t="n">
-        <v>0.432263</v>
+        <v>0.433143</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347278</v>
+        <v>0.348634</v>
       </c>
       <c r="C54" t="n">
-        <v>0.517844</v>
+        <v>0.528658</v>
       </c>
       <c r="D54" t="n">
-        <v>0.413923</v>
+        <v>0.41486</v>
       </c>
       <c r="E54" t="n">
-        <v>0.260253</v>
+        <v>0.263907</v>
       </c>
       <c r="F54" t="n">
-        <v>0.431043</v>
+        <v>0.432024</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34099</v>
+        <v>0.342186</v>
       </c>
       <c r="C55" t="n">
-        <v>0.51564</v>
+        <v>0.521448</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41548</v>
+        <v>0.416156</v>
       </c>
       <c r="E55" t="n">
-        <v>0.258877</v>
+        <v>0.262765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.429116</v>
+        <v>0.430729</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334234</v>
+        <v>0.3331</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.518764</v>
       </c>
       <c r="D56" t="n">
-        <v>0.417043</v>
+        <v>0.41443</v>
       </c>
       <c r="E56" t="n">
-        <v>0.258167</v>
+        <v>0.261554</v>
       </c>
       <c r="F56" t="n">
-        <v>0.428223</v>
+        <v>0.429013</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325864</v>
+        <v>0.325314</v>
       </c>
       <c r="C57" t="n">
-        <v>0.504354</v>
+        <v>0.517468</v>
       </c>
       <c r="D57" t="n">
-        <v>0.417269</v>
+        <v>0.416684</v>
       </c>
       <c r="E57" t="n">
-        <v>0.256948</v>
+        <v>0.260479</v>
       </c>
       <c r="F57" t="n">
-        <v>0.427294</v>
+        <v>0.428183</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316934</v>
+        <v>0.315692</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503741</v>
+        <v>0.498356</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420621</v>
+        <v>0.421414</v>
       </c>
       <c r="E58" t="n">
-        <v>0.256264</v>
+        <v>0.259636</v>
       </c>
       <c r="F58" t="n">
-        <v>0.426081</v>
+        <v>0.427913</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306967</v>
+        <v>0.305763</v>
       </c>
       <c r="C59" t="n">
-        <v>0.488419</v>
+        <v>0.487492</v>
       </c>
       <c r="D59" t="n">
-        <v>0.42225</v>
+        <v>0.419378</v>
       </c>
       <c r="E59" t="n">
-        <v>0.255159</v>
+        <v>0.258837</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425155</v>
+        <v>0.426562</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296627</v>
+        <v>0.295033</v>
       </c>
       <c r="C60" t="n">
-        <v>0.489037</v>
+        <v>0.489214</v>
       </c>
       <c r="D60" t="n">
-        <v>0.425164</v>
+        <v>0.42018</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254187</v>
+        <v>0.258012</v>
       </c>
       <c r="F60" t="n">
-        <v>0.424604</v>
+        <v>0.425995</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285073</v>
+        <v>0.284149</v>
       </c>
       <c r="C61" t="n">
-        <v>0.480878</v>
+        <v>0.48135</v>
       </c>
       <c r="D61" t="n">
-        <v>0.424396</v>
+        <v>0.426589</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253912</v>
+        <v>0.257556</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4238</v>
+        <v>0.425368</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272103</v>
+        <v>0.271595</v>
       </c>
       <c r="C62" t="n">
-        <v>0.46733</v>
+        <v>0.458578</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42918</v>
+        <v>0.427048</v>
       </c>
       <c r="E62" t="n">
-        <v>0.252735</v>
+        <v>0.256844</v>
       </c>
       <c r="F62" t="n">
-        <v>0.422961</v>
+        <v>0.424294</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25853</v>
+        <v>0.257644</v>
       </c>
       <c r="C63" t="n">
-        <v>0.439923</v>
+        <v>0.451004</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433539</v>
+        <v>0.432389</v>
       </c>
       <c r="E63" t="n">
-        <v>0.251931</v>
+        <v>0.256134</v>
       </c>
       <c r="F63" t="n">
-        <v>0.421994</v>
+        <v>0.423976</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244292</v>
+        <v>0.243296</v>
       </c>
       <c r="C64" t="n">
-        <v>0.455376</v>
+        <v>0.446232</v>
       </c>
       <c r="D64" t="n">
-        <v>0.460964</v>
+        <v>0.470132</v>
       </c>
       <c r="E64" t="n">
-        <v>0.252713</v>
+        <v>0.255191</v>
       </c>
       <c r="F64" t="n">
-        <v>0.421413</v>
+        <v>0.42346</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229266</v>
+        <v>0.228789</v>
       </c>
       <c r="C65" t="n">
-        <v>0.433808</v>
+        <v>0.451474</v>
       </c>
       <c r="D65" t="n">
-        <v>0.471598</v>
+        <v>0.478365</v>
       </c>
       <c r="E65" t="n">
-        <v>0.251349</v>
+        <v>0.255228</v>
       </c>
       <c r="F65" t="n">
-        <v>0.421221</v>
+        <v>0.422812</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212145</v>
+        <v>0.211465</v>
       </c>
       <c r="C66" t="n">
-        <v>0.418068</v>
+        <v>0.452591</v>
       </c>
       <c r="D66" t="n">
-        <v>0.475838</v>
+        <v>0.486508</v>
       </c>
       <c r="E66" t="n">
-        <v>0.265408</v>
+        <v>0.268577</v>
       </c>
       <c r="F66" t="n">
-        <v>0.433777</v>
+        <v>0.435107</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35586</v>
+        <v>0.356253</v>
       </c>
       <c r="C67" t="n">
-        <v>0.565989</v>
+        <v>0.589344</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483297</v>
+        <v>0.490062</v>
       </c>
       <c r="E67" t="n">
-        <v>0.263557</v>
+        <v>0.266623</v>
       </c>
       <c r="F67" t="n">
-        <v>0.432274</v>
+        <v>0.433587</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350277</v>
+        <v>0.350614</v>
       </c>
       <c r="C68" t="n">
-        <v>0.569313</v>
+        <v>0.58489</v>
       </c>
       <c r="D68" t="n">
-        <v>0.487535</v>
+        <v>0.494059</v>
       </c>
       <c r="E68" t="n">
-        <v>0.261756</v>
+        <v>0.264899</v>
       </c>
       <c r="F68" t="n">
-        <v>0.431269</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343883</v>
+        <v>0.344024</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5471279999999999</v>
+        <v>0.5600309999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.497936</v>
+        <v>0.497837</v>
       </c>
       <c r="E69" t="n">
-        <v>0.259687</v>
+        <v>0.263395</v>
       </c>
       <c r="F69" t="n">
-        <v>0.429816</v>
+        <v>0.431123</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336246</v>
+        <v>0.336665</v>
       </c>
       <c r="C70" t="n">
-        <v>0.559566</v>
+        <v>0.60607</v>
       </c>
       <c r="D70" t="n">
-        <v>0.497974</v>
+        <v>0.52234</v>
       </c>
       <c r="E70" t="n">
-        <v>0.258524</v>
+        <v>0.26209</v>
       </c>
       <c r="F70" t="n">
-        <v>0.428882</v>
+        <v>0.430007</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328472</v>
+        <v>0.32813</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505322</v>
+        <v>0.609083</v>
       </c>
       <c r="D71" t="n">
-        <v>0.523675</v>
+        <v>0.505964</v>
       </c>
       <c r="E71" t="n">
-        <v>0.257513</v>
+        <v>0.261127</v>
       </c>
       <c r="F71" t="n">
-        <v>0.427764</v>
+        <v>0.429004</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319039</v>
+        <v>0.318895</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5452399999999999</v>
+        <v>0.592811</v>
       </c>
       <c r="D72" t="n">
-        <v>0.511529</v>
+        <v>0.531969</v>
       </c>
       <c r="E72" t="n">
-        <v>0.256439</v>
+        <v>0.259996</v>
       </c>
       <c r="F72" t="n">
-        <v>0.426826</v>
+        <v>0.427544</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309491</v>
+        <v>0.308922</v>
       </c>
       <c r="C73" t="n">
-        <v>0.527386</v>
+        <v>0.603388</v>
       </c>
       <c r="D73" t="n">
-        <v>0.515375</v>
+        <v>0.533786</v>
       </c>
       <c r="E73" t="n">
-        <v>0.255282</v>
+        <v>0.259007</v>
       </c>
       <c r="F73" t="n">
-        <v>0.425633</v>
+        <v>0.426849</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298991</v>
+        <v>0.298407</v>
       </c>
       <c r="C74" t="n">
-        <v>0.52323</v>
+        <v>0.547332</v>
       </c>
       <c r="D74" t="n">
-        <v>0.516987</v>
+        <v>0.52075</v>
       </c>
       <c r="E74" t="n">
-        <v>0.254335</v>
+        <v>0.257991</v>
       </c>
       <c r="F74" t="n">
-        <v>0.424887</v>
+        <v>0.425908</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288126</v>
+        <v>0.286986</v>
       </c>
       <c r="C75" t="n">
-        <v>0.525216</v>
+        <v>0.5484329999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.520607</v>
+        <v>0.521333</v>
       </c>
       <c r="E75" t="n">
-        <v>0.254359</v>
+        <v>0.257143</v>
       </c>
       <c r="F75" t="n">
-        <v>0.424119</v>
+        <v>0.424913</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275559</v>
+        <v>0.274512</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5180129999999999</v>
+        <v>0.561446</v>
       </c>
       <c r="D76" t="n">
-        <v>0.518552</v>
+        <v>0.522593</v>
       </c>
       <c r="E76" t="n">
-        <v>0.253056</v>
+        <v>0.256524</v>
       </c>
       <c r="F76" t="n">
-        <v>0.423229</v>
+        <v>0.424247</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26262</v>
+        <v>0.261296</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536555</v>
+        <v>0.526</v>
       </c>
       <c r="D77" t="n">
-        <v>0.518828</v>
+        <v>0.522401</v>
       </c>
       <c r="E77" t="n">
-        <v>0.252668</v>
+        <v>0.255882</v>
       </c>
       <c r="F77" t="n">
-        <v>0.422675</v>
+        <v>0.423412</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248838</v>
+        <v>0.247652</v>
       </c>
       <c r="C78" t="n">
-        <v>0.491122</v>
+        <v>0.557261</v>
       </c>
       <c r="D78" t="n">
-        <v>0.594841</v>
+        <v>0.58505</v>
       </c>
       <c r="E78" t="n">
-        <v>0.252348</v>
+        <v>0.255594</v>
       </c>
       <c r="F78" t="n">
-        <v>0.421754</v>
+        <v>0.422711</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233392</v>
+        <v>0.232082</v>
       </c>
       <c r="C79" t="n">
-        <v>0.487405</v>
+        <v>0.420776</v>
       </c>
       <c r="D79" t="n">
-        <v>0.585117</v>
+        <v>0.6415</v>
       </c>
       <c r="E79" t="n">
-        <v>0.252156</v>
+        <v>0.255347</v>
       </c>
       <c r="F79" t="n">
-        <v>0.420974</v>
+        <v>0.422406</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216639</v>
+        <v>0.215356</v>
       </c>
       <c r="C80" t="n">
-        <v>0.519826</v>
+        <v>0.428217</v>
       </c>
       <c r="D80" t="n">
-        <v>0.598462</v>
+        <v>0.589579</v>
       </c>
       <c r="E80" t="n">
-        <v>0.266162</v>
+        <v>0.269768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.434136</v>
+        <v>0.435649</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357053</v>
+        <v>0.357695</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6125389999999999</v>
+        <v>0.653544</v>
       </c>
       <c r="D81" t="n">
-        <v>0.590319</v>
+        <v>0.60477</v>
       </c>
       <c r="E81" t="n">
-        <v>0.263854</v>
+        <v>0.267363</v>
       </c>
       <c r="F81" t="n">
-        <v>0.432836</v>
+        <v>0.434287</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351502</v>
+        <v>0.352017</v>
       </c>
       <c r="C82" t="n">
-        <v>0.597276</v>
+        <v>0.594817</v>
       </c>
       <c r="D82" t="n">
-        <v>0.585214</v>
+        <v>0.593676</v>
       </c>
       <c r="E82" t="n">
-        <v>0.261614</v>
+        <v>0.265238</v>
       </c>
       <c r="F82" t="n">
-        <v>0.431366</v>
+        <v>0.432951</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345866</v>
+        <v>0.345767</v>
       </c>
       <c r="C83" t="n">
-        <v>0.579887</v>
+        <v>0.631961</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5817290000000001</v>
+        <v>0.635297</v>
       </c>
       <c r="E83" t="n">
-        <v>0.260054</v>
+        <v>0.263824</v>
       </c>
       <c r="F83" t="n">
-        <v>0.430178</v>
+        <v>0.431407</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338659</v>
+        <v>0.339268</v>
       </c>
       <c r="C84" t="n">
-        <v>0.635254</v>
+        <v>0.6152300000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5901380000000001</v>
+        <v>0.585732</v>
       </c>
       <c r="E84" t="n">
-        <v>0.258832</v>
+        <v>0.262646</v>
       </c>
       <c r="F84" t="n">
-        <v>0.429037</v>
+        <v>0.430383</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330791</v>
+        <v>0.331012</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5973889999999999</v>
+        <v>0.6175040000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.574226</v>
+        <v>0.586763</v>
       </c>
       <c r="E85" t="n">
-        <v>0.257741</v>
+        <v>0.261748</v>
       </c>
       <c r="F85" t="n">
-        <v>0.428068</v>
+        <v>0.429417</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321623</v>
+        <v>0.322541</v>
       </c>
       <c r="C86" t="n">
-        <v>0.655758</v>
+        <v>0.58452</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5772</v>
+        <v>0.579367</v>
       </c>
       <c r="E86" t="n">
-        <v>0.256441</v>
+        <v>0.260349</v>
       </c>
       <c r="F86" t="n">
-        <v>0.426859</v>
+        <v>0.428157</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.312285</v>
+        <v>0.31248</v>
       </c>
       <c r="C87" t="n">
-        <v>0.605693</v>
+        <v>0.541438</v>
       </c>
       <c r="D87" t="n">
-        <v>0.573275</v>
+        <v>0.574339</v>
       </c>
       <c r="E87" t="n">
-        <v>0.255536</v>
+        <v>0.259489</v>
       </c>
       <c r="F87" t="n">
-        <v>0.425938</v>
+        <v>0.427219</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>0.301885</v>
       </c>
       <c r="C88" t="n">
-        <v>0.512067</v>
+        <v>0.605851</v>
       </c>
       <c r="D88" t="n">
-        <v>0.566455</v>
+        <v>0.571766</v>
       </c>
       <c r="E88" t="n">
-        <v>0.254444</v>
+        <v>0.258499</v>
       </c>
       <c r="F88" t="n">
-        <v>0.425617</v>
+        <v>0.426402</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.288897</v>
+        <v>0.290952</v>
       </c>
       <c r="C89" t="n">
-        <v>0.529232</v>
+        <v>0.586504</v>
       </c>
       <c r="D89" t="n">
-        <v>0.565269</v>
+        <v>0.567904</v>
       </c>
       <c r="E89" t="n">
-        <v>0.254463</v>
+        <v>0.257592</v>
       </c>
       <c r="F89" t="n">
-        <v>0.424419</v>
+        <v>0.425997</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276543</v>
+        <v>0.279459</v>
       </c>
       <c r="C90" t="n">
-        <v>0.552091</v>
+        <v>0.541786</v>
       </c>
       <c r="D90" t="n">
-        <v>0.560454</v>
+        <v>0.563781</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253388</v>
+        <v>0.256716</v>
       </c>
       <c r="F90" t="n">
-        <v>0.423621</v>
+        <v>0.425211</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2635</v>
+        <v>0.266728</v>
       </c>
       <c r="C91" t="n">
-        <v>0.494801</v>
+        <v>0.556303</v>
       </c>
       <c r="D91" t="n">
-        <v>0.556939</v>
+        <v>0.5598610000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.25267</v>
+        <v>0.256112</v>
       </c>
       <c r="F91" t="n">
-        <v>0.422698</v>
+        <v>0.42417</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24963</v>
+        <v>0.252736</v>
       </c>
       <c r="C92" t="n">
-        <v>0.57533</v>
+        <v>0.458305</v>
       </c>
       <c r="D92" t="n">
-        <v>0.609942</v>
+        <v>0.610386</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252008</v>
+        <v>0.255435</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421994</v>
+        <v>0.423538</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234533</v>
+        <v>0.238352</v>
       </c>
       <c r="C93" t="n">
-        <v>0.475719</v>
+        <v>0.473375</v>
       </c>
       <c r="D93" t="n">
-        <v>0.608312</v>
+        <v>0.611443</v>
       </c>
       <c r="E93" t="n">
-        <v>0.251867</v>
+        <v>0.255313</v>
       </c>
       <c r="F93" t="n">
-        <v>0.421527</v>
+        <v>0.422944</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.218409</v>
+        <v>0.221496</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5158430000000001</v>
+        <v>0.534928</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6044</v>
+        <v>0.610359</v>
       </c>
       <c r="E94" t="n">
-        <v>0.26688</v>
+        <v>0.270186</v>
       </c>
       <c r="F94" t="n">
-        <v>0.434164</v>
+        <v>0.437322</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35895</v>
+        <v>0.358825</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5288</v>
+        <v>0.5584209999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59317</v>
+        <v>0.593895</v>
       </c>
       <c r="E95" t="n">
-        <v>0.264204</v>
+        <v>0.267557</v>
       </c>
       <c r="F95" t="n">
-        <v>0.432965</v>
+        <v>0.434896</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354263</v>
+        <v>0.353131</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640159</v>
+        <v>0.680847</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5896</v>
+        <v>0.5953850000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.262146</v>
+        <v>0.265686</v>
       </c>
       <c r="F96" t="n">
-        <v>0.431681</v>
+        <v>0.433534</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347988</v>
+        <v>0.346807</v>
       </c>
       <c r="C97" t="n">
-        <v>0.655469</v>
+        <v>0.69351</v>
       </c>
       <c r="D97" t="n">
-        <v>0.587707</v>
+        <v>0.594155</v>
       </c>
       <c r="E97" t="n">
-        <v>0.260519</v>
+        <v>0.264442</v>
       </c>
       <c r="F97" t="n">
-        <v>0.430557</v>
+        <v>0.432452</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340727</v>
+        <v>0.339658</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6403720000000001</v>
+        <v>0.642575</v>
       </c>
       <c r="D98" t="n">
-        <v>0.580935</v>
+        <v>0.585875</v>
       </c>
       <c r="E98" t="n">
-        <v>0.259163</v>
+        <v>0.262874</v>
       </c>
       <c r="F98" t="n">
-        <v>0.429233</v>
+        <v>0.431085</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332988</v>
+        <v>0.332839</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582647</v>
+        <v>0.641388</v>
       </c>
       <c r="D99" t="n">
-        <v>0.57761</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.257818</v>
+        <v>0.261513</v>
       </c>
       <c r="F99" t="n">
-        <v>0.428082</v>
+        <v>0.429965</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.324847</v>
+        <v>0.324391</v>
       </c>
       <c r="C100" t="n">
-        <v>0.642421</v>
+        <v>0.54172</v>
       </c>
       <c r="D100" t="n">
-        <v>0.566479</v>
+        <v>0.573242</v>
       </c>
       <c r="E100" t="n">
-        <v>0.256584</v>
+        <v>0.260319</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427372</v>
+        <v>0.42881</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31476</v>
+        <v>0.315188</v>
       </c>
       <c r="C101" t="n">
-        <v>0.540256</v>
+        <v>0.529421</v>
       </c>
       <c r="D101" t="n">
-        <v>0.558815</v>
+        <v>0.570611</v>
       </c>
       <c r="E101" t="n">
-        <v>0.255407</v>
+        <v>0.259365</v>
       </c>
       <c r="F101" t="n">
-        <v>0.426392</v>
+        <v>0.427891</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304237</v>
+        <v>0.304771</v>
       </c>
       <c r="C102" t="n">
-        <v>0.616721</v>
+        <v>0.564134</v>
       </c>
       <c r="D102" t="n">
-        <v>0.556434</v>
+        <v>0.5622509999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.254668</v>
+        <v>0.258425</v>
       </c>
       <c r="F102" t="n">
-        <v>0.425192</v>
+        <v>0.426797</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293687</v>
+        <v>0.293693</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585662</v>
+        <v>0.617467</v>
       </c>
       <c r="D103" t="n">
-        <v>0.553164</v>
+        <v>0.559141</v>
       </c>
       <c r="E103" t="n">
-        <v>0.253941</v>
+        <v>0.25755</v>
       </c>
       <c r="F103" t="n">
-        <v>0.424328</v>
+        <v>0.425977</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281387</v>
+        <v>0.282166</v>
       </c>
       <c r="C104" t="n">
-        <v>0.584964</v>
+        <v>0.55163</v>
       </c>
       <c r="D104" t="n">
-        <v>0.552415</v>
+        <v>0.554523</v>
       </c>
       <c r="E104" t="n">
-        <v>0.253885</v>
+        <v>0.257629</v>
       </c>
       <c r="F104" t="n">
-        <v>0.423457</v>
+        <v>0.425215</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269222</v>
+        <v>0.269674</v>
       </c>
       <c r="C105" t="n">
-        <v>0.540002</v>
+        <v>0.572474</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54447</v>
+        <v>0.547079</v>
       </c>
       <c r="E105" t="n">
-        <v>0.253541</v>
+        <v>0.257034</v>
       </c>
       <c r="F105" t="n">
-        <v>0.423044</v>
+        <v>0.424481</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255168</v>
+        <v>0.256258</v>
       </c>
       <c r="C106" t="n">
-        <v>0.53176</v>
+        <v>0.498361</v>
       </c>
       <c r="D106" t="n">
-        <v>0.540809</v>
+        <v>0.546142</v>
       </c>
       <c r="E106" t="n">
-        <v>0.252969</v>
+        <v>0.256433</v>
       </c>
       <c r="F106" t="n">
-        <v>0.422294</v>
+        <v>0.423659</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240048</v>
+        <v>0.241863</v>
       </c>
       <c r="C107" t="n">
-        <v>0.51006</v>
+        <v>0.465352</v>
       </c>
       <c r="D107" t="n">
-        <v>0.582974</v>
+        <v>0.593896</v>
       </c>
       <c r="E107" t="n">
-        <v>0.25222</v>
+        <v>0.255732</v>
       </c>
       <c r="F107" t="n">
-        <v>0.421557</v>
+        <v>0.423013</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223883</v>
+        <v>0.223729</v>
       </c>
       <c r="C108" t="n">
-        <v>0.446561</v>
+        <v>0.461457</v>
       </c>
       <c r="D108" t="n">
-        <v>0.606843</v>
+        <v>0.59156</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267997</v>
+        <v>0.270404</v>
       </c>
       <c r="F108" t="n">
-        <v>0.434648</v>
+        <v>0.436371</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207211</v>
+        <v>0.205277</v>
       </c>
       <c r="C109" t="n">
-        <v>0.434367</v>
+        <v>0.473094</v>
       </c>
       <c r="D109" t="n">
-        <v>0.603374</v>
+        <v>0.5922269999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.265088</v>
+        <v>0.268308</v>
       </c>
       <c r="F109" t="n">
-        <v>0.433841</v>
+        <v>0.434822</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355352</v>
+        <v>0.355253</v>
       </c>
       <c r="C110" t="n">
-        <v>0.525075</v>
+        <v>0.542302</v>
       </c>
       <c r="D110" t="n">
-        <v>0.580456</v>
+        <v>0.589364</v>
       </c>
       <c r="E110" t="n">
-        <v>0.263112</v>
+        <v>0.266335</v>
       </c>
       <c r="F110" t="n">
-        <v>0.43194</v>
+        <v>0.433428</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349173</v>
+        <v>0.349114</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574663</v>
+        <v>0.642719</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579811</v>
+        <v>0.585387</v>
       </c>
       <c r="E111" t="n">
-        <v>0.261388</v>
+        <v>0.264192</v>
       </c>
       <c r="F111" t="n">
-        <v>0.430684</v>
+        <v>0.432145</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342399</v>
+        <v>0.342355</v>
       </c>
       <c r="C112" t="n">
-        <v>0.540157</v>
+        <v>0.577207</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5805169999999999</v>
+        <v>0.5942269999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259687</v>
+        <v>0.262853</v>
       </c>
       <c r="F112" t="n">
-        <v>0.429595</v>
+        <v>0.431026</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334975</v>
+        <v>0.335028</v>
       </c>
       <c r="C113" t="n">
-        <v>0.663407</v>
+        <v>0.637591</v>
       </c>
       <c r="D113" t="n">
-        <v>0.566317</v>
+        <v>0.587687</v>
       </c>
       <c r="E113" t="n">
-        <v>0.258222</v>
+        <v>0.261593</v>
       </c>
       <c r="F113" t="n">
-        <v>0.42835</v>
+        <v>0.429748</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326639</v>
+        <v>0.326364</v>
       </c>
       <c r="C114" t="n">
-        <v>0.624499</v>
+        <v>0.552663</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562239</v>
+        <v>0.571307</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256929</v>
+        <v>0.260432</v>
       </c>
       <c r="F114" t="n">
-        <v>0.427223</v>
+        <v>0.428612</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317014</v>
+        <v>0.317006</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580412</v>
+        <v>0.582295</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5581390000000001</v>
+        <v>0.565344</v>
       </c>
       <c r="E115" t="n">
-        <v>0.255907</v>
+        <v>0.259395</v>
       </c>
       <c r="F115" t="n">
-        <v>0.426399</v>
+        <v>0.427586</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305678</v>
+        <v>0.307527</v>
       </c>
       <c r="C116" t="n">
-        <v>0.610474</v>
+        <v>0.522112</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5554559999999999</v>
+        <v>0.565848</v>
       </c>
       <c r="E116" t="n">
-        <v>0.254961</v>
+        <v>0.258826</v>
       </c>
       <c r="F116" t="n">
-        <v>0.425672</v>
+        <v>0.426722</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294874</v>
+        <v>0.296777</v>
       </c>
       <c r="C117" t="n">
-        <v>0.552466</v>
+        <v>0.550845</v>
       </c>
       <c r="D117" t="n">
-        <v>0.55025</v>
+        <v>0.559569</v>
       </c>
       <c r="E117" t="n">
-        <v>0.254053</v>
+        <v>0.25778</v>
       </c>
       <c r="F117" t="n">
-        <v>0.424464</v>
+        <v>0.425762</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284366</v>
+        <v>0.285504</v>
       </c>
       <c r="C118" t="n">
-        <v>0.510684</v>
+        <v>0.526971</v>
       </c>
       <c r="D118" t="n">
-        <v>0.546417</v>
+        <v>0.55058</v>
       </c>
       <c r="E118" t="n">
-        <v>0.253813</v>
+        <v>0.257236</v>
       </c>
       <c r="F118" t="n">
-        <v>0.423646</v>
+        <v>0.424941</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272129</v>
+        <v>0.273036</v>
       </c>
       <c r="C119" t="n">
-        <v>0.572644</v>
+        <v>0.555441</v>
       </c>
       <c r="D119" t="n">
-        <v>0.543798</v>
+        <v>0.546567</v>
       </c>
       <c r="E119" t="n">
-        <v>0.25315</v>
+        <v>0.256845</v>
       </c>
       <c r="F119" t="n">
-        <v>0.42285</v>
+        <v>0.424094</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259089</v>
+        <v>0.259634</v>
       </c>
       <c r="C120" t="n">
-        <v>0.479136</v>
+        <v>0.542118</v>
       </c>
       <c r="D120" t="n">
-        <v>0.539963</v>
+        <v>0.5427070000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.252672</v>
+        <v>0.256317</v>
       </c>
       <c r="F120" t="n">
-        <v>0.422311</v>
+        <v>0.423422</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244325</v>
+        <v>0.244848</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.502631</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598661</v>
+        <v>0.627628</v>
       </c>
       <c r="E121" t="n">
-        <v>0.252285</v>
+        <v>0.25564</v>
       </c>
       <c r="F121" t="n">
-        <v>0.421722</v>
+        <v>0.42289</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228392</v>
+        <v>0.229505</v>
       </c>
       <c r="C122" t="n">
-        <v>0.503529</v>
+        <v>0.43183</v>
       </c>
       <c r="D122" t="n">
-        <v>0.618057</v>
+        <v>0.6248089999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>0.251741</v>
+        <v>0.255294</v>
       </c>
       <c r="F122" t="n">
-        <v>0.420803</v>
+        <v>0.422248</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.210992</v>
+        <v>0.212573</v>
       </c>
       <c r="C123" t="n">
-        <v>0.447354</v>
+        <v>0.43033</v>
       </c>
       <c r="D123" t="n">
-        <v>0.594201</v>
+        <v>0.620173</v>
       </c>
       <c r="E123" t="n">
-        <v>0.264974</v>
+        <v>0.268414</v>
       </c>
       <c r="F123" t="n">
-        <v>0.433346</v>
+        <v>0.435194</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356909</v>
+        <v>0.356183</v>
       </c>
       <c r="C124" t="n">
-        <v>0.537801</v>
+        <v>0.548297</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6078170000000001</v>
+        <v>0.614997</v>
       </c>
       <c r="E124" t="n">
-        <v>0.262803</v>
+        <v>0.266138</v>
       </c>
       <c r="F124" t="n">
-        <v>0.43205</v>
+        <v>0.43366</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350761</v>
+        <v>0.350083</v>
       </c>
       <c r="C125" t="n">
-        <v>0.634008</v>
+        <v>0.712542</v>
       </c>
       <c r="D125" t="n">
-        <v>0.602958</v>
+        <v>0.608813</v>
       </c>
       <c r="E125" t="n">
-        <v>0.261062</v>
+        <v>0.264432</v>
       </c>
       <c r="F125" t="n">
-        <v>0.430886</v>
+        <v>0.432386</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.34441</v>
+        <v>0.343637</v>
       </c>
       <c r="C126" t="n">
-        <v>0.553411</v>
+        <v>0.590587</v>
       </c>
       <c r="D126" t="n">
-        <v>0.597371</v>
+        <v>0.603112</v>
       </c>
       <c r="E126" t="n">
-        <v>0.259709</v>
+        <v>0.263017</v>
       </c>
       <c r="F126" t="n">
-        <v>0.429461</v>
+        <v>0.431139</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337109</v>
+        <v>0.336681</v>
       </c>
       <c r="C127" t="n">
-        <v>0.61473</v>
+        <v>0.543485</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593377</v>
+        <v>0.585255</v>
       </c>
       <c r="E127" t="n">
-        <v>0.258387</v>
+        <v>0.261937</v>
       </c>
       <c r="F127" t="n">
-        <v>0.428524</v>
+        <v>0.429937</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328892</v>
+        <v>0.328398</v>
       </c>
       <c r="C128" t="n">
-        <v>0.591591</v>
+        <v>0.561887</v>
       </c>
       <c r="D128" t="n">
-        <v>0.57707</v>
+        <v>0.582372</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257159</v>
+        <v>0.260718</v>
       </c>
       <c r="F128" t="n">
-        <v>0.427321</v>
+        <v>0.4289</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.320021</v>
+        <v>0.319781</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6526960000000001</v>
+        <v>0.512948</v>
       </c>
       <c r="D129" t="n">
-        <v>0.578332</v>
+        <v>0.57509</v>
       </c>
       <c r="E129" t="n">
-        <v>0.25626</v>
+        <v>0.25972</v>
       </c>
       <c r="F129" t="n">
-        <v>0.426314</v>
+        <v>0.427691</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.310661</v>
+        <v>0.310011</v>
       </c>
       <c r="C130" t="n">
-        <v>0.602846</v>
+        <v>0.510168</v>
       </c>
       <c r="D130" t="n">
-        <v>0.56626</v>
+        <v>0.575552</v>
       </c>
       <c r="E130" t="n">
-        <v>0.255324</v>
+        <v>0.258815</v>
       </c>
       <c r="F130" t="n">
-        <v>0.425402</v>
+        <v>0.426765</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.300536</v>
+        <v>0.299869</v>
       </c>
       <c r="C131" t="n">
-        <v>0.577126</v>
+        <v>0.545663</v>
       </c>
       <c r="D131" t="n">
-        <v>0.561171</v>
+        <v>0.565815</v>
       </c>
       <c r="E131" t="n">
-        <v>0.254453</v>
+        <v>0.25801</v>
       </c>
       <c r="F131" t="n">
-        <v>0.424383</v>
+        <v>0.425782</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.289207</v>
+        <v>0.287563</v>
       </c>
       <c r="C132" t="n">
-        <v>0.558079</v>
+        <v>0.529742</v>
       </c>
       <c r="D132" t="n">
-        <v>0.556728</v>
+        <v>0.560777</v>
       </c>
       <c r="E132" t="n">
-        <v>0.253995</v>
+        <v>0.257276</v>
       </c>
       <c r="F132" t="n">
-        <v>0.423727</v>
+        <v>0.425057</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275953</v>
+        <v>0.276238</v>
       </c>
       <c r="C133" t="n">
-        <v>0.574466</v>
+        <v>0.478403</v>
       </c>
       <c r="D133" t="n">
-        <v>0.551732</v>
+        <v>0.553517</v>
       </c>
       <c r="E133" t="n">
-        <v>0.252729</v>
+        <v>0.256698</v>
       </c>
       <c r="F133" t="n">
-        <v>0.422884</v>
+        <v>0.42439</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26246</v>
+        <v>0.262128</v>
       </c>
       <c r="C134" t="n">
-        <v>0.542837</v>
+        <v>0.486591</v>
       </c>
       <c r="D134" t="n">
-        <v>0.546183</v>
+        <v>0.551004</v>
       </c>
       <c r="E134" t="n">
-        <v>0.252506</v>
+        <v>0.256109</v>
       </c>
       <c r="F134" t="n">
-        <v>0.422146</v>
+        <v>0.423574</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248676</v>
+        <v>0.248238</v>
       </c>
       <c r="C135" t="n">
-        <v>0.526803</v>
+        <v>0.505482</v>
       </c>
       <c r="D135" t="n">
-        <v>0.603724</v>
+        <v>0.6137280000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.252212</v>
+        <v>0.255634</v>
       </c>
       <c r="F135" t="n">
-        <v>0.421489</v>
+        <v>0.423029</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23102</v>
+        <v>0.230228</v>
       </c>
       <c r="C136" t="n">
-        <v>0.508982</v>
+        <v>0.427404</v>
       </c>
       <c r="D136" t="n">
-        <v>0.605334</v>
+        <v>0.63024</v>
       </c>
       <c r="E136" t="n">
-        <v>0.251556</v>
+        <v>0.255201</v>
       </c>
       <c r="F136" t="n">
-        <v>0.421484</v>
+        <v>0.422444</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213594</v>
+        <v>0.215812</v>
       </c>
       <c r="C137" t="n">
-        <v>0.489641</v>
+        <v>0.439909</v>
       </c>
       <c r="D137" t="n">
-        <v>0.621842</v>
+        <v>0.628907</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26562</v>
+        <v>0.268769</v>
       </c>
       <c r="F137" t="n">
-        <v>0.433882</v>
+        <v>0.435473</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358002</v>
+        <v>0.357244</v>
       </c>
       <c r="C138" t="n">
-        <v>0.670577</v>
+        <v>0.643869</v>
       </c>
       <c r="D138" t="n">
-        <v>0.598319</v>
+        <v>0.609455</v>
       </c>
       <c r="E138" t="n">
-        <v>0.263426</v>
+        <v>0.266829</v>
       </c>
       <c r="F138" t="n">
-        <v>0.432279</v>
+        <v>0.433899</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3528</v>
+        <v>0.352337</v>
       </c>
       <c r="C139" t="n">
-        <v>0.663311</v>
+        <v>0.666689</v>
       </c>
       <c r="D139" t="n">
-        <v>0.595182</v>
+        <v>0.6061800000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.261745</v>
+        <v>0.265226</v>
       </c>
       <c r="F139" t="n">
-        <v>0.431281</v>
+        <v>0.432754</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346737</v>
+        <v>0.345292</v>
       </c>
       <c r="C140" t="n">
-        <v>0.622059</v>
+        <v>0.616007</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5930029999999999</v>
+        <v>0.597449</v>
       </c>
       <c r="E140" t="n">
-        <v>0.260262</v>
+        <v>0.263699</v>
       </c>
       <c r="F140" t="n">
-        <v>0.429859</v>
+        <v>0.431494</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339249</v>
+        <v>0.338509</v>
       </c>
       <c r="C141" t="n">
-        <v>0.615532</v>
+        <v>0.628231</v>
       </c>
       <c r="D141" t="n">
-        <v>0.59651</v>
+        <v>0.60195</v>
       </c>
       <c r="E141" t="n">
-        <v>0.259026</v>
+        <v>0.262421</v>
       </c>
       <c r="F141" t="n">
-        <v>0.428618</v>
+        <v>0.43014</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331128</v>
+        <v>0.33073</v>
       </c>
       <c r="C142" t="n">
-        <v>0.631863</v>
+        <v>0.521429</v>
       </c>
       <c r="D142" t="n">
-        <v>0.589654</v>
+        <v>0.594594</v>
       </c>
       <c r="E142" t="n">
-        <v>0.257725</v>
+        <v>0.261326</v>
       </c>
       <c r="F142" t="n">
-        <v>0.42757</v>
+        <v>0.428954</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.322484</v>
+        <v>0.321021</v>
       </c>
       <c r="C143" t="n">
-        <v>0.630348</v>
+        <v>0.5236769999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.582334</v>
+        <v>0.586657</v>
       </c>
       <c r="E143" t="n">
-        <v>0.256765</v>
+        <v>0.26021</v>
       </c>
       <c r="F143" t="n">
-        <v>0.426633</v>
+        <v>0.427912</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.282412</v>
+        <v>0.275396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.466002</v>
+        <v>0.459851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.390934</v>
+        <v>0.389291</v>
       </c>
       <c r="E2" t="n">
-        <v>0.226997</v>
+        <v>0.22539</v>
       </c>
       <c r="F2" t="n">
-        <v>0.415653</v>
+        <v>0.40776</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.275881</v>
+        <v>0.272144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.462428</v>
+        <v>0.456229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.392625</v>
+        <v>0.388686</v>
       </c>
       <c r="E3" t="n">
-        <v>0.227544</v>
+        <v>0.225577</v>
       </c>
       <c r="F3" t="n">
-        <v>0.41602</v>
+        <v>0.408258</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.264305</v>
+        <v>0.262102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.451077</v>
+        <v>0.449102</v>
       </c>
       <c r="D4" t="n">
-        <v>0.395458</v>
+        <v>0.390888</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23248</v>
+        <v>0.227908</v>
       </c>
       <c r="F4" t="n">
-        <v>0.416006</v>
+        <v>0.406828</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.251303</v>
+        <v>0.251734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.438267</v>
+        <v>0.436748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.396025</v>
+        <v>0.392448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.233901</v>
+        <v>0.229278</v>
       </c>
       <c r="F5" t="n">
-        <v>0.416178</v>
+        <v>0.407636</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.23966</v>
+        <v>0.237924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.424181</v>
+        <v>0.424473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39784</v>
+        <v>0.39358</v>
       </c>
       <c r="E6" t="n">
-        <v>0.234486</v>
+        <v>0.230706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.415864</v>
+        <v>0.407845</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223224</v>
+        <v>0.224057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.410544</v>
+        <v>0.412307</v>
       </c>
       <c r="D7" t="n">
-        <v>0.395088</v>
+        <v>0.389847</v>
       </c>
       <c r="E7" t="n">
-        <v>0.238335</v>
+        <v>0.234394</v>
       </c>
       <c r="F7" t="n">
-        <v>0.415365</v>
+        <v>0.406765</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.208757</v>
+        <v>0.210199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.395571</v>
+        <v>0.397171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.396489</v>
+        <v>0.392234</v>
       </c>
       <c r="E8" t="n">
-        <v>0.239791</v>
+        <v>0.234711</v>
       </c>
       <c r="F8" t="n">
-        <v>0.416203</v>
+        <v>0.405663</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.192019</v>
+        <v>0.193709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.38373</v>
+        <v>0.38055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.397606</v>
+        <v>0.39199</v>
       </c>
       <c r="E9" t="n">
-        <v>0.255948</v>
+        <v>0.253508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.429476</v>
+        <v>0.420027</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.338745</v>
+        <v>0.336213</v>
       </c>
       <c r="C10" t="n">
-        <v>0.532037</v>
+        <v>0.512792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.396604</v>
+        <v>0.391102</v>
       </c>
       <c r="E10" t="n">
-        <v>0.257137</v>
+        <v>0.253243</v>
       </c>
       <c r="F10" t="n">
-        <v>0.429576</v>
+        <v>0.42024</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.33236</v>
+        <v>0.329835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5277230000000001</v>
+        <v>0.508226</v>
       </c>
       <c r="D11" t="n">
-        <v>0.397719</v>
+        <v>0.391682</v>
       </c>
       <c r="E11" t="n">
-        <v>0.257095</v>
+        <v>0.253229</v>
       </c>
       <c r="F11" t="n">
-        <v>0.428191</v>
+        <v>0.417827</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.328074</v>
+        <v>0.325428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.521523</v>
+        <v>0.501513</v>
       </c>
       <c r="D12" t="n">
-        <v>0.397302</v>
+        <v>0.392378</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256537</v>
+        <v>0.253162</v>
       </c>
       <c r="F12" t="n">
-        <v>0.426879</v>
+        <v>0.416201</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.322918</v>
+        <v>0.318521</v>
       </c>
       <c r="C13" t="n">
-        <v>0.508274</v>
+        <v>0.500157</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398348</v>
+        <v>0.393605</v>
       </c>
       <c r="E13" t="n">
-        <v>0.255493</v>
+        <v>0.252805</v>
       </c>
       <c r="F13" t="n">
-        <v>0.42541</v>
+        <v>0.416734</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.314346</v>
+        <v>0.311486</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5021679999999999</v>
+        <v>0.493154</v>
       </c>
       <c r="D14" t="n">
-        <v>0.400427</v>
+        <v>0.395745</v>
       </c>
       <c r="E14" t="n">
-        <v>0.255276</v>
+        <v>0.251042</v>
       </c>
       <c r="F14" t="n">
-        <v>0.425775</v>
+        <v>0.41624</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.306134</v>
+        <v>0.310083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.48866</v>
+        <v>0.479618</v>
       </c>
       <c r="D15" t="n">
-        <v>0.400302</v>
+        <v>0.396311</v>
       </c>
       <c r="E15" t="n">
-        <v>0.254935</v>
+        <v>0.250215</v>
       </c>
       <c r="F15" t="n">
-        <v>0.424903</v>
+        <v>0.414482</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.297889</v>
+        <v>0.302109</v>
       </c>
       <c r="C16" t="n">
-        <v>0.478918</v>
+        <v>0.47086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.400025</v>
+        <v>0.396425</v>
       </c>
       <c r="E16" t="n">
-        <v>0.253975</v>
+        <v>0.250873</v>
       </c>
       <c r="F16" t="n">
-        <v>0.422505</v>
+        <v>0.413518</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.287029</v>
+        <v>0.285816</v>
       </c>
       <c r="C17" t="n">
-        <v>0.469623</v>
+        <v>0.461997</v>
       </c>
       <c r="D17" t="n">
-        <v>0.402204</v>
+        <v>0.400746</v>
       </c>
       <c r="E17" t="n">
-        <v>0.254694</v>
+        <v>0.250801</v>
       </c>
       <c r="F17" t="n">
-        <v>0.422454</v>
+        <v>0.412215</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276685</v>
+        <v>0.275413</v>
       </c>
       <c r="C18" t="n">
-        <v>0.463773</v>
+        <v>0.461002</v>
       </c>
       <c r="D18" t="n">
-        <v>0.403441</v>
+        <v>0.399112</v>
       </c>
       <c r="E18" t="n">
-        <v>0.253704</v>
+        <v>0.250775</v>
       </c>
       <c r="F18" t="n">
-        <v>0.422785</v>
+        <v>0.413543</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265493</v>
+        <v>0.268964</v>
       </c>
       <c r="C19" t="n">
-        <v>0.451413</v>
+        <v>0.451872</v>
       </c>
       <c r="D19" t="n">
-        <v>0.402605</v>
+        <v>0.400344</v>
       </c>
       <c r="E19" t="n">
-        <v>0.252627</v>
+        <v>0.24807</v>
       </c>
       <c r="F19" t="n">
-        <v>0.421236</v>
+        <v>0.412439</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253578</v>
+        <v>0.252214</v>
       </c>
       <c r="C20" t="n">
-        <v>0.433032</v>
+        <v>0.433338</v>
       </c>
       <c r="D20" t="n">
-        <v>0.405765</v>
+        <v>0.402016</v>
       </c>
       <c r="E20" t="n">
-        <v>0.252046</v>
+        <v>0.248362</v>
       </c>
       <c r="F20" t="n">
-        <v>0.420681</v>
+        <v>0.41175</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239688</v>
+        <v>0.239398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.418456</v>
+        <v>0.421212</v>
       </c>
       <c r="D21" t="n">
-        <v>0.400465</v>
+        <v>0.397367</v>
       </c>
       <c r="E21" t="n">
-        <v>0.252207</v>
+        <v>0.246942</v>
       </c>
       <c r="F21" t="n">
-        <v>0.420404</v>
+        <v>0.410767</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224443</v>
+        <v>0.225396</v>
       </c>
       <c r="C22" t="n">
-        <v>0.407756</v>
+        <v>0.408934</v>
       </c>
       <c r="D22" t="n">
-        <v>0.401431</v>
+        <v>0.396545</v>
       </c>
       <c r="E22" t="n">
-        <v>0.251939</v>
+        <v>0.247367</v>
       </c>
       <c r="F22" t="n">
-        <v>0.420581</v>
+        <v>0.410356</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.209813</v>
+        <v>0.213095</v>
       </c>
       <c r="C23" t="n">
-        <v>0.389935</v>
+        <v>0.394369</v>
       </c>
       <c r="D23" t="n">
-        <v>0.402366</v>
+        <v>0.397026</v>
       </c>
       <c r="E23" t="n">
-        <v>0.26964</v>
+        <v>0.264371</v>
       </c>
       <c r="F23" t="n">
-        <v>0.434096</v>
+        <v>0.424609</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.350379</v>
+        <v>0.34608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.53549</v>
+        <v>0.520682</v>
       </c>
       <c r="D24" t="n">
-        <v>0.401635</v>
+        <v>0.396301</v>
       </c>
       <c r="E24" t="n">
-        <v>0.266537</v>
+        <v>0.26178</v>
       </c>
       <c r="F24" t="n">
-        <v>0.432075</v>
+        <v>0.423358</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.344465</v>
+        <v>0.340904</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5310240000000001</v>
+        <v>0.518719</v>
       </c>
       <c r="D25" t="n">
-        <v>0.404441</v>
+        <v>0.39866</v>
       </c>
       <c r="E25" t="n">
-        <v>0.264783</v>
+        <v>0.260077</v>
       </c>
       <c r="F25" t="n">
-        <v>0.43096</v>
+        <v>0.421549</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.338174</v>
+        <v>0.334874</v>
       </c>
       <c r="C26" t="n">
-        <v>0.52227</v>
+        <v>0.511456</v>
       </c>
       <c r="D26" t="n">
-        <v>0.402451</v>
+        <v>0.398934</v>
       </c>
       <c r="E26" t="n">
-        <v>0.263781</v>
+        <v>0.258535</v>
       </c>
       <c r="F26" t="n">
-        <v>0.429451</v>
+        <v>0.42094</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.331298</v>
+        <v>0.328144</v>
       </c>
       <c r="C27" t="n">
-        <v>0.510697</v>
+        <v>0.500962</v>
       </c>
       <c r="D27" t="n">
-        <v>0.402631</v>
+        <v>0.39932</v>
       </c>
       <c r="E27" t="n">
-        <v>0.262371</v>
+        <v>0.257177</v>
       </c>
       <c r="F27" t="n">
-        <v>0.428145</v>
+        <v>0.419666</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324228</v>
+        <v>0.321445</v>
       </c>
       <c r="C28" t="n">
-        <v>0.502095</v>
+        <v>0.494147</v>
       </c>
       <c r="D28" t="n">
-        <v>0.402879</v>
+        <v>0.39998</v>
       </c>
       <c r="E28" t="n">
-        <v>0.261342</v>
+        <v>0.256561</v>
       </c>
       <c r="F28" t="n">
-        <v>0.428301</v>
+        <v>0.418967</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316175</v>
+        <v>0.313609</v>
       </c>
       <c r="C29" t="n">
-        <v>0.500082</v>
+        <v>0.486257</v>
       </c>
       <c r="D29" t="n">
-        <v>0.404446</v>
+        <v>0.401696</v>
       </c>
       <c r="E29" t="n">
-        <v>0.260343</v>
+        <v>0.255103</v>
       </c>
       <c r="F29" t="n">
-        <v>0.426992</v>
+        <v>0.417818</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307405</v>
+        <v>0.305544</v>
       </c>
       <c r="C30" t="n">
-        <v>0.486083</v>
+        <v>0.480227</v>
       </c>
       <c r="D30" t="n">
-        <v>0.404913</v>
+        <v>0.403091</v>
       </c>
       <c r="E30" t="n">
-        <v>0.259303</v>
+        <v>0.254527</v>
       </c>
       <c r="F30" t="n">
-        <v>0.425948</v>
+        <v>0.416264</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297572</v>
+        <v>0.295956</v>
       </c>
       <c r="C31" t="n">
-        <v>0.46837</v>
+        <v>0.462339</v>
       </c>
       <c r="D31" t="n">
-        <v>0.405606</v>
+        <v>0.402846</v>
       </c>
       <c r="E31" t="n">
-        <v>0.258174</v>
+        <v>0.252951</v>
       </c>
       <c r="F31" t="n">
-        <v>0.425752</v>
+        <v>0.415601</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.286894</v>
+        <v>0.285621</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463572</v>
+        <v>0.459848</v>
       </c>
       <c r="D32" t="n">
-        <v>0.407541</v>
+        <v>0.404691</v>
       </c>
       <c r="E32" t="n">
-        <v>0.257446</v>
+        <v>0.252737</v>
       </c>
       <c r="F32" t="n">
-        <v>0.424978</v>
+        <v>0.414528</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.273741</v>
+        <v>0.275232</v>
       </c>
       <c r="C33" t="n">
-        <v>0.453504</v>
+        <v>0.453992</v>
       </c>
       <c r="D33" t="n">
-        <v>0.408251</v>
+        <v>0.405276</v>
       </c>
       <c r="E33" t="n">
-        <v>0.256313</v>
+        <v>0.252235</v>
       </c>
       <c r="F33" t="n">
-        <v>0.42376</v>
+        <v>0.413493</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260015</v>
+        <v>0.262281</v>
       </c>
       <c r="C34" t="n">
-        <v>0.441111</v>
+        <v>0.439493</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407953</v>
+        <v>0.406166</v>
       </c>
       <c r="E34" t="n">
-        <v>0.255907</v>
+        <v>0.251925</v>
       </c>
       <c r="F34" t="n">
-        <v>0.423746</v>
+        <v>0.412791</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246139</v>
+        <v>0.249225</v>
       </c>
       <c r="C35" t="n">
-        <v>0.419035</v>
+        <v>0.418867</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408258</v>
+        <v>0.403732</v>
       </c>
       <c r="E35" t="n">
-        <v>0.255263</v>
+        <v>0.250833</v>
       </c>
       <c r="F35" t="n">
-        <v>0.421662</v>
+        <v>0.412443</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231389</v>
+        <v>0.234928</v>
       </c>
       <c r="C36" t="n">
-        <v>0.409603</v>
+        <v>0.409068</v>
       </c>
       <c r="D36" t="n">
-        <v>0.408382</v>
+        <v>0.403895</v>
       </c>
       <c r="E36" t="n">
-        <v>0.254643</v>
+        <v>0.249897</v>
       </c>
       <c r="F36" t="n">
-        <v>0.42043</v>
+        <v>0.411154</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.219737</v>
+        <v>0.221302</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40069</v>
+        <v>0.400645</v>
       </c>
       <c r="D37" t="n">
-        <v>0.40902</v>
+        <v>0.406833</v>
       </c>
       <c r="E37" t="n">
-        <v>0.26961</v>
+        <v>0.263876</v>
       </c>
       <c r="F37" t="n">
-        <v>0.435454</v>
+        <v>0.426259</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354622</v>
+        <v>0.351185</v>
       </c>
       <c r="C38" t="n">
-        <v>0.534906</v>
+        <v>0.519921</v>
       </c>
       <c r="D38" t="n">
-        <v>0.407652</v>
+        <v>0.40337</v>
       </c>
       <c r="E38" t="n">
-        <v>0.267805</v>
+        <v>0.261552</v>
       </c>
       <c r="F38" t="n">
-        <v>0.433836</v>
+        <v>0.424199</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.350539</v>
+        <v>0.34672</v>
       </c>
       <c r="C39" t="n">
-        <v>0.527643</v>
+        <v>0.514177</v>
       </c>
       <c r="D39" t="n">
-        <v>0.408016</v>
+        <v>0.404032</v>
       </c>
       <c r="E39" t="n">
-        <v>0.264644</v>
+        <v>0.259517</v>
       </c>
       <c r="F39" t="n">
-        <v>0.432703</v>
+        <v>0.422753</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.344787</v>
+        <v>0.340825</v>
       </c>
       <c r="C40" t="n">
-        <v>0.520852</v>
+        <v>0.508899</v>
       </c>
       <c r="D40" t="n">
-        <v>0.408078</v>
+        <v>0.405405</v>
       </c>
       <c r="E40" t="n">
-        <v>0.26403</v>
+        <v>0.258927</v>
       </c>
       <c r="F40" t="n">
-        <v>0.43207</v>
+        <v>0.42228</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.336741</v>
+        <v>0.334293</v>
       </c>
       <c r="C41" t="n">
-        <v>0.511602</v>
+        <v>0.501706</v>
       </c>
       <c r="D41" t="n">
-        <v>0.407806</v>
+        <v>0.403738</v>
       </c>
       <c r="E41" t="n">
-        <v>0.262445</v>
+        <v>0.257789</v>
       </c>
       <c r="F41" t="n">
-        <v>0.43076</v>
+        <v>0.420975</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.328768</v>
+        <v>0.327118</v>
       </c>
       <c r="C42" t="n">
-        <v>0.506907</v>
+        <v>0.498068</v>
       </c>
       <c r="D42" t="n">
-        <v>0.407526</v>
+        <v>0.404168</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2618</v>
+        <v>0.256778</v>
       </c>
       <c r="F42" t="n">
-        <v>0.429472</v>
+        <v>0.419769</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320308</v>
+        <v>0.318272</v>
       </c>
       <c r="C43" t="n">
-        <v>0.495313</v>
+        <v>0.48728</v>
       </c>
       <c r="D43" t="n">
-        <v>0.410211</v>
+        <v>0.404838</v>
       </c>
       <c r="E43" t="n">
-        <v>0.260539</v>
+        <v>0.256077</v>
       </c>
       <c r="F43" t="n">
-        <v>0.428299</v>
+        <v>0.418514</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310784</v>
+        <v>0.309962</v>
       </c>
       <c r="C44" t="n">
-        <v>0.48446</v>
+        <v>0.479693</v>
       </c>
       <c r="D44" t="n">
-        <v>0.409562</v>
+        <v>0.405257</v>
       </c>
       <c r="E44" t="n">
-        <v>0.259471</v>
+        <v>0.254861</v>
       </c>
       <c r="F44" t="n">
-        <v>0.42747</v>
+        <v>0.418087</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301053</v>
+        <v>0.301419</v>
       </c>
       <c r="C45" t="n">
-        <v>0.478384</v>
+        <v>0.47235</v>
       </c>
       <c r="D45" t="n">
-        <v>0.410203</v>
+        <v>0.40667</v>
       </c>
       <c r="E45" t="n">
-        <v>0.257984</v>
+        <v>0.253002</v>
       </c>
       <c r="F45" t="n">
-        <v>0.426197</v>
+        <v>0.416224</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290079</v>
+        <v>0.29024</v>
       </c>
       <c r="C46" t="n">
-        <v>0.466679</v>
+        <v>0.46337</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410215</v>
+        <v>0.406154</v>
       </c>
       <c r="E46" t="n">
-        <v>0.257115</v>
+        <v>0.25225</v>
       </c>
       <c r="F46" t="n">
-        <v>0.424828</v>
+        <v>0.414969</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.278427</v>
+        <v>0.280094</v>
       </c>
       <c r="C47" t="n">
-        <v>0.455768</v>
+        <v>0.453391</v>
       </c>
       <c r="D47" t="n">
-        <v>0.410825</v>
+        <v>0.406682</v>
       </c>
       <c r="E47" t="n">
-        <v>0.257141</v>
+        <v>0.252013</v>
       </c>
       <c r="F47" t="n">
-        <v>0.424155</v>
+        <v>0.414308</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265986</v>
+        <v>0.268063</v>
       </c>
       <c r="C48" t="n">
-        <v>0.44408</v>
+        <v>0.437457</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4127</v>
+        <v>0.408854</v>
       </c>
       <c r="E48" t="n">
-        <v>0.255927</v>
+        <v>0.25099</v>
       </c>
       <c r="F48" t="n">
-        <v>0.423751</v>
+        <v>0.413987</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252671</v>
+        <v>0.255379</v>
       </c>
       <c r="C49" t="n">
-        <v>0.42848</v>
+        <v>0.428481</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412419</v>
+        <v>0.410706</v>
       </c>
       <c r="E49" t="n">
-        <v>0.255789</v>
+        <v>0.250854</v>
       </c>
       <c r="F49" t="n">
-        <v>0.423359</v>
+        <v>0.413547</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237814</v>
+        <v>0.241137</v>
       </c>
       <c r="C50" t="n">
-        <v>0.418834</v>
+        <v>0.421273</v>
       </c>
       <c r="D50" t="n">
-        <v>0.413729</v>
+        <v>0.408722</v>
       </c>
       <c r="E50" t="n">
-        <v>0.254869</v>
+        <v>0.250283</v>
       </c>
       <c r="F50" t="n">
-        <v>0.421583</v>
+        <v>0.411495</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.223752</v>
+        <v>0.227944</v>
       </c>
       <c r="C51" t="n">
-        <v>0.399006</v>
+        <v>0.39905</v>
       </c>
       <c r="D51" t="n">
-        <v>0.414068</v>
+        <v>0.410619</v>
       </c>
       <c r="E51" t="n">
-        <v>0.270171</v>
+        <v>0.264785</v>
       </c>
       <c r="F51" t="n">
-        <v>0.436403</v>
+        <v>0.426752</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.205211</v>
+        <v>0.209928</v>
       </c>
       <c r="C52" t="n">
-        <v>0.377976</v>
+        <v>0.378678</v>
       </c>
       <c r="D52" t="n">
-        <v>0.415325</v>
+        <v>0.41188</v>
       </c>
       <c r="E52" t="n">
-        <v>0.268549</v>
+        <v>0.263345</v>
       </c>
       <c r="F52" t="n">
-        <v>0.434908</v>
+        <v>0.424917</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353446</v>
+        <v>0.350436</v>
       </c>
       <c r="C53" t="n">
-        <v>0.534453</v>
+        <v>0.521737</v>
       </c>
       <c r="D53" t="n">
-        <v>0.41241</v>
+        <v>0.408587</v>
       </c>
       <c r="E53" t="n">
-        <v>0.265973</v>
+        <v>0.260705</v>
       </c>
       <c r="F53" t="n">
-        <v>0.433143</v>
+        <v>0.423767</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348634</v>
+        <v>0.345381</v>
       </c>
       <c r="C54" t="n">
-        <v>0.528658</v>
+        <v>0.516794</v>
       </c>
       <c r="D54" t="n">
-        <v>0.41486</v>
+        <v>0.410265</v>
       </c>
       <c r="E54" t="n">
-        <v>0.263907</v>
+        <v>0.258804</v>
       </c>
       <c r="F54" t="n">
-        <v>0.432024</v>
+        <v>0.422638</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.342186</v>
+        <v>0.338774</v>
       </c>
       <c r="C55" t="n">
-        <v>0.521448</v>
+        <v>0.508864</v>
       </c>
       <c r="D55" t="n">
-        <v>0.416156</v>
+        <v>0.413761</v>
       </c>
       <c r="E55" t="n">
-        <v>0.262765</v>
+        <v>0.257843</v>
       </c>
       <c r="F55" t="n">
-        <v>0.430729</v>
+        <v>0.420876</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3331</v>
+        <v>0.330264</v>
       </c>
       <c r="C56" t="n">
-        <v>0.518764</v>
+        <v>0.5099359999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.41443</v>
+        <v>0.412095</v>
       </c>
       <c r="E56" t="n">
-        <v>0.261554</v>
+        <v>0.256838</v>
       </c>
       <c r="F56" t="n">
-        <v>0.429013</v>
+        <v>0.41965</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325314</v>
+        <v>0.322507</v>
       </c>
       <c r="C57" t="n">
-        <v>0.517468</v>
+        <v>0.507202</v>
       </c>
       <c r="D57" t="n">
-        <v>0.416684</v>
+        <v>0.414885</v>
       </c>
       <c r="E57" t="n">
-        <v>0.260479</v>
+        <v>0.255867</v>
       </c>
       <c r="F57" t="n">
-        <v>0.428183</v>
+        <v>0.419248</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.315692</v>
+        <v>0.314402</v>
       </c>
       <c r="C58" t="n">
-        <v>0.498356</v>
+        <v>0.495343</v>
       </c>
       <c r="D58" t="n">
-        <v>0.421414</v>
+        <v>0.416476</v>
       </c>
       <c r="E58" t="n">
-        <v>0.259636</v>
+        <v>0.254753</v>
       </c>
       <c r="F58" t="n">
-        <v>0.427913</v>
+        <v>0.418303</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305763</v>
+        <v>0.305077</v>
       </c>
       <c r="C59" t="n">
-        <v>0.487492</v>
+        <v>0.485286</v>
       </c>
       <c r="D59" t="n">
-        <v>0.419378</v>
+        <v>0.418295</v>
       </c>
       <c r="E59" t="n">
-        <v>0.258837</v>
+        <v>0.254127</v>
       </c>
       <c r="F59" t="n">
-        <v>0.426562</v>
+        <v>0.417111</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295033</v>
+        <v>0.294871</v>
       </c>
       <c r="C60" t="n">
-        <v>0.489214</v>
+        <v>0.4857</v>
       </c>
       <c r="D60" t="n">
-        <v>0.42018</v>
+        <v>0.417812</v>
       </c>
       <c r="E60" t="n">
-        <v>0.258012</v>
+        <v>0.253453</v>
       </c>
       <c r="F60" t="n">
-        <v>0.425995</v>
+        <v>0.416263</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284149</v>
+        <v>0.284658</v>
       </c>
       <c r="C61" t="n">
-        <v>0.48135</v>
+        <v>0.477811</v>
       </c>
       <c r="D61" t="n">
-        <v>0.426589</v>
+        <v>0.424827</v>
       </c>
       <c r="E61" t="n">
-        <v>0.257556</v>
+        <v>0.252507</v>
       </c>
       <c r="F61" t="n">
-        <v>0.425368</v>
+        <v>0.415531</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271595</v>
+        <v>0.272917</v>
       </c>
       <c r="C62" t="n">
-        <v>0.458578</v>
+        <v>0.45829</v>
       </c>
       <c r="D62" t="n">
-        <v>0.427048</v>
+        <v>0.427504</v>
       </c>
       <c r="E62" t="n">
-        <v>0.256844</v>
+        <v>0.25193</v>
       </c>
       <c r="F62" t="n">
-        <v>0.424294</v>
+        <v>0.414833</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.257644</v>
+        <v>0.260443</v>
       </c>
       <c r="C63" t="n">
-        <v>0.451004</v>
+        <v>0.450291</v>
       </c>
       <c r="D63" t="n">
-        <v>0.432389</v>
+        <v>0.430769</v>
       </c>
       <c r="E63" t="n">
-        <v>0.256134</v>
+        <v>0.251211</v>
       </c>
       <c r="F63" t="n">
-        <v>0.423976</v>
+        <v>0.413937</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.243296</v>
+        <v>0.246523</v>
       </c>
       <c r="C64" t="n">
-        <v>0.446232</v>
+        <v>0.446311</v>
       </c>
       <c r="D64" t="n">
-        <v>0.470132</v>
+        <v>0.464408</v>
       </c>
       <c r="E64" t="n">
-        <v>0.255191</v>
+        <v>0.250723</v>
       </c>
       <c r="F64" t="n">
-        <v>0.42346</v>
+        <v>0.413407</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.228789</v>
+        <v>0.232527</v>
       </c>
       <c r="C65" t="n">
-        <v>0.451474</v>
+        <v>0.45315</v>
       </c>
       <c r="D65" t="n">
-        <v>0.478365</v>
+        <v>0.472027</v>
       </c>
       <c r="E65" t="n">
-        <v>0.255228</v>
+        <v>0.251684</v>
       </c>
       <c r="F65" t="n">
-        <v>0.422812</v>
+        <v>0.413135</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.211465</v>
+        <v>0.215383</v>
       </c>
       <c r="C66" t="n">
-        <v>0.452591</v>
+        <v>0.452198</v>
       </c>
       <c r="D66" t="n">
-        <v>0.486508</v>
+        <v>0.482533</v>
       </c>
       <c r="E66" t="n">
-        <v>0.268577</v>
+        <v>0.264068</v>
       </c>
       <c r="F66" t="n">
-        <v>0.435107</v>
+        <v>0.426016</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356253</v>
+        <v>0.352701</v>
       </c>
       <c r="C67" t="n">
-        <v>0.589344</v>
+        <v>0.571708</v>
       </c>
       <c r="D67" t="n">
-        <v>0.490062</v>
+        <v>0.480263</v>
       </c>
       <c r="E67" t="n">
-        <v>0.266623</v>
+        <v>0.261613</v>
       </c>
       <c r="F67" t="n">
-        <v>0.433587</v>
+        <v>0.424725</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350614</v>
+        <v>0.347749</v>
       </c>
       <c r="C68" t="n">
-        <v>0.58489</v>
+        <v>0.5689149999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.494059</v>
+        <v>0.484486</v>
       </c>
       <c r="E68" t="n">
-        <v>0.264899</v>
+        <v>0.259731</v>
       </c>
       <c r="F68" t="n">
-        <v>0.432512</v>
+        <v>0.423649</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344024</v>
+        <v>0.341389</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5600309999999999</v>
+        <v>0.546662</v>
       </c>
       <c r="D69" t="n">
-        <v>0.497837</v>
+        <v>0.49296</v>
       </c>
       <c r="E69" t="n">
-        <v>0.263395</v>
+        <v>0.258561</v>
       </c>
       <c r="F69" t="n">
-        <v>0.431123</v>
+        <v>0.421934</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336665</v>
+        <v>0.334558</v>
       </c>
       <c r="C70" t="n">
-        <v>0.60607</v>
+        <v>0.593171</v>
       </c>
       <c r="D70" t="n">
-        <v>0.52234</v>
+        <v>0.520573</v>
       </c>
       <c r="E70" t="n">
-        <v>0.26209</v>
+        <v>0.257369</v>
       </c>
       <c r="F70" t="n">
-        <v>0.430007</v>
+        <v>0.420831</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.32813</v>
+        <v>0.326566</v>
       </c>
       <c r="C71" t="n">
-        <v>0.609083</v>
+        <v>0.5923</v>
       </c>
       <c r="D71" t="n">
-        <v>0.505964</v>
+        <v>0.503572</v>
       </c>
       <c r="E71" t="n">
-        <v>0.261127</v>
+        <v>0.256376</v>
       </c>
       <c r="F71" t="n">
-        <v>0.429004</v>
+        <v>0.419542</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.318895</v>
+        <v>0.317683</v>
       </c>
       <c r="C72" t="n">
-        <v>0.592811</v>
+        <v>0.581349</v>
       </c>
       <c r="D72" t="n">
-        <v>0.531969</v>
+        <v>0.530073</v>
       </c>
       <c r="E72" t="n">
-        <v>0.259996</v>
+        <v>0.255154</v>
       </c>
       <c r="F72" t="n">
-        <v>0.427544</v>
+        <v>0.418533</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.308922</v>
+        <v>0.308199</v>
       </c>
       <c r="C73" t="n">
-        <v>0.603388</v>
+        <v>0.593486</v>
       </c>
       <c r="D73" t="n">
-        <v>0.533786</v>
+        <v>0.531938</v>
       </c>
       <c r="E73" t="n">
-        <v>0.259007</v>
+        <v>0.254103</v>
       </c>
       <c r="F73" t="n">
-        <v>0.426849</v>
+        <v>0.417343</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298407</v>
+        <v>0.298918</v>
       </c>
       <c r="C74" t="n">
-        <v>0.547332</v>
+        <v>0.540611</v>
       </c>
       <c r="D74" t="n">
-        <v>0.52075</v>
+        <v>0.536555</v>
       </c>
       <c r="E74" t="n">
-        <v>0.257991</v>
+        <v>0.253228</v>
       </c>
       <c r="F74" t="n">
-        <v>0.425908</v>
+        <v>0.416273</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286986</v>
+        <v>0.288138</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5484329999999999</v>
+        <v>0.542481</v>
       </c>
       <c r="D75" t="n">
-        <v>0.521333</v>
+        <v>0.516096</v>
       </c>
       <c r="E75" t="n">
-        <v>0.257143</v>
+        <v>0.252672</v>
       </c>
       <c r="F75" t="n">
-        <v>0.424913</v>
+        <v>0.416005</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274512</v>
+        <v>0.276504</v>
       </c>
       <c r="C76" t="n">
-        <v>0.561446</v>
+        <v>0.551444</v>
       </c>
       <c r="D76" t="n">
-        <v>0.522593</v>
+        <v>0.51527</v>
       </c>
       <c r="E76" t="n">
-        <v>0.256524</v>
+        <v>0.251997</v>
       </c>
       <c r="F76" t="n">
-        <v>0.424247</v>
+        <v>0.415257</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.261296</v>
+        <v>0.263895</v>
       </c>
       <c r="C77" t="n">
-        <v>0.526</v>
+        <v>0.520495</v>
       </c>
       <c r="D77" t="n">
-        <v>0.522401</v>
+        <v>0.51779</v>
       </c>
       <c r="E77" t="n">
-        <v>0.255882</v>
+        <v>0.251322</v>
       </c>
       <c r="F77" t="n">
-        <v>0.423412</v>
+        <v>0.414608</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.247652</v>
+        <v>0.250455</v>
       </c>
       <c r="C78" t="n">
-        <v>0.557261</v>
+        <v>0.554552</v>
       </c>
       <c r="D78" t="n">
-        <v>0.58505</v>
+        <v>0.575621</v>
       </c>
       <c r="E78" t="n">
-        <v>0.255594</v>
+        <v>0.25091</v>
       </c>
       <c r="F78" t="n">
-        <v>0.422711</v>
+        <v>0.41299</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.232082</v>
+        <v>0.235559</v>
       </c>
       <c r="C79" t="n">
-        <v>0.420776</v>
+        <v>0.420914</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6415</v>
+        <v>0.636373</v>
       </c>
       <c r="E79" t="n">
-        <v>0.255347</v>
+        <v>0.250639</v>
       </c>
       <c r="F79" t="n">
-        <v>0.422406</v>
+        <v>0.413226</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.215356</v>
+        <v>0.219776</v>
       </c>
       <c r="C80" t="n">
-        <v>0.428217</v>
+        <v>0.429026</v>
       </c>
       <c r="D80" t="n">
-        <v>0.589579</v>
+        <v>0.579856</v>
       </c>
       <c r="E80" t="n">
-        <v>0.269768</v>
+        <v>0.265088</v>
       </c>
       <c r="F80" t="n">
-        <v>0.435649</v>
+        <v>0.42701</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357695</v>
+        <v>0.354775</v>
       </c>
       <c r="C81" t="n">
-        <v>0.653544</v>
+        <v>0.630331</v>
       </c>
       <c r="D81" t="n">
-        <v>0.60477</v>
+        <v>0.597803</v>
       </c>
       <c r="E81" t="n">
-        <v>0.267363</v>
+        <v>0.262627</v>
       </c>
       <c r="F81" t="n">
-        <v>0.434287</v>
+        <v>0.425084</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352017</v>
+        <v>0.349393</v>
       </c>
       <c r="C82" t="n">
-        <v>0.594817</v>
+        <v>0.578766</v>
       </c>
       <c r="D82" t="n">
-        <v>0.593676</v>
+        <v>0.584627</v>
       </c>
       <c r="E82" t="n">
-        <v>0.265238</v>
+        <v>0.260578</v>
       </c>
       <c r="F82" t="n">
-        <v>0.432951</v>
+        <v>0.423938</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345767</v>
+        <v>0.342849</v>
       </c>
       <c r="C83" t="n">
-        <v>0.631961</v>
+        <v>0.620072</v>
       </c>
       <c r="D83" t="n">
-        <v>0.635297</v>
+        <v>0.592819</v>
       </c>
       <c r="E83" t="n">
-        <v>0.263824</v>
+        <v>0.259155</v>
       </c>
       <c r="F83" t="n">
-        <v>0.431407</v>
+        <v>0.422552</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339268</v>
+        <v>0.335645</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6152300000000001</v>
+        <v>0.5981300000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.585732</v>
+        <v>0.577901</v>
       </c>
       <c r="E84" t="n">
-        <v>0.262646</v>
+        <v>0.257648</v>
       </c>
       <c r="F84" t="n">
-        <v>0.430383</v>
+        <v>0.42144</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.331012</v>
+        <v>0.328069</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6175040000000001</v>
+        <v>0.607146</v>
       </c>
       <c r="D85" t="n">
-        <v>0.586763</v>
+        <v>0.580987</v>
       </c>
       <c r="E85" t="n">
-        <v>0.261748</v>
+        <v>0.256711</v>
       </c>
       <c r="F85" t="n">
-        <v>0.429417</v>
+        <v>0.420214</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.322541</v>
+        <v>0.319903</v>
       </c>
       <c r="C86" t="n">
-        <v>0.58452</v>
+        <v>0.571179</v>
       </c>
       <c r="D86" t="n">
-        <v>0.579367</v>
+        <v>0.572995</v>
       </c>
       <c r="E86" t="n">
-        <v>0.260349</v>
+        <v>0.255541</v>
       </c>
       <c r="F86" t="n">
-        <v>0.428157</v>
+        <v>0.419405</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.31248</v>
+        <v>0.310849</v>
       </c>
       <c r="C87" t="n">
-        <v>0.541438</v>
+        <v>0.535321</v>
       </c>
       <c r="D87" t="n">
-        <v>0.574339</v>
+        <v>0.568318</v>
       </c>
       <c r="E87" t="n">
-        <v>0.259489</v>
+        <v>0.254399</v>
       </c>
       <c r="F87" t="n">
-        <v>0.427219</v>
+        <v>0.418373</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301885</v>
+        <v>0.301045</v>
       </c>
       <c r="C88" t="n">
-        <v>0.605851</v>
+        <v>0.59189</v>
       </c>
       <c r="D88" t="n">
-        <v>0.571766</v>
+        <v>0.565101</v>
       </c>
       <c r="E88" t="n">
-        <v>0.258499</v>
+        <v>0.253464</v>
       </c>
       <c r="F88" t="n">
-        <v>0.426402</v>
+        <v>0.417578</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290952</v>
+        <v>0.290339</v>
       </c>
       <c r="C89" t="n">
-        <v>0.586504</v>
+        <v>0.581236</v>
       </c>
       <c r="D89" t="n">
-        <v>0.567904</v>
+        <v>0.563913</v>
       </c>
       <c r="E89" t="n">
-        <v>0.257592</v>
+        <v>0.252786</v>
       </c>
       <c r="F89" t="n">
-        <v>0.425997</v>
+        <v>0.416395</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.279459</v>
+        <v>0.279217</v>
       </c>
       <c r="C90" t="n">
-        <v>0.541786</v>
+        <v>0.5355490000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.563781</v>
+        <v>0.559681</v>
       </c>
       <c r="E90" t="n">
-        <v>0.256716</v>
+        <v>0.251604</v>
       </c>
       <c r="F90" t="n">
-        <v>0.425211</v>
+        <v>0.415669</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.266728</v>
+        <v>0.267119</v>
       </c>
       <c r="C91" t="n">
-        <v>0.556303</v>
+        <v>0.553099</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5598610000000001</v>
+        <v>0.556994</v>
       </c>
       <c r="E91" t="n">
-        <v>0.256112</v>
+        <v>0.251126</v>
       </c>
       <c r="F91" t="n">
-        <v>0.42417</v>
+        <v>0.415123</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252736</v>
+        <v>0.253871</v>
       </c>
       <c r="C92" t="n">
-        <v>0.458305</v>
+        <v>0.456609</v>
       </c>
       <c r="D92" t="n">
-        <v>0.610386</v>
+        <v>0.604994</v>
       </c>
       <c r="E92" t="n">
-        <v>0.255435</v>
+        <v>0.250546</v>
       </c>
       <c r="F92" t="n">
-        <v>0.423538</v>
+        <v>0.414031</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238352</v>
+        <v>0.239663</v>
       </c>
       <c r="C93" t="n">
-        <v>0.473375</v>
+        <v>0.473689</v>
       </c>
       <c r="D93" t="n">
-        <v>0.611443</v>
+        <v>0.605203</v>
       </c>
       <c r="E93" t="n">
-        <v>0.255313</v>
+        <v>0.250317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.422944</v>
+        <v>0.413303</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.221496</v>
+        <v>0.223837</v>
       </c>
       <c r="C94" t="n">
-        <v>0.534928</v>
+        <v>0.534738</v>
       </c>
       <c r="D94" t="n">
-        <v>0.610359</v>
+        <v>0.605747</v>
       </c>
       <c r="E94" t="n">
-        <v>0.270186</v>
+        <v>0.264947</v>
       </c>
       <c r="F94" t="n">
-        <v>0.437322</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.358825</v>
+        <v>0.35564</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5584209999999999</v>
+        <v>0.542895</v>
       </c>
       <c r="D95" t="n">
-        <v>0.593895</v>
+        <v>0.586871</v>
       </c>
       <c r="E95" t="n">
-        <v>0.267557</v>
+        <v>0.262857</v>
       </c>
       <c r="F95" t="n">
-        <v>0.434896</v>
+        <v>0.425451</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353131</v>
+        <v>0.350477</v>
       </c>
       <c r="C96" t="n">
-        <v>0.680847</v>
+        <v>0.66106</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5953850000000001</v>
+        <v>0.588928</v>
       </c>
       <c r="E96" t="n">
-        <v>0.265686</v>
+        <v>0.260853</v>
       </c>
       <c r="F96" t="n">
-        <v>0.433534</v>
+        <v>0.424012</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.346807</v>
+        <v>0.344905</v>
       </c>
       <c r="C97" t="n">
-        <v>0.69351</v>
+        <v>0.672778</v>
       </c>
       <c r="D97" t="n">
-        <v>0.594155</v>
+        <v>0.587759</v>
       </c>
       <c r="E97" t="n">
-        <v>0.264442</v>
+        <v>0.259534</v>
       </c>
       <c r="F97" t="n">
-        <v>0.432452</v>
+        <v>0.422641</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.339658</v>
+        <v>0.337825</v>
       </c>
       <c r="C98" t="n">
-        <v>0.642575</v>
+        <v>0.621515</v>
       </c>
       <c r="D98" t="n">
-        <v>0.585875</v>
+        <v>0.579687</v>
       </c>
       <c r="E98" t="n">
-        <v>0.262874</v>
+        <v>0.258032</v>
       </c>
       <c r="F98" t="n">
-        <v>0.431085</v>
+        <v>0.421249</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332839</v>
+        <v>0.329854</v>
       </c>
       <c r="C99" t="n">
-        <v>0.641388</v>
+        <v>0.6288550000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5852000000000001</v>
+        <v>0.5800959999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.261513</v>
+        <v>0.256837</v>
       </c>
       <c r="F99" t="n">
-        <v>0.429965</v>
+        <v>0.420319</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.324391</v>
+        <v>0.321858</v>
       </c>
       <c r="C100" t="n">
-        <v>0.54172</v>
+        <v>0.533199</v>
       </c>
       <c r="D100" t="n">
-        <v>0.573242</v>
+        <v>0.567211</v>
       </c>
       <c r="E100" t="n">
-        <v>0.260319</v>
+        <v>0.255492</v>
       </c>
       <c r="F100" t="n">
-        <v>0.42881</v>
+        <v>0.419042</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.315188</v>
+        <v>0.31264</v>
       </c>
       <c r="C101" t="n">
-        <v>0.529421</v>
+        <v>0.518688</v>
       </c>
       <c r="D101" t="n">
-        <v>0.570611</v>
+        <v>0.5666639999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.259365</v>
+        <v>0.254481</v>
       </c>
       <c r="F101" t="n">
-        <v>0.427891</v>
+        <v>0.418214</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304771</v>
+        <v>0.303223</v>
       </c>
       <c r="C102" t="n">
-        <v>0.564134</v>
+        <v>0.559818</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5622509999999999</v>
+        <v>0.557086</v>
       </c>
       <c r="E102" t="n">
-        <v>0.258425</v>
+        <v>0.25376</v>
       </c>
       <c r="F102" t="n">
-        <v>0.426797</v>
+        <v>0.416978</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293693</v>
+        <v>0.292767</v>
       </c>
       <c r="C103" t="n">
-        <v>0.617467</v>
+        <v>0.610809</v>
       </c>
       <c r="D103" t="n">
-        <v>0.559141</v>
+        <v>0.555651</v>
       </c>
       <c r="E103" t="n">
-        <v>0.25755</v>
+        <v>0.252809</v>
       </c>
       <c r="F103" t="n">
-        <v>0.425977</v>
+        <v>0.416397</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282166</v>
+        <v>0.281682</v>
       </c>
       <c r="C104" t="n">
-        <v>0.55163</v>
+        <v>0.547171</v>
       </c>
       <c r="D104" t="n">
-        <v>0.554523</v>
+        <v>0.550549</v>
       </c>
       <c r="E104" t="n">
-        <v>0.257629</v>
+        <v>0.252543</v>
       </c>
       <c r="F104" t="n">
-        <v>0.425215</v>
+        <v>0.415319</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269674</v>
+        <v>0.269904</v>
       </c>
       <c r="C105" t="n">
-        <v>0.572474</v>
+        <v>0.56373</v>
       </c>
       <c r="D105" t="n">
-        <v>0.547079</v>
+        <v>0.5438499999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.257034</v>
+        <v>0.252173</v>
       </c>
       <c r="F105" t="n">
-        <v>0.424481</v>
+        <v>0.414384</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.256258</v>
+        <v>0.256868</v>
       </c>
       <c r="C106" t="n">
-        <v>0.498361</v>
+        <v>0.491911</v>
       </c>
       <c r="D106" t="n">
-        <v>0.546142</v>
+        <v>0.5425219999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.256433</v>
+        <v>0.25163</v>
       </c>
       <c r="F106" t="n">
-        <v>0.423659</v>
+        <v>0.413755</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241863</v>
+        <v>0.242782</v>
       </c>
       <c r="C107" t="n">
-        <v>0.465352</v>
+        <v>0.460139</v>
       </c>
       <c r="D107" t="n">
-        <v>0.593896</v>
+        <v>0.585502</v>
       </c>
       <c r="E107" t="n">
-        <v>0.255732</v>
+        <v>0.250933</v>
       </c>
       <c r="F107" t="n">
-        <v>0.423013</v>
+        <v>0.412986</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223729</v>
+        <v>0.227125</v>
       </c>
       <c r="C108" t="n">
-        <v>0.461457</v>
+        <v>0.456899</v>
       </c>
       <c r="D108" t="n">
-        <v>0.59156</v>
+        <v>0.581564</v>
       </c>
       <c r="E108" t="n">
-        <v>0.270404</v>
+        <v>0.265213</v>
       </c>
       <c r="F108" t="n">
-        <v>0.436371</v>
+        <v>0.427373</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.205277</v>
+        <v>0.209463</v>
       </c>
       <c r="C109" t="n">
-        <v>0.473094</v>
+        <v>0.471586</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5922269999999999</v>
+        <v>0.583811</v>
       </c>
       <c r="E109" t="n">
-        <v>0.268308</v>
+        <v>0.263404</v>
       </c>
       <c r="F109" t="n">
-        <v>0.434822</v>
+        <v>0.426117</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355253</v>
+        <v>0.351197</v>
       </c>
       <c r="C110" t="n">
-        <v>0.542302</v>
+        <v>0.524343</v>
       </c>
       <c r="D110" t="n">
-        <v>0.589364</v>
+        <v>0.580898</v>
       </c>
       <c r="E110" t="n">
-        <v>0.266335</v>
+        <v>0.261353</v>
       </c>
       <c r="F110" t="n">
-        <v>0.433428</v>
+        <v>0.424475</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349114</v>
+        <v>0.345622</v>
       </c>
       <c r="C111" t="n">
-        <v>0.642719</v>
+        <v>0.626628</v>
       </c>
       <c r="D111" t="n">
-        <v>0.585387</v>
+        <v>0.5774550000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.264192</v>
+        <v>0.259363</v>
       </c>
       <c r="F111" t="n">
-        <v>0.432145</v>
+        <v>0.423084</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342355</v>
+        <v>0.33909</v>
       </c>
       <c r="C112" t="n">
-        <v>0.577207</v>
+        <v>0.564105</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5942269999999999</v>
+        <v>0.589383</v>
       </c>
       <c r="E112" t="n">
-        <v>0.262853</v>
+        <v>0.258243</v>
       </c>
       <c r="F112" t="n">
-        <v>0.431026</v>
+        <v>0.421941</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.335028</v>
+        <v>0.331382</v>
       </c>
       <c r="C113" t="n">
-        <v>0.637591</v>
+        <v>0.620487</v>
       </c>
       <c r="D113" t="n">
-        <v>0.587687</v>
+        <v>0.582237</v>
       </c>
       <c r="E113" t="n">
-        <v>0.261593</v>
+        <v>0.257061</v>
       </c>
       <c r="F113" t="n">
-        <v>0.429748</v>
+        <v>0.420531</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326364</v>
+        <v>0.324087</v>
       </c>
       <c r="C114" t="n">
-        <v>0.552663</v>
+        <v>0.543512</v>
       </c>
       <c r="D114" t="n">
-        <v>0.571307</v>
+        <v>0.5657489999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.260432</v>
+        <v>0.255947</v>
       </c>
       <c r="F114" t="n">
-        <v>0.428612</v>
+        <v>0.419491</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317006</v>
+        <v>0.314883</v>
       </c>
       <c r="C115" t="n">
-        <v>0.582295</v>
+        <v>0.574195</v>
       </c>
       <c r="D115" t="n">
-        <v>0.565344</v>
+        <v>0.559557</v>
       </c>
       <c r="E115" t="n">
-        <v>0.259395</v>
+        <v>0.254837</v>
       </c>
       <c r="F115" t="n">
-        <v>0.427586</v>
+        <v>0.418595</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.307527</v>
+        <v>0.305451</v>
       </c>
       <c r="C116" t="n">
-        <v>0.522112</v>
+        <v>0.513995</v>
       </c>
       <c r="D116" t="n">
-        <v>0.565848</v>
+        <v>0.555095</v>
       </c>
       <c r="E116" t="n">
-        <v>0.258826</v>
+        <v>0.25396</v>
       </c>
       <c r="F116" t="n">
-        <v>0.426722</v>
+        <v>0.417766</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296777</v>
+        <v>0.295272</v>
       </c>
       <c r="C117" t="n">
-        <v>0.550845</v>
+        <v>0.5469039999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.559569</v>
+        <v>0.555866</v>
       </c>
       <c r="E117" t="n">
-        <v>0.25778</v>
+        <v>0.253012</v>
       </c>
       <c r="F117" t="n">
-        <v>0.425762</v>
+        <v>0.417187</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285504</v>
+        <v>0.284192</v>
       </c>
       <c r="C118" t="n">
-        <v>0.526971</v>
+        <v>0.520607</v>
       </c>
       <c r="D118" t="n">
-        <v>0.55058</v>
+        <v>0.553253</v>
       </c>
       <c r="E118" t="n">
-        <v>0.257236</v>
+        <v>0.252359</v>
       </c>
       <c r="F118" t="n">
-        <v>0.424941</v>
+        <v>0.415948</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273036</v>
+        <v>0.27258</v>
       </c>
       <c r="C119" t="n">
-        <v>0.555441</v>
+        <v>0.55222</v>
       </c>
       <c r="D119" t="n">
-        <v>0.546567</v>
+        <v>0.5444600000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.256845</v>
+        <v>0.251666</v>
       </c>
       <c r="F119" t="n">
-        <v>0.424094</v>
+        <v>0.415389</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259634</v>
+        <v>0.259565</v>
       </c>
       <c r="C120" t="n">
-        <v>0.542118</v>
+        <v>0.541035</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5427070000000001</v>
+        <v>0.5395</v>
       </c>
       <c r="E120" t="n">
-        <v>0.256317</v>
+        <v>0.251515</v>
       </c>
       <c r="F120" t="n">
-        <v>0.423422</v>
+        <v>0.414758</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244848</v>
+        <v>0.245865</v>
       </c>
       <c r="C121" t="n">
-        <v>0.502631</v>
+        <v>0.501868</v>
       </c>
       <c r="D121" t="n">
-        <v>0.627628</v>
+        <v>0.620049</v>
       </c>
       <c r="E121" t="n">
-        <v>0.25564</v>
+        <v>0.251</v>
       </c>
       <c r="F121" t="n">
-        <v>0.42289</v>
+        <v>0.413641</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229505</v>
+        <v>0.230877</v>
       </c>
       <c r="C122" t="n">
-        <v>0.43183</v>
+        <v>0.431968</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6248089999999999</v>
+        <v>0.617995</v>
       </c>
       <c r="E122" t="n">
-        <v>0.255294</v>
+        <v>0.25036</v>
       </c>
       <c r="F122" t="n">
-        <v>0.422248</v>
+        <v>0.412463</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.212573</v>
+        <v>0.214185</v>
       </c>
       <c r="C123" t="n">
-        <v>0.43033</v>
+        <v>0.431169</v>
       </c>
       <c r="D123" t="n">
-        <v>0.620173</v>
+        <v>0.613839</v>
       </c>
       <c r="E123" t="n">
-        <v>0.268414</v>
+        <v>0.263508</v>
       </c>
       <c r="F123" t="n">
-        <v>0.435194</v>
+        <v>0.425859</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356183</v>
+        <v>0.352654</v>
       </c>
       <c r="C124" t="n">
-        <v>0.548297</v>
+        <v>0.529792</v>
       </c>
       <c r="D124" t="n">
-        <v>0.614997</v>
+        <v>0.609177</v>
       </c>
       <c r="E124" t="n">
-        <v>0.266138</v>
+        <v>0.261306</v>
       </c>
       <c r="F124" t="n">
-        <v>0.43366</v>
+        <v>0.424437</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350083</v>
+        <v>0.346774</v>
       </c>
       <c r="C125" t="n">
-        <v>0.712542</v>
+        <v>0.692774</v>
       </c>
       <c r="D125" t="n">
-        <v>0.608813</v>
+        <v>0.603307</v>
       </c>
       <c r="E125" t="n">
-        <v>0.264432</v>
+        <v>0.259782</v>
       </c>
       <c r="F125" t="n">
-        <v>0.432386</v>
+        <v>0.422971</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343637</v>
+        <v>0.340439</v>
       </c>
       <c r="C126" t="n">
-        <v>0.590587</v>
+        <v>0.576156</v>
       </c>
       <c r="D126" t="n">
-        <v>0.603112</v>
+        <v>0.598018</v>
       </c>
       <c r="E126" t="n">
-        <v>0.263017</v>
+        <v>0.258436</v>
       </c>
       <c r="F126" t="n">
-        <v>0.431139</v>
+        <v>0.421715</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.336681</v>
+        <v>0.33247</v>
       </c>
       <c r="C127" t="n">
-        <v>0.543485</v>
+        <v>0.53361</v>
       </c>
       <c r="D127" t="n">
-        <v>0.585255</v>
+        <v>0.577801</v>
       </c>
       <c r="E127" t="n">
-        <v>0.261937</v>
+        <v>0.257243</v>
       </c>
       <c r="F127" t="n">
-        <v>0.429937</v>
+        <v>0.420525</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328398</v>
+        <v>0.324791</v>
       </c>
       <c r="C128" t="n">
-        <v>0.561887</v>
+        <v>0.553101</v>
       </c>
       <c r="D128" t="n">
-        <v>0.582372</v>
+        <v>0.575193</v>
       </c>
       <c r="E128" t="n">
-        <v>0.260718</v>
+        <v>0.256084</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4289</v>
+        <v>0.419287</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.319781</v>
+        <v>0.3163</v>
       </c>
       <c r="C129" t="n">
-        <v>0.512948</v>
+        <v>0.50728</v>
       </c>
       <c r="D129" t="n">
-        <v>0.57509</v>
+        <v>0.569982</v>
       </c>
       <c r="E129" t="n">
-        <v>0.25972</v>
+        <v>0.255058</v>
       </c>
       <c r="F129" t="n">
-        <v>0.427691</v>
+        <v>0.418562</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.310011</v>
+        <v>0.306916</v>
       </c>
       <c r="C130" t="n">
-        <v>0.510168</v>
+        <v>0.5052410000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.575552</v>
+        <v>0.5708490000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.258815</v>
+        <v>0.254148</v>
       </c>
       <c r="F130" t="n">
-        <v>0.426765</v>
+        <v>0.417325</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.299869</v>
+        <v>0.296905</v>
       </c>
       <c r="C131" t="n">
-        <v>0.545663</v>
+        <v>0.538852</v>
       </c>
       <c r="D131" t="n">
-        <v>0.565815</v>
+        <v>0.560745</v>
       </c>
       <c r="E131" t="n">
-        <v>0.25801</v>
+        <v>0.253261</v>
       </c>
       <c r="F131" t="n">
-        <v>0.425782</v>
+        <v>0.416416</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287563</v>
+        <v>0.286028</v>
       </c>
       <c r="C132" t="n">
-        <v>0.529742</v>
+        <v>0.526596</v>
       </c>
       <c r="D132" t="n">
-        <v>0.560777</v>
+        <v>0.559128</v>
       </c>
       <c r="E132" t="n">
-        <v>0.257276</v>
+        <v>0.252561</v>
       </c>
       <c r="F132" t="n">
-        <v>0.425057</v>
+        <v>0.415645</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276238</v>
+        <v>0.274327</v>
       </c>
       <c r="C133" t="n">
-        <v>0.478403</v>
+        <v>0.471901</v>
       </c>
       <c r="D133" t="n">
-        <v>0.553517</v>
+        <v>0.550149</v>
       </c>
       <c r="E133" t="n">
-        <v>0.256698</v>
+        <v>0.251846</v>
       </c>
       <c r="F133" t="n">
-        <v>0.42439</v>
+        <v>0.414516</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.262128</v>
+        <v>0.261901</v>
       </c>
       <c r="C134" t="n">
-        <v>0.486591</v>
+        <v>0.485372</v>
       </c>
       <c r="D134" t="n">
-        <v>0.551004</v>
+        <v>0.553295</v>
       </c>
       <c r="E134" t="n">
-        <v>0.256109</v>
+        <v>0.25158</v>
       </c>
       <c r="F134" t="n">
-        <v>0.423574</v>
+        <v>0.413714</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248238</v>
+        <v>0.247937</v>
       </c>
       <c r="C135" t="n">
-        <v>0.505482</v>
+        <v>0.504293</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6137280000000001</v>
+        <v>0.6030990000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.255634</v>
+        <v>0.250734</v>
       </c>
       <c r="F135" t="n">
-        <v>0.423029</v>
+        <v>0.413197</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.230228</v>
+        <v>0.2328</v>
       </c>
       <c r="C136" t="n">
-        <v>0.427404</v>
+        <v>0.428761</v>
       </c>
       <c r="D136" t="n">
-        <v>0.63024</v>
+        <v>0.623462</v>
       </c>
       <c r="E136" t="n">
-        <v>0.255201</v>
+        <v>0.250681</v>
       </c>
       <c r="F136" t="n">
-        <v>0.422444</v>
+        <v>0.412603</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.215812</v>
+        <v>0.217133</v>
       </c>
       <c r="C137" t="n">
-        <v>0.439909</v>
+        <v>0.441584</v>
       </c>
       <c r="D137" t="n">
-        <v>0.628907</v>
+        <v>0.6234150000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.268769</v>
+        <v>0.263692</v>
       </c>
       <c r="F137" t="n">
-        <v>0.435473</v>
+        <v>0.426457</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357244</v>
+        <v>0.35329</v>
       </c>
       <c r="C138" t="n">
-        <v>0.643869</v>
+        <v>0.621461</v>
       </c>
       <c r="D138" t="n">
-        <v>0.609455</v>
+        <v>0.600404</v>
       </c>
       <c r="E138" t="n">
-        <v>0.266829</v>
+        <v>0.262096</v>
       </c>
       <c r="F138" t="n">
-        <v>0.433899</v>
+        <v>0.425219</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352337</v>
+        <v>0.348438</v>
       </c>
       <c r="C139" t="n">
-        <v>0.666689</v>
+        <v>0.650601</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6061800000000001</v>
+        <v>0.598285</v>
       </c>
       <c r="E139" t="n">
-        <v>0.265226</v>
+        <v>0.260499</v>
       </c>
       <c r="F139" t="n">
-        <v>0.432754</v>
+        <v>0.423553</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345292</v>
+        <v>0.341677</v>
       </c>
       <c r="C140" t="n">
-        <v>0.616007</v>
+        <v>0.60419</v>
       </c>
       <c r="D140" t="n">
-        <v>0.597449</v>
+        <v>0.589508</v>
       </c>
       <c r="E140" t="n">
-        <v>0.263699</v>
+        <v>0.259005</v>
       </c>
       <c r="F140" t="n">
-        <v>0.431494</v>
+        <v>0.422567</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338509</v>
+        <v>0.335903</v>
       </c>
       <c r="C141" t="n">
-        <v>0.628231</v>
+        <v>0.611531</v>
       </c>
       <c r="D141" t="n">
-        <v>0.60195</v>
+        <v>0.5970490000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.262421</v>
+        <v>0.257816</v>
       </c>
       <c r="F141" t="n">
-        <v>0.43014</v>
+        <v>0.421251</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.33073</v>
+        <v>0.328159</v>
       </c>
       <c r="C142" t="n">
-        <v>0.521429</v>
+        <v>0.510382</v>
       </c>
       <c r="D142" t="n">
-        <v>0.594594</v>
+        <v>0.589861</v>
       </c>
       <c r="E142" t="n">
-        <v>0.261326</v>
+        <v>0.256617</v>
       </c>
       <c r="F142" t="n">
-        <v>0.428954</v>
+        <v>0.420061</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.321021</v>
+        <v>0.318452</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5236769999999999</v>
+        <v>0.513115</v>
       </c>
       <c r="D143" t="n">
-        <v>0.586657</v>
+        <v>0.582991</v>
       </c>
       <c r="E143" t="n">
-        <v>0.26021</v>
+        <v>0.255586</v>
       </c>
       <c r="F143" t="n">
-        <v>0.427912</v>
+        <v>0.419153</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.275396</v>
+        <v>0.279315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.459851</v>
+        <v>0.460983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389291</v>
+        <v>0.395183</v>
       </c>
       <c r="E2" t="n">
-        <v>0.22539</v>
+        <v>0.229533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.40776</v>
+        <v>0.423106</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.272144</v>
+        <v>0.268876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.456229</v>
+        <v>0.461245</v>
       </c>
       <c r="D3" t="n">
-        <v>0.388686</v>
+        <v>0.39762</v>
       </c>
       <c r="E3" t="n">
-        <v>0.225577</v>
+        <v>0.232235</v>
       </c>
       <c r="F3" t="n">
-        <v>0.408258</v>
+        <v>0.420143</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.262102</v>
+        <v>0.261642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.449102</v>
+        <v>0.452504</v>
       </c>
       <c r="D4" t="n">
-        <v>0.390888</v>
+        <v>0.399762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.227908</v>
+        <v>0.232557</v>
       </c>
       <c r="F4" t="n">
-        <v>0.406828</v>
+        <v>0.419352</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.251734</v>
+        <v>0.247944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.436748</v>
+        <v>0.439398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.392448</v>
+        <v>0.400356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.229278</v>
+        <v>0.235516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.407636</v>
+        <v>0.419971</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237924</v>
+        <v>0.233758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.424473</v>
+        <v>0.431421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39358</v>
+        <v>0.402244</v>
       </c>
       <c r="E6" t="n">
-        <v>0.230706</v>
+        <v>0.237555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.407845</v>
+        <v>0.419788</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224057</v>
+        <v>0.226716</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412307</v>
+        <v>0.418317</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389847</v>
+        <v>0.395977</v>
       </c>
       <c r="E7" t="n">
-        <v>0.234394</v>
+        <v>0.238953</v>
       </c>
       <c r="F7" t="n">
-        <v>0.406765</v>
+        <v>0.419728</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210199</v>
+        <v>0.206325</v>
       </c>
       <c r="C8" t="n">
-        <v>0.397171</v>
+        <v>0.402515</v>
       </c>
       <c r="D8" t="n">
-        <v>0.392234</v>
+        <v>0.396874</v>
       </c>
       <c r="E8" t="n">
-        <v>0.234711</v>
+        <v>0.23934</v>
       </c>
       <c r="F8" t="n">
-        <v>0.405663</v>
+        <v>0.41853</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.193709</v>
+        <v>0.189867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.38055</v>
+        <v>0.384392</v>
       </c>
       <c r="D9" t="n">
-        <v>0.39199</v>
+        <v>0.398213</v>
       </c>
       <c r="E9" t="n">
-        <v>0.253508</v>
+        <v>0.257464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.420027</v>
+        <v>0.431168</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.336213</v>
+        <v>0.337387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.512792</v>
+        <v>0.516304</v>
       </c>
       <c r="D10" t="n">
-        <v>0.391102</v>
+        <v>0.397489</v>
       </c>
       <c r="E10" t="n">
-        <v>0.253243</v>
+        <v>0.258794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.42024</v>
+        <v>0.430474</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.329835</v>
+        <v>0.330632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.508226</v>
+        <v>0.519444</v>
       </c>
       <c r="D11" t="n">
-        <v>0.391682</v>
+        <v>0.398365</v>
       </c>
       <c r="E11" t="n">
-        <v>0.253229</v>
+        <v>0.256832</v>
       </c>
       <c r="F11" t="n">
-        <v>0.417827</v>
+        <v>0.43014</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.325428</v>
+        <v>0.324834</v>
       </c>
       <c r="C12" t="n">
-        <v>0.501513</v>
+        <v>0.512418</v>
       </c>
       <c r="D12" t="n">
-        <v>0.392378</v>
+        <v>0.400863</v>
       </c>
       <c r="E12" t="n">
-        <v>0.253162</v>
+        <v>0.256044</v>
       </c>
       <c r="F12" t="n">
-        <v>0.416201</v>
+        <v>0.42813</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318521</v>
+        <v>0.31831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.500157</v>
+        <v>0.498925</v>
       </c>
       <c r="D13" t="n">
-        <v>0.393605</v>
+        <v>0.400033</v>
       </c>
       <c r="E13" t="n">
-        <v>0.252805</v>
+        <v>0.255547</v>
       </c>
       <c r="F13" t="n">
-        <v>0.416734</v>
+        <v>0.428901</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.311486</v>
+        <v>0.310507</v>
       </c>
       <c r="C14" t="n">
-        <v>0.493154</v>
+        <v>0.496528</v>
       </c>
       <c r="D14" t="n">
-        <v>0.395745</v>
+        <v>0.401955</v>
       </c>
       <c r="E14" t="n">
-        <v>0.251042</v>
+        <v>0.255923</v>
       </c>
       <c r="F14" t="n">
-        <v>0.41624</v>
+        <v>0.428019</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.310083</v>
+        <v>0.301149</v>
       </c>
       <c r="C15" t="n">
-        <v>0.479618</v>
+        <v>0.483094</v>
       </c>
       <c r="D15" t="n">
-        <v>0.396311</v>
+        <v>0.402877</v>
       </c>
       <c r="E15" t="n">
-        <v>0.250215</v>
+        <v>0.255065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.414482</v>
+        <v>0.428341</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302109</v>
+        <v>0.293041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.47086</v>
+        <v>0.472966</v>
       </c>
       <c r="D16" t="n">
-        <v>0.396425</v>
+        <v>0.404249</v>
       </c>
       <c r="E16" t="n">
-        <v>0.250873</v>
+        <v>0.255649</v>
       </c>
       <c r="F16" t="n">
-        <v>0.413518</v>
+        <v>0.42511</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285816</v>
+        <v>0.283265</v>
       </c>
       <c r="C17" t="n">
-        <v>0.461997</v>
+        <v>0.467474</v>
       </c>
       <c r="D17" t="n">
-        <v>0.400746</v>
+        <v>0.404869</v>
       </c>
       <c r="E17" t="n">
-        <v>0.250801</v>
+        <v>0.254235</v>
       </c>
       <c r="F17" t="n">
-        <v>0.412215</v>
+        <v>0.426586</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.275413</v>
+        <v>0.273545</v>
       </c>
       <c r="C18" t="n">
-        <v>0.461002</v>
+        <v>0.458196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.399112</v>
+        <v>0.406307</v>
       </c>
       <c r="E18" t="n">
-        <v>0.250775</v>
+        <v>0.254887</v>
       </c>
       <c r="F18" t="n">
-        <v>0.413543</v>
+        <v>0.423656</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268964</v>
+        <v>0.2623</v>
       </c>
       <c r="C19" t="n">
-        <v>0.451872</v>
+        <v>0.456368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.400344</v>
+        <v>0.408797</v>
       </c>
       <c r="E19" t="n">
-        <v>0.24807</v>
+        <v>0.254412</v>
       </c>
       <c r="F19" t="n">
-        <v>0.412439</v>
+        <v>0.424001</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252214</v>
+        <v>0.25028</v>
       </c>
       <c r="C20" t="n">
-        <v>0.433338</v>
+        <v>0.437031</v>
       </c>
       <c r="D20" t="n">
-        <v>0.402016</v>
+        <v>0.410559</v>
       </c>
       <c r="E20" t="n">
-        <v>0.248362</v>
+        <v>0.253954</v>
       </c>
       <c r="F20" t="n">
-        <v>0.41175</v>
+        <v>0.423239</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239398</v>
+        <v>0.239853</v>
       </c>
       <c r="C21" t="n">
-        <v>0.421212</v>
+        <v>0.423372</v>
       </c>
       <c r="D21" t="n">
-        <v>0.397367</v>
+        <v>0.402588</v>
       </c>
       <c r="E21" t="n">
-        <v>0.246942</v>
+        <v>0.25234</v>
       </c>
       <c r="F21" t="n">
-        <v>0.410767</v>
+        <v>0.4225</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225396</v>
+        <v>0.223648</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408934</v>
+        <v>0.409545</v>
       </c>
       <c r="D22" t="n">
-        <v>0.396545</v>
+        <v>0.40328</v>
       </c>
       <c r="E22" t="n">
-        <v>0.247367</v>
+        <v>0.252482</v>
       </c>
       <c r="F22" t="n">
-        <v>0.410356</v>
+        <v>0.422527</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.213095</v>
+        <v>0.206823</v>
       </c>
       <c r="C23" t="n">
-        <v>0.394369</v>
+        <v>0.395739</v>
       </c>
       <c r="D23" t="n">
-        <v>0.397026</v>
+        <v>0.403161</v>
       </c>
       <c r="E23" t="n">
-        <v>0.264371</v>
+        <v>0.270711</v>
       </c>
       <c r="F23" t="n">
-        <v>0.424609</v>
+        <v>0.436425</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.34608</v>
+        <v>0.344834</v>
       </c>
       <c r="C24" t="n">
-        <v>0.520682</v>
+        <v>0.517211</v>
       </c>
       <c r="D24" t="n">
-        <v>0.396301</v>
+        <v>0.406017</v>
       </c>
       <c r="E24" t="n">
-        <v>0.26178</v>
+        <v>0.268237</v>
       </c>
       <c r="F24" t="n">
-        <v>0.423358</v>
+        <v>0.434743</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340904</v>
+        <v>0.337924</v>
       </c>
       <c r="C25" t="n">
-        <v>0.518719</v>
+        <v>0.517315</v>
       </c>
       <c r="D25" t="n">
-        <v>0.39866</v>
+        <v>0.406018</v>
       </c>
       <c r="E25" t="n">
-        <v>0.260077</v>
+        <v>0.265026</v>
       </c>
       <c r="F25" t="n">
-        <v>0.421549</v>
+        <v>0.434078</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334874</v>
+        <v>0.33247</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511456</v>
+        <v>0.509935</v>
       </c>
       <c r="D26" t="n">
-        <v>0.398934</v>
+        <v>0.405064</v>
       </c>
       <c r="E26" t="n">
-        <v>0.258535</v>
+        <v>0.264056</v>
       </c>
       <c r="F26" t="n">
-        <v>0.42094</v>
+        <v>0.432181</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328144</v>
+        <v>0.326689</v>
       </c>
       <c r="C27" t="n">
-        <v>0.500962</v>
+        <v>0.50585</v>
       </c>
       <c r="D27" t="n">
-        <v>0.39932</v>
+        <v>0.40758</v>
       </c>
       <c r="E27" t="n">
-        <v>0.257177</v>
+        <v>0.263243</v>
       </c>
       <c r="F27" t="n">
-        <v>0.419666</v>
+        <v>0.431412</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321445</v>
+        <v>0.318559</v>
       </c>
       <c r="C28" t="n">
-        <v>0.494147</v>
+        <v>0.496215</v>
       </c>
       <c r="D28" t="n">
-        <v>0.39998</v>
+        <v>0.406773</v>
       </c>
       <c r="E28" t="n">
-        <v>0.256561</v>
+        <v>0.262086</v>
       </c>
       <c r="F28" t="n">
-        <v>0.418967</v>
+        <v>0.431135</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313609</v>
+        <v>0.310817</v>
       </c>
       <c r="C29" t="n">
-        <v>0.486257</v>
+        <v>0.491601</v>
       </c>
       <c r="D29" t="n">
-        <v>0.401696</v>
+        <v>0.406998</v>
       </c>
       <c r="E29" t="n">
-        <v>0.255103</v>
+        <v>0.260283</v>
       </c>
       <c r="F29" t="n">
-        <v>0.417818</v>
+        <v>0.430437</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305544</v>
+        <v>0.302787</v>
       </c>
       <c r="C30" t="n">
-        <v>0.480227</v>
+        <v>0.474104</v>
       </c>
       <c r="D30" t="n">
-        <v>0.403091</v>
+        <v>0.409421</v>
       </c>
       <c r="E30" t="n">
-        <v>0.254527</v>
+        <v>0.260998</v>
       </c>
       <c r="F30" t="n">
-        <v>0.416264</v>
+        <v>0.428836</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.295956</v>
+        <v>0.292991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.462339</v>
+        <v>0.467353</v>
       </c>
       <c r="D31" t="n">
-        <v>0.402846</v>
+        <v>0.411892</v>
       </c>
       <c r="E31" t="n">
-        <v>0.252951</v>
+        <v>0.259672</v>
       </c>
       <c r="F31" t="n">
-        <v>0.415601</v>
+        <v>0.428401</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.285621</v>
+        <v>0.282067</v>
       </c>
       <c r="C32" t="n">
-        <v>0.459848</v>
+        <v>0.464565</v>
       </c>
       <c r="D32" t="n">
-        <v>0.404691</v>
+        <v>0.412041</v>
       </c>
       <c r="E32" t="n">
-        <v>0.252737</v>
+        <v>0.259242</v>
       </c>
       <c r="F32" t="n">
-        <v>0.414528</v>
+        <v>0.427516</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.275232</v>
+        <v>0.271219</v>
       </c>
       <c r="C33" t="n">
-        <v>0.453992</v>
+        <v>0.450377</v>
       </c>
       <c r="D33" t="n">
-        <v>0.405276</v>
+        <v>0.412456</v>
       </c>
       <c r="E33" t="n">
-        <v>0.252235</v>
+        <v>0.259891</v>
       </c>
       <c r="F33" t="n">
-        <v>0.413493</v>
+        <v>0.425875</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.262281</v>
+        <v>0.260133</v>
       </c>
       <c r="C34" t="n">
-        <v>0.439493</v>
+        <v>0.444774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.406166</v>
+        <v>0.413561</v>
       </c>
       <c r="E34" t="n">
-        <v>0.251925</v>
+        <v>0.261709</v>
       </c>
       <c r="F34" t="n">
-        <v>0.412791</v>
+        <v>0.426036</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249225</v>
+        <v>0.245849</v>
       </c>
       <c r="C35" t="n">
-        <v>0.418867</v>
+        <v>0.428346</v>
       </c>
       <c r="D35" t="n">
-        <v>0.403732</v>
+        <v>0.410009</v>
       </c>
       <c r="E35" t="n">
-        <v>0.250833</v>
+        <v>0.255413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.412443</v>
+        <v>0.424245</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234928</v>
+        <v>0.231398</v>
       </c>
       <c r="C36" t="n">
-        <v>0.409068</v>
+        <v>0.417521</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403895</v>
+        <v>0.410391</v>
       </c>
       <c r="E36" t="n">
-        <v>0.249897</v>
+        <v>0.254394</v>
       </c>
       <c r="F36" t="n">
-        <v>0.411154</v>
+        <v>0.423301</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.221302</v>
+        <v>0.216024</v>
       </c>
       <c r="C37" t="n">
-        <v>0.400645</v>
+        <v>0.409036</v>
       </c>
       <c r="D37" t="n">
-        <v>0.406833</v>
+        <v>0.410322</v>
       </c>
       <c r="E37" t="n">
-        <v>0.263876</v>
+        <v>0.271143</v>
       </c>
       <c r="F37" t="n">
-        <v>0.426259</v>
+        <v>0.438154</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.351185</v>
+        <v>0.350248</v>
       </c>
       <c r="C38" t="n">
-        <v>0.519921</v>
+        <v>0.52544</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40337</v>
+        <v>0.408572</v>
       </c>
       <c r="E38" t="n">
-        <v>0.261552</v>
+        <v>0.268521</v>
       </c>
       <c r="F38" t="n">
-        <v>0.424199</v>
+        <v>0.436083</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.34672</v>
+        <v>0.345723</v>
       </c>
       <c r="C39" t="n">
-        <v>0.514177</v>
+        <v>0.520166</v>
       </c>
       <c r="D39" t="n">
-        <v>0.404032</v>
+        <v>0.409609</v>
       </c>
       <c r="E39" t="n">
-        <v>0.259517</v>
+        <v>0.265497</v>
       </c>
       <c r="F39" t="n">
-        <v>0.422753</v>
+        <v>0.434843</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.340825</v>
+        <v>0.340102</v>
       </c>
       <c r="C40" t="n">
-        <v>0.508899</v>
+        <v>0.514406</v>
       </c>
       <c r="D40" t="n">
-        <v>0.405405</v>
+        <v>0.409368</v>
       </c>
       <c r="E40" t="n">
-        <v>0.258927</v>
+        <v>0.264529</v>
       </c>
       <c r="F40" t="n">
-        <v>0.42228</v>
+        <v>0.435076</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334293</v>
+        <v>0.333018</v>
       </c>
       <c r="C41" t="n">
-        <v>0.501706</v>
+        <v>0.507066</v>
       </c>
       <c r="D41" t="n">
-        <v>0.403738</v>
+        <v>0.409281</v>
       </c>
       <c r="E41" t="n">
-        <v>0.257789</v>
+        <v>0.263188</v>
       </c>
       <c r="F41" t="n">
-        <v>0.420975</v>
+        <v>0.432516</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327118</v>
+        <v>0.325963</v>
       </c>
       <c r="C42" t="n">
-        <v>0.498068</v>
+        <v>0.496331</v>
       </c>
       <c r="D42" t="n">
-        <v>0.404168</v>
+        <v>0.409287</v>
       </c>
       <c r="E42" t="n">
-        <v>0.256778</v>
+        <v>0.261926</v>
       </c>
       <c r="F42" t="n">
-        <v>0.419769</v>
+        <v>0.432143</v>
       </c>
     </row>
     <row r="43">
@@ -5908,16 +5908,16 @@
         <v>0.318272</v>
       </c>
       <c r="C43" t="n">
-        <v>0.48728</v>
+        <v>0.487169</v>
       </c>
       <c r="D43" t="n">
-        <v>0.404838</v>
+        <v>0.411555</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256077</v>
+        <v>0.261142</v>
       </c>
       <c r="F43" t="n">
-        <v>0.418514</v>
+        <v>0.43125</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309962</v>
+        <v>0.309209</v>
       </c>
       <c r="C44" t="n">
-        <v>0.479693</v>
+        <v>0.484123</v>
       </c>
       <c r="D44" t="n">
-        <v>0.405257</v>
+        <v>0.412549</v>
       </c>
       <c r="E44" t="n">
-        <v>0.254861</v>
+        <v>0.260007</v>
       </c>
       <c r="F44" t="n">
-        <v>0.418087</v>
+        <v>0.430227</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301419</v>
+        <v>0.298755</v>
       </c>
       <c r="C45" t="n">
-        <v>0.47235</v>
+        <v>0.474198</v>
       </c>
       <c r="D45" t="n">
-        <v>0.40667</v>
+        <v>0.41297</v>
       </c>
       <c r="E45" t="n">
-        <v>0.253002</v>
+        <v>0.258258</v>
       </c>
       <c r="F45" t="n">
-        <v>0.416224</v>
+        <v>0.428738</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29024</v>
+        <v>0.288579</v>
       </c>
       <c r="C46" t="n">
-        <v>0.46337</v>
+        <v>0.469119</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406154</v>
+        <v>0.412856</v>
       </c>
       <c r="E46" t="n">
-        <v>0.25225</v>
+        <v>0.257366</v>
       </c>
       <c r="F46" t="n">
-        <v>0.414969</v>
+        <v>0.427438</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.280094</v>
+        <v>0.277412</v>
       </c>
       <c r="C47" t="n">
-        <v>0.453391</v>
+        <v>0.461876</v>
       </c>
       <c r="D47" t="n">
-        <v>0.406682</v>
+        <v>0.413843</v>
       </c>
       <c r="E47" t="n">
-        <v>0.252013</v>
+        <v>0.256736</v>
       </c>
       <c r="F47" t="n">
-        <v>0.414308</v>
+        <v>0.426739</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.268063</v>
+        <v>0.26495</v>
       </c>
       <c r="C48" t="n">
-        <v>0.437457</v>
+        <v>0.44682</v>
       </c>
       <c r="D48" t="n">
-        <v>0.408854</v>
+        <v>0.415118</v>
       </c>
       <c r="E48" t="n">
-        <v>0.25099</v>
+        <v>0.256506</v>
       </c>
       <c r="F48" t="n">
-        <v>0.413987</v>
+        <v>0.426934</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.255379</v>
+        <v>0.252146</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428481</v>
+        <v>0.43401</v>
       </c>
       <c r="D49" t="n">
-        <v>0.410706</v>
+        <v>0.418288</v>
       </c>
       <c r="E49" t="n">
-        <v>0.250854</v>
+        <v>0.256291</v>
       </c>
       <c r="F49" t="n">
-        <v>0.413547</v>
+        <v>0.425623</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241137</v>
+        <v>0.237372</v>
       </c>
       <c r="C50" t="n">
-        <v>0.421273</v>
+        <v>0.425744</v>
       </c>
       <c r="D50" t="n">
-        <v>0.408722</v>
+        <v>0.416704</v>
       </c>
       <c r="E50" t="n">
-        <v>0.250283</v>
+        <v>0.255087</v>
       </c>
       <c r="F50" t="n">
-        <v>0.411495</v>
+        <v>0.42483</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227944</v>
+        <v>0.221334</v>
       </c>
       <c r="C51" t="n">
-        <v>0.39905</v>
+        <v>0.405871</v>
       </c>
       <c r="D51" t="n">
-        <v>0.410619</v>
+        <v>0.418646</v>
       </c>
       <c r="E51" t="n">
-        <v>0.264785</v>
+        <v>0.27156</v>
       </c>
       <c r="F51" t="n">
-        <v>0.426752</v>
+        <v>0.438988</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209928</v>
+        <v>0.20555</v>
       </c>
       <c r="C52" t="n">
-        <v>0.378678</v>
+        <v>0.385913</v>
       </c>
       <c r="D52" t="n">
-        <v>0.41188</v>
+        <v>0.416804</v>
       </c>
       <c r="E52" t="n">
-        <v>0.263345</v>
+        <v>0.268781</v>
       </c>
       <c r="F52" t="n">
-        <v>0.424917</v>
+        <v>0.437283</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.350436</v>
+        <v>0.34899</v>
       </c>
       <c r="C53" t="n">
-        <v>0.521737</v>
+        <v>0.521895</v>
       </c>
       <c r="D53" t="n">
-        <v>0.408587</v>
+        <v>0.41407</v>
       </c>
       <c r="E53" t="n">
-        <v>0.260705</v>
+        <v>0.266467</v>
       </c>
       <c r="F53" t="n">
-        <v>0.423767</v>
+        <v>0.436158</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.345381</v>
+        <v>0.34276</v>
       </c>
       <c r="C54" t="n">
-        <v>0.516794</v>
+        <v>0.51455</v>
       </c>
       <c r="D54" t="n">
-        <v>0.410265</v>
+        <v>0.415576</v>
       </c>
       <c r="E54" t="n">
-        <v>0.258804</v>
+        <v>0.264258</v>
       </c>
       <c r="F54" t="n">
-        <v>0.422638</v>
+        <v>0.43461</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338774</v>
+        <v>0.336508</v>
       </c>
       <c r="C55" t="n">
-        <v>0.508864</v>
+        <v>0.5120440000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.413761</v>
+        <v>0.415728</v>
       </c>
       <c r="E55" t="n">
-        <v>0.257843</v>
+        <v>0.263014</v>
       </c>
       <c r="F55" t="n">
-        <v>0.420876</v>
+        <v>0.433032</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.330264</v>
+        <v>0.32968</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5099359999999999</v>
+        <v>0.5006119999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412095</v>
+        <v>0.421402</v>
       </c>
       <c r="E56" t="n">
-        <v>0.256838</v>
+        <v>0.262247</v>
       </c>
       <c r="F56" t="n">
-        <v>0.41965</v>
+        <v>0.432093</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322507</v>
+        <v>0.321368</v>
       </c>
       <c r="C57" t="n">
-        <v>0.507202</v>
+        <v>0.502522</v>
       </c>
       <c r="D57" t="n">
-        <v>0.414885</v>
+        <v>0.422921</v>
       </c>
       <c r="E57" t="n">
-        <v>0.255867</v>
+        <v>0.261343</v>
       </c>
       <c r="F57" t="n">
-        <v>0.419248</v>
+        <v>0.431342</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314402</v>
+        <v>0.312025</v>
       </c>
       <c r="C58" t="n">
-        <v>0.495343</v>
+        <v>0.5020829999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.416476</v>
+        <v>0.424002</v>
       </c>
       <c r="E58" t="n">
-        <v>0.254753</v>
+        <v>0.260466</v>
       </c>
       <c r="F58" t="n">
-        <v>0.418303</v>
+        <v>0.430298</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305077</v>
+        <v>0.302466</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485286</v>
+        <v>0.488119</v>
       </c>
       <c r="D59" t="n">
-        <v>0.418295</v>
+        <v>0.424464</v>
       </c>
       <c r="E59" t="n">
-        <v>0.254127</v>
+        <v>0.259441</v>
       </c>
       <c r="F59" t="n">
-        <v>0.417111</v>
+        <v>0.429482</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294871</v>
+        <v>0.292451</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4857</v>
+        <v>0.493503</v>
       </c>
       <c r="D60" t="n">
-        <v>0.417812</v>
+        <v>0.43207</v>
       </c>
       <c r="E60" t="n">
-        <v>0.253453</v>
+        <v>0.258099</v>
       </c>
       <c r="F60" t="n">
-        <v>0.416263</v>
+        <v>0.432394</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284658</v>
+        <v>0.281409</v>
       </c>
       <c r="C61" t="n">
-        <v>0.477811</v>
+        <v>0.489032</v>
       </c>
       <c r="D61" t="n">
-        <v>0.424827</v>
+        <v>0.433711</v>
       </c>
       <c r="E61" t="n">
-        <v>0.252507</v>
+        <v>0.257713</v>
       </c>
       <c r="F61" t="n">
-        <v>0.415531</v>
+        <v>0.43113</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272917</v>
+        <v>0.268933</v>
       </c>
       <c r="C62" t="n">
-        <v>0.45829</v>
+        <v>0.478712</v>
       </c>
       <c r="D62" t="n">
-        <v>0.427504</v>
+        <v>0.439796</v>
       </c>
       <c r="E62" t="n">
-        <v>0.25193</v>
+        <v>0.256832</v>
       </c>
       <c r="F62" t="n">
-        <v>0.414833</v>
+        <v>0.430944</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.260443</v>
+        <v>0.255744</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450291</v>
+        <v>0.448212</v>
       </c>
       <c r="D63" t="n">
-        <v>0.430769</v>
+        <v>0.442958</v>
       </c>
       <c r="E63" t="n">
-        <v>0.251211</v>
+        <v>0.25611</v>
       </c>
       <c r="F63" t="n">
-        <v>0.413937</v>
+        <v>0.430122</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246523</v>
+        <v>0.24155</v>
       </c>
       <c r="C64" t="n">
-        <v>0.446311</v>
+        <v>0.464477</v>
       </c>
       <c r="D64" t="n">
-        <v>0.464408</v>
+        <v>0.470774</v>
       </c>
       <c r="E64" t="n">
-        <v>0.250723</v>
+        <v>0.256729</v>
       </c>
       <c r="F64" t="n">
-        <v>0.413407</v>
+        <v>0.428934</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.232527</v>
+        <v>0.22712</v>
       </c>
       <c r="C65" t="n">
-        <v>0.45315</v>
+        <v>0.439137</v>
       </c>
       <c r="D65" t="n">
-        <v>0.472027</v>
+        <v>0.474181</v>
       </c>
       <c r="E65" t="n">
-        <v>0.251684</v>
+        <v>0.255394</v>
       </c>
       <c r="F65" t="n">
-        <v>0.413135</v>
+        <v>0.428508</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.215383</v>
+        <v>0.210376</v>
       </c>
       <c r="C66" t="n">
-        <v>0.452198</v>
+        <v>0.422025</v>
       </c>
       <c r="D66" t="n">
-        <v>0.482533</v>
+        <v>0.481327</v>
       </c>
       <c r="E66" t="n">
-        <v>0.264068</v>
+        <v>0.269539</v>
       </c>
       <c r="F66" t="n">
-        <v>0.426016</v>
+        <v>0.441816</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.352701</v>
+        <v>0.351058</v>
       </c>
       <c r="C67" t="n">
-        <v>0.571708</v>
+        <v>0.567774</v>
       </c>
       <c r="D67" t="n">
-        <v>0.480263</v>
+        <v>0.491615</v>
       </c>
       <c r="E67" t="n">
-        <v>0.261613</v>
+        <v>0.267277</v>
       </c>
       <c r="F67" t="n">
-        <v>0.424725</v>
+        <v>0.440247</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347749</v>
+        <v>0.345156</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5689149999999999</v>
+        <v>0.572209</v>
       </c>
       <c r="D68" t="n">
-        <v>0.484486</v>
+        <v>0.497113</v>
       </c>
       <c r="E68" t="n">
-        <v>0.259731</v>
+        <v>0.265481</v>
       </c>
       <c r="F68" t="n">
-        <v>0.423649</v>
+        <v>0.439015</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.341389</v>
+        <v>0.339093</v>
       </c>
       <c r="C69" t="n">
-        <v>0.546662</v>
+        <v>0.549724</v>
       </c>
       <c r="D69" t="n">
-        <v>0.49296</v>
+        <v>0.5044689999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.258561</v>
+        <v>0.263769</v>
       </c>
       <c r="F69" t="n">
-        <v>0.421934</v>
+        <v>0.437706</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.334558</v>
+        <v>0.331318</v>
       </c>
       <c r="C70" t="n">
-        <v>0.593171</v>
+        <v>0.565819</v>
       </c>
       <c r="D70" t="n">
-        <v>0.520573</v>
+        <v>0.506145</v>
       </c>
       <c r="E70" t="n">
-        <v>0.257369</v>
+        <v>0.262513</v>
       </c>
       <c r="F70" t="n">
-        <v>0.420831</v>
+        <v>0.436817</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.326566</v>
+        <v>0.323449</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5923</v>
+        <v>0.510713</v>
       </c>
       <c r="D71" t="n">
-        <v>0.503572</v>
+        <v>0.5270049999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.256376</v>
+        <v>0.261343</v>
       </c>
       <c r="F71" t="n">
-        <v>0.419542</v>
+        <v>0.43605</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.317683</v>
+        <v>0.314175</v>
       </c>
       <c r="C72" t="n">
-        <v>0.581349</v>
+        <v>0.552998</v>
       </c>
       <c r="D72" t="n">
-        <v>0.530073</v>
+        <v>0.519191</v>
       </c>
       <c r="E72" t="n">
-        <v>0.255154</v>
+        <v>0.260323</v>
       </c>
       <c r="F72" t="n">
-        <v>0.418533</v>
+        <v>0.43443</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.308199</v>
+        <v>0.304861</v>
       </c>
       <c r="C73" t="n">
-        <v>0.593486</v>
+        <v>0.532204</v>
       </c>
       <c r="D73" t="n">
-        <v>0.531938</v>
+        <v>0.544102</v>
       </c>
       <c r="E73" t="n">
-        <v>0.254103</v>
+        <v>0.259304</v>
       </c>
       <c r="F73" t="n">
-        <v>0.417343</v>
+        <v>0.433433</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298918</v>
+        <v>0.294748</v>
       </c>
       <c r="C74" t="n">
-        <v>0.540611</v>
+        <v>0.528709</v>
       </c>
       <c r="D74" t="n">
-        <v>0.536555</v>
+        <v>0.5250050000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.253228</v>
+        <v>0.25844</v>
       </c>
       <c r="F74" t="n">
-        <v>0.416273</v>
+        <v>0.432502</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288138</v>
+        <v>0.284311</v>
       </c>
       <c r="C75" t="n">
-        <v>0.542481</v>
+        <v>0.5350009999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.516096</v>
+        <v>0.526454</v>
       </c>
       <c r="E75" t="n">
-        <v>0.252672</v>
+        <v>0.257729</v>
       </c>
       <c r="F75" t="n">
-        <v>0.416005</v>
+        <v>0.431578</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276504</v>
+        <v>0.272202</v>
       </c>
       <c r="C76" t="n">
-        <v>0.551444</v>
+        <v>0.521491</v>
       </c>
       <c r="D76" t="n">
-        <v>0.51527</v>
+        <v>0.549416</v>
       </c>
       <c r="E76" t="n">
-        <v>0.251997</v>
+        <v>0.25721</v>
       </c>
       <c r="F76" t="n">
-        <v>0.415257</v>
+        <v>0.430994</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263895</v>
+        <v>0.259073</v>
       </c>
       <c r="C77" t="n">
-        <v>0.520495</v>
+        <v>0.543855</v>
       </c>
       <c r="D77" t="n">
-        <v>0.51779</v>
+        <v>0.529529</v>
       </c>
       <c r="E77" t="n">
-        <v>0.251322</v>
+        <v>0.256702</v>
       </c>
       <c r="F77" t="n">
-        <v>0.414608</v>
+        <v>0.430506</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.250455</v>
+        <v>0.24592</v>
       </c>
       <c r="C78" t="n">
-        <v>0.554552</v>
+        <v>0.501269</v>
       </c>
       <c r="D78" t="n">
-        <v>0.575621</v>
+        <v>0.603793</v>
       </c>
       <c r="E78" t="n">
-        <v>0.25091</v>
+        <v>0.256138</v>
       </c>
       <c r="F78" t="n">
-        <v>0.41299</v>
+        <v>0.429244</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.235559</v>
+        <v>0.230523</v>
       </c>
       <c r="C79" t="n">
-        <v>0.420914</v>
+        <v>0.494682</v>
       </c>
       <c r="D79" t="n">
-        <v>0.636373</v>
+        <v>0.593325</v>
       </c>
       <c r="E79" t="n">
-        <v>0.250639</v>
+        <v>0.255327</v>
       </c>
       <c r="F79" t="n">
-        <v>0.413226</v>
+        <v>0.428973</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.219776</v>
+        <v>0.214199</v>
       </c>
       <c r="C80" t="n">
-        <v>0.429026</v>
+        <v>0.52555</v>
       </c>
       <c r="D80" t="n">
-        <v>0.579856</v>
+        <v>0.607347</v>
       </c>
       <c r="E80" t="n">
-        <v>0.265088</v>
+        <v>0.270171</v>
       </c>
       <c r="F80" t="n">
-        <v>0.42701</v>
+        <v>0.442755</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.354775</v>
+        <v>0.352915</v>
       </c>
       <c r="C81" t="n">
-        <v>0.630331</v>
+        <v>0.614489</v>
       </c>
       <c r="D81" t="n">
-        <v>0.597803</v>
+        <v>0.599751</v>
       </c>
       <c r="E81" t="n">
-        <v>0.262627</v>
+        <v>0.267855</v>
       </c>
       <c r="F81" t="n">
-        <v>0.425084</v>
+        <v>0.440995</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.349393</v>
+        <v>0.347608</v>
       </c>
       <c r="C82" t="n">
-        <v>0.578766</v>
+        <v>0.599484</v>
       </c>
       <c r="D82" t="n">
-        <v>0.584627</v>
+        <v>0.595069</v>
       </c>
       <c r="E82" t="n">
-        <v>0.260578</v>
+        <v>0.265485</v>
       </c>
       <c r="F82" t="n">
-        <v>0.423938</v>
+        <v>0.439451</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.342849</v>
+        <v>0.34074</v>
       </c>
       <c r="C83" t="n">
-        <v>0.620072</v>
+        <v>0.58221</v>
       </c>
       <c r="D83" t="n">
-        <v>0.592819</v>
+        <v>0.591313</v>
       </c>
       <c r="E83" t="n">
-        <v>0.259155</v>
+        <v>0.263917</v>
       </c>
       <c r="F83" t="n">
-        <v>0.422552</v>
+        <v>0.438354</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.335645</v>
+        <v>0.333547</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5981300000000001</v>
+        <v>0.636426</v>
       </c>
       <c r="D84" t="n">
-        <v>0.577901</v>
+        <v>0.600032</v>
       </c>
       <c r="E84" t="n">
-        <v>0.257648</v>
+        <v>0.262803</v>
       </c>
       <c r="F84" t="n">
-        <v>0.42144</v>
+        <v>0.437039</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.328069</v>
+        <v>0.325384</v>
       </c>
       <c r="C85" t="n">
-        <v>0.607146</v>
+        <v>0.604672</v>
       </c>
       <c r="D85" t="n">
-        <v>0.580987</v>
+        <v>0.585168</v>
       </c>
       <c r="E85" t="n">
-        <v>0.256711</v>
+        <v>0.261658</v>
       </c>
       <c r="F85" t="n">
-        <v>0.420214</v>
+        <v>0.436061</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.319903</v>
+        <v>0.316477</v>
       </c>
       <c r="C86" t="n">
-        <v>0.571179</v>
+        <v>0.659068</v>
       </c>
       <c r="D86" t="n">
-        <v>0.572995</v>
+        <v>0.587578</v>
       </c>
       <c r="E86" t="n">
-        <v>0.255541</v>
+        <v>0.2605</v>
       </c>
       <c r="F86" t="n">
-        <v>0.419405</v>
+        <v>0.435015</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310849</v>
+        <v>0.307162</v>
       </c>
       <c r="C87" t="n">
-        <v>0.535321</v>
+        <v>0.609927</v>
       </c>
       <c r="D87" t="n">
-        <v>0.568318</v>
+        <v>0.584128</v>
       </c>
       <c r="E87" t="n">
-        <v>0.254399</v>
+        <v>0.25951</v>
       </c>
       <c r="F87" t="n">
-        <v>0.418373</v>
+        <v>0.434301</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301045</v>
+        <v>0.296851</v>
       </c>
       <c r="C88" t="n">
-        <v>0.59189</v>
+        <v>0.520506</v>
       </c>
       <c r="D88" t="n">
-        <v>0.565101</v>
+        <v>0.5760150000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>0.253464</v>
+        <v>0.258574</v>
       </c>
       <c r="F88" t="n">
-        <v>0.417578</v>
+        <v>0.433137</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290339</v>
+        <v>0.286216</v>
       </c>
       <c r="C89" t="n">
-        <v>0.581236</v>
+        <v>0.538016</v>
       </c>
       <c r="D89" t="n">
-        <v>0.563913</v>
+        <v>0.572959</v>
       </c>
       <c r="E89" t="n">
-        <v>0.252786</v>
+        <v>0.258199</v>
       </c>
       <c r="F89" t="n">
-        <v>0.416395</v>
+        <v>0.432513</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.279217</v>
+        <v>0.274275</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5355490000000001</v>
+        <v>0.5287770000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.559681</v>
+        <v>0.570904</v>
       </c>
       <c r="E90" t="n">
-        <v>0.251604</v>
+        <v>0.257189</v>
       </c>
       <c r="F90" t="n">
-        <v>0.415669</v>
+        <v>0.431411</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.267119</v>
+        <v>0.261315</v>
       </c>
       <c r="C91" t="n">
-        <v>0.553099</v>
+        <v>0.505706</v>
       </c>
       <c r="D91" t="n">
-        <v>0.556994</v>
+        <v>0.567892</v>
       </c>
       <c r="E91" t="n">
-        <v>0.251126</v>
+        <v>0.256791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.415123</v>
+        <v>0.43057</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.253871</v>
+        <v>0.247679</v>
       </c>
       <c r="C92" t="n">
-        <v>0.456609</v>
+        <v>0.583223</v>
       </c>
       <c r="D92" t="n">
-        <v>0.604994</v>
+        <v>0.618344</v>
       </c>
       <c r="E92" t="n">
-        <v>0.250546</v>
+        <v>0.25652</v>
       </c>
       <c r="F92" t="n">
-        <v>0.414031</v>
+        <v>0.430138</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.239663</v>
+        <v>0.233049</v>
       </c>
       <c r="C93" t="n">
-        <v>0.473689</v>
+        <v>0.485776</v>
       </c>
       <c r="D93" t="n">
-        <v>0.605203</v>
+        <v>0.617902</v>
       </c>
       <c r="E93" t="n">
-        <v>0.250317</v>
+        <v>0.255506</v>
       </c>
       <c r="F93" t="n">
-        <v>0.413303</v>
+        <v>0.429359</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.223837</v>
+        <v>0.216972</v>
       </c>
       <c r="C94" t="n">
-        <v>0.534738</v>
+        <v>0.50041</v>
       </c>
       <c r="D94" t="n">
-        <v>0.605747</v>
+        <v>0.614223</v>
       </c>
       <c r="E94" t="n">
-        <v>0.264947</v>
+        <v>0.270792</v>
       </c>
       <c r="F94" t="n">
-        <v>0.429</v>
+        <v>0.444829</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35564</v>
+        <v>0.354569</v>
       </c>
       <c r="C95" t="n">
-        <v>0.542895</v>
+        <v>0.697236</v>
       </c>
       <c r="D95" t="n">
-        <v>0.586871</v>
+        <v>0.597248</v>
       </c>
       <c r="E95" t="n">
-        <v>0.262857</v>
+        <v>0.268228</v>
       </c>
       <c r="F95" t="n">
-        <v>0.425451</v>
+        <v>0.441089</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.350477</v>
+        <v>0.349163</v>
       </c>
       <c r="C96" t="n">
-        <v>0.66106</v>
+        <v>0.645926</v>
       </c>
       <c r="D96" t="n">
-        <v>0.588928</v>
+        <v>0.600208</v>
       </c>
       <c r="E96" t="n">
-        <v>0.260853</v>
+        <v>0.266202</v>
       </c>
       <c r="F96" t="n">
-        <v>0.424012</v>
+        <v>0.439808</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.344905</v>
+        <v>0.342727</v>
       </c>
       <c r="C97" t="n">
-        <v>0.672778</v>
+        <v>0.661521</v>
       </c>
       <c r="D97" t="n">
-        <v>0.587759</v>
+        <v>0.598007</v>
       </c>
       <c r="E97" t="n">
-        <v>0.259534</v>
+        <v>0.264636</v>
       </c>
       <c r="F97" t="n">
-        <v>0.422641</v>
+        <v>0.438654</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.337825</v>
+        <v>0.335501</v>
       </c>
       <c r="C98" t="n">
-        <v>0.621515</v>
+        <v>0.646733</v>
       </c>
       <c r="D98" t="n">
-        <v>0.579687</v>
+        <v>0.592022</v>
       </c>
       <c r="E98" t="n">
-        <v>0.258032</v>
+        <v>0.263245</v>
       </c>
       <c r="F98" t="n">
-        <v>0.421249</v>
+        <v>0.437432</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.329854</v>
+        <v>0.327452</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6288550000000001</v>
+        <v>0.5889720000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5800959999999999</v>
+        <v>0.588476</v>
       </c>
       <c r="E99" t="n">
-        <v>0.256837</v>
+        <v>0.261921</v>
       </c>
       <c r="F99" t="n">
-        <v>0.420319</v>
+        <v>0.436021</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.321858</v>
+        <v>0.318918</v>
       </c>
       <c r="C100" t="n">
-        <v>0.533199</v>
+        <v>0.646514</v>
       </c>
       <c r="D100" t="n">
-        <v>0.567211</v>
+        <v>0.5767679999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.255492</v>
+        <v>0.260746</v>
       </c>
       <c r="F100" t="n">
-        <v>0.419042</v>
+        <v>0.434908</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31264</v>
+        <v>0.309835</v>
       </c>
       <c r="C101" t="n">
-        <v>0.518688</v>
+        <v>0.5445</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5666639999999999</v>
+        <v>0.571942</v>
       </c>
       <c r="E101" t="n">
-        <v>0.254481</v>
+        <v>0.259569</v>
       </c>
       <c r="F101" t="n">
-        <v>0.418214</v>
+        <v>0.434054</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303223</v>
+        <v>0.299907</v>
       </c>
       <c r="C102" t="n">
-        <v>0.559818</v>
+        <v>0.623126</v>
       </c>
       <c r="D102" t="n">
-        <v>0.557086</v>
+        <v>0.5679689999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.25376</v>
+        <v>0.258808</v>
       </c>
       <c r="F102" t="n">
-        <v>0.416978</v>
+        <v>0.433057</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292767</v>
+        <v>0.289263</v>
       </c>
       <c r="C103" t="n">
-        <v>0.610809</v>
+        <v>0.593175</v>
       </c>
       <c r="D103" t="n">
-        <v>0.555651</v>
+        <v>0.564422</v>
       </c>
       <c r="E103" t="n">
-        <v>0.252809</v>
+        <v>0.25794</v>
       </c>
       <c r="F103" t="n">
-        <v>0.416397</v>
+        <v>0.432045</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281682</v>
+        <v>0.27775</v>
       </c>
       <c r="C104" t="n">
-        <v>0.547171</v>
+        <v>0.593101</v>
       </c>
       <c r="D104" t="n">
-        <v>0.550549</v>
+        <v>0.564103</v>
       </c>
       <c r="E104" t="n">
-        <v>0.252543</v>
+        <v>0.257981</v>
       </c>
       <c r="F104" t="n">
-        <v>0.415319</v>
+        <v>0.431258</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269904</v>
+        <v>0.264796</v>
       </c>
       <c r="C105" t="n">
-        <v>0.56373</v>
+        <v>0.547087</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5438499999999999</v>
+        <v>0.556082</v>
       </c>
       <c r="E105" t="n">
-        <v>0.252173</v>
+        <v>0.257396</v>
       </c>
       <c r="F105" t="n">
-        <v>0.414384</v>
+        <v>0.430623</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.256868</v>
+        <v>0.251202</v>
       </c>
       <c r="C106" t="n">
-        <v>0.491911</v>
+        <v>0.541378</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5425219999999999</v>
+        <v>0.5529539999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.25163</v>
+        <v>0.257446</v>
       </c>
       <c r="F106" t="n">
-        <v>0.413755</v>
+        <v>0.429896</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242782</v>
+        <v>0.236313</v>
       </c>
       <c r="C107" t="n">
-        <v>0.460139</v>
+        <v>0.519216</v>
       </c>
       <c r="D107" t="n">
-        <v>0.585502</v>
+        <v>0.5924430000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.250933</v>
+        <v>0.256606</v>
       </c>
       <c r="F107" t="n">
-        <v>0.412986</v>
+        <v>0.429015</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.227125</v>
+        <v>0.222053</v>
       </c>
       <c r="C108" t="n">
-        <v>0.456899</v>
+        <v>0.453154</v>
       </c>
       <c r="D108" t="n">
-        <v>0.581564</v>
+        <v>0.615696</v>
       </c>
       <c r="E108" t="n">
-        <v>0.265213</v>
+        <v>0.270891</v>
       </c>
       <c r="F108" t="n">
-        <v>0.427373</v>
+        <v>0.442841</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209463</v>
+        <v>0.204081</v>
       </c>
       <c r="C109" t="n">
-        <v>0.471586</v>
+        <v>0.439795</v>
       </c>
       <c r="D109" t="n">
-        <v>0.583811</v>
+        <v>0.613388</v>
       </c>
       <c r="E109" t="n">
-        <v>0.263404</v>
+        <v>0.268741</v>
       </c>
       <c r="F109" t="n">
-        <v>0.426117</v>
+        <v>0.4414</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.351197</v>
+        <v>0.350174</v>
       </c>
       <c r="C110" t="n">
-        <v>0.524343</v>
+        <v>0.530065</v>
       </c>
       <c r="D110" t="n">
-        <v>0.580898</v>
+        <v>0.590664</v>
       </c>
       <c r="E110" t="n">
-        <v>0.261353</v>
+        <v>0.26684</v>
       </c>
       <c r="F110" t="n">
-        <v>0.424475</v>
+        <v>0.439913</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.345622</v>
+        <v>0.344055</v>
       </c>
       <c r="C111" t="n">
-        <v>0.626628</v>
+        <v>0.582399</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5774550000000001</v>
+        <v>0.589896</v>
       </c>
       <c r="E111" t="n">
-        <v>0.259363</v>
+        <v>0.264709</v>
       </c>
       <c r="F111" t="n">
-        <v>0.423084</v>
+        <v>0.438719</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33909</v>
+        <v>0.336959</v>
       </c>
       <c r="C112" t="n">
-        <v>0.564105</v>
+        <v>0.546708</v>
       </c>
       <c r="D112" t="n">
-        <v>0.589383</v>
+        <v>0.590425</v>
       </c>
       <c r="E112" t="n">
-        <v>0.258243</v>
+        <v>0.263405</v>
       </c>
       <c r="F112" t="n">
-        <v>0.421941</v>
+        <v>0.43758</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.331382</v>
+        <v>0.329445</v>
       </c>
       <c r="C113" t="n">
-        <v>0.620487</v>
+        <v>0.666237</v>
       </c>
       <c r="D113" t="n">
-        <v>0.582237</v>
+        <v>0.576654</v>
       </c>
       <c r="E113" t="n">
-        <v>0.257061</v>
+        <v>0.262113</v>
       </c>
       <c r="F113" t="n">
-        <v>0.420531</v>
+        <v>0.436281</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.324087</v>
+        <v>0.320879</v>
       </c>
       <c r="C114" t="n">
-        <v>0.543512</v>
+        <v>0.627335</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5657489999999999</v>
+        <v>0.572973</v>
       </c>
       <c r="E114" t="n">
-        <v>0.255947</v>
+        <v>0.260947</v>
       </c>
       <c r="F114" t="n">
-        <v>0.419491</v>
+        <v>0.435305</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.314883</v>
+        <v>0.311724</v>
       </c>
       <c r="C115" t="n">
-        <v>0.574195</v>
+        <v>0.584985</v>
       </c>
       <c r="D115" t="n">
-        <v>0.559557</v>
+        <v>0.568669</v>
       </c>
       <c r="E115" t="n">
-        <v>0.254837</v>
+        <v>0.259931</v>
       </c>
       <c r="F115" t="n">
-        <v>0.418595</v>
+        <v>0.434154</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305451</v>
+        <v>0.301977</v>
       </c>
       <c r="C116" t="n">
-        <v>0.513995</v>
+        <v>0.614466</v>
       </c>
       <c r="D116" t="n">
-        <v>0.555095</v>
+        <v>0.566403</v>
       </c>
       <c r="E116" t="n">
-        <v>0.25396</v>
+        <v>0.258934</v>
       </c>
       <c r="F116" t="n">
-        <v>0.417766</v>
+        <v>0.433277</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295272</v>
+        <v>0.291349</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5469039999999999</v>
+        <v>0.561531</v>
       </c>
       <c r="D117" t="n">
-        <v>0.555866</v>
+        <v>0.561331</v>
       </c>
       <c r="E117" t="n">
-        <v>0.253012</v>
+        <v>0.258178</v>
       </c>
       <c r="F117" t="n">
-        <v>0.417187</v>
+        <v>0.432378</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284192</v>
+        <v>0.279977</v>
       </c>
       <c r="C118" t="n">
-        <v>0.520607</v>
+        <v>0.519873</v>
       </c>
       <c r="D118" t="n">
-        <v>0.553253</v>
+        <v>0.557527</v>
       </c>
       <c r="E118" t="n">
-        <v>0.252359</v>
+        <v>0.257676</v>
       </c>
       <c r="F118" t="n">
-        <v>0.415948</v>
+        <v>0.431424</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27258</v>
+        <v>0.267832</v>
       </c>
       <c r="C119" t="n">
-        <v>0.55222</v>
+        <v>0.581815</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5444600000000001</v>
+        <v>0.555132</v>
       </c>
       <c r="E119" t="n">
-        <v>0.251666</v>
+        <v>0.257144</v>
       </c>
       <c r="F119" t="n">
-        <v>0.415389</v>
+        <v>0.430821</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259565</v>
+        <v>0.254266</v>
       </c>
       <c r="C120" t="n">
-        <v>0.541035</v>
+        <v>0.488795</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5395</v>
+        <v>0.552087</v>
       </c>
       <c r="E120" t="n">
-        <v>0.251515</v>
+        <v>0.25633</v>
       </c>
       <c r="F120" t="n">
-        <v>0.414758</v>
+        <v>0.430151</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.245865</v>
+        <v>0.239893</v>
       </c>
       <c r="C121" t="n">
-        <v>0.501868</v>
+        <v>0.531778</v>
       </c>
       <c r="D121" t="n">
-        <v>0.620049</v>
+        <v>0.608663</v>
       </c>
       <c r="E121" t="n">
-        <v>0.251</v>
+        <v>0.255948</v>
       </c>
       <c r="F121" t="n">
-        <v>0.413641</v>
+        <v>0.429923</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.230877</v>
+        <v>0.225095</v>
       </c>
       <c r="C122" t="n">
-        <v>0.431968</v>
+        <v>0.510636</v>
       </c>
       <c r="D122" t="n">
-        <v>0.617995</v>
+        <v>0.628144</v>
       </c>
       <c r="E122" t="n">
-        <v>0.25036</v>
+        <v>0.255893</v>
       </c>
       <c r="F122" t="n">
-        <v>0.412463</v>
+        <v>0.428632</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.214185</v>
+        <v>0.207579</v>
       </c>
       <c r="C123" t="n">
-        <v>0.431169</v>
+        <v>0.453255</v>
       </c>
       <c r="D123" t="n">
-        <v>0.613839</v>
+        <v>0.604289</v>
       </c>
       <c r="E123" t="n">
-        <v>0.263508</v>
+        <v>0.268804</v>
       </c>
       <c r="F123" t="n">
-        <v>0.425859</v>
+        <v>0.441758</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.352654</v>
+        <v>0.351874</v>
       </c>
       <c r="C124" t="n">
-        <v>0.529792</v>
+        <v>0.542272</v>
       </c>
       <c r="D124" t="n">
-        <v>0.609177</v>
+        <v>0.617664</v>
       </c>
       <c r="E124" t="n">
-        <v>0.261306</v>
+        <v>0.266558</v>
       </c>
       <c r="F124" t="n">
-        <v>0.424437</v>
+        <v>0.440292</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.346774</v>
+        <v>0.345538</v>
       </c>
       <c r="C125" t="n">
-        <v>0.692774</v>
+        <v>0.641357</v>
       </c>
       <c r="D125" t="n">
-        <v>0.603307</v>
+        <v>0.613175</v>
       </c>
       <c r="E125" t="n">
-        <v>0.259782</v>
+        <v>0.264985</v>
       </c>
       <c r="F125" t="n">
-        <v>0.422971</v>
+        <v>0.438932</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.340439</v>
+        <v>0.338698</v>
       </c>
       <c r="C126" t="n">
-        <v>0.576156</v>
+        <v>0.557903</v>
       </c>
       <c r="D126" t="n">
-        <v>0.598018</v>
+        <v>0.607799</v>
       </c>
       <c r="E126" t="n">
-        <v>0.258436</v>
+        <v>0.263594</v>
       </c>
       <c r="F126" t="n">
-        <v>0.421715</v>
+        <v>0.437745</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33247</v>
+        <v>0.330921</v>
       </c>
       <c r="C127" t="n">
-        <v>0.53361</v>
+        <v>0.6182299999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.577801</v>
+        <v>0.604375</v>
       </c>
       <c r="E127" t="n">
-        <v>0.257243</v>
+        <v>0.262325</v>
       </c>
       <c r="F127" t="n">
-        <v>0.420525</v>
+        <v>0.436637</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324791</v>
+        <v>0.323555</v>
       </c>
       <c r="C128" t="n">
-        <v>0.553101</v>
+        <v>0.596306</v>
       </c>
       <c r="D128" t="n">
-        <v>0.575193</v>
+        <v>0.587286</v>
       </c>
       <c r="E128" t="n">
-        <v>0.256084</v>
+        <v>0.261149</v>
       </c>
       <c r="F128" t="n">
-        <v>0.419287</v>
+        <v>0.435545</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3163</v>
+        <v>0.313896</v>
       </c>
       <c r="C129" t="n">
-        <v>0.50728</v>
+        <v>0.656617</v>
       </c>
       <c r="D129" t="n">
-        <v>0.569982</v>
+        <v>0.590121</v>
       </c>
       <c r="E129" t="n">
-        <v>0.255058</v>
+        <v>0.260142</v>
       </c>
       <c r="F129" t="n">
-        <v>0.418562</v>
+        <v>0.434274</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306916</v>
+        <v>0.304394</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5052410000000001</v>
+        <v>0.614653</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5708490000000001</v>
+        <v>0.576965</v>
       </c>
       <c r="E130" t="n">
-        <v>0.254148</v>
+        <v>0.259213</v>
       </c>
       <c r="F130" t="n">
-        <v>0.417325</v>
+        <v>0.433276</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.296905</v>
+        <v>0.29393</v>
       </c>
       <c r="C131" t="n">
-        <v>0.538852</v>
+        <v>0.582253</v>
       </c>
       <c r="D131" t="n">
-        <v>0.560745</v>
+        <v>0.571738</v>
       </c>
       <c r="E131" t="n">
-        <v>0.253261</v>
+        <v>0.258385</v>
       </c>
       <c r="F131" t="n">
-        <v>0.416416</v>
+        <v>0.432308</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.286028</v>
+        <v>0.282793</v>
       </c>
       <c r="C132" t="n">
-        <v>0.526596</v>
+        <v>0.569347</v>
       </c>
       <c r="D132" t="n">
-        <v>0.559128</v>
+        <v>0.5673589999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.252561</v>
+        <v>0.257717</v>
       </c>
       <c r="F132" t="n">
-        <v>0.415645</v>
+        <v>0.431338</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274327</v>
+        <v>0.271111</v>
       </c>
       <c r="C133" t="n">
-        <v>0.471901</v>
+        <v>0.584511</v>
       </c>
       <c r="D133" t="n">
-        <v>0.550149</v>
+        <v>0.564511</v>
       </c>
       <c r="E133" t="n">
-        <v>0.251846</v>
+        <v>0.257303</v>
       </c>
       <c r="F133" t="n">
-        <v>0.414516</v>
+        <v>0.430746</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261901</v>
+        <v>0.258038</v>
       </c>
       <c r="C134" t="n">
-        <v>0.485372</v>
+        <v>0.550401</v>
       </c>
       <c r="D134" t="n">
-        <v>0.553295</v>
+        <v>0.5582589999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.25158</v>
+        <v>0.256441</v>
       </c>
       <c r="F134" t="n">
-        <v>0.413714</v>
+        <v>0.429915</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247937</v>
+        <v>0.24411</v>
       </c>
       <c r="C135" t="n">
-        <v>0.504293</v>
+        <v>0.536062</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6030990000000001</v>
+        <v>0.613714</v>
       </c>
       <c r="E135" t="n">
-        <v>0.250734</v>
+        <v>0.256005</v>
       </c>
       <c r="F135" t="n">
-        <v>0.413197</v>
+        <v>0.429314</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2328</v>
+        <v>0.227844</v>
       </c>
       <c r="C136" t="n">
-        <v>0.428761</v>
+        <v>0.51793</v>
       </c>
       <c r="D136" t="n">
-        <v>0.623462</v>
+        <v>0.615111</v>
       </c>
       <c r="E136" t="n">
-        <v>0.250681</v>
+        <v>0.255593</v>
       </c>
       <c r="F136" t="n">
-        <v>0.412603</v>
+        <v>0.428755</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.217133</v>
+        <v>0.211553</v>
       </c>
       <c r="C137" t="n">
-        <v>0.441584</v>
+        <v>0.496961</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6234150000000001</v>
+        <v>0.6309129999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.263692</v>
+        <v>0.269335</v>
       </c>
       <c r="F137" t="n">
-        <v>0.426457</v>
+        <v>0.441997</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.35329</v>
+        <v>0.353179</v>
       </c>
       <c r="C138" t="n">
-        <v>0.621461</v>
+        <v>0.678621</v>
       </c>
       <c r="D138" t="n">
-        <v>0.600404</v>
+        <v>0.609463</v>
       </c>
       <c r="E138" t="n">
-        <v>0.262096</v>
+        <v>0.267367</v>
       </c>
       <c r="F138" t="n">
-        <v>0.425219</v>
+        <v>0.440681</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.348438</v>
+        <v>0.348645</v>
       </c>
       <c r="C139" t="n">
-        <v>0.650601</v>
+        <v>0.6724909999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.598285</v>
+        <v>0.606924</v>
       </c>
       <c r="E139" t="n">
-        <v>0.260499</v>
+        <v>0.26566</v>
       </c>
       <c r="F139" t="n">
-        <v>0.423553</v>
+        <v>0.439303</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341677</v>
+        <v>0.340407</v>
       </c>
       <c r="C140" t="n">
-        <v>0.60419</v>
+        <v>0.632009</v>
       </c>
       <c r="D140" t="n">
-        <v>0.589508</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.259005</v>
+        <v>0.264254</v>
       </c>
       <c r="F140" t="n">
-        <v>0.422567</v>
+        <v>0.438163</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.335903</v>
+        <v>0.333796</v>
       </c>
       <c r="C141" t="n">
-        <v>0.611531</v>
+        <v>0.624077</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5970490000000001</v>
+        <v>0.609372</v>
       </c>
       <c r="E141" t="n">
-        <v>0.257816</v>
+        <v>0.262946</v>
       </c>
       <c r="F141" t="n">
-        <v>0.421251</v>
+        <v>0.43682</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328159</v>
+        <v>0.325172</v>
       </c>
       <c r="C142" t="n">
-        <v>0.510382</v>
+        <v>0.6404069999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.589861</v>
+        <v>0.601224</v>
       </c>
       <c r="E142" t="n">
-        <v>0.256617</v>
+        <v>0.261718</v>
       </c>
       <c r="F142" t="n">
-        <v>0.420061</v>
+        <v>0.435698</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.318452</v>
+        <v>0.317086</v>
       </c>
       <c r="C143" t="n">
-        <v>0.513115</v>
+        <v>0.633365</v>
       </c>
       <c r="D143" t="n">
-        <v>0.582991</v>
+        <v>0.593881</v>
       </c>
       <c r="E143" t="n">
-        <v>0.255586</v>
+        <v>0.260664</v>
       </c>
       <c r="F143" t="n">
-        <v>0.419153</v>
+        <v>0.434778</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.272346</v>
+        <v>0.24739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455327</v>
+        <v>0.445092</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389629</v>
+        <v>0.383042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.225197</v>
+        <v>0.218873</v>
       </c>
       <c r="F2" t="n">
-        <v>0.41868</v>
+        <v>0.390547</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269812</v>
+        <v>0.244737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.449962</v>
+        <v>0.441218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.390834</v>
+        <v>0.385157</v>
       </c>
       <c r="E3" t="n">
-        <v>0.227552</v>
+        <v>0.223292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.415323</v>
+        <v>0.391944</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258997</v>
+        <v>0.237512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.449795</v>
+        <v>0.428616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.393093</v>
+        <v>0.386206</v>
       </c>
       <c r="E4" t="n">
-        <v>0.228178</v>
+        <v>0.223423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.415211</v>
+        <v>0.392562</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246869</v>
+        <v>0.232418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.435387</v>
+        <v>0.417062</v>
       </c>
       <c r="D5" t="n">
-        <v>0.393962</v>
+        <v>0.387129</v>
       </c>
       <c r="E5" t="n">
-        <v>0.231715</v>
+        <v>0.228196</v>
       </c>
       <c r="F5" t="n">
-        <v>0.415335</v>
+        <v>0.390366</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236963</v>
+        <v>0.222552</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42687</v>
+        <v>0.405027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.394063</v>
+        <v>0.389074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.233624</v>
+        <v>0.227812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.414597</v>
+        <v>0.388987</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224659</v>
+        <v>0.210912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412537</v>
+        <v>0.401713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389046</v>
+        <v>0.387447</v>
       </c>
       <c r="E7" t="n">
-        <v>0.236648</v>
+        <v>0.229881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.414316</v>
+        <v>0.389489</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206629</v>
+        <v>0.198215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399681</v>
+        <v>0.386973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393055</v>
+        <v>0.391212</v>
       </c>
       <c r="E8" t="n">
-        <v>0.238408</v>
+        <v>0.230892</v>
       </c>
       <c r="F8" t="n">
-        <v>0.414176</v>
+        <v>0.390133</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.190154</v>
+        <v>0.183335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.386278</v>
+        <v>0.371381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.394013</v>
+        <v>0.387198</v>
       </c>
       <c r="E9" t="n">
-        <v>0.253275</v>
+        <v>0.248945</v>
       </c>
       <c r="F9" t="n">
-        <v>0.427313</v>
+        <v>0.401356</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339924</v>
+        <v>0.325241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.520146</v>
+        <v>0.499818</v>
       </c>
       <c r="D10" t="n">
-        <v>0.394137</v>
+        <v>0.387458</v>
       </c>
       <c r="E10" t="n">
-        <v>0.253967</v>
+        <v>0.248493</v>
       </c>
       <c r="F10" t="n">
-        <v>0.427941</v>
+        <v>0.401148</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.334582</v>
+        <v>0.318479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.511672</v>
+        <v>0.497274</v>
       </c>
       <c r="D11" t="n">
-        <v>0.393227</v>
+        <v>0.388953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.253553</v>
+        <v>0.247847</v>
       </c>
       <c r="F11" t="n">
-        <v>0.427083</v>
+        <v>0.401411</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32637</v>
+        <v>0.3143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.506078</v>
+        <v>0.491142</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394652</v>
+        <v>0.389299</v>
       </c>
       <c r="E12" t="n">
-        <v>0.252775</v>
+        <v>0.248219</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42408</v>
+        <v>0.400654</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.320602</v>
+        <v>0.306734</v>
       </c>
       <c r="C13" t="n">
-        <v>0.502177</v>
+        <v>0.481416</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394399</v>
+        <v>0.389974</v>
       </c>
       <c r="E13" t="n">
-        <v>0.254478</v>
+        <v>0.248539</v>
       </c>
       <c r="F13" t="n">
-        <v>0.426104</v>
+        <v>0.399509</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.312893</v>
+        <v>0.29749</v>
       </c>
       <c r="C14" t="n">
-        <v>0.490189</v>
+        <v>0.476081</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39948</v>
+        <v>0.390684</v>
       </c>
       <c r="E14" t="n">
-        <v>0.251911</v>
+        <v>0.247543</v>
       </c>
       <c r="F14" t="n">
-        <v>0.423804</v>
+        <v>0.399236</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.304401</v>
+        <v>0.290658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.483206</v>
+        <v>0.466943</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39796</v>
+        <v>0.391912</v>
       </c>
       <c r="E15" t="n">
-        <v>0.250493</v>
+        <v>0.247369</v>
       </c>
       <c r="F15" t="n">
-        <v>0.42461</v>
+        <v>0.398508</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.296138</v>
+        <v>0.280596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.472479</v>
+        <v>0.452681</v>
       </c>
       <c r="D16" t="n">
-        <v>0.399379</v>
+        <v>0.392049</v>
       </c>
       <c r="E16" t="n">
-        <v>0.251943</v>
+        <v>0.246087</v>
       </c>
       <c r="F16" t="n">
-        <v>0.421334</v>
+        <v>0.396177</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.285829</v>
+        <v>0.273935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.46613</v>
+        <v>0.450389</v>
       </c>
       <c r="D17" t="n">
-        <v>0.401698</v>
+        <v>0.39416</v>
       </c>
       <c r="E17" t="n">
-        <v>0.250289</v>
+        <v>0.246716</v>
       </c>
       <c r="F17" t="n">
-        <v>0.422003</v>
+        <v>0.396408</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274604</v>
+        <v>0.26232</v>
       </c>
       <c r="C18" t="n">
-        <v>0.455529</v>
+        <v>0.442123</v>
       </c>
       <c r="D18" t="n">
-        <v>0.402716</v>
+        <v>0.394833</v>
       </c>
       <c r="E18" t="n">
-        <v>0.251398</v>
+        <v>0.245956</v>
       </c>
       <c r="F18" t="n">
-        <v>0.421759</v>
+        <v>0.397715</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.263078</v>
+        <v>0.251884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.449449</v>
+        <v>0.429108</v>
       </c>
       <c r="D19" t="n">
-        <v>0.404143</v>
+        <v>0.39561</v>
       </c>
       <c r="E19" t="n">
-        <v>0.250964</v>
+        <v>0.245482</v>
       </c>
       <c r="F19" t="n">
-        <v>0.421088</v>
+        <v>0.396963</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250373</v>
+        <v>0.24414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.432608</v>
+        <v>0.419935</v>
       </c>
       <c r="D20" t="n">
-        <v>0.40448</v>
+        <v>0.395642</v>
       </c>
       <c r="E20" t="n">
-        <v>0.249437</v>
+        <v>0.245396</v>
       </c>
       <c r="F20" t="n">
-        <v>0.418855</v>
+        <v>0.395047</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24242</v>
+        <v>0.230301</v>
       </c>
       <c r="C21" t="n">
-        <v>0.417629</v>
+        <v>0.40131</v>
       </c>
       <c r="D21" t="n">
-        <v>0.399073</v>
+        <v>0.395112</v>
       </c>
       <c r="E21" t="n">
-        <v>0.248332</v>
+        <v>0.244867</v>
       </c>
       <c r="F21" t="n">
-        <v>0.418824</v>
+        <v>0.395508</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225312</v>
+        <v>0.217002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.408619</v>
+        <v>0.390855</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398421</v>
+        <v>0.395083</v>
       </c>
       <c r="E22" t="n">
-        <v>0.249488</v>
+        <v>0.245567</v>
       </c>
       <c r="F22" t="n">
-        <v>0.418581</v>
+        <v>0.395116</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206704</v>
+        <v>0.200146</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39236</v>
+        <v>0.379477</v>
       </c>
       <c r="D23" t="n">
-        <v>0.397966</v>
+        <v>0.394456</v>
       </c>
       <c r="E23" t="n">
-        <v>0.267401</v>
+        <v>0.258659</v>
       </c>
       <c r="F23" t="n">
-        <v>0.431863</v>
+        <v>0.407122</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348924</v>
+        <v>0.338255</v>
       </c>
       <c r="C24" t="n">
-        <v>0.516846</v>
+        <v>0.497263</v>
       </c>
       <c r="D24" t="n">
-        <v>0.401365</v>
+        <v>0.394382</v>
       </c>
       <c r="E24" t="n">
-        <v>0.264093</v>
+        <v>0.256361</v>
       </c>
       <c r="F24" t="n">
-        <v>0.430655</v>
+        <v>0.405996</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342145</v>
+        <v>0.33139</v>
       </c>
       <c r="C25" t="n">
-        <v>0.518669</v>
+        <v>0.498105</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401274</v>
+        <v>0.395222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.26148</v>
+        <v>0.25537</v>
       </c>
       <c r="F25" t="n">
-        <v>0.429696</v>
+        <v>0.404686</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336542</v>
+        <v>0.325954</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511415</v>
+        <v>0.492156</v>
       </c>
       <c r="D26" t="n">
-        <v>0.401196</v>
+        <v>0.394593</v>
       </c>
       <c r="E26" t="n">
-        <v>0.260281</v>
+        <v>0.255035</v>
       </c>
       <c r="F26" t="n">
-        <v>0.428374</v>
+        <v>0.403768</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332835</v>
+        <v>0.319026</v>
       </c>
       <c r="C27" t="n">
-        <v>0.501667</v>
+        <v>0.479474</v>
       </c>
       <c r="D27" t="n">
-        <v>0.402806</v>
+        <v>0.394821</v>
       </c>
       <c r="E27" t="n">
-        <v>0.258989</v>
+        <v>0.252762</v>
       </c>
       <c r="F27" t="n">
-        <v>0.426977</v>
+        <v>0.40271</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322547</v>
+        <v>0.308494</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495012</v>
+        <v>0.477952</v>
       </c>
       <c r="D28" t="n">
-        <v>0.403005</v>
+        <v>0.395151</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25792</v>
+        <v>0.25198</v>
       </c>
       <c r="F28" t="n">
-        <v>0.427141</v>
+        <v>0.401284</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314066</v>
+        <v>0.303439</v>
       </c>
       <c r="C29" t="n">
-        <v>0.493009</v>
+        <v>0.472705</v>
       </c>
       <c r="D29" t="n">
-        <v>0.403768</v>
+        <v>0.395414</v>
       </c>
       <c r="E29" t="n">
-        <v>0.257683</v>
+        <v>0.251191</v>
       </c>
       <c r="F29" t="n">
-        <v>0.426286</v>
+        <v>0.400942</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305506</v>
+        <v>0.29419</v>
       </c>
       <c r="C30" t="n">
-        <v>0.470029</v>
+        <v>0.462274</v>
       </c>
       <c r="D30" t="n">
-        <v>0.405634</v>
+        <v>0.396948</v>
       </c>
       <c r="E30" t="n">
-        <v>0.257374</v>
+        <v>0.251135</v>
       </c>
       <c r="F30" t="n">
-        <v>0.424913</v>
+        <v>0.399164</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296171</v>
+        <v>0.282911</v>
       </c>
       <c r="C31" t="n">
-        <v>0.465921</v>
+        <v>0.447331</v>
       </c>
       <c r="D31" t="n">
-        <v>0.405918</v>
+        <v>0.397808</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2556</v>
+        <v>0.24917</v>
       </c>
       <c r="F31" t="n">
-        <v>0.423711</v>
+        <v>0.398846</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.284467</v>
+        <v>0.275151</v>
       </c>
       <c r="C32" t="n">
-        <v>0.463334</v>
+        <v>0.446969</v>
       </c>
       <c r="D32" t="n">
-        <v>0.406692</v>
+        <v>0.397697</v>
       </c>
       <c r="E32" t="n">
-        <v>0.254989</v>
+        <v>0.248882</v>
       </c>
       <c r="F32" t="n">
-        <v>0.422714</v>
+        <v>0.398289</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.272533</v>
+        <v>0.265294</v>
       </c>
       <c r="C33" t="n">
-        <v>0.447129</v>
+        <v>0.429846</v>
       </c>
       <c r="D33" t="n">
-        <v>0.406881</v>
+        <v>0.398156</v>
       </c>
       <c r="E33" t="n">
-        <v>0.256689</v>
+        <v>0.248291</v>
       </c>
       <c r="F33" t="n">
-        <v>0.421952</v>
+        <v>0.398339</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.261034</v>
+        <v>0.251358</v>
       </c>
       <c r="C34" t="n">
-        <v>0.442975</v>
+        <v>0.415807</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407874</v>
+        <v>0.398166</v>
       </c>
       <c r="E34" t="n">
-        <v>0.257309</v>
+        <v>0.248229</v>
       </c>
       <c r="F34" t="n">
-        <v>0.421474</v>
+        <v>0.39785</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248061</v>
+        <v>0.240197</v>
       </c>
       <c r="C35" t="n">
-        <v>0.424348</v>
+        <v>0.405217</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408812</v>
+        <v>0.400444</v>
       </c>
       <c r="E35" t="n">
-        <v>0.251925</v>
+        <v>0.248178</v>
       </c>
       <c r="F35" t="n">
-        <v>0.419992</v>
+        <v>0.396226</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232523</v>
+        <v>0.225142</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413419</v>
+        <v>0.392617</v>
       </c>
       <c r="D36" t="n">
-        <v>0.406063</v>
+        <v>0.399647</v>
       </c>
       <c r="E36" t="n">
-        <v>0.25001</v>
+        <v>0.247815</v>
       </c>
       <c r="F36" t="n">
-        <v>0.418897</v>
+        <v>0.395648</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216938</v>
+        <v>0.210429</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402063</v>
+        <v>0.385602</v>
       </c>
       <c r="D37" t="n">
-        <v>0.407414</v>
+        <v>0.400543</v>
       </c>
       <c r="E37" t="n">
-        <v>0.266983</v>
+        <v>0.258789</v>
       </c>
       <c r="F37" t="n">
-        <v>0.43393</v>
+        <v>0.407879</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.354916</v>
+        <v>0.343516</v>
       </c>
       <c r="C38" t="n">
-        <v>0.527362</v>
+        <v>0.50017</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40558</v>
+        <v>0.399142</v>
       </c>
       <c r="E38" t="n">
-        <v>0.265021</v>
+        <v>0.257976</v>
       </c>
       <c r="F38" t="n">
-        <v>0.431998</v>
+        <v>0.406286</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.349682</v>
+        <v>0.338228</v>
       </c>
       <c r="C39" t="n">
-        <v>0.521707</v>
+        <v>0.495253</v>
       </c>
       <c r="D39" t="n">
-        <v>0.405583</v>
+        <v>0.399771</v>
       </c>
       <c r="E39" t="n">
-        <v>0.261299</v>
+        <v>0.25608</v>
       </c>
       <c r="F39" t="n">
-        <v>0.430479</v>
+        <v>0.405283</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.344015</v>
+        <v>0.333496</v>
       </c>
       <c r="C40" t="n">
-        <v>0.51579</v>
+        <v>0.489475</v>
       </c>
       <c r="D40" t="n">
-        <v>0.406369</v>
+        <v>0.399248</v>
       </c>
       <c r="E40" t="n">
-        <v>0.260584</v>
+        <v>0.255344</v>
       </c>
       <c r="F40" t="n">
-        <v>0.430525</v>
+        <v>0.405453</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.336977</v>
+        <v>0.326635</v>
       </c>
       <c r="C41" t="n">
-        <v>0.509339</v>
+        <v>0.480869</v>
       </c>
       <c r="D41" t="n">
-        <v>0.405752</v>
+        <v>0.398258</v>
       </c>
       <c r="E41" t="n">
-        <v>0.259295</v>
+        <v>0.254364</v>
       </c>
       <c r="F41" t="n">
-        <v>0.428787</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32994</v>
+        <v>0.315989</v>
       </c>
       <c r="C42" t="n">
-        <v>0.497843</v>
+        <v>0.474002</v>
       </c>
       <c r="D42" t="n">
-        <v>0.406457</v>
+        <v>0.398976</v>
       </c>
       <c r="E42" t="n">
-        <v>0.257978</v>
+        <v>0.252444</v>
       </c>
       <c r="F42" t="n">
-        <v>0.427963</v>
+        <v>0.403481</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320957</v>
+        <v>0.311721</v>
       </c>
       <c r="C43" t="n">
-        <v>0.488709</v>
+        <v>0.467962</v>
       </c>
       <c r="D43" t="n">
-        <v>0.407437</v>
+        <v>0.398401</v>
       </c>
       <c r="E43" t="n">
-        <v>0.256853</v>
+        <v>0.251336</v>
       </c>
       <c r="F43" t="n">
-        <v>0.426466</v>
+        <v>0.401831</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312324</v>
+        <v>0.303225</v>
       </c>
       <c r="C44" t="n">
-        <v>0.485232</v>
+        <v>0.462275</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408152</v>
+        <v>0.399603</v>
       </c>
       <c r="E44" t="n">
-        <v>0.255846</v>
+        <v>0.251284</v>
       </c>
       <c r="F44" t="n">
-        <v>0.42571</v>
+        <v>0.400942</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301906</v>
+        <v>0.292585</v>
       </c>
       <c r="C45" t="n">
-        <v>0.474197</v>
+        <v>0.451396</v>
       </c>
       <c r="D45" t="n">
-        <v>0.410196</v>
+        <v>0.400046</v>
       </c>
       <c r="E45" t="n">
-        <v>0.254129</v>
+        <v>0.250481</v>
       </c>
       <c r="F45" t="n">
-        <v>0.424896</v>
+        <v>0.400353</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290698</v>
+        <v>0.278998</v>
       </c>
       <c r="C46" t="n">
-        <v>0.467157</v>
+        <v>0.447897</v>
       </c>
       <c r="D46" t="n">
-        <v>0.410086</v>
+        <v>0.400395</v>
       </c>
       <c r="E46" t="n">
-        <v>0.252888</v>
+        <v>0.249578</v>
       </c>
       <c r="F46" t="n">
-        <v>0.423295</v>
+        <v>0.399381</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.279796</v>
+        <v>0.269752</v>
       </c>
       <c r="C47" t="n">
-        <v>0.456765</v>
+        <v>0.443577</v>
       </c>
       <c r="D47" t="n">
-        <v>0.411567</v>
+        <v>0.40135</v>
       </c>
       <c r="E47" t="n">
-        <v>0.253138</v>
+        <v>0.249432</v>
       </c>
       <c r="F47" t="n">
-        <v>0.422717</v>
+        <v>0.39764</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.267189</v>
+        <v>0.258325</v>
       </c>
       <c r="C48" t="n">
-        <v>0.444733</v>
+        <v>0.4256</v>
       </c>
       <c r="D48" t="n">
-        <v>0.411921</v>
+        <v>0.402431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.252393</v>
+        <v>0.247673</v>
       </c>
       <c r="F48" t="n">
-        <v>0.422157</v>
+        <v>0.397073</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253292</v>
+        <v>0.245257</v>
       </c>
       <c r="C49" t="n">
-        <v>0.431035</v>
+        <v>0.409757</v>
       </c>
       <c r="D49" t="n">
-        <v>0.413776</v>
+        <v>0.40265</v>
       </c>
       <c r="E49" t="n">
-        <v>0.25286</v>
+        <v>0.247969</v>
       </c>
       <c r="F49" t="n">
-        <v>0.421617</v>
+        <v>0.397178</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238716</v>
+        <v>0.231025</v>
       </c>
       <c r="C50" t="n">
-        <v>0.418151</v>
+        <v>0.398986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.423173</v>
+        <v>0.404429</v>
       </c>
       <c r="E50" t="n">
-        <v>0.252545</v>
+        <v>0.247496</v>
       </c>
       <c r="F50" t="n">
-        <v>0.420947</v>
+        <v>0.395811</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222737</v>
+        <v>0.216562</v>
       </c>
       <c r="C51" t="n">
-        <v>0.402754</v>
+        <v>0.384952</v>
       </c>
       <c r="D51" t="n">
-        <v>0.411879</v>
+        <v>0.404538</v>
       </c>
       <c r="E51" t="n">
-        <v>0.267634</v>
+        <v>0.258897</v>
       </c>
       <c r="F51" t="n">
-        <v>0.434643</v>
+        <v>0.408914</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.207277</v>
+        <v>0.200181</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384032</v>
+        <v>0.376798</v>
       </c>
       <c r="D52" t="n">
-        <v>0.411951</v>
+        <v>0.403934</v>
       </c>
       <c r="E52" t="n">
-        <v>0.265018</v>
+        <v>0.257543</v>
       </c>
       <c r="F52" t="n">
-        <v>0.433929</v>
+        <v>0.407711</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353548</v>
+        <v>0.344362</v>
       </c>
       <c r="C53" t="n">
-        <v>0.523112</v>
+        <v>0.5018359999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.412016</v>
+        <v>0.403413</v>
       </c>
       <c r="E53" t="n">
-        <v>0.262834</v>
+        <v>0.255782</v>
       </c>
       <c r="F53" t="n">
-        <v>0.432263</v>
+        <v>0.406899</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347278</v>
+        <v>0.337385</v>
       </c>
       <c r="C54" t="n">
-        <v>0.517844</v>
+        <v>0.488937</v>
       </c>
       <c r="D54" t="n">
-        <v>0.413923</v>
+        <v>0.402825</v>
       </c>
       <c r="E54" t="n">
-        <v>0.260253</v>
+        <v>0.25482</v>
       </c>
       <c r="F54" t="n">
-        <v>0.431043</v>
+        <v>0.405848</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34099</v>
+        <v>0.330963</v>
       </c>
       <c r="C55" t="n">
-        <v>0.51564</v>
+        <v>0.494456</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41548</v>
+        <v>0.402715</v>
       </c>
       <c r="E55" t="n">
-        <v>0.258877</v>
+        <v>0.25341</v>
       </c>
       <c r="F55" t="n">
-        <v>0.429116</v>
+        <v>0.404472</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334234</v>
+        <v>0.323185</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.486296</v>
       </c>
       <c r="D56" t="n">
-        <v>0.417043</v>
+        <v>0.40662</v>
       </c>
       <c r="E56" t="n">
-        <v>0.258167</v>
+        <v>0.253623</v>
       </c>
       <c r="F56" t="n">
-        <v>0.428223</v>
+        <v>0.402835</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.325864</v>
+        <v>0.315704</v>
       </c>
       <c r="C57" t="n">
-        <v>0.504354</v>
+        <v>0.486791</v>
       </c>
       <c r="D57" t="n">
-        <v>0.417269</v>
+        <v>0.406345</v>
       </c>
       <c r="E57" t="n">
-        <v>0.256948</v>
+        <v>0.252575</v>
       </c>
       <c r="F57" t="n">
-        <v>0.427294</v>
+        <v>0.402096</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.316934</v>
+        <v>0.306065</v>
       </c>
       <c r="C58" t="n">
-        <v>0.503741</v>
+        <v>0.479354</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420621</v>
+        <v>0.410062</v>
       </c>
       <c r="E58" t="n">
-        <v>0.256264</v>
+        <v>0.252409</v>
       </c>
       <c r="F58" t="n">
-        <v>0.426081</v>
+        <v>0.401448</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306967</v>
+        <v>0.296957</v>
       </c>
       <c r="C59" t="n">
-        <v>0.488419</v>
+        <v>0.468038</v>
       </c>
       <c r="D59" t="n">
-        <v>0.42225</v>
+        <v>0.410225</v>
       </c>
       <c r="E59" t="n">
-        <v>0.255159</v>
+        <v>0.251297</v>
       </c>
       <c r="F59" t="n">
-        <v>0.425155</v>
+        <v>0.400634</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296627</v>
+        <v>0.285055</v>
       </c>
       <c r="C60" t="n">
-        <v>0.489037</v>
+        <v>0.470259</v>
       </c>
       <c r="D60" t="n">
-        <v>0.425164</v>
+        <v>0.413114</v>
       </c>
       <c r="E60" t="n">
-        <v>0.254187</v>
+        <v>0.250369</v>
       </c>
       <c r="F60" t="n">
-        <v>0.424604</v>
+        <v>0.399828</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285073</v>
+        <v>0.273948</v>
       </c>
       <c r="C61" t="n">
-        <v>0.480878</v>
+        <v>0.475434</v>
       </c>
       <c r="D61" t="n">
-        <v>0.424396</v>
+        <v>0.416171</v>
       </c>
       <c r="E61" t="n">
-        <v>0.253912</v>
+        <v>0.248368</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4238</v>
+        <v>0.399307</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272103</v>
+        <v>0.262471</v>
       </c>
       <c r="C62" t="n">
-        <v>0.46733</v>
+        <v>0.451714</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42918</v>
+        <v>0.420604</v>
       </c>
       <c r="E62" t="n">
-        <v>0.252735</v>
+        <v>0.249087</v>
       </c>
       <c r="F62" t="n">
-        <v>0.422961</v>
+        <v>0.398945</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25853</v>
+        <v>0.249308</v>
       </c>
       <c r="C63" t="n">
-        <v>0.439923</v>
+        <v>0.450861</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433539</v>
+        <v>0.423031</v>
       </c>
       <c r="E63" t="n">
-        <v>0.251931</v>
+        <v>0.24581</v>
       </c>
       <c r="F63" t="n">
-        <v>0.421994</v>
+        <v>0.398068</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244292</v>
+        <v>0.235591</v>
       </c>
       <c r="C64" t="n">
-        <v>0.455376</v>
+        <v>0.428589</v>
       </c>
       <c r="D64" t="n">
-        <v>0.460964</v>
+        <v>0.469802</v>
       </c>
       <c r="E64" t="n">
-        <v>0.252713</v>
+        <v>0.247133</v>
       </c>
       <c r="F64" t="n">
-        <v>0.421413</v>
+        <v>0.397433</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229266</v>
+        <v>0.222114</v>
       </c>
       <c r="C65" t="n">
-        <v>0.433808</v>
+        <v>0.436006</v>
       </c>
       <c r="D65" t="n">
-        <v>0.471598</v>
+        <v>0.480611</v>
       </c>
       <c r="E65" t="n">
-        <v>0.251349</v>
+        <v>0.245242</v>
       </c>
       <c r="F65" t="n">
-        <v>0.421221</v>
+        <v>0.396663</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212145</v>
+        <v>0.20531</v>
       </c>
       <c r="C66" t="n">
-        <v>0.418068</v>
+        <v>0.407609</v>
       </c>
       <c r="D66" t="n">
-        <v>0.475838</v>
+        <v>0.462934</v>
       </c>
       <c r="E66" t="n">
-        <v>0.265408</v>
+        <v>0.264018</v>
       </c>
       <c r="F66" t="n">
-        <v>0.433777</v>
+        <v>0.407902</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35586</v>
+        <v>0.346157</v>
       </c>
       <c r="C67" t="n">
-        <v>0.565989</v>
+        <v>0.566106</v>
       </c>
       <c r="D67" t="n">
-        <v>0.483297</v>
+        <v>0.480518</v>
       </c>
       <c r="E67" t="n">
-        <v>0.263557</v>
+        <v>0.261082</v>
       </c>
       <c r="F67" t="n">
-        <v>0.432274</v>
+        <v>0.406748</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350277</v>
+        <v>0.339352</v>
       </c>
       <c r="C68" t="n">
-        <v>0.569313</v>
+        <v>0.581802</v>
       </c>
       <c r="D68" t="n">
-        <v>0.487535</v>
+        <v>0.48544</v>
       </c>
       <c r="E68" t="n">
-        <v>0.261756</v>
+        <v>0.259344</v>
       </c>
       <c r="F68" t="n">
-        <v>0.431269</v>
+        <v>0.405461</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343883</v>
+        <v>0.332152</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5471279999999999</v>
+        <v>0.529836</v>
       </c>
       <c r="D69" t="n">
-        <v>0.497936</v>
+        <v>0.505574</v>
       </c>
       <c r="E69" t="n">
-        <v>0.259687</v>
+        <v>0.257302</v>
       </c>
       <c r="F69" t="n">
-        <v>0.429816</v>
+        <v>0.404191</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336246</v>
+        <v>0.32654</v>
       </c>
       <c r="C70" t="n">
-        <v>0.559566</v>
+        <v>0.6012729999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.497974</v>
+        <v>0.487937</v>
       </c>
       <c r="E70" t="n">
-        <v>0.258524</v>
+        <v>0.255876</v>
       </c>
       <c r="F70" t="n">
-        <v>0.428882</v>
+        <v>0.403021</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.328472</v>
+        <v>0.318419</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505322</v>
+        <v>0.583574</v>
       </c>
       <c r="D71" t="n">
-        <v>0.523675</v>
+        <v>0.49878</v>
       </c>
       <c r="E71" t="n">
-        <v>0.257513</v>
+        <v>0.254622</v>
       </c>
       <c r="F71" t="n">
-        <v>0.427764</v>
+        <v>0.402431</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.319039</v>
+        <v>0.309986</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5452399999999999</v>
+        <v>0.6013579999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.511529</v>
+        <v>0.503462</v>
       </c>
       <c r="E72" t="n">
-        <v>0.256439</v>
+        <v>0.253354</v>
       </c>
       <c r="F72" t="n">
-        <v>0.426826</v>
+        <v>0.401708</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.309491</v>
+        <v>0.300637</v>
       </c>
       <c r="C73" t="n">
-        <v>0.527386</v>
+        <v>0.592494</v>
       </c>
       <c r="D73" t="n">
-        <v>0.515375</v>
+        <v>0.5048240000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.255282</v>
+        <v>0.251958</v>
       </c>
       <c r="F73" t="n">
-        <v>0.425633</v>
+        <v>0.401323</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298991</v>
+        <v>0.290223</v>
       </c>
       <c r="C74" t="n">
-        <v>0.52323</v>
+        <v>0.543081</v>
       </c>
       <c r="D74" t="n">
-        <v>0.516987</v>
+        <v>0.50949</v>
       </c>
       <c r="E74" t="n">
-        <v>0.254335</v>
+        <v>0.250981</v>
       </c>
       <c r="F74" t="n">
-        <v>0.424887</v>
+        <v>0.400387</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288126</v>
+        <v>0.279027</v>
       </c>
       <c r="C75" t="n">
-        <v>0.525216</v>
+        <v>0.591943</v>
       </c>
       <c r="D75" t="n">
-        <v>0.520607</v>
+        <v>0.510859</v>
       </c>
       <c r="E75" t="n">
-        <v>0.254359</v>
+        <v>0.248162</v>
       </c>
       <c r="F75" t="n">
-        <v>0.424119</v>
+        <v>0.399311</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275559</v>
+        <v>0.267244</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5180129999999999</v>
+        <v>0.55771</v>
       </c>
       <c r="D76" t="n">
-        <v>0.518552</v>
+        <v>0.513055</v>
       </c>
       <c r="E76" t="n">
-        <v>0.253056</v>
+        <v>0.24802</v>
       </c>
       <c r="F76" t="n">
-        <v>0.423229</v>
+        <v>0.398418</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26262</v>
+        <v>0.254031</v>
       </c>
       <c r="C77" t="n">
-        <v>0.536555</v>
+        <v>0.512827</v>
       </c>
       <c r="D77" t="n">
-        <v>0.518828</v>
+        <v>0.510185</v>
       </c>
       <c r="E77" t="n">
-        <v>0.252668</v>
+        <v>0.248821</v>
       </c>
       <c r="F77" t="n">
-        <v>0.422675</v>
+        <v>0.397843</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.248838</v>
+        <v>0.240546</v>
       </c>
       <c r="C78" t="n">
-        <v>0.491122</v>
+        <v>0.547439</v>
       </c>
       <c r="D78" t="n">
-        <v>0.594841</v>
+        <v>0.5818950000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.252348</v>
+        <v>0.246558</v>
       </c>
       <c r="F78" t="n">
-        <v>0.421754</v>
+        <v>0.397127</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233392</v>
+        <v>0.225837</v>
       </c>
       <c r="C79" t="n">
-        <v>0.487405</v>
+        <v>0.500726</v>
       </c>
       <c r="D79" t="n">
-        <v>0.585117</v>
+        <v>0.575883</v>
       </c>
       <c r="E79" t="n">
-        <v>0.252156</v>
+        <v>0.246523</v>
       </c>
       <c r="F79" t="n">
-        <v>0.420974</v>
+        <v>0.396783</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216639</v>
+        <v>0.210712</v>
       </c>
       <c r="C80" t="n">
-        <v>0.519826</v>
+        <v>0.51883</v>
       </c>
       <c r="D80" t="n">
-        <v>0.598462</v>
+        <v>0.632922</v>
       </c>
       <c r="E80" t="n">
-        <v>0.266162</v>
+        <v>0.261439</v>
       </c>
       <c r="F80" t="n">
-        <v>0.434136</v>
+        <v>0.408982</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357053</v>
+        <v>0.347156</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6125389999999999</v>
+        <v>0.529914</v>
       </c>
       <c r="D81" t="n">
-        <v>0.590319</v>
+        <v>0.588163</v>
       </c>
       <c r="E81" t="n">
-        <v>0.263854</v>
+        <v>0.259544</v>
       </c>
       <c r="F81" t="n">
-        <v>0.432836</v>
+        <v>0.407821</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351502</v>
+        <v>0.340286</v>
       </c>
       <c r="C82" t="n">
-        <v>0.597276</v>
+        <v>0.647104</v>
       </c>
       <c r="D82" t="n">
-        <v>0.585214</v>
+        <v>0.587547</v>
       </c>
       <c r="E82" t="n">
-        <v>0.261614</v>
+        <v>0.257677</v>
       </c>
       <c r="F82" t="n">
-        <v>0.431366</v>
+        <v>0.406503</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345866</v>
+        <v>0.334099</v>
       </c>
       <c r="C83" t="n">
-        <v>0.579887</v>
+        <v>0.607476</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5817290000000001</v>
+        <v>0.585938</v>
       </c>
       <c r="E83" t="n">
-        <v>0.260054</v>
+        <v>0.25637</v>
       </c>
       <c r="F83" t="n">
-        <v>0.430178</v>
+        <v>0.4052</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338659</v>
+        <v>0.327835</v>
       </c>
       <c r="C84" t="n">
-        <v>0.635254</v>
+        <v>0.578789</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5901380000000001</v>
+        <v>0.59704</v>
       </c>
       <c r="E84" t="n">
-        <v>0.258832</v>
+        <v>0.255181</v>
       </c>
       <c r="F84" t="n">
-        <v>0.429037</v>
+        <v>0.403757</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.330791</v>
+        <v>0.318732</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5973889999999999</v>
+        <v>0.6084270000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.574226</v>
+        <v>0.583199</v>
       </c>
       <c r="E85" t="n">
-        <v>0.257741</v>
+        <v>0.253049</v>
       </c>
       <c r="F85" t="n">
-        <v>0.428068</v>
+        <v>0.402494</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.321623</v>
+        <v>0.310916</v>
       </c>
       <c r="C86" t="n">
-        <v>0.655758</v>
+        <v>0.54714</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5772</v>
+        <v>0.56981</v>
       </c>
       <c r="E86" t="n">
-        <v>0.256441</v>
+        <v>0.253034</v>
       </c>
       <c r="F86" t="n">
-        <v>0.426859</v>
+        <v>0.402959</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.312285</v>
+        <v>0.300648</v>
       </c>
       <c r="C87" t="n">
-        <v>0.605693</v>
+        <v>0.562104</v>
       </c>
       <c r="D87" t="n">
-        <v>0.573275</v>
+        <v>0.596289</v>
       </c>
       <c r="E87" t="n">
-        <v>0.255536</v>
+        <v>0.252177</v>
       </c>
       <c r="F87" t="n">
-        <v>0.425938</v>
+        <v>0.402176</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>0.290735</v>
       </c>
       <c r="C88" t="n">
-        <v>0.512067</v>
+        <v>0.517512</v>
       </c>
       <c r="D88" t="n">
-        <v>0.566455</v>
+        <v>0.5634670000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>0.254444</v>
+        <v>0.251238</v>
       </c>
       <c r="F88" t="n">
-        <v>0.425617</v>
+        <v>0.401292</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.288897</v>
+        <v>0.280172</v>
       </c>
       <c r="C89" t="n">
-        <v>0.529232</v>
+        <v>0.616292</v>
       </c>
       <c r="D89" t="n">
-        <v>0.565269</v>
+        <v>0.56411</v>
       </c>
       <c r="E89" t="n">
-        <v>0.254463</v>
+        <v>0.250334</v>
       </c>
       <c r="F89" t="n">
-        <v>0.424419</v>
+        <v>0.399485</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.276543</v>
+        <v>0.268798</v>
       </c>
       <c r="C90" t="n">
-        <v>0.552091</v>
+        <v>0.494396</v>
       </c>
       <c r="D90" t="n">
-        <v>0.560454</v>
+        <v>0.556974</v>
       </c>
       <c r="E90" t="n">
-        <v>0.253388</v>
+        <v>0.250395</v>
       </c>
       <c r="F90" t="n">
-        <v>0.423621</v>
+        <v>0.399066</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2635</v>
+        <v>0.256616</v>
       </c>
       <c r="C91" t="n">
-        <v>0.494801</v>
+        <v>0.448507</v>
       </c>
       <c r="D91" t="n">
-        <v>0.556939</v>
+        <v>0.551847</v>
       </c>
       <c r="E91" t="n">
-        <v>0.25267</v>
+        <v>0.248892</v>
       </c>
       <c r="F91" t="n">
-        <v>0.422698</v>
+        <v>0.398279</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24963</v>
+        <v>0.243574</v>
       </c>
       <c r="C92" t="n">
-        <v>0.57533</v>
+        <v>0.523033</v>
       </c>
       <c r="D92" t="n">
-        <v>0.609942</v>
+        <v>0.614577</v>
       </c>
       <c r="E92" t="n">
-        <v>0.252008</v>
+        <v>0.248565</v>
       </c>
       <c r="F92" t="n">
-        <v>0.421994</v>
+        <v>0.398009</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.234533</v>
+        <v>0.229334</v>
       </c>
       <c r="C93" t="n">
-        <v>0.475719</v>
+        <v>0.499123</v>
       </c>
       <c r="D93" t="n">
-        <v>0.608312</v>
+        <v>0.614156</v>
       </c>
       <c r="E93" t="n">
-        <v>0.251867</v>
+        <v>0.246113</v>
       </c>
       <c r="F93" t="n">
-        <v>0.421527</v>
+        <v>0.397234</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.218409</v>
+        <v>0.214449</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5158430000000001</v>
+        <v>0.494373</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6044</v>
+        <v>0.596801</v>
       </c>
       <c r="E94" t="n">
-        <v>0.26688</v>
+        <v>0.262458</v>
       </c>
       <c r="F94" t="n">
-        <v>0.434164</v>
+        <v>0.40939</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35895</v>
+        <v>0.347071</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5288</v>
+        <v>0.68725</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59317</v>
+        <v>0.598052</v>
       </c>
       <c r="E95" t="n">
-        <v>0.264204</v>
+        <v>0.259762</v>
       </c>
       <c r="F95" t="n">
-        <v>0.432965</v>
+        <v>0.407757</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354263</v>
+        <v>0.342618</v>
       </c>
       <c r="C96" t="n">
-        <v>0.640159</v>
+        <v>0.675793</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5896</v>
+        <v>0.600467</v>
       </c>
       <c r="E96" t="n">
-        <v>0.262146</v>
+        <v>0.257024</v>
       </c>
       <c r="F96" t="n">
-        <v>0.431681</v>
+        <v>0.40672</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347988</v>
+        <v>0.336712</v>
       </c>
       <c r="C97" t="n">
-        <v>0.655469</v>
+        <v>0.648242</v>
       </c>
       <c r="D97" t="n">
-        <v>0.587707</v>
+        <v>0.595241</v>
       </c>
       <c r="E97" t="n">
-        <v>0.260519</v>
+        <v>0.256673</v>
       </c>
       <c r="F97" t="n">
-        <v>0.430557</v>
+        <v>0.405165</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340727</v>
+        <v>0.329533</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6403720000000001</v>
+        <v>0.575222</v>
       </c>
       <c r="D98" t="n">
-        <v>0.580935</v>
+        <v>0.582152</v>
       </c>
       <c r="E98" t="n">
-        <v>0.259163</v>
+        <v>0.255401</v>
       </c>
       <c r="F98" t="n">
-        <v>0.429233</v>
+        <v>0.404523</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.332988</v>
+        <v>0.3217</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582647</v>
+        <v>0.596139</v>
       </c>
       <c r="D99" t="n">
-        <v>0.57761</v>
+        <v>0.588354</v>
       </c>
       <c r="E99" t="n">
-        <v>0.257818</v>
+        <v>0.254145</v>
       </c>
       <c r="F99" t="n">
-        <v>0.428082</v>
+        <v>0.403834</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.324847</v>
+        <v>0.313325</v>
       </c>
       <c r="C100" t="n">
-        <v>0.642421</v>
+        <v>0.629768</v>
       </c>
       <c r="D100" t="n">
-        <v>0.566479</v>
+        <v>0.57997</v>
       </c>
       <c r="E100" t="n">
-        <v>0.256584</v>
+        <v>0.252737</v>
       </c>
       <c r="F100" t="n">
-        <v>0.427372</v>
+        <v>0.402601</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31476</v>
+        <v>0.303871</v>
       </c>
       <c r="C101" t="n">
-        <v>0.540256</v>
+        <v>0.5967249999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.558815</v>
+        <v>0.57389</v>
       </c>
       <c r="E101" t="n">
-        <v>0.255407</v>
+        <v>0.251951</v>
       </c>
       <c r="F101" t="n">
-        <v>0.426392</v>
+        <v>0.401602</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304237</v>
+        <v>0.293752</v>
       </c>
       <c r="C102" t="n">
-        <v>0.616721</v>
+        <v>0.596633</v>
       </c>
       <c r="D102" t="n">
-        <v>0.556434</v>
+        <v>0.568423</v>
       </c>
       <c r="E102" t="n">
-        <v>0.254668</v>
+        <v>0.251218</v>
       </c>
       <c r="F102" t="n">
-        <v>0.425192</v>
+        <v>0.40059</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293687</v>
+        <v>0.283335</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585662</v>
+        <v>0.57006</v>
       </c>
       <c r="D103" t="n">
-        <v>0.553164</v>
+        <v>0.555276</v>
       </c>
       <c r="E103" t="n">
-        <v>0.253941</v>
+        <v>0.251054</v>
       </c>
       <c r="F103" t="n">
-        <v>0.424328</v>
+        <v>0.399871</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281387</v>
+        <v>0.271568</v>
       </c>
       <c r="C104" t="n">
-        <v>0.584964</v>
+        <v>0.529366</v>
       </c>
       <c r="D104" t="n">
-        <v>0.552415</v>
+        <v>0.553722</v>
       </c>
       <c r="E104" t="n">
-        <v>0.253885</v>
+        <v>0.249714</v>
       </c>
       <c r="F104" t="n">
-        <v>0.423457</v>
+        <v>0.399611</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269222</v>
+        <v>0.259374</v>
       </c>
       <c r="C105" t="n">
-        <v>0.540002</v>
+        <v>0.580415</v>
       </c>
       <c r="D105" t="n">
-        <v>0.54447</v>
+        <v>0.549527</v>
       </c>
       <c r="E105" t="n">
-        <v>0.253541</v>
+        <v>0.250048</v>
       </c>
       <c r="F105" t="n">
-        <v>0.423044</v>
+        <v>0.398537</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255168</v>
+        <v>0.246719</v>
       </c>
       <c r="C106" t="n">
-        <v>0.53176</v>
+        <v>0.562217</v>
       </c>
       <c r="D106" t="n">
-        <v>0.540809</v>
+        <v>0.541521</v>
       </c>
       <c r="E106" t="n">
-        <v>0.252969</v>
+        <v>0.248446</v>
       </c>
       <c r="F106" t="n">
-        <v>0.422294</v>
+        <v>0.397962</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240048</v>
+        <v>0.232224</v>
       </c>
       <c r="C107" t="n">
-        <v>0.51006</v>
+        <v>0.51292</v>
       </c>
       <c r="D107" t="n">
-        <v>0.582974</v>
+        <v>0.619054</v>
       </c>
       <c r="E107" t="n">
-        <v>0.25222</v>
+        <v>0.248147</v>
       </c>
       <c r="F107" t="n">
-        <v>0.421557</v>
+        <v>0.397377</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223883</v>
+        <v>0.217229</v>
       </c>
       <c r="C108" t="n">
-        <v>0.446561</v>
+        <v>0.51475</v>
       </c>
       <c r="D108" t="n">
-        <v>0.606843</v>
+        <v>0.593013</v>
       </c>
       <c r="E108" t="n">
-        <v>0.267997</v>
+        <v>0.262327</v>
       </c>
       <c r="F108" t="n">
-        <v>0.434648</v>
+        <v>0.409843</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.207211</v>
+        <v>0.200873</v>
       </c>
       <c r="C109" t="n">
-        <v>0.434367</v>
+        <v>0.485118</v>
       </c>
       <c r="D109" t="n">
-        <v>0.603374</v>
+        <v>0.617859</v>
       </c>
       <c r="E109" t="n">
-        <v>0.265088</v>
+        <v>0.259937</v>
       </c>
       <c r="F109" t="n">
-        <v>0.433841</v>
+        <v>0.409101</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355352</v>
+        <v>0.343392</v>
       </c>
       <c r="C110" t="n">
-        <v>0.525075</v>
+        <v>0.6414029999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.580456</v>
+        <v>0.588262</v>
       </c>
       <c r="E110" t="n">
-        <v>0.263112</v>
+        <v>0.2579</v>
       </c>
       <c r="F110" t="n">
-        <v>0.43194</v>
+        <v>0.407283</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349173</v>
+        <v>0.337607</v>
       </c>
       <c r="C111" t="n">
-        <v>0.574663</v>
+        <v>0.5898870000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579811</v>
+        <v>0.585551</v>
       </c>
       <c r="E111" t="n">
-        <v>0.261388</v>
+        <v>0.256613</v>
       </c>
       <c r="F111" t="n">
-        <v>0.430684</v>
+        <v>0.406569</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342399</v>
+        <v>0.330671</v>
       </c>
       <c r="C112" t="n">
-        <v>0.540157</v>
+        <v>0.538532</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5805169999999999</v>
+        <v>0.582278</v>
       </c>
       <c r="E112" t="n">
-        <v>0.259687</v>
+        <v>0.255186</v>
       </c>
       <c r="F112" t="n">
-        <v>0.429595</v>
+        <v>0.405391</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334975</v>
+        <v>0.322712</v>
       </c>
       <c r="C113" t="n">
-        <v>0.663407</v>
+        <v>0.5751039999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.566317</v>
+        <v>0.594298</v>
       </c>
       <c r="E113" t="n">
-        <v>0.258222</v>
+        <v>0.253987</v>
       </c>
       <c r="F113" t="n">
-        <v>0.42835</v>
+        <v>0.403867</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326639</v>
+        <v>0.314496</v>
       </c>
       <c r="C114" t="n">
-        <v>0.624499</v>
+        <v>0.578209</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562239</v>
+        <v>0.5851769999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.256929</v>
+        <v>0.252838</v>
       </c>
       <c r="F114" t="n">
-        <v>0.427223</v>
+        <v>0.403271</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.317014</v>
+        <v>0.305488</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580412</v>
+        <v>0.563746</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5581390000000001</v>
+        <v>0.575467</v>
       </c>
       <c r="E115" t="n">
-        <v>0.255907</v>
+        <v>0.25167</v>
       </c>
       <c r="F115" t="n">
-        <v>0.426399</v>
+        <v>0.402611</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305678</v>
+        <v>0.295501</v>
       </c>
       <c r="C116" t="n">
-        <v>0.610474</v>
+        <v>0.6411480000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5554559999999999</v>
+        <v>0.568978</v>
       </c>
       <c r="E116" t="n">
-        <v>0.254961</v>
+        <v>0.250442</v>
       </c>
       <c r="F116" t="n">
-        <v>0.425672</v>
+        <v>0.401022</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294874</v>
+        <v>0.285168</v>
       </c>
       <c r="C117" t="n">
-        <v>0.552466</v>
+        <v>0.555375</v>
       </c>
       <c r="D117" t="n">
-        <v>0.55025</v>
+        <v>0.561011</v>
       </c>
       <c r="E117" t="n">
-        <v>0.254053</v>
+        <v>0.250599</v>
       </c>
       <c r="F117" t="n">
-        <v>0.424464</v>
+        <v>0.40087</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284366</v>
+        <v>0.272899</v>
       </c>
       <c r="C118" t="n">
-        <v>0.510684</v>
+        <v>0.556051</v>
       </c>
       <c r="D118" t="n">
-        <v>0.546417</v>
+        <v>0.558105</v>
       </c>
       <c r="E118" t="n">
-        <v>0.253813</v>
+        <v>0.248729</v>
       </c>
       <c r="F118" t="n">
-        <v>0.423646</v>
+        <v>0.39941</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272129</v>
+        <v>0.26087</v>
       </c>
       <c r="C119" t="n">
-        <v>0.572644</v>
+        <v>0.531123</v>
       </c>
       <c r="D119" t="n">
-        <v>0.543798</v>
+        <v>0.549364</v>
       </c>
       <c r="E119" t="n">
-        <v>0.25315</v>
+        <v>0.249443</v>
       </c>
       <c r="F119" t="n">
-        <v>0.42285</v>
+        <v>0.399286</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259089</v>
+        <v>0.24829</v>
       </c>
       <c r="C120" t="n">
-        <v>0.479136</v>
+        <v>0.547581</v>
       </c>
       <c r="D120" t="n">
-        <v>0.539963</v>
+        <v>0.544005</v>
       </c>
       <c r="E120" t="n">
-        <v>0.252672</v>
+        <v>0.247809</v>
       </c>
       <c r="F120" t="n">
-        <v>0.422311</v>
+        <v>0.398676</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244325</v>
+        <v>0.235061</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.483441</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598661</v>
+        <v>0.606457</v>
       </c>
       <c r="E121" t="n">
-        <v>0.252285</v>
+        <v>0.247362</v>
       </c>
       <c r="F121" t="n">
-        <v>0.421722</v>
+        <v>0.398157</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.228392</v>
+        <v>0.221072</v>
       </c>
       <c r="C122" t="n">
-        <v>0.503529</v>
+        <v>0.431878</v>
       </c>
       <c r="D122" t="n">
-        <v>0.618057</v>
+        <v>0.6315190000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.251741</v>
+        <v>0.247918</v>
       </c>
       <c r="F122" t="n">
-        <v>0.420803</v>
+        <v>0.397739</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.210992</v>
+        <v>0.20409</v>
       </c>
       <c r="C123" t="n">
-        <v>0.447354</v>
+        <v>0.445265</v>
       </c>
       <c r="D123" t="n">
-        <v>0.594201</v>
+        <v>0.626543</v>
       </c>
       <c r="E123" t="n">
-        <v>0.264974</v>
+        <v>0.259733</v>
       </c>
       <c r="F123" t="n">
-        <v>0.433346</v>
+        <v>0.409243</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356909</v>
+        <v>0.342888</v>
       </c>
       <c r="C124" t="n">
-        <v>0.537801</v>
+        <v>0.664462</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6078170000000001</v>
+        <v>0.616811</v>
       </c>
       <c r="E124" t="n">
-        <v>0.262803</v>
+        <v>0.258655</v>
       </c>
       <c r="F124" t="n">
-        <v>0.43205</v>
+        <v>0.407052</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350761</v>
+        <v>0.336771</v>
       </c>
       <c r="C125" t="n">
-        <v>0.634008</v>
+        <v>0.573531</v>
       </c>
       <c r="D125" t="n">
-        <v>0.602958</v>
+        <v>0.610547</v>
       </c>
       <c r="E125" t="n">
-        <v>0.261062</v>
+        <v>0.256702</v>
       </c>
       <c r="F125" t="n">
-        <v>0.430886</v>
+        <v>0.406374</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.34441</v>
+        <v>0.329931</v>
       </c>
       <c r="C126" t="n">
-        <v>0.553411</v>
+        <v>0.665874</v>
       </c>
       <c r="D126" t="n">
-        <v>0.597371</v>
+        <v>0.604471</v>
       </c>
       <c r="E126" t="n">
-        <v>0.259709</v>
+        <v>0.254964</v>
       </c>
       <c r="F126" t="n">
-        <v>0.429461</v>
+        <v>0.405114</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337109</v>
+        <v>0.323899</v>
       </c>
       <c r="C127" t="n">
-        <v>0.61473</v>
+        <v>0.581454</v>
       </c>
       <c r="D127" t="n">
-        <v>0.593377</v>
+        <v>0.585873</v>
       </c>
       <c r="E127" t="n">
-        <v>0.258387</v>
+        <v>0.253895</v>
       </c>
       <c r="F127" t="n">
-        <v>0.428524</v>
+        <v>0.40408</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.328892</v>
+        <v>0.315289</v>
       </c>
       <c r="C128" t="n">
-        <v>0.591591</v>
+        <v>0.610113</v>
       </c>
       <c r="D128" t="n">
-        <v>0.57707</v>
+        <v>0.583114</v>
       </c>
       <c r="E128" t="n">
-        <v>0.257159</v>
+        <v>0.252749</v>
       </c>
       <c r="F128" t="n">
-        <v>0.427321</v>
+        <v>0.403026</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.320021</v>
+        <v>0.305282</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6526960000000001</v>
+        <v>0.543947</v>
       </c>
       <c r="D129" t="n">
-        <v>0.578332</v>
+        <v>0.578098</v>
       </c>
       <c r="E129" t="n">
-        <v>0.25626</v>
+        <v>0.25236</v>
       </c>
       <c r="F129" t="n">
-        <v>0.426314</v>
+        <v>0.402106</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.310661</v>
+        <v>0.295703</v>
       </c>
       <c r="C130" t="n">
-        <v>0.602846</v>
+        <v>0.547983</v>
       </c>
       <c r="D130" t="n">
-        <v>0.56626</v>
+        <v>0.56882</v>
       </c>
       <c r="E130" t="n">
-        <v>0.255324</v>
+        <v>0.251256</v>
       </c>
       <c r="F130" t="n">
-        <v>0.425402</v>
+        <v>0.401091</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.300536</v>
+        <v>0.28562</v>
       </c>
       <c r="C131" t="n">
-        <v>0.577126</v>
+        <v>0.548895</v>
       </c>
       <c r="D131" t="n">
-        <v>0.561171</v>
+        <v>0.565423</v>
       </c>
       <c r="E131" t="n">
-        <v>0.254453</v>
+        <v>0.250512</v>
       </c>
       <c r="F131" t="n">
-        <v>0.424383</v>
+        <v>0.400314</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.289207</v>
+        <v>0.274889</v>
       </c>
       <c r="C132" t="n">
-        <v>0.558079</v>
+        <v>0.542795</v>
       </c>
       <c r="D132" t="n">
-        <v>0.556728</v>
+        <v>0.562066</v>
       </c>
       <c r="E132" t="n">
-        <v>0.253995</v>
+        <v>0.248863</v>
       </c>
       <c r="F132" t="n">
-        <v>0.423727</v>
+        <v>0.399264</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275953</v>
+        <v>0.262466</v>
       </c>
       <c r="C133" t="n">
-        <v>0.574466</v>
+        <v>0.5544</v>
       </c>
       <c r="D133" t="n">
-        <v>0.551732</v>
+        <v>0.5581390000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>0.252729</v>
+        <v>0.248399</v>
       </c>
       <c r="F133" t="n">
-        <v>0.422884</v>
+        <v>0.399153</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26246</v>
+        <v>0.25009</v>
       </c>
       <c r="C134" t="n">
-        <v>0.542837</v>
+        <v>0.478544</v>
       </c>
       <c r="D134" t="n">
-        <v>0.546183</v>
+        <v>0.548862</v>
       </c>
       <c r="E134" t="n">
-        <v>0.252506</v>
+        <v>0.248745</v>
       </c>
       <c r="F134" t="n">
-        <v>0.422146</v>
+        <v>0.398604</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248676</v>
+        <v>0.236896</v>
       </c>
       <c r="C135" t="n">
-        <v>0.526803</v>
+        <v>0.515131</v>
       </c>
       <c r="D135" t="n">
-        <v>0.603724</v>
+        <v>0.638181</v>
       </c>
       <c r="E135" t="n">
-        <v>0.252212</v>
+        <v>0.247838</v>
       </c>
       <c r="F135" t="n">
-        <v>0.421489</v>
+        <v>0.397484</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23102</v>
+        <v>0.222648</v>
       </c>
       <c r="C136" t="n">
-        <v>0.508982</v>
+        <v>0.508865</v>
       </c>
       <c r="D136" t="n">
-        <v>0.605334</v>
+        <v>0.631838</v>
       </c>
       <c r="E136" t="n">
-        <v>0.251556</v>
+        <v>0.246767</v>
       </c>
       <c r="F136" t="n">
-        <v>0.421484</v>
+        <v>0.397651</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.213594</v>
+        <v>0.206488</v>
       </c>
       <c r="C137" t="n">
-        <v>0.489641</v>
+        <v>0.524822</v>
       </c>
       <c r="D137" t="n">
-        <v>0.621842</v>
+        <v>0.607256</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26562</v>
+        <v>0.259391</v>
       </c>
       <c r="F137" t="n">
-        <v>0.433882</v>
+        <v>0.408857</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358002</v>
+        <v>0.344955</v>
       </c>
       <c r="C138" t="n">
-        <v>0.670577</v>
+        <v>0.651824</v>
       </c>
       <c r="D138" t="n">
-        <v>0.598319</v>
+        <v>0.605657</v>
       </c>
       <c r="E138" t="n">
-        <v>0.263426</v>
+        <v>0.257515</v>
       </c>
       <c r="F138" t="n">
-        <v>0.432279</v>
+        <v>0.40808</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3528</v>
+        <v>0.338877</v>
       </c>
       <c r="C139" t="n">
-        <v>0.663311</v>
+        <v>0.52034</v>
       </c>
       <c r="D139" t="n">
-        <v>0.595182</v>
+        <v>0.6051800000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.261745</v>
+        <v>0.256574</v>
       </c>
       <c r="F139" t="n">
-        <v>0.431281</v>
+        <v>0.406789</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346737</v>
+        <v>0.332781</v>
       </c>
       <c r="C140" t="n">
-        <v>0.622059</v>
+        <v>0.619501</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5930029999999999</v>
+        <v>0.601567</v>
       </c>
       <c r="E140" t="n">
-        <v>0.260262</v>
+        <v>0.255196</v>
       </c>
       <c r="F140" t="n">
-        <v>0.429859</v>
+        <v>0.404908</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339249</v>
+        <v>0.324407</v>
       </c>
       <c r="C141" t="n">
-        <v>0.615532</v>
+        <v>0.667258</v>
       </c>
       <c r="D141" t="n">
-        <v>0.59651</v>
+        <v>0.606451</v>
       </c>
       <c r="E141" t="n">
-        <v>0.259026</v>
+        <v>0.253701</v>
       </c>
       <c r="F141" t="n">
-        <v>0.428618</v>
+        <v>0.403816</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331128</v>
+        <v>0.316168</v>
       </c>
       <c r="C142" t="n">
-        <v>0.631863</v>
+        <v>0.669119</v>
       </c>
       <c r="D142" t="n">
-        <v>0.589654</v>
+        <v>0.587902</v>
       </c>
       <c r="E142" t="n">
-        <v>0.257725</v>
+        <v>0.252469</v>
       </c>
       <c r="F142" t="n">
-        <v>0.42757</v>
+        <v>0.402813</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.322484</v>
+        <v>0.308185</v>
       </c>
       <c r="C143" t="n">
-        <v>0.630348</v>
+        <v>0.596159</v>
       </c>
       <c r="D143" t="n">
-        <v>0.582334</v>
+        <v>0.58779</v>
       </c>
       <c r="E143" t="n">
-        <v>0.256765</v>
+        <v>0.251762</v>
       </c>
       <c r="F143" t="n">
-        <v>0.426633</v>
+        <v>0.401826</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24739</v>
+        <v>0.250081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445092</v>
+        <v>0.445391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.383042</v>
+        <v>0.384042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.218873</v>
+        <v>0.218552</v>
       </c>
       <c r="F2" t="n">
-        <v>0.390547</v>
+        <v>0.391308</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.244737</v>
+        <v>0.244272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.441218</v>
+        <v>0.44116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.385157</v>
+        <v>0.384746</v>
       </c>
       <c r="E3" t="n">
-        <v>0.223292</v>
+        <v>0.224223</v>
       </c>
       <c r="F3" t="n">
-        <v>0.391944</v>
+        <v>0.39237</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.237512</v>
+        <v>0.23787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.428616</v>
+        <v>0.428851</v>
       </c>
       <c r="D4" t="n">
-        <v>0.386206</v>
+        <v>0.386783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.223423</v>
+        <v>0.223996</v>
       </c>
       <c r="F4" t="n">
-        <v>0.392562</v>
+        <v>0.392803</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.232418</v>
+        <v>0.231279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.417062</v>
+        <v>0.417834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.387129</v>
+        <v>0.387066</v>
       </c>
       <c r="E5" t="n">
-        <v>0.228196</v>
+        <v>0.227968</v>
       </c>
       <c r="F5" t="n">
-        <v>0.390366</v>
+        <v>0.393311</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222552</v>
+        <v>0.222853</v>
       </c>
       <c r="C6" t="n">
-        <v>0.405027</v>
+        <v>0.405203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.389074</v>
+        <v>0.389134</v>
       </c>
       <c r="E6" t="n">
-        <v>0.227812</v>
+        <v>0.229253</v>
       </c>
       <c r="F6" t="n">
-        <v>0.388987</v>
+        <v>0.389227</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.210912</v>
+        <v>0.20947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.401713</v>
+        <v>0.401542</v>
       </c>
       <c r="D7" t="n">
-        <v>0.387447</v>
+        <v>0.388546</v>
       </c>
       <c r="E7" t="n">
-        <v>0.229881</v>
+        <v>0.231537</v>
       </c>
       <c r="F7" t="n">
-        <v>0.389489</v>
+        <v>0.389706</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.198215</v>
+        <v>0.198062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.386973</v>
+        <v>0.387331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.391212</v>
+        <v>0.391105</v>
       </c>
       <c r="E8" t="n">
-        <v>0.230892</v>
+        <v>0.230728</v>
       </c>
       <c r="F8" t="n">
-        <v>0.390133</v>
+        <v>0.39091</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.183335</v>
+        <v>0.184229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.371381</v>
+        <v>0.371855</v>
       </c>
       <c r="D9" t="n">
-        <v>0.387198</v>
+        <v>0.388775</v>
       </c>
       <c r="E9" t="n">
-        <v>0.248945</v>
+        <v>0.249141</v>
       </c>
       <c r="F9" t="n">
-        <v>0.401356</v>
+        <v>0.401183</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.325241</v>
+        <v>0.326498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.499818</v>
+        <v>0.501932</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387458</v>
+        <v>0.387298</v>
       </c>
       <c r="E10" t="n">
-        <v>0.248493</v>
+        <v>0.248211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.401148</v>
+        <v>0.401163</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.318479</v>
+        <v>0.319118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.497274</v>
+        <v>0.497308</v>
       </c>
       <c r="D11" t="n">
-        <v>0.388953</v>
+        <v>0.388422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.247847</v>
+        <v>0.248269</v>
       </c>
       <c r="F11" t="n">
-        <v>0.401411</v>
+        <v>0.400966</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3143</v>
+        <v>0.314692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.491142</v>
+        <v>0.492109</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389299</v>
+        <v>0.388773</v>
       </c>
       <c r="E12" t="n">
-        <v>0.248219</v>
+        <v>0.247334</v>
       </c>
       <c r="F12" t="n">
-        <v>0.400654</v>
+        <v>0.40023</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.306734</v>
+        <v>0.30688</v>
       </c>
       <c r="C13" t="n">
-        <v>0.481416</v>
+        <v>0.482333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.389974</v>
+        <v>0.389732</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248539</v>
+        <v>0.248716</v>
       </c>
       <c r="F13" t="n">
-        <v>0.399509</v>
+        <v>0.399308</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.29749</v>
+        <v>0.299356</v>
       </c>
       <c r="C14" t="n">
-        <v>0.476081</v>
+        <v>0.477489</v>
       </c>
       <c r="D14" t="n">
-        <v>0.390684</v>
+        <v>0.391223</v>
       </c>
       <c r="E14" t="n">
-        <v>0.247543</v>
+        <v>0.247467</v>
       </c>
       <c r="F14" t="n">
-        <v>0.399236</v>
+        <v>0.399124</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.290658</v>
+        <v>0.289363</v>
       </c>
       <c r="C15" t="n">
-        <v>0.466943</v>
+        <v>0.467421</v>
       </c>
       <c r="D15" t="n">
-        <v>0.391912</v>
+        <v>0.391117</v>
       </c>
       <c r="E15" t="n">
-        <v>0.247369</v>
+        <v>0.247226</v>
       </c>
       <c r="F15" t="n">
-        <v>0.398508</v>
+        <v>0.398405</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.280596</v>
+        <v>0.282967</v>
       </c>
       <c r="C16" t="n">
-        <v>0.452681</v>
+        <v>0.454207</v>
       </c>
       <c r="D16" t="n">
-        <v>0.392049</v>
+        <v>0.391933</v>
       </c>
       <c r="E16" t="n">
-        <v>0.246087</v>
+        <v>0.246854</v>
       </c>
       <c r="F16" t="n">
-        <v>0.396177</v>
+        <v>0.395641</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.273935</v>
+        <v>0.273804</v>
       </c>
       <c r="C17" t="n">
-        <v>0.450389</v>
+        <v>0.452589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.39416</v>
+        <v>0.394105</v>
       </c>
       <c r="E17" t="n">
-        <v>0.246716</v>
+        <v>0.246901</v>
       </c>
       <c r="F17" t="n">
-        <v>0.396408</v>
+        <v>0.396119</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.26232</v>
+        <v>0.264207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.442123</v>
+        <v>0.443723</v>
       </c>
       <c r="D18" t="n">
-        <v>0.394833</v>
+        <v>0.39486</v>
       </c>
       <c r="E18" t="n">
-        <v>0.245956</v>
+        <v>0.245064</v>
       </c>
       <c r="F18" t="n">
-        <v>0.397715</v>
+        <v>0.396449</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.251884</v>
+        <v>0.253746</v>
       </c>
       <c r="C19" t="n">
-        <v>0.429108</v>
+        <v>0.431141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.39561</v>
+        <v>0.396296</v>
       </c>
       <c r="E19" t="n">
-        <v>0.245482</v>
+        <v>0.24637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.396963</v>
+        <v>0.396057</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24414</v>
+        <v>0.243695</v>
       </c>
       <c r="C20" t="n">
-        <v>0.419935</v>
+        <v>0.421104</v>
       </c>
       <c r="D20" t="n">
-        <v>0.395642</v>
+        <v>0.395924</v>
       </c>
       <c r="E20" t="n">
-        <v>0.245396</v>
+        <v>0.245714</v>
       </c>
       <c r="F20" t="n">
-        <v>0.395047</v>
+        <v>0.394148</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230301</v>
+        <v>0.232077</v>
       </c>
       <c r="C21" t="n">
-        <v>0.40131</v>
+        <v>0.405105</v>
       </c>
       <c r="D21" t="n">
-        <v>0.395112</v>
+        <v>0.39544</v>
       </c>
       <c r="E21" t="n">
-        <v>0.244867</v>
+        <v>0.244768</v>
       </c>
       <c r="F21" t="n">
-        <v>0.395508</v>
+        <v>0.395056</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217002</v>
+        <v>0.216969</v>
       </c>
       <c r="C22" t="n">
-        <v>0.390855</v>
+        <v>0.393005</v>
       </c>
       <c r="D22" t="n">
-        <v>0.395083</v>
+        <v>0.396346</v>
       </c>
       <c r="E22" t="n">
-        <v>0.245567</v>
+        <v>0.244224</v>
       </c>
       <c r="F22" t="n">
-        <v>0.395116</v>
+        <v>0.393021</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.200146</v>
+        <v>0.200194</v>
       </c>
       <c r="C23" t="n">
-        <v>0.379477</v>
+        <v>0.380056</v>
       </c>
       <c r="D23" t="n">
-        <v>0.394456</v>
+        <v>0.394639</v>
       </c>
       <c r="E23" t="n">
-        <v>0.258659</v>
+        <v>0.258632</v>
       </c>
       <c r="F23" t="n">
-        <v>0.407122</v>
+        <v>0.407304</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.338255</v>
+        <v>0.338515</v>
       </c>
       <c r="C24" t="n">
-        <v>0.497263</v>
+        <v>0.497876</v>
       </c>
       <c r="D24" t="n">
-        <v>0.394382</v>
+        <v>0.394368</v>
       </c>
       <c r="E24" t="n">
-        <v>0.256361</v>
+        <v>0.255457</v>
       </c>
       <c r="F24" t="n">
-        <v>0.405996</v>
+        <v>0.406111</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.33139</v>
+        <v>0.331389</v>
       </c>
       <c r="C25" t="n">
-        <v>0.498105</v>
+        <v>0.499791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.395222</v>
+        <v>0.39493</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25537</v>
+        <v>0.255118</v>
       </c>
       <c r="F25" t="n">
-        <v>0.404686</v>
+        <v>0.405164</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.325954</v>
+        <v>0.326275</v>
       </c>
       <c r="C26" t="n">
-        <v>0.492156</v>
+        <v>0.493635</v>
       </c>
       <c r="D26" t="n">
-        <v>0.394593</v>
+        <v>0.394458</v>
       </c>
       <c r="E26" t="n">
-        <v>0.255035</v>
+        <v>0.255079</v>
       </c>
       <c r="F26" t="n">
-        <v>0.403768</v>
+        <v>0.404262</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.319026</v>
+        <v>0.31947</v>
       </c>
       <c r="C27" t="n">
-        <v>0.479474</v>
+        <v>0.47975</v>
       </c>
       <c r="D27" t="n">
-        <v>0.394821</v>
+        <v>0.395945</v>
       </c>
       <c r="E27" t="n">
-        <v>0.252762</v>
+        <v>0.251372</v>
       </c>
       <c r="F27" t="n">
-        <v>0.40271</v>
+        <v>0.403223</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.308494</v>
+        <v>0.310106</v>
       </c>
       <c r="C28" t="n">
-        <v>0.477952</v>
+        <v>0.478067</v>
       </c>
       <c r="D28" t="n">
-        <v>0.395151</v>
+        <v>0.395531</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25198</v>
+        <v>0.252031</v>
       </c>
       <c r="F28" t="n">
-        <v>0.401284</v>
+        <v>0.401162</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.303439</v>
+        <v>0.303459</v>
       </c>
       <c r="C29" t="n">
-        <v>0.472705</v>
+        <v>0.473479</v>
       </c>
       <c r="D29" t="n">
-        <v>0.395414</v>
+        <v>0.395372</v>
       </c>
       <c r="E29" t="n">
-        <v>0.251191</v>
+        <v>0.251335</v>
       </c>
       <c r="F29" t="n">
-        <v>0.400942</v>
+        <v>0.400436</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.29419</v>
+        <v>0.29465</v>
       </c>
       <c r="C30" t="n">
-        <v>0.462274</v>
+        <v>0.462876</v>
       </c>
       <c r="D30" t="n">
-        <v>0.396948</v>
+        <v>0.397048</v>
       </c>
       <c r="E30" t="n">
-        <v>0.251135</v>
+        <v>0.251086</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399164</v>
+        <v>0.399357</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.282911</v>
+        <v>0.284416</v>
       </c>
       <c r="C31" t="n">
-        <v>0.447331</v>
+        <v>0.447536</v>
       </c>
       <c r="D31" t="n">
-        <v>0.397808</v>
+        <v>0.398193</v>
       </c>
       <c r="E31" t="n">
-        <v>0.24917</v>
+        <v>0.24936</v>
       </c>
       <c r="F31" t="n">
-        <v>0.398846</v>
+        <v>0.398919</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.275151</v>
+        <v>0.275269</v>
       </c>
       <c r="C32" t="n">
-        <v>0.446969</v>
+        <v>0.447227</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397697</v>
+        <v>0.398456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.248882</v>
+        <v>0.248927</v>
       </c>
       <c r="F32" t="n">
-        <v>0.398289</v>
+        <v>0.397672</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.265294</v>
+        <v>0.264809</v>
       </c>
       <c r="C33" t="n">
-        <v>0.429846</v>
+        <v>0.433878</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398156</v>
+        <v>0.398431</v>
       </c>
       <c r="E33" t="n">
-        <v>0.248291</v>
+        <v>0.248336</v>
       </c>
       <c r="F33" t="n">
-        <v>0.398339</v>
+        <v>0.396966</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251358</v>
+        <v>0.253364</v>
       </c>
       <c r="C34" t="n">
-        <v>0.415807</v>
+        <v>0.419869</v>
       </c>
       <c r="D34" t="n">
-        <v>0.398166</v>
+        <v>0.398259</v>
       </c>
       <c r="E34" t="n">
-        <v>0.248229</v>
+        <v>0.248369</v>
       </c>
       <c r="F34" t="n">
-        <v>0.39785</v>
+        <v>0.397206</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.240197</v>
+        <v>0.24024</v>
       </c>
       <c r="C35" t="n">
-        <v>0.405217</v>
+        <v>0.405936</v>
       </c>
       <c r="D35" t="n">
-        <v>0.400444</v>
+        <v>0.399705</v>
       </c>
       <c r="E35" t="n">
-        <v>0.248178</v>
+        <v>0.248104</v>
       </c>
       <c r="F35" t="n">
-        <v>0.396226</v>
+        <v>0.396561</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225142</v>
+        <v>0.226109</v>
       </c>
       <c r="C36" t="n">
-        <v>0.392617</v>
+        <v>0.394518</v>
       </c>
       <c r="D36" t="n">
-        <v>0.399647</v>
+        <v>0.399101</v>
       </c>
       <c r="E36" t="n">
-        <v>0.247815</v>
+        <v>0.247869</v>
       </c>
       <c r="F36" t="n">
-        <v>0.395648</v>
+        <v>0.396507</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.210429</v>
+        <v>0.210442</v>
       </c>
       <c r="C37" t="n">
-        <v>0.385602</v>
+        <v>0.386708</v>
       </c>
       <c r="D37" t="n">
-        <v>0.400543</v>
+        <v>0.40104</v>
       </c>
       <c r="E37" t="n">
-        <v>0.258789</v>
+        <v>0.259227</v>
       </c>
       <c r="F37" t="n">
-        <v>0.407879</v>
+        <v>0.40812</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.343516</v>
+        <v>0.342969</v>
       </c>
       <c r="C38" t="n">
-        <v>0.50017</v>
+        <v>0.501192</v>
       </c>
       <c r="D38" t="n">
-        <v>0.399142</v>
+        <v>0.399455</v>
       </c>
       <c r="E38" t="n">
-        <v>0.257976</v>
+        <v>0.257426</v>
       </c>
       <c r="F38" t="n">
-        <v>0.406286</v>
+        <v>0.406576</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.338228</v>
+        <v>0.338213</v>
       </c>
       <c r="C39" t="n">
-        <v>0.495253</v>
+        <v>0.496572</v>
       </c>
       <c r="D39" t="n">
-        <v>0.399771</v>
+        <v>0.399767</v>
       </c>
       <c r="E39" t="n">
-        <v>0.25608</v>
+        <v>0.25607</v>
       </c>
       <c r="F39" t="n">
-        <v>0.405283</v>
+        <v>0.405303</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.333496</v>
+        <v>0.333337</v>
       </c>
       <c r="C40" t="n">
-        <v>0.489475</v>
+        <v>0.490645</v>
       </c>
       <c r="D40" t="n">
-        <v>0.399248</v>
+        <v>0.398961</v>
       </c>
       <c r="E40" t="n">
-        <v>0.255344</v>
+        <v>0.255324</v>
       </c>
       <c r="F40" t="n">
-        <v>0.405453</v>
+        <v>0.405339</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326635</v>
+        <v>0.326362</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480869</v>
+        <v>0.482713</v>
       </c>
       <c r="D41" t="n">
-        <v>0.398258</v>
+        <v>0.39841</v>
       </c>
       <c r="E41" t="n">
-        <v>0.254364</v>
+        <v>0.254403</v>
       </c>
       <c r="F41" t="n">
-        <v>0.404</v>
+        <v>0.403806</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.315989</v>
+        <v>0.316481</v>
       </c>
       <c r="C42" t="n">
-        <v>0.474002</v>
+        <v>0.47526</v>
       </c>
       <c r="D42" t="n">
-        <v>0.398976</v>
+        <v>0.399134</v>
       </c>
       <c r="E42" t="n">
-        <v>0.252444</v>
+        <v>0.2525</v>
       </c>
       <c r="F42" t="n">
-        <v>0.403481</v>
+        <v>0.40292</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.311721</v>
+        <v>0.310919</v>
       </c>
       <c r="C43" t="n">
-        <v>0.467962</v>
+        <v>0.469477</v>
       </c>
       <c r="D43" t="n">
-        <v>0.398401</v>
+        <v>0.398998</v>
       </c>
       <c r="E43" t="n">
-        <v>0.251336</v>
+        <v>0.251555</v>
       </c>
       <c r="F43" t="n">
-        <v>0.401831</v>
+        <v>0.40066</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303225</v>
+        <v>0.303251</v>
       </c>
       <c r="C44" t="n">
-        <v>0.462275</v>
+        <v>0.463848</v>
       </c>
       <c r="D44" t="n">
-        <v>0.399603</v>
+        <v>0.399871</v>
       </c>
       <c r="E44" t="n">
-        <v>0.251284</v>
+        <v>0.251349</v>
       </c>
       <c r="F44" t="n">
-        <v>0.400942</v>
+        <v>0.400163</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.292585</v>
+        <v>0.291037</v>
       </c>
       <c r="C45" t="n">
-        <v>0.451396</v>
+        <v>0.454164</v>
       </c>
       <c r="D45" t="n">
-        <v>0.400046</v>
+        <v>0.400015</v>
       </c>
       <c r="E45" t="n">
-        <v>0.250481</v>
+        <v>0.250714</v>
       </c>
       <c r="F45" t="n">
-        <v>0.400353</v>
+        <v>0.399995</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.278998</v>
+        <v>0.280677</v>
       </c>
       <c r="C46" t="n">
-        <v>0.447897</v>
+        <v>0.448362</v>
       </c>
       <c r="D46" t="n">
-        <v>0.400395</v>
+        <v>0.401505</v>
       </c>
       <c r="E46" t="n">
-        <v>0.249578</v>
+        <v>0.249595</v>
       </c>
       <c r="F46" t="n">
-        <v>0.399381</v>
+        <v>0.399661</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.269752</v>
+        <v>0.270291</v>
       </c>
       <c r="C47" t="n">
-        <v>0.443577</v>
+        <v>0.443617</v>
       </c>
       <c r="D47" t="n">
-        <v>0.40135</v>
+        <v>0.401482</v>
       </c>
       <c r="E47" t="n">
-        <v>0.249432</v>
+        <v>0.24932</v>
       </c>
       <c r="F47" t="n">
-        <v>0.39764</v>
+        <v>0.398193</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.258325</v>
+        <v>0.258509</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4256</v>
+        <v>0.425802</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402431</v>
+        <v>0.403121</v>
       </c>
       <c r="E48" t="n">
-        <v>0.247673</v>
+        <v>0.248868</v>
       </c>
       <c r="F48" t="n">
-        <v>0.397073</v>
+        <v>0.396879</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.245257</v>
+        <v>0.245373</v>
       </c>
       <c r="C49" t="n">
-        <v>0.409757</v>
+        <v>0.410396</v>
       </c>
       <c r="D49" t="n">
-        <v>0.40265</v>
+        <v>0.403253</v>
       </c>
       <c r="E49" t="n">
-        <v>0.247969</v>
+        <v>0.24806</v>
       </c>
       <c r="F49" t="n">
-        <v>0.397178</v>
+        <v>0.397442</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.231025</v>
+        <v>0.231251</v>
       </c>
       <c r="C50" t="n">
-        <v>0.398986</v>
+        <v>0.401734</v>
       </c>
       <c r="D50" t="n">
-        <v>0.404429</v>
+        <v>0.404747</v>
       </c>
       <c r="E50" t="n">
-        <v>0.247496</v>
+        <v>0.245997</v>
       </c>
       <c r="F50" t="n">
-        <v>0.395811</v>
+        <v>0.396458</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.216562</v>
+        <v>0.215649</v>
       </c>
       <c r="C51" t="n">
-        <v>0.384952</v>
+        <v>0.385445</v>
       </c>
       <c r="D51" t="n">
-        <v>0.404538</v>
+        <v>0.403856</v>
       </c>
       <c r="E51" t="n">
-        <v>0.258897</v>
+        <v>0.259254</v>
       </c>
       <c r="F51" t="n">
-        <v>0.408914</v>
+        <v>0.409218</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.200181</v>
+        <v>0.20038</v>
       </c>
       <c r="C52" t="n">
-        <v>0.376798</v>
+        <v>0.376774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.403934</v>
+        <v>0.404309</v>
       </c>
       <c r="E52" t="n">
-        <v>0.257543</v>
+        <v>0.25658</v>
       </c>
       <c r="F52" t="n">
-        <v>0.407711</v>
+        <v>0.408052</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.344362</v>
+        <v>0.344155</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5018359999999999</v>
+        <v>0.5038319999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.403413</v>
+        <v>0.403208</v>
       </c>
       <c r="E53" t="n">
-        <v>0.255782</v>
+        <v>0.255917</v>
       </c>
       <c r="F53" t="n">
-        <v>0.406899</v>
+        <v>0.40658</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337385</v>
+        <v>0.337424</v>
       </c>
       <c r="C54" t="n">
-        <v>0.488937</v>
+        <v>0.489298</v>
       </c>
       <c r="D54" t="n">
-        <v>0.402825</v>
+        <v>0.403805</v>
       </c>
       <c r="E54" t="n">
-        <v>0.25482</v>
+        <v>0.254823</v>
       </c>
       <c r="F54" t="n">
-        <v>0.405848</v>
+        <v>0.405616</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.330963</v>
+        <v>0.331187</v>
       </c>
       <c r="C55" t="n">
-        <v>0.494456</v>
+        <v>0.496759</v>
       </c>
       <c r="D55" t="n">
-        <v>0.402715</v>
+        <v>0.404851</v>
       </c>
       <c r="E55" t="n">
-        <v>0.25341</v>
+        <v>0.253483</v>
       </c>
       <c r="F55" t="n">
-        <v>0.404472</v>
+        <v>0.404426</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323185</v>
+        <v>0.323285</v>
       </c>
       <c r="C56" t="n">
-        <v>0.486296</v>
+        <v>0.487295</v>
       </c>
       <c r="D56" t="n">
-        <v>0.40662</v>
+        <v>0.40538</v>
       </c>
       <c r="E56" t="n">
-        <v>0.253623</v>
+        <v>0.253571</v>
       </c>
       <c r="F56" t="n">
-        <v>0.402835</v>
+        <v>0.402742</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315704</v>
+        <v>0.315233</v>
       </c>
       <c r="C57" t="n">
-        <v>0.486791</v>
+        <v>0.489776</v>
       </c>
       <c r="D57" t="n">
-        <v>0.406345</v>
+        <v>0.408116</v>
       </c>
       <c r="E57" t="n">
-        <v>0.252575</v>
+        <v>0.252598</v>
       </c>
       <c r="F57" t="n">
-        <v>0.402096</v>
+        <v>0.402554</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306065</v>
+        <v>0.306255</v>
       </c>
       <c r="C58" t="n">
-        <v>0.479354</v>
+        <v>0.480738</v>
       </c>
       <c r="D58" t="n">
-        <v>0.410062</v>
+        <v>0.409776</v>
       </c>
       <c r="E58" t="n">
-        <v>0.252409</v>
+        <v>0.25075</v>
       </c>
       <c r="F58" t="n">
-        <v>0.401448</v>
+        <v>0.401378</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296957</v>
+        <v>0.296864</v>
       </c>
       <c r="C59" t="n">
-        <v>0.468038</v>
+        <v>0.470556</v>
       </c>
       <c r="D59" t="n">
-        <v>0.410225</v>
+        <v>0.409522</v>
       </c>
       <c r="E59" t="n">
-        <v>0.251297</v>
+        <v>0.251234</v>
       </c>
       <c r="F59" t="n">
-        <v>0.400634</v>
+        <v>0.401068</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.285055</v>
+        <v>0.285183</v>
       </c>
       <c r="C60" t="n">
-        <v>0.470259</v>
+        <v>0.469154</v>
       </c>
       <c r="D60" t="n">
-        <v>0.413114</v>
+        <v>0.409799</v>
       </c>
       <c r="E60" t="n">
-        <v>0.250369</v>
+        <v>0.25046</v>
       </c>
       <c r="F60" t="n">
-        <v>0.399828</v>
+        <v>0.400387</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.273948</v>
+        <v>0.27412</v>
       </c>
       <c r="C61" t="n">
-        <v>0.475434</v>
+        <v>0.472921</v>
       </c>
       <c r="D61" t="n">
-        <v>0.416171</v>
+        <v>0.414088</v>
       </c>
       <c r="E61" t="n">
-        <v>0.248368</v>
+        <v>0.249807</v>
       </c>
       <c r="F61" t="n">
-        <v>0.399307</v>
+        <v>0.399167</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262471</v>
+        <v>0.262159</v>
       </c>
       <c r="C62" t="n">
-        <v>0.451714</v>
+        <v>0.451818</v>
       </c>
       <c r="D62" t="n">
-        <v>0.420604</v>
+        <v>0.418217</v>
       </c>
       <c r="E62" t="n">
-        <v>0.249087</v>
+        <v>0.247743</v>
       </c>
       <c r="F62" t="n">
-        <v>0.398945</v>
+        <v>0.398369</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249308</v>
+        <v>0.249296</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450861</v>
+        <v>0.452212</v>
       </c>
       <c r="D63" t="n">
-        <v>0.423031</v>
+        <v>0.420172</v>
       </c>
       <c r="E63" t="n">
-        <v>0.24581</v>
+        <v>0.246616</v>
       </c>
       <c r="F63" t="n">
-        <v>0.398068</v>
+        <v>0.398075</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235591</v>
+        <v>0.235506</v>
       </c>
       <c r="C64" t="n">
-        <v>0.428589</v>
+        <v>0.432347</v>
       </c>
       <c r="D64" t="n">
-        <v>0.469802</v>
+        <v>0.472801</v>
       </c>
       <c r="E64" t="n">
-        <v>0.247133</v>
+        <v>0.245617</v>
       </c>
       <c r="F64" t="n">
-        <v>0.397433</v>
+        <v>0.397725</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.222114</v>
+        <v>0.220907</v>
       </c>
       <c r="C65" t="n">
-        <v>0.436006</v>
+        <v>0.424847</v>
       </c>
       <c r="D65" t="n">
-        <v>0.480611</v>
+        <v>0.465234</v>
       </c>
       <c r="E65" t="n">
-        <v>0.245242</v>
+        <v>0.245573</v>
       </c>
       <c r="F65" t="n">
-        <v>0.396663</v>
+        <v>0.396952</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.20531</v>
+        <v>0.2058</v>
       </c>
       <c r="C66" t="n">
-        <v>0.407609</v>
+        <v>0.408759</v>
       </c>
       <c r="D66" t="n">
-        <v>0.462934</v>
+        <v>0.460692</v>
       </c>
       <c r="E66" t="n">
-        <v>0.264018</v>
+        <v>0.26354</v>
       </c>
       <c r="F66" t="n">
-        <v>0.407902</v>
+        <v>0.408831</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346157</v>
+        <v>0.346385</v>
       </c>
       <c r="C67" t="n">
-        <v>0.566106</v>
+        <v>0.564642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.480518</v>
+        <v>0.476397</v>
       </c>
       <c r="E67" t="n">
-        <v>0.261082</v>
+        <v>0.26124</v>
       </c>
       <c r="F67" t="n">
-        <v>0.406748</v>
+        <v>0.407249</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.339352</v>
+        <v>0.339559</v>
       </c>
       <c r="C68" t="n">
-        <v>0.581802</v>
+        <v>0.5849299999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.48544</v>
+        <v>0.484179</v>
       </c>
       <c r="E68" t="n">
-        <v>0.259344</v>
+        <v>0.259167</v>
       </c>
       <c r="F68" t="n">
-        <v>0.405461</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.332152</v>
+        <v>0.332551</v>
       </c>
       <c r="C69" t="n">
-        <v>0.529836</v>
+        <v>0.53009</v>
       </c>
       <c r="D69" t="n">
-        <v>0.505574</v>
+        <v>0.50148</v>
       </c>
       <c r="E69" t="n">
-        <v>0.257302</v>
+        <v>0.257574</v>
       </c>
       <c r="F69" t="n">
-        <v>0.404191</v>
+        <v>0.404432</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32654</v>
+        <v>0.325729</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6012729999999999</v>
+        <v>0.602078</v>
       </c>
       <c r="D70" t="n">
-        <v>0.487937</v>
+        <v>0.487269</v>
       </c>
       <c r="E70" t="n">
-        <v>0.255876</v>
+        <v>0.255964</v>
       </c>
       <c r="F70" t="n">
-        <v>0.403021</v>
+        <v>0.40325</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318419</v>
+        <v>0.318555</v>
       </c>
       <c r="C71" t="n">
-        <v>0.583574</v>
+        <v>0.583093</v>
       </c>
       <c r="D71" t="n">
-        <v>0.49878</v>
+        <v>0.498457</v>
       </c>
       <c r="E71" t="n">
-        <v>0.254622</v>
+        <v>0.255218</v>
       </c>
       <c r="F71" t="n">
-        <v>0.402431</v>
+        <v>0.402664</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.309986</v>
+        <v>0.310139</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6013579999999999</v>
+        <v>0.601374</v>
       </c>
       <c r="D72" t="n">
-        <v>0.503462</v>
+        <v>0.504375</v>
       </c>
       <c r="E72" t="n">
-        <v>0.253354</v>
+        <v>0.252958</v>
       </c>
       <c r="F72" t="n">
-        <v>0.401708</v>
+        <v>0.401746</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300637</v>
+        <v>0.300419</v>
       </c>
       <c r="C73" t="n">
-        <v>0.592494</v>
+        <v>0.59216</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5048240000000001</v>
+        <v>0.502582</v>
       </c>
       <c r="E73" t="n">
-        <v>0.251958</v>
+        <v>0.251671</v>
       </c>
       <c r="F73" t="n">
-        <v>0.401323</v>
+        <v>0.400535</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290223</v>
+        <v>0.289914</v>
       </c>
       <c r="C74" t="n">
-        <v>0.543081</v>
+        <v>0.54204</v>
       </c>
       <c r="D74" t="n">
-        <v>0.50949</v>
+        <v>0.509259</v>
       </c>
       <c r="E74" t="n">
-        <v>0.250981</v>
+        <v>0.250871</v>
       </c>
       <c r="F74" t="n">
-        <v>0.400387</v>
+        <v>0.400403</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279027</v>
+        <v>0.278894</v>
       </c>
       <c r="C75" t="n">
-        <v>0.591943</v>
+        <v>0.593981</v>
       </c>
       <c r="D75" t="n">
-        <v>0.510859</v>
+        <v>0.5121250000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.248162</v>
+        <v>0.247472</v>
       </c>
       <c r="F75" t="n">
-        <v>0.399311</v>
+        <v>0.399124</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267244</v>
+        <v>0.267199</v>
       </c>
       <c r="C76" t="n">
-        <v>0.55771</v>
+        <v>0.558815</v>
       </c>
       <c r="D76" t="n">
-        <v>0.513055</v>
+        <v>0.520661</v>
       </c>
       <c r="E76" t="n">
-        <v>0.24802</v>
+        <v>0.248323</v>
       </c>
       <c r="F76" t="n">
-        <v>0.398418</v>
+        <v>0.398218</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254031</v>
+        <v>0.254051</v>
       </c>
       <c r="C77" t="n">
-        <v>0.512827</v>
+        <v>0.514068</v>
       </c>
       <c r="D77" t="n">
-        <v>0.510185</v>
+        <v>0.510449</v>
       </c>
       <c r="E77" t="n">
-        <v>0.248821</v>
+        <v>0.24719</v>
       </c>
       <c r="F77" t="n">
-        <v>0.397843</v>
+        <v>0.39785</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.240546</v>
+        <v>0.240781</v>
       </c>
       <c r="C78" t="n">
-        <v>0.547439</v>
+        <v>0.549779</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5818950000000001</v>
+        <v>0.581804</v>
       </c>
       <c r="E78" t="n">
-        <v>0.246558</v>
+        <v>0.246552</v>
       </c>
       <c r="F78" t="n">
-        <v>0.397127</v>
+        <v>0.39708</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.225837</v>
+        <v>0.225835</v>
       </c>
       <c r="C79" t="n">
-        <v>0.500726</v>
+        <v>0.502737</v>
       </c>
       <c r="D79" t="n">
-        <v>0.575883</v>
+        <v>0.631306</v>
       </c>
       <c r="E79" t="n">
-        <v>0.246523</v>
+        <v>0.246338</v>
       </c>
       <c r="F79" t="n">
-        <v>0.396783</v>
+        <v>0.396631</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210712</v>
+        <v>0.210752</v>
       </c>
       <c r="C80" t="n">
-        <v>0.51883</v>
+        <v>0.5212290000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.632922</v>
+        <v>0.633584</v>
       </c>
       <c r="E80" t="n">
-        <v>0.261439</v>
+        <v>0.261346</v>
       </c>
       <c r="F80" t="n">
-        <v>0.408982</v>
+        <v>0.409325</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.347156</v>
+        <v>0.346899</v>
       </c>
       <c r="C81" t="n">
-        <v>0.529914</v>
+        <v>0.52976</v>
       </c>
       <c r="D81" t="n">
-        <v>0.588163</v>
+        <v>0.589421</v>
       </c>
       <c r="E81" t="n">
-        <v>0.259544</v>
+        <v>0.259717</v>
       </c>
       <c r="F81" t="n">
-        <v>0.407821</v>
+        <v>0.407897</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.340286</v>
+        <v>0.340244</v>
       </c>
       <c r="C82" t="n">
-        <v>0.647104</v>
+        <v>0.64833</v>
       </c>
       <c r="D82" t="n">
-        <v>0.587547</v>
+        <v>0.58934</v>
       </c>
       <c r="E82" t="n">
-        <v>0.257677</v>
+        <v>0.257733</v>
       </c>
       <c r="F82" t="n">
-        <v>0.406503</v>
+        <v>0.407271</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.334099</v>
+        <v>0.333784</v>
       </c>
       <c r="C83" t="n">
-        <v>0.607476</v>
+        <v>0.609167</v>
       </c>
       <c r="D83" t="n">
-        <v>0.585938</v>
+        <v>0.586911</v>
       </c>
       <c r="E83" t="n">
-        <v>0.25637</v>
+        <v>0.256194</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4052</v>
+        <v>0.406027</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.327835</v>
+        <v>0.326652</v>
       </c>
       <c r="C84" t="n">
-        <v>0.578789</v>
+        <v>0.580021</v>
       </c>
       <c r="D84" t="n">
-        <v>0.59704</v>
+        <v>0.598441</v>
       </c>
       <c r="E84" t="n">
-        <v>0.255181</v>
+        <v>0.255068</v>
       </c>
       <c r="F84" t="n">
-        <v>0.403757</v>
+        <v>0.404054</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.318732</v>
+        <v>0.318418</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6084270000000001</v>
+        <v>0.609361</v>
       </c>
       <c r="D85" t="n">
-        <v>0.583199</v>
+        <v>0.584474</v>
       </c>
       <c r="E85" t="n">
-        <v>0.253049</v>
+        <v>0.252852</v>
       </c>
       <c r="F85" t="n">
-        <v>0.402494</v>
+        <v>0.402699</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.310916</v>
+        <v>0.31082</v>
       </c>
       <c r="C86" t="n">
-        <v>0.54714</v>
+        <v>0.548025</v>
       </c>
       <c r="D86" t="n">
-        <v>0.56981</v>
+        <v>0.571014</v>
       </c>
       <c r="E86" t="n">
-        <v>0.253034</v>
+        <v>0.253052</v>
       </c>
       <c r="F86" t="n">
-        <v>0.402959</v>
+        <v>0.402973</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300648</v>
+        <v>0.300495</v>
       </c>
       <c r="C87" t="n">
-        <v>0.562104</v>
+        <v>0.5622239999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.596289</v>
+        <v>0.596728</v>
       </c>
       <c r="E87" t="n">
-        <v>0.252177</v>
+        <v>0.252138</v>
       </c>
       <c r="F87" t="n">
-        <v>0.402176</v>
+        <v>0.4022</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290735</v>
+        <v>0.290108</v>
       </c>
       <c r="C88" t="n">
-        <v>0.517512</v>
+        <v>0.517119</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5634670000000001</v>
+        <v>0.564151</v>
       </c>
       <c r="E88" t="n">
-        <v>0.251238</v>
+        <v>0.251158</v>
       </c>
       <c r="F88" t="n">
-        <v>0.401292</v>
+        <v>0.401504</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.280172</v>
+        <v>0.279329</v>
       </c>
       <c r="C89" t="n">
-        <v>0.616292</v>
+        <v>0.618119</v>
       </c>
       <c r="D89" t="n">
-        <v>0.56411</v>
+        <v>0.564168</v>
       </c>
       <c r="E89" t="n">
-        <v>0.250334</v>
+        <v>0.249208</v>
       </c>
       <c r="F89" t="n">
-        <v>0.399485</v>
+        <v>0.399599</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.268798</v>
+        <v>0.26806</v>
       </c>
       <c r="C90" t="n">
-        <v>0.494396</v>
+        <v>0.496058</v>
       </c>
       <c r="D90" t="n">
-        <v>0.556974</v>
+        <v>0.5573630000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.250395</v>
+        <v>0.248604</v>
       </c>
       <c r="F90" t="n">
-        <v>0.399066</v>
+        <v>0.399131</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.256616</v>
+        <v>0.25609</v>
       </c>
       <c r="C91" t="n">
-        <v>0.448507</v>
+        <v>0.447536</v>
       </c>
       <c r="D91" t="n">
-        <v>0.551847</v>
+        <v>0.558327</v>
       </c>
       <c r="E91" t="n">
-        <v>0.248892</v>
+        <v>0.247263</v>
       </c>
       <c r="F91" t="n">
-        <v>0.398279</v>
+        <v>0.398517</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.243574</v>
+        <v>0.243184</v>
       </c>
       <c r="C92" t="n">
-        <v>0.523033</v>
+        <v>0.523505</v>
       </c>
       <c r="D92" t="n">
-        <v>0.614577</v>
+        <v>0.615304</v>
       </c>
       <c r="E92" t="n">
-        <v>0.248565</v>
+        <v>0.246507</v>
       </c>
       <c r="F92" t="n">
-        <v>0.398009</v>
+        <v>0.397958</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.229334</v>
+        <v>0.229042</v>
       </c>
       <c r="C93" t="n">
-        <v>0.499123</v>
+        <v>0.499419</v>
       </c>
       <c r="D93" t="n">
-        <v>0.614156</v>
+        <v>0.613924</v>
       </c>
       <c r="E93" t="n">
-        <v>0.246113</v>
+        <v>0.247968</v>
       </c>
       <c r="F93" t="n">
-        <v>0.397234</v>
+        <v>0.397632</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214449</v>
+        <v>0.214443</v>
       </c>
       <c r="C94" t="n">
-        <v>0.494373</v>
+        <v>0.495435</v>
       </c>
       <c r="D94" t="n">
-        <v>0.596801</v>
+        <v>0.597616</v>
       </c>
       <c r="E94" t="n">
-        <v>0.262458</v>
+        <v>0.262236</v>
       </c>
       <c r="F94" t="n">
-        <v>0.40939</v>
+        <v>0.409876</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.347071</v>
+        <v>0.347251</v>
       </c>
       <c r="C95" t="n">
-        <v>0.68725</v>
+        <v>0.689468</v>
       </c>
       <c r="D95" t="n">
-        <v>0.598052</v>
+        <v>0.598195</v>
       </c>
       <c r="E95" t="n">
-        <v>0.259762</v>
+        <v>0.25974</v>
       </c>
       <c r="F95" t="n">
-        <v>0.407757</v>
+        <v>0.407808</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.342618</v>
+        <v>0.34268</v>
       </c>
       <c r="C96" t="n">
-        <v>0.675793</v>
+        <v>0.678647</v>
       </c>
       <c r="D96" t="n">
-        <v>0.600467</v>
+        <v>0.601075</v>
       </c>
       <c r="E96" t="n">
-        <v>0.257024</v>
+        <v>0.257047</v>
       </c>
       <c r="F96" t="n">
-        <v>0.40672</v>
+        <v>0.406814</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.336712</v>
+        <v>0.33649</v>
       </c>
       <c r="C97" t="n">
-        <v>0.648242</v>
+        <v>0.650457</v>
       </c>
       <c r="D97" t="n">
-        <v>0.595241</v>
+        <v>0.5956</v>
       </c>
       <c r="E97" t="n">
-        <v>0.256673</v>
+        <v>0.256629</v>
       </c>
       <c r="F97" t="n">
-        <v>0.405165</v>
+        <v>0.405539</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.329533</v>
+        <v>0.329332</v>
       </c>
       <c r="C98" t="n">
-        <v>0.575222</v>
+        <v>0.574655</v>
       </c>
       <c r="D98" t="n">
-        <v>0.582152</v>
+        <v>0.5818719999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.255401</v>
+        <v>0.2552</v>
       </c>
       <c r="F98" t="n">
-        <v>0.404523</v>
+        <v>0.404251</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3217</v>
+        <v>0.321482</v>
       </c>
       <c r="C99" t="n">
-        <v>0.596139</v>
+        <v>0.5956630000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.588354</v>
+        <v>0.58563</v>
       </c>
       <c r="E99" t="n">
-        <v>0.254145</v>
+        <v>0.253925</v>
       </c>
       <c r="F99" t="n">
-        <v>0.403834</v>
+        <v>0.403806</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.313325</v>
+        <v>0.313006</v>
       </c>
       <c r="C100" t="n">
-        <v>0.629768</v>
+        <v>0.631175</v>
       </c>
       <c r="D100" t="n">
-        <v>0.57997</v>
+        <v>0.579534</v>
       </c>
       <c r="E100" t="n">
-        <v>0.252737</v>
+        <v>0.252647</v>
       </c>
       <c r="F100" t="n">
-        <v>0.402601</v>
+        <v>0.402465</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.303871</v>
+        <v>0.303855</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5967249999999999</v>
+        <v>0.596728</v>
       </c>
       <c r="D101" t="n">
-        <v>0.57389</v>
+        <v>0.573449</v>
       </c>
       <c r="E101" t="n">
-        <v>0.251951</v>
+        <v>0.251943</v>
       </c>
       <c r="F101" t="n">
-        <v>0.401602</v>
+        <v>0.401593</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.293752</v>
+        <v>0.293835</v>
       </c>
       <c r="C102" t="n">
-        <v>0.596633</v>
+        <v>0.597003</v>
       </c>
       <c r="D102" t="n">
-        <v>0.568423</v>
+        <v>0.567447</v>
       </c>
       <c r="E102" t="n">
-        <v>0.251218</v>
+        <v>0.25115</v>
       </c>
       <c r="F102" t="n">
-        <v>0.40059</v>
+        <v>0.400323</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.283335</v>
+        <v>0.283031</v>
       </c>
       <c r="C103" t="n">
-        <v>0.57006</v>
+        <v>0.570283</v>
       </c>
       <c r="D103" t="n">
-        <v>0.555276</v>
+        <v>0.5562279999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.251054</v>
+        <v>0.249574</v>
       </c>
       <c r="F103" t="n">
-        <v>0.399871</v>
+        <v>0.400063</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.271568</v>
+        <v>0.27151</v>
       </c>
       <c r="C104" t="n">
-        <v>0.529366</v>
+        <v>0.5297190000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.553722</v>
+        <v>0.553141</v>
       </c>
       <c r="E104" t="n">
-        <v>0.249714</v>
+        <v>0.249711</v>
       </c>
       <c r="F104" t="n">
-        <v>0.399611</v>
+        <v>0.399551</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.259374</v>
+        <v>0.259291</v>
       </c>
       <c r="C105" t="n">
-        <v>0.580415</v>
+        <v>0.572101</v>
       </c>
       <c r="D105" t="n">
-        <v>0.549527</v>
+        <v>0.547192</v>
       </c>
       <c r="E105" t="n">
-        <v>0.250048</v>
+        <v>0.248894</v>
       </c>
       <c r="F105" t="n">
-        <v>0.398537</v>
+        <v>0.398139</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246719</v>
+        <v>0.246201</v>
       </c>
       <c r="C106" t="n">
-        <v>0.562217</v>
+        <v>0.561755</v>
       </c>
       <c r="D106" t="n">
-        <v>0.541521</v>
+        <v>0.541829</v>
       </c>
       <c r="E106" t="n">
-        <v>0.248446</v>
+        <v>0.248315</v>
       </c>
       <c r="F106" t="n">
-        <v>0.397962</v>
+        <v>0.397801</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.232224</v>
+        <v>0.23211</v>
       </c>
       <c r="C107" t="n">
-        <v>0.51292</v>
+        <v>0.5155459999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.619054</v>
+        <v>0.618652</v>
       </c>
       <c r="E107" t="n">
-        <v>0.248147</v>
+        <v>0.248124</v>
       </c>
       <c r="F107" t="n">
-        <v>0.397377</v>
+        <v>0.39769</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217229</v>
+        <v>0.217185</v>
       </c>
       <c r="C108" t="n">
-        <v>0.51475</v>
+        <v>0.515778</v>
       </c>
       <c r="D108" t="n">
-        <v>0.593013</v>
+        <v>0.591863</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262327</v>
+        <v>0.262374</v>
       </c>
       <c r="F108" t="n">
-        <v>0.409843</v>
+        <v>0.410199</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.200873</v>
+        <v>0.200793</v>
       </c>
       <c r="C109" t="n">
-        <v>0.485118</v>
+        <v>0.486565</v>
       </c>
       <c r="D109" t="n">
-        <v>0.617859</v>
+        <v>0.618337</v>
       </c>
       <c r="E109" t="n">
-        <v>0.259937</v>
+        <v>0.259897</v>
       </c>
       <c r="F109" t="n">
-        <v>0.409101</v>
+        <v>0.40883</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.343392</v>
+        <v>0.343105</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6414029999999999</v>
+        <v>0.641313</v>
       </c>
       <c r="D110" t="n">
-        <v>0.588262</v>
+        <v>0.58783</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2579</v>
+        <v>0.25817</v>
       </c>
       <c r="F110" t="n">
-        <v>0.407283</v>
+        <v>0.407683</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.337607</v>
+        <v>0.337508</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5898870000000001</v>
+        <v>0.589596</v>
       </c>
       <c r="D111" t="n">
-        <v>0.585551</v>
+        <v>0.584958</v>
       </c>
       <c r="E111" t="n">
-        <v>0.256613</v>
+        <v>0.256724</v>
       </c>
       <c r="F111" t="n">
-        <v>0.406569</v>
+        <v>0.406355</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.330671</v>
+        <v>0.330475</v>
       </c>
       <c r="C112" t="n">
-        <v>0.538532</v>
+        <v>0.538888</v>
       </c>
       <c r="D112" t="n">
-        <v>0.582278</v>
+        <v>0.581637</v>
       </c>
       <c r="E112" t="n">
-        <v>0.255186</v>
+        <v>0.255431</v>
       </c>
       <c r="F112" t="n">
-        <v>0.405391</v>
+        <v>0.404671</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.322712</v>
+        <v>0.322608</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5751039999999999</v>
+        <v>0.575178</v>
       </c>
       <c r="D113" t="n">
-        <v>0.594298</v>
+        <v>0.59046</v>
       </c>
       <c r="E113" t="n">
-        <v>0.253987</v>
+        <v>0.254075</v>
       </c>
       <c r="F113" t="n">
-        <v>0.403867</v>
+        <v>0.404261</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.314496</v>
+        <v>0.313763</v>
       </c>
       <c r="C114" t="n">
-        <v>0.578209</v>
+        <v>0.579173</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5851769999999999</v>
+        <v>0.584601</v>
       </c>
       <c r="E114" t="n">
-        <v>0.252838</v>
+        <v>0.252992</v>
       </c>
       <c r="F114" t="n">
-        <v>0.403271</v>
+        <v>0.403235</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.305488</v>
+        <v>0.305437</v>
       </c>
       <c r="C115" t="n">
-        <v>0.563746</v>
+        <v>0.56481</v>
       </c>
       <c r="D115" t="n">
-        <v>0.575467</v>
+        <v>0.577974</v>
       </c>
       <c r="E115" t="n">
-        <v>0.25167</v>
+        <v>0.252067</v>
       </c>
       <c r="F115" t="n">
-        <v>0.402611</v>
+        <v>0.402211</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.295501</v>
+        <v>0.295087</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6411480000000001</v>
+        <v>0.643494</v>
       </c>
       <c r="D116" t="n">
-        <v>0.568978</v>
+        <v>0.568833</v>
       </c>
       <c r="E116" t="n">
-        <v>0.250442</v>
+        <v>0.250467</v>
       </c>
       <c r="F116" t="n">
-        <v>0.401022</v>
+        <v>0.401398</v>
       </c>
     </row>
     <row r="117">
@@ -7388,16 +7388,16 @@
         <v>0.285168</v>
       </c>
       <c r="C117" t="n">
-        <v>0.555375</v>
+        <v>0.555218</v>
       </c>
       <c r="D117" t="n">
-        <v>0.561011</v>
+        <v>0.5577490000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.250599</v>
+        <v>0.250455</v>
       </c>
       <c r="F117" t="n">
-        <v>0.40087</v>
+        <v>0.400862</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.272899</v>
+        <v>0.272518</v>
       </c>
       <c r="C118" t="n">
-        <v>0.556051</v>
+        <v>0.557066</v>
       </c>
       <c r="D118" t="n">
-        <v>0.558105</v>
+        <v>0.558594</v>
       </c>
       <c r="E118" t="n">
-        <v>0.248729</v>
+        <v>0.250314</v>
       </c>
       <c r="F118" t="n">
-        <v>0.39941</v>
+        <v>0.399186</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.26087</v>
+        <v>0.260548</v>
       </c>
       <c r="C119" t="n">
-        <v>0.531123</v>
+        <v>0.53137</v>
       </c>
       <c r="D119" t="n">
-        <v>0.549364</v>
+        <v>0.549397</v>
       </c>
       <c r="E119" t="n">
-        <v>0.249443</v>
+        <v>0.249439</v>
       </c>
       <c r="F119" t="n">
-        <v>0.399286</v>
+        <v>0.399201</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.24829</v>
+        <v>0.248029</v>
       </c>
       <c r="C120" t="n">
-        <v>0.547581</v>
+        <v>0.5475</v>
       </c>
       <c r="D120" t="n">
-        <v>0.544005</v>
+        <v>0.543681</v>
       </c>
       <c r="E120" t="n">
-        <v>0.247809</v>
+        <v>0.247755</v>
       </c>
       <c r="F120" t="n">
-        <v>0.398676</v>
+        <v>0.398447</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.235061</v>
+        <v>0.234612</v>
       </c>
       <c r="C121" t="n">
-        <v>0.483441</v>
+        <v>0.483023</v>
       </c>
       <c r="D121" t="n">
-        <v>0.606457</v>
+        <v>0.605077</v>
       </c>
       <c r="E121" t="n">
-        <v>0.247362</v>
+        <v>0.249099</v>
       </c>
       <c r="F121" t="n">
-        <v>0.398157</v>
+        <v>0.397826</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.221072</v>
+        <v>0.220973</v>
       </c>
       <c r="C122" t="n">
-        <v>0.431878</v>
+        <v>0.431683</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6315190000000001</v>
+        <v>0.632397</v>
       </c>
       <c r="E122" t="n">
-        <v>0.247918</v>
+        <v>0.247683</v>
       </c>
       <c r="F122" t="n">
-        <v>0.397739</v>
+        <v>0.397526</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.20409</v>
+        <v>0.204031</v>
       </c>
       <c r="C123" t="n">
-        <v>0.445265</v>
+        <v>0.445961</v>
       </c>
       <c r="D123" t="n">
-        <v>0.626543</v>
+        <v>0.625512</v>
       </c>
       <c r="E123" t="n">
-        <v>0.259733</v>
+        <v>0.259741</v>
       </c>
       <c r="F123" t="n">
-        <v>0.409243</v>
+        <v>0.408862</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.342888</v>
+        <v>0.342336</v>
       </c>
       <c r="C124" t="n">
-        <v>0.664462</v>
+        <v>0.665109</v>
       </c>
       <c r="D124" t="n">
-        <v>0.616811</v>
+        <v>0.618283</v>
       </c>
       <c r="E124" t="n">
-        <v>0.258655</v>
+        <v>0.258497</v>
       </c>
       <c r="F124" t="n">
-        <v>0.407052</v>
+        <v>0.406774</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.336771</v>
+        <v>0.336934</v>
       </c>
       <c r="C125" t="n">
-        <v>0.573531</v>
+        <v>0.573563</v>
       </c>
       <c r="D125" t="n">
-        <v>0.610547</v>
+        <v>0.612922</v>
       </c>
       <c r="E125" t="n">
-        <v>0.256702</v>
+        <v>0.256485</v>
       </c>
       <c r="F125" t="n">
-        <v>0.406374</v>
+        <v>0.406183</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.329931</v>
+        <v>0.32967</v>
       </c>
       <c r="C126" t="n">
-        <v>0.665874</v>
+        <v>0.668195</v>
       </c>
       <c r="D126" t="n">
-        <v>0.604471</v>
+        <v>0.606859</v>
       </c>
       <c r="E126" t="n">
         <v>0.254964</v>
       </c>
       <c r="F126" t="n">
-        <v>0.405114</v>
+        <v>0.405047</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323899</v>
+        <v>0.323697</v>
       </c>
       <c r="C127" t="n">
-        <v>0.581454</v>
+        <v>0.5825360000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.585873</v>
+        <v>0.586321</v>
       </c>
       <c r="E127" t="n">
-        <v>0.253895</v>
+        <v>0.253809</v>
       </c>
       <c r="F127" t="n">
-        <v>0.40408</v>
+        <v>0.40377</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315289</v>
+        <v>0.315485</v>
       </c>
       <c r="C128" t="n">
-        <v>0.610113</v>
+        <v>0.6112</v>
       </c>
       <c r="D128" t="n">
-        <v>0.583114</v>
+        <v>0.580803</v>
       </c>
       <c r="E128" t="n">
-        <v>0.252749</v>
+        <v>0.252577</v>
       </c>
       <c r="F128" t="n">
-        <v>0.403026</v>
+        <v>0.402985</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.305282</v>
+        <v>0.30531</v>
       </c>
       <c r="C129" t="n">
-        <v>0.543947</v>
+        <v>0.544103</v>
       </c>
       <c r="D129" t="n">
-        <v>0.578098</v>
+        <v>0.577991</v>
       </c>
       <c r="E129" t="n">
-        <v>0.25236</v>
+        <v>0.252176</v>
       </c>
       <c r="F129" t="n">
-        <v>0.402106</v>
+        <v>0.402113</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.295703</v>
+        <v>0.295454</v>
       </c>
       <c r="C130" t="n">
-        <v>0.547983</v>
+        <v>0.54881</v>
       </c>
       <c r="D130" t="n">
-        <v>0.56882</v>
+        <v>0.56908</v>
       </c>
       <c r="E130" t="n">
-        <v>0.251256</v>
+        <v>0.251779</v>
       </c>
       <c r="F130" t="n">
-        <v>0.401091</v>
+        <v>0.401075</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.28562</v>
+        <v>0.285476</v>
       </c>
       <c r="C131" t="n">
-        <v>0.548895</v>
+        <v>0.54945</v>
       </c>
       <c r="D131" t="n">
-        <v>0.565423</v>
+        <v>0.565937</v>
       </c>
       <c r="E131" t="n">
-        <v>0.250512</v>
+        <v>0.250459</v>
       </c>
       <c r="F131" t="n">
-        <v>0.400314</v>
+        <v>0.400341</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.274889</v>
+        <v>0.274125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.542795</v>
+        <v>0.542672</v>
       </c>
       <c r="D132" t="n">
-        <v>0.562066</v>
+        <v>0.561956</v>
       </c>
       <c r="E132" t="n">
-        <v>0.248863</v>
+        <v>0.249799</v>
       </c>
       <c r="F132" t="n">
-        <v>0.399264</v>
+        <v>0.399664</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.262466</v>
+        <v>0.262992</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5544</v>
+        <v>0.555412</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5581390000000001</v>
+        <v>0.5578070000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>0.248399</v>
+        <v>0.248357</v>
       </c>
       <c r="F133" t="n">
-        <v>0.399153</v>
+        <v>0.399006</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.25009</v>
+        <v>0.250225</v>
       </c>
       <c r="C134" t="n">
-        <v>0.478544</v>
+        <v>0.478869</v>
       </c>
       <c r="D134" t="n">
-        <v>0.548862</v>
+        <v>0.549119</v>
       </c>
       <c r="E134" t="n">
-        <v>0.248745</v>
+        <v>0.247881</v>
       </c>
       <c r="F134" t="n">
-        <v>0.398604</v>
+        <v>0.398514</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.236896</v>
+        <v>0.236753</v>
       </c>
       <c r="C135" t="n">
-        <v>0.515131</v>
+        <v>0.516005</v>
       </c>
       <c r="D135" t="n">
-        <v>0.638181</v>
+        <v>0.6353220000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.247838</v>
+        <v>0.247051</v>
       </c>
       <c r="F135" t="n">
-        <v>0.397484</v>
+        <v>0.397358</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.222648</v>
+        <v>0.222671</v>
       </c>
       <c r="C136" t="n">
-        <v>0.508865</v>
+        <v>0.510431</v>
       </c>
       <c r="D136" t="n">
-        <v>0.631838</v>
+        <v>0.630149</v>
       </c>
       <c r="E136" t="n">
-        <v>0.246767</v>
+        <v>0.246951</v>
       </c>
       <c r="F136" t="n">
-        <v>0.397651</v>
+        <v>0.397615</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.206488</v>
+        <v>0.206523</v>
       </c>
       <c r="C137" t="n">
-        <v>0.524822</v>
+        <v>0.526697</v>
       </c>
       <c r="D137" t="n">
-        <v>0.607256</v>
+        <v>0.606604</v>
       </c>
       <c r="E137" t="n">
-        <v>0.259391</v>
+        <v>0.260568</v>
       </c>
       <c r="F137" t="n">
-        <v>0.408857</v>
+        <v>0.409278</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.344955</v>
+        <v>0.345591</v>
       </c>
       <c r="C138" t="n">
-        <v>0.651824</v>
+        <v>0.652582</v>
       </c>
       <c r="D138" t="n">
-        <v>0.605657</v>
+        <v>0.605298</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257515</v>
+        <v>0.25811</v>
       </c>
       <c r="F138" t="n">
-        <v>0.40808</v>
+        <v>0.408004</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.338877</v>
+        <v>0.34014</v>
       </c>
       <c r="C139" t="n">
-        <v>0.52034</v>
+        <v>0.519226</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6051800000000001</v>
+        <v>0.600565</v>
       </c>
       <c r="E139" t="n">
-        <v>0.256574</v>
+        <v>0.257071</v>
       </c>
       <c r="F139" t="n">
-        <v>0.406789</v>
+        <v>0.406758</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.332781</v>
+        <v>0.332811</v>
       </c>
       <c r="C140" t="n">
-        <v>0.619501</v>
+        <v>0.620907</v>
       </c>
       <c r="D140" t="n">
-        <v>0.601567</v>
+        <v>0.597898</v>
       </c>
       <c r="E140" t="n">
-        <v>0.255196</v>
+        <v>0.255936</v>
       </c>
       <c r="F140" t="n">
-        <v>0.404908</v>
+        <v>0.405638</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.324407</v>
+        <v>0.324887</v>
       </c>
       <c r="C141" t="n">
-        <v>0.667258</v>
+        <v>0.667803</v>
       </c>
       <c r="D141" t="n">
-        <v>0.606451</v>
+        <v>0.603959</v>
       </c>
       <c r="E141" t="n">
-        <v>0.253701</v>
+        <v>0.254606</v>
       </c>
       <c r="F141" t="n">
-        <v>0.403816</v>
+        <v>0.404443</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.316168</v>
+        <v>0.315803</v>
       </c>
       <c r="C142" t="n">
-        <v>0.669119</v>
+        <v>0.670339</v>
       </c>
       <c r="D142" t="n">
-        <v>0.587902</v>
+        <v>0.587838</v>
       </c>
       <c r="E142" t="n">
-        <v>0.252469</v>
+        <v>0.252701</v>
       </c>
       <c r="F142" t="n">
-        <v>0.402813</v>
+        <v>0.403497</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.308185</v>
+        <v>0.307271</v>
       </c>
       <c r="C143" t="n">
-        <v>0.596159</v>
+        <v>0.597393</v>
       </c>
       <c r="D143" t="n">
-        <v>0.58779</v>
+        <v>0.592109</v>
       </c>
       <c r="E143" t="n">
-        <v>0.251762</v>
+        <v>0.251661</v>
       </c>
       <c r="F143" t="n">
-        <v>0.401826</v>
+        <v>0.401937</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279315</v>
+        <v>0.25374</v>
       </c>
       <c r="C2" t="n">
-        <v>0.460983</v>
+        <v>0.449637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.395183</v>
+        <v>0.385557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.229533</v>
+        <v>0.220122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.423106</v>
+        <v>0.395623</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268876</v>
+        <v>0.249611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.461245</v>
+        <v>0.444058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39762</v>
+        <v>0.386228</v>
       </c>
       <c r="E3" t="n">
-        <v>0.232235</v>
+        <v>0.221265</v>
       </c>
       <c r="F3" t="n">
-        <v>0.420143</v>
+        <v>0.396099</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261642</v>
+        <v>0.243877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.452504</v>
+        <v>0.43479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.399762</v>
+        <v>0.387231</v>
       </c>
       <c r="E4" t="n">
-        <v>0.232557</v>
+        <v>0.222485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.419352</v>
+        <v>0.398093</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247944</v>
+        <v>0.234758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.439398</v>
+        <v>0.423546</v>
       </c>
       <c r="D5" t="n">
-        <v>0.400356</v>
+        <v>0.386129</v>
       </c>
       <c r="E5" t="n">
-        <v>0.235516</v>
+        <v>0.225053</v>
       </c>
       <c r="F5" t="n">
-        <v>0.419971</v>
+        <v>0.395917</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233758</v>
+        <v>0.226697</v>
       </c>
       <c r="C6" t="n">
-        <v>0.431421</v>
+        <v>0.413205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.402244</v>
+        <v>0.3874</v>
       </c>
       <c r="E6" t="n">
-        <v>0.237555</v>
+        <v>0.226566</v>
       </c>
       <c r="F6" t="n">
-        <v>0.419788</v>
+        <v>0.394662</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226716</v>
+        <v>0.215043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.418317</v>
+        <v>0.405811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.395977</v>
+        <v>0.388388</v>
       </c>
       <c r="E7" t="n">
-        <v>0.238953</v>
+        <v>0.227074</v>
       </c>
       <c r="F7" t="n">
-        <v>0.419728</v>
+        <v>0.396591</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.206325</v>
+        <v>0.201338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.402515</v>
+        <v>0.390995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.396874</v>
+        <v>0.391935</v>
       </c>
       <c r="E8" t="n">
-        <v>0.23934</v>
+        <v>0.229207</v>
       </c>
       <c r="F8" t="n">
-        <v>0.41853</v>
+        <v>0.395226</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.189867</v>
+        <v>0.188162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.384392</v>
+        <v>0.372316</v>
       </c>
       <c r="D9" t="n">
-        <v>0.398213</v>
+        <v>0.390872</v>
       </c>
       <c r="E9" t="n">
-        <v>0.257464</v>
+        <v>0.248074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.431168</v>
+        <v>0.406353</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.337387</v>
+        <v>0.329885</v>
       </c>
       <c r="C10" t="n">
-        <v>0.516304</v>
+        <v>0.503053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.397489</v>
+        <v>0.387728</v>
       </c>
       <c r="E10" t="n">
-        <v>0.258794</v>
+        <v>0.248556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.430474</v>
+        <v>0.405708</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.330632</v>
+        <v>0.323386</v>
       </c>
       <c r="C11" t="n">
-        <v>0.519444</v>
+        <v>0.499693</v>
       </c>
       <c r="D11" t="n">
-        <v>0.398365</v>
+        <v>0.390094</v>
       </c>
       <c r="E11" t="n">
-        <v>0.256832</v>
+        <v>0.248064</v>
       </c>
       <c r="F11" t="n">
-        <v>0.43014</v>
+        <v>0.405526</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.324834</v>
+        <v>0.316545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.512418</v>
+        <v>0.49331</v>
       </c>
       <c r="D12" t="n">
-        <v>0.400863</v>
+        <v>0.390007</v>
       </c>
       <c r="E12" t="n">
-        <v>0.256044</v>
+        <v>0.247349</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42813</v>
+        <v>0.405423</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31831</v>
+        <v>0.311616</v>
       </c>
       <c r="C13" t="n">
-        <v>0.498925</v>
+        <v>0.486795</v>
       </c>
       <c r="D13" t="n">
-        <v>0.400033</v>
+        <v>0.391091</v>
       </c>
       <c r="E13" t="n">
-        <v>0.255547</v>
+        <v>0.246423</v>
       </c>
       <c r="F13" t="n">
-        <v>0.428901</v>
+        <v>0.404282</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310507</v>
+        <v>0.301702</v>
       </c>
       <c r="C14" t="n">
-        <v>0.496528</v>
+        <v>0.477858</v>
       </c>
       <c r="D14" t="n">
-        <v>0.401955</v>
+        <v>0.393012</v>
       </c>
       <c r="E14" t="n">
-        <v>0.255923</v>
+        <v>0.245211</v>
       </c>
       <c r="F14" t="n">
-        <v>0.428019</v>
+        <v>0.403053</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.301149</v>
+        <v>0.29296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.483094</v>
+        <v>0.474232</v>
       </c>
       <c r="D15" t="n">
-        <v>0.402877</v>
+        <v>0.393885</v>
       </c>
       <c r="E15" t="n">
-        <v>0.255065</v>
+        <v>0.244801</v>
       </c>
       <c r="F15" t="n">
-        <v>0.428341</v>
+        <v>0.401936</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.293041</v>
+        <v>0.287462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.472966</v>
+        <v>0.456903</v>
       </c>
       <c r="D16" t="n">
-        <v>0.404249</v>
+        <v>0.39281</v>
       </c>
       <c r="E16" t="n">
-        <v>0.255649</v>
+        <v>0.244438</v>
       </c>
       <c r="F16" t="n">
-        <v>0.42511</v>
+        <v>0.401105</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.283265</v>
+        <v>0.278503</v>
       </c>
       <c r="C17" t="n">
-        <v>0.467474</v>
+        <v>0.452982</v>
       </c>
       <c r="D17" t="n">
-        <v>0.404869</v>
+        <v>0.393992</v>
       </c>
       <c r="E17" t="n">
-        <v>0.254235</v>
+        <v>0.244559</v>
       </c>
       <c r="F17" t="n">
-        <v>0.426586</v>
+        <v>0.400601</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.273545</v>
+        <v>0.269213</v>
       </c>
       <c r="C18" t="n">
-        <v>0.458196</v>
+        <v>0.451197</v>
       </c>
       <c r="D18" t="n">
-        <v>0.406307</v>
+        <v>0.393761</v>
       </c>
       <c r="E18" t="n">
-        <v>0.254887</v>
+        <v>0.243941</v>
       </c>
       <c r="F18" t="n">
-        <v>0.423656</v>
+        <v>0.401239</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2623</v>
+        <v>0.258687</v>
       </c>
       <c r="C19" t="n">
-        <v>0.456368</v>
+        <v>0.436707</v>
       </c>
       <c r="D19" t="n">
-        <v>0.408797</v>
+        <v>0.394982</v>
       </c>
       <c r="E19" t="n">
-        <v>0.254412</v>
+        <v>0.243861</v>
       </c>
       <c r="F19" t="n">
-        <v>0.424001</v>
+        <v>0.401633</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25028</v>
+        <v>0.247047</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437031</v>
+        <v>0.426262</v>
       </c>
       <c r="D20" t="n">
-        <v>0.410559</v>
+        <v>0.39428</v>
       </c>
       <c r="E20" t="n">
-        <v>0.253954</v>
+        <v>0.2428</v>
       </c>
       <c r="F20" t="n">
-        <v>0.423239</v>
+        <v>0.399687</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239853</v>
+        <v>0.23508</v>
       </c>
       <c r="C21" t="n">
-        <v>0.423372</v>
+        <v>0.407782</v>
       </c>
       <c r="D21" t="n">
-        <v>0.402588</v>
+        <v>0.395848</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25234</v>
+        <v>0.241695</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4225</v>
+        <v>0.398704</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.223648</v>
+        <v>0.220642</v>
       </c>
       <c r="C22" t="n">
-        <v>0.409545</v>
+        <v>0.399255</v>
       </c>
       <c r="D22" t="n">
-        <v>0.40328</v>
+        <v>0.395822</v>
       </c>
       <c r="E22" t="n">
-        <v>0.252482</v>
+        <v>0.241993</v>
       </c>
       <c r="F22" t="n">
-        <v>0.422527</v>
+        <v>0.400742</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206823</v>
+        <v>0.206582</v>
       </c>
       <c r="C23" t="n">
-        <v>0.395739</v>
+        <v>0.385886</v>
       </c>
       <c r="D23" t="n">
-        <v>0.403161</v>
+        <v>0.396481</v>
       </c>
       <c r="E23" t="n">
-        <v>0.270711</v>
+        <v>0.258662</v>
       </c>
       <c r="F23" t="n">
-        <v>0.436425</v>
+        <v>0.411154</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.344834</v>
+        <v>0.340326</v>
       </c>
       <c r="C24" t="n">
-        <v>0.517211</v>
+        <v>0.503557</v>
       </c>
       <c r="D24" t="n">
-        <v>0.406017</v>
+        <v>0.395682</v>
       </c>
       <c r="E24" t="n">
-        <v>0.268237</v>
+        <v>0.255085</v>
       </c>
       <c r="F24" t="n">
-        <v>0.434743</v>
+        <v>0.40988</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.337924</v>
+        <v>0.334825</v>
       </c>
       <c r="C25" t="n">
-        <v>0.517315</v>
+        <v>0.503327</v>
       </c>
       <c r="D25" t="n">
-        <v>0.406018</v>
+        <v>0.39657</v>
       </c>
       <c r="E25" t="n">
-        <v>0.265026</v>
+        <v>0.254048</v>
       </c>
       <c r="F25" t="n">
-        <v>0.434078</v>
+        <v>0.409707</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33247</v>
+        <v>0.329015</v>
       </c>
       <c r="C26" t="n">
-        <v>0.509935</v>
+        <v>0.4994</v>
       </c>
       <c r="D26" t="n">
-        <v>0.405064</v>
+        <v>0.395786</v>
       </c>
       <c r="E26" t="n">
-        <v>0.264056</v>
+        <v>0.252611</v>
       </c>
       <c r="F26" t="n">
-        <v>0.432181</v>
+        <v>0.409238</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.326689</v>
+        <v>0.321896</v>
       </c>
       <c r="C27" t="n">
-        <v>0.50585</v>
+        <v>0.482436</v>
       </c>
       <c r="D27" t="n">
-        <v>0.40758</v>
+        <v>0.395827</v>
       </c>
       <c r="E27" t="n">
-        <v>0.263243</v>
+        <v>0.251762</v>
       </c>
       <c r="F27" t="n">
-        <v>0.431412</v>
+        <v>0.407536</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.318559</v>
+        <v>0.313828</v>
       </c>
       <c r="C28" t="n">
-        <v>0.496215</v>
+        <v>0.48057</v>
       </c>
       <c r="D28" t="n">
-        <v>0.406773</v>
+        <v>0.395316</v>
       </c>
       <c r="E28" t="n">
-        <v>0.262086</v>
+        <v>0.2512</v>
       </c>
       <c r="F28" t="n">
-        <v>0.431135</v>
+        <v>0.406511</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.310817</v>
+        <v>0.305771</v>
       </c>
       <c r="C29" t="n">
-        <v>0.491601</v>
+        <v>0.480188</v>
       </c>
       <c r="D29" t="n">
-        <v>0.406998</v>
+        <v>0.395958</v>
       </c>
       <c r="E29" t="n">
-        <v>0.260283</v>
+        <v>0.249828</v>
       </c>
       <c r="F29" t="n">
-        <v>0.430437</v>
+        <v>0.405293</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.302787</v>
+        <v>0.297834</v>
       </c>
       <c r="C30" t="n">
-        <v>0.474104</v>
+        <v>0.465883</v>
       </c>
       <c r="D30" t="n">
-        <v>0.409421</v>
+        <v>0.397104</v>
       </c>
       <c r="E30" t="n">
-        <v>0.260998</v>
+        <v>0.249092</v>
       </c>
       <c r="F30" t="n">
-        <v>0.428836</v>
+        <v>0.405083</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.292991</v>
+        <v>0.289232</v>
       </c>
       <c r="C31" t="n">
-        <v>0.467353</v>
+        <v>0.451045</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411892</v>
+        <v>0.397838</v>
       </c>
       <c r="E31" t="n">
-        <v>0.259672</v>
+        <v>0.247909</v>
       </c>
       <c r="F31" t="n">
-        <v>0.428401</v>
+        <v>0.40437</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.282067</v>
+        <v>0.279812</v>
       </c>
       <c r="C32" t="n">
-        <v>0.464565</v>
+        <v>0.454373</v>
       </c>
       <c r="D32" t="n">
-        <v>0.412041</v>
+        <v>0.398073</v>
       </c>
       <c r="E32" t="n">
-        <v>0.259242</v>
+        <v>0.247971</v>
       </c>
       <c r="F32" t="n">
-        <v>0.427516</v>
+        <v>0.403212</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.271219</v>
+        <v>0.268927</v>
       </c>
       <c r="C33" t="n">
-        <v>0.450377</v>
+        <v>0.438042</v>
       </c>
       <c r="D33" t="n">
-        <v>0.412456</v>
+        <v>0.398774</v>
       </c>
       <c r="E33" t="n">
-        <v>0.259891</v>
+        <v>0.246655</v>
       </c>
       <c r="F33" t="n">
-        <v>0.425875</v>
+        <v>0.402521</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260133</v>
+        <v>0.256936</v>
       </c>
       <c r="C34" t="n">
-        <v>0.444774</v>
+        <v>0.423745</v>
       </c>
       <c r="D34" t="n">
-        <v>0.413561</v>
+        <v>0.397737</v>
       </c>
       <c r="E34" t="n">
-        <v>0.261709</v>
+        <v>0.246307</v>
       </c>
       <c r="F34" t="n">
-        <v>0.426036</v>
+        <v>0.401946</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.245849</v>
+        <v>0.243987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.428346</v>
+        <v>0.410751</v>
       </c>
       <c r="D35" t="n">
-        <v>0.410009</v>
+        <v>0.400579</v>
       </c>
       <c r="E35" t="n">
-        <v>0.255413</v>
+        <v>0.245463</v>
       </c>
       <c r="F35" t="n">
-        <v>0.424245</v>
+        <v>0.401454</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231398</v>
+        <v>0.229782</v>
       </c>
       <c r="C36" t="n">
-        <v>0.417521</v>
+        <v>0.396044</v>
       </c>
       <c r="D36" t="n">
-        <v>0.410391</v>
+        <v>0.399903</v>
       </c>
       <c r="E36" t="n">
-        <v>0.254394</v>
+        <v>0.244613</v>
       </c>
       <c r="F36" t="n">
-        <v>0.423301</v>
+        <v>0.401314</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216024</v>
+        <v>0.213295</v>
       </c>
       <c r="C37" t="n">
-        <v>0.409036</v>
+        <v>0.395333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.410322</v>
+        <v>0.400457</v>
       </c>
       <c r="E37" t="n">
-        <v>0.271143</v>
+        <v>0.258579</v>
       </c>
       <c r="F37" t="n">
-        <v>0.438154</v>
+        <v>0.413024</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350248</v>
+        <v>0.345214</v>
       </c>
       <c r="C38" t="n">
-        <v>0.52544</v>
+        <v>0.505017</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408572</v>
+        <v>0.400864</v>
       </c>
       <c r="E38" t="n">
-        <v>0.268521</v>
+        <v>0.255879</v>
       </c>
       <c r="F38" t="n">
-        <v>0.436083</v>
+        <v>0.41125</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345723</v>
+        <v>0.340118</v>
       </c>
       <c r="C39" t="n">
-        <v>0.520166</v>
+        <v>0.500248</v>
       </c>
       <c r="D39" t="n">
-        <v>0.409609</v>
+        <v>0.400887</v>
       </c>
       <c r="E39" t="n">
-        <v>0.265497</v>
+        <v>0.254082</v>
       </c>
       <c r="F39" t="n">
-        <v>0.434843</v>
+        <v>0.409391</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.340102</v>
+        <v>0.335231</v>
       </c>
       <c r="C40" t="n">
-        <v>0.514406</v>
+        <v>0.495259</v>
       </c>
       <c r="D40" t="n">
-        <v>0.409368</v>
+        <v>0.400615</v>
       </c>
       <c r="E40" t="n">
-        <v>0.264529</v>
+        <v>0.253509</v>
       </c>
       <c r="F40" t="n">
-        <v>0.435076</v>
+        <v>0.409389</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333018</v>
+        <v>0.327925</v>
       </c>
       <c r="C41" t="n">
-        <v>0.507066</v>
+        <v>0.48633</v>
       </c>
       <c r="D41" t="n">
-        <v>0.409281</v>
+        <v>0.399356</v>
       </c>
       <c r="E41" t="n">
-        <v>0.263188</v>
+        <v>0.252491</v>
       </c>
       <c r="F41" t="n">
-        <v>0.432516</v>
+        <v>0.408528</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325963</v>
+        <v>0.322003</v>
       </c>
       <c r="C42" t="n">
-        <v>0.496331</v>
+        <v>0.480437</v>
       </c>
       <c r="D42" t="n">
-        <v>0.409287</v>
+        <v>0.39977</v>
       </c>
       <c r="E42" t="n">
-        <v>0.261926</v>
+        <v>0.251405</v>
       </c>
       <c r="F42" t="n">
-        <v>0.432143</v>
+        <v>0.407547</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318272</v>
+        <v>0.314167</v>
       </c>
       <c r="C43" t="n">
-        <v>0.487169</v>
+        <v>0.474591</v>
       </c>
       <c r="D43" t="n">
-        <v>0.411555</v>
+        <v>0.399715</v>
       </c>
       <c r="E43" t="n">
-        <v>0.261142</v>
+        <v>0.250419</v>
       </c>
       <c r="F43" t="n">
-        <v>0.43125</v>
+        <v>0.40678</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309209</v>
+        <v>0.305761</v>
       </c>
       <c r="C44" t="n">
-        <v>0.484123</v>
+        <v>0.46914</v>
       </c>
       <c r="D44" t="n">
-        <v>0.412549</v>
+        <v>0.400515</v>
       </c>
       <c r="E44" t="n">
-        <v>0.260007</v>
+        <v>0.249156</v>
       </c>
       <c r="F44" t="n">
-        <v>0.430227</v>
+        <v>0.405486</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.298755</v>
+        <v>0.295315</v>
       </c>
       <c r="C45" t="n">
-        <v>0.474198</v>
+        <v>0.454984</v>
       </c>
       <c r="D45" t="n">
-        <v>0.41297</v>
+        <v>0.400281</v>
       </c>
       <c r="E45" t="n">
-        <v>0.258258</v>
+        <v>0.248</v>
       </c>
       <c r="F45" t="n">
-        <v>0.428738</v>
+        <v>0.404745</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.288579</v>
+        <v>0.285123</v>
       </c>
       <c r="C46" t="n">
-        <v>0.469119</v>
+        <v>0.455038</v>
       </c>
       <c r="D46" t="n">
-        <v>0.412856</v>
+        <v>0.400582</v>
       </c>
       <c r="E46" t="n">
-        <v>0.257366</v>
+        <v>0.246763</v>
       </c>
       <c r="F46" t="n">
-        <v>0.427438</v>
+        <v>0.404003</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.277412</v>
+        <v>0.273639</v>
       </c>
       <c r="C47" t="n">
-        <v>0.461876</v>
+        <v>0.445983</v>
       </c>
       <c r="D47" t="n">
-        <v>0.413843</v>
+        <v>0.40156</v>
       </c>
       <c r="E47" t="n">
-        <v>0.256736</v>
+        <v>0.246552</v>
       </c>
       <c r="F47" t="n">
-        <v>0.426739</v>
+        <v>0.402968</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26495</v>
+        <v>0.262174</v>
       </c>
       <c r="C48" t="n">
-        <v>0.44682</v>
+        <v>0.427908</v>
       </c>
       <c r="D48" t="n">
-        <v>0.415118</v>
+        <v>0.40154</v>
       </c>
       <c r="E48" t="n">
-        <v>0.256506</v>
+        <v>0.244831</v>
       </c>
       <c r="F48" t="n">
-        <v>0.426934</v>
+        <v>0.402698</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252146</v>
+        <v>0.249366</v>
       </c>
       <c r="C49" t="n">
-        <v>0.43401</v>
+        <v>0.412417</v>
       </c>
       <c r="D49" t="n">
-        <v>0.418288</v>
+        <v>0.402231</v>
       </c>
       <c r="E49" t="n">
-        <v>0.256291</v>
+        <v>0.245431</v>
       </c>
       <c r="F49" t="n">
-        <v>0.425623</v>
+        <v>0.402551</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237372</v>
+        <v>0.235022</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425744</v>
+        <v>0.405687</v>
       </c>
       <c r="D50" t="n">
-        <v>0.416704</v>
+        <v>0.406344</v>
       </c>
       <c r="E50" t="n">
-        <v>0.255087</v>
+        <v>0.244347</v>
       </c>
       <c r="F50" t="n">
-        <v>0.42483</v>
+        <v>0.402445</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221334</v>
+        <v>0.220161</v>
       </c>
       <c r="C51" t="n">
-        <v>0.405871</v>
+        <v>0.391514</v>
       </c>
       <c r="D51" t="n">
-        <v>0.418646</v>
+        <v>0.405081</v>
       </c>
       <c r="E51" t="n">
-        <v>0.27156</v>
+        <v>0.258054</v>
       </c>
       <c r="F51" t="n">
-        <v>0.438988</v>
+        <v>0.413786</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.20555</v>
+        <v>0.204787</v>
       </c>
       <c r="C52" t="n">
-        <v>0.385913</v>
+        <v>0.381507</v>
       </c>
       <c r="D52" t="n">
-        <v>0.416804</v>
+        <v>0.40569</v>
       </c>
       <c r="E52" t="n">
-        <v>0.268781</v>
+        <v>0.256516</v>
       </c>
       <c r="F52" t="n">
-        <v>0.437283</v>
+        <v>0.412742</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34899</v>
+        <v>0.34459</v>
       </c>
       <c r="C53" t="n">
-        <v>0.521895</v>
+        <v>0.505226</v>
       </c>
       <c r="D53" t="n">
-        <v>0.41407</v>
+        <v>0.404858</v>
       </c>
       <c r="E53" t="n">
-        <v>0.266467</v>
+        <v>0.255191</v>
       </c>
       <c r="F53" t="n">
-        <v>0.436158</v>
+        <v>0.411414</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34276</v>
+        <v>0.33849</v>
       </c>
       <c r="C54" t="n">
-        <v>0.51455</v>
+        <v>0.491058</v>
       </c>
       <c r="D54" t="n">
-        <v>0.415576</v>
+        <v>0.404581</v>
       </c>
       <c r="E54" t="n">
-        <v>0.264258</v>
+        <v>0.253973</v>
       </c>
       <c r="F54" t="n">
-        <v>0.43461</v>
+        <v>0.410283</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.336508</v>
+        <v>0.33223</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5120440000000001</v>
+        <v>0.501602</v>
       </c>
       <c r="D55" t="n">
-        <v>0.415728</v>
+        <v>0.406185</v>
       </c>
       <c r="E55" t="n">
-        <v>0.263014</v>
+        <v>0.252879</v>
       </c>
       <c r="F55" t="n">
-        <v>0.433032</v>
+        <v>0.409059</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32968</v>
+        <v>0.324741</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5006119999999999</v>
+        <v>0.490184</v>
       </c>
       <c r="D56" t="n">
-        <v>0.421402</v>
+        <v>0.40783</v>
       </c>
       <c r="E56" t="n">
-        <v>0.262247</v>
+        <v>0.251864</v>
       </c>
       <c r="F56" t="n">
-        <v>0.432093</v>
+        <v>0.408967</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321368</v>
+        <v>0.317284</v>
       </c>
       <c r="C57" t="n">
-        <v>0.502522</v>
+        <v>0.494826</v>
       </c>
       <c r="D57" t="n">
-        <v>0.422921</v>
+        <v>0.409376</v>
       </c>
       <c r="E57" t="n">
-        <v>0.261343</v>
+        <v>0.250475</v>
       </c>
       <c r="F57" t="n">
-        <v>0.431342</v>
+        <v>0.407011</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312025</v>
+        <v>0.308641</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5020829999999999</v>
+        <v>0.485344</v>
       </c>
       <c r="D58" t="n">
-        <v>0.424002</v>
+        <v>0.409377</v>
       </c>
       <c r="E58" t="n">
-        <v>0.260466</v>
+        <v>0.247953</v>
       </c>
       <c r="F58" t="n">
-        <v>0.430298</v>
+        <v>0.406178</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302466</v>
+        <v>0.298945</v>
       </c>
       <c r="C59" t="n">
-        <v>0.488119</v>
+        <v>0.4743</v>
       </c>
       <c r="D59" t="n">
-        <v>0.424464</v>
+        <v>0.40894</v>
       </c>
       <c r="E59" t="n">
-        <v>0.259441</v>
+        <v>0.248805</v>
       </c>
       <c r="F59" t="n">
-        <v>0.429482</v>
+        <v>0.405545</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.292451</v>
+        <v>0.288742</v>
       </c>
       <c r="C60" t="n">
-        <v>0.493503</v>
+        <v>0.471728</v>
       </c>
       <c r="D60" t="n">
-        <v>0.43207</v>
+        <v>0.410374</v>
       </c>
       <c r="E60" t="n">
-        <v>0.258099</v>
+        <v>0.248068</v>
       </c>
       <c r="F60" t="n">
-        <v>0.432394</v>
+        <v>0.405008</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.281409</v>
+        <v>0.277526</v>
       </c>
       <c r="C61" t="n">
-        <v>0.489032</v>
+        <v>0.47692</v>
       </c>
       <c r="D61" t="n">
-        <v>0.433711</v>
+        <v>0.417058</v>
       </c>
       <c r="E61" t="n">
-        <v>0.257713</v>
+        <v>0.247231</v>
       </c>
       <c r="F61" t="n">
-        <v>0.43113</v>
+        <v>0.404114</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.268933</v>
+        <v>0.265784</v>
       </c>
       <c r="C62" t="n">
-        <v>0.478712</v>
+        <v>0.451717</v>
       </c>
       <c r="D62" t="n">
-        <v>0.439796</v>
+        <v>0.417735</v>
       </c>
       <c r="E62" t="n">
-        <v>0.256832</v>
+        <v>0.246495</v>
       </c>
       <c r="F62" t="n">
-        <v>0.430944</v>
+        <v>0.403516</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255744</v>
+        <v>0.253489</v>
       </c>
       <c r="C63" t="n">
-        <v>0.448212</v>
+        <v>0.45183</v>
       </c>
       <c r="D63" t="n">
-        <v>0.442958</v>
+        <v>0.417093</v>
       </c>
       <c r="E63" t="n">
-        <v>0.25611</v>
+        <v>0.245483</v>
       </c>
       <c r="F63" t="n">
-        <v>0.430122</v>
+        <v>0.403453</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24155</v>
+        <v>0.23965</v>
       </c>
       <c r="C64" t="n">
-        <v>0.464477</v>
+        <v>0.4296</v>
       </c>
       <c r="D64" t="n">
-        <v>0.470774</v>
+        <v>0.464596</v>
       </c>
       <c r="E64" t="n">
-        <v>0.256729</v>
+        <v>0.245217</v>
       </c>
       <c r="F64" t="n">
-        <v>0.428934</v>
+        <v>0.402811</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.22712</v>
+        <v>0.224947</v>
       </c>
       <c r="C65" t="n">
-        <v>0.439137</v>
+        <v>0.424955</v>
       </c>
       <c r="D65" t="n">
-        <v>0.474181</v>
+        <v>0.464513</v>
       </c>
       <c r="E65" t="n">
-        <v>0.255394</v>
+        <v>0.244351</v>
       </c>
       <c r="F65" t="n">
-        <v>0.428508</v>
+        <v>0.40208</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.210376</v>
+        <v>0.209254</v>
       </c>
       <c r="C66" t="n">
-        <v>0.422025</v>
+        <v>0.412956</v>
       </c>
       <c r="D66" t="n">
-        <v>0.481327</v>
+        <v>0.462207</v>
       </c>
       <c r="E66" t="n">
-        <v>0.269539</v>
+        <v>0.26333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.441816</v>
+        <v>0.413056</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351058</v>
+        <v>0.347306</v>
       </c>
       <c r="C67" t="n">
-        <v>0.567774</v>
+        <v>0.573039</v>
       </c>
       <c r="D67" t="n">
-        <v>0.491615</v>
+        <v>0.477215</v>
       </c>
       <c r="E67" t="n">
-        <v>0.267277</v>
+        <v>0.261214</v>
       </c>
       <c r="F67" t="n">
-        <v>0.440247</v>
+        <v>0.414387</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.345156</v>
+        <v>0.341191</v>
       </c>
       <c r="C68" t="n">
-        <v>0.572209</v>
+        <v>0.593045</v>
       </c>
       <c r="D68" t="n">
-        <v>0.497113</v>
+        <v>0.482926</v>
       </c>
       <c r="E68" t="n">
-        <v>0.265481</v>
+        <v>0.258517</v>
       </c>
       <c r="F68" t="n">
-        <v>0.439015</v>
+        <v>0.410762</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.339093</v>
+        <v>0.334334</v>
       </c>
       <c r="C69" t="n">
-        <v>0.549724</v>
+        <v>0.537068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5044689999999999</v>
+        <v>0.488286</v>
       </c>
       <c r="E69" t="n">
-        <v>0.263769</v>
+        <v>0.257416</v>
       </c>
       <c r="F69" t="n">
-        <v>0.437706</v>
+        <v>0.414324</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.331318</v>
+        <v>0.328296</v>
       </c>
       <c r="C70" t="n">
-        <v>0.565819</v>
+        <v>0.617041</v>
       </c>
       <c r="D70" t="n">
-        <v>0.506145</v>
+        <v>0.494736</v>
       </c>
       <c r="E70" t="n">
-        <v>0.262513</v>
+        <v>0.255746</v>
       </c>
       <c r="F70" t="n">
-        <v>0.436817</v>
+        <v>0.413439</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323449</v>
+        <v>0.320076</v>
       </c>
       <c r="C71" t="n">
-        <v>0.510713</v>
+        <v>0.596866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5270049999999999</v>
+        <v>0.504088</v>
       </c>
       <c r="E71" t="n">
-        <v>0.261343</v>
+        <v>0.253954</v>
       </c>
       <c r="F71" t="n">
-        <v>0.43605</v>
+        <v>0.412172</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.314175</v>
+        <v>0.311546</v>
       </c>
       <c r="C72" t="n">
-        <v>0.552998</v>
+        <v>0.616686</v>
       </c>
       <c r="D72" t="n">
-        <v>0.519191</v>
+        <v>0.508991</v>
       </c>
       <c r="E72" t="n">
-        <v>0.260323</v>
+        <v>0.252145</v>
       </c>
       <c r="F72" t="n">
-        <v>0.43443</v>
+        <v>0.411292</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304861</v>
+        <v>0.30355</v>
       </c>
       <c r="C73" t="n">
-        <v>0.532204</v>
+        <v>0.610276</v>
       </c>
       <c r="D73" t="n">
-        <v>0.544102</v>
+        <v>0.5064959999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.259304</v>
+        <v>0.250101</v>
       </c>
       <c r="F73" t="n">
-        <v>0.433433</v>
+        <v>0.411412</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.294748</v>
+        <v>0.292721</v>
       </c>
       <c r="C74" t="n">
-        <v>0.528709</v>
+        <v>0.5573939999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5250050000000001</v>
+        <v>0.512437</v>
       </c>
       <c r="E74" t="n">
-        <v>0.25844</v>
+        <v>0.248914</v>
       </c>
       <c r="F74" t="n">
-        <v>0.432502</v>
+        <v>0.409774</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.284311</v>
+        <v>0.281959</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5350009999999999</v>
+        <v>0.602618</v>
       </c>
       <c r="D75" t="n">
-        <v>0.526454</v>
+        <v>0.5128239999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.257729</v>
+        <v>0.247807</v>
       </c>
       <c r="F75" t="n">
-        <v>0.431578</v>
+        <v>0.404407</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.272202</v>
+        <v>0.269876</v>
       </c>
       <c r="C76" t="n">
-        <v>0.521491</v>
+        <v>0.5654400000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.549416</v>
+        <v>0.512921</v>
       </c>
       <c r="E76" t="n">
-        <v>0.25721</v>
+        <v>0.247</v>
       </c>
       <c r="F76" t="n">
-        <v>0.430994</v>
+        <v>0.403794</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.259073</v>
+        <v>0.257557</v>
       </c>
       <c r="C77" t="n">
-        <v>0.543855</v>
+        <v>0.519579</v>
       </c>
       <c r="D77" t="n">
-        <v>0.529529</v>
+        <v>0.509533</v>
       </c>
       <c r="E77" t="n">
-        <v>0.256702</v>
+        <v>0.246161</v>
       </c>
       <c r="F77" t="n">
-        <v>0.430506</v>
+        <v>0.403329</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24592</v>
+        <v>0.243625</v>
       </c>
       <c r="C78" t="n">
-        <v>0.501269</v>
+        <v>0.558623</v>
       </c>
       <c r="D78" t="n">
-        <v>0.603793</v>
+        <v>0.583734</v>
       </c>
       <c r="E78" t="n">
-        <v>0.256138</v>
+        <v>0.245271</v>
       </c>
       <c r="F78" t="n">
-        <v>0.429244</v>
+        <v>0.402565</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.230523</v>
+        <v>0.230044</v>
       </c>
       <c r="C79" t="n">
-        <v>0.494682</v>
+        <v>0.510239</v>
       </c>
       <c r="D79" t="n">
-        <v>0.593325</v>
+        <v>0.594261</v>
       </c>
       <c r="E79" t="n">
-        <v>0.255327</v>
+        <v>0.244491</v>
       </c>
       <c r="F79" t="n">
-        <v>0.428973</v>
+        <v>0.402193</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.214199</v>
+        <v>0.213919</v>
       </c>
       <c r="C80" t="n">
-        <v>0.52555</v>
+        <v>0.527608</v>
       </c>
       <c r="D80" t="n">
-        <v>0.607347</v>
+        <v>0.633073</v>
       </c>
       <c r="E80" t="n">
-        <v>0.270171</v>
+        <v>0.260119</v>
       </c>
       <c r="F80" t="n">
-        <v>0.442755</v>
+        <v>0.413921</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.352915</v>
+        <v>0.34804</v>
       </c>
       <c r="C81" t="n">
-        <v>0.614489</v>
+        <v>0.535407</v>
       </c>
       <c r="D81" t="n">
-        <v>0.599751</v>
+        <v>0.605133</v>
       </c>
       <c r="E81" t="n">
-        <v>0.267855</v>
+        <v>0.257788</v>
       </c>
       <c r="F81" t="n">
-        <v>0.440995</v>
+        <v>0.414046</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.347608</v>
+        <v>0.342415</v>
       </c>
       <c r="C82" t="n">
-        <v>0.599484</v>
+        <v>0.65108</v>
       </c>
       <c r="D82" t="n">
-        <v>0.595069</v>
+        <v>0.588951</v>
       </c>
       <c r="E82" t="n">
-        <v>0.265485</v>
+        <v>0.255872</v>
       </c>
       <c r="F82" t="n">
-        <v>0.439451</v>
+        <v>0.411662</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34074</v>
+        <v>0.335975</v>
       </c>
       <c r="C83" t="n">
-        <v>0.58221</v>
+        <v>0.616899</v>
       </c>
       <c r="D83" t="n">
-        <v>0.591313</v>
+        <v>0.588124</v>
       </c>
       <c r="E83" t="n">
-        <v>0.263917</v>
+        <v>0.254372</v>
       </c>
       <c r="F83" t="n">
-        <v>0.438354</v>
+        <v>0.411247</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.333547</v>
+        <v>0.329511</v>
       </c>
       <c r="C84" t="n">
-        <v>0.636426</v>
+        <v>0.589271</v>
       </c>
       <c r="D84" t="n">
-        <v>0.600032</v>
+        <v>0.590851</v>
       </c>
       <c r="E84" t="n">
-        <v>0.262803</v>
+        <v>0.253141</v>
       </c>
       <c r="F84" t="n">
-        <v>0.437039</v>
+        <v>0.409168</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325384</v>
+        <v>0.321581</v>
       </c>
       <c r="C85" t="n">
-        <v>0.604672</v>
+        <v>0.6207009999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.585168</v>
+        <v>0.5860919999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>0.261658</v>
+        <v>0.251711</v>
       </c>
       <c r="F85" t="n">
-        <v>0.436061</v>
+        <v>0.408386</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316477</v>
+        <v>0.312866</v>
       </c>
       <c r="C86" t="n">
-        <v>0.659068</v>
+        <v>0.557871</v>
       </c>
       <c r="D86" t="n">
-        <v>0.587578</v>
+        <v>0.58095</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2605</v>
+        <v>0.250835</v>
       </c>
       <c r="F86" t="n">
-        <v>0.435015</v>
+        <v>0.41142</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307162</v>
+        <v>0.303761</v>
       </c>
       <c r="C87" t="n">
-        <v>0.609927</v>
+        <v>0.5747989999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.584128</v>
+        <v>0.600584</v>
       </c>
       <c r="E87" t="n">
-        <v>0.25951</v>
+        <v>0.249635</v>
       </c>
       <c r="F87" t="n">
-        <v>0.434301</v>
+        <v>0.410753</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.296851</v>
+        <v>0.294588</v>
       </c>
       <c r="C88" t="n">
-        <v>0.520506</v>
+        <v>0.527567</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5760150000000001</v>
+        <v>0.5654439999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.258574</v>
+        <v>0.248779</v>
       </c>
       <c r="F88" t="n">
-        <v>0.433137</v>
+        <v>0.410563</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.286216</v>
+        <v>0.283773</v>
       </c>
       <c r="C89" t="n">
-        <v>0.538016</v>
+        <v>0.635763</v>
       </c>
       <c r="D89" t="n">
-        <v>0.572959</v>
+        <v>0.563573</v>
       </c>
       <c r="E89" t="n">
-        <v>0.258199</v>
+        <v>0.247925</v>
       </c>
       <c r="F89" t="n">
-        <v>0.432513</v>
+        <v>0.409513</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.274275</v>
+        <v>0.272497</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5287770000000001</v>
+        <v>0.499603</v>
       </c>
       <c r="D90" t="n">
-        <v>0.570904</v>
+        <v>0.556489</v>
       </c>
       <c r="E90" t="n">
-        <v>0.257189</v>
+        <v>0.247379</v>
       </c>
       <c r="F90" t="n">
-        <v>0.431411</v>
+        <v>0.406975</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.261315</v>
+        <v>0.260461</v>
       </c>
       <c r="C91" t="n">
-        <v>0.505706</v>
+        <v>0.454218</v>
       </c>
       <c r="D91" t="n">
-        <v>0.567892</v>
+        <v>0.551628</v>
       </c>
       <c r="E91" t="n">
-        <v>0.256791</v>
+        <v>0.246753</v>
       </c>
       <c r="F91" t="n">
-        <v>0.43057</v>
+        <v>0.404009</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247679</v>
+        <v>0.247535</v>
       </c>
       <c r="C92" t="n">
-        <v>0.583223</v>
+        <v>0.531933</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618344</v>
+        <v>0.61856</v>
       </c>
       <c r="E92" t="n">
-        <v>0.25652</v>
+        <v>0.246009</v>
       </c>
       <c r="F92" t="n">
-        <v>0.430138</v>
+        <v>0.404966</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.233049</v>
+        <v>0.233068</v>
       </c>
       <c r="C93" t="n">
-        <v>0.485776</v>
+        <v>0.503368</v>
       </c>
       <c r="D93" t="n">
-        <v>0.617902</v>
+        <v>0.615873</v>
       </c>
       <c r="E93" t="n">
-        <v>0.255506</v>
+        <v>0.245101</v>
       </c>
       <c r="F93" t="n">
-        <v>0.429359</v>
+        <v>0.404313</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.216972</v>
+        <v>0.217866</v>
       </c>
       <c r="C94" t="n">
-        <v>0.50041</v>
+        <v>0.501096</v>
       </c>
       <c r="D94" t="n">
-        <v>0.614223</v>
+        <v>0.5976359999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.270792</v>
+        <v>0.260949</v>
       </c>
       <c r="F94" t="n">
-        <v>0.444829</v>
+        <v>0.414007</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.354569</v>
+        <v>0.348472</v>
       </c>
       <c r="C95" t="n">
-        <v>0.697236</v>
+        <v>0.701485</v>
       </c>
       <c r="D95" t="n">
-        <v>0.597248</v>
+        <v>0.59998</v>
       </c>
       <c r="E95" t="n">
-        <v>0.268228</v>
+        <v>0.258335</v>
       </c>
       <c r="F95" t="n">
-        <v>0.441089</v>
+        <v>0.41286</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.349163</v>
+        <v>0.343218</v>
       </c>
       <c r="C96" t="n">
-        <v>0.645926</v>
+        <v>0.691666</v>
       </c>
       <c r="D96" t="n">
-        <v>0.600208</v>
+        <v>0.6018</v>
       </c>
       <c r="E96" t="n">
-        <v>0.266202</v>
+        <v>0.256322</v>
       </c>
       <c r="F96" t="n">
-        <v>0.439808</v>
+        <v>0.411549</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.342727</v>
+        <v>0.337163</v>
       </c>
       <c r="C97" t="n">
-        <v>0.661521</v>
+        <v>0.660284</v>
       </c>
       <c r="D97" t="n">
-        <v>0.598007</v>
+        <v>0.590894</v>
       </c>
       <c r="E97" t="n">
-        <v>0.264636</v>
+        <v>0.255202</v>
       </c>
       <c r="F97" t="n">
-        <v>0.438654</v>
+        <v>0.410422</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.335501</v>
+        <v>0.330173</v>
       </c>
       <c r="C98" t="n">
-        <v>0.646733</v>
+        <v>0.584825</v>
       </c>
       <c r="D98" t="n">
-        <v>0.592022</v>
+        <v>0.5833739999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.263245</v>
+        <v>0.253438</v>
       </c>
       <c r="F98" t="n">
-        <v>0.437432</v>
+        <v>0.408946</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327452</v>
+        <v>0.323174</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5889720000000001</v>
+        <v>0.606452</v>
       </c>
       <c r="D99" t="n">
-        <v>0.588476</v>
+        <v>0.575809</v>
       </c>
       <c r="E99" t="n">
-        <v>0.261921</v>
+        <v>0.252164</v>
       </c>
       <c r="F99" t="n">
-        <v>0.436021</v>
+        <v>0.407851</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318918</v>
+        <v>0.314963</v>
       </c>
       <c r="C100" t="n">
-        <v>0.646514</v>
+        <v>0.593049</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5767679999999999</v>
+        <v>0.580799</v>
       </c>
       <c r="E100" t="n">
-        <v>0.260746</v>
+        <v>0.25102</v>
       </c>
       <c r="F100" t="n">
-        <v>0.434908</v>
+        <v>0.406967</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309835</v>
+        <v>0.306424</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5445</v>
+        <v>0.605423</v>
       </c>
       <c r="D101" t="n">
-        <v>0.571942</v>
+        <v>0.575157</v>
       </c>
       <c r="E101" t="n">
-        <v>0.259569</v>
+        <v>0.249892</v>
       </c>
       <c r="F101" t="n">
-        <v>0.434054</v>
+        <v>0.405889</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.299907</v>
+        <v>0.296445</v>
       </c>
       <c r="C102" t="n">
-        <v>0.623126</v>
+        <v>0.605324</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5679689999999999</v>
+        <v>0.568148</v>
       </c>
       <c r="E102" t="n">
-        <v>0.258808</v>
+        <v>0.249018</v>
       </c>
       <c r="F102" t="n">
-        <v>0.433057</v>
+        <v>0.409303</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.289263</v>
+        <v>0.285876</v>
       </c>
       <c r="C103" t="n">
-        <v>0.593175</v>
+        <v>0.581186</v>
       </c>
       <c r="D103" t="n">
-        <v>0.564422</v>
+        <v>0.555077</v>
       </c>
       <c r="E103" t="n">
-        <v>0.25794</v>
+        <v>0.248477</v>
       </c>
       <c r="F103" t="n">
-        <v>0.432045</v>
+        <v>0.404622</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.27775</v>
+        <v>0.27468</v>
       </c>
       <c r="C104" t="n">
-        <v>0.593101</v>
+        <v>0.536561</v>
       </c>
       <c r="D104" t="n">
-        <v>0.564103</v>
+        <v>0.552433</v>
       </c>
       <c r="E104" t="n">
-        <v>0.257981</v>
+        <v>0.247399</v>
       </c>
       <c r="F104" t="n">
-        <v>0.431258</v>
+        <v>0.404171</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.264796</v>
+        <v>0.262455</v>
       </c>
       <c r="C105" t="n">
-        <v>0.547087</v>
+        <v>0.592494</v>
       </c>
       <c r="D105" t="n">
-        <v>0.556082</v>
+        <v>0.546559</v>
       </c>
       <c r="E105" t="n">
-        <v>0.257396</v>
+        <v>0.24699</v>
       </c>
       <c r="F105" t="n">
-        <v>0.430623</v>
+        <v>0.403527</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.251202</v>
+        <v>0.249892</v>
       </c>
       <c r="C106" t="n">
-        <v>0.541378</v>
+        <v>0.57104</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5529539999999999</v>
+        <v>0.541072</v>
       </c>
       <c r="E106" t="n">
-        <v>0.257446</v>
+        <v>0.245914</v>
       </c>
       <c r="F106" t="n">
-        <v>0.429896</v>
+        <v>0.403085</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236313</v>
+        <v>0.23603</v>
       </c>
       <c r="C107" t="n">
-        <v>0.519216</v>
+        <v>0.517536</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5924430000000001</v>
+        <v>0.618926</v>
       </c>
       <c r="E107" t="n">
-        <v>0.256606</v>
+        <v>0.245463</v>
       </c>
       <c r="F107" t="n">
-        <v>0.429015</v>
+        <v>0.402736</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.222053</v>
+        <v>0.221628</v>
       </c>
       <c r="C108" t="n">
-        <v>0.453154</v>
+        <v>0.52307</v>
       </c>
       <c r="D108" t="n">
-        <v>0.615696</v>
+        <v>0.593282</v>
       </c>
       <c r="E108" t="n">
-        <v>0.270891</v>
+        <v>0.261032</v>
       </c>
       <c r="F108" t="n">
-        <v>0.442841</v>
+        <v>0.414884</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.204081</v>
+        <v>0.204806</v>
       </c>
       <c r="C109" t="n">
-        <v>0.439795</v>
+        <v>0.489063</v>
       </c>
       <c r="D109" t="n">
-        <v>0.613388</v>
+        <v>0.615237</v>
       </c>
       <c r="E109" t="n">
-        <v>0.268741</v>
+        <v>0.25846</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4414</v>
+        <v>0.414638</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.350174</v>
+        <v>0.344013</v>
       </c>
       <c r="C110" t="n">
-        <v>0.530065</v>
+        <v>0.64777</v>
       </c>
       <c r="D110" t="n">
-        <v>0.590664</v>
+        <v>0.588328</v>
       </c>
       <c r="E110" t="n">
-        <v>0.26684</v>
+        <v>0.256568</v>
       </c>
       <c r="F110" t="n">
-        <v>0.439913</v>
+        <v>0.414776</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.344055</v>
+        <v>0.337711</v>
       </c>
       <c r="C111" t="n">
-        <v>0.582399</v>
+        <v>0.5936940000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.589896</v>
+        <v>0.588577</v>
       </c>
       <c r="E111" t="n">
-        <v>0.264709</v>
+        <v>0.255006</v>
       </c>
       <c r="F111" t="n">
-        <v>0.438719</v>
+        <v>0.410672</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.336959</v>
+        <v>0.331318</v>
       </c>
       <c r="C112" t="n">
-        <v>0.546708</v>
+        <v>0.541423</v>
       </c>
       <c r="D112" t="n">
-        <v>0.590425</v>
+        <v>0.586194</v>
       </c>
       <c r="E112" t="n">
-        <v>0.263405</v>
+        <v>0.253745</v>
       </c>
       <c r="F112" t="n">
-        <v>0.43758</v>
+        <v>0.411409</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.329445</v>
+        <v>0.325415</v>
       </c>
       <c r="C113" t="n">
-        <v>0.666237</v>
+        <v>0.584178</v>
       </c>
       <c r="D113" t="n">
-        <v>0.576654</v>
+        <v>0.591316</v>
       </c>
       <c r="E113" t="n">
-        <v>0.262113</v>
+        <v>0.252466</v>
       </c>
       <c r="F113" t="n">
-        <v>0.436281</v>
+        <v>0.410483</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320879</v>
+        <v>0.316442</v>
       </c>
       <c r="C114" t="n">
-        <v>0.627335</v>
+        <v>0.587994</v>
       </c>
       <c r="D114" t="n">
-        <v>0.572973</v>
+        <v>0.5825129999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.260947</v>
+        <v>0.251217</v>
       </c>
       <c r="F114" t="n">
-        <v>0.435305</v>
+        <v>0.410746</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.311724</v>
+        <v>0.307718</v>
       </c>
       <c r="C115" t="n">
-        <v>0.584985</v>
+        <v>0.574137</v>
       </c>
       <c r="D115" t="n">
-        <v>0.568669</v>
+        <v>0.577784</v>
       </c>
       <c r="E115" t="n">
-        <v>0.259931</v>
+        <v>0.250093</v>
       </c>
       <c r="F115" t="n">
-        <v>0.434154</v>
+        <v>0.408631</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.301977</v>
+        <v>0.298261</v>
       </c>
       <c r="C116" t="n">
-        <v>0.614466</v>
+        <v>0.657089</v>
       </c>
       <c r="D116" t="n">
-        <v>0.566403</v>
+        <v>0.568102</v>
       </c>
       <c r="E116" t="n">
-        <v>0.258934</v>
+        <v>0.249232</v>
       </c>
       <c r="F116" t="n">
-        <v>0.433277</v>
+        <v>0.405683</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.291349</v>
+        <v>0.287846</v>
       </c>
       <c r="C117" t="n">
-        <v>0.561531</v>
+        <v>0.566433</v>
       </c>
       <c r="D117" t="n">
-        <v>0.561331</v>
+        <v>0.559042</v>
       </c>
       <c r="E117" t="n">
-        <v>0.258178</v>
+        <v>0.248252</v>
       </c>
       <c r="F117" t="n">
-        <v>0.432378</v>
+        <v>0.408852</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.279977</v>
+        <v>0.276699</v>
       </c>
       <c r="C118" t="n">
-        <v>0.519873</v>
+        <v>0.5678879999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.557527</v>
+        <v>0.554302</v>
       </c>
       <c r="E118" t="n">
-        <v>0.257676</v>
+        <v>0.247442</v>
       </c>
       <c r="F118" t="n">
-        <v>0.431424</v>
+        <v>0.404665</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.267832</v>
+        <v>0.265096</v>
       </c>
       <c r="C119" t="n">
-        <v>0.581815</v>
+        <v>0.541137</v>
       </c>
       <c r="D119" t="n">
-        <v>0.555132</v>
+        <v>0.54828</v>
       </c>
       <c r="E119" t="n">
-        <v>0.257144</v>
+        <v>0.247186</v>
       </c>
       <c r="F119" t="n">
-        <v>0.430821</v>
+        <v>0.403849</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.254266</v>
+        <v>0.252492</v>
       </c>
       <c r="C120" t="n">
-        <v>0.488795</v>
+        <v>0.556028</v>
       </c>
       <c r="D120" t="n">
-        <v>0.552087</v>
+        <v>0.543069</v>
       </c>
       <c r="E120" t="n">
-        <v>0.25633</v>
+        <v>0.246241</v>
       </c>
       <c r="F120" t="n">
-        <v>0.430151</v>
+        <v>0.404199</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.239893</v>
+        <v>0.238899</v>
       </c>
       <c r="C121" t="n">
-        <v>0.531778</v>
+        <v>0.490567</v>
       </c>
       <c r="D121" t="n">
-        <v>0.608663</v>
+        <v>0.609309</v>
       </c>
       <c r="E121" t="n">
-        <v>0.255948</v>
+        <v>0.245625</v>
       </c>
       <c r="F121" t="n">
-        <v>0.429923</v>
+        <v>0.406538</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.225095</v>
+        <v>0.224131</v>
       </c>
       <c r="C122" t="n">
-        <v>0.510636</v>
+        <v>0.438084</v>
       </c>
       <c r="D122" t="n">
-        <v>0.628144</v>
+        <v>0.6314340000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.255893</v>
+        <v>0.244961</v>
       </c>
       <c r="F122" t="n">
-        <v>0.428632</v>
+        <v>0.402454</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.207579</v>
+        <v>0.208314</v>
       </c>
       <c r="C123" t="n">
-        <v>0.453255</v>
+        <v>0.451183</v>
       </c>
       <c r="D123" t="n">
-        <v>0.604289</v>
+        <v>0.626198</v>
       </c>
       <c r="E123" t="n">
-        <v>0.268804</v>
+        <v>0.258871</v>
       </c>
       <c r="F123" t="n">
-        <v>0.441758</v>
+        <v>0.413023</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.351874</v>
+        <v>0.345558</v>
       </c>
       <c r="C124" t="n">
-        <v>0.542272</v>
+        <v>0.675269</v>
       </c>
       <c r="D124" t="n">
-        <v>0.617664</v>
+        <v>0.6175929999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.266558</v>
+        <v>0.257429</v>
       </c>
       <c r="F124" t="n">
-        <v>0.440292</v>
+        <v>0.411736</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345538</v>
+        <v>0.338913</v>
       </c>
       <c r="C125" t="n">
-        <v>0.641357</v>
+        <v>0.578173</v>
       </c>
       <c r="D125" t="n">
-        <v>0.613175</v>
+        <v>0.6120370000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.264985</v>
+        <v>0.255904</v>
       </c>
       <c r="F125" t="n">
-        <v>0.438932</v>
+        <v>0.410565</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.338698</v>
+        <v>0.333077</v>
       </c>
       <c r="C126" t="n">
-        <v>0.557903</v>
+        <v>0.68055</v>
       </c>
       <c r="D126" t="n">
-        <v>0.607799</v>
+        <v>0.606954</v>
       </c>
       <c r="E126" t="n">
-        <v>0.263594</v>
+        <v>0.254307</v>
       </c>
       <c r="F126" t="n">
-        <v>0.437745</v>
+        <v>0.409333</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330921</v>
+        <v>0.326275</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6182299999999999</v>
+        <v>0.590246</v>
       </c>
       <c r="D127" t="n">
-        <v>0.604375</v>
+        <v>0.58743</v>
       </c>
       <c r="E127" t="n">
-        <v>0.262325</v>
+        <v>0.253084</v>
       </c>
       <c r="F127" t="n">
-        <v>0.436637</v>
+        <v>0.408335</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323555</v>
+        <v>0.317862</v>
       </c>
       <c r="C128" t="n">
-        <v>0.596306</v>
+        <v>0.620735</v>
       </c>
       <c r="D128" t="n">
-        <v>0.587286</v>
+        <v>0.581307</v>
       </c>
       <c r="E128" t="n">
-        <v>0.261149</v>
+        <v>0.251774</v>
       </c>
       <c r="F128" t="n">
-        <v>0.435545</v>
+        <v>0.407444</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313896</v>
+        <v>0.30936</v>
       </c>
       <c r="C129" t="n">
-        <v>0.656617</v>
+        <v>0.553689</v>
       </c>
       <c r="D129" t="n">
-        <v>0.590121</v>
+        <v>0.578757</v>
       </c>
       <c r="E129" t="n">
-        <v>0.260142</v>
+        <v>0.250776</v>
       </c>
       <c r="F129" t="n">
-        <v>0.434274</v>
+        <v>0.406354</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.304394</v>
+        <v>0.299803</v>
       </c>
       <c r="C130" t="n">
-        <v>0.614653</v>
+        <v>0.556305</v>
       </c>
       <c r="D130" t="n">
-        <v>0.576965</v>
+        <v>0.5718490000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.259213</v>
+        <v>0.249906</v>
       </c>
       <c r="F130" t="n">
-        <v>0.433276</v>
+        <v>0.405596</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29393</v>
+        <v>0.289421</v>
       </c>
       <c r="C131" t="n">
-        <v>0.582253</v>
+        <v>0.557681</v>
       </c>
       <c r="D131" t="n">
-        <v>0.571738</v>
+        <v>0.567879</v>
       </c>
       <c r="E131" t="n">
-        <v>0.258385</v>
+        <v>0.249007</v>
       </c>
       <c r="F131" t="n">
-        <v>0.432308</v>
+        <v>0.405123</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.282793</v>
+        <v>0.27824</v>
       </c>
       <c r="C132" t="n">
-        <v>0.569347</v>
+        <v>0.551314</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5673589999999999</v>
+        <v>0.562198</v>
       </c>
       <c r="E132" t="n">
-        <v>0.257717</v>
+        <v>0.247728</v>
       </c>
       <c r="F132" t="n">
-        <v>0.431338</v>
+        <v>0.404247</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.271111</v>
+        <v>0.267106</v>
       </c>
       <c r="C133" t="n">
-        <v>0.584511</v>
+        <v>0.562397</v>
       </c>
       <c r="D133" t="n">
-        <v>0.564511</v>
+        <v>0.555081</v>
       </c>
       <c r="E133" t="n">
-        <v>0.257303</v>
+        <v>0.246879</v>
       </c>
       <c r="F133" t="n">
-        <v>0.430746</v>
+        <v>0.403585</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.258038</v>
+        <v>0.254532</v>
       </c>
       <c r="C134" t="n">
-        <v>0.550401</v>
+        <v>0.486131</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5582589999999999</v>
+        <v>0.5472630000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>0.256441</v>
+        <v>0.246395</v>
       </c>
       <c r="F134" t="n">
-        <v>0.429915</v>
+        <v>0.403119</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.24411</v>
+        <v>0.240978</v>
       </c>
       <c r="C135" t="n">
-        <v>0.536062</v>
+        <v>0.522051</v>
       </c>
       <c r="D135" t="n">
-        <v>0.613714</v>
+        <v>0.636489</v>
       </c>
       <c r="E135" t="n">
-        <v>0.256005</v>
+        <v>0.245789</v>
       </c>
       <c r="F135" t="n">
-        <v>0.429314</v>
+        <v>0.402801</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.227844</v>
+        <v>0.22684</v>
       </c>
       <c r="C136" t="n">
-        <v>0.51793</v>
+        <v>0.514483</v>
       </c>
       <c r="D136" t="n">
-        <v>0.615111</v>
+        <v>0.632182</v>
       </c>
       <c r="E136" t="n">
-        <v>0.255593</v>
+        <v>0.245018</v>
       </c>
       <c r="F136" t="n">
-        <v>0.428755</v>
+        <v>0.402525</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.211553</v>
+        <v>0.211262</v>
       </c>
       <c r="C137" t="n">
-        <v>0.496961</v>
+        <v>0.530359</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6309129999999999</v>
+        <v>0.606977</v>
       </c>
       <c r="E137" t="n">
-        <v>0.269335</v>
+        <v>0.25924</v>
       </c>
       <c r="F137" t="n">
-        <v>0.441997</v>
+        <v>0.413911</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.353179</v>
+        <v>0.346182</v>
       </c>
       <c r="C138" t="n">
-        <v>0.678621</v>
+        <v>0.663754</v>
       </c>
       <c r="D138" t="n">
-        <v>0.609463</v>
+        <v>0.606116</v>
       </c>
       <c r="E138" t="n">
-        <v>0.267367</v>
+        <v>0.257194</v>
       </c>
       <c r="F138" t="n">
-        <v>0.440681</v>
+        <v>0.412459</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.348645</v>
+        <v>0.340638</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6724909999999999</v>
+        <v>0.522587</v>
       </c>
       <c r="D139" t="n">
-        <v>0.606924</v>
+        <v>0.601919</v>
       </c>
       <c r="E139" t="n">
-        <v>0.26566</v>
+        <v>0.255925</v>
       </c>
       <c r="F139" t="n">
-        <v>0.439303</v>
+        <v>0.411165</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340407</v>
+        <v>0.333791</v>
       </c>
       <c r="C140" t="n">
-        <v>0.632009</v>
+        <v>0.628538</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.600119</v>
       </c>
       <c r="E140" t="n">
-        <v>0.264254</v>
+        <v>0.254454</v>
       </c>
       <c r="F140" t="n">
-        <v>0.438163</v>
+        <v>0.410654</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333796</v>
+        <v>0.327455</v>
       </c>
       <c r="C141" t="n">
-        <v>0.624077</v>
+        <v>0.683617</v>
       </c>
       <c r="D141" t="n">
-        <v>0.609372</v>
+        <v>0.604223</v>
       </c>
       <c r="E141" t="n">
-        <v>0.262946</v>
+        <v>0.252984</v>
       </c>
       <c r="F141" t="n">
-        <v>0.43682</v>
+        <v>0.408874</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325172</v>
+        <v>0.319243</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6404069999999999</v>
+        <v>0.6861699999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.601224</v>
+        <v>0.58829</v>
       </c>
       <c r="E142" t="n">
-        <v>0.261718</v>
+        <v>0.251786</v>
       </c>
       <c r="F142" t="n">
-        <v>0.435698</v>
+        <v>0.408368</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317086</v>
+        <v>0.311035</v>
       </c>
       <c r="C143" t="n">
-        <v>0.633365</v>
+        <v>0.607077</v>
       </c>
       <c r="D143" t="n">
-        <v>0.593881</v>
+        <v>0.588928</v>
       </c>
       <c r="E143" t="n">
-        <v>0.260664</v>
+        <v>0.251062</v>
       </c>
       <c r="F143" t="n">
-        <v>0.434778</v>
+        <v>0.407583</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25374</v>
+        <v>0.253042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.449637</v>
+        <v>0.448133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.385557</v>
+        <v>0.385115</v>
       </c>
       <c r="E2" t="n">
-        <v>0.220122</v>
+        <v>0.219422</v>
       </c>
       <c r="F2" t="n">
-        <v>0.395623</v>
+        <v>0.395662</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.249611</v>
+        <v>0.249537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.444058</v>
+        <v>0.444373</v>
       </c>
       <c r="D3" t="n">
-        <v>0.386228</v>
+        <v>0.384973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.221265</v>
+        <v>0.22038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.396099</v>
+        <v>0.396021</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243877</v>
+        <v>0.243716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.43479</v>
+        <v>0.435388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.387231</v>
+        <v>0.38654</v>
       </c>
       <c r="E4" t="n">
-        <v>0.222485</v>
+        <v>0.222266</v>
       </c>
       <c r="F4" t="n">
-        <v>0.398093</v>
+        <v>0.398124</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.234758</v>
+        <v>0.235316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.423546</v>
+        <v>0.420184</v>
       </c>
       <c r="D5" t="n">
-        <v>0.386129</v>
+        <v>0.386533</v>
       </c>
       <c r="E5" t="n">
-        <v>0.225053</v>
+        <v>0.225365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.395917</v>
+        <v>0.39667</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.226697</v>
+        <v>0.225237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.413205</v>
+        <v>0.413579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3874</v>
+        <v>0.388615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.226566</v>
+        <v>0.226142</v>
       </c>
       <c r="F6" t="n">
-        <v>0.394662</v>
+        <v>0.394954</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.215043</v>
+        <v>0.214944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.405811</v>
+        <v>0.407089</v>
       </c>
       <c r="D7" t="n">
-        <v>0.388388</v>
+        <v>0.388236</v>
       </c>
       <c r="E7" t="n">
-        <v>0.227074</v>
+        <v>0.227052</v>
       </c>
       <c r="F7" t="n">
-        <v>0.396591</v>
+        <v>0.396654</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.201338</v>
+        <v>0.201268</v>
       </c>
       <c r="C8" t="n">
-        <v>0.390995</v>
+        <v>0.391023</v>
       </c>
       <c r="D8" t="n">
-        <v>0.391935</v>
+        <v>0.390393</v>
       </c>
       <c r="E8" t="n">
-        <v>0.229207</v>
+        <v>0.228989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.395226</v>
+        <v>0.395364</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.188162</v>
+        <v>0.188186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.372316</v>
+        <v>0.37209</v>
       </c>
       <c r="D9" t="n">
-        <v>0.390872</v>
+        <v>0.389805</v>
       </c>
       <c r="E9" t="n">
-        <v>0.248074</v>
+        <v>0.247802</v>
       </c>
       <c r="F9" t="n">
-        <v>0.406353</v>
+        <v>0.406371</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.329885</v>
+        <v>0.330211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.503053</v>
+        <v>0.502653</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387728</v>
+        <v>0.389476</v>
       </c>
       <c r="E10" t="n">
-        <v>0.248556</v>
+        <v>0.248169</v>
       </c>
       <c r="F10" t="n">
-        <v>0.405708</v>
+        <v>0.405753</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.323386</v>
+        <v>0.322866</v>
       </c>
       <c r="C11" t="n">
-        <v>0.499693</v>
+        <v>0.499067</v>
       </c>
       <c r="D11" t="n">
-        <v>0.390094</v>
+        <v>0.38871</v>
       </c>
       <c r="E11" t="n">
-        <v>0.248064</v>
+        <v>0.24786</v>
       </c>
       <c r="F11" t="n">
-        <v>0.405526</v>
+        <v>0.405643</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.316545</v>
+        <v>0.316191</v>
       </c>
       <c r="C12" t="n">
-        <v>0.49331</v>
+        <v>0.493157</v>
       </c>
       <c r="D12" t="n">
-        <v>0.390007</v>
+        <v>0.391353</v>
       </c>
       <c r="E12" t="n">
-        <v>0.247349</v>
+        <v>0.247573</v>
       </c>
       <c r="F12" t="n">
-        <v>0.405423</v>
+        <v>0.405485</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.311616</v>
+        <v>0.31048</v>
       </c>
       <c r="C13" t="n">
-        <v>0.486795</v>
+        <v>0.487844</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391091</v>
+        <v>0.390603</v>
       </c>
       <c r="E13" t="n">
-        <v>0.246423</v>
+        <v>0.246387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.404282</v>
+        <v>0.404622</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.301702</v>
+        <v>0.30057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.477858</v>
+        <v>0.478487</v>
       </c>
       <c r="D14" t="n">
-        <v>0.393012</v>
+        <v>0.392725</v>
       </c>
       <c r="E14" t="n">
-        <v>0.245211</v>
+        <v>0.245543</v>
       </c>
       <c r="F14" t="n">
-        <v>0.403053</v>
+        <v>0.403238</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.29296</v>
+        <v>0.293954</v>
       </c>
       <c r="C15" t="n">
-        <v>0.474232</v>
+        <v>0.47397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.393885</v>
+        <v>0.394474</v>
       </c>
       <c r="E15" t="n">
-        <v>0.244801</v>
+        <v>0.244887</v>
       </c>
       <c r="F15" t="n">
-        <v>0.401936</v>
+        <v>0.402632</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.287462</v>
+        <v>0.285763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.456903</v>
+        <v>0.456187</v>
       </c>
       <c r="D16" t="n">
-        <v>0.39281</v>
+        <v>0.393526</v>
       </c>
       <c r="E16" t="n">
-        <v>0.244438</v>
+        <v>0.244741</v>
       </c>
       <c r="F16" t="n">
-        <v>0.401105</v>
+        <v>0.401383</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.278503</v>
+        <v>0.277218</v>
       </c>
       <c r="C17" t="n">
-        <v>0.452982</v>
+        <v>0.452892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.393992</v>
+        <v>0.394623</v>
       </c>
       <c r="E17" t="n">
-        <v>0.244559</v>
+        <v>0.244623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.400601</v>
+        <v>0.400847</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.269213</v>
+        <v>0.267381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.451197</v>
+        <v>0.451657</v>
       </c>
       <c r="D18" t="n">
-        <v>0.393761</v>
+        <v>0.394355</v>
       </c>
       <c r="E18" t="n">
-        <v>0.243941</v>
+        <v>0.243592</v>
       </c>
       <c r="F18" t="n">
-        <v>0.401239</v>
+        <v>0.401479</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258687</v>
+        <v>0.256929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.436707</v>
+        <v>0.436071</v>
       </c>
       <c r="D19" t="n">
-        <v>0.394982</v>
+        <v>0.394942</v>
       </c>
       <c r="E19" t="n">
-        <v>0.243861</v>
+        <v>0.243719</v>
       </c>
       <c r="F19" t="n">
-        <v>0.401633</v>
+        <v>0.401828</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247047</v>
+        <v>0.24612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.426262</v>
+        <v>0.426516</v>
       </c>
       <c r="D20" t="n">
-        <v>0.39428</v>
+        <v>0.394518</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2428</v>
+        <v>0.242881</v>
       </c>
       <c r="F20" t="n">
-        <v>0.399687</v>
+        <v>0.39972</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.23508</v>
+        <v>0.235126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.407782</v>
+        <v>0.408192</v>
       </c>
       <c r="D21" t="n">
-        <v>0.395848</v>
+        <v>0.395547</v>
       </c>
       <c r="E21" t="n">
-        <v>0.241695</v>
+        <v>0.242027</v>
       </c>
       <c r="F21" t="n">
-        <v>0.398704</v>
+        <v>0.398981</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.220642</v>
+        <v>0.220334</v>
       </c>
       <c r="C22" t="n">
-        <v>0.399255</v>
+        <v>0.396655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.395822</v>
+        <v>0.395871</v>
       </c>
       <c r="E22" t="n">
-        <v>0.241993</v>
+        <v>0.24138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.400742</v>
+        <v>0.399449</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206582</v>
+        <v>0.20507</v>
       </c>
       <c r="C23" t="n">
-        <v>0.385886</v>
+        <v>0.37808</v>
       </c>
       <c r="D23" t="n">
-        <v>0.396481</v>
+        <v>0.395964</v>
       </c>
       <c r="E23" t="n">
-        <v>0.258662</v>
+        <v>0.257936</v>
       </c>
       <c r="F23" t="n">
-        <v>0.411154</v>
+        <v>0.411621</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340326</v>
+        <v>0.340174</v>
       </c>
       <c r="C24" t="n">
-        <v>0.503557</v>
+        <v>0.503503</v>
       </c>
       <c r="D24" t="n">
-        <v>0.395682</v>
+        <v>0.396064</v>
       </c>
       <c r="E24" t="n">
-        <v>0.255085</v>
+        <v>0.255401</v>
       </c>
       <c r="F24" t="n">
-        <v>0.40988</v>
+        <v>0.410149</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.334825</v>
+        <v>0.3349</v>
       </c>
       <c r="C25" t="n">
-        <v>0.503327</v>
+        <v>0.503217</v>
       </c>
       <c r="D25" t="n">
-        <v>0.39657</v>
+        <v>0.396603</v>
       </c>
       <c r="E25" t="n">
-        <v>0.254048</v>
+        <v>0.254381</v>
       </c>
       <c r="F25" t="n">
-        <v>0.409707</v>
+        <v>0.409754</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.329015</v>
+        <v>0.328911</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4994</v>
+        <v>0.499326</v>
       </c>
       <c r="D26" t="n">
-        <v>0.395786</v>
+        <v>0.395637</v>
       </c>
       <c r="E26" t="n">
-        <v>0.252611</v>
+        <v>0.252925</v>
       </c>
       <c r="F26" t="n">
-        <v>0.409238</v>
+        <v>0.409267</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.321896</v>
+        <v>0.321748</v>
       </c>
       <c r="C27" t="n">
-        <v>0.482436</v>
+        <v>0.482399</v>
       </c>
       <c r="D27" t="n">
-        <v>0.395827</v>
+        <v>0.396882</v>
       </c>
       <c r="E27" t="n">
-        <v>0.251762</v>
+        <v>0.251216</v>
       </c>
       <c r="F27" t="n">
-        <v>0.407536</v>
+        <v>0.408226</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313828</v>
+        <v>0.313462</v>
       </c>
       <c r="C28" t="n">
-        <v>0.48057</v>
+        <v>0.4803</v>
       </c>
       <c r="D28" t="n">
-        <v>0.395316</v>
+        <v>0.395571</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2512</v>
+        <v>0.251145</v>
       </c>
       <c r="F28" t="n">
-        <v>0.406511</v>
+        <v>0.406904</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305771</v>
+        <v>0.306556</v>
       </c>
       <c r="C29" t="n">
-        <v>0.480188</v>
+        <v>0.480866</v>
       </c>
       <c r="D29" t="n">
-        <v>0.395958</v>
+        <v>0.395839</v>
       </c>
       <c r="E29" t="n">
-        <v>0.249828</v>
+        <v>0.250131</v>
       </c>
       <c r="F29" t="n">
-        <v>0.405293</v>
+        <v>0.405798</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297834</v>
+        <v>0.297413</v>
       </c>
       <c r="C30" t="n">
-        <v>0.465883</v>
+        <v>0.465775</v>
       </c>
       <c r="D30" t="n">
-        <v>0.397104</v>
+        <v>0.397462</v>
       </c>
       <c r="E30" t="n">
-        <v>0.249092</v>
+        <v>0.248902</v>
       </c>
       <c r="F30" t="n">
-        <v>0.405083</v>
+        <v>0.405288</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.289232</v>
+        <v>0.288754</v>
       </c>
       <c r="C31" t="n">
-        <v>0.451045</v>
+        <v>0.450312</v>
       </c>
       <c r="D31" t="n">
-        <v>0.397838</v>
+        <v>0.398118</v>
       </c>
       <c r="E31" t="n">
-        <v>0.247909</v>
+        <v>0.247888</v>
       </c>
       <c r="F31" t="n">
-        <v>0.40437</v>
+        <v>0.404127</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279812</v>
+        <v>0.279528</v>
       </c>
       <c r="C32" t="n">
-        <v>0.454373</v>
+        <v>0.453959</v>
       </c>
       <c r="D32" t="n">
-        <v>0.398073</v>
+        <v>0.397924</v>
       </c>
       <c r="E32" t="n">
-        <v>0.247971</v>
+        <v>0.247951</v>
       </c>
       <c r="F32" t="n">
-        <v>0.403212</v>
+        <v>0.402964</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.268927</v>
+        <v>0.268617</v>
       </c>
       <c r="C33" t="n">
-        <v>0.438042</v>
+        <v>0.438184</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398774</v>
+        <v>0.39838</v>
       </c>
       <c r="E33" t="n">
-        <v>0.246655</v>
+        <v>0.246574</v>
       </c>
       <c r="F33" t="n">
-        <v>0.402521</v>
+        <v>0.40285</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.256936</v>
+        <v>0.25694</v>
       </c>
       <c r="C34" t="n">
-        <v>0.423745</v>
+        <v>0.423435</v>
       </c>
       <c r="D34" t="n">
-        <v>0.397737</v>
+        <v>0.39788</v>
       </c>
       <c r="E34" t="n">
-        <v>0.246307</v>
+        <v>0.246213</v>
       </c>
       <c r="F34" t="n">
-        <v>0.401946</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.243987</v>
+        <v>0.244109</v>
       </c>
       <c r="C35" t="n">
-        <v>0.410751</v>
+        <v>0.407295</v>
       </c>
       <c r="D35" t="n">
-        <v>0.400579</v>
+        <v>0.400322</v>
       </c>
       <c r="E35" t="n">
-        <v>0.245463</v>
+        <v>0.245388</v>
       </c>
       <c r="F35" t="n">
-        <v>0.401454</v>
+        <v>0.401742</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229782</v>
+        <v>0.230067</v>
       </c>
       <c r="C36" t="n">
-        <v>0.396044</v>
+        <v>0.39597</v>
       </c>
       <c r="D36" t="n">
-        <v>0.399903</v>
+        <v>0.400161</v>
       </c>
       <c r="E36" t="n">
-        <v>0.244613</v>
+        <v>0.24422</v>
       </c>
       <c r="F36" t="n">
-        <v>0.401314</v>
+        <v>0.402018</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213295</v>
+        <v>0.21342</v>
       </c>
       <c r="C37" t="n">
-        <v>0.395333</v>
+        <v>0.395324</v>
       </c>
       <c r="D37" t="n">
-        <v>0.400457</v>
+        <v>0.40063</v>
       </c>
       <c r="E37" t="n">
-        <v>0.258579</v>
+        <v>0.257344</v>
       </c>
       <c r="F37" t="n">
-        <v>0.413024</v>
+        <v>0.412991</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345214</v>
+        <v>0.344855</v>
       </c>
       <c r="C38" t="n">
-        <v>0.505017</v>
+        <v>0.505116</v>
       </c>
       <c r="D38" t="n">
-        <v>0.400864</v>
+        <v>0.400257</v>
       </c>
       <c r="E38" t="n">
-        <v>0.255879</v>
+        <v>0.255959</v>
       </c>
       <c r="F38" t="n">
-        <v>0.41125</v>
+        <v>0.411245</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.340118</v>
+        <v>0.339921</v>
       </c>
       <c r="C39" t="n">
-        <v>0.500248</v>
+        <v>0.500233</v>
       </c>
       <c r="D39" t="n">
-        <v>0.400887</v>
+        <v>0.400751</v>
       </c>
       <c r="E39" t="n">
-        <v>0.254082</v>
+        <v>0.254119</v>
       </c>
       <c r="F39" t="n">
-        <v>0.409391</v>
+        <v>0.409821</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335231</v>
+        <v>0.334833</v>
       </c>
       <c r="C40" t="n">
-        <v>0.495259</v>
+        <v>0.49531</v>
       </c>
       <c r="D40" t="n">
-        <v>0.400615</v>
+        <v>0.399632</v>
       </c>
       <c r="E40" t="n">
-        <v>0.253509</v>
+        <v>0.253645</v>
       </c>
       <c r="F40" t="n">
-        <v>0.409389</v>
+        <v>0.409571</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327925</v>
+        <v>0.328333</v>
       </c>
       <c r="C41" t="n">
-        <v>0.48633</v>
+        <v>0.486835</v>
       </c>
       <c r="D41" t="n">
-        <v>0.399356</v>
+        <v>0.399198</v>
       </c>
       <c r="E41" t="n">
-        <v>0.252491</v>
+        <v>0.252385</v>
       </c>
       <c r="F41" t="n">
-        <v>0.408528</v>
+        <v>0.408905</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322003</v>
+        <v>0.322151</v>
       </c>
       <c r="C42" t="n">
-        <v>0.480437</v>
+        <v>0.480424</v>
       </c>
       <c r="D42" t="n">
-        <v>0.39977</v>
+        <v>0.400053</v>
       </c>
       <c r="E42" t="n">
-        <v>0.251405</v>
+        <v>0.251362</v>
       </c>
       <c r="F42" t="n">
-        <v>0.407547</v>
+        <v>0.407696</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.314167</v>
+        <v>0.314227</v>
       </c>
       <c r="C43" t="n">
-        <v>0.474591</v>
+        <v>0.474501</v>
       </c>
       <c r="D43" t="n">
-        <v>0.399715</v>
+        <v>0.400559</v>
       </c>
       <c r="E43" t="n">
-        <v>0.250419</v>
+        <v>0.25058</v>
       </c>
       <c r="F43" t="n">
-        <v>0.40678</v>
+        <v>0.406788</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305761</v>
+        <v>0.305538</v>
       </c>
       <c r="C44" t="n">
-        <v>0.46914</v>
+        <v>0.469189</v>
       </c>
       <c r="D44" t="n">
-        <v>0.400515</v>
+        <v>0.400784</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249156</v>
+        <v>0.249027</v>
       </c>
       <c r="F44" t="n">
-        <v>0.405486</v>
+        <v>0.405774</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295315</v>
+        <v>0.29594</v>
       </c>
       <c r="C45" t="n">
-        <v>0.454984</v>
+        <v>0.45474</v>
       </c>
       <c r="D45" t="n">
-        <v>0.400281</v>
+        <v>0.400803</v>
       </c>
       <c r="E45" t="n">
-        <v>0.248</v>
+        <v>0.247961</v>
       </c>
       <c r="F45" t="n">
-        <v>0.404745</v>
+        <v>0.405161</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.285123</v>
+        <v>0.284835</v>
       </c>
       <c r="C46" t="n">
-        <v>0.455038</v>
+        <v>0.453858</v>
       </c>
       <c r="D46" t="n">
-        <v>0.400582</v>
+        <v>0.400406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.246763</v>
+        <v>0.247055</v>
       </c>
       <c r="F46" t="n">
-        <v>0.404003</v>
+        <v>0.404284</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.273639</v>
+        <v>0.273707</v>
       </c>
       <c r="C47" t="n">
-        <v>0.445983</v>
+        <v>0.449665</v>
       </c>
       <c r="D47" t="n">
-        <v>0.40156</v>
+        <v>0.401401</v>
       </c>
       <c r="E47" t="n">
-        <v>0.246552</v>
+        <v>0.24652</v>
       </c>
       <c r="F47" t="n">
-        <v>0.402968</v>
+        <v>0.403263</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.262174</v>
+        <v>0.261611</v>
       </c>
       <c r="C48" t="n">
-        <v>0.427908</v>
+        <v>0.427783</v>
       </c>
       <c r="D48" t="n">
-        <v>0.40154</v>
+        <v>0.401818</v>
       </c>
       <c r="E48" t="n">
-        <v>0.244831</v>
+        <v>0.245457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.402698</v>
+        <v>0.402764</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.249366</v>
+        <v>0.24922</v>
       </c>
       <c r="C49" t="n">
-        <v>0.412417</v>
+        <v>0.411705</v>
       </c>
       <c r="D49" t="n">
-        <v>0.402231</v>
+        <v>0.401715</v>
       </c>
       <c r="E49" t="n">
-        <v>0.245431</v>
+        <v>0.245309</v>
       </c>
       <c r="F49" t="n">
-        <v>0.402551</v>
+        <v>0.40294</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235022</v>
+        <v>0.235103</v>
       </c>
       <c r="C50" t="n">
-        <v>0.405687</v>
+        <v>0.405411</v>
       </c>
       <c r="D50" t="n">
-        <v>0.406344</v>
+        <v>0.406156</v>
       </c>
       <c r="E50" t="n">
-        <v>0.244347</v>
+        <v>0.244228</v>
       </c>
       <c r="F50" t="n">
-        <v>0.402445</v>
+        <v>0.401569</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220161</v>
+        <v>0.219816</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391514</v>
+        <v>0.391123</v>
       </c>
       <c r="D51" t="n">
-        <v>0.405081</v>
+        <v>0.403508</v>
       </c>
       <c r="E51" t="n">
-        <v>0.258054</v>
+        <v>0.258194</v>
       </c>
       <c r="F51" t="n">
-        <v>0.413786</v>
+        <v>0.413854</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.204787</v>
+        <v>0.204896</v>
       </c>
       <c r="C52" t="n">
-        <v>0.381507</v>
+        <v>0.381258</v>
       </c>
       <c r="D52" t="n">
-        <v>0.40569</v>
+        <v>0.404405</v>
       </c>
       <c r="E52" t="n">
-        <v>0.256516</v>
+        <v>0.256402</v>
       </c>
       <c r="F52" t="n">
-        <v>0.412742</v>
+        <v>0.416756</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34459</v>
+        <v>0.344322</v>
       </c>
       <c r="C53" t="n">
-        <v>0.505226</v>
+        <v>0.5058319999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.404858</v>
+        <v>0.403001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.255191</v>
+        <v>0.255311</v>
       </c>
       <c r="F53" t="n">
-        <v>0.411414</v>
+        <v>0.411533</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.33849</v>
+        <v>0.338115</v>
       </c>
       <c r="C54" t="n">
-        <v>0.491058</v>
+        <v>0.492769</v>
       </c>
       <c r="D54" t="n">
-        <v>0.404581</v>
+        <v>0.403386</v>
       </c>
       <c r="E54" t="n">
-        <v>0.253973</v>
+        <v>0.253862</v>
       </c>
       <c r="F54" t="n">
-        <v>0.410283</v>
+        <v>0.410654</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33223</v>
+        <v>0.332107</v>
       </c>
       <c r="C55" t="n">
-        <v>0.501602</v>
+        <v>0.50031</v>
       </c>
       <c r="D55" t="n">
-        <v>0.406185</v>
+        <v>0.404272</v>
       </c>
       <c r="E55" t="n">
-        <v>0.252879</v>
+        <v>0.252875</v>
       </c>
       <c r="F55" t="n">
-        <v>0.409059</v>
+        <v>0.409269</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.324741</v>
+        <v>0.324999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.490184</v>
+        <v>0.489537</v>
       </c>
       <c r="D56" t="n">
-        <v>0.40783</v>
+        <v>0.405143</v>
       </c>
       <c r="E56" t="n">
-        <v>0.251864</v>
+        <v>0.251782</v>
       </c>
       <c r="F56" t="n">
-        <v>0.408967</v>
+        <v>0.407995</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.317284</v>
+        <v>0.317064</v>
       </c>
       <c r="C57" t="n">
-        <v>0.494826</v>
+        <v>0.493551</v>
       </c>
       <c r="D57" t="n">
-        <v>0.409376</v>
+        <v>0.407593</v>
       </c>
       <c r="E57" t="n">
-        <v>0.250475</v>
+        <v>0.250455</v>
       </c>
       <c r="F57" t="n">
-        <v>0.407011</v>
+        <v>0.407472</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.308641</v>
+        <v>0.307931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.485344</v>
+        <v>0.48265</v>
       </c>
       <c r="D58" t="n">
-        <v>0.409377</v>
+        <v>0.409658</v>
       </c>
       <c r="E58" t="n">
-        <v>0.247953</v>
+        <v>0.249544</v>
       </c>
       <c r="F58" t="n">
-        <v>0.406178</v>
+        <v>0.40644</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.298945</v>
+        <v>0.29959</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4743</v>
+        <v>0.474202</v>
       </c>
       <c r="D59" t="n">
-        <v>0.40894</v>
+        <v>0.410515</v>
       </c>
       <c r="E59" t="n">
-        <v>0.248805</v>
+        <v>0.248867</v>
       </c>
       <c r="F59" t="n">
-        <v>0.405545</v>
+        <v>0.406091</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.288742</v>
+        <v>0.28845</v>
       </c>
       <c r="C60" t="n">
-        <v>0.471728</v>
+        <v>0.474311</v>
       </c>
       <c r="D60" t="n">
-        <v>0.410374</v>
+        <v>0.413233</v>
       </c>
       <c r="E60" t="n">
-        <v>0.248068</v>
+        <v>0.247979</v>
       </c>
       <c r="F60" t="n">
-        <v>0.405008</v>
+        <v>0.405082</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277526</v>
+        <v>0.277357</v>
       </c>
       <c r="C61" t="n">
-        <v>0.47692</v>
+        <v>0.480772</v>
       </c>
       <c r="D61" t="n">
-        <v>0.417058</v>
+        <v>0.414896</v>
       </c>
       <c r="E61" t="n">
-        <v>0.247231</v>
+        <v>0.247089</v>
       </c>
       <c r="F61" t="n">
-        <v>0.404114</v>
+        <v>0.405198</v>
       </c>
     </row>
     <row r="62">
@@ -6285,16 +6285,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.265784</v>
+        <v>0.265825</v>
       </c>
       <c r="C62" t="n">
-        <v>0.451717</v>
+        <v>0.456761</v>
       </c>
       <c r="D62" t="n">
-        <v>0.417735</v>
+        <v>0.419841</v>
       </c>
       <c r="E62" t="n">
-        <v>0.246495</v>
+        <v>0.246566</v>
       </c>
       <c r="F62" t="n">
         <v>0.403516</v>
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.253489</v>
+        <v>0.253483</v>
       </c>
       <c r="C63" t="n">
-        <v>0.45183</v>
+        <v>0.456047</v>
       </c>
       <c r="D63" t="n">
-        <v>0.417093</v>
+        <v>0.423109</v>
       </c>
       <c r="E63" t="n">
-        <v>0.245483</v>
+        <v>0.245671</v>
       </c>
       <c r="F63" t="n">
-        <v>0.403453</v>
+        <v>0.403362</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23965</v>
+        <v>0.23982</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4296</v>
+        <v>0.435141</v>
       </c>
       <c r="D64" t="n">
-        <v>0.464596</v>
+        <v>0.473635</v>
       </c>
       <c r="E64" t="n">
-        <v>0.245217</v>
+        <v>0.244855</v>
       </c>
       <c r="F64" t="n">
-        <v>0.402811</v>
+        <v>0.402926</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.224947</v>
+        <v>0.224857</v>
       </c>
       <c r="C65" t="n">
-        <v>0.424955</v>
+        <v>0.425936</v>
       </c>
       <c r="D65" t="n">
-        <v>0.464513</v>
+        <v>0.47203</v>
       </c>
       <c r="E65" t="n">
-        <v>0.244351</v>
+        <v>0.243949</v>
       </c>
       <c r="F65" t="n">
-        <v>0.40208</v>
+        <v>0.402396</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.209254</v>
+        <v>0.209256</v>
       </c>
       <c r="C66" t="n">
-        <v>0.412956</v>
+        <v>0.413759</v>
       </c>
       <c r="D66" t="n">
-        <v>0.462207</v>
+        <v>0.469114</v>
       </c>
       <c r="E66" t="n">
-        <v>0.26333</v>
+        <v>0.263667</v>
       </c>
       <c r="F66" t="n">
-        <v>0.413056</v>
+        <v>0.412882</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347306</v>
+        <v>0.347184</v>
       </c>
       <c r="C67" t="n">
-        <v>0.573039</v>
+        <v>0.572994</v>
       </c>
       <c r="D67" t="n">
-        <v>0.477215</v>
+        <v>0.481431</v>
       </c>
       <c r="E67" t="n">
-        <v>0.261214</v>
+        <v>0.260879</v>
       </c>
       <c r="F67" t="n">
-        <v>0.414387</v>
+        <v>0.412048</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341191</v>
+        <v>0.340954</v>
       </c>
       <c r="C68" t="n">
-        <v>0.593045</v>
+        <v>0.591427</v>
       </c>
       <c r="D68" t="n">
-        <v>0.482926</v>
+        <v>0.484912</v>
       </c>
       <c r="E68" t="n">
-        <v>0.258517</v>
+        <v>0.259122</v>
       </c>
       <c r="F68" t="n">
-        <v>0.410762</v>
+        <v>0.411002</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334334</v>
+        <v>0.334344</v>
       </c>
       <c r="C69" t="n">
-        <v>0.537068</v>
+        <v>0.536145</v>
       </c>
       <c r="D69" t="n">
-        <v>0.488286</v>
+        <v>0.489779</v>
       </c>
       <c r="E69" t="n">
-        <v>0.257416</v>
+        <v>0.25715</v>
       </c>
       <c r="F69" t="n">
-        <v>0.414324</v>
+        <v>0.409211</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328296</v>
+        <v>0.328764</v>
       </c>
       <c r="C70" t="n">
-        <v>0.617041</v>
+        <v>0.61132</v>
       </c>
       <c r="D70" t="n">
-        <v>0.494736</v>
+        <v>0.491996</v>
       </c>
       <c r="E70" t="n">
-        <v>0.255746</v>
+        <v>0.255473</v>
       </c>
       <c r="F70" t="n">
-        <v>0.413439</v>
+        <v>0.409547</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.320076</v>
+        <v>0.320025</v>
       </c>
       <c r="C71" t="n">
-        <v>0.596866</v>
+        <v>0.59438</v>
       </c>
       <c r="D71" t="n">
-        <v>0.504088</v>
+        <v>0.504445</v>
       </c>
       <c r="E71" t="n">
-        <v>0.253954</v>
+        <v>0.253597</v>
       </c>
       <c r="F71" t="n">
-        <v>0.412172</v>
+        <v>0.412034</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.311546</v>
+        <v>0.311125</v>
       </c>
       <c r="C72" t="n">
-        <v>0.616686</v>
+        <v>0.614669</v>
       </c>
       <c r="D72" t="n">
-        <v>0.508991</v>
+        <v>0.5053879999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.252145</v>
+        <v>0.251835</v>
       </c>
       <c r="F72" t="n">
-        <v>0.411292</v>
+        <v>0.411237</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30355</v>
+        <v>0.30329</v>
       </c>
       <c r="C73" t="n">
-        <v>0.610276</v>
+        <v>0.608051</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5064959999999999</v>
+        <v>0.506721</v>
       </c>
       <c r="E73" t="n">
-        <v>0.250101</v>
+        <v>0.249931</v>
       </c>
       <c r="F73" t="n">
-        <v>0.411412</v>
+        <v>0.41057</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.292721</v>
+        <v>0.29312</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5573939999999999</v>
+        <v>0.553991</v>
       </c>
       <c r="D74" t="n">
-        <v>0.512437</v>
+        <v>0.532548</v>
       </c>
       <c r="E74" t="n">
-        <v>0.248914</v>
+        <v>0.248578</v>
       </c>
       <c r="F74" t="n">
-        <v>0.409774</v>
+        <v>0.404827</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.281959</v>
+        <v>0.282062</v>
       </c>
       <c r="C75" t="n">
-        <v>0.602618</v>
+        <v>0.5997209999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5128239999999999</v>
+        <v>0.508148</v>
       </c>
       <c r="E75" t="n">
-        <v>0.247807</v>
+        <v>0.247541</v>
       </c>
       <c r="F75" t="n">
-        <v>0.404407</v>
+        <v>0.404519</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.269876</v>
+        <v>0.269574</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5654400000000001</v>
+        <v>0.565038</v>
       </c>
       <c r="D76" t="n">
-        <v>0.512921</v>
+        <v>0.5183680000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.247</v>
+        <v>0.246639</v>
       </c>
       <c r="F76" t="n">
-        <v>0.403794</v>
+        <v>0.403779</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.257557</v>
+        <v>0.256812</v>
       </c>
       <c r="C77" t="n">
-        <v>0.519579</v>
+        <v>0.519393</v>
       </c>
       <c r="D77" t="n">
-        <v>0.509533</v>
+        <v>0.508565</v>
       </c>
       <c r="E77" t="n">
-        <v>0.246161</v>
+        <v>0.246027</v>
       </c>
       <c r="F77" t="n">
-        <v>0.403329</v>
+        <v>0.403361</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243625</v>
+        <v>0.243558</v>
       </c>
       <c r="C78" t="n">
-        <v>0.558623</v>
+        <v>0.558768</v>
       </c>
       <c r="D78" t="n">
-        <v>0.583734</v>
+        <v>0.582479</v>
       </c>
       <c r="E78" t="n">
-        <v>0.245271</v>
+        <v>0.245571</v>
       </c>
       <c r="F78" t="n">
-        <v>0.402565</v>
+        <v>0.402856</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.230044</v>
+        <v>0.229807</v>
       </c>
       <c r="C79" t="n">
-        <v>0.510239</v>
+        <v>0.5102139999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.594261</v>
+        <v>0.593832</v>
       </c>
       <c r="E79" t="n">
-        <v>0.244491</v>
+        <v>0.244741</v>
       </c>
       <c r="F79" t="n">
-        <v>0.402193</v>
+        <v>0.402456</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213919</v>
+        <v>0.213864</v>
       </c>
       <c r="C80" t="n">
-        <v>0.527608</v>
+        <v>0.527421</v>
       </c>
       <c r="D80" t="n">
-        <v>0.633073</v>
+        <v>0.63598</v>
       </c>
       <c r="E80" t="n">
-        <v>0.260119</v>
+        <v>0.26033</v>
       </c>
       <c r="F80" t="n">
-        <v>0.413921</v>
+        <v>0.415774</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.34804</v>
+        <v>0.347871</v>
       </c>
       <c r="C81" t="n">
-        <v>0.535407</v>
+        <v>0.53548</v>
       </c>
       <c r="D81" t="n">
-        <v>0.605133</v>
+        <v>0.606531</v>
       </c>
       <c r="E81" t="n">
-        <v>0.257788</v>
+        <v>0.257681</v>
       </c>
       <c r="F81" t="n">
-        <v>0.414046</v>
+        <v>0.412681</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342415</v>
+        <v>0.342349</v>
       </c>
       <c r="C82" t="n">
-        <v>0.65108</v>
+        <v>0.651515</v>
       </c>
       <c r="D82" t="n">
-        <v>0.588951</v>
+        <v>0.590487</v>
       </c>
       <c r="E82" t="n">
-        <v>0.255872</v>
+        <v>0.255736</v>
       </c>
       <c r="F82" t="n">
-        <v>0.411662</v>
+        <v>0.411646</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.335975</v>
+        <v>0.335882</v>
       </c>
       <c r="C83" t="n">
-        <v>0.616899</v>
+        <v>0.617663</v>
       </c>
       <c r="D83" t="n">
-        <v>0.588124</v>
+        <v>0.588153</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254372</v>
+        <v>0.254345</v>
       </c>
       <c r="F83" t="n">
-        <v>0.411247</v>
+        <v>0.410178</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.329511</v>
+        <v>0.329617</v>
       </c>
       <c r="C84" t="n">
-        <v>0.589271</v>
+        <v>0.588742</v>
       </c>
       <c r="D84" t="n">
-        <v>0.590851</v>
+        <v>0.598838</v>
       </c>
       <c r="E84" t="n">
-        <v>0.253141</v>
+        <v>0.253174</v>
       </c>
       <c r="F84" t="n">
-        <v>0.409168</v>
+        <v>0.409179</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321581</v>
+        <v>0.321411</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6207009999999999</v>
+        <v>0.6190099999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5860919999999999</v>
+        <v>0.578864</v>
       </c>
       <c r="E85" t="n">
-        <v>0.251711</v>
+        <v>0.251738</v>
       </c>
       <c r="F85" t="n">
-        <v>0.408386</v>
+        <v>0.407658</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.312866</v>
+        <v>0.313371</v>
       </c>
       <c r="C86" t="n">
-        <v>0.557871</v>
+        <v>0.552967</v>
       </c>
       <c r="D86" t="n">
-        <v>0.58095</v>
+        <v>0.570424</v>
       </c>
       <c r="E86" t="n">
-        <v>0.250835</v>
+        <v>0.250887</v>
       </c>
       <c r="F86" t="n">
-        <v>0.41142</v>
+        <v>0.409471</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303761</v>
+        <v>0.304314</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5747989999999999</v>
+        <v>0.570144</v>
       </c>
       <c r="D87" t="n">
-        <v>0.600584</v>
+        <v>0.603044</v>
       </c>
       <c r="E87" t="n">
-        <v>0.249635</v>
+        <v>0.249722</v>
       </c>
       <c r="F87" t="n">
-        <v>0.410753</v>
+        <v>0.407299</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.294588</v>
+        <v>0.294397</v>
       </c>
       <c r="C88" t="n">
-        <v>0.527567</v>
+        <v>0.522354</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5654439999999999</v>
+        <v>0.561383</v>
       </c>
       <c r="E88" t="n">
-        <v>0.248779</v>
+        <v>0.248763</v>
       </c>
       <c r="F88" t="n">
-        <v>0.410563</v>
+        <v>0.409348</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.283773</v>
+        <v>0.283869</v>
       </c>
       <c r="C89" t="n">
-        <v>0.635763</v>
+        <v>0.630699</v>
       </c>
       <c r="D89" t="n">
-        <v>0.563573</v>
+        <v>0.563419</v>
       </c>
       <c r="E89" t="n">
-        <v>0.247925</v>
+        <v>0.24784</v>
       </c>
       <c r="F89" t="n">
-        <v>0.409513</v>
+        <v>0.405166</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.272497</v>
+        <v>0.272534</v>
       </c>
       <c r="C90" t="n">
-        <v>0.499603</v>
+        <v>0.5031870000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.556489</v>
+        <v>0.560015</v>
       </c>
       <c r="E90" t="n">
-        <v>0.247379</v>
+        <v>0.247802</v>
       </c>
       <c r="F90" t="n">
-        <v>0.406975</v>
+        <v>0.408758</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.260461</v>
+        <v>0.260152</v>
       </c>
       <c r="C91" t="n">
-        <v>0.454218</v>
+        <v>0.459729</v>
       </c>
       <c r="D91" t="n">
-        <v>0.551628</v>
+        <v>0.56038</v>
       </c>
       <c r="E91" t="n">
-        <v>0.246753</v>
+        <v>0.246528</v>
       </c>
       <c r="F91" t="n">
-        <v>0.404009</v>
+        <v>0.408053</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247535</v>
+        <v>0.247156</v>
       </c>
       <c r="C92" t="n">
-        <v>0.531933</v>
+        <v>0.536032</v>
       </c>
       <c r="D92" t="n">
-        <v>0.61856</v>
+        <v>0.619349</v>
       </c>
       <c r="E92" t="n">
-        <v>0.246009</v>
+        <v>0.245883</v>
       </c>
       <c r="F92" t="n">
-        <v>0.404966</v>
+        <v>0.407476</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.233068</v>
+        <v>0.23322</v>
       </c>
       <c r="C93" t="n">
-        <v>0.503368</v>
+        <v>0.50929</v>
       </c>
       <c r="D93" t="n">
-        <v>0.615873</v>
+        <v>0.619007</v>
       </c>
       <c r="E93" t="n">
-        <v>0.245101</v>
+        <v>0.244775</v>
       </c>
       <c r="F93" t="n">
-        <v>0.404313</v>
+        <v>0.408614</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.217866</v>
+        <v>0.217719</v>
       </c>
       <c r="C94" t="n">
-        <v>0.501096</v>
+        <v>0.506619</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5976359999999999</v>
+        <v>0.602482</v>
       </c>
       <c r="E94" t="n">
-        <v>0.260949</v>
+        <v>0.260787</v>
       </c>
       <c r="F94" t="n">
-        <v>0.414007</v>
+        <v>0.418961</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348472</v>
+        <v>0.348459</v>
       </c>
       <c r="C95" t="n">
-        <v>0.701485</v>
+        <v>0.705295</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59998</v>
+        <v>0.5987749999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.258335</v>
+        <v>0.25843</v>
       </c>
       <c r="F95" t="n">
-        <v>0.41286</v>
+        <v>0.412836</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343218</v>
+        <v>0.343359</v>
       </c>
       <c r="C96" t="n">
-        <v>0.691666</v>
+        <v>0.688686</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6018</v>
+        <v>0.601591</v>
       </c>
       <c r="E96" t="n">
-        <v>0.256322</v>
+        <v>0.256242</v>
       </c>
       <c r="F96" t="n">
-        <v>0.411549</v>
+        <v>0.411385</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337163</v>
+        <v>0.337279</v>
       </c>
       <c r="C97" t="n">
-        <v>0.660284</v>
+        <v>0.66037</v>
       </c>
       <c r="D97" t="n">
-        <v>0.590894</v>
+        <v>0.590909</v>
       </c>
       <c r="E97" t="n">
-        <v>0.255202</v>
+        <v>0.255213</v>
       </c>
       <c r="F97" t="n">
-        <v>0.410422</v>
+        <v>0.410658</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330173</v>
+        <v>0.330317</v>
       </c>
       <c r="C98" t="n">
-        <v>0.584825</v>
+        <v>0.584541</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5833739999999999</v>
+        <v>0.5805709999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.253438</v>
+        <v>0.253404</v>
       </c>
       <c r="F98" t="n">
-        <v>0.408946</v>
+        <v>0.409163</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323174</v>
+        <v>0.323418</v>
       </c>
       <c r="C99" t="n">
-        <v>0.606452</v>
+        <v>0.606307</v>
       </c>
       <c r="D99" t="n">
-        <v>0.575809</v>
+        <v>0.578946</v>
       </c>
       <c r="E99" t="n">
-        <v>0.252164</v>
+        <v>0.252066</v>
       </c>
       <c r="F99" t="n">
-        <v>0.407851</v>
+        <v>0.407912</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.314963</v>
+        <v>0.315484</v>
       </c>
       <c r="C100" t="n">
-        <v>0.593049</v>
+        <v>0.591901</v>
       </c>
       <c r="D100" t="n">
-        <v>0.580799</v>
+        <v>0.580018</v>
       </c>
       <c r="E100" t="n">
-        <v>0.25102</v>
+        <v>0.250913</v>
       </c>
       <c r="F100" t="n">
-        <v>0.406967</v>
+        <v>0.40699</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.306424</v>
+        <v>0.306605</v>
       </c>
       <c r="C101" t="n">
-        <v>0.605423</v>
+        <v>0.605337</v>
       </c>
       <c r="D101" t="n">
-        <v>0.575157</v>
+        <v>0.573025</v>
       </c>
       <c r="E101" t="n">
-        <v>0.249892</v>
+        <v>0.249769</v>
       </c>
       <c r="F101" t="n">
-        <v>0.405889</v>
+        <v>0.406031</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.296445</v>
+        <v>0.296571</v>
       </c>
       <c r="C102" t="n">
-        <v>0.605324</v>
+        <v>0.605374</v>
       </c>
       <c r="D102" t="n">
-        <v>0.568148</v>
+        <v>0.5667450000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.249018</v>
+        <v>0.249037</v>
       </c>
       <c r="F102" t="n">
-        <v>0.409303</v>
+        <v>0.406411</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.285876</v>
+        <v>0.286008</v>
       </c>
       <c r="C103" t="n">
-        <v>0.581186</v>
+        <v>0.581753</v>
       </c>
       <c r="D103" t="n">
-        <v>0.555077</v>
+        <v>0.5548920000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.248477</v>
+        <v>0.248219</v>
       </c>
       <c r="F103" t="n">
-        <v>0.404622</v>
+        <v>0.404782</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.27468</v>
+        <v>0.275089</v>
       </c>
       <c r="C104" t="n">
-        <v>0.536561</v>
+        <v>0.536428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.552433</v>
+        <v>0.552187</v>
       </c>
       <c r="E104" t="n">
-        <v>0.247399</v>
+        <v>0.247246</v>
       </c>
       <c r="F104" t="n">
-        <v>0.404171</v>
+        <v>0.404229</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.262455</v>
+        <v>0.262867</v>
       </c>
       <c r="C105" t="n">
-        <v>0.592494</v>
+        <v>0.5843159999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.546559</v>
+        <v>0.546602</v>
       </c>
       <c r="E105" t="n">
-        <v>0.24699</v>
+        <v>0.247256</v>
       </c>
       <c r="F105" t="n">
-        <v>0.403527</v>
+        <v>0.403581</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.249892</v>
+        <v>0.250144</v>
       </c>
       <c r="C106" t="n">
-        <v>0.57104</v>
+        <v>0.572484</v>
       </c>
       <c r="D106" t="n">
-        <v>0.541072</v>
+        <v>0.539911</v>
       </c>
       <c r="E106" t="n">
-        <v>0.245914</v>
+        <v>0.245865</v>
       </c>
       <c r="F106" t="n">
-        <v>0.403085</v>
+        <v>0.402994</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.23603</v>
+        <v>0.236064</v>
       </c>
       <c r="C107" t="n">
-        <v>0.517536</v>
+        <v>0.521577</v>
       </c>
       <c r="D107" t="n">
-        <v>0.618926</v>
+        <v>0.618424</v>
       </c>
       <c r="E107" t="n">
-        <v>0.245463</v>
+        <v>0.245201</v>
       </c>
       <c r="F107" t="n">
-        <v>0.402736</v>
+        <v>0.40281</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.221628</v>
+        <v>0.221171</v>
       </c>
       <c r="C108" t="n">
-        <v>0.52307</v>
+        <v>0.52277</v>
       </c>
       <c r="D108" t="n">
-        <v>0.593282</v>
+        <v>0.592896</v>
       </c>
       <c r="E108" t="n">
-        <v>0.261032</v>
+        <v>0.26071</v>
       </c>
       <c r="F108" t="n">
-        <v>0.414884</v>
+        <v>0.416635</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.204806</v>
+        <v>0.204541</v>
       </c>
       <c r="C109" t="n">
-        <v>0.489063</v>
+        <v>0.488201</v>
       </c>
       <c r="D109" t="n">
-        <v>0.615237</v>
+        <v>0.616567</v>
       </c>
       <c r="E109" t="n">
-        <v>0.25846</v>
+        <v>0.25849</v>
       </c>
       <c r="F109" t="n">
-        <v>0.414638</v>
+        <v>0.413863</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344013</v>
+        <v>0.344024</v>
       </c>
       <c r="C110" t="n">
-        <v>0.64777</v>
+        <v>0.647081</v>
       </c>
       <c r="D110" t="n">
-        <v>0.588328</v>
+        <v>0.588495</v>
       </c>
       <c r="E110" t="n">
-        <v>0.256568</v>
+        <v>0.256447</v>
       </c>
       <c r="F110" t="n">
-        <v>0.414776</v>
+        <v>0.413182</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.337711</v>
+        <v>0.338105</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5936940000000001</v>
+        <v>0.59523</v>
       </c>
       <c r="D111" t="n">
-        <v>0.588577</v>
+        <v>0.587209</v>
       </c>
       <c r="E111" t="n">
-        <v>0.255006</v>
+        <v>0.254894</v>
       </c>
       <c r="F111" t="n">
-        <v>0.410672</v>
+        <v>0.410801</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.331318</v>
+        <v>0.331659</v>
       </c>
       <c r="C112" t="n">
-        <v>0.541423</v>
+        <v>0.542119</v>
       </c>
       <c r="D112" t="n">
-        <v>0.586194</v>
+        <v>0.582829</v>
       </c>
       <c r="E112" t="n">
-        <v>0.253745</v>
+        <v>0.253566</v>
       </c>
       <c r="F112" t="n">
-        <v>0.411409</v>
+        <v>0.412738</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325415</v>
+        <v>0.32522</v>
       </c>
       <c r="C113" t="n">
-        <v>0.584178</v>
+        <v>0.583432</v>
       </c>
       <c r="D113" t="n">
-        <v>0.591316</v>
+        <v>0.590164</v>
       </c>
       <c r="E113" t="n">
-        <v>0.252466</v>
+        <v>0.252285</v>
       </c>
       <c r="F113" t="n">
-        <v>0.410483</v>
+        <v>0.409593</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.316442</v>
+        <v>0.31653</v>
       </c>
       <c r="C114" t="n">
-        <v>0.587994</v>
+        <v>0.587941</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5825129999999999</v>
+        <v>0.5823970000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.251217</v>
+        <v>0.251046</v>
       </c>
       <c r="F114" t="n">
-        <v>0.410746</v>
+        <v>0.411031</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307718</v>
+        <v>0.307868</v>
       </c>
       <c r="C115" t="n">
-        <v>0.574137</v>
+        <v>0.573835</v>
       </c>
       <c r="D115" t="n">
-        <v>0.577784</v>
+        <v>0.576569</v>
       </c>
       <c r="E115" t="n">
-        <v>0.250093</v>
+        <v>0.250027</v>
       </c>
       <c r="F115" t="n">
-        <v>0.408631</v>
+        <v>0.406722</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.298261</v>
+        <v>0.298731</v>
       </c>
       <c r="C116" t="n">
-        <v>0.657089</v>
+        <v>0.657013</v>
       </c>
       <c r="D116" t="n">
-        <v>0.568102</v>
+        <v>0.568099</v>
       </c>
       <c r="E116" t="n">
-        <v>0.249232</v>
+        <v>0.249158</v>
       </c>
       <c r="F116" t="n">
-        <v>0.405683</v>
+        <v>0.405726</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287846</v>
+        <v>0.288071</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566433</v>
+        <v>0.565466</v>
       </c>
       <c r="D117" t="n">
-        <v>0.559042</v>
+        <v>0.558543</v>
       </c>
       <c r="E117" t="n">
-        <v>0.248252</v>
+        <v>0.248161</v>
       </c>
       <c r="F117" t="n">
-        <v>0.408852</v>
+        <v>0.405869</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.276699</v>
+        <v>0.277099</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5678879999999999</v>
+        <v>0.567766</v>
       </c>
       <c r="D118" t="n">
-        <v>0.554302</v>
+        <v>0.554787</v>
       </c>
       <c r="E118" t="n">
-        <v>0.247442</v>
+        <v>0.247499</v>
       </c>
       <c r="F118" t="n">
-        <v>0.404665</v>
+        <v>0.406972</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.265096</v>
+        <v>0.265</v>
       </c>
       <c r="C119" t="n">
-        <v>0.541137</v>
+        <v>0.540308</v>
       </c>
       <c r="D119" t="n">
-        <v>0.54828</v>
+        <v>0.549244</v>
       </c>
       <c r="E119" t="n">
-        <v>0.247186</v>
+        <v>0.246857</v>
       </c>
       <c r="F119" t="n">
-        <v>0.403849</v>
+        <v>0.403757</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.252492</v>
+        <v>0.252452</v>
       </c>
       <c r="C120" t="n">
-        <v>0.556028</v>
+        <v>0.55591</v>
       </c>
       <c r="D120" t="n">
-        <v>0.543069</v>
+        <v>0.545484</v>
       </c>
       <c r="E120" t="n">
-        <v>0.246241</v>
+        <v>0.246186</v>
       </c>
       <c r="F120" t="n">
-        <v>0.404199</v>
+        <v>0.407087</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.238899</v>
+        <v>0.238956</v>
       </c>
       <c r="C121" t="n">
-        <v>0.490567</v>
+        <v>0.490897</v>
       </c>
       <c r="D121" t="n">
-        <v>0.609309</v>
+        <v>0.611205</v>
       </c>
       <c r="E121" t="n">
-        <v>0.245625</v>
+        <v>0.24544</v>
       </c>
       <c r="F121" t="n">
-        <v>0.406538</v>
+        <v>0.406361</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.224131</v>
+        <v>0.22401</v>
       </c>
       <c r="C122" t="n">
-        <v>0.438084</v>
+        <v>0.437354</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6314340000000001</v>
+        <v>0.632232</v>
       </c>
       <c r="E122" t="n">
-        <v>0.244961</v>
+        <v>0.244807</v>
       </c>
       <c r="F122" t="n">
-        <v>0.402454</v>
+        <v>0.40251</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.208314</v>
+        <v>0.208342</v>
       </c>
       <c r="C123" t="n">
-        <v>0.451183</v>
+        <v>0.450379</v>
       </c>
       <c r="D123" t="n">
-        <v>0.626198</v>
+        <v>0.627908</v>
       </c>
       <c r="E123" t="n">
-        <v>0.258871</v>
+        <v>0.25883</v>
       </c>
       <c r="F123" t="n">
-        <v>0.413023</v>
+        <v>0.413206</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345558</v>
+        <v>0.345325</v>
       </c>
       <c r="C124" t="n">
-        <v>0.675269</v>
+        <v>0.675821</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6175929999999999</v>
+        <v>0.617716</v>
       </c>
       <c r="E124" t="n">
-        <v>0.257429</v>
+        <v>0.257348</v>
       </c>
       <c r="F124" t="n">
-        <v>0.411736</v>
+        <v>0.411728</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.338913</v>
+        <v>0.33924</v>
       </c>
       <c r="C125" t="n">
-        <v>0.578173</v>
+        <v>0.57799</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6120370000000001</v>
+        <v>0.611846</v>
       </c>
       <c r="E125" t="n">
-        <v>0.255904</v>
+        <v>0.255653</v>
       </c>
       <c r="F125" t="n">
-        <v>0.410565</v>
+        <v>0.410458</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333077</v>
+        <v>0.332581</v>
       </c>
       <c r="C126" t="n">
-        <v>0.68055</v>
+        <v>0.680409</v>
       </c>
       <c r="D126" t="n">
-        <v>0.606954</v>
+        <v>0.605549</v>
       </c>
       <c r="E126" t="n">
-        <v>0.254307</v>
+        <v>0.25417</v>
       </c>
       <c r="F126" t="n">
-        <v>0.409333</v>
+        <v>0.409455</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326275</v>
+        <v>0.325602</v>
       </c>
       <c r="C127" t="n">
-        <v>0.590246</v>
+        <v>0.590542</v>
       </c>
       <c r="D127" t="n">
-        <v>0.58743</v>
+        <v>0.590526</v>
       </c>
       <c r="E127" t="n">
-        <v>0.253084</v>
+        <v>0.252961</v>
       </c>
       <c r="F127" t="n">
-        <v>0.408335</v>
+        <v>0.410232</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.317862</v>
+        <v>0.317831</v>
       </c>
       <c r="C128" t="n">
-        <v>0.620735</v>
+        <v>0.621681</v>
       </c>
       <c r="D128" t="n">
-        <v>0.581307</v>
+        <v>0.585121</v>
       </c>
       <c r="E128" t="n">
-        <v>0.251774</v>
+        <v>0.251757</v>
       </c>
       <c r="F128" t="n">
-        <v>0.407444</v>
+        <v>0.407555</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.30936</v>
+        <v>0.309206</v>
       </c>
       <c r="C129" t="n">
-        <v>0.553689</v>
+        <v>0.554409</v>
       </c>
       <c r="D129" t="n">
-        <v>0.578757</v>
+        <v>0.57901</v>
       </c>
       <c r="E129" t="n">
-        <v>0.250776</v>
+        <v>0.250549</v>
       </c>
       <c r="F129" t="n">
-        <v>0.406354</v>
+        <v>0.408075</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299803</v>
+        <v>0.29973</v>
       </c>
       <c r="C130" t="n">
-        <v>0.556305</v>
+        <v>0.555985</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5718490000000001</v>
+        <v>0.5697719999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249906</v>
+        <v>0.249671</v>
       </c>
       <c r="F130" t="n">
-        <v>0.405596</v>
+        <v>0.408332</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289421</v>
+        <v>0.289489</v>
       </c>
       <c r="C131" t="n">
-        <v>0.557681</v>
+        <v>0.557404</v>
       </c>
       <c r="D131" t="n">
-        <v>0.567879</v>
+        <v>0.567975</v>
       </c>
       <c r="E131" t="n">
-        <v>0.249007</v>
+        <v>0.248778</v>
       </c>
       <c r="F131" t="n">
-        <v>0.405123</v>
+        <v>0.405053</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.27824</v>
+        <v>0.278417</v>
       </c>
       <c r="C132" t="n">
-        <v>0.551314</v>
+        <v>0.553181</v>
       </c>
       <c r="D132" t="n">
-        <v>0.562198</v>
+        <v>0.561775</v>
       </c>
       <c r="E132" t="n">
-        <v>0.247728</v>
+        <v>0.247647</v>
       </c>
       <c r="F132" t="n">
-        <v>0.404247</v>
+        <v>0.404493</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.267106</v>
+        <v>0.266903</v>
       </c>
       <c r="C133" t="n">
-        <v>0.562397</v>
+        <v>0.562225</v>
       </c>
       <c r="D133" t="n">
-        <v>0.555081</v>
+        <v>0.554721</v>
       </c>
       <c r="E133" t="n">
-        <v>0.246879</v>
+        <v>0.24671</v>
       </c>
       <c r="F133" t="n">
-        <v>0.403585</v>
+        <v>0.40457</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.254532</v>
+        <v>0.254243</v>
       </c>
       <c r="C134" t="n">
-        <v>0.486131</v>
+        <v>0.48651</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5472630000000001</v>
+        <v>0.547358</v>
       </c>
       <c r="E134" t="n">
-        <v>0.246395</v>
+        <v>0.24603</v>
       </c>
       <c r="F134" t="n">
-        <v>0.403119</v>
+        <v>0.403776</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.240978</v>
+        <v>0.240914</v>
       </c>
       <c r="C135" t="n">
-        <v>0.522051</v>
+        <v>0.522312</v>
       </c>
       <c r="D135" t="n">
-        <v>0.636489</v>
+        <v>0.639194</v>
       </c>
       <c r="E135" t="n">
-        <v>0.245789</v>
+        <v>0.245574</v>
       </c>
       <c r="F135" t="n">
-        <v>0.402801</v>
+        <v>0.403638</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.22684</v>
+        <v>0.226778</v>
       </c>
       <c r="C136" t="n">
-        <v>0.514483</v>
+        <v>0.514517</v>
       </c>
       <c r="D136" t="n">
-        <v>0.632182</v>
+        <v>0.631703</v>
       </c>
       <c r="E136" t="n">
-        <v>0.245018</v>
+        <v>0.244811</v>
       </c>
       <c r="F136" t="n">
-        <v>0.402525</v>
+        <v>0.403118</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.211262</v>
+        <v>0.21116</v>
       </c>
       <c r="C137" t="n">
-        <v>0.530359</v>
+        <v>0.5304720000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.606977</v>
+        <v>0.612519</v>
       </c>
       <c r="E137" t="n">
-        <v>0.25924</v>
+        <v>0.259147</v>
       </c>
       <c r="F137" t="n">
-        <v>0.413911</v>
+        <v>0.414851</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.346182</v>
+        <v>0.345847</v>
       </c>
       <c r="C138" t="n">
-        <v>0.663754</v>
+        <v>0.6626</v>
       </c>
       <c r="D138" t="n">
-        <v>0.606116</v>
+        <v>0.607593</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257194</v>
+        <v>0.257072</v>
       </c>
       <c r="F138" t="n">
-        <v>0.412459</v>
+        <v>0.412831</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.340638</v>
+        <v>0.340864</v>
       </c>
       <c r="C139" t="n">
-        <v>0.522587</v>
+        <v>0.523214</v>
       </c>
       <c r="D139" t="n">
-        <v>0.601919</v>
+        <v>0.602603</v>
       </c>
       <c r="E139" t="n">
-        <v>0.255925</v>
+        <v>0.255889</v>
       </c>
       <c r="F139" t="n">
-        <v>0.411165</v>
+        <v>0.411849</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.333791</v>
+        <v>0.333771</v>
       </c>
       <c r="C140" t="n">
-        <v>0.628538</v>
+        <v>0.628594</v>
       </c>
       <c r="D140" t="n">
-        <v>0.600119</v>
+        <v>0.600112</v>
       </c>
       <c r="E140" t="n">
-        <v>0.254454</v>
+        <v>0.254448</v>
       </c>
       <c r="F140" t="n">
-        <v>0.410654</v>
+        <v>0.411272</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327455</v>
+        <v>0.32706</v>
       </c>
       <c r="C141" t="n">
-        <v>0.683617</v>
+        <v>0.68374</v>
       </c>
       <c r="D141" t="n">
-        <v>0.604223</v>
+        <v>0.606405</v>
       </c>
       <c r="E141" t="n">
-        <v>0.252984</v>
+        <v>0.252933</v>
       </c>
       <c r="F141" t="n">
-        <v>0.408874</v>
+        <v>0.409413</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319243</v>
+        <v>0.320364</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6861699999999999</v>
+        <v>0.687107</v>
       </c>
       <c r="D142" t="n">
-        <v>0.58829</v>
+        <v>0.589228</v>
       </c>
       <c r="E142" t="n">
-        <v>0.251786</v>
+        <v>0.25182</v>
       </c>
       <c r="F142" t="n">
-        <v>0.408368</v>
+        <v>0.409606</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311035</v>
+        <v>0.311226</v>
       </c>
       <c r="C143" t="n">
-        <v>0.607077</v>
+        <v>0.60734</v>
       </c>
       <c r="D143" t="n">
-        <v>0.588928</v>
+        <v>0.59034</v>
       </c>
       <c r="E143" t="n">
-        <v>0.251062</v>
+        <v>0.25082</v>
       </c>
       <c r="F143" t="n">
-        <v>0.407583</v>
+        <v>0.408525</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.253042</v>
+        <v>0.266446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.448133</v>
+        <v>0.448756</v>
       </c>
       <c r="D2" t="n">
-        <v>0.385115</v>
+        <v>0.387885</v>
       </c>
       <c r="E2" t="n">
-        <v>0.219422</v>
+        <v>0.219287</v>
       </c>
       <c r="F2" t="n">
-        <v>0.395662</v>
+        <v>0.396792</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.249537</v>
+        <v>0.254823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.444373</v>
+        <v>0.443832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.384973</v>
+        <v>0.386638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.22038</v>
+        <v>0.221867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.396021</v>
+        <v>0.396658</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243716</v>
+        <v>0.245583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.435388</v>
+        <v>0.436036</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38654</v>
+        <v>0.387586</v>
       </c>
       <c r="E4" t="n">
-        <v>0.222266</v>
+        <v>0.222957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.398124</v>
+        <v>0.396855</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235316</v>
+        <v>0.237637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.420184</v>
+        <v>0.421052</v>
       </c>
       <c r="D5" t="n">
-        <v>0.386533</v>
+        <v>0.388253</v>
       </c>
       <c r="E5" t="n">
-        <v>0.225365</v>
+        <v>0.22594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.39667</v>
+        <v>0.397279</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225237</v>
+        <v>0.228707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.413579</v>
+        <v>0.412544</v>
       </c>
       <c r="D6" t="n">
-        <v>0.388615</v>
+        <v>0.388384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.226142</v>
+        <v>0.226338</v>
       </c>
       <c r="F6" t="n">
-        <v>0.394954</v>
+        <v>0.394904</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.214944</v>
+        <v>0.21724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.407089</v>
+        <v>0.405502</v>
       </c>
       <c r="D7" t="n">
-        <v>0.388236</v>
+        <v>0.389344</v>
       </c>
       <c r="E7" t="n">
-        <v>0.227052</v>
+        <v>0.227629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.396654</v>
+        <v>0.396645</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.201268</v>
+        <v>0.20354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391023</v>
+        <v>0.390555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.390393</v>
+        <v>0.390705</v>
       </c>
       <c r="E8" t="n">
-        <v>0.228989</v>
+        <v>0.23005</v>
       </c>
       <c r="F8" t="n">
-        <v>0.395364</v>
+        <v>0.395401</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.188186</v>
+        <v>0.19022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.37209</v>
+        <v>0.371715</v>
       </c>
       <c r="D9" t="n">
-        <v>0.389805</v>
+        <v>0.390683</v>
       </c>
       <c r="E9" t="n">
-        <v>0.247802</v>
+        <v>0.249203</v>
       </c>
       <c r="F9" t="n">
-        <v>0.406371</v>
+        <v>0.40666</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330211</v>
+        <v>0.331221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.502653</v>
+        <v>0.502524</v>
       </c>
       <c r="D10" t="n">
-        <v>0.389476</v>
+        <v>0.388977</v>
       </c>
       <c r="E10" t="n">
-        <v>0.248169</v>
+        <v>0.249572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.405753</v>
+        <v>0.405984</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.322866</v>
+        <v>0.324543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.499067</v>
+        <v>0.498982</v>
       </c>
       <c r="D11" t="n">
-        <v>0.38871</v>
+        <v>0.389528</v>
       </c>
       <c r="E11" t="n">
-        <v>0.24786</v>
+        <v>0.248944</v>
       </c>
       <c r="F11" t="n">
-        <v>0.405643</v>
+        <v>0.40552</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.316191</v>
+        <v>0.317707</v>
       </c>
       <c r="C12" t="n">
-        <v>0.493157</v>
+        <v>0.49284</v>
       </c>
       <c r="D12" t="n">
-        <v>0.391353</v>
+        <v>0.391208</v>
       </c>
       <c r="E12" t="n">
-        <v>0.247573</v>
+        <v>0.248475</v>
       </c>
       <c r="F12" t="n">
-        <v>0.405485</v>
+        <v>0.406901</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31048</v>
+        <v>0.312507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.487844</v>
+        <v>0.48679</v>
       </c>
       <c r="D13" t="n">
-        <v>0.390603</v>
+        <v>0.39219</v>
       </c>
       <c r="E13" t="n">
-        <v>0.246387</v>
+        <v>0.247461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.404622</v>
+        <v>0.404458</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.30057</v>
+        <v>0.302329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.478487</v>
+        <v>0.477895</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392725</v>
+        <v>0.392849</v>
       </c>
       <c r="E14" t="n">
-        <v>0.245543</v>
+        <v>0.24579</v>
       </c>
       <c r="F14" t="n">
-        <v>0.403238</v>
+        <v>0.403319</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.293954</v>
+        <v>0.293123</v>
       </c>
       <c r="C15" t="n">
-        <v>0.47397</v>
+        <v>0.473471</v>
       </c>
       <c r="D15" t="n">
-        <v>0.394474</v>
+        <v>0.39391</v>
       </c>
       <c r="E15" t="n">
-        <v>0.244887</v>
+        <v>0.245231</v>
       </c>
       <c r="F15" t="n">
-        <v>0.402632</v>
+        <v>0.40272</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.285763</v>
+        <v>0.286097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.456187</v>
+        <v>0.45624</v>
       </c>
       <c r="D16" t="n">
-        <v>0.393526</v>
+        <v>0.395667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.244741</v>
+        <v>0.244934</v>
       </c>
       <c r="F16" t="n">
-        <v>0.401383</v>
+        <v>0.400942</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.277218</v>
+        <v>0.280492</v>
       </c>
       <c r="C17" t="n">
-        <v>0.452892</v>
+        <v>0.452225</v>
       </c>
       <c r="D17" t="n">
-        <v>0.394623</v>
+        <v>0.394852</v>
       </c>
       <c r="E17" t="n">
-        <v>0.244623</v>
+        <v>0.244912</v>
       </c>
       <c r="F17" t="n">
-        <v>0.400847</v>
+        <v>0.400624</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.267381</v>
+        <v>0.269221</v>
       </c>
       <c r="C18" t="n">
-        <v>0.451657</v>
+        <v>0.451305</v>
       </c>
       <c r="D18" t="n">
-        <v>0.394355</v>
+        <v>0.394538</v>
       </c>
       <c r="E18" t="n">
-        <v>0.243592</v>
+        <v>0.243996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.401479</v>
+        <v>0.401514</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.256929</v>
+        <v>0.258408</v>
       </c>
       <c r="C19" t="n">
-        <v>0.436071</v>
+        <v>0.437468</v>
       </c>
       <c r="D19" t="n">
-        <v>0.394942</v>
+        <v>0.395529</v>
       </c>
       <c r="E19" t="n">
-        <v>0.243719</v>
+        <v>0.243436</v>
       </c>
       <c r="F19" t="n">
-        <v>0.401828</v>
+        <v>0.402097</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24612</v>
+        <v>0.247962</v>
       </c>
       <c r="C20" t="n">
-        <v>0.426516</v>
+        <v>0.425</v>
       </c>
       <c r="D20" t="n">
-        <v>0.394518</v>
+        <v>0.395479</v>
       </c>
       <c r="E20" t="n">
-        <v>0.242881</v>
+        <v>0.242306</v>
       </c>
       <c r="F20" t="n">
-        <v>0.39972</v>
+        <v>0.399729</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.235126</v>
+        <v>0.235599</v>
       </c>
       <c r="C21" t="n">
-        <v>0.408192</v>
+        <v>0.407816</v>
       </c>
       <c r="D21" t="n">
-        <v>0.395547</v>
+        <v>0.397438</v>
       </c>
       <c r="E21" t="n">
-        <v>0.242027</v>
+        <v>0.241669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.398981</v>
+        <v>0.398804</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.220334</v>
+        <v>0.221281</v>
       </c>
       <c r="C22" t="n">
-        <v>0.396655</v>
+        <v>0.400127</v>
       </c>
       <c r="D22" t="n">
-        <v>0.395871</v>
+        <v>0.395647</v>
       </c>
       <c r="E22" t="n">
-        <v>0.24138</v>
+        <v>0.242213</v>
       </c>
       <c r="F22" t="n">
-        <v>0.399449</v>
+        <v>0.401222</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.20507</v>
+        <v>0.206838</v>
       </c>
       <c r="C23" t="n">
-        <v>0.37808</v>
+        <v>0.386131</v>
       </c>
       <c r="D23" t="n">
-        <v>0.395964</v>
+        <v>0.395421</v>
       </c>
       <c r="E23" t="n">
-        <v>0.257936</v>
+        <v>0.258499</v>
       </c>
       <c r="F23" t="n">
-        <v>0.411621</v>
+        <v>0.411306</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340174</v>
+        <v>0.340971</v>
       </c>
       <c r="C24" t="n">
-        <v>0.503503</v>
+        <v>0.503255</v>
       </c>
       <c r="D24" t="n">
-        <v>0.396064</v>
+        <v>0.39612</v>
       </c>
       <c r="E24" t="n">
-        <v>0.255401</v>
+        <v>0.255508</v>
       </c>
       <c r="F24" t="n">
-        <v>0.410149</v>
+        <v>0.410478</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3349</v>
+        <v>0.335301</v>
       </c>
       <c r="C25" t="n">
-        <v>0.503217</v>
+        <v>0.503117</v>
       </c>
       <c r="D25" t="n">
-        <v>0.396603</v>
+        <v>0.396822</v>
       </c>
       <c r="E25" t="n">
-        <v>0.254381</v>
+        <v>0.255161</v>
       </c>
       <c r="F25" t="n">
-        <v>0.409754</v>
+        <v>0.409953</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.328911</v>
+        <v>0.329711</v>
       </c>
       <c r="C26" t="n">
-        <v>0.499326</v>
+        <v>0.498437</v>
       </c>
       <c r="D26" t="n">
-        <v>0.395637</v>
+        <v>0.397146</v>
       </c>
       <c r="E26" t="n">
-        <v>0.252925</v>
+        <v>0.253166</v>
       </c>
       <c r="F26" t="n">
-        <v>0.409267</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.321748</v>
+        <v>0.322922</v>
       </c>
       <c r="C27" t="n">
-        <v>0.482399</v>
+        <v>0.482651</v>
       </c>
       <c r="D27" t="n">
-        <v>0.396882</v>
+        <v>0.396326</v>
       </c>
       <c r="E27" t="n">
-        <v>0.251216</v>
+        <v>0.251535</v>
       </c>
       <c r="F27" t="n">
-        <v>0.408226</v>
+        <v>0.40812</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.313462</v>
+        <v>0.314804</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4803</v>
+        <v>0.480799</v>
       </c>
       <c r="D28" t="n">
-        <v>0.395571</v>
+        <v>0.395546</v>
       </c>
       <c r="E28" t="n">
-        <v>0.251145</v>
+        <v>0.251268</v>
       </c>
       <c r="F28" t="n">
-        <v>0.406904</v>
+        <v>0.406971</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.306556</v>
+        <v>0.30628</v>
       </c>
       <c r="C29" t="n">
-        <v>0.480866</v>
+        <v>0.480198</v>
       </c>
       <c r="D29" t="n">
-        <v>0.395839</v>
+        <v>0.396233</v>
       </c>
       <c r="E29" t="n">
         <v>0.250131</v>
       </c>
       <c r="F29" t="n">
-        <v>0.405798</v>
+        <v>0.405799</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297413</v>
+        <v>0.298088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.465775</v>
+        <v>0.465547</v>
       </c>
       <c r="D30" t="n">
-        <v>0.397462</v>
+        <v>0.398069</v>
       </c>
       <c r="E30" t="n">
-        <v>0.248902</v>
+        <v>0.249224</v>
       </c>
       <c r="F30" t="n">
-        <v>0.405288</v>
+        <v>0.405111</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.288754</v>
+        <v>0.288617</v>
       </c>
       <c r="C31" t="n">
-        <v>0.450312</v>
+        <v>0.450643</v>
       </c>
       <c r="D31" t="n">
-        <v>0.398118</v>
+        <v>0.398942</v>
       </c>
       <c r="E31" t="n">
-        <v>0.247888</v>
+        <v>0.248258</v>
       </c>
       <c r="F31" t="n">
-        <v>0.404127</v>
+        <v>0.404015</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279528</v>
+        <v>0.279168</v>
       </c>
       <c r="C32" t="n">
-        <v>0.453959</v>
+        <v>0.455163</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397924</v>
+        <v>0.398281</v>
       </c>
       <c r="E32" t="n">
-        <v>0.247951</v>
+        <v>0.247984</v>
       </c>
       <c r="F32" t="n">
-        <v>0.402964</v>
+        <v>0.403205</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.268617</v>
+        <v>0.269024</v>
       </c>
       <c r="C33" t="n">
-        <v>0.438184</v>
+        <v>0.43802</v>
       </c>
       <c r="D33" t="n">
-        <v>0.39838</v>
+        <v>0.399089</v>
       </c>
       <c r="E33" t="n">
-        <v>0.246574</v>
+        <v>0.246691</v>
       </c>
       <c r="F33" t="n">
-        <v>0.40285</v>
+        <v>0.402603</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25694</v>
+        <v>0.257613</v>
       </c>
       <c r="C34" t="n">
-        <v>0.423435</v>
+        <v>0.423151</v>
       </c>
       <c r="D34" t="n">
-        <v>0.39788</v>
+        <v>0.398956</v>
       </c>
       <c r="E34" t="n">
-        <v>0.246213</v>
+        <v>0.24629</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4019</v>
+        <v>0.402056</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.244109</v>
+        <v>0.244334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.407295</v>
+        <v>0.408277</v>
       </c>
       <c r="D35" t="n">
-        <v>0.400322</v>
+        <v>0.401444</v>
       </c>
       <c r="E35" t="n">
-        <v>0.245388</v>
+        <v>0.245426</v>
       </c>
       <c r="F35" t="n">
-        <v>0.401742</v>
+        <v>0.40152</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230067</v>
+        <v>0.230046</v>
       </c>
       <c r="C36" t="n">
-        <v>0.39597</v>
+        <v>0.396785</v>
       </c>
       <c r="D36" t="n">
-        <v>0.400161</v>
+        <v>0.402161</v>
       </c>
       <c r="E36" t="n">
-        <v>0.24422</v>
+        <v>0.244059</v>
       </c>
       <c r="F36" t="n">
-        <v>0.402018</v>
+        <v>0.401455</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21342</v>
+        <v>0.213958</v>
       </c>
       <c r="C37" t="n">
-        <v>0.395324</v>
+        <v>0.395104</v>
       </c>
       <c r="D37" t="n">
-        <v>0.40063</v>
+        <v>0.402128</v>
       </c>
       <c r="E37" t="n">
-        <v>0.257344</v>
+        <v>0.258579</v>
       </c>
       <c r="F37" t="n">
-        <v>0.412991</v>
+        <v>0.413106</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.344855</v>
+        <v>0.345463</v>
       </c>
       <c r="C38" t="n">
-        <v>0.505116</v>
+        <v>0.5052179999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.400257</v>
+        <v>0.402166</v>
       </c>
       <c r="E38" t="n">
-        <v>0.255959</v>
+        <v>0.256007</v>
       </c>
       <c r="F38" t="n">
-        <v>0.411245</v>
+        <v>0.411695</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339921</v>
+        <v>0.340646</v>
       </c>
       <c r="C39" t="n">
-        <v>0.500233</v>
+        <v>0.500372</v>
       </c>
       <c r="D39" t="n">
-        <v>0.400751</v>
+        <v>0.401961</v>
       </c>
       <c r="E39" t="n">
-        <v>0.254119</v>
+        <v>0.25439</v>
       </c>
       <c r="F39" t="n">
-        <v>0.409821</v>
+        <v>0.409826</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.334833</v>
+        <v>0.335204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.49531</v>
+        <v>0.495429</v>
       </c>
       <c r="D40" t="n">
-        <v>0.399632</v>
+        <v>0.401045</v>
       </c>
       <c r="E40" t="n">
-        <v>0.253645</v>
+        <v>0.253887</v>
       </c>
       <c r="F40" t="n">
-        <v>0.409571</v>
+        <v>0.409417</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.328333</v>
+        <v>0.328674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.486835</v>
+        <v>0.486999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.399198</v>
+        <v>0.399681</v>
       </c>
       <c r="E41" t="n">
-        <v>0.252385</v>
+        <v>0.252727</v>
       </c>
       <c r="F41" t="n">
-        <v>0.408905</v>
+        <v>0.408804</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322151</v>
+        <v>0.322653</v>
       </c>
       <c r="C42" t="n">
-        <v>0.480424</v>
+        <v>0.480327</v>
       </c>
       <c r="D42" t="n">
-        <v>0.400053</v>
+        <v>0.401051</v>
       </c>
       <c r="E42" t="n">
-        <v>0.251362</v>
+        <v>0.251717</v>
       </c>
       <c r="F42" t="n">
-        <v>0.407696</v>
+        <v>0.407709</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.314227</v>
+        <v>0.314831</v>
       </c>
       <c r="C43" t="n">
-        <v>0.474501</v>
+        <v>0.474835</v>
       </c>
       <c r="D43" t="n">
-        <v>0.400559</v>
+        <v>0.40081</v>
       </c>
       <c r="E43" t="n">
-        <v>0.25058</v>
+        <v>0.250728</v>
       </c>
       <c r="F43" t="n">
-        <v>0.406788</v>
+        <v>0.406692</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305538</v>
+        <v>0.305657</v>
       </c>
       <c r="C44" t="n">
-        <v>0.469189</v>
+        <v>0.469441</v>
       </c>
       <c r="D44" t="n">
-        <v>0.400784</v>
+        <v>0.400038</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249027</v>
+        <v>0.249278</v>
       </c>
       <c r="F44" t="n">
-        <v>0.405774</v>
+        <v>0.405315</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.29594</v>
+        <v>0.296604</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45474</v>
+        <v>0.4581</v>
       </c>
       <c r="D45" t="n">
-        <v>0.400803</v>
+        <v>0.400905</v>
       </c>
       <c r="E45" t="n">
-        <v>0.247961</v>
+        <v>0.24809</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405161</v>
+        <v>0.405025</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.284835</v>
+        <v>0.285276</v>
       </c>
       <c r="C46" t="n">
-        <v>0.453858</v>
+        <v>0.453688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.400406</v>
+        <v>0.401236</v>
       </c>
       <c r="E46" t="n">
-        <v>0.247055</v>
+        <v>0.247291</v>
       </c>
       <c r="F46" t="n">
-        <v>0.404284</v>
+        <v>0.404139</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.273707</v>
+        <v>0.274</v>
       </c>
       <c r="C47" t="n">
-        <v>0.449665</v>
+        <v>0.456006</v>
       </c>
       <c r="D47" t="n">
-        <v>0.401401</v>
+        <v>0.401266</v>
       </c>
       <c r="E47" t="n">
-        <v>0.24652</v>
+        <v>0.246475</v>
       </c>
       <c r="F47" t="n">
-        <v>0.403263</v>
+        <v>0.402932</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.261611</v>
+        <v>0.262803</v>
       </c>
       <c r="C48" t="n">
-        <v>0.427783</v>
+        <v>0.428621</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401818</v>
+        <v>0.402142</v>
       </c>
       <c r="E48" t="n">
-        <v>0.245457</v>
+        <v>0.24614</v>
       </c>
       <c r="F48" t="n">
-        <v>0.402764</v>
+        <v>0.402486</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.24922</v>
+        <v>0.249454</v>
       </c>
       <c r="C49" t="n">
-        <v>0.411705</v>
+        <v>0.411728</v>
       </c>
       <c r="D49" t="n">
-        <v>0.401715</v>
+        <v>0.402634</v>
       </c>
       <c r="E49" t="n">
-        <v>0.245309</v>
+        <v>0.245683</v>
       </c>
       <c r="F49" t="n">
-        <v>0.40294</v>
+        <v>0.40261</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235103</v>
+        <v>0.235465</v>
       </c>
       <c r="C50" t="n">
-        <v>0.405411</v>
+        <v>0.406257</v>
       </c>
       <c r="D50" t="n">
-        <v>0.406156</v>
+        <v>0.409763</v>
       </c>
       <c r="E50" t="n">
-        <v>0.244228</v>
+        <v>0.242749</v>
       </c>
       <c r="F50" t="n">
-        <v>0.401569</v>
+        <v>0.401578</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.219816</v>
+        <v>0.220133</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391123</v>
+        <v>0.392055</v>
       </c>
       <c r="D51" t="n">
-        <v>0.403508</v>
+        <v>0.408028</v>
       </c>
       <c r="E51" t="n">
-        <v>0.258194</v>
+        <v>0.259088</v>
       </c>
       <c r="F51" t="n">
-        <v>0.413854</v>
+        <v>0.413965</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.204896</v>
+        <v>0.204974</v>
       </c>
       <c r="C52" t="n">
-        <v>0.381258</v>
+        <v>0.385745</v>
       </c>
       <c r="D52" t="n">
-        <v>0.404405</v>
+        <v>0.406494</v>
       </c>
       <c r="E52" t="n">
-        <v>0.256402</v>
+        <v>0.257534</v>
       </c>
       <c r="F52" t="n">
-        <v>0.416756</v>
+        <v>0.412627</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.344322</v>
+        <v>0.345381</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5058319999999999</v>
+        <v>0.507476</v>
       </c>
       <c r="D53" t="n">
-        <v>0.403001</v>
+        <v>0.404266</v>
       </c>
       <c r="E53" t="n">
-        <v>0.255311</v>
+        <v>0.255688</v>
       </c>
       <c r="F53" t="n">
-        <v>0.411533</v>
+        <v>0.413223</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.338115</v>
+        <v>0.338549</v>
       </c>
       <c r="C54" t="n">
-        <v>0.492769</v>
+        <v>0.499653</v>
       </c>
       <c r="D54" t="n">
-        <v>0.403386</v>
+        <v>0.408536</v>
       </c>
       <c r="E54" t="n">
-        <v>0.253862</v>
+        <v>0.254325</v>
       </c>
       <c r="F54" t="n">
-        <v>0.410654</v>
+        <v>0.415123</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332107</v>
+        <v>0.332575</v>
       </c>
       <c r="C55" t="n">
-        <v>0.50031</v>
+        <v>0.502038</v>
       </c>
       <c r="D55" t="n">
-        <v>0.404272</v>
+        <v>0.408811</v>
       </c>
       <c r="E55" t="n">
-        <v>0.252875</v>
+        <v>0.253507</v>
       </c>
       <c r="F55" t="n">
-        <v>0.409269</v>
+        <v>0.409018</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.324999</v>
+        <v>0.325089</v>
       </c>
       <c r="C56" t="n">
-        <v>0.489537</v>
+        <v>0.491118</v>
       </c>
       <c r="D56" t="n">
-        <v>0.405143</v>
+        <v>0.407316</v>
       </c>
       <c r="E56" t="n">
-        <v>0.251782</v>
+        <v>0.251989</v>
       </c>
       <c r="F56" t="n">
-        <v>0.407995</v>
+        <v>0.408162</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.317064</v>
+        <v>0.317485</v>
       </c>
       <c r="C57" t="n">
-        <v>0.493551</v>
+        <v>0.494284</v>
       </c>
       <c r="D57" t="n">
-        <v>0.407593</v>
+        <v>0.410327</v>
       </c>
       <c r="E57" t="n">
-        <v>0.250455</v>
+        <v>0.250657</v>
       </c>
       <c r="F57" t="n">
-        <v>0.407472</v>
+        <v>0.407244</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.307931</v>
+        <v>0.308322</v>
       </c>
       <c r="C58" t="n">
-        <v>0.48265</v>
+        <v>0.488063</v>
       </c>
       <c r="D58" t="n">
-        <v>0.409658</v>
+        <v>0.411286</v>
       </c>
       <c r="E58" t="n">
-        <v>0.249544</v>
+        <v>0.250017</v>
       </c>
       <c r="F58" t="n">
-        <v>0.40644</v>
+        <v>0.406587</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.29959</v>
+        <v>0.299854</v>
       </c>
       <c r="C59" t="n">
-        <v>0.474202</v>
+        <v>0.481531</v>
       </c>
       <c r="D59" t="n">
-        <v>0.410515</v>
+        <v>0.414175</v>
       </c>
       <c r="E59" t="n">
-        <v>0.248867</v>
+        <v>0.248959</v>
       </c>
       <c r="F59" t="n">
-        <v>0.406091</v>
+        <v>0.409712</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28845</v>
+        <v>0.288804</v>
       </c>
       <c r="C60" t="n">
-        <v>0.474311</v>
+        <v>0.477342</v>
       </c>
       <c r="D60" t="n">
-        <v>0.413233</v>
+        <v>0.416654</v>
       </c>
       <c r="E60" t="n">
-        <v>0.247979</v>
+        <v>0.248275</v>
       </c>
       <c r="F60" t="n">
-        <v>0.405082</v>
+        <v>0.405171</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277357</v>
+        <v>0.27784</v>
       </c>
       <c r="C61" t="n">
-        <v>0.480772</v>
+        <v>0.486057</v>
       </c>
       <c r="D61" t="n">
-        <v>0.414896</v>
+        <v>0.420137</v>
       </c>
       <c r="E61" t="n">
-        <v>0.247089</v>
+        <v>0.247188</v>
       </c>
       <c r="F61" t="n">
-        <v>0.405198</v>
+        <v>0.404843</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.265825</v>
+        <v>0.266159</v>
       </c>
       <c r="C62" t="n">
-        <v>0.456761</v>
+        <v>0.457776</v>
       </c>
       <c r="D62" t="n">
-        <v>0.419841</v>
+        <v>0.422122</v>
       </c>
       <c r="E62" t="n">
-        <v>0.246566</v>
+        <v>0.246558</v>
       </c>
       <c r="F62" t="n">
-        <v>0.403516</v>
+        <v>0.40361</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.253483</v>
+        <v>0.253606</v>
       </c>
       <c r="C63" t="n">
-        <v>0.456047</v>
+        <v>0.459524</v>
       </c>
       <c r="D63" t="n">
-        <v>0.423109</v>
+        <v>0.422024</v>
       </c>
       <c r="E63" t="n">
-        <v>0.245671</v>
+        <v>0.245952</v>
       </c>
       <c r="F63" t="n">
-        <v>0.403362</v>
+        <v>0.403553</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23982</v>
+        <v>0.239961</v>
       </c>
       <c r="C64" t="n">
-        <v>0.435141</v>
+        <v>0.434789</v>
       </c>
       <c r="D64" t="n">
-        <v>0.473635</v>
+        <v>0.485131</v>
       </c>
       <c r="E64" t="n">
-        <v>0.244855</v>
+        <v>0.245328</v>
       </c>
       <c r="F64" t="n">
-        <v>0.402926</v>
+        <v>0.403053</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.224857</v>
+        <v>0.225205</v>
       </c>
       <c r="C65" t="n">
-        <v>0.425936</v>
+        <v>0.428276</v>
       </c>
       <c r="D65" t="n">
-        <v>0.47203</v>
+        <v>0.477608</v>
       </c>
       <c r="E65" t="n">
-        <v>0.243949</v>
+        <v>0.244861</v>
       </c>
       <c r="F65" t="n">
-        <v>0.402396</v>
+        <v>0.402461</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.209256</v>
+        <v>0.209552</v>
       </c>
       <c r="C66" t="n">
-        <v>0.413759</v>
+        <v>0.419183</v>
       </c>
       <c r="D66" t="n">
-        <v>0.469114</v>
+        <v>0.47264</v>
       </c>
       <c r="E66" t="n">
-        <v>0.263667</v>
+        <v>0.266743</v>
       </c>
       <c r="F66" t="n">
-        <v>0.412882</v>
+        <v>0.413081</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347184</v>
+        <v>0.347686</v>
       </c>
       <c r="C67" t="n">
-        <v>0.572994</v>
+        <v>0.58101</v>
       </c>
       <c r="D67" t="n">
-        <v>0.481431</v>
+        <v>0.493223</v>
       </c>
       <c r="E67" t="n">
-        <v>0.260879</v>
+        <v>0.263212</v>
       </c>
       <c r="F67" t="n">
-        <v>0.412048</v>
+        <v>0.412347</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.340954</v>
+        <v>0.341361</v>
       </c>
       <c r="C68" t="n">
-        <v>0.591427</v>
+        <v>0.607974</v>
       </c>
       <c r="D68" t="n">
-        <v>0.484912</v>
+        <v>0.500476</v>
       </c>
       <c r="E68" t="n">
-        <v>0.259122</v>
+        <v>0.261326</v>
       </c>
       <c r="F68" t="n">
-        <v>0.411002</v>
+        <v>0.410977</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334344</v>
+        <v>0.334628</v>
       </c>
       <c r="C69" t="n">
-        <v>0.536145</v>
+        <v>0.546278</v>
       </c>
       <c r="D69" t="n">
-        <v>0.489779</v>
+        <v>0.504474</v>
       </c>
       <c r="E69" t="n">
-        <v>0.25715</v>
+        <v>0.259853</v>
       </c>
       <c r="F69" t="n">
-        <v>0.409211</v>
+        <v>0.409688</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328764</v>
+        <v>0.327655</v>
       </c>
       <c r="C70" t="n">
-        <v>0.61132</v>
+        <v>0.629684</v>
       </c>
       <c r="D70" t="n">
-        <v>0.491996</v>
+        <v>0.507679</v>
       </c>
       <c r="E70" t="n">
-        <v>0.255473</v>
+        <v>0.25728</v>
       </c>
       <c r="F70" t="n">
-        <v>0.409547</v>
+        <v>0.408573</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.320025</v>
+        <v>0.320751</v>
       </c>
       <c r="C71" t="n">
-        <v>0.59438</v>
+        <v>0.618654</v>
       </c>
       <c r="D71" t="n">
-        <v>0.504445</v>
+        <v>0.518948</v>
       </c>
       <c r="E71" t="n">
-        <v>0.253597</v>
+        <v>0.255071</v>
       </c>
       <c r="F71" t="n">
-        <v>0.412034</v>
+        <v>0.40751</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.311125</v>
+        <v>0.311682</v>
       </c>
       <c r="C72" t="n">
-        <v>0.614669</v>
+        <v>0.625578</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5053879999999999</v>
+        <v>0.5227579999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.251835</v>
+        <v>0.252716</v>
       </c>
       <c r="F72" t="n">
-        <v>0.411237</v>
+        <v>0.406724</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30329</v>
+        <v>0.303577</v>
       </c>
       <c r="C73" t="n">
-        <v>0.608051</v>
+        <v>0.632103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.506721</v>
+        <v>0.52395</v>
       </c>
       <c r="E73" t="n">
-        <v>0.249931</v>
+        <v>0.25054</v>
       </c>
       <c r="F73" t="n">
-        <v>0.41057</v>
+        <v>0.405718</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29312</v>
+        <v>0.292752</v>
       </c>
       <c r="C74" t="n">
-        <v>0.553991</v>
+        <v>0.579402</v>
       </c>
       <c r="D74" t="n">
-        <v>0.532548</v>
+        <v>0.554723</v>
       </c>
       <c r="E74" t="n">
-        <v>0.248578</v>
+        <v>0.249015</v>
       </c>
       <c r="F74" t="n">
-        <v>0.404827</v>
+        <v>0.404901</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.282062</v>
+        <v>0.282439</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5997209999999999</v>
+        <v>0.619124</v>
       </c>
       <c r="D75" t="n">
-        <v>0.508148</v>
+        <v>0.529218</v>
       </c>
       <c r="E75" t="n">
-        <v>0.247541</v>
+        <v>0.247633</v>
       </c>
       <c r="F75" t="n">
-        <v>0.404519</v>
+        <v>0.404527</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.269574</v>
+        <v>0.269997</v>
       </c>
       <c r="C76" t="n">
-        <v>0.565038</v>
+        <v>0.5870030000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5183680000000001</v>
+        <v>0.534818</v>
       </c>
       <c r="E76" t="n">
-        <v>0.246639</v>
+        <v>0.246928</v>
       </c>
       <c r="F76" t="n">
-        <v>0.403779</v>
+        <v>0.403849</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.256812</v>
+        <v>0.257867</v>
       </c>
       <c r="C77" t="n">
-        <v>0.519393</v>
+        <v>0.543374</v>
       </c>
       <c r="D77" t="n">
-        <v>0.508565</v>
+        <v>0.52947</v>
       </c>
       <c r="E77" t="n">
-        <v>0.246027</v>
+        <v>0.245088</v>
       </c>
       <c r="F77" t="n">
-        <v>0.403361</v>
+        <v>0.403496</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243558</v>
+        <v>0.243803</v>
       </c>
       <c r="C78" t="n">
-        <v>0.558768</v>
+        <v>0.596322</v>
       </c>
       <c r="D78" t="n">
-        <v>0.582479</v>
+        <v>0.619488</v>
       </c>
       <c r="E78" t="n">
-        <v>0.245571</v>
+        <v>0.24536</v>
       </c>
       <c r="F78" t="n">
-        <v>0.402856</v>
+        <v>0.402819</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.229807</v>
+        <v>0.229488</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5102139999999999</v>
+        <v>0.539936</v>
       </c>
       <c r="D79" t="n">
-        <v>0.593832</v>
+        <v>0.632609</v>
       </c>
       <c r="E79" t="n">
-        <v>0.244741</v>
+        <v>0.244631</v>
       </c>
       <c r="F79" t="n">
-        <v>0.402456</v>
+        <v>0.402417</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213864</v>
+        <v>0.213961</v>
       </c>
       <c r="C80" t="n">
-        <v>0.527421</v>
+        <v>0.555324</v>
       </c>
       <c r="D80" t="n">
-        <v>0.63598</v>
+        <v>0.670123</v>
       </c>
       <c r="E80" t="n">
-        <v>0.26033</v>
+        <v>0.261526</v>
       </c>
       <c r="F80" t="n">
-        <v>0.415774</v>
+        <v>0.414094</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.347871</v>
+        <v>0.348372</v>
       </c>
       <c r="C81" t="n">
-        <v>0.53548</v>
+        <v>0.551264</v>
       </c>
       <c r="D81" t="n">
-        <v>0.606531</v>
+        <v>0.626631</v>
       </c>
       <c r="E81" t="n">
-        <v>0.257681</v>
+        <v>0.259095</v>
       </c>
       <c r="F81" t="n">
-        <v>0.412681</v>
+        <v>0.412765</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342349</v>
+        <v>0.342816</v>
       </c>
       <c r="C82" t="n">
-        <v>0.651515</v>
+        <v>0.6610279999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.590487</v>
+        <v>0.62521</v>
       </c>
       <c r="E82" t="n">
-        <v>0.255736</v>
+        <v>0.256948</v>
       </c>
       <c r="F82" t="n">
-        <v>0.411646</v>
+        <v>0.411983</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.335882</v>
+        <v>0.336892</v>
       </c>
       <c r="C83" t="n">
-        <v>0.617663</v>
+        <v>0.65351</v>
       </c>
       <c r="D83" t="n">
-        <v>0.588153</v>
+        <v>0.624067</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254345</v>
+        <v>0.255101</v>
       </c>
       <c r="F83" t="n">
-        <v>0.410178</v>
+        <v>0.412976</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.329617</v>
+        <v>0.329414</v>
       </c>
       <c r="C84" t="n">
-        <v>0.588742</v>
+        <v>0.610306</v>
       </c>
       <c r="D84" t="n">
-        <v>0.598838</v>
+        <v>0.6341830000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.253174</v>
+        <v>0.253833</v>
       </c>
       <c r="F84" t="n">
-        <v>0.409179</v>
+        <v>0.409211</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.321411</v>
+        <v>0.322297</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6190099999999999</v>
+        <v>0.680681</v>
       </c>
       <c r="D85" t="n">
-        <v>0.578864</v>
+        <v>0.612882</v>
       </c>
       <c r="E85" t="n">
-        <v>0.251738</v>
+        <v>0.252595</v>
       </c>
       <c r="F85" t="n">
-        <v>0.407658</v>
+        <v>0.407778</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.313371</v>
+        <v>0.313453</v>
       </c>
       <c r="C86" t="n">
-        <v>0.552967</v>
+        <v>0.562453</v>
       </c>
       <c r="D86" t="n">
-        <v>0.570424</v>
+        <v>0.603585</v>
       </c>
       <c r="E86" t="n">
-        <v>0.250887</v>
+        <v>0.251167</v>
       </c>
       <c r="F86" t="n">
-        <v>0.409471</v>
+        <v>0.407412</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.304314</v>
+        <v>0.304221</v>
       </c>
       <c r="C87" t="n">
-        <v>0.570144</v>
+        <v>0.587132</v>
       </c>
       <c r="D87" t="n">
-        <v>0.603044</v>
+        <v>0.630001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.249722</v>
+        <v>0.249875</v>
       </c>
       <c r="F87" t="n">
-        <v>0.407299</v>
+        <v>0.409347</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.294397</v>
+        <v>0.294934</v>
       </c>
       <c r="C88" t="n">
-        <v>0.522354</v>
+        <v>0.531247</v>
       </c>
       <c r="D88" t="n">
-        <v>0.561383</v>
+        <v>0.59422</v>
       </c>
       <c r="E88" t="n">
-        <v>0.248763</v>
+        <v>0.249027</v>
       </c>
       <c r="F88" t="n">
-        <v>0.409348</v>
+        <v>0.409351</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.283869</v>
+        <v>0.284159</v>
       </c>
       <c r="C89" t="n">
-        <v>0.630699</v>
+        <v>0.668672</v>
       </c>
       <c r="D89" t="n">
-        <v>0.563419</v>
+        <v>0.596149</v>
       </c>
       <c r="E89" t="n">
-        <v>0.24784</v>
+        <v>0.248156</v>
       </c>
       <c r="F89" t="n">
-        <v>0.405166</v>
+        <v>0.405801</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.272534</v>
+        <v>0.273044</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5031870000000001</v>
+        <v>0.560649</v>
       </c>
       <c r="D90" t="n">
-        <v>0.560015</v>
+        <v>0.583384</v>
       </c>
       <c r="E90" t="n">
-        <v>0.247802</v>
+        <v>0.247328</v>
       </c>
       <c r="F90" t="n">
-        <v>0.408758</v>
+        <v>0.405128</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.260152</v>
+        <v>0.260738</v>
       </c>
       <c r="C91" t="n">
-        <v>0.459729</v>
+        <v>0.462174</v>
       </c>
       <c r="D91" t="n">
-        <v>0.56038</v>
+        <v>0.579663</v>
       </c>
       <c r="E91" t="n">
-        <v>0.246528</v>
+        <v>0.246889</v>
       </c>
       <c r="F91" t="n">
-        <v>0.408053</v>
+        <v>0.404601</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247156</v>
+        <v>0.247372</v>
       </c>
       <c r="C92" t="n">
-        <v>0.536032</v>
+        <v>0.551607</v>
       </c>
       <c r="D92" t="n">
-        <v>0.619349</v>
+        <v>0.664401</v>
       </c>
       <c r="E92" t="n">
-        <v>0.245883</v>
+        <v>0.246188</v>
       </c>
       <c r="F92" t="n">
-        <v>0.407476</v>
+        <v>0.406098</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23322</v>
+        <v>0.23337</v>
       </c>
       <c r="C93" t="n">
-        <v>0.50929</v>
+        <v>0.532401</v>
       </c>
       <c r="D93" t="n">
-        <v>0.619007</v>
+        <v>0.661222</v>
       </c>
       <c r="E93" t="n">
-        <v>0.244775</v>
+        <v>0.245017</v>
       </c>
       <c r="F93" t="n">
-        <v>0.408614</v>
+        <v>0.405474</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.217719</v>
+        <v>0.218054</v>
       </c>
       <c r="C94" t="n">
-        <v>0.506619</v>
+        <v>0.517241</v>
       </c>
       <c r="D94" t="n">
-        <v>0.602482</v>
+        <v>0.6534180000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>0.260787</v>
+        <v>0.261889</v>
       </c>
       <c r="F94" t="n">
-        <v>0.418961</v>
+        <v>0.414125</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348459</v>
+        <v>0.348893</v>
       </c>
       <c r="C95" t="n">
-        <v>0.705295</v>
+        <v>0.73878</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5987749999999999</v>
+        <v>0.650259</v>
       </c>
       <c r="E95" t="n">
-        <v>0.25843</v>
+        <v>0.25912</v>
       </c>
       <c r="F95" t="n">
-        <v>0.412836</v>
+        <v>0.41265</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343359</v>
+        <v>0.343782</v>
       </c>
       <c r="C96" t="n">
-        <v>0.688686</v>
+        <v>0.715022</v>
       </c>
       <c r="D96" t="n">
-        <v>0.601591</v>
+        <v>0.649017</v>
       </c>
       <c r="E96" t="n">
-        <v>0.256242</v>
+        <v>0.256772</v>
       </c>
       <c r="F96" t="n">
-        <v>0.411385</v>
+        <v>0.411457</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337279</v>
+        <v>0.338107</v>
       </c>
       <c r="C97" t="n">
-        <v>0.66037</v>
+        <v>0.697739</v>
       </c>
       <c r="D97" t="n">
-        <v>0.590909</v>
+        <v>0.634277</v>
       </c>
       <c r="E97" t="n">
-        <v>0.255213</v>
+        <v>0.255675</v>
       </c>
       <c r="F97" t="n">
-        <v>0.410658</v>
+        <v>0.411257</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.330317</v>
+        <v>0.331174</v>
       </c>
       <c r="C98" t="n">
-        <v>0.584541</v>
+        <v>0.582721</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5805709999999999</v>
+        <v>0.625354</v>
       </c>
       <c r="E98" t="n">
-        <v>0.253404</v>
+        <v>0.25387</v>
       </c>
       <c r="F98" t="n">
-        <v>0.409163</v>
+        <v>0.40926</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323418</v>
+        <v>0.323947</v>
       </c>
       <c r="C99" t="n">
-        <v>0.606307</v>
+        <v>0.631784</v>
       </c>
       <c r="D99" t="n">
-        <v>0.578946</v>
+        <v>0.618935</v>
       </c>
       <c r="E99" t="n">
-        <v>0.252066</v>
+        <v>0.252633</v>
       </c>
       <c r="F99" t="n">
-        <v>0.407912</v>
+        <v>0.408226</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.315484</v>
+        <v>0.315872</v>
       </c>
       <c r="C100" t="n">
-        <v>0.591901</v>
+        <v>0.621321</v>
       </c>
       <c r="D100" t="n">
-        <v>0.580018</v>
+        <v>0.622039</v>
       </c>
       <c r="E100" t="n">
-        <v>0.250913</v>
+        <v>0.251301</v>
       </c>
       <c r="F100" t="n">
-        <v>0.40699</v>
+        <v>0.406996</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.306605</v>
+        <v>0.306591</v>
       </c>
       <c r="C101" t="n">
-        <v>0.605337</v>
+        <v>0.623862</v>
       </c>
       <c r="D101" t="n">
-        <v>0.573025</v>
+        <v>0.614829</v>
       </c>
       <c r="E101" t="n">
-        <v>0.249769</v>
+        <v>0.250104</v>
       </c>
       <c r="F101" t="n">
-        <v>0.406031</v>
+        <v>0.406236</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.296571</v>
+        <v>0.296805</v>
       </c>
       <c r="C102" t="n">
-        <v>0.605374</v>
+        <v>0.630298</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5667450000000001</v>
+        <v>0.606765</v>
       </c>
       <c r="E102" t="n">
-        <v>0.249037</v>
+        <v>0.249166</v>
       </c>
       <c r="F102" t="n">
-        <v>0.406411</v>
+        <v>0.405601</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.286008</v>
+        <v>0.286405</v>
       </c>
       <c r="C103" t="n">
-        <v>0.581753</v>
+        <v>0.59931</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5548920000000001</v>
+        <v>0.591676</v>
       </c>
       <c r="E103" t="n">
-        <v>0.248219</v>
+        <v>0.248313</v>
       </c>
       <c r="F103" t="n">
-        <v>0.404782</v>
+        <v>0.404907</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.275089</v>
+        <v>0.275275</v>
       </c>
       <c r="C104" t="n">
-        <v>0.536428</v>
+        <v>0.5558</v>
       </c>
       <c r="D104" t="n">
-        <v>0.552187</v>
+        <v>0.586568</v>
       </c>
       <c r="E104" t="n">
-        <v>0.247246</v>
+        <v>0.247397</v>
       </c>
       <c r="F104" t="n">
-        <v>0.404229</v>
+        <v>0.404534</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.262867</v>
+        <v>0.263041</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5843159999999999</v>
+        <v>0.593266</v>
       </c>
       <c r="D105" t="n">
-        <v>0.546602</v>
+        <v>0.580719</v>
       </c>
       <c r="E105" t="n">
-        <v>0.247256</v>
+        <v>0.24706</v>
       </c>
       <c r="F105" t="n">
-        <v>0.403581</v>
+        <v>0.403791</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250144</v>
+        <v>0.250211</v>
       </c>
       <c r="C106" t="n">
-        <v>0.572484</v>
+        <v>0.600986</v>
       </c>
       <c r="D106" t="n">
-        <v>0.539911</v>
+        <v>0.57136</v>
       </c>
       <c r="E106" t="n">
-        <v>0.245865</v>
+        <v>0.245948</v>
       </c>
       <c r="F106" t="n">
-        <v>0.402994</v>
+        <v>0.403643</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236064</v>
+        <v>0.236353</v>
       </c>
       <c r="C107" t="n">
-        <v>0.521577</v>
+        <v>0.525278</v>
       </c>
       <c r="D107" t="n">
-        <v>0.618424</v>
+        <v>0.662929</v>
       </c>
       <c r="E107" t="n">
-        <v>0.245201</v>
+        <v>0.245545</v>
       </c>
       <c r="F107" t="n">
-        <v>0.40281</v>
+        <v>0.402901</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.221171</v>
+        <v>0.221723</v>
       </c>
       <c r="C108" t="n">
-        <v>0.52277</v>
+        <v>0.540911</v>
       </c>
       <c r="D108" t="n">
-        <v>0.592896</v>
+        <v>0.63209</v>
       </c>
       <c r="E108" t="n">
-        <v>0.26071</v>
+        <v>0.261591</v>
       </c>
       <c r="F108" t="n">
-        <v>0.416635</v>
+        <v>0.417194</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.204541</v>
+        <v>0.205003</v>
       </c>
       <c r="C109" t="n">
-        <v>0.488201</v>
+        <v>0.519694</v>
       </c>
       <c r="D109" t="n">
-        <v>0.616567</v>
+        <v>0.657967</v>
       </c>
       <c r="E109" t="n">
-        <v>0.25849</v>
+        <v>0.259109</v>
       </c>
       <c r="F109" t="n">
-        <v>0.413863</v>
+        <v>0.413433</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344024</v>
+        <v>0.344635</v>
       </c>
       <c r="C110" t="n">
-        <v>0.647081</v>
+        <v>0.660125</v>
       </c>
       <c r="D110" t="n">
-        <v>0.588495</v>
+        <v>0.627499</v>
       </c>
       <c r="E110" t="n">
-        <v>0.256447</v>
+        <v>0.25708</v>
       </c>
       <c r="F110" t="n">
-        <v>0.413182</v>
+        <v>0.412315</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338105</v>
+        <v>0.338776</v>
       </c>
       <c r="C111" t="n">
-        <v>0.59523</v>
+        <v>0.623731</v>
       </c>
       <c r="D111" t="n">
-        <v>0.587209</v>
+        <v>0.62534</v>
       </c>
       <c r="E111" t="n">
-        <v>0.254894</v>
+        <v>0.255371</v>
       </c>
       <c r="F111" t="n">
-        <v>0.410801</v>
+        <v>0.411343</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.331659</v>
+        <v>0.331875</v>
       </c>
       <c r="C112" t="n">
-        <v>0.542119</v>
+        <v>0.5630270000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.582829</v>
+        <v>0.620983</v>
       </c>
       <c r="E112" t="n">
-        <v>0.253566</v>
+        <v>0.254023</v>
       </c>
       <c r="F112" t="n">
-        <v>0.412738</v>
+        <v>0.413663</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.32522</v>
+        <v>0.325693</v>
       </c>
       <c r="C113" t="n">
-        <v>0.583432</v>
+        <v>0.602008</v>
       </c>
       <c r="D113" t="n">
-        <v>0.590164</v>
+        <v>0.629957</v>
       </c>
       <c r="E113" t="n">
-        <v>0.252285</v>
+        <v>0.252572</v>
       </c>
       <c r="F113" t="n">
-        <v>0.409593</v>
+        <v>0.410567</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31653</v>
+        <v>0.317599</v>
       </c>
       <c r="C114" t="n">
-        <v>0.587941</v>
+        <v>0.6018790000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5823970000000001</v>
+        <v>0.621308</v>
       </c>
       <c r="E114" t="n">
-        <v>0.251046</v>
+        <v>0.251384</v>
       </c>
       <c r="F114" t="n">
-        <v>0.411031</v>
+        <v>0.410323</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307868</v>
+        <v>0.307815</v>
       </c>
       <c r="C115" t="n">
-        <v>0.573835</v>
+        <v>0.598404</v>
       </c>
       <c r="D115" t="n">
-        <v>0.576569</v>
+        <v>0.612419</v>
       </c>
       <c r="E115" t="n">
-        <v>0.250027</v>
+        <v>0.250265</v>
       </c>
       <c r="F115" t="n">
-        <v>0.406722</v>
+        <v>0.409301</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.298731</v>
+        <v>0.298699</v>
       </c>
       <c r="C116" t="n">
-        <v>0.657013</v>
+        <v>0.694266</v>
       </c>
       <c r="D116" t="n">
-        <v>0.568099</v>
+        <v>0.604092</v>
       </c>
       <c r="E116" t="n">
-        <v>0.249158</v>
+        <v>0.249312</v>
       </c>
       <c r="F116" t="n">
-        <v>0.405726</v>
+        <v>0.406042</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288071</v>
+        <v>0.287971</v>
       </c>
       <c r="C117" t="n">
-        <v>0.565466</v>
+        <v>0.60829</v>
       </c>
       <c r="D117" t="n">
-        <v>0.558543</v>
+        <v>0.592307</v>
       </c>
       <c r="E117" t="n">
-        <v>0.248161</v>
+        <v>0.248446</v>
       </c>
       <c r="F117" t="n">
-        <v>0.405869</v>
+        <v>0.407848</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277099</v>
+        <v>0.276807</v>
       </c>
       <c r="C118" t="n">
-        <v>0.567766</v>
+        <v>0.589808</v>
       </c>
       <c r="D118" t="n">
-        <v>0.554787</v>
+        <v>0.587871</v>
       </c>
       <c r="E118" t="n">
-        <v>0.247499</v>
+        <v>0.246249</v>
       </c>
       <c r="F118" t="n">
-        <v>0.406972</v>
+        <v>0.405062</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.265</v>
+        <v>0.264989</v>
       </c>
       <c r="C119" t="n">
-        <v>0.540308</v>
+        <v>0.5656369999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.549244</v>
+        <v>0.57992</v>
       </c>
       <c r="E119" t="n">
-        <v>0.246857</v>
+        <v>0.246963</v>
       </c>
       <c r="F119" t="n">
-        <v>0.403757</v>
+        <v>0.403958</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.252452</v>
+        <v>0.252758</v>
       </c>
       <c r="C120" t="n">
-        <v>0.55591</v>
+        <v>0.599526</v>
       </c>
       <c r="D120" t="n">
-        <v>0.545484</v>
+        <v>0.57361</v>
       </c>
       <c r="E120" t="n">
-        <v>0.246186</v>
+        <v>0.246225</v>
       </c>
       <c r="F120" t="n">
-        <v>0.407087</v>
+        <v>0.407529</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.238956</v>
+        <v>0.23916</v>
       </c>
       <c r="C121" t="n">
-        <v>0.490897</v>
+        <v>0.503918</v>
       </c>
       <c r="D121" t="n">
-        <v>0.611205</v>
+        <v>0.652012</v>
       </c>
       <c r="E121" t="n">
-        <v>0.24544</v>
+        <v>0.245587</v>
       </c>
       <c r="F121" t="n">
-        <v>0.406361</v>
+        <v>0.407015</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.22401</v>
+        <v>0.224268</v>
       </c>
       <c r="C122" t="n">
-        <v>0.437354</v>
+        <v>0.440775</v>
       </c>
       <c r="D122" t="n">
-        <v>0.632232</v>
+        <v>0.681595</v>
       </c>
       <c r="E122" t="n">
-        <v>0.244807</v>
+        <v>0.24517</v>
       </c>
       <c r="F122" t="n">
-        <v>0.40251</v>
+        <v>0.402828</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.208342</v>
+        <v>0.208628</v>
       </c>
       <c r="C123" t="n">
-        <v>0.450379</v>
+        <v>0.450953</v>
       </c>
       <c r="D123" t="n">
-        <v>0.627908</v>
+        <v>0.67552</v>
       </c>
       <c r="E123" t="n">
-        <v>0.25883</v>
+        <v>0.259379</v>
       </c>
       <c r="F123" t="n">
-        <v>0.413206</v>
+        <v>0.413633</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345325</v>
+        <v>0.345405</v>
       </c>
       <c r="C124" t="n">
-        <v>0.675821</v>
+        <v>0.716025</v>
       </c>
       <c r="D124" t="n">
-        <v>0.617716</v>
+        <v>0.664662</v>
       </c>
       <c r="E124" t="n">
-        <v>0.257348</v>
+        <v>0.257805</v>
       </c>
       <c r="F124" t="n">
-        <v>0.411728</v>
+        <v>0.412043</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.33924</v>
+        <v>0.339268</v>
       </c>
       <c r="C125" t="n">
-        <v>0.57799</v>
+        <v>0.593978</v>
       </c>
       <c r="D125" t="n">
-        <v>0.611846</v>
+        <v>0.657706</v>
       </c>
       <c r="E125" t="n">
-        <v>0.255653</v>
+        <v>0.256137</v>
       </c>
       <c r="F125" t="n">
-        <v>0.410458</v>
+        <v>0.410834</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.332581</v>
+        <v>0.333423</v>
       </c>
       <c r="C126" t="n">
-        <v>0.680409</v>
+        <v>0.71152</v>
       </c>
       <c r="D126" t="n">
-        <v>0.605549</v>
+        <v>0.652629</v>
       </c>
       <c r="E126" t="n">
-        <v>0.25417</v>
+        <v>0.254523</v>
       </c>
       <c r="F126" t="n">
-        <v>0.409455</v>
+        <v>0.409598</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.325602</v>
+        <v>0.327135</v>
       </c>
       <c r="C127" t="n">
-        <v>0.590542</v>
+        <v>0.620601</v>
       </c>
       <c r="D127" t="n">
-        <v>0.590526</v>
+        <v>0.631472</v>
       </c>
       <c r="E127" t="n">
-        <v>0.252961</v>
+        <v>0.25324</v>
       </c>
       <c r="F127" t="n">
-        <v>0.410232</v>
+        <v>0.408973</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.317831</v>
+        <v>0.318357</v>
       </c>
       <c r="C128" t="n">
-        <v>0.621681</v>
+        <v>0.648394</v>
       </c>
       <c r="D128" t="n">
-        <v>0.585121</v>
+        <v>0.624395</v>
       </c>
       <c r="E128" t="n">
-        <v>0.251757</v>
+        <v>0.252151</v>
       </c>
       <c r="F128" t="n">
-        <v>0.407555</v>
+        <v>0.407597</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309206</v>
+        <v>0.310119</v>
       </c>
       <c r="C129" t="n">
-        <v>0.554409</v>
+        <v>0.5694979999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.57901</v>
+        <v>0.618344</v>
       </c>
       <c r="E129" t="n">
-        <v>0.250549</v>
+        <v>0.250951</v>
       </c>
       <c r="F129" t="n">
-        <v>0.408075</v>
+        <v>0.409233</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.29973</v>
+        <v>0.299977</v>
       </c>
       <c r="C130" t="n">
-        <v>0.555985</v>
+        <v>0.577537</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5697719999999999</v>
+        <v>0.607784</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249671</v>
+        <v>0.249935</v>
       </c>
       <c r="F130" t="n">
-        <v>0.408332</v>
+        <v>0.406719</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289489</v>
+        <v>0.290237</v>
       </c>
       <c r="C131" t="n">
-        <v>0.557404</v>
+        <v>0.575913</v>
       </c>
       <c r="D131" t="n">
-        <v>0.567975</v>
+        <v>0.6049099999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.248778</v>
+        <v>0.249048</v>
       </c>
       <c r="F131" t="n">
-        <v>0.405053</v>
+        <v>0.405031</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278417</v>
+        <v>0.278845</v>
       </c>
       <c r="C132" t="n">
-        <v>0.553181</v>
+        <v>0.540551</v>
       </c>
       <c r="D132" t="n">
-        <v>0.561775</v>
+        <v>0.597882</v>
       </c>
       <c r="E132" t="n">
-        <v>0.247647</v>
+        <v>0.247698</v>
       </c>
       <c r="F132" t="n">
-        <v>0.404493</v>
+        <v>0.404645</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266903</v>
+        <v>0.266961</v>
       </c>
       <c r="C133" t="n">
-        <v>0.562225</v>
+        <v>0.6181219999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.554721</v>
+        <v>0.589522</v>
       </c>
       <c r="E133" t="n">
-        <v>0.24671</v>
+        <v>0.24709</v>
       </c>
       <c r="F133" t="n">
-        <v>0.40457</v>
+        <v>0.404343</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.254243</v>
+        <v>0.254596</v>
       </c>
       <c r="C134" t="n">
-        <v>0.48651</v>
+        <v>0.503241</v>
       </c>
       <c r="D134" t="n">
-        <v>0.547358</v>
+        <v>0.5809800000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>0.24603</v>
+        <v>0.246212</v>
       </c>
       <c r="F134" t="n">
-        <v>0.403776</v>
+        <v>0.404011</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.240914</v>
+        <v>0.240936</v>
       </c>
       <c r="C135" t="n">
-        <v>0.522312</v>
+        <v>0.541127</v>
       </c>
       <c r="D135" t="n">
-        <v>0.639194</v>
+        <v>0.69023</v>
       </c>
       <c r="E135" t="n">
-        <v>0.245574</v>
+        <v>0.245712</v>
       </c>
       <c r="F135" t="n">
-        <v>0.403638</v>
+        <v>0.403473</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.226778</v>
+        <v>0.226933</v>
       </c>
       <c r="C136" t="n">
-        <v>0.514517</v>
+        <v>0.538752</v>
       </c>
       <c r="D136" t="n">
-        <v>0.631703</v>
+        <v>0.681317</v>
       </c>
       <c r="E136" t="n">
-        <v>0.244811</v>
+        <v>0.245166</v>
       </c>
       <c r="F136" t="n">
-        <v>0.403118</v>
+        <v>0.403282</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.21116</v>
+        <v>0.211441</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5304720000000001</v>
+        <v>0.577193</v>
       </c>
       <c r="D137" t="n">
-        <v>0.612519</v>
+        <v>0.654797</v>
       </c>
       <c r="E137" t="n">
-        <v>0.259147</v>
+        <v>0.25969</v>
       </c>
       <c r="F137" t="n">
-        <v>0.414851</v>
+        <v>0.414565</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.345847</v>
+        <v>0.3467</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6626</v>
+        <v>0.710754</v>
       </c>
       <c r="D138" t="n">
-        <v>0.607593</v>
+        <v>0.653169</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257072</v>
+        <v>0.257344</v>
       </c>
       <c r="F138" t="n">
-        <v>0.412831</v>
+        <v>0.413164</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.340864</v>
+        <v>0.341123</v>
       </c>
       <c r="C139" t="n">
-        <v>0.523214</v>
+        <v>0.523409</v>
       </c>
       <c r="D139" t="n">
-        <v>0.602603</v>
+        <v>0.647817</v>
       </c>
       <c r="E139" t="n">
-        <v>0.255889</v>
+        <v>0.255997</v>
       </c>
       <c r="F139" t="n">
-        <v>0.411849</v>
+        <v>0.411931</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.333771</v>
+        <v>0.334395</v>
       </c>
       <c r="C140" t="n">
-        <v>0.628594</v>
+        <v>0.656698</v>
       </c>
       <c r="D140" t="n">
-        <v>0.600112</v>
+        <v>0.646786</v>
       </c>
       <c r="E140" t="n">
-        <v>0.254448</v>
+        <v>0.254633</v>
       </c>
       <c r="F140" t="n">
-        <v>0.411272</v>
+        <v>0.411183</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.32706</v>
+        <v>0.327694</v>
       </c>
       <c r="C141" t="n">
-        <v>0.68374</v>
+        <v>0.712302</v>
       </c>
       <c r="D141" t="n">
-        <v>0.606405</v>
+        <v>0.649613</v>
       </c>
       <c r="E141" t="n">
-        <v>0.252933</v>
+        <v>0.253227</v>
       </c>
       <c r="F141" t="n">
-        <v>0.409413</v>
+        <v>0.409084</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.320364</v>
+        <v>0.319995</v>
       </c>
       <c r="C142" t="n">
-        <v>0.687107</v>
+        <v>0.7058140000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.589228</v>
+        <v>0.63334</v>
       </c>
       <c r="E142" t="n">
-        <v>0.25182</v>
+        <v>0.252077</v>
       </c>
       <c r="F142" t="n">
-        <v>0.409606</v>
+        <v>0.408439</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311226</v>
+        <v>0.311461</v>
       </c>
       <c r="C143" t="n">
-        <v>0.60734</v>
+        <v>0.631368</v>
       </c>
       <c r="D143" t="n">
-        <v>0.59034</v>
+        <v>0.629198</v>
       </c>
       <c r="E143" t="n">
-        <v>0.25082</v>
+        <v>0.251162</v>
       </c>
       <c r="F143" t="n">
-        <v>0.408525</v>
+        <v>0.409163</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.266446</v>
+        <v>0.262866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.448756</v>
+        <v>0.450606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.387885</v>
+        <v>0.38734</v>
       </c>
       <c r="E2" t="n">
-        <v>0.219287</v>
+        <v>0.220118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.396792</v>
+        <v>0.399255</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.254823</v>
+        <v>0.253412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.443832</v>
+        <v>0.445305</v>
       </c>
       <c r="D3" t="n">
-        <v>0.386638</v>
+        <v>0.387665</v>
       </c>
       <c r="E3" t="n">
-        <v>0.221867</v>
+        <v>0.221657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.396658</v>
+        <v>0.399888</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245583</v>
+        <v>0.24649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.436036</v>
+        <v>0.438739</v>
       </c>
       <c r="D4" t="n">
-        <v>0.387586</v>
+        <v>0.389695</v>
       </c>
       <c r="E4" t="n">
-        <v>0.222957</v>
+        <v>0.223607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.396855</v>
+        <v>0.402369</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237637</v>
+        <v>0.239077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.421052</v>
+        <v>0.42454</v>
       </c>
       <c r="D5" t="n">
-        <v>0.388253</v>
+        <v>0.39067</v>
       </c>
       <c r="E5" t="n">
-        <v>0.22594</v>
+        <v>0.225928</v>
       </c>
       <c r="F5" t="n">
-        <v>0.397279</v>
+        <v>0.399915</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228707</v>
+        <v>0.227746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.412544</v>
+        <v>0.412334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.388384</v>
+        <v>0.388964</v>
       </c>
       <c r="E6" t="n">
-        <v>0.226338</v>
+        <v>0.227055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.394904</v>
+        <v>0.395447</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.21724</v>
+        <v>0.216354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.405502</v>
+        <v>0.405331</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389344</v>
+        <v>0.387643</v>
       </c>
       <c r="E7" t="n">
-        <v>0.227629</v>
+        <v>0.22828</v>
       </c>
       <c r="F7" t="n">
-        <v>0.396645</v>
+        <v>0.397577</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.20354</v>
+        <v>0.203725</v>
       </c>
       <c r="C8" t="n">
-        <v>0.390555</v>
+        <v>0.392935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.390705</v>
+        <v>0.392782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.23005</v>
+        <v>0.229823</v>
       </c>
       <c r="F8" t="n">
-        <v>0.395401</v>
+        <v>0.398266</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.19022</v>
+        <v>0.188555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.371715</v>
+        <v>0.371145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.390683</v>
+        <v>0.389776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.249203</v>
+        <v>0.248967</v>
       </c>
       <c r="F9" t="n">
-        <v>0.40666</v>
+        <v>0.406406</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.331221</v>
+        <v>0.331048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.502524</v>
+        <v>0.502049</v>
       </c>
       <c r="D10" t="n">
-        <v>0.388977</v>
+        <v>0.387602</v>
       </c>
       <c r="E10" t="n">
-        <v>0.249572</v>
+        <v>0.248834</v>
       </c>
       <c r="F10" t="n">
-        <v>0.405984</v>
+        <v>0.405981</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324543</v>
+        <v>0.323348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.498982</v>
+        <v>0.498626</v>
       </c>
       <c r="D11" t="n">
-        <v>0.389528</v>
+        <v>0.388773</v>
       </c>
       <c r="E11" t="n">
-        <v>0.248944</v>
+        <v>0.248437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.40552</v>
+        <v>0.405682</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.317707</v>
+        <v>0.317067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.49284</v>
+        <v>0.492752</v>
       </c>
       <c r="D12" t="n">
-        <v>0.391208</v>
+        <v>0.39088</v>
       </c>
       <c r="E12" t="n">
-        <v>0.248475</v>
+        <v>0.247749</v>
       </c>
       <c r="F12" t="n">
-        <v>0.406901</v>
+        <v>0.405265</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.312507</v>
+        <v>0.309827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.48679</v>
+        <v>0.486992</v>
       </c>
       <c r="D13" t="n">
-        <v>0.39219</v>
+        <v>0.391473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.247461</v>
+        <v>0.247117</v>
       </c>
       <c r="F13" t="n">
-        <v>0.404458</v>
+        <v>0.404428</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.302329</v>
+        <v>0.302336</v>
       </c>
       <c r="C14" t="n">
-        <v>0.477895</v>
+        <v>0.477526</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392849</v>
+        <v>0.392804</v>
       </c>
       <c r="E14" t="n">
-        <v>0.24579</v>
+        <v>0.245553</v>
       </c>
       <c r="F14" t="n">
-        <v>0.403319</v>
+        <v>0.40346</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.293123</v>
+        <v>0.293112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.473471</v>
+        <v>0.472526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.39391</v>
+        <v>0.393063</v>
       </c>
       <c r="E15" t="n">
-        <v>0.245231</v>
+        <v>0.245246</v>
       </c>
       <c r="F15" t="n">
-        <v>0.40272</v>
+        <v>0.402421</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.286097</v>
+        <v>0.28625</v>
       </c>
       <c r="C16" t="n">
-        <v>0.45624</v>
+        <v>0.456679</v>
       </c>
       <c r="D16" t="n">
-        <v>0.395667</v>
+        <v>0.39355</v>
       </c>
       <c r="E16" t="n">
-        <v>0.244934</v>
+        <v>0.244871</v>
       </c>
       <c r="F16" t="n">
-        <v>0.400942</v>
+        <v>0.401336</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.280492</v>
+        <v>0.277716</v>
       </c>
       <c r="C17" t="n">
-        <v>0.452225</v>
+        <v>0.452844</v>
       </c>
       <c r="D17" t="n">
-        <v>0.394852</v>
+        <v>0.395497</v>
       </c>
       <c r="E17" t="n">
-        <v>0.244912</v>
+        <v>0.244729</v>
       </c>
       <c r="F17" t="n">
-        <v>0.400624</v>
+        <v>0.400848</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.269221</v>
+        <v>0.269343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.451305</v>
+        <v>0.451408</v>
       </c>
       <c r="D18" t="n">
-        <v>0.394538</v>
+        <v>0.394256</v>
       </c>
       <c r="E18" t="n">
-        <v>0.243996</v>
+        <v>0.243577</v>
       </c>
       <c r="F18" t="n">
-        <v>0.401514</v>
+        <v>0.401967</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258408</v>
+        <v>0.259509</v>
       </c>
       <c r="C19" t="n">
-        <v>0.437468</v>
+        <v>0.436929</v>
       </c>
       <c r="D19" t="n">
-        <v>0.395529</v>
+        <v>0.395563</v>
       </c>
       <c r="E19" t="n">
-        <v>0.243436</v>
+        <v>0.244315</v>
       </c>
       <c r="F19" t="n">
-        <v>0.402097</v>
+        <v>0.40207</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247962</v>
+        <v>0.24697</v>
       </c>
       <c r="C20" t="n">
-        <v>0.425</v>
+        <v>0.427471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.395479</v>
+        <v>0.396506</v>
       </c>
       <c r="E20" t="n">
-        <v>0.242306</v>
+        <v>0.242952</v>
       </c>
       <c r="F20" t="n">
-        <v>0.399729</v>
+        <v>0.399889</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.235599</v>
+        <v>0.235828</v>
       </c>
       <c r="C21" t="n">
-        <v>0.407816</v>
+        <v>0.408086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.397438</v>
+        <v>0.397346</v>
       </c>
       <c r="E21" t="n">
-        <v>0.241669</v>
+        <v>0.2419</v>
       </c>
       <c r="F21" t="n">
-        <v>0.398804</v>
+        <v>0.398652</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221281</v>
+        <v>0.221493</v>
       </c>
       <c r="C22" t="n">
-        <v>0.400127</v>
+        <v>0.399767</v>
       </c>
       <c r="D22" t="n">
-        <v>0.395647</v>
+        <v>0.3964</v>
       </c>
       <c r="E22" t="n">
-        <v>0.242213</v>
+        <v>0.242521</v>
       </c>
       <c r="F22" t="n">
-        <v>0.401222</v>
+        <v>0.401356</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.206838</v>
+        <v>0.206043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.386131</v>
+        <v>0.385465</v>
       </c>
       <c r="D23" t="n">
-        <v>0.395421</v>
+        <v>0.395779</v>
       </c>
       <c r="E23" t="n">
-        <v>0.258499</v>
+        <v>0.258313</v>
       </c>
       <c r="F23" t="n">
-        <v>0.411306</v>
+        <v>0.410929</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340971</v>
+        <v>0.340243</v>
       </c>
       <c r="C24" t="n">
-        <v>0.503255</v>
+        <v>0.502992</v>
       </c>
       <c r="D24" t="n">
-        <v>0.39612</v>
+        <v>0.395903</v>
       </c>
       <c r="E24" t="n">
-        <v>0.255508</v>
+        <v>0.256317</v>
       </c>
       <c r="F24" t="n">
-        <v>0.410478</v>
+        <v>0.410382</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335301</v>
+        <v>0.335344</v>
       </c>
       <c r="C25" t="n">
-        <v>0.503117</v>
+        <v>0.50261</v>
       </c>
       <c r="D25" t="n">
-        <v>0.396822</v>
+        <v>0.396808</v>
       </c>
       <c r="E25" t="n">
-        <v>0.255161</v>
+        <v>0.254907</v>
       </c>
       <c r="F25" t="n">
-        <v>0.409953</v>
+        <v>0.409753</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.329711</v>
+        <v>0.329444</v>
       </c>
       <c r="C26" t="n">
-        <v>0.498437</v>
+        <v>0.497407</v>
       </c>
       <c r="D26" t="n">
-        <v>0.397146</v>
+        <v>0.395887</v>
       </c>
       <c r="E26" t="n">
-        <v>0.253166</v>
+        <v>0.253807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4095</v>
+        <v>0.409339</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.322922</v>
+        <v>0.320205</v>
       </c>
       <c r="C27" t="n">
-        <v>0.482651</v>
+        <v>0.482395</v>
       </c>
       <c r="D27" t="n">
-        <v>0.396326</v>
+        <v>0.397416</v>
       </c>
       <c r="E27" t="n">
-        <v>0.251535</v>
+        <v>0.251942</v>
       </c>
       <c r="F27" t="n">
-        <v>0.40812</v>
+        <v>0.407854</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314804</v>
+        <v>0.31286</v>
       </c>
       <c r="C28" t="n">
-        <v>0.480799</v>
+        <v>0.481105</v>
       </c>
       <c r="D28" t="n">
-        <v>0.395546</v>
+        <v>0.396313</v>
       </c>
       <c r="E28" t="n">
-        <v>0.251268</v>
+        <v>0.251628</v>
       </c>
       <c r="F28" t="n">
-        <v>0.406971</v>
+        <v>0.406782</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.30628</v>
+        <v>0.306471</v>
       </c>
       <c r="C29" t="n">
-        <v>0.480198</v>
+        <v>0.480153</v>
       </c>
       <c r="D29" t="n">
-        <v>0.396233</v>
+        <v>0.396603</v>
       </c>
       <c r="E29" t="n">
-        <v>0.250131</v>
+        <v>0.250202</v>
       </c>
       <c r="F29" t="n">
-        <v>0.405799</v>
+        <v>0.405875</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.298088</v>
+        <v>0.296925</v>
       </c>
       <c r="C30" t="n">
-        <v>0.465547</v>
+        <v>0.46511</v>
       </c>
       <c r="D30" t="n">
-        <v>0.398069</v>
+        <v>0.397742</v>
       </c>
       <c r="E30" t="n">
-        <v>0.249224</v>
+        <v>0.24929</v>
       </c>
       <c r="F30" t="n">
-        <v>0.405111</v>
+        <v>0.405203</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.288617</v>
+        <v>0.288126</v>
       </c>
       <c r="C31" t="n">
-        <v>0.450643</v>
+        <v>0.450353</v>
       </c>
       <c r="D31" t="n">
-        <v>0.398942</v>
+        <v>0.399385</v>
       </c>
       <c r="E31" t="n">
-        <v>0.248258</v>
+        <v>0.248115</v>
       </c>
       <c r="F31" t="n">
-        <v>0.404015</v>
+        <v>0.404436</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279168</v>
+        <v>0.279262</v>
       </c>
       <c r="C32" t="n">
-        <v>0.455163</v>
+        <v>0.453659</v>
       </c>
       <c r="D32" t="n">
-        <v>0.398281</v>
+        <v>0.398567</v>
       </c>
       <c r="E32" t="n">
-        <v>0.247984</v>
+        <v>0.247986</v>
       </c>
       <c r="F32" t="n">
-        <v>0.403205</v>
+        <v>0.403466</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.269024</v>
+        <v>0.268302</v>
       </c>
       <c r="C33" t="n">
-        <v>0.43802</v>
+        <v>0.437496</v>
       </c>
       <c r="D33" t="n">
-        <v>0.399089</v>
+        <v>0.399005</v>
       </c>
       <c r="E33" t="n">
-        <v>0.246691</v>
+        <v>0.246599</v>
       </c>
       <c r="F33" t="n">
-        <v>0.402603</v>
+        <v>0.402758</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.257613</v>
+        <v>0.257575</v>
       </c>
       <c r="C34" t="n">
-        <v>0.423151</v>
+        <v>0.422774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.398956</v>
+        <v>0.398795</v>
       </c>
       <c r="E34" t="n">
-        <v>0.24629</v>
+        <v>0.246199</v>
       </c>
       <c r="F34" t="n">
-        <v>0.402056</v>
+        <v>0.401989</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.244334</v>
+        <v>0.244496</v>
       </c>
       <c r="C35" t="n">
-        <v>0.408277</v>
+        <v>0.407561</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401444</v>
+        <v>0.402899</v>
       </c>
       <c r="E35" t="n">
-        <v>0.245426</v>
+        <v>0.24525</v>
       </c>
       <c r="F35" t="n">
-        <v>0.40152</v>
+        <v>0.401402</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230046</v>
+        <v>0.230026</v>
       </c>
       <c r="C36" t="n">
-        <v>0.396785</v>
+        <v>0.396414</v>
       </c>
       <c r="D36" t="n">
-        <v>0.402161</v>
+        <v>0.40273</v>
       </c>
       <c r="E36" t="n">
-        <v>0.244059</v>
+        <v>0.244327</v>
       </c>
       <c r="F36" t="n">
-        <v>0.401455</v>
+        <v>0.401515</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213958</v>
+        <v>0.213474</v>
       </c>
       <c r="C37" t="n">
-        <v>0.395104</v>
+        <v>0.394651</v>
       </c>
       <c r="D37" t="n">
-        <v>0.402128</v>
+        <v>0.402489</v>
       </c>
       <c r="E37" t="n">
-        <v>0.258579</v>
+        <v>0.258766</v>
       </c>
       <c r="F37" t="n">
-        <v>0.413106</v>
+        <v>0.412509</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.345463</v>
+        <v>0.345027</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5052179999999999</v>
+        <v>0.5059900000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.402166</v>
+        <v>0.402409</v>
       </c>
       <c r="E38" t="n">
-        <v>0.256007</v>
+        <v>0.256894</v>
       </c>
       <c r="F38" t="n">
-        <v>0.411695</v>
+        <v>0.411692</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.340646</v>
+        <v>0.340659</v>
       </c>
       <c r="C39" t="n">
-        <v>0.500372</v>
+        <v>0.500335</v>
       </c>
       <c r="D39" t="n">
-        <v>0.401961</v>
+        <v>0.40052</v>
       </c>
       <c r="E39" t="n">
-        <v>0.25439</v>
+        <v>0.254463</v>
       </c>
       <c r="F39" t="n">
-        <v>0.409826</v>
+        <v>0.409682</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335204</v>
+        <v>0.335368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.495429</v>
+        <v>0.495304</v>
       </c>
       <c r="D40" t="n">
-        <v>0.401045</v>
+        <v>0.399828</v>
       </c>
       <c r="E40" t="n">
-        <v>0.253887</v>
+        <v>0.253923</v>
       </c>
       <c r="F40" t="n">
-        <v>0.409417</v>
+        <v>0.409478</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.328674</v>
+        <v>0.328567</v>
       </c>
       <c r="C41" t="n">
-        <v>0.486999</v>
+        <v>0.487004</v>
       </c>
       <c r="D41" t="n">
-        <v>0.399681</v>
+        <v>0.400207</v>
       </c>
       <c r="E41" t="n">
-        <v>0.252727</v>
+        <v>0.252467</v>
       </c>
       <c r="F41" t="n">
-        <v>0.408804</v>
+        <v>0.408658</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322653</v>
+        <v>0.321598</v>
       </c>
       <c r="C42" t="n">
-        <v>0.480327</v>
+        <v>0.481258</v>
       </c>
       <c r="D42" t="n">
-        <v>0.401051</v>
+        <v>0.399826</v>
       </c>
       <c r="E42" t="n">
-        <v>0.251717</v>
+        <v>0.251529</v>
       </c>
       <c r="F42" t="n">
-        <v>0.407709</v>
+        <v>0.407469</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.314831</v>
+        <v>0.312873</v>
       </c>
       <c r="C43" t="n">
-        <v>0.474835</v>
+        <v>0.47517</v>
       </c>
       <c r="D43" t="n">
-        <v>0.40081</v>
+        <v>0.399962</v>
       </c>
       <c r="E43" t="n">
-        <v>0.250728</v>
+        <v>0.250779</v>
       </c>
       <c r="F43" t="n">
-        <v>0.406692</v>
+        <v>0.40663</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.305657</v>
+        <v>0.30556</v>
       </c>
       <c r="C44" t="n">
-        <v>0.469441</v>
+        <v>0.469434</v>
       </c>
       <c r="D44" t="n">
-        <v>0.400038</v>
+        <v>0.400353</v>
       </c>
       <c r="E44" t="n">
-        <v>0.249278</v>
+        <v>0.249282</v>
       </c>
       <c r="F44" t="n">
-        <v>0.405315</v>
+        <v>0.405331</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.296604</v>
+        <v>0.29521</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4581</v>
+        <v>0.456864</v>
       </c>
       <c r="D45" t="n">
-        <v>0.400905</v>
+        <v>0.401734</v>
       </c>
       <c r="E45" t="n">
-        <v>0.24809</v>
+        <v>0.24819</v>
       </c>
       <c r="F45" t="n">
-        <v>0.405025</v>
+        <v>0.404914</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.285276</v>
+        <v>0.28538</v>
       </c>
       <c r="C46" t="n">
-        <v>0.453688</v>
+        <v>0.453714</v>
       </c>
       <c r="D46" t="n">
-        <v>0.401236</v>
+        <v>0.403595</v>
       </c>
       <c r="E46" t="n">
-        <v>0.247291</v>
+        <v>0.247333</v>
       </c>
       <c r="F46" t="n">
-        <v>0.404139</v>
+        <v>0.404183</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.274</v>
+        <v>0.274025</v>
       </c>
       <c r="C47" t="n">
-        <v>0.456006</v>
+        <v>0.45632</v>
       </c>
       <c r="D47" t="n">
-        <v>0.401266</v>
+        <v>0.40216</v>
       </c>
       <c r="E47" t="n">
-        <v>0.246475</v>
+        <v>0.246384</v>
       </c>
       <c r="F47" t="n">
-        <v>0.402932</v>
+        <v>0.403095</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.262803</v>
+        <v>0.262869</v>
       </c>
       <c r="C48" t="n">
-        <v>0.428621</v>
+        <v>0.430985</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402142</v>
+        <v>0.40348</v>
       </c>
       <c r="E48" t="n">
-        <v>0.24614</v>
+        <v>0.245791</v>
       </c>
       <c r="F48" t="n">
-        <v>0.402486</v>
+        <v>0.40272</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.249454</v>
+        <v>0.249531</v>
       </c>
       <c r="C49" t="n">
-        <v>0.411728</v>
+        <v>0.412116</v>
       </c>
       <c r="D49" t="n">
-        <v>0.402634</v>
+        <v>0.404481</v>
       </c>
       <c r="E49" t="n">
-        <v>0.245683</v>
+        <v>0.245436</v>
       </c>
       <c r="F49" t="n">
-        <v>0.40261</v>
+        <v>0.402649</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235465</v>
+        <v>0.235453</v>
       </c>
       <c r="C50" t="n">
-        <v>0.406257</v>
+        <v>0.407741</v>
       </c>
       <c r="D50" t="n">
-        <v>0.409763</v>
+        <v>0.412156</v>
       </c>
       <c r="E50" t="n">
-        <v>0.242749</v>
+        <v>0.244476</v>
       </c>
       <c r="F50" t="n">
-        <v>0.401578</v>
+        <v>0.401579</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220133</v>
+        <v>0.219975</v>
       </c>
       <c r="C51" t="n">
-        <v>0.392055</v>
+        <v>0.393571</v>
       </c>
       <c r="D51" t="n">
-        <v>0.408028</v>
+        <v>0.410714</v>
       </c>
       <c r="E51" t="n">
-        <v>0.259088</v>
+        <v>0.259249</v>
       </c>
       <c r="F51" t="n">
-        <v>0.413965</v>
+        <v>0.418564</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.204974</v>
+        <v>0.204985</v>
       </c>
       <c r="C52" t="n">
-        <v>0.385745</v>
+        <v>0.389972</v>
       </c>
       <c r="D52" t="n">
-        <v>0.406494</v>
+        <v>0.411629</v>
       </c>
       <c r="E52" t="n">
-        <v>0.257534</v>
+        <v>0.255653</v>
       </c>
       <c r="F52" t="n">
-        <v>0.412627</v>
+        <v>0.417011</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345381</v>
+        <v>0.345235</v>
       </c>
       <c r="C53" t="n">
-        <v>0.507476</v>
+        <v>0.511733</v>
       </c>
       <c r="D53" t="n">
-        <v>0.404266</v>
+        <v>0.409465</v>
       </c>
       <c r="E53" t="n">
-        <v>0.255688</v>
+        <v>0.256146</v>
       </c>
       <c r="F53" t="n">
-        <v>0.413223</v>
+        <v>0.416381</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.338549</v>
+        <v>0.338739</v>
       </c>
       <c r="C54" t="n">
-        <v>0.499653</v>
+        <v>0.49472</v>
       </c>
       <c r="D54" t="n">
-        <v>0.408536</v>
+        <v>0.406089</v>
       </c>
       <c r="E54" t="n">
-        <v>0.254325</v>
+        <v>0.254345</v>
       </c>
       <c r="F54" t="n">
-        <v>0.415123</v>
+        <v>0.410451</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332575</v>
+        <v>0.33244</v>
       </c>
       <c r="C55" t="n">
-        <v>0.502038</v>
+        <v>0.503793</v>
       </c>
       <c r="D55" t="n">
-        <v>0.408811</v>
+        <v>0.407017</v>
       </c>
       <c r="E55" t="n">
-        <v>0.253507</v>
+        <v>0.253018</v>
       </c>
       <c r="F55" t="n">
-        <v>0.409018</v>
+        <v>0.409192</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.325089</v>
+        <v>0.324503</v>
       </c>
       <c r="C56" t="n">
-        <v>0.491118</v>
+        <v>0.495965</v>
       </c>
       <c r="D56" t="n">
-        <v>0.407316</v>
+        <v>0.407762</v>
       </c>
       <c r="E56" t="n">
-        <v>0.251989</v>
+        <v>0.25189</v>
       </c>
       <c r="F56" t="n">
-        <v>0.408162</v>
+        <v>0.408056</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.317485</v>
+        <v>0.316768</v>
       </c>
       <c r="C57" t="n">
-        <v>0.494284</v>
+        <v>0.497526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.410327</v>
+        <v>0.409759</v>
       </c>
       <c r="E57" t="n">
-        <v>0.250657</v>
+        <v>0.25041</v>
       </c>
       <c r="F57" t="n">
-        <v>0.407244</v>
+        <v>0.407293</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.308322</v>
+        <v>0.308517</v>
       </c>
       <c r="C58" t="n">
-        <v>0.488063</v>
+        <v>0.488598</v>
       </c>
       <c r="D58" t="n">
-        <v>0.411286</v>
+        <v>0.413253</v>
       </c>
       <c r="E58" t="n">
-        <v>0.250017</v>
+        <v>0.249906</v>
       </c>
       <c r="F58" t="n">
-        <v>0.406587</v>
+        <v>0.406566</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.299854</v>
+        <v>0.2994</v>
       </c>
       <c r="C59" t="n">
-        <v>0.481531</v>
+        <v>0.476357</v>
       </c>
       <c r="D59" t="n">
-        <v>0.414175</v>
+        <v>0.409326</v>
       </c>
       <c r="E59" t="n">
-        <v>0.248959</v>
+        <v>0.248878</v>
       </c>
       <c r="F59" t="n">
-        <v>0.409712</v>
+        <v>0.40688</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.288804</v>
+        <v>0.288583</v>
       </c>
       <c r="C60" t="n">
-        <v>0.477342</v>
+        <v>0.472953</v>
       </c>
       <c r="D60" t="n">
-        <v>0.416654</v>
+        <v>0.412202</v>
       </c>
       <c r="E60" t="n">
-        <v>0.248275</v>
+        <v>0.248065</v>
       </c>
       <c r="F60" t="n">
-        <v>0.405171</v>
+        <v>0.405126</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27784</v>
+        <v>0.277709</v>
       </c>
       <c r="C61" t="n">
-        <v>0.486057</v>
+        <v>0.482295</v>
       </c>
       <c r="D61" t="n">
-        <v>0.420137</v>
+        <v>0.415784</v>
       </c>
       <c r="E61" t="n">
-        <v>0.247188</v>
+        <v>0.247159</v>
       </c>
       <c r="F61" t="n">
-        <v>0.404843</v>
+        <v>0.404523</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.266159</v>
+        <v>0.266154</v>
       </c>
       <c r="C62" t="n">
-        <v>0.457776</v>
+        <v>0.455691</v>
       </c>
       <c r="D62" t="n">
-        <v>0.422122</v>
+        <v>0.420523</v>
       </c>
       <c r="E62" t="n">
-        <v>0.246558</v>
+        <v>0.246659</v>
       </c>
       <c r="F62" t="n">
-        <v>0.40361</v>
+        <v>0.403748</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.253606</v>
+        <v>0.253551</v>
       </c>
       <c r="C63" t="n">
-        <v>0.459524</v>
+        <v>0.46038</v>
       </c>
       <c r="D63" t="n">
-        <v>0.422024</v>
+        <v>0.421</v>
       </c>
       <c r="E63" t="n">
-        <v>0.245952</v>
+        <v>0.245522</v>
       </c>
       <c r="F63" t="n">
-        <v>0.403553</v>
+        <v>0.403689</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.239961</v>
+        <v>0.239851</v>
       </c>
       <c r="C64" t="n">
-        <v>0.434789</v>
+        <v>0.440487</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485131</v>
+        <v>0.486562</v>
       </c>
       <c r="E64" t="n">
-        <v>0.245328</v>
+        <v>0.24436</v>
       </c>
       <c r="F64" t="n">
-        <v>0.403053</v>
+        <v>0.407578</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.225205</v>
+        <v>0.225351</v>
       </c>
       <c r="C65" t="n">
-        <v>0.428276</v>
+        <v>0.433904</v>
       </c>
       <c r="D65" t="n">
-        <v>0.477608</v>
+        <v>0.474865</v>
       </c>
       <c r="E65" t="n">
-        <v>0.244861</v>
+        <v>0.244077</v>
       </c>
       <c r="F65" t="n">
-        <v>0.402461</v>
+        <v>0.406654</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.209552</v>
+        <v>0.209365</v>
       </c>
       <c r="C66" t="n">
-        <v>0.419183</v>
+        <v>0.422557</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47264</v>
+        <v>0.469545</v>
       </c>
       <c r="E66" t="n">
-        <v>0.266743</v>
+        <v>0.26098</v>
       </c>
       <c r="F66" t="n">
-        <v>0.413081</v>
+        <v>0.413198</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347686</v>
+        <v>0.347543</v>
       </c>
       <c r="C67" t="n">
-        <v>0.58101</v>
+        <v>0.581399</v>
       </c>
       <c r="D67" t="n">
-        <v>0.493223</v>
+        <v>0.491249</v>
       </c>
       <c r="E67" t="n">
-        <v>0.263212</v>
+        <v>0.260154</v>
       </c>
       <c r="F67" t="n">
-        <v>0.412347</v>
+        <v>0.412147</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341361</v>
+        <v>0.341272</v>
       </c>
       <c r="C68" t="n">
-        <v>0.607974</v>
+        <v>0.6021840000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.500476</v>
+        <v>0.495097</v>
       </c>
       <c r="E68" t="n">
-        <v>0.261326</v>
+        <v>0.259159</v>
       </c>
       <c r="F68" t="n">
-        <v>0.410977</v>
+        <v>0.412868</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334628</v>
+        <v>0.33456</v>
       </c>
       <c r="C69" t="n">
-        <v>0.546278</v>
+        <v>0.543095</v>
       </c>
       <c r="D69" t="n">
-        <v>0.504474</v>
+        <v>0.498007</v>
       </c>
       <c r="E69" t="n">
-        <v>0.259853</v>
+        <v>0.25736</v>
       </c>
       <c r="F69" t="n">
-        <v>0.409688</v>
+        <v>0.409306</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.327655</v>
+        <v>0.327333</v>
       </c>
       <c r="C70" t="n">
-        <v>0.629684</v>
+        <v>0.625848</v>
       </c>
       <c r="D70" t="n">
-        <v>0.507679</v>
+        <v>0.501439</v>
       </c>
       <c r="E70" t="n">
-        <v>0.25728</v>
+        <v>0.255209</v>
       </c>
       <c r="F70" t="n">
-        <v>0.408573</v>
+        <v>0.408228</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.320751</v>
+        <v>0.319951</v>
       </c>
       <c r="C71" t="n">
-        <v>0.618654</v>
+        <v>0.610278</v>
       </c>
       <c r="D71" t="n">
-        <v>0.518948</v>
+        <v>0.512795</v>
       </c>
       <c r="E71" t="n">
-        <v>0.255071</v>
+        <v>0.253657</v>
       </c>
       <c r="F71" t="n">
-        <v>0.40751</v>
+        <v>0.409086</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.311682</v>
+        <v>0.311722</v>
       </c>
       <c r="C72" t="n">
-        <v>0.625578</v>
+        <v>0.634595</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5227579999999999</v>
+        <v>0.519663</v>
       </c>
       <c r="E72" t="n">
-        <v>0.252716</v>
+        <v>0.251631</v>
       </c>
       <c r="F72" t="n">
-        <v>0.406724</v>
+        <v>0.411426</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.303577</v>
+        <v>0.303325</v>
       </c>
       <c r="C73" t="n">
-        <v>0.632103</v>
+        <v>0.630729</v>
       </c>
       <c r="D73" t="n">
-        <v>0.52395</v>
+        <v>0.522695</v>
       </c>
       <c r="E73" t="n">
-        <v>0.25054</v>
+        <v>0.249742</v>
       </c>
       <c r="F73" t="n">
-        <v>0.405718</v>
+        <v>0.410458</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.292752</v>
+        <v>0.292994</v>
       </c>
       <c r="C74" t="n">
-        <v>0.579402</v>
+        <v>0.575066</v>
       </c>
       <c r="D74" t="n">
-        <v>0.554723</v>
+        <v>0.528259</v>
       </c>
       <c r="E74" t="n">
-        <v>0.249015</v>
+        <v>0.248595</v>
       </c>
       <c r="F74" t="n">
-        <v>0.404901</v>
+        <v>0.404861</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.282439</v>
+        <v>0.282518</v>
       </c>
       <c r="C75" t="n">
-        <v>0.619124</v>
+        <v>0.62095</v>
       </c>
       <c r="D75" t="n">
-        <v>0.529218</v>
+        <v>0.52332</v>
       </c>
       <c r="E75" t="n">
-        <v>0.247633</v>
+        <v>0.247479</v>
       </c>
       <c r="F75" t="n">
-        <v>0.404527</v>
+        <v>0.404442</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.269997</v>
+        <v>0.270242</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5870030000000001</v>
+        <v>0.585894</v>
       </c>
       <c r="D76" t="n">
-        <v>0.534818</v>
+        <v>0.529067</v>
       </c>
       <c r="E76" t="n">
-        <v>0.246928</v>
+        <v>0.247113</v>
       </c>
       <c r="F76" t="n">
-        <v>0.403849</v>
+        <v>0.403757</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.257867</v>
+        <v>0.25738</v>
       </c>
       <c r="C77" t="n">
-        <v>0.543374</v>
+        <v>0.539612</v>
       </c>
       <c r="D77" t="n">
-        <v>0.52947</v>
+        <v>0.526348</v>
       </c>
       <c r="E77" t="n">
-        <v>0.245088</v>
+        <v>0.246078</v>
       </c>
       <c r="F77" t="n">
-        <v>0.403496</v>
+        <v>0.403242</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243803</v>
+        <v>0.243487</v>
       </c>
       <c r="C78" t="n">
-        <v>0.596322</v>
+        <v>0.584247</v>
       </c>
       <c r="D78" t="n">
-        <v>0.619488</v>
+        <v>0.607618</v>
       </c>
       <c r="E78" t="n">
-        <v>0.24536</v>
+        <v>0.245644</v>
       </c>
       <c r="F78" t="n">
-        <v>0.402819</v>
+        <v>0.402471</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.229488</v>
+        <v>0.230157</v>
       </c>
       <c r="C79" t="n">
-        <v>0.539936</v>
+        <v>0.531703</v>
       </c>
       <c r="D79" t="n">
-        <v>0.632609</v>
+        <v>0.619505</v>
       </c>
       <c r="E79" t="n">
-        <v>0.244631</v>
+        <v>0.244705</v>
       </c>
       <c r="F79" t="n">
-        <v>0.402417</v>
+        <v>0.402101</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213961</v>
+        <v>0.213934</v>
       </c>
       <c r="C80" t="n">
-        <v>0.555324</v>
+        <v>0.547662</v>
       </c>
       <c r="D80" t="n">
-        <v>0.670123</v>
+        <v>0.664065</v>
       </c>
       <c r="E80" t="n">
-        <v>0.261526</v>
+        <v>0.260865</v>
       </c>
       <c r="F80" t="n">
-        <v>0.414094</v>
+        <v>0.414021</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348372</v>
+        <v>0.348255</v>
       </c>
       <c r="C81" t="n">
-        <v>0.551264</v>
+        <v>0.54862</v>
       </c>
       <c r="D81" t="n">
-        <v>0.626631</v>
+        <v>0.613729</v>
       </c>
       <c r="E81" t="n">
-        <v>0.259095</v>
+        <v>0.25861</v>
       </c>
       <c r="F81" t="n">
-        <v>0.412765</v>
+        <v>0.412553</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342816</v>
+        <v>0.342455</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6610279999999999</v>
+        <v>0.668401</v>
       </c>
       <c r="D82" t="n">
-        <v>0.62521</v>
+        <v>0.614402</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256948</v>
+        <v>0.256251</v>
       </c>
       <c r="F82" t="n">
-        <v>0.411983</v>
+        <v>0.411531</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336892</v>
+        <v>0.33614</v>
       </c>
       <c r="C83" t="n">
-        <v>0.65351</v>
+        <v>0.63461</v>
       </c>
       <c r="D83" t="n">
-        <v>0.624067</v>
+        <v>0.6127359999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>0.255101</v>
+        <v>0.25464</v>
       </c>
       <c r="F83" t="n">
-        <v>0.412976</v>
+        <v>0.410163</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.329414</v>
+        <v>0.329179</v>
       </c>
       <c r="C84" t="n">
-        <v>0.610306</v>
+        <v>0.6043500000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6341830000000001</v>
+        <v>0.626602</v>
       </c>
       <c r="E84" t="n">
-        <v>0.253833</v>
+        <v>0.25337</v>
       </c>
       <c r="F84" t="n">
-        <v>0.409211</v>
+        <v>0.409134</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.322297</v>
+        <v>0.321751</v>
       </c>
       <c r="C85" t="n">
-        <v>0.680681</v>
+        <v>0.638992</v>
       </c>
       <c r="D85" t="n">
-        <v>0.612882</v>
+        <v>0.603732</v>
       </c>
       <c r="E85" t="n">
-        <v>0.252595</v>
+        <v>0.251968</v>
       </c>
       <c r="F85" t="n">
-        <v>0.407778</v>
+        <v>0.407642</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.313453</v>
+        <v>0.312904</v>
       </c>
       <c r="C86" t="n">
-        <v>0.562453</v>
+        <v>0.563623</v>
       </c>
       <c r="D86" t="n">
-        <v>0.603585</v>
+        <v>0.595409</v>
       </c>
       <c r="E86" t="n">
-        <v>0.251167</v>
+        <v>0.250948</v>
       </c>
       <c r="F86" t="n">
-        <v>0.407412</v>
+        <v>0.408744</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.304221</v>
+        <v>0.303967</v>
       </c>
       <c r="C87" t="n">
-        <v>0.587132</v>
+        <v>0.584294</v>
       </c>
       <c r="D87" t="n">
-        <v>0.630001</v>
+        <v>0.624481</v>
       </c>
       <c r="E87" t="n">
-        <v>0.249875</v>
+        <v>0.249886</v>
       </c>
       <c r="F87" t="n">
-        <v>0.409347</v>
+        <v>0.409724</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.294934</v>
+        <v>0.294764</v>
       </c>
       <c r="C88" t="n">
-        <v>0.531247</v>
+        <v>0.532555</v>
       </c>
       <c r="D88" t="n">
-        <v>0.59422</v>
+        <v>0.586004</v>
       </c>
       <c r="E88" t="n">
-        <v>0.249027</v>
+        <v>0.248883</v>
       </c>
       <c r="F88" t="n">
-        <v>0.409351</v>
+        <v>0.407935</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.284159</v>
+        <v>0.283662</v>
       </c>
       <c r="C89" t="n">
-        <v>0.668672</v>
+        <v>0.652613</v>
       </c>
       <c r="D89" t="n">
-        <v>0.596149</v>
+        <v>0.586726</v>
       </c>
       <c r="E89" t="n">
-        <v>0.248156</v>
+        <v>0.247973</v>
       </c>
       <c r="F89" t="n">
-        <v>0.405801</v>
+        <v>0.405176</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.273044</v>
+        <v>0.27261</v>
       </c>
       <c r="C90" t="n">
-        <v>0.560649</v>
+        <v>0.571915</v>
       </c>
       <c r="D90" t="n">
-        <v>0.583384</v>
+        <v>0.579786</v>
       </c>
       <c r="E90" t="n">
-        <v>0.247328</v>
+        <v>0.247482</v>
       </c>
       <c r="F90" t="n">
-        <v>0.405128</v>
+        <v>0.408838</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.260738</v>
+        <v>0.260288</v>
       </c>
       <c r="C91" t="n">
-        <v>0.462174</v>
+        <v>0.466064</v>
       </c>
       <c r="D91" t="n">
-        <v>0.579663</v>
+        <v>0.575305</v>
       </c>
       <c r="E91" t="n">
-        <v>0.246889</v>
+        <v>0.245866</v>
       </c>
       <c r="F91" t="n">
-        <v>0.404601</v>
+        <v>0.408099</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247372</v>
+        <v>0.247301</v>
       </c>
       <c r="C92" t="n">
-        <v>0.551607</v>
+        <v>0.552787</v>
       </c>
       <c r="D92" t="n">
-        <v>0.664401</v>
+        <v>0.646609</v>
       </c>
       <c r="E92" t="n">
-        <v>0.246188</v>
+        <v>0.246173</v>
       </c>
       <c r="F92" t="n">
-        <v>0.406098</v>
+        <v>0.407486</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23337</v>
+        <v>0.233239</v>
       </c>
       <c r="C93" t="n">
-        <v>0.532401</v>
+        <v>0.525675</v>
       </c>
       <c r="D93" t="n">
-        <v>0.661222</v>
+        <v>0.64195</v>
       </c>
       <c r="E93" t="n">
-        <v>0.245017</v>
+        <v>0.245298</v>
       </c>
       <c r="F93" t="n">
-        <v>0.405474</v>
+        <v>0.404561</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.218054</v>
+        <v>0.217898</v>
       </c>
       <c r="C94" t="n">
-        <v>0.517241</v>
+        <v>0.514413</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6534180000000001</v>
+        <v>0.636388</v>
       </c>
       <c r="E94" t="n">
-        <v>0.261889</v>
+        <v>0.261014</v>
       </c>
       <c r="F94" t="n">
-        <v>0.414125</v>
+        <v>0.414033</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.348893</v>
+        <v>0.348906</v>
       </c>
       <c r="C95" t="n">
-        <v>0.73878</v>
+        <v>0.724143</v>
       </c>
       <c r="D95" t="n">
-        <v>0.650259</v>
+        <v>0.627313</v>
       </c>
       <c r="E95" t="n">
-        <v>0.25912</v>
+        <v>0.258513</v>
       </c>
       <c r="F95" t="n">
-        <v>0.41265</v>
+        <v>0.413408</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343782</v>
+        <v>0.34369</v>
       </c>
       <c r="C96" t="n">
-        <v>0.715022</v>
+        <v>0.711157</v>
       </c>
       <c r="D96" t="n">
-        <v>0.649017</v>
+        <v>0.628796</v>
       </c>
       <c r="E96" t="n">
-        <v>0.256772</v>
+        <v>0.256533</v>
       </c>
       <c r="F96" t="n">
-        <v>0.411457</v>
+        <v>0.411394</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.338107</v>
+        <v>0.337772</v>
       </c>
       <c r="C97" t="n">
-        <v>0.697739</v>
+        <v>0.680705</v>
       </c>
       <c r="D97" t="n">
-        <v>0.634277</v>
+        <v>0.616519</v>
       </c>
       <c r="E97" t="n">
-        <v>0.255675</v>
+        <v>0.255386</v>
       </c>
       <c r="F97" t="n">
-        <v>0.411257</v>
+        <v>0.410664</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331174</v>
+        <v>0.331019</v>
       </c>
       <c r="C98" t="n">
-        <v>0.582721</v>
+        <v>0.587283</v>
       </c>
       <c r="D98" t="n">
-        <v>0.625354</v>
+        <v>0.605267</v>
       </c>
       <c r="E98" t="n">
-        <v>0.25387</v>
+        <v>0.253618</v>
       </c>
       <c r="F98" t="n">
-        <v>0.40926</v>
+        <v>0.409305</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323947</v>
+        <v>0.323438</v>
       </c>
       <c r="C99" t="n">
-        <v>0.631784</v>
+        <v>0.624221</v>
       </c>
       <c r="D99" t="n">
-        <v>0.618935</v>
+        <v>0.600306</v>
       </c>
       <c r="E99" t="n">
-        <v>0.252633</v>
+        <v>0.252262</v>
       </c>
       <c r="F99" t="n">
-        <v>0.408226</v>
+        <v>0.407951</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.315872</v>
+        <v>0.316268</v>
       </c>
       <c r="C100" t="n">
-        <v>0.621321</v>
+        <v>0.60883</v>
       </c>
       <c r="D100" t="n">
-        <v>0.622039</v>
+        <v>0.603978</v>
       </c>
       <c r="E100" t="n">
-        <v>0.251301</v>
+        <v>0.251079</v>
       </c>
       <c r="F100" t="n">
-        <v>0.406996</v>
+        <v>0.407033</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.306591</v>
+        <v>0.306495</v>
       </c>
       <c r="C101" t="n">
-        <v>0.623862</v>
+        <v>0.624348</v>
       </c>
       <c r="D101" t="n">
-        <v>0.614829</v>
+        <v>0.596472</v>
       </c>
       <c r="E101" t="n">
-        <v>0.250104</v>
+        <v>0.249989</v>
       </c>
       <c r="F101" t="n">
-        <v>0.406236</v>
+        <v>0.406087</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.296805</v>
+        <v>0.296425</v>
       </c>
       <c r="C102" t="n">
-        <v>0.630298</v>
+        <v>0.624974</v>
       </c>
       <c r="D102" t="n">
-        <v>0.606765</v>
+        <v>0.589377</v>
       </c>
       <c r="E102" t="n">
-        <v>0.249166</v>
+        <v>0.249033</v>
       </c>
       <c r="F102" t="n">
-        <v>0.405601</v>
+        <v>0.405256</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.286405</v>
+        <v>0.286182</v>
       </c>
       <c r="C103" t="n">
-        <v>0.59931</v>
+        <v>0.5979409999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.591676</v>
+        <v>0.575954</v>
       </c>
       <c r="E103" t="n">
-        <v>0.248313</v>
+        <v>0.248397</v>
       </c>
       <c r="F103" t="n">
-        <v>0.404907</v>
+        <v>0.404616</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.275275</v>
+        <v>0.275201</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5558</v>
+        <v>0.548498</v>
       </c>
       <c r="D104" t="n">
-        <v>0.586568</v>
+        <v>0.572894</v>
       </c>
       <c r="E104" t="n">
-        <v>0.247397</v>
+        <v>0.247151</v>
       </c>
       <c r="F104" t="n">
-        <v>0.404534</v>
+        <v>0.404376</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.263041</v>
+        <v>0.262885</v>
       </c>
       <c r="C105" t="n">
-        <v>0.593266</v>
+        <v>0.5981109999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.580719</v>
+        <v>0.568163</v>
       </c>
       <c r="E105" t="n">
-        <v>0.24706</v>
+        <v>0.246981</v>
       </c>
       <c r="F105" t="n">
-        <v>0.403791</v>
+        <v>0.407398</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250211</v>
+        <v>0.249833</v>
       </c>
       <c r="C106" t="n">
-        <v>0.600986</v>
+        <v>0.59293</v>
       </c>
       <c r="D106" t="n">
-        <v>0.57136</v>
+        <v>0.558457</v>
       </c>
       <c r="E106" t="n">
-        <v>0.245948</v>
+        <v>0.245858</v>
       </c>
       <c r="F106" t="n">
-        <v>0.403643</v>
+        <v>0.403155</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236353</v>
+        <v>0.236078</v>
       </c>
       <c r="C107" t="n">
-        <v>0.525278</v>
+        <v>0.5318619999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.662929</v>
+        <v>0.646543</v>
       </c>
       <c r="E107" t="n">
-        <v>0.245545</v>
+        <v>0.245326</v>
       </c>
       <c r="F107" t="n">
-        <v>0.402901</v>
+        <v>0.402719</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.221723</v>
+        <v>0.221492</v>
       </c>
       <c r="C108" t="n">
-        <v>0.540911</v>
+        <v>0.538763</v>
       </c>
       <c r="D108" t="n">
-        <v>0.63209</v>
+        <v>0.6184460000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.261591</v>
+        <v>0.261153</v>
       </c>
       <c r="F108" t="n">
-        <v>0.417194</v>
+        <v>0.415724</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.205003</v>
+        <v>0.204784</v>
       </c>
       <c r="C109" t="n">
-        <v>0.519694</v>
+        <v>0.503198</v>
       </c>
       <c r="D109" t="n">
-        <v>0.657967</v>
+        <v>0.642398</v>
       </c>
       <c r="E109" t="n">
-        <v>0.259109</v>
+        <v>0.258625</v>
       </c>
       <c r="F109" t="n">
-        <v>0.413433</v>
+        <v>0.416539</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.344635</v>
+        <v>0.344272</v>
       </c>
       <c r="C110" t="n">
-        <v>0.660125</v>
+        <v>0.664311</v>
       </c>
       <c r="D110" t="n">
-        <v>0.627499</v>
+        <v>0.613703</v>
       </c>
       <c r="E110" t="n">
-        <v>0.25708</v>
+        <v>0.256819</v>
       </c>
       <c r="F110" t="n">
-        <v>0.412315</v>
+        <v>0.412953</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.338776</v>
+        <v>0.338292</v>
       </c>
       <c r="C111" t="n">
-        <v>0.623731</v>
+        <v>0.607513</v>
       </c>
       <c r="D111" t="n">
-        <v>0.62534</v>
+        <v>0.615206</v>
       </c>
       <c r="E111" t="n">
-        <v>0.255371</v>
+        <v>0.255079</v>
       </c>
       <c r="F111" t="n">
-        <v>0.411343</v>
+        <v>0.410723</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.331875</v>
+        <v>0.331851</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5630270000000001</v>
+        <v>0.550592</v>
       </c>
       <c r="D112" t="n">
-        <v>0.620983</v>
+        <v>0.607217</v>
       </c>
       <c r="E112" t="n">
-        <v>0.254023</v>
+        <v>0.253873</v>
       </c>
       <c r="F112" t="n">
-        <v>0.413663</v>
+        <v>0.413324</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325693</v>
+        <v>0.324963</v>
       </c>
       <c r="C113" t="n">
-        <v>0.602008</v>
+        <v>0.596698</v>
       </c>
       <c r="D113" t="n">
-        <v>0.629957</v>
+        <v>0.614636</v>
       </c>
       <c r="E113" t="n">
-        <v>0.252572</v>
+        <v>0.252362</v>
       </c>
       <c r="F113" t="n">
-        <v>0.410567</v>
+        <v>0.410491</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.317599</v>
+        <v>0.316286</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6018790000000001</v>
+        <v>0.601518</v>
       </c>
       <c r="D114" t="n">
-        <v>0.621308</v>
+        <v>0.605916</v>
       </c>
       <c r="E114" t="n">
-        <v>0.251384</v>
+        <v>0.251226</v>
       </c>
       <c r="F114" t="n">
-        <v>0.410323</v>
+        <v>0.410171</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.307815</v>
+        <v>0.30803</v>
       </c>
       <c r="C115" t="n">
-        <v>0.598404</v>
+        <v>0.5883</v>
       </c>
       <c r="D115" t="n">
-        <v>0.612419</v>
+        <v>0.599098</v>
       </c>
       <c r="E115" t="n">
-        <v>0.250265</v>
+        <v>0.250025</v>
       </c>
       <c r="F115" t="n">
-        <v>0.409301</v>
+        <v>0.409984</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.298699</v>
+        <v>0.297867</v>
       </c>
       <c r="C116" t="n">
-        <v>0.694266</v>
+        <v>0.679281</v>
       </c>
       <c r="D116" t="n">
-        <v>0.604092</v>
+        <v>0.589676</v>
       </c>
       <c r="E116" t="n">
-        <v>0.249312</v>
+        <v>0.249465</v>
       </c>
       <c r="F116" t="n">
-        <v>0.406042</v>
+        <v>0.405689</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287971</v>
+        <v>0.288032</v>
       </c>
       <c r="C117" t="n">
-        <v>0.60829</v>
+        <v>0.581117</v>
       </c>
       <c r="D117" t="n">
-        <v>0.592307</v>
+        <v>0.579354</v>
       </c>
       <c r="E117" t="n">
-        <v>0.248446</v>
+        <v>0.248291</v>
       </c>
       <c r="F117" t="n">
-        <v>0.407848</v>
+        <v>0.406956</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.276807</v>
+        <v>0.276908</v>
       </c>
       <c r="C118" t="n">
-        <v>0.589808</v>
+        <v>0.5833930000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.587871</v>
+        <v>0.575449</v>
       </c>
       <c r="E118" t="n">
-        <v>0.246249</v>
+        <v>0.247557</v>
       </c>
       <c r="F118" t="n">
-        <v>0.405062</v>
+        <v>0.405461</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.264989</v>
+        <v>0.265044</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5656369999999999</v>
+        <v>0.552902</v>
       </c>
       <c r="D119" t="n">
-        <v>0.57992</v>
+        <v>0.567753</v>
       </c>
       <c r="E119" t="n">
-        <v>0.246963</v>
+        <v>0.246755</v>
       </c>
       <c r="F119" t="n">
-        <v>0.403958</v>
+        <v>0.403716</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.252758</v>
+        <v>0.252318</v>
       </c>
       <c r="C120" t="n">
-        <v>0.599526</v>
+        <v>0.575998</v>
       </c>
       <c r="D120" t="n">
-        <v>0.57361</v>
+        <v>0.561727</v>
       </c>
       <c r="E120" t="n">
-        <v>0.246225</v>
+        <v>0.244863</v>
       </c>
       <c r="F120" t="n">
-        <v>0.407529</v>
+        <v>0.407447</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.23916</v>
+        <v>0.238667</v>
       </c>
       <c r="C121" t="n">
-        <v>0.503918</v>
+        <v>0.500102</v>
       </c>
       <c r="D121" t="n">
-        <v>0.652012</v>
+        <v>0.634195</v>
       </c>
       <c r="E121" t="n">
-        <v>0.245587</v>
+        <v>0.245945</v>
       </c>
       <c r="F121" t="n">
-        <v>0.407015</v>
+        <v>0.406789</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.224268</v>
+        <v>0.224021</v>
       </c>
       <c r="C122" t="n">
-        <v>0.440775</v>
+        <v>0.438887</v>
       </c>
       <c r="D122" t="n">
-        <v>0.681595</v>
+        <v>0.659959</v>
       </c>
       <c r="E122" t="n">
-        <v>0.24517</v>
+        <v>0.245117</v>
       </c>
       <c r="F122" t="n">
-        <v>0.402828</v>
+        <v>0.40256</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.208628</v>
+        <v>0.208381</v>
       </c>
       <c r="C123" t="n">
-        <v>0.450953</v>
+        <v>0.456182</v>
       </c>
       <c r="D123" t="n">
-        <v>0.67552</v>
+        <v>0.657033</v>
       </c>
       <c r="E123" t="n">
-        <v>0.259379</v>
+        <v>0.258925</v>
       </c>
       <c r="F123" t="n">
-        <v>0.413633</v>
+        <v>0.413242</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345405</v>
+        <v>0.345142</v>
       </c>
       <c r="C124" t="n">
-        <v>0.716025</v>
+        <v>0.695773</v>
       </c>
       <c r="D124" t="n">
-        <v>0.664662</v>
+        <v>0.644734</v>
       </c>
       <c r="E124" t="n">
-        <v>0.257805</v>
+        <v>0.257517</v>
       </c>
       <c r="F124" t="n">
-        <v>0.412043</v>
+        <v>0.411898</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.339268</v>
+        <v>0.339538</v>
       </c>
       <c r="C125" t="n">
-        <v>0.593978</v>
+        <v>0.588681</v>
       </c>
       <c r="D125" t="n">
-        <v>0.657706</v>
+        <v>0.637939</v>
       </c>
       <c r="E125" t="n">
-        <v>0.256137</v>
+        <v>0.255836</v>
       </c>
       <c r="F125" t="n">
-        <v>0.410834</v>
+        <v>0.410671</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.333423</v>
+        <v>0.332475</v>
       </c>
       <c r="C126" t="n">
-        <v>0.71152</v>
+        <v>0.701323</v>
       </c>
       <c r="D126" t="n">
-        <v>0.652629</v>
+        <v>0.631738</v>
       </c>
       <c r="E126" t="n">
-        <v>0.254523</v>
+        <v>0.254264</v>
       </c>
       <c r="F126" t="n">
-        <v>0.409598</v>
+        <v>0.409418</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327135</v>
+        <v>0.325853</v>
       </c>
       <c r="C127" t="n">
-        <v>0.620601</v>
+        <v>0.605914</v>
       </c>
       <c r="D127" t="n">
-        <v>0.631472</v>
+        <v>0.611815</v>
       </c>
       <c r="E127" t="n">
-        <v>0.25324</v>
+        <v>0.253172</v>
       </c>
       <c r="F127" t="n">
-        <v>0.408973</v>
+        <v>0.408472</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.318357</v>
+        <v>0.317925</v>
       </c>
       <c r="C128" t="n">
-        <v>0.648394</v>
+        <v>0.63925</v>
       </c>
       <c r="D128" t="n">
-        <v>0.624395</v>
+        <v>0.6052920000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.252151</v>
+        <v>0.252104</v>
       </c>
       <c r="F128" t="n">
-        <v>0.407597</v>
+        <v>0.407623</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.310119</v>
+        <v>0.309245</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5694979999999999</v>
+        <v>0.564933</v>
       </c>
       <c r="D129" t="n">
-        <v>0.618344</v>
+        <v>0.599712</v>
       </c>
       <c r="E129" t="n">
-        <v>0.250951</v>
+        <v>0.250931</v>
       </c>
       <c r="F129" t="n">
-        <v>0.409233</v>
+        <v>0.40647</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.299977</v>
+        <v>0.299699</v>
       </c>
       <c r="C130" t="n">
-        <v>0.577537</v>
+        <v>0.569809</v>
       </c>
       <c r="D130" t="n">
-        <v>0.607784</v>
+        <v>0.594516</v>
       </c>
       <c r="E130" t="n">
-        <v>0.249935</v>
+        <v>0.249913</v>
       </c>
       <c r="F130" t="n">
-        <v>0.406719</v>
+        <v>0.406119</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.290237</v>
+        <v>0.289706</v>
       </c>
       <c r="C131" t="n">
-        <v>0.575913</v>
+        <v>0.571816</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6049099999999999</v>
+        <v>0.587631</v>
       </c>
       <c r="E131" t="n">
-        <v>0.249048</v>
+        <v>0.248984</v>
       </c>
       <c r="F131" t="n">
-        <v>0.405031</v>
+        <v>0.405012</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278845</v>
+        <v>0.278554</v>
       </c>
       <c r="C132" t="n">
-        <v>0.540551</v>
+        <v>0.55733</v>
       </c>
       <c r="D132" t="n">
-        <v>0.597882</v>
+        <v>0.582447</v>
       </c>
       <c r="E132" t="n">
-        <v>0.247698</v>
+        <v>0.247653</v>
       </c>
       <c r="F132" t="n">
-        <v>0.404645</v>
+        <v>0.404344</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266961</v>
+        <v>0.26721</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6181219999999999</v>
+        <v>0.581874</v>
       </c>
       <c r="D133" t="n">
-        <v>0.589522</v>
+        <v>0.5744939999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.24709</v>
+        <v>0.246857</v>
       </c>
       <c r="F133" t="n">
-        <v>0.404343</v>
+        <v>0.403933</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.254596</v>
+        <v>0.254516</v>
       </c>
       <c r="C134" t="n">
-        <v>0.503241</v>
+        <v>0.495998</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5809800000000001</v>
+        <v>0.566438</v>
       </c>
       <c r="E134" t="n">
-        <v>0.246212</v>
+        <v>0.246172</v>
       </c>
       <c r="F134" t="n">
-        <v>0.404011</v>
+        <v>0.403326</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.240936</v>
+        <v>0.240961</v>
       </c>
       <c r="C135" t="n">
-        <v>0.541127</v>
+        <v>0.53546</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69023</v>
+        <v>0.6654640000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.245712</v>
+        <v>0.245618</v>
       </c>
       <c r="F135" t="n">
-        <v>0.403473</v>
+        <v>0.402702</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.226933</v>
+        <v>0.22686</v>
       </c>
       <c r="C136" t="n">
-        <v>0.538752</v>
+        <v>0.528253</v>
       </c>
       <c r="D136" t="n">
-        <v>0.681317</v>
+        <v>0.659561</v>
       </c>
       <c r="E136" t="n">
-        <v>0.245166</v>
+        <v>0.245025</v>
       </c>
       <c r="F136" t="n">
-        <v>0.403282</v>
+        <v>0.402575</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.211441</v>
+        <v>0.211247</v>
       </c>
       <c r="C137" t="n">
-        <v>0.577193</v>
+        <v>0.549386</v>
       </c>
       <c r="D137" t="n">
-        <v>0.654797</v>
+        <v>0.634277</v>
       </c>
       <c r="E137" t="n">
-        <v>0.25969</v>
+        <v>0.259472</v>
       </c>
       <c r="F137" t="n">
-        <v>0.414565</v>
+        <v>0.414316</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3467</v>
+        <v>0.34663</v>
       </c>
       <c r="C138" t="n">
-        <v>0.710754</v>
+        <v>0.681702</v>
       </c>
       <c r="D138" t="n">
-        <v>0.653169</v>
+        <v>0.632286</v>
       </c>
       <c r="E138" t="n">
-        <v>0.257344</v>
+        <v>0.257356</v>
       </c>
       <c r="F138" t="n">
-        <v>0.413164</v>
+        <v>0.412611</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341123</v>
+        <v>0.340895</v>
       </c>
       <c r="C139" t="n">
-        <v>0.523409</v>
+        <v>0.525061</v>
       </c>
       <c r="D139" t="n">
-        <v>0.647817</v>
+        <v>0.627685</v>
       </c>
       <c r="E139" t="n">
-        <v>0.255997</v>
+        <v>0.255793</v>
       </c>
       <c r="F139" t="n">
-        <v>0.411931</v>
+        <v>0.411742</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.334395</v>
+        <v>0.333987</v>
       </c>
       <c r="C140" t="n">
-        <v>0.656698</v>
+        <v>0.643412</v>
       </c>
       <c r="D140" t="n">
-        <v>0.646786</v>
+        <v>0.627669</v>
       </c>
       <c r="E140" t="n">
-        <v>0.254633</v>
+        <v>0.254683</v>
       </c>
       <c r="F140" t="n">
-        <v>0.411183</v>
+        <v>0.411827</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327694</v>
+        <v>0.327403</v>
       </c>
       <c r="C141" t="n">
-        <v>0.712302</v>
+        <v>0.704244</v>
       </c>
       <c r="D141" t="n">
-        <v>0.649613</v>
+        <v>0.6299090000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.253227</v>
+        <v>0.252947</v>
       </c>
       <c r="F141" t="n">
-        <v>0.409084</v>
+        <v>0.409211</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.319995</v>
+        <v>0.320106</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7058140000000001</v>
+        <v>0.708105</v>
       </c>
       <c r="D142" t="n">
-        <v>0.63334</v>
+        <v>0.612168</v>
       </c>
       <c r="E142" t="n">
-        <v>0.252077</v>
+        <v>0.251763</v>
       </c>
       <c r="F142" t="n">
-        <v>0.408439</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.311461</v>
+        <v>0.310718</v>
       </c>
       <c r="C143" t="n">
-        <v>0.631368</v>
+        <v>0.623601</v>
       </c>
       <c r="D143" t="n">
-        <v>0.629198</v>
+        <v>0.611172</v>
       </c>
       <c r="E143" t="n">
-        <v>0.251162</v>
+        <v>0.250913</v>
       </c>
       <c r="F143" t="n">
-        <v>0.409163</v>
+        <v>0.408476</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250081</v>
+        <v>0.252059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.445391</v>
+        <v>0.449472</v>
       </c>
       <c r="D2" t="n">
-        <v>0.384042</v>
+        <v>0.384975</v>
       </c>
       <c r="E2" t="n">
-        <v>0.218552</v>
+        <v>0.219963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.391308</v>
+        <v>0.39644</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.244272</v>
+        <v>0.248006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.44116</v>
+        <v>0.443274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.384746</v>
+        <v>0.385641</v>
       </c>
       <c r="E3" t="n">
-        <v>0.224223</v>
+        <v>0.221303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.39237</v>
+        <v>0.397045</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.23787</v>
+        <v>0.243015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.428851</v>
+        <v>0.435896</v>
       </c>
       <c r="D4" t="n">
-        <v>0.386783</v>
+        <v>0.388327</v>
       </c>
       <c r="E4" t="n">
-        <v>0.223996</v>
+        <v>0.222854</v>
       </c>
       <c r="F4" t="n">
-        <v>0.392803</v>
+        <v>0.399453</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231279</v>
+        <v>0.233966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.417834</v>
+        <v>0.420117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.387066</v>
+        <v>0.387669</v>
       </c>
       <c r="E5" t="n">
-        <v>0.227968</v>
+        <v>0.225755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.393311</v>
+        <v>0.396887</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.222853</v>
+        <v>0.225536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.405203</v>
+        <v>0.412095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.389134</v>
+        <v>0.389991</v>
       </c>
       <c r="E6" t="n">
-        <v>0.229253</v>
+        <v>0.226574</v>
       </c>
       <c r="F6" t="n">
-        <v>0.389227</v>
+        <v>0.39512</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.20947</v>
+        <v>0.214511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.401542</v>
+        <v>0.404912</v>
       </c>
       <c r="D7" t="n">
-        <v>0.388546</v>
+        <v>0.390209</v>
       </c>
       <c r="E7" t="n">
-        <v>0.231537</v>
+        <v>0.227486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.389706</v>
+        <v>0.3968</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.198062</v>
+        <v>0.201999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.387331</v>
+        <v>0.389743</v>
       </c>
       <c r="D8" t="n">
-        <v>0.391105</v>
+        <v>0.391753</v>
       </c>
       <c r="E8" t="n">
-        <v>0.230728</v>
+        <v>0.230797</v>
       </c>
       <c r="F8" t="n">
-        <v>0.39091</v>
+        <v>0.395348</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.184229</v>
+        <v>0.187288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.371855</v>
+        <v>0.371819</v>
       </c>
       <c r="D9" t="n">
-        <v>0.388775</v>
+        <v>0.391164</v>
       </c>
       <c r="E9" t="n">
-        <v>0.249141</v>
+        <v>0.24902</v>
       </c>
       <c r="F9" t="n">
-        <v>0.401183</v>
+        <v>0.407127</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.326498</v>
+        <v>0.329374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.501932</v>
+        <v>0.501341</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387298</v>
+        <v>0.388503</v>
       </c>
       <c r="E10" t="n">
-        <v>0.248211</v>
+        <v>0.249758</v>
       </c>
       <c r="F10" t="n">
-        <v>0.401163</v>
+        <v>0.406137</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.319118</v>
+        <v>0.322487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.497308</v>
+        <v>0.499694</v>
       </c>
       <c r="D11" t="n">
-        <v>0.388422</v>
+        <v>0.389544</v>
       </c>
       <c r="E11" t="n">
-        <v>0.248269</v>
+        <v>0.248323</v>
       </c>
       <c r="F11" t="n">
-        <v>0.400966</v>
+        <v>0.405664</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.314692</v>
+        <v>0.316203</v>
       </c>
       <c r="C12" t="n">
-        <v>0.492109</v>
+        <v>0.493454</v>
       </c>
       <c r="D12" t="n">
-        <v>0.388773</v>
+        <v>0.390818</v>
       </c>
       <c r="E12" t="n">
-        <v>0.247334</v>
+        <v>0.247678</v>
       </c>
       <c r="F12" t="n">
-        <v>0.40023</v>
+        <v>0.405655</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.30688</v>
+        <v>0.311493</v>
       </c>
       <c r="C13" t="n">
-        <v>0.482333</v>
+        <v>0.486283</v>
       </c>
       <c r="D13" t="n">
-        <v>0.389732</v>
+        <v>0.391139</v>
       </c>
       <c r="E13" t="n">
-        <v>0.248716</v>
+        <v>0.247374</v>
       </c>
       <c r="F13" t="n">
-        <v>0.399308</v>
+        <v>0.404753</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.299356</v>
+        <v>0.30109</v>
       </c>
       <c r="C14" t="n">
-        <v>0.477489</v>
+        <v>0.478052</v>
       </c>
       <c r="D14" t="n">
-        <v>0.391223</v>
+        <v>0.39248</v>
       </c>
       <c r="E14" t="n">
-        <v>0.247467</v>
+        <v>0.245836</v>
       </c>
       <c r="F14" t="n">
-        <v>0.399124</v>
+        <v>0.403353</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.289363</v>
+        <v>0.293143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.467421</v>
+        <v>0.473998</v>
       </c>
       <c r="D15" t="n">
-        <v>0.391117</v>
+        <v>0.393867</v>
       </c>
       <c r="E15" t="n">
-        <v>0.247226</v>
+        <v>0.245143</v>
       </c>
       <c r="F15" t="n">
-        <v>0.398405</v>
+        <v>0.40243</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.282967</v>
+        <v>0.285721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.454207</v>
+        <v>0.456587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.391933</v>
+        <v>0.394595</v>
       </c>
       <c r="E16" t="n">
-        <v>0.246854</v>
+        <v>0.244704</v>
       </c>
       <c r="F16" t="n">
-        <v>0.395641</v>
+        <v>0.401396</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.273804</v>
+        <v>0.27794</v>
       </c>
       <c r="C17" t="n">
-        <v>0.452589</v>
+        <v>0.452849</v>
       </c>
       <c r="D17" t="n">
-        <v>0.394105</v>
+        <v>0.39599</v>
       </c>
       <c r="E17" t="n">
-        <v>0.246901</v>
+        <v>0.24458</v>
       </c>
       <c r="F17" t="n">
-        <v>0.396119</v>
+        <v>0.400734</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.264207</v>
+        <v>0.267052</v>
       </c>
       <c r="C18" t="n">
-        <v>0.443723</v>
+        <v>0.451868</v>
       </c>
       <c r="D18" t="n">
-        <v>0.39486</v>
+        <v>0.394112</v>
       </c>
       <c r="E18" t="n">
-        <v>0.245064</v>
+        <v>0.243974</v>
       </c>
       <c r="F18" t="n">
-        <v>0.396449</v>
+        <v>0.401802</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253746</v>
+        <v>0.257615</v>
       </c>
       <c r="C19" t="n">
-        <v>0.431141</v>
+        <v>0.437877</v>
       </c>
       <c r="D19" t="n">
-        <v>0.396296</v>
+        <v>0.395871</v>
       </c>
       <c r="E19" t="n">
-        <v>0.24637</v>
+        <v>0.244207</v>
       </c>
       <c r="F19" t="n">
-        <v>0.396057</v>
+        <v>0.401849</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.243695</v>
+        <v>0.246579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.421104</v>
+        <v>0.425016</v>
       </c>
       <c r="D20" t="n">
-        <v>0.395924</v>
+        <v>0.396171</v>
       </c>
       <c r="E20" t="n">
-        <v>0.245714</v>
+        <v>0.242851</v>
       </c>
       <c r="F20" t="n">
-        <v>0.394148</v>
+        <v>0.399833</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232077</v>
+        <v>0.234956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.405105</v>
+        <v>0.408354</v>
       </c>
       <c r="D21" t="n">
-        <v>0.39544</v>
+        <v>0.397038</v>
       </c>
       <c r="E21" t="n">
-        <v>0.244768</v>
+        <v>0.242186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.395056</v>
+        <v>0.400952</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216969</v>
+        <v>0.22021</v>
       </c>
       <c r="C22" t="n">
-        <v>0.393005</v>
+        <v>0.397367</v>
       </c>
       <c r="D22" t="n">
-        <v>0.396346</v>
+        <v>0.396302</v>
       </c>
       <c r="E22" t="n">
-        <v>0.244224</v>
+        <v>0.242549</v>
       </c>
       <c r="F22" t="n">
-        <v>0.393021</v>
+        <v>0.399614</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.200194</v>
+        <v>0.204813</v>
       </c>
       <c r="C23" t="n">
-        <v>0.380056</v>
+        <v>0.378218</v>
       </c>
       <c r="D23" t="n">
-        <v>0.394639</v>
+        <v>0.39751</v>
       </c>
       <c r="E23" t="n">
-        <v>0.258632</v>
+        <v>0.258499</v>
       </c>
       <c r="F23" t="n">
-        <v>0.407304</v>
+        <v>0.41123</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.338515</v>
+        <v>0.340205</v>
       </c>
       <c r="C24" t="n">
-        <v>0.497876</v>
+        <v>0.501936</v>
       </c>
       <c r="D24" t="n">
-        <v>0.394368</v>
+        <v>0.396532</v>
       </c>
       <c r="E24" t="n">
-        <v>0.255457</v>
+        <v>0.255282</v>
       </c>
       <c r="F24" t="n">
-        <v>0.406111</v>
+        <v>0.410291</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.331389</v>
+        <v>0.334756</v>
       </c>
       <c r="C25" t="n">
-        <v>0.499791</v>
+        <v>0.502455</v>
       </c>
       <c r="D25" t="n">
-        <v>0.39493</v>
+        <v>0.39684</v>
       </c>
       <c r="E25" t="n">
-        <v>0.255118</v>
+        <v>0.254686</v>
       </c>
       <c r="F25" t="n">
-        <v>0.405164</v>
+        <v>0.409799</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.326275</v>
+        <v>0.328728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.493635</v>
+        <v>0.498128</v>
       </c>
       <c r="D26" t="n">
-        <v>0.394458</v>
+        <v>0.396111</v>
       </c>
       <c r="E26" t="n">
-        <v>0.255079</v>
+        <v>0.253352</v>
       </c>
       <c r="F26" t="n">
-        <v>0.404262</v>
+        <v>0.409203</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.31947</v>
+        <v>0.32135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.47975</v>
+        <v>0.48221</v>
       </c>
       <c r="D27" t="n">
-        <v>0.395945</v>
+        <v>0.396769</v>
       </c>
       <c r="E27" t="n">
-        <v>0.251372</v>
+        <v>0.252002</v>
       </c>
       <c r="F27" t="n">
-        <v>0.403223</v>
+        <v>0.407699</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.310106</v>
+        <v>0.314309</v>
       </c>
       <c r="C28" t="n">
-        <v>0.478067</v>
+        <v>0.480617</v>
       </c>
       <c r="D28" t="n">
-        <v>0.395531</v>
+        <v>0.396236</v>
       </c>
       <c r="E28" t="n">
-        <v>0.252031</v>
+        <v>0.251273</v>
       </c>
       <c r="F28" t="n">
-        <v>0.401162</v>
+        <v>0.406643</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.303459</v>
+        <v>0.304073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.473479</v>
+        <v>0.479837</v>
       </c>
       <c r="D29" t="n">
-        <v>0.395372</v>
+        <v>0.396932</v>
       </c>
       <c r="E29" t="n">
-        <v>0.251335</v>
+        <v>0.250178</v>
       </c>
       <c r="F29" t="n">
-        <v>0.400436</v>
+        <v>0.405429</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.29465</v>
+        <v>0.295704</v>
       </c>
       <c r="C30" t="n">
-        <v>0.462876</v>
+        <v>0.465726</v>
       </c>
       <c r="D30" t="n">
-        <v>0.397048</v>
+        <v>0.398081</v>
       </c>
       <c r="E30" t="n">
-        <v>0.251086</v>
+        <v>0.249082</v>
       </c>
       <c r="F30" t="n">
-        <v>0.399357</v>
+        <v>0.404909</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.284416</v>
+        <v>0.288507</v>
       </c>
       <c r="C31" t="n">
-        <v>0.447536</v>
+        <v>0.44992</v>
       </c>
       <c r="D31" t="n">
-        <v>0.398193</v>
+        <v>0.399086</v>
       </c>
       <c r="E31" t="n">
-        <v>0.24936</v>
+        <v>0.248035</v>
       </c>
       <c r="F31" t="n">
-        <v>0.398919</v>
+        <v>0.40412</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.275269</v>
+        <v>0.279261</v>
       </c>
       <c r="C32" t="n">
-        <v>0.447227</v>
+        <v>0.454975</v>
       </c>
       <c r="D32" t="n">
-        <v>0.398456</v>
+        <v>0.398716</v>
       </c>
       <c r="E32" t="n">
-        <v>0.248927</v>
+        <v>0.247979</v>
       </c>
       <c r="F32" t="n">
-        <v>0.397672</v>
+        <v>0.403331</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.264809</v>
+        <v>0.26875</v>
       </c>
       <c r="C33" t="n">
-        <v>0.433878</v>
+        <v>0.438287</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398431</v>
+        <v>0.399241</v>
       </c>
       <c r="E33" t="n">
-        <v>0.248336</v>
+        <v>0.246784</v>
       </c>
       <c r="F33" t="n">
-        <v>0.396966</v>
+        <v>0.402437</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.253364</v>
+        <v>0.25713</v>
       </c>
       <c r="C34" t="n">
-        <v>0.419869</v>
+        <v>0.423423</v>
       </c>
       <c r="D34" t="n">
-        <v>0.398259</v>
+        <v>0.400618</v>
       </c>
       <c r="E34" t="n">
-        <v>0.248369</v>
+        <v>0.246133</v>
       </c>
       <c r="F34" t="n">
-        <v>0.397206</v>
+        <v>0.401861</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24024</v>
+        <v>0.243946</v>
       </c>
       <c r="C35" t="n">
-        <v>0.405936</v>
+        <v>0.407744</v>
       </c>
       <c r="D35" t="n">
-        <v>0.399705</v>
+        <v>0.401545</v>
       </c>
       <c r="E35" t="n">
-        <v>0.248104</v>
+        <v>0.245061</v>
       </c>
       <c r="F35" t="n">
-        <v>0.396561</v>
+        <v>0.401478</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.226109</v>
+        <v>0.229784</v>
       </c>
       <c r="C36" t="n">
-        <v>0.394518</v>
+        <v>0.396192</v>
       </c>
       <c r="D36" t="n">
-        <v>0.399101</v>
+        <v>0.401358</v>
       </c>
       <c r="E36" t="n">
-        <v>0.247869</v>
+        <v>0.244169</v>
       </c>
       <c r="F36" t="n">
-        <v>0.396507</v>
+        <v>0.401443</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.210442</v>
+        <v>0.213463</v>
       </c>
       <c r="C37" t="n">
-        <v>0.386708</v>
+        <v>0.395125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.40104</v>
+        <v>0.401285</v>
       </c>
       <c r="E37" t="n">
-        <v>0.259227</v>
+        <v>0.258353</v>
       </c>
       <c r="F37" t="n">
-        <v>0.40812</v>
+        <v>0.412501</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.342969</v>
+        <v>0.344272</v>
       </c>
       <c r="C38" t="n">
-        <v>0.501192</v>
+        <v>0.505269</v>
       </c>
       <c r="D38" t="n">
-        <v>0.399455</v>
+        <v>0.401987</v>
       </c>
       <c r="E38" t="n">
-        <v>0.257426</v>
+        <v>0.256377</v>
       </c>
       <c r="F38" t="n">
-        <v>0.406576</v>
+        <v>0.411523</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.338213</v>
+        <v>0.340238</v>
       </c>
       <c r="C39" t="n">
-        <v>0.496572</v>
+        <v>0.500606</v>
       </c>
       <c r="D39" t="n">
-        <v>0.399767</v>
+        <v>0.401877</v>
       </c>
       <c r="E39" t="n">
-        <v>0.25607</v>
+        <v>0.254082</v>
       </c>
       <c r="F39" t="n">
-        <v>0.405303</v>
+        <v>0.409671</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.333337</v>
+        <v>0.334816</v>
       </c>
       <c r="C40" t="n">
-        <v>0.490645</v>
+        <v>0.49599</v>
       </c>
       <c r="D40" t="n">
-        <v>0.398961</v>
+        <v>0.400903</v>
       </c>
       <c r="E40" t="n">
-        <v>0.255324</v>
+        <v>0.253694</v>
       </c>
       <c r="F40" t="n">
-        <v>0.405339</v>
+        <v>0.409396</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326362</v>
+        <v>0.328277</v>
       </c>
       <c r="C41" t="n">
-        <v>0.482713</v>
+        <v>0.487223</v>
       </c>
       <c r="D41" t="n">
-        <v>0.39841</v>
+        <v>0.400081</v>
       </c>
       <c r="E41" t="n">
-        <v>0.254403</v>
+        <v>0.252498</v>
       </c>
       <c r="F41" t="n">
-        <v>0.403806</v>
+        <v>0.413396</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.316481</v>
+        <v>0.321824</v>
       </c>
       <c r="C42" t="n">
-        <v>0.47526</v>
+        <v>0.486313</v>
       </c>
       <c r="D42" t="n">
-        <v>0.399134</v>
+        <v>0.403396</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2525</v>
+        <v>0.251436</v>
       </c>
       <c r="F42" t="n">
-        <v>0.40292</v>
+        <v>0.41223</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.310919</v>
+        <v>0.314162</v>
       </c>
       <c r="C43" t="n">
-        <v>0.469477</v>
+        <v>0.481157</v>
       </c>
       <c r="D43" t="n">
-        <v>0.398998</v>
+        <v>0.405744</v>
       </c>
       <c r="E43" t="n">
-        <v>0.251555</v>
+        <v>0.250566</v>
       </c>
       <c r="F43" t="n">
-        <v>0.40066</v>
+        <v>0.411191</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303251</v>
+        <v>0.305379</v>
       </c>
       <c r="C44" t="n">
-        <v>0.463848</v>
+        <v>0.475463</v>
       </c>
       <c r="D44" t="n">
-        <v>0.399871</v>
+        <v>0.403965</v>
       </c>
       <c r="E44" t="n">
-        <v>0.251349</v>
+        <v>0.249191</v>
       </c>
       <c r="F44" t="n">
-        <v>0.400163</v>
+        <v>0.410659</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.291037</v>
+        <v>0.295462</v>
       </c>
       <c r="C45" t="n">
-        <v>0.454164</v>
+        <v>0.463554</v>
       </c>
       <c r="D45" t="n">
-        <v>0.400015</v>
+        <v>0.405684</v>
       </c>
       <c r="E45" t="n">
-        <v>0.250714</v>
+        <v>0.247971</v>
       </c>
       <c r="F45" t="n">
-        <v>0.399995</v>
+        <v>0.409517</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.280677</v>
+        <v>0.285268</v>
       </c>
       <c r="C46" t="n">
-        <v>0.448362</v>
+        <v>0.458208</v>
       </c>
       <c r="D46" t="n">
-        <v>0.401505</v>
+        <v>0.407285</v>
       </c>
       <c r="E46" t="n">
-        <v>0.249595</v>
+        <v>0.247074</v>
       </c>
       <c r="F46" t="n">
-        <v>0.399661</v>
+        <v>0.408767</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.270291</v>
+        <v>0.273924</v>
       </c>
       <c r="C47" t="n">
-        <v>0.443617</v>
+        <v>0.443591</v>
       </c>
       <c r="D47" t="n">
-        <v>0.401482</v>
+        <v>0.405744</v>
       </c>
       <c r="E47" t="n">
-        <v>0.24932</v>
+        <v>0.246368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.398193</v>
+        <v>0.407636</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.258509</v>
+        <v>0.262194</v>
       </c>
       <c r="C48" t="n">
-        <v>0.425802</v>
+        <v>0.434522</v>
       </c>
       <c r="D48" t="n">
-        <v>0.403121</v>
+        <v>0.407196</v>
       </c>
       <c r="E48" t="n">
-        <v>0.248868</v>
+        <v>0.245757</v>
       </c>
       <c r="F48" t="n">
-        <v>0.396879</v>
+        <v>0.407175</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.245373</v>
+        <v>0.249262</v>
       </c>
       <c r="C49" t="n">
-        <v>0.410396</v>
+        <v>0.418696</v>
       </c>
       <c r="D49" t="n">
-        <v>0.403253</v>
+        <v>0.412036</v>
       </c>
       <c r="E49" t="n">
-        <v>0.24806</v>
+        <v>0.245447</v>
       </c>
       <c r="F49" t="n">
-        <v>0.397442</v>
+        <v>0.407036</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.231251</v>
+        <v>0.23524</v>
       </c>
       <c r="C50" t="n">
-        <v>0.401734</v>
+        <v>0.412664</v>
       </c>
       <c r="D50" t="n">
-        <v>0.404747</v>
+        <v>0.408998</v>
       </c>
       <c r="E50" t="n">
-        <v>0.245997</v>
+        <v>0.244641</v>
       </c>
       <c r="F50" t="n">
-        <v>0.396458</v>
+        <v>0.406326</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.215649</v>
+        <v>0.21985</v>
       </c>
       <c r="C51" t="n">
-        <v>0.385445</v>
+        <v>0.397839</v>
       </c>
       <c r="D51" t="n">
-        <v>0.403856</v>
+        <v>0.408402</v>
       </c>
       <c r="E51" t="n">
-        <v>0.259254</v>
+        <v>0.258579</v>
       </c>
       <c r="F51" t="n">
-        <v>0.409218</v>
+        <v>0.418742</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.20038</v>
+        <v>0.204701</v>
       </c>
       <c r="C52" t="n">
-        <v>0.376774</v>
+        <v>0.389343</v>
       </c>
       <c r="D52" t="n">
-        <v>0.404309</v>
+        <v>0.410189</v>
       </c>
       <c r="E52" t="n">
-        <v>0.25658</v>
+        <v>0.257419</v>
       </c>
       <c r="F52" t="n">
-        <v>0.408052</v>
+        <v>0.41773</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.344155</v>
+        <v>0.345564</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5038319999999999</v>
+        <v>0.508273</v>
       </c>
       <c r="D53" t="n">
-        <v>0.403208</v>
+        <v>0.407179</v>
       </c>
       <c r="E53" t="n">
-        <v>0.255917</v>
+        <v>0.255664</v>
       </c>
       <c r="F53" t="n">
-        <v>0.40658</v>
+        <v>0.411428</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337424</v>
+        <v>0.338586</v>
       </c>
       <c r="C54" t="n">
-        <v>0.489298</v>
+        <v>0.498694</v>
       </c>
       <c r="D54" t="n">
-        <v>0.403805</v>
+        <v>0.40828</v>
       </c>
       <c r="E54" t="n">
-        <v>0.254823</v>
+        <v>0.254132</v>
       </c>
       <c r="F54" t="n">
-        <v>0.405616</v>
+        <v>0.410416</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.331187</v>
+        <v>0.332383</v>
       </c>
       <c r="C55" t="n">
-        <v>0.496759</v>
+        <v>0.504551</v>
       </c>
       <c r="D55" t="n">
-        <v>0.404851</v>
+        <v>0.406782</v>
       </c>
       <c r="E55" t="n">
-        <v>0.253483</v>
+        <v>0.253086</v>
       </c>
       <c r="F55" t="n">
-        <v>0.404426</v>
+        <v>0.408846</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.323285</v>
+        <v>0.324888</v>
       </c>
       <c r="C56" t="n">
-        <v>0.487295</v>
+        <v>0.496531</v>
       </c>
       <c r="D56" t="n">
-        <v>0.40538</v>
+        <v>0.408647</v>
       </c>
       <c r="E56" t="n">
-        <v>0.253571</v>
+        <v>0.252112</v>
       </c>
       <c r="F56" t="n">
-        <v>0.402742</v>
+        <v>0.408176</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.315233</v>
+        <v>0.317525</v>
       </c>
       <c r="C57" t="n">
-        <v>0.489776</v>
+        <v>0.497223</v>
       </c>
       <c r="D57" t="n">
-        <v>0.408116</v>
+        <v>0.409914</v>
       </c>
       <c r="E57" t="n">
-        <v>0.252598</v>
+        <v>0.250653</v>
       </c>
       <c r="F57" t="n">
-        <v>0.402554</v>
+        <v>0.407135</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.306255</v>
+        <v>0.308799</v>
       </c>
       <c r="C58" t="n">
-        <v>0.480738</v>
+        <v>0.488177</v>
       </c>
       <c r="D58" t="n">
-        <v>0.409776</v>
+        <v>0.412649</v>
       </c>
       <c r="E58" t="n">
-        <v>0.25075</v>
+        <v>0.250159</v>
       </c>
       <c r="F58" t="n">
-        <v>0.401378</v>
+        <v>0.406579</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296864</v>
+        <v>0.297977</v>
       </c>
       <c r="C59" t="n">
-        <v>0.470556</v>
+        <v>0.483616</v>
       </c>
       <c r="D59" t="n">
-        <v>0.409522</v>
+        <v>0.413397</v>
       </c>
       <c r="E59" t="n">
-        <v>0.251234</v>
+        <v>0.249134</v>
       </c>
       <c r="F59" t="n">
-        <v>0.401068</v>
+        <v>0.409951</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.285183</v>
+        <v>0.288393</v>
       </c>
       <c r="C60" t="n">
-        <v>0.469154</v>
+        <v>0.485708</v>
       </c>
       <c r="D60" t="n">
-        <v>0.409799</v>
+        <v>0.419137</v>
       </c>
       <c r="E60" t="n">
-        <v>0.25046</v>
+        <v>0.248336</v>
       </c>
       <c r="F60" t="n">
-        <v>0.400387</v>
+        <v>0.409866</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27412</v>
+        <v>0.27784</v>
       </c>
       <c r="C61" t="n">
-        <v>0.472921</v>
+        <v>0.490562</v>
       </c>
       <c r="D61" t="n">
-        <v>0.414088</v>
+        <v>0.417077</v>
       </c>
       <c r="E61" t="n">
-        <v>0.249807</v>
+        <v>0.247125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.399167</v>
+        <v>0.404965</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262159</v>
+        <v>0.26629</v>
       </c>
       <c r="C62" t="n">
-        <v>0.451818</v>
+        <v>0.459343</v>
       </c>
       <c r="D62" t="n">
-        <v>0.418217</v>
+        <v>0.424544</v>
       </c>
       <c r="E62" t="n">
-        <v>0.247743</v>
+        <v>0.246884</v>
       </c>
       <c r="F62" t="n">
-        <v>0.398369</v>
+        <v>0.404158</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.249296</v>
+        <v>0.253528</v>
       </c>
       <c r="C63" t="n">
-        <v>0.452212</v>
+        <v>0.460996</v>
       </c>
       <c r="D63" t="n">
-        <v>0.420172</v>
+        <v>0.425357</v>
       </c>
       <c r="E63" t="n">
-        <v>0.246616</v>
+        <v>0.246216</v>
       </c>
       <c r="F63" t="n">
-        <v>0.398075</v>
+        <v>0.403847</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235506</v>
+        <v>0.240114</v>
       </c>
       <c r="C64" t="n">
-        <v>0.432347</v>
+        <v>0.435897</v>
       </c>
       <c r="D64" t="n">
-        <v>0.472801</v>
+        <v>0.484558</v>
       </c>
       <c r="E64" t="n">
-        <v>0.245617</v>
+        <v>0.244137</v>
       </c>
       <c r="F64" t="n">
-        <v>0.397725</v>
+        <v>0.403203</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.220907</v>
+        <v>0.225103</v>
       </c>
       <c r="C65" t="n">
-        <v>0.424847</v>
+        <v>0.431109</v>
       </c>
       <c r="D65" t="n">
-        <v>0.465234</v>
+        <v>0.473602</v>
       </c>
       <c r="E65" t="n">
-        <v>0.245573</v>
+        <v>0.244257</v>
       </c>
       <c r="F65" t="n">
-        <v>0.396952</v>
+        <v>0.402574</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2058</v>
+        <v>0.209502</v>
       </c>
       <c r="C66" t="n">
-        <v>0.408759</v>
+        <v>0.419309</v>
       </c>
       <c r="D66" t="n">
-        <v>0.460692</v>
+        <v>0.468862</v>
       </c>
       <c r="E66" t="n">
-        <v>0.26354</v>
+        <v>0.266958</v>
       </c>
       <c r="F66" t="n">
-        <v>0.408831</v>
+        <v>0.413261</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346385</v>
+        <v>0.347576</v>
       </c>
       <c r="C67" t="n">
-        <v>0.564642</v>
+        <v>0.581519</v>
       </c>
       <c r="D67" t="n">
-        <v>0.476397</v>
+        <v>0.492975</v>
       </c>
       <c r="E67" t="n">
-        <v>0.26124</v>
+        <v>0.263142</v>
       </c>
       <c r="F67" t="n">
-        <v>0.407249</v>
+        <v>0.412796</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.339559</v>
+        <v>0.341347</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5849299999999999</v>
+        <v>0.603796</v>
       </c>
       <c r="D68" t="n">
-        <v>0.484179</v>
+        <v>0.493705</v>
       </c>
       <c r="E68" t="n">
-        <v>0.259167</v>
+        <v>0.26104</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4057</v>
+        <v>0.411035</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.332551</v>
+        <v>0.334556</v>
       </c>
       <c r="C69" t="n">
-        <v>0.53009</v>
+        <v>0.543458</v>
       </c>
       <c r="D69" t="n">
-        <v>0.50148</v>
+        <v>0.502061</v>
       </c>
       <c r="E69" t="n">
-        <v>0.257574</v>
+        <v>0.259087</v>
       </c>
       <c r="F69" t="n">
-        <v>0.404432</v>
+        <v>0.409551</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.325729</v>
+        <v>0.327681</v>
       </c>
       <c r="C70" t="n">
-        <v>0.602078</v>
+        <v>0.625075</v>
       </c>
       <c r="D70" t="n">
-        <v>0.487269</v>
+        <v>0.500813</v>
       </c>
       <c r="E70" t="n">
-        <v>0.255964</v>
+        <v>0.257358</v>
       </c>
       <c r="F70" t="n">
-        <v>0.40325</v>
+        <v>0.408423</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.318555</v>
+        <v>0.320513</v>
       </c>
       <c r="C71" t="n">
-        <v>0.583093</v>
+        <v>0.6049290000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.498457</v>
+        <v>0.509817</v>
       </c>
       <c r="E71" t="n">
-        <v>0.255218</v>
+        <v>0.255338</v>
       </c>
       <c r="F71" t="n">
-        <v>0.402664</v>
+        <v>0.407651</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.310139</v>
+        <v>0.31175</v>
       </c>
       <c r="C72" t="n">
-        <v>0.601374</v>
+        <v>0.626219</v>
       </c>
       <c r="D72" t="n">
-        <v>0.504375</v>
+        <v>0.5130130000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.252958</v>
+        <v>0.252782</v>
       </c>
       <c r="F72" t="n">
-        <v>0.401746</v>
+        <v>0.407952</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300419</v>
+        <v>0.303348</v>
       </c>
       <c r="C73" t="n">
-        <v>0.59216</v>
+        <v>0.626189</v>
       </c>
       <c r="D73" t="n">
-        <v>0.502582</v>
+        <v>0.51957</v>
       </c>
       <c r="E73" t="n">
-        <v>0.251671</v>
+        <v>0.25045</v>
       </c>
       <c r="F73" t="n">
-        <v>0.400535</v>
+        <v>0.410795</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.289914</v>
+        <v>0.293484</v>
       </c>
       <c r="C74" t="n">
-        <v>0.54204</v>
+        <v>0.570281</v>
       </c>
       <c r="D74" t="n">
-        <v>0.509259</v>
+        <v>0.524199</v>
       </c>
       <c r="E74" t="n">
-        <v>0.250871</v>
+        <v>0.248969</v>
       </c>
       <c r="F74" t="n">
-        <v>0.400403</v>
+        <v>0.41014</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278894</v>
+        <v>0.282436</v>
       </c>
       <c r="C75" t="n">
-        <v>0.593981</v>
+        <v>0.624564</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5121250000000001</v>
+        <v>0.522543</v>
       </c>
       <c r="E75" t="n">
-        <v>0.247472</v>
+        <v>0.247642</v>
       </c>
       <c r="F75" t="n">
-        <v>0.399124</v>
+        <v>0.409234</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267199</v>
+        <v>0.270538</v>
       </c>
       <c r="C76" t="n">
-        <v>0.558815</v>
+        <v>0.582548</v>
       </c>
       <c r="D76" t="n">
-        <v>0.520661</v>
+        <v>0.526816</v>
       </c>
       <c r="E76" t="n">
-        <v>0.248323</v>
+        <v>0.247103</v>
       </c>
       <c r="F76" t="n">
-        <v>0.398218</v>
+        <v>0.404096</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254051</v>
+        <v>0.257155</v>
       </c>
       <c r="C77" t="n">
-        <v>0.514068</v>
+        <v>0.533292</v>
       </c>
       <c r="D77" t="n">
-        <v>0.510449</v>
+        <v>0.521938</v>
       </c>
       <c r="E77" t="n">
-        <v>0.24719</v>
+        <v>0.246277</v>
       </c>
       <c r="F77" t="n">
-        <v>0.39785</v>
+        <v>0.403503</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.240781</v>
+        <v>0.243757</v>
       </c>
       <c r="C78" t="n">
-        <v>0.549779</v>
+        <v>0.577199</v>
       </c>
       <c r="D78" t="n">
-        <v>0.581804</v>
+        <v>0.6019679999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.246552</v>
+        <v>0.245454</v>
       </c>
       <c r="F78" t="n">
-        <v>0.39708</v>
+        <v>0.402884</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.225835</v>
+        <v>0.229987</v>
       </c>
       <c r="C79" t="n">
-        <v>0.502737</v>
+        <v>0.525315</v>
       </c>
       <c r="D79" t="n">
-        <v>0.631306</v>
+        <v>0.615935</v>
       </c>
       <c r="E79" t="n">
-        <v>0.246338</v>
+        <v>0.24472</v>
       </c>
       <c r="F79" t="n">
-        <v>0.396631</v>
+        <v>0.402484</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210752</v>
+        <v>0.214056</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5212290000000001</v>
+        <v>0.544071</v>
       </c>
       <c r="D80" t="n">
-        <v>0.633584</v>
+        <v>0.659234</v>
       </c>
       <c r="E80" t="n">
-        <v>0.261346</v>
+        <v>0.260997</v>
       </c>
       <c r="F80" t="n">
-        <v>0.409325</v>
+        <v>0.413982</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.346899</v>
+        <v>0.348184</v>
       </c>
       <c r="C81" t="n">
-        <v>0.52976</v>
+        <v>0.54304</v>
       </c>
       <c r="D81" t="n">
-        <v>0.589421</v>
+        <v>0.6092379999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.259717</v>
+        <v>0.258609</v>
       </c>
       <c r="F81" t="n">
-        <v>0.407897</v>
+        <v>0.415157</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.340244</v>
+        <v>0.342713</v>
       </c>
       <c r="C82" t="n">
-        <v>0.64833</v>
+        <v>0.670198</v>
       </c>
       <c r="D82" t="n">
-        <v>0.58934</v>
+        <v>0.609592</v>
       </c>
       <c r="E82" t="n">
-        <v>0.257733</v>
+        <v>0.256313</v>
       </c>
       <c r="F82" t="n">
-        <v>0.407271</v>
+        <v>0.411942</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.333784</v>
+        <v>0.336318</v>
       </c>
       <c r="C83" t="n">
-        <v>0.609167</v>
+        <v>0.630815</v>
       </c>
       <c r="D83" t="n">
-        <v>0.586911</v>
+        <v>0.608079</v>
       </c>
       <c r="E83" t="n">
-        <v>0.256194</v>
+        <v>0.254746</v>
       </c>
       <c r="F83" t="n">
-        <v>0.406027</v>
+        <v>0.410227</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.326652</v>
+        <v>0.329268</v>
       </c>
       <c r="C84" t="n">
-        <v>0.580021</v>
+        <v>0.59959</v>
       </c>
       <c r="D84" t="n">
-        <v>0.598441</v>
+        <v>0.622261</v>
       </c>
       <c r="E84" t="n">
-        <v>0.255068</v>
+        <v>0.253576</v>
       </c>
       <c r="F84" t="n">
-        <v>0.404054</v>
+        <v>0.409186</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.318418</v>
+        <v>0.321983</v>
       </c>
       <c r="C85" t="n">
-        <v>0.609361</v>
+        <v>0.633684</v>
       </c>
       <c r="D85" t="n">
-        <v>0.584474</v>
+        <v>0.599292</v>
       </c>
       <c r="E85" t="n">
-        <v>0.252852</v>
+        <v>0.250483</v>
       </c>
       <c r="F85" t="n">
-        <v>0.402699</v>
+        <v>0.407766</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31082</v>
+        <v>0.313647</v>
       </c>
       <c r="C86" t="n">
-        <v>0.548025</v>
+        <v>0.562099</v>
       </c>
       <c r="D86" t="n">
-        <v>0.571014</v>
+        <v>0.590228</v>
       </c>
       <c r="E86" t="n">
-        <v>0.253052</v>
+        <v>0.251047</v>
       </c>
       <c r="F86" t="n">
-        <v>0.402973</v>
+        <v>0.407419</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300495</v>
+        <v>0.304363</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5622239999999999</v>
+        <v>0.5878679999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.596728</v>
+        <v>0.625829</v>
       </c>
       <c r="E87" t="n">
-        <v>0.252138</v>
+        <v>0.249863</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4022</v>
+        <v>0.411261</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290108</v>
+        <v>0.294258</v>
       </c>
       <c r="C88" t="n">
-        <v>0.517119</v>
+        <v>0.5359969999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.564151</v>
+        <v>0.584865</v>
       </c>
       <c r="E88" t="n">
-        <v>0.251158</v>
+        <v>0.248943</v>
       </c>
       <c r="F88" t="n">
-        <v>0.401504</v>
+        <v>0.410051</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.279329</v>
+        <v>0.284231</v>
       </c>
       <c r="C89" t="n">
-        <v>0.618119</v>
+        <v>0.649933</v>
       </c>
       <c r="D89" t="n">
-        <v>0.564168</v>
+        <v>0.584264</v>
       </c>
       <c r="E89" t="n">
-        <v>0.249208</v>
+        <v>0.248111</v>
       </c>
       <c r="F89" t="n">
-        <v>0.399599</v>
+        <v>0.405117</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.26806</v>
+        <v>0.272774</v>
       </c>
       <c r="C90" t="n">
-        <v>0.496058</v>
+        <v>0.5067430000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5573630000000001</v>
+        <v>0.574291</v>
       </c>
       <c r="E90" t="n">
-        <v>0.248604</v>
+        <v>0.247102</v>
       </c>
       <c r="F90" t="n">
-        <v>0.399131</v>
+        <v>0.405105</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.25609</v>
+        <v>0.260296</v>
       </c>
       <c r="C91" t="n">
-        <v>0.447536</v>
+        <v>0.45879</v>
       </c>
       <c r="D91" t="n">
-        <v>0.558327</v>
+        <v>0.569798</v>
       </c>
       <c r="E91" t="n">
-        <v>0.247263</v>
+        <v>0.246818</v>
       </c>
       <c r="F91" t="n">
-        <v>0.398517</v>
+        <v>0.403849</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.243184</v>
+        <v>0.247413</v>
       </c>
       <c r="C92" t="n">
-        <v>0.523505</v>
+        <v>0.543504</v>
       </c>
       <c r="D92" t="n">
-        <v>0.615304</v>
+        <v>0.640225</v>
       </c>
       <c r="E92" t="n">
-        <v>0.246507</v>
+        <v>0.246101</v>
       </c>
       <c r="F92" t="n">
-        <v>0.397958</v>
+        <v>0.403359</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.229042</v>
+        <v>0.233235</v>
       </c>
       <c r="C93" t="n">
-        <v>0.499419</v>
+        <v>0.5158160000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.613924</v>
+        <v>0.637572</v>
       </c>
       <c r="E93" t="n">
-        <v>0.247968</v>
+        <v>0.245023</v>
       </c>
       <c r="F93" t="n">
-        <v>0.397632</v>
+        <v>0.406824</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.214443</v>
+        <v>0.217857</v>
       </c>
       <c r="C94" t="n">
-        <v>0.495435</v>
+        <v>0.5126540000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.597616</v>
+        <v>0.633275</v>
       </c>
       <c r="E94" t="n">
-        <v>0.262236</v>
+        <v>0.261326</v>
       </c>
       <c r="F94" t="n">
-        <v>0.409876</v>
+        <v>0.413952</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.347251</v>
+        <v>0.348509</v>
       </c>
       <c r="C95" t="n">
-        <v>0.689468</v>
+        <v>0.720766</v>
       </c>
       <c r="D95" t="n">
-        <v>0.598195</v>
+        <v>0.622088</v>
       </c>
       <c r="E95" t="n">
-        <v>0.25974</v>
+        <v>0.259002</v>
       </c>
       <c r="F95" t="n">
-        <v>0.407808</v>
+        <v>0.413137</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34268</v>
+        <v>0.343296</v>
       </c>
       <c r="C96" t="n">
-        <v>0.678647</v>
+        <v>0.708054</v>
       </c>
       <c r="D96" t="n">
-        <v>0.601075</v>
+        <v>0.625051</v>
       </c>
       <c r="E96" t="n">
-        <v>0.257047</v>
+        <v>0.256623</v>
       </c>
       <c r="F96" t="n">
-        <v>0.406814</v>
+        <v>0.41141</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.33649</v>
+        <v>0.337183</v>
       </c>
       <c r="C97" t="n">
-        <v>0.650457</v>
+        <v>0.6767649999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5956</v>
+        <v>0.612779</v>
       </c>
       <c r="E97" t="n">
-        <v>0.256629</v>
+        <v>0.255569</v>
       </c>
       <c r="F97" t="n">
-        <v>0.405539</v>
+        <v>0.410575</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.329332</v>
+        <v>0.330157</v>
       </c>
       <c r="C98" t="n">
-        <v>0.574655</v>
+        <v>0.592776</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5818719999999999</v>
+        <v>0.601515</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2552</v>
+        <v>0.253694</v>
       </c>
       <c r="F98" t="n">
-        <v>0.404251</v>
+        <v>0.4093</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.321482</v>
+        <v>0.323362</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5956630000000001</v>
+        <v>0.6186430000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.58563</v>
+        <v>0.596302</v>
       </c>
       <c r="E99" t="n">
-        <v>0.253925</v>
+        <v>0.252262</v>
       </c>
       <c r="F99" t="n">
-        <v>0.403806</v>
+        <v>0.409285</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.313006</v>
+        <v>0.315901</v>
       </c>
       <c r="C100" t="n">
-        <v>0.631175</v>
+        <v>0.604947</v>
       </c>
       <c r="D100" t="n">
-        <v>0.579534</v>
+        <v>0.60076</v>
       </c>
       <c r="E100" t="n">
-        <v>0.252647</v>
+        <v>0.251063</v>
       </c>
       <c r="F100" t="n">
-        <v>0.402465</v>
+        <v>0.406978</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.303855</v>
+        <v>0.306789</v>
       </c>
       <c r="C101" t="n">
-        <v>0.596728</v>
+        <v>0.6212259999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.573449</v>
+        <v>0.59323</v>
       </c>
       <c r="E101" t="n">
-        <v>0.251943</v>
+        <v>0.24991</v>
       </c>
       <c r="F101" t="n">
-        <v>0.401593</v>
+        <v>0.406057</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.293835</v>
+        <v>0.296539</v>
       </c>
       <c r="C102" t="n">
-        <v>0.597003</v>
+        <v>0.621611</v>
       </c>
       <c r="D102" t="n">
-        <v>0.567447</v>
+        <v>0.5865</v>
       </c>
       <c r="E102" t="n">
-        <v>0.25115</v>
+        <v>0.249003</v>
       </c>
       <c r="F102" t="n">
-        <v>0.400323</v>
+        <v>0.405659</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.283031</v>
+        <v>0.286225</v>
       </c>
       <c r="C103" t="n">
-        <v>0.570283</v>
+        <v>0.595799</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5562279999999999</v>
+        <v>0.573689</v>
       </c>
       <c r="E103" t="n">
-        <v>0.249574</v>
+        <v>0.248213</v>
       </c>
       <c r="F103" t="n">
-        <v>0.400063</v>
+        <v>0.404744</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.27151</v>
+        <v>0.275357</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5297190000000001</v>
+        <v>0.547438</v>
       </c>
       <c r="D104" t="n">
-        <v>0.553141</v>
+        <v>0.570578</v>
       </c>
       <c r="E104" t="n">
-        <v>0.249711</v>
+        <v>0.247291</v>
       </c>
       <c r="F104" t="n">
-        <v>0.399551</v>
+        <v>0.404407</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.259291</v>
+        <v>0.262803</v>
       </c>
       <c r="C105" t="n">
-        <v>0.572101</v>
+        <v>0.599482</v>
       </c>
       <c r="D105" t="n">
-        <v>0.547192</v>
+        <v>0.563679</v>
       </c>
       <c r="E105" t="n">
-        <v>0.248894</v>
+        <v>0.247167</v>
       </c>
       <c r="F105" t="n">
-        <v>0.398139</v>
+        <v>0.403698</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246201</v>
+        <v>0.250051</v>
       </c>
       <c r="C106" t="n">
-        <v>0.561755</v>
+        <v>0.5887829999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.541829</v>
+        <v>0.55681</v>
       </c>
       <c r="E106" t="n">
-        <v>0.248315</v>
+        <v>0.246033</v>
       </c>
       <c r="F106" t="n">
-        <v>0.397801</v>
+        <v>0.403334</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.23211</v>
+        <v>0.236112</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5155459999999999</v>
+        <v>0.530939</v>
       </c>
       <c r="D107" t="n">
-        <v>0.618652</v>
+        <v>0.642521</v>
       </c>
       <c r="E107" t="n">
-        <v>0.248124</v>
+        <v>0.245309</v>
       </c>
       <c r="F107" t="n">
-        <v>0.39769</v>
+        <v>0.40273</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.217185</v>
+        <v>0.22151</v>
       </c>
       <c r="C108" t="n">
-        <v>0.515778</v>
+        <v>0.537836</v>
       </c>
       <c r="D108" t="n">
-        <v>0.591863</v>
+        <v>0.620368</v>
       </c>
       <c r="E108" t="n">
-        <v>0.262374</v>
+        <v>0.261239</v>
       </c>
       <c r="F108" t="n">
-        <v>0.410199</v>
+        <v>0.416927</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.200793</v>
+        <v>0.204649</v>
       </c>
       <c r="C109" t="n">
-        <v>0.486565</v>
+        <v>0.501707</v>
       </c>
       <c r="D109" t="n">
-        <v>0.618337</v>
+        <v>0.637149</v>
       </c>
       <c r="E109" t="n">
-        <v>0.259897</v>
+        <v>0.258674</v>
       </c>
       <c r="F109" t="n">
-        <v>0.40883</v>
+        <v>0.41588</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.343105</v>
+        <v>0.344048</v>
       </c>
       <c r="C110" t="n">
-        <v>0.641313</v>
+        <v>0.6621939999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.58783</v>
+        <v>0.609463</v>
       </c>
       <c r="E110" t="n">
-        <v>0.25817</v>
+        <v>0.256763</v>
       </c>
       <c r="F110" t="n">
-        <v>0.407683</v>
+        <v>0.415531</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.337508</v>
+        <v>0.337897</v>
       </c>
       <c r="C111" t="n">
-        <v>0.589596</v>
+        <v>0.60487</v>
       </c>
       <c r="D111" t="n">
-        <v>0.584958</v>
+        <v>0.609654</v>
       </c>
       <c r="E111" t="n">
-        <v>0.256724</v>
+        <v>0.255122</v>
       </c>
       <c r="F111" t="n">
-        <v>0.406355</v>
+        <v>0.411553</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.330475</v>
+        <v>0.331384</v>
       </c>
       <c r="C112" t="n">
-        <v>0.538888</v>
+        <v>0.549158</v>
       </c>
       <c r="D112" t="n">
-        <v>0.581637</v>
+        <v>0.606478</v>
       </c>
       <c r="E112" t="n">
-        <v>0.255431</v>
+        <v>0.253666</v>
       </c>
       <c r="F112" t="n">
-        <v>0.404671</v>
+        <v>0.409827</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.322608</v>
+        <v>0.325179</v>
       </c>
       <c r="C113" t="n">
-        <v>0.575178</v>
+        <v>0.594549</v>
       </c>
       <c r="D113" t="n">
-        <v>0.59046</v>
+        <v>0.611005</v>
       </c>
       <c r="E113" t="n">
-        <v>0.254075</v>
+        <v>0.252466</v>
       </c>
       <c r="F113" t="n">
-        <v>0.404261</v>
+        <v>0.412341</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.313763</v>
+        <v>0.316913</v>
       </c>
       <c r="C114" t="n">
-        <v>0.579173</v>
+        <v>0.5988289999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.584601</v>
+        <v>0.605</v>
       </c>
       <c r="E114" t="n">
-        <v>0.252992</v>
+        <v>0.251223</v>
       </c>
       <c r="F114" t="n">
-        <v>0.403235</v>
+        <v>0.409187</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.305437</v>
+        <v>0.307482</v>
       </c>
       <c r="C115" t="n">
-        <v>0.56481</v>
+        <v>0.584487</v>
       </c>
       <c r="D115" t="n">
-        <v>0.577974</v>
+        <v>0.594579</v>
       </c>
       <c r="E115" t="n">
-        <v>0.252067</v>
+        <v>0.250042</v>
       </c>
       <c r="F115" t="n">
-        <v>0.402211</v>
+        <v>0.410385</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.295087</v>
+        <v>0.29825</v>
       </c>
       <c r="C116" t="n">
-        <v>0.643494</v>
+        <v>0.67627</v>
       </c>
       <c r="D116" t="n">
-        <v>0.568833</v>
+        <v>0.587268</v>
       </c>
       <c r="E116" t="n">
-        <v>0.250467</v>
+        <v>0.249228</v>
       </c>
       <c r="F116" t="n">
-        <v>0.401398</v>
+        <v>0.406025</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.285168</v>
+        <v>0.287672</v>
       </c>
       <c r="C117" t="n">
-        <v>0.555218</v>
+        <v>0.576543</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5577490000000001</v>
+        <v>0.576058</v>
       </c>
       <c r="E117" t="n">
-        <v>0.250455</v>
+        <v>0.248244</v>
       </c>
       <c r="F117" t="n">
-        <v>0.400862</v>
+        <v>0.407793</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.272518</v>
+        <v>0.276981</v>
       </c>
       <c r="C118" t="n">
-        <v>0.557066</v>
+        <v>0.581824</v>
       </c>
       <c r="D118" t="n">
-        <v>0.558594</v>
+        <v>0.571919</v>
       </c>
       <c r="E118" t="n">
-        <v>0.250314</v>
+        <v>0.247541</v>
       </c>
       <c r="F118" t="n">
-        <v>0.399186</v>
+        <v>0.408325</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260548</v>
+        <v>0.265041</v>
       </c>
       <c r="C119" t="n">
-        <v>0.53137</v>
+        <v>0.552613</v>
       </c>
       <c r="D119" t="n">
-        <v>0.549397</v>
+        <v>0.564999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.249439</v>
+        <v>0.246773</v>
       </c>
       <c r="F119" t="n">
-        <v>0.399201</v>
+        <v>0.403729</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.248029</v>
+        <v>0.25251</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5475</v>
+        <v>0.570785</v>
       </c>
       <c r="D120" t="n">
-        <v>0.543681</v>
+        <v>0.5594</v>
       </c>
       <c r="E120" t="n">
-        <v>0.247755</v>
+        <v>0.246127</v>
       </c>
       <c r="F120" t="n">
-        <v>0.398447</v>
+        <v>0.404691</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.234612</v>
+        <v>0.238577</v>
       </c>
       <c r="C121" t="n">
-        <v>0.483023</v>
+        <v>0.500837</v>
       </c>
       <c r="D121" t="n">
-        <v>0.605077</v>
+        <v>0.633364</v>
       </c>
       <c r="E121" t="n">
-        <v>0.249099</v>
+        <v>0.245557</v>
       </c>
       <c r="F121" t="n">
-        <v>0.397826</v>
+        <v>0.405687</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.220973</v>
+        <v>0.223862</v>
       </c>
       <c r="C122" t="n">
-        <v>0.431683</v>
+        <v>0.441331</v>
       </c>
       <c r="D122" t="n">
-        <v>0.632397</v>
+        <v>0.656592</v>
       </c>
       <c r="E122" t="n">
-        <v>0.247683</v>
+        <v>0.244904</v>
       </c>
       <c r="F122" t="n">
-        <v>0.397526</v>
+        <v>0.402609</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.204031</v>
+        <v>0.208376</v>
       </c>
       <c r="C123" t="n">
-        <v>0.445961</v>
+        <v>0.459085</v>
       </c>
       <c r="D123" t="n">
-        <v>0.625512</v>
+        <v>0.650683</v>
       </c>
       <c r="E123" t="n">
-        <v>0.259741</v>
+        <v>0.258935</v>
       </c>
       <c r="F123" t="n">
-        <v>0.408862</v>
+        <v>0.413088</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.342336</v>
+        <v>0.345083</v>
       </c>
       <c r="C124" t="n">
-        <v>0.665109</v>
+        <v>0.692793</v>
       </c>
       <c r="D124" t="n">
-        <v>0.618283</v>
+        <v>0.640882</v>
       </c>
       <c r="E124" t="n">
-        <v>0.258497</v>
+        <v>0.257532</v>
       </c>
       <c r="F124" t="n">
-        <v>0.406774</v>
+        <v>0.411709</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.336934</v>
+        <v>0.339444</v>
       </c>
       <c r="C125" t="n">
-        <v>0.573563</v>
+        <v>0.586985</v>
       </c>
       <c r="D125" t="n">
-        <v>0.612922</v>
+        <v>0.634371</v>
       </c>
       <c r="E125" t="n">
-        <v>0.256485</v>
+        <v>0.255832</v>
       </c>
       <c r="F125" t="n">
-        <v>0.406183</v>
+        <v>0.410729</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.32967</v>
+        <v>0.332839</v>
       </c>
       <c r="C126" t="n">
-        <v>0.668195</v>
+        <v>0.698593</v>
       </c>
       <c r="D126" t="n">
-        <v>0.606859</v>
+        <v>0.627712</v>
       </c>
       <c r="E126" t="n">
-        <v>0.254964</v>
+        <v>0.254322</v>
       </c>
       <c r="F126" t="n">
-        <v>0.405047</v>
+        <v>0.409488</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323697</v>
+        <v>0.325546</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5825360000000001</v>
+        <v>0.601818</v>
       </c>
       <c r="D127" t="n">
-        <v>0.586321</v>
+        <v>0.6113499999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.253809</v>
+        <v>0.253139</v>
       </c>
       <c r="F127" t="n">
-        <v>0.40377</v>
+        <v>0.408449</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.315485</v>
+        <v>0.318111</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6112</v>
+        <v>0.636578</v>
       </c>
       <c r="D128" t="n">
-        <v>0.580803</v>
+        <v>0.602236</v>
       </c>
       <c r="E128" t="n">
-        <v>0.252577</v>
+        <v>0.251933</v>
       </c>
       <c r="F128" t="n">
-        <v>0.402985</v>
+        <v>0.407363</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.30531</v>
+        <v>0.308924</v>
       </c>
       <c r="C129" t="n">
-        <v>0.544103</v>
+        <v>0.563656</v>
       </c>
       <c r="D129" t="n">
-        <v>0.577991</v>
+        <v>0.596244</v>
       </c>
       <c r="E129" t="n">
-        <v>0.252176</v>
+        <v>0.250796</v>
       </c>
       <c r="F129" t="n">
-        <v>0.402113</v>
+        <v>0.407212</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.295454</v>
+        <v>0.299496</v>
       </c>
       <c r="C130" t="n">
-        <v>0.54881</v>
+        <v>0.5664979999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.56908</v>
+        <v>0.592186</v>
       </c>
       <c r="E130" t="n">
-        <v>0.251779</v>
+        <v>0.249844</v>
       </c>
       <c r="F130" t="n">
-        <v>0.401075</v>
+        <v>0.40585</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.285476</v>
+        <v>0.289281</v>
       </c>
       <c r="C131" t="n">
-        <v>0.54945</v>
+        <v>0.5693009999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.565937</v>
+        <v>0.584674</v>
       </c>
       <c r="E131" t="n">
-        <v>0.250459</v>
+        <v>0.248941</v>
       </c>
       <c r="F131" t="n">
-        <v>0.400341</v>
+        <v>0.404961</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.274125</v>
+        <v>0.278489</v>
       </c>
       <c r="C132" t="n">
-        <v>0.542672</v>
+        <v>0.5597299999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.561956</v>
+        <v>0.579839</v>
       </c>
       <c r="E132" t="n">
-        <v>0.249799</v>
+        <v>0.247528</v>
       </c>
       <c r="F132" t="n">
-        <v>0.399664</v>
+        <v>0.404543</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.262992</v>
+        <v>0.266823</v>
       </c>
       <c r="C133" t="n">
-        <v>0.555412</v>
+        <v>0.576871</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5578070000000001</v>
+        <v>0.572099</v>
       </c>
       <c r="E133" t="n">
-        <v>0.248357</v>
+        <v>0.246922</v>
       </c>
       <c r="F133" t="n">
-        <v>0.399006</v>
+        <v>0.403945</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.250225</v>
+        <v>0.254485</v>
       </c>
       <c r="C134" t="n">
-        <v>0.478869</v>
+        <v>0.494677</v>
       </c>
       <c r="D134" t="n">
-        <v>0.549119</v>
+        <v>0.564416</v>
       </c>
       <c r="E134" t="n">
-        <v>0.247881</v>
+        <v>0.246181</v>
       </c>
       <c r="F134" t="n">
-        <v>0.398514</v>
+        <v>0.403417</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.236753</v>
+        <v>0.241158</v>
       </c>
       <c r="C135" t="n">
-        <v>0.516005</v>
+        <v>0.533938</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6353220000000001</v>
+        <v>0.661524</v>
       </c>
       <c r="E135" t="n">
-        <v>0.247051</v>
+        <v>0.245514</v>
       </c>
       <c r="F135" t="n">
-        <v>0.397358</v>
+        <v>0.402471</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.222671</v>
+        <v>0.226862</v>
       </c>
       <c r="C136" t="n">
-        <v>0.510431</v>
+        <v>0.526266</v>
       </c>
       <c r="D136" t="n">
-        <v>0.630149</v>
+        <v>0.656881</v>
       </c>
       <c r="E136" t="n">
-        <v>0.246951</v>
+        <v>0.245056</v>
       </c>
       <c r="F136" t="n">
-        <v>0.397615</v>
+        <v>0.402689</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.206523</v>
+        <v>0.211275</v>
       </c>
       <c r="C137" t="n">
-        <v>0.526697</v>
+        <v>0.548724</v>
       </c>
       <c r="D137" t="n">
-        <v>0.606604</v>
+        <v>0.629653</v>
       </c>
       <c r="E137" t="n">
-        <v>0.260568</v>
+        <v>0.259572</v>
       </c>
       <c r="F137" t="n">
-        <v>0.409278</v>
+        <v>0.414483</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.345591</v>
+        <v>0.346308</v>
       </c>
       <c r="C138" t="n">
-        <v>0.652582</v>
+        <v>0.677709</v>
       </c>
       <c r="D138" t="n">
-        <v>0.605298</v>
+        <v>0.632966</v>
       </c>
       <c r="E138" t="n">
-        <v>0.25811</v>
+        <v>0.257253</v>
       </c>
       <c r="F138" t="n">
-        <v>0.408004</v>
+        <v>0.412701</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34014</v>
+        <v>0.34029</v>
       </c>
       <c r="C139" t="n">
-        <v>0.519226</v>
+        <v>0.5248390000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.600565</v>
+        <v>0.624661</v>
       </c>
       <c r="E139" t="n">
-        <v>0.257071</v>
+        <v>0.255907</v>
       </c>
       <c r="F139" t="n">
-        <v>0.406758</v>
+        <v>0.411601</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.332811</v>
+        <v>0.334358</v>
       </c>
       <c r="C140" t="n">
-        <v>0.620907</v>
+        <v>0.641415</v>
       </c>
       <c r="D140" t="n">
-        <v>0.597898</v>
+        <v>0.624356</v>
       </c>
       <c r="E140" t="n">
-        <v>0.255936</v>
+        <v>0.254581</v>
       </c>
       <c r="F140" t="n">
-        <v>0.405638</v>
+        <v>0.41064</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.324887</v>
+        <v>0.32738</v>
       </c>
       <c r="C141" t="n">
-        <v>0.667803</v>
+        <v>0.701921</v>
       </c>
       <c r="D141" t="n">
-        <v>0.603959</v>
+        <v>0.627333</v>
       </c>
       <c r="E141" t="n">
-        <v>0.254606</v>
+        <v>0.253162</v>
       </c>
       <c r="F141" t="n">
-        <v>0.404443</v>
+        <v>0.40881</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.315803</v>
+        <v>0.31923</v>
       </c>
       <c r="C142" t="n">
-        <v>0.670339</v>
+        <v>0.706608</v>
       </c>
       <c r="D142" t="n">
-        <v>0.587838</v>
+        <v>0.608611</v>
       </c>
       <c r="E142" t="n">
-        <v>0.252701</v>
+        <v>0.251869</v>
       </c>
       <c r="F142" t="n">
-        <v>0.403497</v>
+        <v>0.408447</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.307271</v>
+        <v>0.310858</v>
       </c>
       <c r="C143" t="n">
-        <v>0.597393</v>
+        <v>0.621426</v>
       </c>
       <c r="D143" t="n">
-        <v>0.592109</v>
+        <v>0.610254</v>
       </c>
       <c r="E143" t="n">
-        <v>0.251661</v>
+        <v>0.250865</v>
       </c>
       <c r="F143" t="n">
-        <v>0.401937</v>
+        <v>0.406983</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Running erasure.xlsx
+++ b/clang-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252059</v>
+        <v>0.265638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.449472</v>
+        <v>0.451079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.384975</v>
+        <v>0.385342</v>
       </c>
       <c r="E2" t="n">
-        <v>0.219963</v>
+        <v>0.219077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.39644</v>
+        <v>0.396354</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.248006</v>
+        <v>0.256427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.443274</v>
+        <v>0.443511</v>
       </c>
       <c r="D3" t="n">
-        <v>0.385641</v>
+        <v>0.386441</v>
       </c>
       <c r="E3" t="n">
-        <v>0.221303</v>
+        <v>0.220341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.397045</v>
+        <v>0.397657</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243015</v>
+        <v>0.248008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.435896</v>
+        <v>0.43525</v>
       </c>
       <c r="D4" t="n">
-        <v>0.388327</v>
+        <v>0.386681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.222854</v>
+        <v>0.221952</v>
       </c>
       <c r="F4" t="n">
-        <v>0.399453</v>
+        <v>0.396762</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.233966</v>
+        <v>0.239573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.420117</v>
+        <v>0.422296</v>
       </c>
       <c r="D5" t="n">
-        <v>0.387669</v>
+        <v>0.386978</v>
       </c>
       <c r="E5" t="n">
-        <v>0.225755</v>
+        <v>0.225452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.396887</v>
+        <v>0.397436</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.225536</v>
+        <v>0.228777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.412095</v>
+        <v>0.41292</v>
       </c>
       <c r="D6" t="n">
-        <v>0.389991</v>
+        <v>0.390264</v>
       </c>
       <c r="E6" t="n">
-        <v>0.226574</v>
+        <v>0.226413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.39512</v>
+        <v>0.394378</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.214511</v>
+        <v>0.216825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.404912</v>
+        <v>0.40564</v>
       </c>
       <c r="D7" t="n">
-        <v>0.390209</v>
+        <v>0.390508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.227486</v>
+        <v>0.226811</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3968</v>
+        <v>0.396093</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.201999</v>
+        <v>0.203267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.389743</v>
+        <v>0.389817</v>
       </c>
       <c r="D8" t="n">
-        <v>0.391753</v>
+        <v>0.39197</v>
       </c>
       <c r="E8" t="n">
-        <v>0.230797</v>
+        <v>0.22916</v>
       </c>
       <c r="F8" t="n">
-        <v>0.395348</v>
+        <v>0.398649</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.187288</v>
+        <v>0.189112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.371819</v>
+        <v>0.370795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.391164</v>
+        <v>0.390457</v>
       </c>
       <c r="E9" t="n">
-        <v>0.24902</v>
+        <v>0.248643</v>
       </c>
       <c r="F9" t="n">
-        <v>0.407127</v>
+        <v>0.406394</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.329374</v>
+        <v>0.331286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.501341</v>
+        <v>0.5010869999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.388503</v>
+        <v>0.389229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.249758</v>
+        <v>0.24834</v>
       </c>
       <c r="F10" t="n">
-        <v>0.406137</v>
+        <v>0.405758</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.322487</v>
+        <v>0.324671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.499694</v>
+        <v>0.499045</v>
       </c>
       <c r="D11" t="n">
-        <v>0.389544</v>
+        <v>0.390345</v>
       </c>
       <c r="E11" t="n">
-        <v>0.248323</v>
+        <v>0.248252</v>
       </c>
       <c r="F11" t="n">
-        <v>0.405664</v>
+        <v>0.405419</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.316203</v>
+        <v>0.31732</v>
       </c>
       <c r="C12" t="n">
-        <v>0.493454</v>
+        <v>0.492861</v>
       </c>
       <c r="D12" t="n">
-        <v>0.390818</v>
+        <v>0.390429</v>
       </c>
       <c r="E12" t="n">
-        <v>0.247678</v>
+        <v>0.247591</v>
       </c>
       <c r="F12" t="n">
-        <v>0.405655</v>
+        <v>0.404987</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.311493</v>
+        <v>0.312713</v>
       </c>
       <c r="C13" t="n">
-        <v>0.486283</v>
+        <v>0.486371</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391139</v>
+        <v>0.392182</v>
       </c>
       <c r="E13" t="n">
-        <v>0.247374</v>
+        <v>0.246511</v>
       </c>
       <c r="F13" t="n">
-        <v>0.404753</v>
+        <v>0.404555</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.30109</v>
+        <v>0.305252</v>
       </c>
       <c r="C14" t="n">
-        <v>0.478052</v>
+        <v>0.47779</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39248</v>
+        <v>0.391977</v>
       </c>
       <c r="E14" t="n">
-        <v>0.245836</v>
+        <v>0.245101</v>
       </c>
       <c r="F14" t="n">
-        <v>0.403353</v>
+        <v>0.403376</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.293143</v>
+        <v>0.296177</v>
       </c>
       <c r="C15" t="n">
-        <v>0.473998</v>
+        <v>0.472873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.393867</v>
+        <v>0.3946</v>
       </c>
       <c r="E15" t="n">
-        <v>0.245143</v>
+        <v>0.244758</v>
       </c>
       <c r="F15" t="n">
-        <v>0.40243</v>
+        <v>0.401942</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.285721</v>
+        <v>0.287502</v>
       </c>
       <c r="C16" t="n">
-        <v>0.456587</v>
+        <v>0.455824</v>
       </c>
       <c r="D16" t="n">
-        <v>0.394595</v>
+        <v>0.394723</v>
       </c>
       <c r="E16" t="n">
-        <v>0.244704</v>
+        <v>0.244575</v>
       </c>
       <c r="F16" t="n">
-        <v>0.401396</v>
+        <v>0.400833</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.27794</v>
+        <v>0.279697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.452849</v>
+        <v>0.452413</v>
       </c>
       <c r="D17" t="n">
-        <v>0.39599</v>
+        <v>0.396091</v>
       </c>
       <c r="E17" t="n">
-        <v>0.24458</v>
+        <v>0.244179</v>
       </c>
       <c r="F17" t="n">
-        <v>0.400734</v>
+        <v>0.400965</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.267052</v>
+        <v>0.269353</v>
       </c>
       <c r="C18" t="n">
-        <v>0.451868</v>
+        <v>0.450597</v>
       </c>
       <c r="D18" t="n">
-        <v>0.394112</v>
+        <v>0.394219</v>
       </c>
       <c r="E18" t="n">
-        <v>0.243974</v>
+        <v>0.243558</v>
       </c>
       <c r="F18" t="n">
-        <v>0.401802</v>
+        <v>0.400921</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257615</v>
+        <v>0.259322</v>
       </c>
       <c r="C19" t="n">
-        <v>0.437877</v>
+        <v>0.437044</v>
       </c>
       <c r="D19" t="n">
-        <v>0.395871</v>
+        <v>0.39534</v>
       </c>
       <c r="E19" t="n">
-        <v>0.244207</v>
+        <v>0.243429</v>
       </c>
       <c r="F19" t="n">
-        <v>0.401849</v>
+        <v>0.401379</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246579</v>
+        <v>0.247804</v>
       </c>
       <c r="C20" t="n">
-        <v>0.425016</v>
+        <v>0.426496</v>
       </c>
       <c r="D20" t="n">
-        <v>0.396171</v>
+        <v>0.39575</v>
       </c>
       <c r="E20" t="n">
-        <v>0.242851</v>
+        <v>0.242875</v>
       </c>
       <c r="F20" t="n">
-        <v>0.399833</v>
+        <v>0.399115</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.234956</v>
+        <v>0.235683</v>
       </c>
       <c r="C21" t="n">
-        <v>0.408354</v>
+        <v>0.40802</v>
       </c>
       <c r="D21" t="n">
-        <v>0.397038</v>
+        <v>0.39626</v>
       </c>
       <c r="E21" t="n">
-        <v>0.242186</v>
+        <v>0.242003</v>
       </c>
       <c r="F21" t="n">
-        <v>0.400952</v>
+        <v>0.398474</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22021</v>
+        <v>0.220605</v>
       </c>
       <c r="C22" t="n">
-        <v>0.397367</v>
+        <v>0.399581</v>
       </c>
       <c r="D22" t="n">
-        <v>0.396302</v>
+        <v>0.39582</v>
       </c>
       <c r="E22" t="n">
-        <v>0.242549</v>
+        <v>0.242331</v>
       </c>
       <c r="F22" t="n">
-        <v>0.399614</v>
+        <v>0.400805</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.204813</v>
+        <v>0.206361</v>
       </c>
       <c r="C23" t="n">
-        <v>0.378218</v>
+        <v>0.385332</v>
       </c>
       <c r="D23" t="n">
-        <v>0.39751</v>
+        <v>0.395843</v>
       </c>
       <c r="E23" t="n">
-        <v>0.258499</v>
+        <v>0.258494</v>
       </c>
       <c r="F23" t="n">
-        <v>0.41123</v>
+        <v>0.411118</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340205</v>
+        <v>0.340608</v>
       </c>
       <c r="C24" t="n">
-        <v>0.501936</v>
+        <v>0.5027470000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.396532</v>
+        <v>0.395361</v>
       </c>
       <c r="E24" t="n">
-        <v>0.255282</v>
+        <v>0.256411</v>
       </c>
       <c r="F24" t="n">
-        <v>0.410291</v>
+        <v>0.410349</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.334756</v>
+        <v>0.335001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.502455</v>
+        <v>0.502515</v>
       </c>
       <c r="D25" t="n">
-        <v>0.39684</v>
+        <v>0.397832</v>
       </c>
       <c r="E25" t="n">
-        <v>0.254686</v>
+        <v>0.25465</v>
       </c>
       <c r="F25" t="n">
-        <v>0.409799</v>
+        <v>0.409842</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.328728</v>
+        <v>0.329603</v>
       </c>
       <c r="C26" t="n">
-        <v>0.498128</v>
+        <v>0.497726</v>
       </c>
       <c r="D26" t="n">
-        <v>0.396111</v>
+        <v>0.396808</v>
       </c>
       <c r="E26" t="n">
-        <v>0.253352</v>
+        <v>0.253081</v>
       </c>
       <c r="F26" t="n">
-        <v>0.409203</v>
+        <v>0.409076</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.32135</v>
+        <v>0.32273</v>
       </c>
       <c r="C27" t="n">
-        <v>0.48221</v>
+        <v>0.482477</v>
       </c>
       <c r="D27" t="n">
-        <v>0.396769</v>
+        <v>0.395992</v>
       </c>
       <c r="E27" t="n">
-        <v>0.252002</v>
+        <v>0.251926</v>
       </c>
       <c r="F27" t="n">
-        <v>0.407699</v>
+        <v>0.407951</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.314309</v>
+        <v>0.314548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.480617</v>
+        <v>0.480604</v>
       </c>
       <c r="D28" t="n">
-        <v>0.396236</v>
+        <v>0.395907</v>
       </c>
       <c r="E28" t="n">
-        <v>0.251273</v>
+        <v>0.250969</v>
       </c>
       <c r="F28" t="n">
-        <v>0.406643</v>
+        <v>0.406382</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.304073</v>
+        <v>0.306565</v>
       </c>
       <c r="C29" t="n">
-        <v>0.479837</v>
+        <v>0.480053</v>
       </c>
       <c r="D29" t="n">
-        <v>0.396932</v>
+        <v>0.396516</v>
       </c>
       <c r="E29" t="n">
-        <v>0.250178</v>
+        <v>0.249815</v>
       </c>
       <c r="F29" t="n">
-        <v>0.405429</v>
+        <v>0.40545</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.295704</v>
+        <v>0.297762</v>
       </c>
       <c r="C30" t="n">
-        <v>0.465726</v>
+        <v>0.465509</v>
       </c>
       <c r="D30" t="n">
-        <v>0.398081</v>
+        <v>0.397469</v>
       </c>
       <c r="E30" t="n">
-        <v>0.249082</v>
+        <v>0.248971</v>
       </c>
       <c r="F30" t="n">
-        <v>0.404909</v>
+        <v>0.405202</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.288507</v>
+        <v>0.289022</v>
       </c>
       <c r="C31" t="n">
-        <v>0.44992</v>
+        <v>0.450688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.399086</v>
+        <v>0.398507</v>
       </c>
       <c r="E31" t="n">
-        <v>0.248035</v>
+        <v>0.248027</v>
       </c>
       <c r="F31" t="n">
-        <v>0.40412</v>
+        <v>0.404018</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279261</v>
+        <v>0.279608</v>
       </c>
       <c r="C32" t="n">
-        <v>0.454975</v>
+        <v>0.454628</v>
       </c>
       <c r="D32" t="n">
-        <v>0.398716</v>
+        <v>0.398548</v>
       </c>
       <c r="E32" t="n">
-        <v>0.247979</v>
+        <v>0.24771</v>
       </c>
       <c r="F32" t="n">
-        <v>0.403331</v>
+        <v>0.402679</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.26875</v>
+        <v>0.268815</v>
       </c>
       <c r="C33" t="n">
-        <v>0.438287</v>
+        <v>0.437749</v>
       </c>
       <c r="D33" t="n">
-        <v>0.399241</v>
+        <v>0.399122</v>
       </c>
       <c r="E33" t="n">
-        <v>0.246784</v>
+        <v>0.246668</v>
       </c>
       <c r="F33" t="n">
-        <v>0.402437</v>
+        <v>0.402493</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25713</v>
+        <v>0.257173</v>
       </c>
       <c r="C34" t="n">
-        <v>0.423423</v>
+        <v>0.423617</v>
       </c>
       <c r="D34" t="n">
-        <v>0.400618</v>
+        <v>0.39877</v>
       </c>
       <c r="E34" t="n">
-        <v>0.246133</v>
+        <v>0.246041</v>
       </c>
       <c r="F34" t="n">
-        <v>0.401861</v>
+        <v>0.40169</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.243946</v>
+        <v>0.243839</v>
       </c>
       <c r="C35" t="n">
-        <v>0.407744</v>
+        <v>0.407895</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401545</v>
+        <v>0.401766</v>
       </c>
       <c r="E35" t="n">
-        <v>0.245061</v>
+        <v>0.244294</v>
       </c>
       <c r="F35" t="n">
-        <v>0.401478</v>
+        <v>0.401427</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229784</v>
+        <v>0.230243</v>
       </c>
       <c r="C36" t="n">
-        <v>0.396192</v>
+        <v>0.396205</v>
       </c>
       <c r="D36" t="n">
-        <v>0.401358</v>
+        <v>0.401891</v>
       </c>
       <c r="E36" t="n">
-        <v>0.244169</v>
+        <v>0.243992</v>
       </c>
       <c r="F36" t="n">
-        <v>0.401443</v>
+        <v>0.401094</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213463</v>
+        <v>0.213609</v>
       </c>
       <c r="C37" t="n">
-        <v>0.395